--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,18 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['2', '15', '40']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['45+7']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -614,9 +626,6 @@
   </si>
   <si>
     <t>['39']</t>
-  </si>
-  <si>
-    <t>['1']</t>
   </si>
   <si>
     <t>['3']</t>
@@ -706,9 +715,6 @@
     <t>['32', '58', '90+5']</t>
   </si>
   <si>
-    <t>['45+7']</t>
-  </si>
-  <si>
     <t>['76', '90+6']</t>
   </si>
   <si>
@@ -761,6 +767,9 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1375,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1647,7 +1656,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1748,7 +1757,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2026,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT5">
         <v>0.71</v>
@@ -2130,7 +2139,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2217,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2321,7 +2330,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2408,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT7">
         <v>1.38</v>
@@ -2599,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT8">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2790,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT9">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3172,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1.13</v>
@@ -3467,7 +3476,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3554,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT13">
         <v>1.88</v>
@@ -3748,7 +3757,7 @@
         <v>0.89</v>
       </c>
       <c r="AT14">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4231,7 +4240,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4321,7 +4330,7 @@
         <v>1.25</v>
       </c>
       <c r="AT17">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4613,7 +4622,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4891,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT20">
         <v>0.63</v>
@@ -5276,7 +5285,7 @@
         <v>2.38</v>
       </c>
       <c r="AT22">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU22">
         <v>1.42</v>
@@ -5377,7 +5386,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5464,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT23">
         <v>1.25</v>
@@ -5759,7 +5768,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -5950,7 +5959,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6231,7 +6240,7 @@
         <v>1.75</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU27">
         <v>2.12</v>
@@ -6332,7 +6341,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6422,7 +6431,7 @@
         <v>0.63</v>
       </c>
       <c r="AT28">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU28">
         <v>0.93</v>
@@ -6801,7 +6810,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT30">
         <v>1.88</v>
@@ -6992,7 +7001,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT31">
         <v>1.38</v>
@@ -7374,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>0.71</v>
@@ -7568,7 +7577,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU34">
         <v>0.72</v>
@@ -7669,7 +7678,7 @@
         <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7756,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT35">
         <v>2</v>
@@ -7947,10 +7956,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU36">
         <v>1.56</v>
@@ -8051,7 +8060,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8141,7 +8150,7 @@
         <v>0.75</v>
       </c>
       <c r="AT37">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU37">
         <v>2.28</v>
@@ -8242,7 +8251,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8520,10 +8529,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT39">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU39">
         <v>1.29</v>
@@ -8624,7 +8633,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8902,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT41">
         <v>1.44</v>
@@ -9006,7 +9015,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9093,10 +9102,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT42">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU42">
         <v>1.49</v>
@@ -9197,7 +9206,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9478,7 +9487,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU44">
         <v>1.45</v>
@@ -9666,10 +9675,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT45">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU45">
         <v>1.72</v>
@@ -9860,7 +9869,7 @@
         <v>2.78</v>
       </c>
       <c r="AT46">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -9961,7 +9970,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10048,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>0.44</v>
@@ -10152,7 +10161,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10343,7 +10352,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10433,7 +10442,7 @@
         <v>2.78</v>
       </c>
       <c r="AT49">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU49">
         <v>1.58</v>
@@ -10725,7 +10734,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10916,7 +10925,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11003,7 +11012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT52">
         <v>1.25</v>
@@ -11579,7 +11588,7 @@
         <v>1.25</v>
       </c>
       <c r="AT55">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -11767,7 +11776,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -11871,7 +11880,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12062,7 +12071,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12253,7 +12262,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12343,7 +12352,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU59">
         <v>1.3</v>
@@ -12444,7 +12453,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -12722,7 +12731,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT61">
         <v>1.44</v>
@@ -12913,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT62">
         <v>0.63</v>
@@ -13208,7 +13217,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13486,10 +13495,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU65">
         <v>1.61</v>
@@ -13590,7 +13599,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13781,7 +13790,7 @@
         <v>117</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13868,10 +13877,10 @@
         <v>1.33</v>
       </c>
       <c r="AS67">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT67">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU67">
         <v>1.51</v>
@@ -14059,10 +14068,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT68">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU68">
         <v>1.83</v>
@@ -14163,7 +14172,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14253,7 +14262,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU69">
         <v>1.55</v>
@@ -14635,7 +14644,7 @@
         <v>0.63</v>
       </c>
       <c r="AT71">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU71">
         <v>1.49</v>
@@ -15205,7 +15214,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT74">
         <v>1</v>
@@ -15399,7 +15408,7 @@
         <v>2.5</v>
       </c>
       <c r="AT75">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU75">
         <v>2.16</v>
@@ -15500,7 +15509,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15587,10 +15596,10 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT76">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU76">
         <v>1.52</v>
@@ -15691,7 +15700,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15969,7 +15978,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16160,10 +16169,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU79">
         <v>1.81</v>
@@ -16264,7 +16273,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16455,7 +16464,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16646,7 +16655,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16924,7 +16933,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT83">
         <v>1.38</v>
@@ -17115,10 +17124,10 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT84">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU84">
         <v>1.75</v>
@@ -17306,7 +17315,7 @@
         <v>1.67</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT85">
         <v>1.88</v>
@@ -17410,7 +17419,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17601,7 +17610,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17691,7 +17700,7 @@
         <v>2.78</v>
       </c>
       <c r="AT87">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU87">
         <v>1.65</v>
@@ -17792,7 +17801,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>10</v>
@@ -17882,7 +17891,7 @@
         <v>0.89</v>
       </c>
       <c r="AT88">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU88">
         <v>2.06</v>
@@ -17983,7 +17992,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18455,7 +18464,7 @@
         <v>1.63</v>
       </c>
       <c r="AT91">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU91">
         <v>1.57</v>
@@ -18646,7 +18655,7 @@
         <v>2.14</v>
       </c>
       <c r="AT92">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU92">
         <v>1.75</v>
@@ -18834,7 +18843,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -18938,7 +18947,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19025,7 +19034,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT94">
         <v>0.63</v>
@@ -19216,7 +19225,7 @@
         <v>0.5</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT95">
         <v>1</v>
@@ -19320,7 +19329,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19893,7 +19902,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19980,10 +19989,10 @@
         <v>0.67</v>
       </c>
       <c r="AS99">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT99">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU99">
         <v>1.59</v>
@@ -20084,7 +20093,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20365,7 +20374,7 @@
         <v>1.11</v>
       </c>
       <c r="AT101">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU101">
         <v>1.6</v>
@@ -20553,10 +20562,10 @@
         <v>0.2</v>
       </c>
       <c r="AS102">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT102">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU102">
         <v>1.75</v>
@@ -20657,7 +20666,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20744,10 +20753,10 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT103">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -20848,7 +20857,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20938,7 +20947,7 @@
         <v>1.63</v>
       </c>
       <c r="AT104">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU104">
         <v>1.56</v>
@@ -21317,7 +21326,7 @@
         <v>0.6</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT106">
         <v>0.44</v>
@@ -21511,7 +21520,7 @@
         <v>1.75</v>
       </c>
       <c r="AT107">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU107">
         <v>2</v>
@@ -21890,7 +21899,7 @@
         <v>1.2</v>
       </c>
       <c r="AS109">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT109">
         <v>1.44</v>
@@ -22275,7 +22284,7 @@
         <v>2.5</v>
       </c>
       <c r="AT111">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU111">
         <v>1.88</v>
@@ -22758,7 +22767,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -22949,7 +22958,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23036,10 +23045,10 @@
         <v>1.25</v>
       </c>
       <c r="AS115">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT115">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU115">
         <v>1.72</v>
@@ -23140,7 +23149,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23227,7 +23236,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT116">
         <v>1.25</v>
@@ -23713,7 +23722,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23800,10 +23809,10 @@
         <v>0.2</v>
       </c>
       <c r="AS119">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT119">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU119">
         <v>1.64</v>
@@ -23994,7 +24003,7 @@
         <v>2.78</v>
       </c>
       <c r="AT120">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24095,7 +24104,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24185,7 +24194,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU121">
         <v>1.49</v>
@@ -24564,7 +24573,7 @@
         <v>0.4</v>
       </c>
       <c r="AS123">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT123">
         <v>1</v>
@@ -24668,7 +24677,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24758,7 +24767,7 @@
         <v>1.63</v>
       </c>
       <c r="AT124">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU124">
         <v>1.49</v>
@@ -25241,7 +25250,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25432,7 +25441,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25519,10 +25528,10 @@
         <v>0.33</v>
       </c>
       <c r="AS128">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT128">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU128">
         <v>1.68</v>
@@ -25623,7 +25632,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25710,10 +25719,10 @@
         <v>2.17</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT129">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU129">
         <v>1.86</v>
@@ -26005,7 +26014,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26095,7 +26104,7 @@
         <v>1.11</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU131">
         <v>1.54</v>
@@ -26283,7 +26292,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT132">
         <v>1.13</v>
@@ -26668,7 +26677,7 @@
         <v>2.5</v>
       </c>
       <c r="AT134">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU134">
         <v>1.98</v>
@@ -26960,7 +26969,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27151,7 +27160,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27342,7 +27351,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27533,7 +27542,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27724,7 +27733,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27811,7 +27820,7 @@
         <v>1.29</v>
       </c>
       <c r="AS140">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT140">
         <v>1.44</v>
@@ -27915,7 +27924,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28193,10 +28202,10 @@
         <v>1.86</v>
       </c>
       <c r="AS142">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT142">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU142">
         <v>1.84</v>
@@ -28297,7 +28306,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28384,7 +28393,7 @@
         <v>1.5</v>
       </c>
       <c r="AS143">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT143">
         <v>1.88</v>
@@ -28488,7 +28497,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28578,7 +28587,7 @@
         <v>0.75</v>
       </c>
       <c r="AT144">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -28679,7 +28688,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28957,7 +28966,7 @@
         <v>1.86</v>
       </c>
       <c r="AS146">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT146">
         <v>1.44</v>
@@ -29151,7 +29160,7 @@
         <v>2.78</v>
       </c>
       <c r="AT147">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU147">
         <v>1.64</v>
@@ -29339,7 +29348,7 @@
         <v>2.29</v>
       </c>
       <c r="AS148">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT148">
         <v>2</v>
@@ -29530,10 +29539,10 @@
         <v>0.57</v>
       </c>
       <c r="AS149">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT149">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU149">
         <v>1.83</v>
@@ -29724,7 +29733,7 @@
         <v>1.63</v>
       </c>
       <c r="AT150">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU150">
         <v>1.54</v>
@@ -29915,7 +29924,7 @@
         <v>1.5</v>
       </c>
       <c r="AT151">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU151">
         <v>1.5</v>
@@ -30016,7 +30025,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30398,7 +30407,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30971,7 +30980,7 @@
         <v>100</v>
       </c>
       <c r="P157" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31877,6 +31886,1343 @@
       </c>
       <c r="BK161">
         <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>5414545</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45120.83333333334</v>
+      </c>
+      <c r="F162">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>71</v>
+      </c>
+      <c r="H162" t="s">
+        <v>65</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>143</v>
+      </c>
+      <c r="P162" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q162">
+        <v>4</v>
+      </c>
+      <c r="R162">
+        <v>4</v>
+      </c>
+      <c r="S162">
+        <v>8</v>
+      </c>
+      <c r="T162">
+        <v>2.62</v>
+      </c>
+      <c r="U162">
+        <v>1.94</v>
+      </c>
+      <c r="V162">
+        <v>5.33</v>
+      </c>
+      <c r="W162">
+        <v>1.54</v>
+      </c>
+      <c r="X162">
+        <v>2.34</v>
+      </c>
+      <c r="Y162">
+        <v>3.6</v>
+      </c>
+      <c r="Z162">
+        <v>1.25</v>
+      </c>
+      <c r="AA162">
+        <v>9.85</v>
+      </c>
+      <c r="AB162">
+        <v>1.03</v>
+      </c>
+      <c r="AC162">
+        <v>2.15</v>
+      </c>
+      <c r="AD162">
+        <v>3.24</v>
+      </c>
+      <c r="AE162">
+        <v>3.56</v>
+      </c>
+      <c r="AF162">
+        <v>1.09</v>
+      </c>
+      <c r="AG162">
+        <v>7</v>
+      </c>
+      <c r="AH162">
+        <v>1.47</v>
+      </c>
+      <c r="AI162">
+        <v>2.55</v>
+      </c>
+      <c r="AJ162">
+        <v>2.55</v>
+      </c>
+      <c r="AK162">
+        <v>1.45</v>
+      </c>
+      <c r="AL162">
+        <v>2.23</v>
+      </c>
+      <c r="AM162">
+        <v>1.62</v>
+      </c>
+      <c r="AN162">
+        <v>1.21</v>
+      </c>
+      <c r="AO162">
+        <v>1.33</v>
+      </c>
+      <c r="AP162">
+        <v>1.87</v>
+      </c>
+      <c r="AQ162">
+        <v>2.25</v>
+      </c>
+      <c r="AR162">
+        <v>0.75</v>
+      </c>
+      <c r="AS162">
+        <v>2.11</v>
+      </c>
+      <c r="AT162">
+        <v>0.78</v>
+      </c>
+      <c r="AU162">
+        <v>1.81</v>
+      </c>
+      <c r="AV162">
+        <v>1.32</v>
+      </c>
+      <c r="AW162">
+        <v>3.13</v>
+      </c>
+      <c r="AX162">
+        <v>1.48</v>
+      </c>
+      <c r="AY162">
+        <v>8</v>
+      </c>
+      <c r="AZ162">
+        <v>3.4</v>
+      </c>
+      <c r="BA162">
+        <v>1.14</v>
+      </c>
+      <c r="BB162">
+        <v>1.25</v>
+      </c>
+      <c r="BC162">
+        <v>1.52</v>
+      </c>
+      <c r="BD162">
+        <v>1.83</v>
+      </c>
+      <c r="BE162">
+        <v>2.22</v>
+      </c>
+      <c r="BF162">
+        <v>8</v>
+      </c>
+      <c r="BG162">
+        <v>3</v>
+      </c>
+      <c r="BH162">
+        <v>9</v>
+      </c>
+      <c r="BI162">
+        <v>4</v>
+      </c>
+      <c r="BJ162">
+        <v>17</v>
+      </c>
+      <c r="BK162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5414549</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45121.89583333334</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>69</v>
+      </c>
+      <c r="H163" t="s">
+        <v>66</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>100</v>
+      </c>
+      <c r="P163" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q163">
+        <v>4</v>
+      </c>
+      <c r="R163">
+        <v>4</v>
+      </c>
+      <c r="S163">
+        <v>8</v>
+      </c>
+      <c r="T163">
+        <v>2.65</v>
+      </c>
+      <c r="U163">
+        <v>1.9</v>
+      </c>
+      <c r="V163">
+        <v>4.5</v>
+      </c>
+      <c r="W163">
+        <v>1.53</v>
+      </c>
+      <c r="X163">
+        <v>2.3</v>
+      </c>
+      <c r="Y163">
+        <v>3.5</v>
+      </c>
+      <c r="Z163">
+        <v>1.26</v>
+      </c>
+      <c r="AA163">
+        <v>10</v>
+      </c>
+      <c r="AB163">
+        <v>1.05</v>
+      </c>
+      <c r="AC163">
+        <v>2.16</v>
+      </c>
+      <c r="AD163">
+        <v>3.15</v>
+      </c>
+      <c r="AE163">
+        <v>3.1</v>
+      </c>
+      <c r="AF163">
+        <v>1.11</v>
+      </c>
+      <c r="AG163">
+        <v>6</v>
+      </c>
+      <c r="AH163">
+        <v>1.48</v>
+      </c>
+      <c r="AI163">
+        <v>2.45</v>
+      </c>
+      <c r="AJ163">
+        <v>2.27</v>
+      </c>
+      <c r="AK163">
+        <v>1.52</v>
+      </c>
+      <c r="AL163">
+        <v>2.15</v>
+      </c>
+      <c r="AM163">
+        <v>1.61</v>
+      </c>
+      <c r="AN163">
+        <v>1.22</v>
+      </c>
+      <c r="AO163">
+        <v>1.35</v>
+      </c>
+      <c r="AP163">
+        <v>1.8</v>
+      </c>
+      <c r="AQ163">
+        <v>1.5</v>
+      </c>
+      <c r="AR163">
+        <v>0.88</v>
+      </c>
+      <c r="AS163">
+        <v>1.44</v>
+      </c>
+      <c r="AT163">
+        <v>0.89</v>
+      </c>
+      <c r="AU163">
+        <v>1.85</v>
+      </c>
+      <c r="AV163">
+        <v>1.3</v>
+      </c>
+      <c r="AW163">
+        <v>3.15</v>
+      </c>
+      <c r="AX163">
+        <v>1.43</v>
+      </c>
+      <c r="AY163">
+        <v>7.5</v>
+      </c>
+      <c r="AZ163">
+        <v>3.75</v>
+      </c>
+      <c r="BA163">
+        <v>1.19</v>
+      </c>
+      <c r="BB163">
+        <v>1.44</v>
+      </c>
+      <c r="BC163">
+        <v>1.76</v>
+      </c>
+      <c r="BD163">
+        <v>2.15</v>
+      </c>
+      <c r="BE163">
+        <v>2.63</v>
+      </c>
+      <c r="BF163">
+        <v>5</v>
+      </c>
+      <c r="BG163">
+        <v>4</v>
+      </c>
+      <c r="BH163">
+        <v>5</v>
+      </c>
+      <c r="BI163">
+        <v>5</v>
+      </c>
+      <c r="BJ163">
+        <v>10</v>
+      </c>
+      <c r="BK163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5414544</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45121.89583333334</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>74</v>
+      </c>
+      <c r="H164" t="s">
+        <v>84</v>
+      </c>
+      <c r="I164">
+        <v>3</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>4</v>
+      </c>
+      <c r="L164">
+        <v>3</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164" t="s">
+        <v>185</v>
+      </c>
+      <c r="P164" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q164">
+        <v>4</v>
+      </c>
+      <c r="R164">
+        <v>8</v>
+      </c>
+      <c r="S164">
+        <v>12</v>
+      </c>
+      <c r="T164">
+        <v>3.2</v>
+      </c>
+      <c r="U164">
+        <v>1.9</v>
+      </c>
+      <c r="V164">
+        <v>3.5</v>
+      </c>
+      <c r="W164">
+        <v>1.51</v>
+      </c>
+      <c r="X164">
+        <v>2.35</v>
+      </c>
+      <c r="Y164">
+        <v>3.3</v>
+      </c>
+      <c r="Z164">
+        <v>1.28</v>
+      </c>
+      <c r="AA164">
+        <v>9.5</v>
+      </c>
+      <c r="AB164">
+        <v>1.05</v>
+      </c>
+      <c r="AC164">
+        <v>2.5</v>
+      </c>
+      <c r="AD164">
+        <v>2.79</v>
+      </c>
+      <c r="AE164">
+        <v>2.93</v>
+      </c>
+      <c r="AF164">
+        <v>1.1</v>
+      </c>
+      <c r="AG164">
+        <v>6.5</v>
+      </c>
+      <c r="AH164">
+        <v>1.51</v>
+      </c>
+      <c r="AI164">
+        <v>2.4</v>
+      </c>
+      <c r="AJ164">
+        <v>2.31</v>
+      </c>
+      <c r="AK164">
+        <v>1.5</v>
+      </c>
+      <c r="AL164">
+        <v>1.98</v>
+      </c>
+      <c r="AM164">
+        <v>1.71</v>
+      </c>
+      <c r="AN164">
+        <v>1.39</v>
+      </c>
+      <c r="AO164">
+        <v>1.36</v>
+      </c>
+      <c r="AP164">
+        <v>1.5</v>
+      </c>
+      <c r="AQ164">
+        <v>1.88</v>
+      </c>
+      <c r="AR164">
+        <v>1</v>
+      </c>
+      <c r="AS164">
+        <v>2</v>
+      </c>
+      <c r="AT164">
+        <v>0.88</v>
+      </c>
+      <c r="AU164">
+        <v>1.78</v>
+      </c>
+      <c r="AV164">
+        <v>1.25</v>
+      </c>
+      <c r="AW164">
+        <v>3.03</v>
+      </c>
+      <c r="AX164">
+        <v>1.7</v>
+      </c>
+      <c r="AY164">
+        <v>7.5</v>
+      </c>
+      <c r="AZ164">
+        <v>2.63</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>1.19</v>
+      </c>
+      <c r="BC164">
+        <v>1.32</v>
+      </c>
+      <c r="BD164">
+        <v>1.65</v>
+      </c>
+      <c r="BE164">
+        <v>1.99</v>
+      </c>
+      <c r="BF164">
+        <v>6</v>
+      </c>
+      <c r="BG164">
+        <v>7</v>
+      </c>
+      <c r="BH164">
+        <v>6</v>
+      </c>
+      <c r="BI164">
+        <v>3</v>
+      </c>
+      <c r="BJ164">
+        <v>12</v>
+      </c>
+      <c r="BK164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5414550</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45122.45833333334</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>70</v>
+      </c>
+      <c r="H165" t="s">
+        <v>82</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>186</v>
+      </c>
+      <c r="P165" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q165">
+        <v>4</v>
+      </c>
+      <c r="R165">
+        <v>1</v>
+      </c>
+      <c r="S165">
+        <v>5</v>
+      </c>
+      <c r="T165">
+        <v>2.1</v>
+      </c>
+      <c r="U165">
+        <v>2.05</v>
+      </c>
+      <c r="V165">
+        <v>6</v>
+      </c>
+      <c r="W165">
+        <v>1.47</v>
+      </c>
+      <c r="X165">
+        <v>2.5</v>
+      </c>
+      <c r="Y165">
+        <v>3.25</v>
+      </c>
+      <c r="Z165">
+        <v>1.3</v>
+      </c>
+      <c r="AA165">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB165">
+        <v>1.04</v>
+      </c>
+      <c r="AC165">
+        <v>1.53</v>
+      </c>
+      <c r="AD165">
+        <v>3.75</v>
+      </c>
+      <c r="AE165">
+        <v>6.6</v>
+      </c>
+      <c r="AF165">
+        <v>1.08</v>
+      </c>
+      <c r="AG165">
+        <v>7</v>
+      </c>
+      <c r="AH165">
+        <v>1.4</v>
+      </c>
+      <c r="AI165">
+        <v>2.85</v>
+      </c>
+      <c r="AJ165">
+        <v>2.23</v>
+      </c>
+      <c r="AK165">
+        <v>1.58</v>
+      </c>
+      <c r="AL165">
+        <v>2.3</v>
+      </c>
+      <c r="AM165">
+        <v>1.53</v>
+      </c>
+      <c r="AN165">
+        <v>1.07</v>
+      </c>
+      <c r="AO165">
+        <v>1.2</v>
+      </c>
+      <c r="AP165">
+        <v>2.2</v>
+      </c>
+      <c r="AQ165">
+        <v>1.71</v>
+      </c>
+      <c r="AR165">
+        <v>0.63</v>
+      </c>
+      <c r="AS165">
+        <v>1.63</v>
+      </c>
+      <c r="AT165">
+        <v>0.67</v>
+      </c>
+      <c r="AU165">
+        <v>1.68</v>
+      </c>
+      <c r="AV165">
+        <v>1.06</v>
+      </c>
+      <c r="AW165">
+        <v>2.74</v>
+      </c>
+      <c r="AX165">
+        <v>1.38</v>
+      </c>
+      <c r="AY165">
+        <v>8</v>
+      </c>
+      <c r="AZ165">
+        <v>4</v>
+      </c>
+      <c r="BA165">
+        <v>1.23</v>
+      </c>
+      <c r="BB165">
+        <v>1.44</v>
+      </c>
+      <c r="BC165">
+        <v>1.76</v>
+      </c>
+      <c r="BD165">
+        <v>2.16</v>
+      </c>
+      <c r="BE165">
+        <v>2.63</v>
+      </c>
+      <c r="BF165">
+        <v>5</v>
+      </c>
+      <c r="BG165">
+        <v>4</v>
+      </c>
+      <c r="BH165">
+        <v>12</v>
+      </c>
+      <c r="BI165">
+        <v>0</v>
+      </c>
+      <c r="BJ165">
+        <v>17</v>
+      </c>
+      <c r="BK165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5414543</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45122.70833333334</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>76</v>
+      </c>
+      <c r="H166" t="s">
+        <v>77</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>100</v>
+      </c>
+      <c r="P166" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q166">
+        <v>11</v>
+      </c>
+      <c r="R166">
+        <v>3</v>
+      </c>
+      <c r="S166">
+        <v>14</v>
+      </c>
+      <c r="T166">
+        <v>2.65</v>
+      </c>
+      <c r="U166">
+        <v>1.95</v>
+      </c>
+      <c r="V166">
+        <v>4.2</v>
+      </c>
+      <c r="W166">
+        <v>1.49</v>
+      </c>
+      <c r="X166">
+        <v>2.4</v>
+      </c>
+      <c r="Y166">
+        <v>3.3</v>
+      </c>
+      <c r="Z166">
+        <v>1.29</v>
+      </c>
+      <c r="AA166">
+        <v>9.25</v>
+      </c>
+      <c r="AB166">
+        <v>1.05</v>
+      </c>
+      <c r="AC166">
+        <v>2.1</v>
+      </c>
+      <c r="AD166">
+        <v>3</v>
+      </c>
+      <c r="AE166">
+        <v>3.7</v>
+      </c>
+      <c r="AF166">
+        <v>1.1</v>
+      </c>
+      <c r="AG166">
+        <v>6.5</v>
+      </c>
+      <c r="AH166">
+        <v>1.42</v>
+      </c>
+      <c r="AI166">
+        <v>2.7</v>
+      </c>
+      <c r="AJ166">
+        <v>2.19</v>
+      </c>
+      <c r="AK166">
+        <v>1.6</v>
+      </c>
+      <c r="AL166">
+        <v>2.05</v>
+      </c>
+      <c r="AM166">
+        <v>1.66</v>
+      </c>
+      <c r="AN166">
+        <v>1.25</v>
+      </c>
+      <c r="AO166">
+        <v>1.32</v>
+      </c>
+      <c r="AP166">
+        <v>1.75</v>
+      </c>
+      <c r="AQ166">
+        <v>1.63</v>
+      </c>
+      <c r="AR166">
+        <v>0.57</v>
+      </c>
+      <c r="AS166">
+        <v>1.44</v>
+      </c>
+      <c r="AT166">
+        <v>0.88</v>
+      </c>
+      <c r="AU166">
+        <v>1.63</v>
+      </c>
+      <c r="AV166">
+        <v>1.46</v>
+      </c>
+      <c r="AW166">
+        <v>3.09</v>
+      </c>
+      <c r="AX166">
+        <v>1.55</v>
+      </c>
+      <c r="AY166">
+        <v>7.5</v>
+      </c>
+      <c r="AZ166">
+        <v>3.1</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>1.23</v>
+      </c>
+      <c r="BC166">
+        <v>1.43</v>
+      </c>
+      <c r="BD166">
+        <v>1.72</v>
+      </c>
+      <c r="BE166">
+        <v>2.07</v>
+      </c>
+      <c r="BF166">
+        <v>4</v>
+      </c>
+      <c r="BG166">
+        <v>7</v>
+      </c>
+      <c r="BH166">
+        <v>7</v>
+      </c>
+      <c r="BI166">
+        <v>5</v>
+      </c>
+      <c r="BJ166">
+        <v>11</v>
+      </c>
+      <c r="BK166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>5414551</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45122.70833333334</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>72</v>
+      </c>
+      <c r="H167" t="s">
+        <v>67</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>187</v>
+      </c>
+      <c r="P167" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q167">
+        <v>2</v>
+      </c>
+      <c r="R167">
+        <v>4</v>
+      </c>
+      <c r="S167">
+        <v>6</v>
+      </c>
+      <c r="T167">
+        <v>4.1</v>
+      </c>
+      <c r="U167">
+        <v>1.93</v>
+      </c>
+      <c r="V167">
+        <v>2.8</v>
+      </c>
+      <c r="W167">
+        <v>1.52</v>
+      </c>
+      <c r="X167">
+        <v>2.35</v>
+      </c>
+      <c r="Y167">
+        <v>3.5</v>
+      </c>
+      <c r="Z167">
+        <v>1.26</v>
+      </c>
+      <c r="AA167">
+        <v>10</v>
+      </c>
+      <c r="AB167">
+        <v>1.05</v>
+      </c>
+      <c r="AC167">
+        <v>3.25</v>
+      </c>
+      <c r="AD167">
+        <v>3.25</v>
+      </c>
+      <c r="AE167">
+        <v>2.2</v>
+      </c>
+      <c r="AF167">
+        <v>1.09</v>
+      </c>
+      <c r="AG167">
+        <v>7</v>
+      </c>
+      <c r="AH167">
+        <v>1.51</v>
+      </c>
+      <c r="AI167">
+        <v>2.4</v>
+      </c>
+      <c r="AJ167">
+        <v>2.36</v>
+      </c>
+      <c r="AK167">
+        <v>1.52</v>
+      </c>
+      <c r="AL167">
+        <v>2.1</v>
+      </c>
+      <c r="AM167">
+        <v>1.63</v>
+      </c>
+      <c r="AN167">
+        <v>1.68</v>
+      </c>
+      <c r="AO167">
+        <v>1.34</v>
+      </c>
+      <c r="AP167">
+        <v>1.28</v>
+      </c>
+      <c r="AQ167">
+        <v>1</v>
+      </c>
+      <c r="AR167">
+        <v>1.75</v>
+      </c>
+      <c r="AS167">
+        <v>1.25</v>
+      </c>
+      <c r="AT167">
+        <v>1.56</v>
+      </c>
+      <c r="AU167">
+        <v>1.3</v>
+      </c>
+      <c r="AV167">
+        <v>1.69</v>
+      </c>
+      <c r="AW167">
+        <v>2.99</v>
+      </c>
+      <c r="AX167">
+        <v>2.05</v>
+      </c>
+      <c r="AY167">
+        <v>7.5</v>
+      </c>
+      <c r="AZ167">
+        <v>2.1</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>1.24</v>
+      </c>
+      <c r="BC167">
+        <v>1.48</v>
+      </c>
+      <c r="BD167">
+        <v>1.79</v>
+      </c>
+      <c r="BE167">
+        <v>2.18</v>
+      </c>
+      <c r="BF167">
+        <v>2</v>
+      </c>
+      <c r="BG167">
+        <v>8</v>
+      </c>
+      <c r="BH167">
+        <v>1</v>
+      </c>
+      <c r="BI167">
+        <v>11</v>
+      </c>
+      <c r="BJ167">
+        <v>3</v>
+      </c>
+      <c r="BK167">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5414547</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45123.64583333334</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>68</v>
+      </c>
+      <c r="H168" t="s">
+        <v>80</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>188</v>
+      </c>
+      <c r="P168" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q168">
+        <v>6</v>
+      </c>
+      <c r="R168">
+        <v>3</v>
+      </c>
+      <c r="S168">
+        <v>9</v>
+      </c>
+      <c r="T168">
+        <v>2.63</v>
+      </c>
+      <c r="U168">
+        <v>1.95</v>
+      </c>
+      <c r="V168">
+        <v>4.5</v>
+      </c>
+      <c r="W168">
+        <v>1.53</v>
+      </c>
+      <c r="X168">
+        <v>2.38</v>
+      </c>
+      <c r="Y168">
+        <v>3.5</v>
+      </c>
+      <c r="Z168">
+        <v>1.29</v>
+      </c>
+      <c r="AA168">
+        <v>8.5</v>
+      </c>
+      <c r="AB168">
+        <v>1.05</v>
+      </c>
+      <c r="AC168">
+        <v>2.05</v>
+      </c>
+      <c r="AD168">
+        <v>3.25</v>
+      </c>
+      <c r="AE168">
+        <v>3.6</v>
+      </c>
+      <c r="AF168">
+        <v>1.1</v>
+      </c>
+      <c r="AG168">
+        <v>6.5</v>
+      </c>
+      <c r="AH168">
+        <v>1.44</v>
+      </c>
+      <c r="AI168">
+        <v>2.62</v>
+      </c>
+      <c r="AJ168">
+        <v>2.25</v>
+      </c>
+      <c r="AK168">
+        <v>1.57</v>
+      </c>
+      <c r="AL168">
+        <v>2.2</v>
+      </c>
+      <c r="AM168">
+        <v>1.62</v>
+      </c>
+      <c r="AN168">
+        <v>1.24</v>
+      </c>
+      <c r="AO168">
+        <v>1.28</v>
+      </c>
+      <c r="AP168">
+        <v>1.78</v>
+      </c>
+      <c r="AQ168">
+        <v>2</v>
+      </c>
+      <c r="AR168">
+        <v>1.75</v>
+      </c>
+      <c r="AS168">
+        <v>1.89</v>
+      </c>
+      <c r="AT168">
+        <v>1.67</v>
+      </c>
+      <c r="AU168">
+        <v>1.84</v>
+      </c>
+      <c r="AV168">
+        <v>1.18</v>
+      </c>
+      <c r="AW168">
+        <v>3.02</v>
+      </c>
+      <c r="AX168">
+        <v>1.31</v>
+      </c>
+      <c r="AY168">
+        <v>6.5</v>
+      </c>
+      <c r="AZ168">
+        <v>3.8</v>
+      </c>
+      <c r="BA168">
+        <v>1.15</v>
+      </c>
+      <c r="BB168">
+        <v>1.29</v>
+      </c>
+      <c r="BC168">
+        <v>1.58</v>
+      </c>
+      <c r="BD168">
+        <v>1.92</v>
+      </c>
+      <c r="BE168">
+        <v>2.35</v>
+      </c>
+      <c r="BF168">
+        <v>9</v>
+      </c>
+      <c r="BG168">
+        <v>2</v>
+      </c>
+      <c r="BH168">
+        <v>3</v>
+      </c>
+      <c r="BI168">
+        <v>4</v>
+      </c>
+      <c r="BJ168">
+        <v>12</v>
+      </c>
+      <c r="BK168">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,12 @@
     <t>['45+7']</t>
   </si>
   <si>
+    <t>['33', '42']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -1131,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1381,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1757,7 +1763,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1847,7 +1853,7 @@
         <v>2.5</v>
       </c>
       <c r="AT4">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2139,7 +2145,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2330,7 +2336,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2990,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -3372,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT12">
         <v>0.88</v>
@@ -3476,7 +3482,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3566,7 +3572,7 @@
         <v>1.44</v>
       </c>
       <c r="AT13">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4240,7 +4246,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4622,7 +4628,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5091,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT21">
         <v>0.44</v>
@@ -5386,7 +5392,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5664,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT24">
         <v>1.13</v>
@@ -5768,7 +5774,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -5959,7 +5965,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6341,7 +6347,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6813,7 +6819,7 @@
         <v>1.25</v>
       </c>
       <c r="AT30">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU30">
         <v>1.68</v>
@@ -7678,7 +7684,7 @@
         <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7768,7 +7774,7 @@
         <v>1.89</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU35">
         <v>1.82</v>
@@ -8060,7 +8066,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8251,7 +8257,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8338,7 +8344,7 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT38">
         <v>1.44</v>
@@ -8633,7 +8639,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9206,7 +9212,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9296,7 +9302,7 @@
         <v>1.11</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU43">
         <v>1.86</v>
@@ -9970,7 +9976,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10161,7 +10167,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10352,7 +10358,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10633,7 +10639,7 @@
         <v>2.5</v>
       </c>
       <c r="AT50">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU50">
         <v>1.54</v>
@@ -10734,7 +10740,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10925,7 +10931,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11880,7 +11886,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11967,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -12071,7 +12077,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12262,7 +12268,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12453,7 +12459,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -13217,7 +13223,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13307,7 +13313,7 @@
         <v>1.5</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU64">
         <v>1.47</v>
@@ -13599,7 +13605,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13790,7 +13796,7 @@
         <v>117</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14172,7 +14178,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14450,7 +14456,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT70">
         <v>1.25</v>
@@ -15023,7 +15029,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT73">
         <v>1.13</v>
@@ -15509,7 +15515,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15700,7 +15706,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16273,7 +16279,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16464,7 +16470,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16655,7 +16661,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17318,7 +17324,7 @@
         <v>1.89</v>
       </c>
       <c r="AT85">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU85">
         <v>1.57</v>
@@ -17419,7 +17425,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17509,7 +17515,7 @@
         <v>1.25</v>
       </c>
       <c r="AT86">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU86">
         <v>1.55</v>
@@ -17610,7 +17616,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17801,7 +17807,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>10</v>
@@ -17992,7 +17998,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18461,7 +18467,7 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT91">
         <v>0.88</v>
@@ -18652,7 +18658,7 @@
         <v>0</v>
       </c>
       <c r="AS92">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT92">
         <v>0.89</v>
@@ -18947,7 +18953,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19329,7 +19335,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19419,7 +19425,7 @@
         <v>0.63</v>
       </c>
       <c r="AT96">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -19902,7 +19908,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20093,7 +20099,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20666,7 +20672,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20857,7 +20863,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20944,7 +20950,7 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT104">
         <v>0.89</v>
@@ -22767,7 +22773,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23149,7 +23155,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23618,10 +23624,10 @@
         <v>1.25</v>
       </c>
       <c r="AS118">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT118">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU118">
         <v>1.71</v>
@@ -23722,7 +23728,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24104,7 +24110,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24677,7 +24683,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24764,7 +24770,7 @@
         <v>1.67</v>
       </c>
       <c r="AS124">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT124">
         <v>1.56</v>
@@ -25149,7 +25155,7 @@
         <v>1.11</v>
       </c>
       <c r="AT126">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU126">
         <v>1.55</v>
@@ -25250,7 +25256,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25340,7 +25346,7 @@
         <v>0.89</v>
       </c>
       <c r="AT127">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU127">
         <v>1.97</v>
@@ -25441,7 +25447,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25632,7 +25638,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26014,7 +26020,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26969,7 +26975,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27160,7 +27166,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27351,7 +27357,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27542,7 +27548,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27629,7 +27635,7 @@
         <v>0.67</v>
       </c>
       <c r="AS139">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT139">
         <v>0.88</v>
@@ -27733,7 +27739,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27924,7 +27930,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28306,7 +28312,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28396,7 +28402,7 @@
         <v>1.44</v>
       </c>
       <c r="AT143">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU143">
         <v>1.88</v>
@@ -28497,7 +28503,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28688,7 +28694,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29351,7 +29357,7 @@
         <v>1.44</v>
       </c>
       <c r="AT148">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU148">
         <v>1.58</v>
@@ -29730,7 +29736,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT150">
         <v>0.78</v>
@@ -30025,7 +30031,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30407,7 +30413,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30688,7 +30694,7 @@
         <v>0.63</v>
       </c>
       <c r="AT155">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU155">
         <v>1.31</v>
@@ -30980,7 +30986,7 @@
         <v>100</v>
       </c>
       <c r="P157" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31935,7 +31941,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -33223,6 +33229,388 @@
       </c>
       <c r="BK168">
         <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5414548</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45123.75</v>
+      </c>
+      <c r="F169">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>73</v>
+      </c>
+      <c r="H169" t="s">
+        <v>79</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>189</v>
+      </c>
+      <c r="P169" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q169">
+        <v>4</v>
+      </c>
+      <c r="R169">
+        <v>6</v>
+      </c>
+      <c r="S169">
+        <v>10</v>
+      </c>
+      <c r="T169">
+        <v>3</v>
+      </c>
+      <c r="U169">
+        <v>1.91</v>
+      </c>
+      <c r="V169">
+        <v>4</v>
+      </c>
+      <c r="W169">
+        <v>1.53</v>
+      </c>
+      <c r="X169">
+        <v>2.38</v>
+      </c>
+      <c r="Y169">
+        <v>3.75</v>
+      </c>
+      <c r="Z169">
+        <v>1.25</v>
+      </c>
+      <c r="AA169">
+        <v>8.5</v>
+      </c>
+      <c r="AB169">
+        <v>1.05</v>
+      </c>
+      <c r="AC169">
+        <v>2.25</v>
+      </c>
+      <c r="AD169">
+        <v>3.1</v>
+      </c>
+      <c r="AE169">
+        <v>3.25</v>
+      </c>
+      <c r="AF169">
+        <v>1.09</v>
+      </c>
+      <c r="AG169">
+        <v>6</v>
+      </c>
+      <c r="AH169">
+        <v>1.53</v>
+      </c>
+      <c r="AI169">
+        <v>2.4</v>
+      </c>
+      <c r="AJ169">
+        <v>2.35</v>
+      </c>
+      <c r="AK169">
+        <v>1.53</v>
+      </c>
+      <c r="AL169">
+        <v>2.1</v>
+      </c>
+      <c r="AM169">
+        <v>1.67</v>
+      </c>
+      <c r="AN169">
+        <v>1.28</v>
+      </c>
+      <c r="AO169">
+        <v>1.3</v>
+      </c>
+      <c r="AP169">
+        <v>1.6</v>
+      </c>
+      <c r="AQ169">
+        <v>2.14</v>
+      </c>
+      <c r="AR169">
+        <v>2</v>
+      </c>
+      <c r="AS169">
+        <v>2.25</v>
+      </c>
+      <c r="AT169">
+        <v>1.78</v>
+      </c>
+      <c r="AU169">
+        <v>1.75</v>
+      </c>
+      <c r="AV169">
+        <v>1.54</v>
+      </c>
+      <c r="AW169">
+        <v>3.29</v>
+      </c>
+      <c r="AX169">
+        <v>1.71</v>
+      </c>
+      <c r="AY169">
+        <v>6</v>
+      </c>
+      <c r="AZ169">
+        <v>2.4</v>
+      </c>
+      <c r="BA169">
+        <v>1.18</v>
+      </c>
+      <c r="BB169">
+        <v>1.31</v>
+      </c>
+      <c r="BC169">
+        <v>1.65</v>
+      </c>
+      <c r="BD169">
+        <v>2.01</v>
+      </c>
+      <c r="BE169">
+        <v>2.57</v>
+      </c>
+      <c r="BF169">
+        <v>6</v>
+      </c>
+      <c r="BG169">
+        <v>3</v>
+      </c>
+      <c r="BH169">
+        <v>6</v>
+      </c>
+      <c r="BI169">
+        <v>7</v>
+      </c>
+      <c r="BJ169">
+        <v>12</v>
+      </c>
+      <c r="BK169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>5414556</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45124.83333333334</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>75</v>
+      </c>
+      <c r="H170" t="s">
+        <v>71</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>190</v>
+      </c>
+      <c r="P170" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q170">
+        <v>9</v>
+      </c>
+      <c r="R170">
+        <v>7</v>
+      </c>
+      <c r="S170">
+        <v>16</v>
+      </c>
+      <c r="T170">
+        <v>3.25</v>
+      </c>
+      <c r="U170">
+        <v>1.85</v>
+      </c>
+      <c r="V170">
+        <v>3.6</v>
+      </c>
+      <c r="W170">
+        <v>1.53</v>
+      </c>
+      <c r="X170">
+        <v>2.38</v>
+      </c>
+      <c r="Y170">
+        <v>3.5</v>
+      </c>
+      <c r="Z170">
+        <v>1.29</v>
+      </c>
+      <c r="AA170">
+        <v>9</v>
+      </c>
+      <c r="AB170">
+        <v>1.05</v>
+      </c>
+      <c r="AC170">
+        <v>2.67</v>
+      </c>
+      <c r="AD170">
+        <v>3.06</v>
+      </c>
+      <c r="AE170">
+        <v>2.81</v>
+      </c>
+      <c r="AF170">
+        <v>1.12</v>
+      </c>
+      <c r="AG170">
+        <v>5.5</v>
+      </c>
+      <c r="AH170">
+        <v>1.5</v>
+      </c>
+      <c r="AI170">
+        <v>2.3</v>
+      </c>
+      <c r="AJ170">
+        <v>2.59</v>
+      </c>
+      <c r="AK170">
+        <v>1.44</v>
+      </c>
+      <c r="AL170">
+        <v>2.1</v>
+      </c>
+      <c r="AM170">
+        <v>1.67</v>
+      </c>
+      <c r="AN170">
+        <v>1.36</v>
+      </c>
+      <c r="AO170">
+        <v>1.4</v>
+      </c>
+      <c r="AP170">
+        <v>1.44</v>
+      </c>
+      <c r="AQ170">
+        <v>1.63</v>
+      </c>
+      <c r="AR170">
+        <v>1.88</v>
+      </c>
+      <c r="AS170">
+        <v>1.78</v>
+      </c>
+      <c r="AT170">
+        <v>1.67</v>
+      </c>
+      <c r="AU170">
+        <v>1.54</v>
+      </c>
+      <c r="AV170">
+        <v>1.09</v>
+      </c>
+      <c r="AW170">
+        <v>2.63</v>
+      </c>
+      <c r="AX170">
+        <v>1.57</v>
+      </c>
+      <c r="AY170">
+        <v>6</v>
+      </c>
+      <c r="AZ170">
+        <v>2.7</v>
+      </c>
+      <c r="BA170">
+        <v>1.19</v>
+      </c>
+      <c r="BB170">
+        <v>1.33</v>
+      </c>
+      <c r="BC170">
+        <v>1.68</v>
+      </c>
+      <c r="BD170">
+        <v>1.98</v>
+      </c>
+      <c r="BE170">
+        <v>2.43</v>
+      </c>
+      <c r="BF170">
+        <v>7</v>
+      </c>
+      <c r="BG170">
+        <v>2</v>
+      </c>
+      <c r="BH170">
+        <v>4</v>
+      </c>
+      <c r="BI170">
+        <v>6</v>
+      </c>
+      <c r="BJ170">
+        <v>11</v>
+      </c>
+      <c r="BK170">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,24 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['69', '89']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['52', '90+9']</t>
+  </si>
+  <si>
+    <t>['8', '37', '45+1']</t>
+  </si>
+  <si>
+    <t>['13', '48']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -776,6 +794,15 @@
   </si>
   <si>
     <t>['8']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['8', '61']</t>
+  </si>
+  <si>
+    <t>['45+1', '65']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1408,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1763,7 +1790,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2145,7 +2172,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2336,7 +2363,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -3187,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT11">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3381,7 +3408,7 @@
         <v>1.78</v>
       </c>
       <c r="AT12">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3482,7 +3509,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3569,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT13">
         <v>1.67</v>
@@ -3760,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT14">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3951,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4142,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT16">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4246,7 +4273,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4333,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT17">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4524,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT18">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4628,7 +4655,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4715,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT19">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5100,7 +5127,7 @@
         <v>2.25</v>
       </c>
       <c r="AT21">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU21">
         <v>1.71</v>
@@ -5291,7 +5318,7 @@
         <v>2.38</v>
       </c>
       <c r="AT22">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU22">
         <v>1.42</v>
@@ -5392,7 +5419,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5482,7 +5509,7 @@
         <v>1.44</v>
       </c>
       <c r="AT23">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU23">
         <v>1.81</v>
@@ -5673,7 +5700,7 @@
         <v>1.78</v>
       </c>
       <c r="AT24">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>1.06</v>
@@ -5774,7 +5801,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -5861,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5965,7 +5992,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6052,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6243,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT27">
         <v>0.88</v>
@@ -6347,7 +6374,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6434,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT28">
         <v>1.67</v>
@@ -6628,7 +6655,7 @@
         <v>2.5</v>
       </c>
       <c r="AT29">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU29">
         <v>1.54</v>
@@ -7007,7 +7034,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT31">
         <v>1.38</v>
@@ -7201,7 +7228,7 @@
         <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7389,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT33">
         <v>0.71</v>
@@ -7684,7 +7711,7 @@
         <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7965,7 +7992,7 @@
         <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>1.56</v>
@@ -8066,7 +8093,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8153,10 +8180,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT37">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU37">
         <v>2.28</v>
@@ -8257,7 +8284,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8347,7 +8374,7 @@
         <v>1.78</v>
       </c>
       <c r="AT38">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -8538,7 +8565,7 @@
         <v>2.11</v>
       </c>
       <c r="AT39">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU39">
         <v>1.29</v>
@@ -8639,7 +8666,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8726,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT40">
         <v>0.63</v>
@@ -8920,7 +8947,7 @@
         <v>1.44</v>
       </c>
       <c r="AT41">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU41">
         <v>1.61</v>
@@ -9111,7 +9138,7 @@
         <v>1.89</v>
       </c>
       <c r="AT42">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU42">
         <v>1.49</v>
@@ -9212,7 +9239,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9299,7 +9326,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT43">
         <v>1.78</v>
@@ -9681,7 +9708,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT45">
         <v>1.67</v>
@@ -9872,10 +9899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT46">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -9976,7 +10003,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10063,10 +10090,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT47">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU47">
         <v>1.35</v>
@@ -10167,7 +10194,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10254,10 +10281,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT48">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU48">
         <v>1.71</v>
@@ -10358,7 +10385,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10445,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT49">
         <v>0.88</v>
@@ -10740,7 +10767,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10827,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT51">
         <v>0.71</v>
@@ -10931,7 +10958,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11021,7 +11048,7 @@
         <v>1.63</v>
       </c>
       <c r="AT52">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU52">
         <v>1.65</v>
@@ -11209,10 +11236,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT53">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1.85</v>
@@ -11403,7 +11430,7 @@
         <v>2.38</v>
       </c>
       <c r="AT54">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU54">
         <v>1.28</v>
@@ -11591,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT55">
         <v>0.88</v>
@@ -11886,7 +11913,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12077,7 +12104,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12164,7 +12191,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT58">
         <v>1.38</v>
@@ -12268,7 +12295,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12459,7 +12486,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -12546,10 +12573,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT60">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU60">
         <v>1.93</v>
@@ -12740,7 +12767,7 @@
         <v>1.89</v>
       </c>
       <c r="AT61">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU61">
         <v>1.39</v>
@@ -12928,7 +12955,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT62">
         <v>0.63</v>
@@ -13119,7 +13146,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT63">
         <v>1.38</v>
@@ -13223,7 +13250,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13605,7 +13632,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13692,10 +13719,10 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT66">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU66">
         <v>1.64</v>
@@ -13796,7 +13823,7 @@
         <v>117</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14074,10 +14101,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU68">
         <v>1.83</v>
@@ -14178,7 +14205,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14268,7 +14295,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU69">
         <v>1.55</v>
@@ -14459,7 +14486,7 @@
         <v>1.78</v>
       </c>
       <c r="AT70">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU70">
         <v>1.58</v>
@@ -14647,7 +14674,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT71">
         <v>0.88</v>
@@ -14838,7 +14865,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT72">
         <v>0.63</v>
@@ -15032,7 +15059,7 @@
         <v>2.25</v>
       </c>
       <c r="AT73">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.65</v>
@@ -15414,7 +15441,7 @@
         <v>2.5</v>
       </c>
       <c r="AT75">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU75">
         <v>2.16</v>
@@ -15515,7 +15542,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15706,7 +15733,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16279,7 +16306,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16369,7 +16396,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU80">
         <v>1.4</v>
@@ -16470,7 +16497,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16560,7 +16587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT81">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU81">
         <v>1.39</v>
@@ -16661,7 +16688,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16748,10 +16775,10 @@
         <v>2.25</v>
       </c>
       <c r="AS82">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT82">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -16939,7 +16966,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT83">
         <v>1.38</v>
@@ -17130,10 +17157,10 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT84">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU84">
         <v>1.75</v>
@@ -17425,7 +17452,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17512,7 +17539,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT86">
         <v>1.78</v>
@@ -17616,7 +17643,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17703,7 +17730,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT87">
         <v>0.67</v>
@@ -17807,7 +17834,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>10</v>
@@ -17894,10 +17921,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT88">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>2.06</v>
@@ -17998,7 +18025,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18085,10 +18112,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT89">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU89">
         <v>1.55</v>
@@ -18276,7 +18303,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT90">
         <v>0.71</v>
@@ -18661,7 +18688,7 @@
         <v>2.25</v>
       </c>
       <c r="AT92">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU92">
         <v>1.75</v>
@@ -18953,7 +18980,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19335,7 +19362,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19422,7 +19449,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT96">
         <v>1.78</v>
@@ -19616,7 +19643,7 @@
         <v>2.5</v>
       </c>
       <c r="AT97">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU97">
         <v>2.18</v>
@@ -19807,7 +19834,7 @@
         <v>2.38</v>
       </c>
       <c r="AT98">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.38</v>
@@ -19908,7 +19935,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20099,7 +20126,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20186,10 +20213,10 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT100">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU100">
         <v>1.99</v>
@@ -20377,10 +20404,10 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT101">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU101">
         <v>1.6</v>
@@ -20568,7 +20595,7 @@
         <v>0.2</v>
       </c>
       <c r="AS102">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT102">
         <v>0.67</v>
@@ -20672,7 +20699,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20759,7 +20786,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT103">
         <v>1.67</v>
@@ -20863,7 +20890,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20953,7 +20980,7 @@
         <v>1.78</v>
       </c>
       <c r="AT104">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU104">
         <v>1.56</v>
@@ -21141,7 +21168,7 @@
         <v>0.67</v>
       </c>
       <c r="AS105">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT105">
         <v>0.63</v>
@@ -21335,7 +21362,7 @@
         <v>1.44</v>
       </c>
       <c r="AT106">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU106">
         <v>1.87</v>
@@ -21523,10 +21550,10 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT107">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>2</v>
@@ -21717,7 +21744,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU108">
         <v>1.49</v>
@@ -21908,7 +21935,7 @@
         <v>2.11</v>
       </c>
       <c r="AT109">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU109">
         <v>1.88</v>
@@ -22096,7 +22123,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT110">
         <v>0.71</v>
@@ -22290,7 +22317,7 @@
         <v>2.5</v>
       </c>
       <c r="AT111">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.88</v>
@@ -22669,10 +22696,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT113">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU113">
         <v>1.99</v>
@@ -22773,7 +22800,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -22860,10 +22887,10 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT114">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU114">
         <v>1.53</v>
@@ -23051,7 +23078,7 @@
         <v>1.25</v>
       </c>
       <c r="AS115">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT115">
         <v>0.88</v>
@@ -23155,7 +23182,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23245,7 +23272,7 @@
         <v>1.25</v>
       </c>
       <c r="AT116">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU116">
         <v>1.42</v>
@@ -23433,7 +23460,7 @@
         <v>1.4</v>
       </c>
       <c r="AS117">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT117">
         <v>1.38</v>
@@ -23728,7 +23755,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24006,10 +24033,10 @@
         <v>2</v>
       </c>
       <c r="AS120">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT120">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24110,7 +24137,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24200,7 +24227,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU121">
         <v>1.49</v>
@@ -24388,10 +24415,10 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT122">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU122">
         <v>1.62</v>
@@ -24579,7 +24606,7 @@
         <v>0.4</v>
       </c>
       <c r="AS123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT123">
         <v>1</v>
@@ -24683,7 +24710,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24773,7 +24800,7 @@
         <v>1.78</v>
       </c>
       <c r="AT124">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU124">
         <v>1.49</v>
@@ -24961,10 +24988,10 @@
         <v>0.5</v>
       </c>
       <c r="AS125">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT125">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU125">
         <v>1.76</v>
@@ -25152,7 +25179,7 @@
         <v>1.6</v>
       </c>
       <c r="AS126">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT126">
         <v>1.67</v>
@@ -25256,7 +25283,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25343,7 +25370,7 @@
         <v>2.17</v>
       </c>
       <c r="AS127">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT127">
         <v>1.78</v>
@@ -25447,7 +25474,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25638,7 +25665,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25919,7 +25946,7 @@
         <v>2.38</v>
       </c>
       <c r="AT130">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU130">
         <v>1.51</v>
@@ -26020,7 +26047,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26107,7 +26134,7 @@
         <v>1.2</v>
       </c>
       <c r="AS131">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT131">
         <v>0.88</v>
@@ -26301,7 +26328,7 @@
         <v>2.11</v>
       </c>
       <c r="AT132">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU132">
         <v>1.83</v>
@@ -26489,7 +26516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS133">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT133">
         <v>1.38</v>
@@ -26871,7 +26898,7 @@
         <v>0.57</v>
       </c>
       <c r="AS135">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT135">
         <v>0.63</v>
@@ -26975,7 +27002,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27062,7 +27089,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT136">
         <v>1</v>
@@ -27166,7 +27193,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27357,7 +27384,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27447,7 +27474,7 @@
         <v>2.38</v>
       </c>
       <c r="AT138">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU138">
         <v>1.4</v>
@@ -27548,7 +27575,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27638,7 +27665,7 @@
         <v>2.25</v>
       </c>
       <c r="AT139">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU139">
         <v>1.73</v>
@@ -27739,7 +27766,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27829,7 +27856,7 @@
         <v>1.25</v>
       </c>
       <c r="AT140">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU140">
         <v>1.33</v>
@@ -27930,7 +27957,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28017,7 +28044,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT141">
         <v>0.71</v>
@@ -28208,10 +28235,10 @@
         <v>1.86</v>
       </c>
       <c r="AS142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT142">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU142">
         <v>1.84</v>
@@ -28312,7 +28339,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28503,7 +28530,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28590,7 +28617,7 @@
         <v>0.29</v>
       </c>
       <c r="AS144">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT144">
         <v>0.67</v>
@@ -28694,7 +28721,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28784,7 +28811,7 @@
         <v>1.5</v>
       </c>
       <c r="AT145">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU145">
         <v>1.58</v>
@@ -28975,7 +29002,7 @@
         <v>1.63</v>
       </c>
       <c r="AT146">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU146">
         <v>1.69</v>
@@ -29163,7 +29190,7 @@
         <v>2</v>
       </c>
       <c r="AS147">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT147">
         <v>1.67</v>
@@ -29354,7 +29381,7 @@
         <v>2.29</v>
       </c>
       <c r="AS148">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT148">
         <v>1.78</v>
@@ -29548,7 +29575,7 @@
         <v>1.89</v>
       </c>
       <c r="AT149">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU149">
         <v>1.83</v>
@@ -29739,7 +29766,7 @@
         <v>1.78</v>
       </c>
       <c r="AT150">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU150">
         <v>1.54</v>
@@ -30031,7 +30058,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30118,7 +30145,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30309,7 +30336,7 @@
         <v>1.57</v>
       </c>
       <c r="AS153">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT153">
         <v>1.38</v>
@@ -30413,7 +30440,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30503,7 +30530,7 @@
         <v>2.38</v>
       </c>
       <c r="AT154">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU154">
         <v>1.38</v>
@@ -30691,7 +30718,7 @@
         <v>1.71</v>
       </c>
       <c r="AS155">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT155">
         <v>1.67</v>
@@ -30885,7 +30912,7 @@
         <v>1.5</v>
       </c>
       <c r="AT156">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU156">
         <v>1.4</v>
@@ -30986,7 +31013,7 @@
         <v>100</v>
       </c>
       <c r="P157" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31073,7 +31100,7 @@
         <v>0.71</v>
       </c>
       <c r="AS157">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT157">
         <v>1</v>
@@ -31264,10 +31291,10 @@
         <v>0.57</v>
       </c>
       <c r="AS158">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT158">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU158">
         <v>1.81</v>
@@ -31455,10 +31482,10 @@
         <v>1.29</v>
       </c>
       <c r="AS159">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT159">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU159">
         <v>1.57</v>
@@ -31646,10 +31673,10 @@
         <v>1.29</v>
       </c>
       <c r="AS160">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT160">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU160">
         <v>1.66</v>
@@ -31840,7 +31867,7 @@
         <v>2.5</v>
       </c>
       <c r="AT161">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU161">
         <v>2.02</v>
@@ -31941,7 +31968,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32031,7 +32058,7 @@
         <v>2.11</v>
       </c>
       <c r="AT162">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU162">
         <v>1.81</v>
@@ -32222,7 +32249,7 @@
         <v>1.44</v>
       </c>
       <c r="AT163">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU163">
         <v>1.85</v>
@@ -32410,7 +32437,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT164">
         <v>0.88</v>
@@ -32792,7 +32819,7 @@
         <v>0.57</v>
       </c>
       <c r="AS166">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT166">
         <v>0.88</v>
@@ -32986,7 +33013,7 @@
         <v>1.25</v>
       </c>
       <c r="AT167">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU167">
         <v>1.3</v>
@@ -33611,6 +33638,1725 @@
       </c>
       <c r="BK170">
         <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5414561</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45125.75</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>77</v>
+      </c>
+      <c r="H171" t="s">
+        <v>83</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171" t="s">
+        <v>191</v>
+      </c>
+      <c r="P171" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q171">
+        <v>3</v>
+      </c>
+      <c r="R171">
+        <v>1</v>
+      </c>
+      <c r="S171">
+        <v>4</v>
+      </c>
+      <c r="T171">
+        <v>3</v>
+      </c>
+      <c r="U171">
+        <v>1.9</v>
+      </c>
+      <c r="V171">
+        <v>4</v>
+      </c>
+      <c r="W171">
+        <v>1.52</v>
+      </c>
+      <c r="X171">
+        <v>2.39</v>
+      </c>
+      <c r="Y171">
+        <v>3.45</v>
+      </c>
+      <c r="Z171">
+        <v>1.27</v>
+      </c>
+      <c r="AA171">
+        <v>9.4</v>
+      </c>
+      <c r="AB171">
+        <v>1.03</v>
+      </c>
+      <c r="AC171">
+        <v>2.15</v>
+      </c>
+      <c r="AD171">
+        <v>2.9</v>
+      </c>
+      <c r="AE171">
+        <v>3.3</v>
+      </c>
+      <c r="AF171">
+        <v>1.08</v>
+      </c>
+      <c r="AG171">
+        <v>7.75</v>
+      </c>
+      <c r="AH171">
+        <v>1.45</v>
+      </c>
+      <c r="AI171">
+        <v>2.65</v>
+      </c>
+      <c r="AJ171">
+        <v>2.33</v>
+      </c>
+      <c r="AK171">
+        <v>1.55</v>
+      </c>
+      <c r="AL171">
+        <v>2</v>
+      </c>
+      <c r="AM171">
+        <v>1.75</v>
+      </c>
+      <c r="AN171">
+        <v>1.28</v>
+      </c>
+      <c r="AO171">
+        <v>1.3</v>
+      </c>
+      <c r="AP171">
+        <v>1.62</v>
+      </c>
+      <c r="AQ171">
+        <v>0.89</v>
+      </c>
+      <c r="AR171">
+        <v>1.13</v>
+      </c>
+      <c r="AS171">
+        <v>1.1</v>
+      </c>
+      <c r="AT171">
+        <v>1</v>
+      </c>
+      <c r="AU171">
+        <v>1.82</v>
+      </c>
+      <c r="AV171">
+        <v>1.31</v>
+      </c>
+      <c r="AW171">
+        <v>3.13</v>
+      </c>
+      <c r="AX171">
+        <v>1.45</v>
+      </c>
+      <c r="AY171">
+        <v>6.5</v>
+      </c>
+      <c r="AZ171">
+        <v>3.2</v>
+      </c>
+      <c r="BA171">
+        <v>1.2</v>
+      </c>
+      <c r="BB171">
+        <v>1.38</v>
+      </c>
+      <c r="BC171">
+        <v>1.88</v>
+      </c>
+      <c r="BD171">
+        <v>2.03</v>
+      </c>
+      <c r="BE171">
+        <v>2.6</v>
+      </c>
+      <c r="BF171">
+        <v>5</v>
+      </c>
+      <c r="BG171">
+        <v>4</v>
+      </c>
+      <c r="BH171">
+        <v>6</v>
+      </c>
+      <c r="BI171">
+        <v>6</v>
+      </c>
+      <c r="BJ171">
+        <v>11</v>
+      </c>
+      <c r="BK171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>5414560</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45125.79166666666</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>81</v>
+      </c>
+      <c r="H172" t="s">
+        <v>66</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>192</v>
+      </c>
+      <c r="P172" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q172">
+        <v>3</v>
+      </c>
+      <c r="R172">
+        <v>4</v>
+      </c>
+      <c r="S172">
+        <v>7</v>
+      </c>
+      <c r="T172">
+        <v>2.75</v>
+      </c>
+      <c r="U172">
+        <v>1.9</v>
+      </c>
+      <c r="V172">
+        <v>4.2</v>
+      </c>
+      <c r="W172">
+        <v>1.52</v>
+      </c>
+      <c r="X172">
+        <v>2.35</v>
+      </c>
+      <c r="Y172">
+        <v>3.3</v>
+      </c>
+      <c r="Z172">
+        <v>1.29</v>
+      </c>
+      <c r="AA172">
+        <v>9.25</v>
+      </c>
+      <c r="AB172">
+        <v>1.05</v>
+      </c>
+      <c r="AC172">
+        <v>2.05</v>
+      </c>
+      <c r="AD172">
+        <v>3</v>
+      </c>
+      <c r="AE172">
+        <v>3.55</v>
+      </c>
+      <c r="AF172">
+        <v>1.1</v>
+      </c>
+      <c r="AG172">
+        <v>6.5</v>
+      </c>
+      <c r="AH172">
+        <v>1.53</v>
+      </c>
+      <c r="AI172">
+        <v>2.38</v>
+      </c>
+      <c r="AJ172">
+        <v>2.48</v>
+      </c>
+      <c r="AK172">
+        <v>1.48</v>
+      </c>
+      <c r="AL172">
+        <v>2.05</v>
+      </c>
+      <c r="AM172">
+        <v>1.68</v>
+      </c>
+      <c r="AN172">
+        <v>1.25</v>
+      </c>
+      <c r="AO172">
+        <v>1.35</v>
+      </c>
+      <c r="AP172">
+        <v>1.7</v>
+      </c>
+      <c r="AQ172">
+        <v>1.11</v>
+      </c>
+      <c r="AR172">
+        <v>0.89</v>
+      </c>
+      <c r="AS172">
+        <v>1.3</v>
+      </c>
+      <c r="AT172">
+        <v>0.8</v>
+      </c>
+      <c r="AU172">
+        <v>1.52</v>
+      </c>
+      <c r="AV172">
+        <v>1.3</v>
+      </c>
+      <c r="AW172">
+        <v>2.82</v>
+      </c>
+      <c r="AX172">
+        <v>1.38</v>
+      </c>
+      <c r="AY172">
+        <v>8</v>
+      </c>
+      <c r="AZ172">
+        <v>4</v>
+      </c>
+      <c r="BA172">
+        <v>1.25</v>
+      </c>
+      <c r="BB172">
+        <v>1.43</v>
+      </c>
+      <c r="BC172">
+        <v>1.88</v>
+      </c>
+      <c r="BD172">
+        <v>2.1</v>
+      </c>
+      <c r="BE172">
+        <v>2.6</v>
+      </c>
+      <c r="BF172">
+        <v>7</v>
+      </c>
+      <c r="BG172">
+        <v>3</v>
+      </c>
+      <c r="BH172">
+        <v>4</v>
+      </c>
+      <c r="BI172">
+        <v>11</v>
+      </c>
+      <c r="BJ172">
+        <v>11</v>
+      </c>
+      <c r="BK172">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>5414553</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45125.89583333334</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>76</v>
+      </c>
+      <c r="H173" t="s">
+        <v>70</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173" t="s">
+        <v>100</v>
+      </c>
+      <c r="P173" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>7</v>
+      </c>
+      <c r="S173">
+        <v>10</v>
+      </c>
+      <c r="T173">
+        <v>3.4</v>
+      </c>
+      <c r="U173">
+        <v>1.88</v>
+      </c>
+      <c r="V173">
+        <v>3.5</v>
+      </c>
+      <c r="W173">
+        <v>1.53</v>
+      </c>
+      <c r="X173">
+        <v>2.3</v>
+      </c>
+      <c r="Y173">
+        <v>3.5</v>
+      </c>
+      <c r="Z173">
+        <v>1.26</v>
+      </c>
+      <c r="AA173">
+        <v>10</v>
+      </c>
+      <c r="AB173">
+        <v>1.05</v>
+      </c>
+      <c r="AC173">
+        <v>2.7</v>
+      </c>
+      <c r="AD173">
+        <v>2.85</v>
+      </c>
+      <c r="AE173">
+        <v>2.7</v>
+      </c>
+      <c r="AF173">
+        <v>1.09</v>
+      </c>
+      <c r="AG173">
+        <v>7.4</v>
+      </c>
+      <c r="AH173">
+        <v>1.49</v>
+      </c>
+      <c r="AI173">
+        <v>2.48</v>
+      </c>
+      <c r="AJ173">
+        <v>2.37</v>
+      </c>
+      <c r="AK173">
+        <v>1.5</v>
+      </c>
+      <c r="AL173">
+        <v>2.05</v>
+      </c>
+      <c r="AM173">
+        <v>1.7</v>
+      </c>
+      <c r="AN173">
+        <v>1.42</v>
+      </c>
+      <c r="AO173">
+        <v>1.32</v>
+      </c>
+      <c r="AP173">
+        <v>1.42</v>
+      </c>
+      <c r="AQ173">
+        <v>1.44</v>
+      </c>
+      <c r="AR173">
+        <v>1.44</v>
+      </c>
+      <c r="AS173">
+        <v>1.4</v>
+      </c>
+      <c r="AT173">
+        <v>1.4</v>
+      </c>
+      <c r="AU173">
+        <v>1.59</v>
+      </c>
+      <c r="AV173">
+        <v>1.33</v>
+      </c>
+      <c r="AW173">
+        <v>2.92</v>
+      </c>
+      <c r="AX173">
+        <v>1.7</v>
+      </c>
+      <c r="AY173">
+        <v>7</v>
+      </c>
+      <c r="AZ173">
+        <v>2.7</v>
+      </c>
+      <c r="BA173">
+        <v>1.14</v>
+      </c>
+      <c r="BB173">
+        <v>1.24</v>
+      </c>
+      <c r="BC173">
+        <v>1.46</v>
+      </c>
+      <c r="BD173">
+        <v>1.8</v>
+      </c>
+      <c r="BE173">
+        <v>2.25</v>
+      </c>
+      <c r="BF173">
+        <v>5</v>
+      </c>
+      <c r="BG173">
+        <v>5</v>
+      </c>
+      <c r="BH173">
+        <v>3</v>
+      </c>
+      <c r="BI173">
+        <v>8</v>
+      </c>
+      <c r="BJ173">
+        <v>8</v>
+      </c>
+      <c r="BK173">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>5414554</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45126.79166666666</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>74</v>
+      </c>
+      <c r="H174" t="s">
+        <v>68</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
+      <c r="O174" t="s">
+        <v>193</v>
+      </c>
+      <c r="P174" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q174">
+        <v>7</v>
+      </c>
+      <c r="R174">
+        <v>3</v>
+      </c>
+      <c r="S174">
+        <v>10</v>
+      </c>
+      <c r="T174">
+        <v>2.95</v>
+      </c>
+      <c r="U174">
+        <v>1.9</v>
+      </c>
+      <c r="V174">
+        <v>3.8</v>
+      </c>
+      <c r="W174">
+        <v>1.5</v>
+      </c>
+      <c r="X174">
+        <v>2.5</v>
+      </c>
+      <c r="Y174">
+        <v>3.25</v>
+      </c>
+      <c r="Z174">
+        <v>1.33</v>
+      </c>
+      <c r="AA174">
+        <v>8</v>
+      </c>
+      <c r="AB174">
+        <v>1.06</v>
+      </c>
+      <c r="AC174">
+        <v>2.2</v>
+      </c>
+      <c r="AD174">
+        <v>2.85</v>
+      </c>
+      <c r="AE174">
+        <v>3.25</v>
+      </c>
+      <c r="AF174">
+        <v>1.1</v>
+      </c>
+      <c r="AG174">
+        <v>6.5</v>
+      </c>
+      <c r="AH174">
+        <v>1.44</v>
+      </c>
+      <c r="AI174">
+        <v>2.62</v>
+      </c>
+      <c r="AJ174">
+        <v>2.35</v>
+      </c>
+      <c r="AK174">
+        <v>1.53</v>
+      </c>
+      <c r="AL174">
+        <v>2</v>
+      </c>
+      <c r="AM174">
+        <v>1.71</v>
+      </c>
+      <c r="AN174">
+        <v>1.32</v>
+      </c>
+      <c r="AO174">
+        <v>1.36</v>
+      </c>
+      <c r="AP174">
+        <v>1.58</v>
+      </c>
+      <c r="AQ174">
+        <v>2</v>
+      </c>
+      <c r="AR174">
+        <v>1.25</v>
+      </c>
+      <c r="AS174">
+        <v>1.9</v>
+      </c>
+      <c r="AT174">
+        <v>1.22</v>
+      </c>
+      <c r="AU174">
+        <v>1.74</v>
+      </c>
+      <c r="AV174">
+        <v>1.33</v>
+      </c>
+      <c r="AW174">
+        <v>3.07</v>
+      </c>
+      <c r="AX174">
+        <v>1.6</v>
+      </c>
+      <c r="AY174">
+        <v>7.5</v>
+      </c>
+      <c r="AZ174">
+        <v>2.9</v>
+      </c>
+      <c r="BA174">
+        <v>1.15</v>
+      </c>
+      <c r="BB174">
+        <v>1.26</v>
+      </c>
+      <c r="BC174">
+        <v>1.49</v>
+      </c>
+      <c r="BD174">
+        <v>1.95</v>
+      </c>
+      <c r="BE174">
+        <v>2.4</v>
+      </c>
+      <c r="BF174">
+        <v>7</v>
+      </c>
+      <c r="BG174">
+        <v>5</v>
+      </c>
+      <c r="BH174">
+        <v>6</v>
+      </c>
+      <c r="BI174">
+        <v>2</v>
+      </c>
+      <c r="BJ174">
+        <v>13</v>
+      </c>
+      <c r="BK174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>5414557</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45126.79166666666</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>79</v>
+      </c>
+      <c r="H175" t="s">
+        <v>72</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>3</v>
+      </c>
+      <c r="L175">
+        <v>3</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>194</v>
+      </c>
+      <c r="P175" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q175">
+        <v>5</v>
+      </c>
+      <c r="R175">
+        <v>4</v>
+      </c>
+      <c r="S175">
+        <v>9</v>
+      </c>
+      <c r="T175">
+        <v>2.05</v>
+      </c>
+      <c r="U175">
+        <v>2.05</v>
+      </c>
+      <c r="V175">
+        <v>7.5</v>
+      </c>
+      <c r="W175">
+        <v>1.5</v>
+      </c>
+      <c r="X175">
+        <v>2.5</v>
+      </c>
+      <c r="Y175">
+        <v>3.5</v>
+      </c>
+      <c r="Z175">
+        <v>1.29</v>
+      </c>
+      <c r="AA175">
+        <v>8.5</v>
+      </c>
+      <c r="AB175">
+        <v>1.05</v>
+      </c>
+      <c r="AC175">
+        <v>1.45</v>
+      </c>
+      <c r="AD175">
+        <v>3.75</v>
+      </c>
+      <c r="AE175">
+        <v>6.5</v>
+      </c>
+      <c r="AF175">
+        <v>1.1</v>
+      </c>
+      <c r="AG175">
+        <v>6.5</v>
+      </c>
+      <c r="AH175">
+        <v>1.44</v>
+      </c>
+      <c r="AI175">
+        <v>2.65</v>
+      </c>
+      <c r="AJ175">
+        <v>2.15</v>
+      </c>
+      <c r="AK175">
+        <v>1.64</v>
+      </c>
+      <c r="AL175">
+        <v>2.63</v>
+      </c>
+      <c r="AM175">
+        <v>1.44</v>
+      </c>
+      <c r="AN175">
+        <v>1.08</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>2.55</v>
+      </c>
+      <c r="AQ175">
+        <v>1.75</v>
+      </c>
+      <c r="AR175">
+        <v>0.44</v>
+      </c>
+      <c r="AS175">
+        <v>1.89</v>
+      </c>
+      <c r="AT175">
+        <v>0.4</v>
+      </c>
+      <c r="AU175">
+        <v>1.99</v>
+      </c>
+      <c r="AV175">
+        <v>1.26</v>
+      </c>
+      <c r="AW175">
+        <v>3.25</v>
+      </c>
+      <c r="AX175">
+        <v>1.2</v>
+      </c>
+      <c r="AY175">
+        <v>11</v>
+      </c>
+      <c r="AZ175">
+        <v>5.75</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>1.2</v>
+      </c>
+      <c r="BC175">
+        <v>1.33</v>
+      </c>
+      <c r="BD175">
+        <v>1.58</v>
+      </c>
+      <c r="BE175">
+        <v>1.98</v>
+      </c>
+      <c r="BF175">
+        <v>9</v>
+      </c>
+      <c r="BG175">
+        <v>2</v>
+      </c>
+      <c r="BH175">
+        <v>7</v>
+      </c>
+      <c r="BI175">
+        <v>5</v>
+      </c>
+      <c r="BJ175">
+        <v>16</v>
+      </c>
+      <c r="BK175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>5414555</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45126.89583333334</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>78</v>
+      </c>
+      <c r="H176" t="s">
+        <v>69</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>195</v>
+      </c>
+      <c r="P176" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q176">
+        <v>2</v>
+      </c>
+      <c r="R176">
+        <v>4</v>
+      </c>
+      <c r="S176">
+        <v>6</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>1.91</v>
+      </c>
+      <c r="V176">
+        <v>4</v>
+      </c>
+      <c r="W176">
+        <v>1.57</v>
+      </c>
+      <c r="X176">
+        <v>2.25</v>
+      </c>
+      <c r="Y176">
+        <v>3.75</v>
+      </c>
+      <c r="Z176">
+        <v>1.25</v>
+      </c>
+      <c r="AA176">
+        <v>8.5</v>
+      </c>
+      <c r="AB176">
+        <v>1.05</v>
+      </c>
+      <c r="AC176">
+        <v>2.2</v>
+      </c>
+      <c r="AD176">
+        <v>2.85</v>
+      </c>
+      <c r="AE176">
+        <v>3.25</v>
+      </c>
+      <c r="AF176">
+        <v>1.11</v>
+      </c>
+      <c r="AG176">
+        <v>6</v>
+      </c>
+      <c r="AH176">
+        <v>1.55</v>
+      </c>
+      <c r="AI176">
+        <v>2.4</v>
+      </c>
+      <c r="AJ176">
+        <v>2.35</v>
+      </c>
+      <c r="AK176">
+        <v>1.54</v>
+      </c>
+      <c r="AL176">
+        <v>2.1</v>
+      </c>
+      <c r="AM176">
+        <v>1.67</v>
+      </c>
+      <c r="AN176">
+        <v>1.31</v>
+      </c>
+      <c r="AO176">
+        <v>1.37</v>
+      </c>
+      <c r="AP176">
+        <v>1.58</v>
+      </c>
+      <c r="AQ176">
+        <v>0.75</v>
+      </c>
+      <c r="AR176">
+        <v>0.88</v>
+      </c>
+      <c r="AS176">
+        <v>1</v>
+      </c>
+      <c r="AT176">
+        <v>0.78</v>
+      </c>
+      <c r="AU176">
+        <v>1.64</v>
+      </c>
+      <c r="AV176">
+        <v>1.2</v>
+      </c>
+      <c r="AW176">
+        <v>2.84</v>
+      </c>
+      <c r="AX176">
+        <v>1.55</v>
+      </c>
+      <c r="AY176">
+        <v>7.5</v>
+      </c>
+      <c r="AZ176">
+        <v>3.1</v>
+      </c>
+      <c r="BA176">
+        <v>1.18</v>
+      </c>
+      <c r="BB176">
+        <v>1.35</v>
+      </c>
+      <c r="BC176">
+        <v>1.63</v>
+      </c>
+      <c r="BD176">
+        <v>2.1</v>
+      </c>
+      <c r="BE176">
+        <v>2.8</v>
+      </c>
+      <c r="BF176">
+        <v>5</v>
+      </c>
+      <c r="BG176">
+        <v>3</v>
+      </c>
+      <c r="BH176">
+        <v>3</v>
+      </c>
+      <c r="BI176">
+        <v>10</v>
+      </c>
+      <c r="BJ176">
+        <v>8</v>
+      </c>
+      <c r="BK176">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>5414558</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45126.89583333334</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>84</v>
+      </c>
+      <c r="H177" t="s">
+        <v>73</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>196</v>
+      </c>
+      <c r="P177" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q177">
+        <v>7</v>
+      </c>
+      <c r="R177">
+        <v>9</v>
+      </c>
+      <c r="S177">
+        <v>16</v>
+      </c>
+      <c r="T177">
+        <v>2.38</v>
+      </c>
+      <c r="U177">
+        <v>2</v>
+      </c>
+      <c r="V177">
+        <v>5.5</v>
+      </c>
+      <c r="W177">
+        <v>1.53</v>
+      </c>
+      <c r="X177">
+        <v>2.38</v>
+      </c>
+      <c r="Y177">
+        <v>3.5</v>
+      </c>
+      <c r="Z177">
+        <v>1.29</v>
+      </c>
+      <c r="AA177">
+        <v>8.5</v>
+      </c>
+      <c r="AB177">
+        <v>1.05</v>
+      </c>
+      <c r="AC177">
+        <v>1.65</v>
+      </c>
+      <c r="AD177">
+        <v>3.3</v>
+      </c>
+      <c r="AE177">
+        <v>5</v>
+      </c>
+      <c r="AF177">
+        <v>1.1</v>
+      </c>
+      <c r="AG177">
+        <v>6.5</v>
+      </c>
+      <c r="AH177">
+        <v>1.44</v>
+      </c>
+      <c r="AI177">
+        <v>2.62</v>
+      </c>
+      <c r="AJ177">
+        <v>2.33</v>
+      </c>
+      <c r="AK177">
+        <v>1.54</v>
+      </c>
+      <c r="AL177">
+        <v>2.25</v>
+      </c>
+      <c r="AM177">
+        <v>1.57</v>
+      </c>
+      <c r="AN177">
+        <v>1.15</v>
+      </c>
+      <c r="AO177">
+        <v>1.31</v>
+      </c>
+      <c r="AP177">
+        <v>2.05</v>
+      </c>
+      <c r="AQ177">
+        <v>2.78</v>
+      </c>
+      <c r="AR177">
+        <v>1.44</v>
+      </c>
+      <c r="AS177">
+        <v>2.5</v>
+      </c>
+      <c r="AT177">
+        <v>1.6</v>
+      </c>
+      <c r="AU177">
+        <v>1.61</v>
+      </c>
+      <c r="AV177">
+        <v>1.3</v>
+      </c>
+      <c r="AW177">
+        <v>2.91</v>
+      </c>
+      <c r="AX177">
+        <v>1.33</v>
+      </c>
+      <c r="AY177">
+        <v>8.5</v>
+      </c>
+      <c r="AZ177">
+        <v>4.33</v>
+      </c>
+      <c r="BA177">
+        <v>1.22</v>
+      </c>
+      <c r="BB177">
+        <v>1.42</v>
+      </c>
+      <c r="BC177">
+        <v>1.83</v>
+      </c>
+      <c r="BD177">
+        <v>2.3</v>
+      </c>
+      <c r="BE177">
+        <v>3.1</v>
+      </c>
+      <c r="BF177">
+        <v>3</v>
+      </c>
+      <c r="BG177">
+        <v>4</v>
+      </c>
+      <c r="BH177">
+        <v>8</v>
+      </c>
+      <c r="BI177">
+        <v>2</v>
+      </c>
+      <c r="BJ177">
+        <v>11</v>
+      </c>
+      <c r="BK177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>5414559</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45126.89583333334</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>80</v>
+      </c>
+      <c r="H178" t="s">
+        <v>67</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>167</v>
+      </c>
+      <c r="P178" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q178">
+        <v>7</v>
+      </c>
+      <c r="R178">
+        <v>3</v>
+      </c>
+      <c r="S178">
+        <v>10</v>
+      </c>
+      <c r="T178">
+        <v>3.1</v>
+      </c>
+      <c r="U178">
+        <v>1.95</v>
+      </c>
+      <c r="V178">
+        <v>3.6</v>
+      </c>
+      <c r="W178">
+        <v>1.53</v>
+      </c>
+      <c r="X178">
+        <v>2.38</v>
+      </c>
+      <c r="Y178">
+        <v>3.5</v>
+      </c>
+      <c r="Z178">
+        <v>1.29</v>
+      </c>
+      <c r="AA178">
+        <v>8.5</v>
+      </c>
+      <c r="AB178">
+        <v>1.05</v>
+      </c>
+      <c r="AC178">
+        <v>2.35</v>
+      </c>
+      <c r="AD178">
+        <v>2.85</v>
+      </c>
+      <c r="AE178">
+        <v>3</v>
+      </c>
+      <c r="AF178">
+        <v>1.1</v>
+      </c>
+      <c r="AG178">
+        <v>6.5</v>
+      </c>
+      <c r="AH178">
+        <v>1.45</v>
+      </c>
+      <c r="AI178">
+        <v>2.65</v>
+      </c>
+      <c r="AJ178">
+        <v>2.4</v>
+      </c>
+      <c r="AK178">
+        <v>1.52</v>
+      </c>
+      <c r="AL178">
+        <v>2</v>
+      </c>
+      <c r="AM178">
+        <v>1.73</v>
+      </c>
+      <c r="AN178">
+        <v>1.36</v>
+      </c>
+      <c r="AO178">
+        <v>1.37</v>
+      </c>
+      <c r="AP178">
+        <v>1.52</v>
+      </c>
+      <c r="AQ178">
+        <v>1.25</v>
+      </c>
+      <c r="AR178">
+        <v>1.56</v>
+      </c>
+      <c r="AS178">
+        <v>1.44</v>
+      </c>
+      <c r="AT178">
+        <v>1.4</v>
+      </c>
+      <c r="AU178">
+        <v>1.56</v>
+      </c>
+      <c r="AV178">
+        <v>1.74</v>
+      </c>
+      <c r="AW178">
+        <v>3.3</v>
+      </c>
+      <c r="AX178">
+        <v>1.67</v>
+      </c>
+      <c r="AY178">
+        <v>7.5</v>
+      </c>
+      <c r="AZ178">
+        <v>2.75</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>1.23</v>
+      </c>
+      <c r="BC178">
+        <v>1.43</v>
+      </c>
+      <c r="BD178">
+        <v>1.8</v>
+      </c>
+      <c r="BE178">
+        <v>2.25</v>
+      </c>
+      <c r="BF178">
+        <v>4</v>
+      </c>
+      <c r="BG178">
+        <v>3</v>
+      </c>
+      <c r="BH178">
+        <v>5</v>
+      </c>
+      <c r="BI178">
+        <v>8</v>
+      </c>
+      <c r="BJ178">
+        <v>9</v>
+      </c>
+      <c r="BK178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5414562</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45126.89583333334</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>82</v>
+      </c>
+      <c r="H179" t="s">
+        <v>65</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>100</v>
+      </c>
+      <c r="P179" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q179">
+        <v>2</v>
+      </c>
+      <c r="R179">
+        <v>3</v>
+      </c>
+      <c r="S179">
+        <v>5</v>
+      </c>
+      <c r="T179">
+        <v>3.1</v>
+      </c>
+      <c r="U179">
+        <v>1.91</v>
+      </c>
+      <c r="V179">
+        <v>3.75</v>
+      </c>
+      <c r="W179">
+        <v>1.57</v>
+      </c>
+      <c r="X179">
+        <v>2.25</v>
+      </c>
+      <c r="Y179">
+        <v>3.75</v>
+      </c>
+      <c r="Z179">
+        <v>1.25</v>
+      </c>
+      <c r="AA179">
+        <v>8.5</v>
+      </c>
+      <c r="AB179">
+        <v>1.05</v>
+      </c>
+      <c r="AC179">
+        <v>2.55</v>
+      </c>
+      <c r="AD179">
+        <v>2.85</v>
+      </c>
+      <c r="AE179">
+        <v>2.75</v>
+      </c>
+      <c r="AF179">
+        <v>1.1</v>
+      </c>
+      <c r="AG179">
+        <v>6.5</v>
+      </c>
+      <c r="AH179">
+        <v>1.48</v>
+      </c>
+      <c r="AI179">
+        <v>2.48</v>
+      </c>
+      <c r="AJ179">
+        <v>2.59</v>
+      </c>
+      <c r="AK179">
+        <v>1.44</v>
+      </c>
+      <c r="AL179">
+        <v>2.1</v>
+      </c>
+      <c r="AM179">
+        <v>1.67</v>
+      </c>
+      <c r="AN179">
+        <v>1.44</v>
+      </c>
+      <c r="AO179">
+        <v>1.37</v>
+      </c>
+      <c r="AP179">
+        <v>1.43</v>
+      </c>
+      <c r="AQ179">
+        <v>0.63</v>
+      </c>
+      <c r="AR179">
+        <v>0.78</v>
+      </c>
+      <c r="AS179">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT179">
+        <v>1</v>
+      </c>
+      <c r="AU179">
+        <v>1.49</v>
+      </c>
+      <c r="AV179">
+        <v>1.27</v>
+      </c>
+      <c r="AW179">
+        <v>2.76</v>
+      </c>
+      <c r="AX179">
+        <v>1.7</v>
+      </c>
+      <c r="AY179">
+        <v>7</v>
+      </c>
+      <c r="AZ179">
+        <v>2.7</v>
+      </c>
+      <c r="BA179">
+        <v>1.25</v>
+      </c>
+      <c r="BB179">
+        <v>1.47</v>
+      </c>
+      <c r="BC179">
+        <v>1.85</v>
+      </c>
+      <c r="BD179">
+        <v>2.45</v>
+      </c>
+      <c r="BE179">
+        <v>3.4</v>
+      </c>
+      <c r="BF179">
+        <v>3</v>
+      </c>
+      <c r="BG179">
+        <v>3</v>
+      </c>
+      <c r="BH179">
+        <v>3</v>
+      </c>
+      <c r="BI179">
+        <v>8</v>
+      </c>
+      <c r="BJ179">
+        <v>6</v>
+      </c>
+      <c r="BK179">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,10 +607,22 @@
     <t>['51']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['34', '45+11']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
   </si>
   <si>
     <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
   <si>
     <t>['24', '44', '81']</t>
@@ -629,9 +641,6 @@
   </si>
   <si>
     <t>['6', '77', '80']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['17']</t>
@@ -803,6 +812,18 @@
   </si>
   <si>
     <t>['45+1', '65']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['12', '55']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1429,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1495,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT2">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1686,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
+        <v>1.33</v>
+      </c>
+      <c r="AT3">
         <v>1.5</v>
-      </c>
-      <c r="AT3">
-        <v>1.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1790,7 +1811,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1877,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT4">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2068,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>0.71</v>
@@ -2172,7 +2193,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2259,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2363,7 +2384,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2450,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT7">
         <v>1.38</v>
@@ -2641,10 +2662,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT8">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2835,7 +2856,7 @@
         <v>1.25</v>
       </c>
       <c r="AT9">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3026,7 +3047,7 @@
         <v>2.25</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3509,7 +3530,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4273,7 +4294,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4655,7 +4676,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4933,10 +4954,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT20">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU20">
         <v>1.44</v>
@@ -5315,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT22">
         <v>0.8</v>
@@ -5419,7 +5440,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5506,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT23">
         <v>1.22</v>
@@ -5801,7 +5822,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -5891,7 +5912,7 @@
         <v>1.3</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU25">
         <v>2.3</v>
@@ -5992,7 +6013,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6082,7 +6103,7 @@
         <v>1.1</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU26">
         <v>2.32</v>
@@ -6273,7 +6294,7 @@
         <v>1.89</v>
       </c>
       <c r="AT27">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU27">
         <v>2.12</v>
@@ -6374,7 +6395,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6464,7 +6485,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT28">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU28">
         <v>0.93</v>
@@ -6652,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT29">
         <v>1.4</v>
@@ -7225,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT32">
         <v>0.78</v>
@@ -7607,10 +7628,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT34">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU34">
         <v>0.72</v>
@@ -7711,7 +7732,7 @@
         <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7798,10 +7819,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT35">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU35">
         <v>1.82</v>
@@ -7989,7 +8010,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -8093,7 +8114,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8284,7 +8305,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8562,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT39">
         <v>0.8</v>
@@ -8666,7 +8687,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8756,7 +8777,7 @@
         <v>1.1</v>
       </c>
       <c r="AT40">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU40">
         <v>1.98</v>
@@ -8944,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT41">
         <v>1.4</v>
@@ -9135,7 +9156,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT42">
         <v>1.4</v>
@@ -9239,7 +9260,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9329,7 +9350,7 @@
         <v>1.3</v>
       </c>
       <c r="AT43">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU43">
         <v>1.86</v>
@@ -9517,10 +9538,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT44">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU44">
         <v>1.45</v>
@@ -9711,7 +9732,7 @@
         <v>1.4</v>
       </c>
       <c r="AT45">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU45">
         <v>1.72</v>
@@ -10003,7 +10024,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10194,7 +10215,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10385,7 +10406,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10475,7 +10496,7 @@
         <v>2.5</v>
       </c>
       <c r="AT49">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU49">
         <v>1.58</v>
@@ -10663,7 +10684,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT50">
         <v>1.67</v>
@@ -10767,7 +10788,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10958,7 +10979,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11045,7 +11066,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT52">
         <v>1.22</v>
@@ -11427,7 +11448,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT54">
         <v>0.78</v>
@@ -11621,7 +11642,7 @@
         <v>1.44</v>
       </c>
       <c r="AT55">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -11812,7 +11833,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU56">
         <v>1.37</v>
@@ -11913,7 +11934,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12003,7 +12024,7 @@
         <v>2.25</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU57">
         <v>1.79</v>
@@ -12104,7 +12125,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12295,7 +12316,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12382,10 +12403,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU59">
         <v>1.3</v>
@@ -12486,7 +12507,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -12764,7 +12785,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT61">
         <v>1.6</v>
@@ -12958,7 +12979,7 @@
         <v>1.9</v>
       </c>
       <c r="AT62">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU62">
         <v>1.28</v>
@@ -13250,7 +13271,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13337,10 +13358,10 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT64">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU64">
         <v>1.47</v>
@@ -13528,10 +13549,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT65">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU65">
         <v>1.61</v>
@@ -13632,7 +13653,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13823,7 +13844,7 @@
         <v>117</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13910,10 +13931,10 @@
         <v>1.33</v>
       </c>
       <c r="AS67">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT67">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU67">
         <v>1.51</v>
@@ -14205,7 +14226,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14292,7 +14313,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT69">
         <v>1.4</v>
@@ -14677,7 +14698,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT71">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU71">
         <v>1.49</v>
@@ -14868,7 +14889,7 @@
         <v>1.89</v>
       </c>
       <c r="AT72">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU72">
         <v>2.1</v>
@@ -15247,10 +15268,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU74">
         <v>1.72</v>
@@ -15438,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT75">
         <v>0.8</v>
@@ -15542,7 +15563,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15632,7 +15653,7 @@
         <v>1.25</v>
       </c>
       <c r="AT76">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU76">
         <v>1.52</v>
@@ -15733,7 +15754,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15820,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT77">
         <v>0.71</v>
@@ -16011,10 +16032,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU78">
         <v>1.63</v>
@@ -16202,10 +16223,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT79">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU79">
         <v>1.81</v>
@@ -16306,7 +16327,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16393,7 +16414,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT80">
         <v>0.4</v>
@@ -16497,7 +16518,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16584,7 +16605,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
         <v>1.4</v>
@@ -16688,7 +16709,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17348,7 +17369,7 @@
         <v>1.67</v>
       </c>
       <c r="AS85">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>1.67</v>
@@ -17452,7 +17473,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17542,7 +17563,7 @@
         <v>1.44</v>
       </c>
       <c r="AT86">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU86">
         <v>1.55</v>
@@ -17643,7 +17664,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17733,7 +17754,7 @@
         <v>2.5</v>
       </c>
       <c r="AT87">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU87">
         <v>1.65</v>
@@ -17834,7 +17855,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>10</v>
@@ -18025,7 +18046,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18497,7 +18518,7 @@
         <v>1.78</v>
       </c>
       <c r="AT91">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU91">
         <v>1.57</v>
@@ -18876,10 +18897,10 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU93">
         <v>1.85</v>
@@ -18980,7 +19001,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19067,10 +19088,10 @@
         <v>0.8</v>
       </c>
       <c r="AS94">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT94">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU94">
         <v>1.65</v>
@@ -19258,10 +19279,10 @@
         <v>0.5</v>
       </c>
       <c r="AS95">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT95">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU95">
         <v>1.55</v>
@@ -19362,7 +19383,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19452,7 +19473,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT96">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -19640,7 +19661,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT97">
         <v>0.78</v>
@@ -19831,7 +19852,7 @@
         <v>0.75</v>
       </c>
       <c r="AS98">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19935,7 +19956,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20025,7 +20046,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU99">
         <v>1.59</v>
@@ -20126,7 +20147,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20598,7 +20619,7 @@
         <v>1.4</v>
       </c>
       <c r="AT102">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU102">
         <v>1.75</v>
@@ -20699,7 +20720,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20789,7 +20810,7 @@
         <v>1.9</v>
       </c>
       <c r="AT103">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -20890,7 +20911,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21171,7 +21192,7 @@
         <v>2.5</v>
       </c>
       <c r="AT105">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU105">
         <v>1.84</v>
@@ -21359,7 +21380,7 @@
         <v>0.6</v>
       </c>
       <c r="AS106">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT106">
         <v>0.4</v>
@@ -21741,7 +21762,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT108">
         <v>1.22</v>
@@ -21932,7 +21953,7 @@
         <v>1.2</v>
       </c>
       <c r="AS109">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT109">
         <v>1.4</v>
@@ -22314,7 +22335,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22505,10 +22526,10 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU112">
         <v>1.44</v>
@@ -22800,7 +22821,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23081,7 +23102,7 @@
         <v>1.4</v>
       </c>
       <c r="AT115">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU115">
         <v>1.72</v>
@@ -23182,7 +23203,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23755,7 +23776,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23842,10 +23863,10 @@
         <v>0.2</v>
       </c>
       <c r="AS119">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT119">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU119">
         <v>1.64</v>
@@ -24137,7 +24158,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24224,7 +24245,7 @@
         <v>0.5</v>
       </c>
       <c r="AS121">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT121">
         <v>0.8</v>
@@ -24609,7 +24630,7 @@
         <v>1.9</v>
       </c>
       <c r="AT123">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU123">
         <v>1.74</v>
@@ -24710,7 +24731,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -25283,7 +25304,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25373,7 +25394,7 @@
         <v>1.1</v>
       </c>
       <c r="AT127">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU127">
         <v>1.97</v>
@@ -25474,7 +25495,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25561,10 +25582,10 @@
         <v>0.33</v>
       </c>
       <c r="AS128">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT128">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU128">
         <v>1.68</v>
@@ -25665,7 +25686,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25752,10 +25773,10 @@
         <v>2.17</v>
       </c>
       <c r="AS129">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT129">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU129">
         <v>1.86</v>
@@ -25943,7 +25964,7 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT130">
         <v>1.6</v>
@@ -26047,7 +26068,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26137,7 +26158,7 @@
         <v>1.3</v>
       </c>
       <c r="AT131">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU131">
         <v>1.54</v>
@@ -26325,7 +26346,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT132">
         <v>1</v>
@@ -26707,10 +26728,10 @@
         <v>0.67</v>
       </c>
       <c r="AS134">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT134">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU134">
         <v>1.98</v>
@@ -26901,7 +26922,7 @@
         <v>1.44</v>
       </c>
       <c r="AT135">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU135">
         <v>1.57</v>
@@ -27002,7 +27023,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27092,7 +27113,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT136">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU136">
         <v>1.31</v>
@@ -27193,7 +27214,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27280,10 +27301,10 @@
         <v>0.33</v>
       </c>
       <c r="AS137">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU137">
         <v>1.35</v>
@@ -27384,7 +27405,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27471,7 +27492,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT138">
         <v>1.22</v>
@@ -27575,7 +27596,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27766,7 +27787,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27957,7 +27978,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28339,7 +28360,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28426,7 +28447,7 @@
         <v>1.5</v>
       </c>
       <c r="AS143">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT143">
         <v>1.67</v>
@@ -28530,7 +28551,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28620,7 +28641,7 @@
         <v>1</v>
       </c>
       <c r="AT144">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -28721,7 +28742,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28808,7 +28829,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT145">
         <v>0.4</v>
@@ -28999,7 +29020,7 @@
         <v>1.86</v>
       </c>
       <c r="AS146">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT146">
         <v>1.6</v>
@@ -29193,7 +29214,7 @@
         <v>2.5</v>
       </c>
       <c r="AT147">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU147">
         <v>1.64</v>
@@ -29384,7 +29405,7 @@
         <v>1.4</v>
       </c>
       <c r="AT148">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU148">
         <v>1.58</v>
@@ -29572,7 +29593,7 @@
         <v>0.57</v>
       </c>
       <c r="AS149">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT149">
         <v>0.8</v>
@@ -29954,10 +29975,10 @@
         <v>1.17</v>
       </c>
       <c r="AS151">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT151">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU151">
         <v>1.5</v>
@@ -30058,7 +30079,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30148,7 +30169,7 @@
         <v>1.89</v>
       </c>
       <c r="AT152">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU152">
         <v>1.95</v>
@@ -30440,7 +30461,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30527,7 +30548,7 @@
         <v>0.5</v>
       </c>
       <c r="AS154">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT154">
         <v>0.4</v>
@@ -30909,7 +30930,7 @@
         <v>1.5</v>
       </c>
       <c r="AS156">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT156">
         <v>1.4</v>
@@ -31013,7 +31034,7 @@
         <v>100</v>
       </c>
       <c r="P157" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31103,7 +31124,7 @@
         <v>1</v>
       </c>
       <c r="AT157">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU157">
         <v>1.68</v>
@@ -31864,7 +31885,7 @@
         <v>1.63</v>
       </c>
       <c r="AS161">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT161">
         <v>1.6</v>
@@ -31968,7 +31989,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32055,7 +32076,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT162">
         <v>1</v>
@@ -32246,7 +32267,7 @@
         <v>0.88</v>
       </c>
       <c r="AS163">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT163">
         <v>0.8</v>
@@ -32440,7 +32461,7 @@
         <v>1.9</v>
       </c>
       <c r="AT164">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU164">
         <v>1.78</v>
@@ -32628,10 +32649,10 @@
         <v>0.63</v>
       </c>
       <c r="AS165">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT165">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU165">
         <v>1.68</v>
@@ -32822,7 +32843,7 @@
         <v>1.4</v>
       </c>
       <c r="AT166">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU166">
         <v>1.63</v>
@@ -33201,10 +33222,10 @@
         <v>1.75</v>
       </c>
       <c r="AS168">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT168">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU168">
         <v>1.84</v>
@@ -33395,7 +33416,7 @@
         <v>2.25</v>
       </c>
       <c r="AT169">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU169">
         <v>1.75</v>
@@ -33687,7 +33708,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34260,7 +34281,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34833,7 +34854,7 @@
         <v>196</v>
       </c>
       <c r="P177" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35215,7 +35236,7 @@
         <v>100</v>
       </c>
       <c r="P179" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35357,6 +35378,1534 @@
       </c>
       <c r="BK179">
         <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>5414572</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45128.79166666666</v>
+      </c>
+      <c r="F180">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s">
+        <v>83</v>
+      </c>
+      <c r="H180" t="s">
+        <v>76</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>197</v>
+      </c>
+      <c r="P180" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q180">
+        <v>7</v>
+      </c>
+      <c r="R180">
+        <v>5</v>
+      </c>
+      <c r="S180">
+        <v>12</v>
+      </c>
+      <c r="T180">
+        <v>2.75</v>
+      </c>
+      <c r="U180">
+        <v>1.85</v>
+      </c>
+      <c r="V180">
+        <v>4.5</v>
+      </c>
+      <c r="W180">
+        <v>1.55</v>
+      </c>
+      <c r="X180">
+        <v>2.25</v>
+      </c>
+      <c r="Y180">
+        <v>3.5</v>
+      </c>
+      <c r="Z180">
+        <v>1.26</v>
+      </c>
+      <c r="AA180">
+        <v>10</v>
+      </c>
+      <c r="AB180">
+        <v>1.05</v>
+      </c>
+      <c r="AC180">
+        <v>2</v>
+      </c>
+      <c r="AD180">
+        <v>3.1</v>
+      </c>
+      <c r="AE180">
+        <v>3.6</v>
+      </c>
+      <c r="AF180">
+        <v>1.11</v>
+      </c>
+      <c r="AG180">
+        <v>5.75</v>
+      </c>
+      <c r="AH180">
+        <v>1.5</v>
+      </c>
+      <c r="AI180">
+        <v>2.45</v>
+      </c>
+      <c r="AJ180">
+        <v>2.48</v>
+      </c>
+      <c r="AK180">
+        <v>1.44</v>
+      </c>
+      <c r="AL180">
+        <v>2.15</v>
+      </c>
+      <c r="AM180">
+        <v>1.61</v>
+      </c>
+      <c r="AN180">
+        <v>1.23</v>
+      </c>
+      <c r="AO180">
+        <v>1.37</v>
+      </c>
+      <c r="AP180">
+        <v>1.72</v>
+      </c>
+      <c r="AQ180">
+        <v>1.5</v>
+      </c>
+      <c r="AR180">
+        <v>1</v>
+      </c>
+      <c r="AS180">
+        <v>1.67</v>
+      </c>
+      <c r="AT180">
+        <v>0.89</v>
+      </c>
+      <c r="AU180">
+        <v>1.44</v>
+      </c>
+      <c r="AV180">
+        <v>1.25</v>
+      </c>
+      <c r="AW180">
+        <v>2.69</v>
+      </c>
+      <c r="AX180">
+        <v>1.6</v>
+      </c>
+      <c r="AY180">
+        <v>7.5</v>
+      </c>
+      <c r="AZ180">
+        <v>2.9</v>
+      </c>
+      <c r="BA180">
+        <v>1.15</v>
+      </c>
+      <c r="BB180">
+        <v>1.28</v>
+      </c>
+      <c r="BC180">
+        <v>1.58</v>
+      </c>
+      <c r="BD180">
+        <v>1.92</v>
+      </c>
+      <c r="BE180">
+        <v>2.36</v>
+      </c>
+      <c r="BF180">
+        <v>8</v>
+      </c>
+      <c r="BG180">
+        <v>3</v>
+      </c>
+      <c r="BH180">
+        <v>9</v>
+      </c>
+      <c r="BI180">
+        <v>4</v>
+      </c>
+      <c r="BJ180">
+        <v>17</v>
+      </c>
+      <c r="BK180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>5414567</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45129.64583333334</v>
+      </c>
+      <c r="F181">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
+        <v>68</v>
+      </c>
+      <c r="H181" t="s">
+        <v>77</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>198</v>
+      </c>
+      <c r="P181" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q181">
+        <v>7</v>
+      </c>
+      <c r="R181">
+        <v>8</v>
+      </c>
+      <c r="S181">
+        <v>15</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
+        <v>6</v>
+      </c>
+      <c r="W181">
+        <v>1.49</v>
+      </c>
+      <c r="X181">
+        <v>2.45</v>
+      </c>
+      <c r="Y181">
+        <v>3.25</v>
+      </c>
+      <c r="Z181">
+        <v>1.28</v>
+      </c>
+      <c r="AA181">
+        <v>7.75</v>
+      </c>
+      <c r="AB181">
+        <v>1.04</v>
+      </c>
+      <c r="AC181">
+        <v>1.64</v>
+      </c>
+      <c r="AD181">
+        <v>3.45</v>
+      </c>
+      <c r="AE181">
+        <v>5.8</v>
+      </c>
+      <c r="AF181">
+        <v>1.08</v>
+      </c>
+      <c r="AG181">
+        <v>8.25</v>
+      </c>
+      <c r="AH181">
+        <v>1.43</v>
+      </c>
+      <c r="AI181">
+        <v>2.7</v>
+      </c>
+      <c r="AJ181">
+        <v>2.19</v>
+      </c>
+      <c r="AK181">
+        <v>1.6</v>
+      </c>
+      <c r="AL181">
+        <v>2.25</v>
+      </c>
+      <c r="AM181">
+        <v>1.57</v>
+      </c>
+      <c r="AN181">
+        <v>1.13</v>
+      </c>
+      <c r="AO181">
+        <v>1.22</v>
+      </c>
+      <c r="AP181">
+        <v>2.15</v>
+      </c>
+      <c r="AQ181">
+        <v>1.89</v>
+      </c>
+      <c r="AR181">
+        <v>0.88</v>
+      </c>
+      <c r="AS181">
+        <v>2</v>
+      </c>
+      <c r="AT181">
+        <v>0.78</v>
+      </c>
+      <c r="AU181">
+        <v>1.83</v>
+      </c>
+      <c r="AV181">
+        <v>1.45</v>
+      </c>
+      <c r="AW181">
+        <v>3.28</v>
+      </c>
+      <c r="AX181">
+        <v>1.33</v>
+      </c>
+      <c r="AY181">
+        <v>8.5</v>
+      </c>
+      <c r="AZ181">
+        <v>4.33</v>
+      </c>
+      <c r="BA181">
+        <v>1.17</v>
+      </c>
+      <c r="BB181">
+        <v>1.29</v>
+      </c>
+      <c r="BC181">
+        <v>1.62</v>
+      </c>
+      <c r="BD181">
+        <v>1.95</v>
+      </c>
+      <c r="BE181">
+        <v>2.43</v>
+      </c>
+      <c r="BF181">
+        <v>4</v>
+      </c>
+      <c r="BG181">
+        <v>2</v>
+      </c>
+      <c r="BH181">
+        <v>7</v>
+      </c>
+      <c r="BI181">
+        <v>7</v>
+      </c>
+      <c r="BJ181">
+        <v>11</v>
+      </c>
+      <c r="BK181">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>5414564</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45129.70833333334</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>67</v>
+      </c>
+      <c r="H182" t="s">
+        <v>82</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>199</v>
+      </c>
+      <c r="P182" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q182">
+        <v>6</v>
+      </c>
+      <c r="R182">
+        <v>4</v>
+      </c>
+      <c r="S182">
+        <v>10</v>
+      </c>
+      <c r="T182">
+        <v>2.07</v>
+      </c>
+      <c r="U182">
+        <v>2.1</v>
+      </c>
+      <c r="V182">
+        <v>7.9</v>
+      </c>
+      <c r="W182">
+        <v>1.51</v>
+      </c>
+      <c r="X182">
+        <v>2.46</v>
+      </c>
+      <c r="Y182">
+        <v>3.42</v>
+      </c>
+      <c r="Z182">
+        <v>1.29</v>
+      </c>
+      <c r="AA182">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB182">
+        <v>1.04</v>
+      </c>
+      <c r="AC182">
+        <v>1.44</v>
+      </c>
+      <c r="AD182">
+        <v>3.75</v>
+      </c>
+      <c r="AE182">
+        <v>7.1</v>
+      </c>
+      <c r="AF182">
+        <v>1.1</v>
+      </c>
+      <c r="AG182">
+        <v>6.5</v>
+      </c>
+      <c r="AH182">
+        <v>1.44</v>
+      </c>
+      <c r="AI182">
+        <v>2.65</v>
+      </c>
+      <c r="AJ182">
+        <v>2.3</v>
+      </c>
+      <c r="AK182">
+        <v>1.5</v>
+      </c>
+      <c r="AL182">
+        <v>2.6</v>
+      </c>
+      <c r="AM182">
+        <v>1.47</v>
+      </c>
+      <c r="AN182">
+        <v>1.07</v>
+      </c>
+      <c r="AO182">
+        <v>1.24</v>
+      </c>
+      <c r="AP182">
+        <v>2.69</v>
+      </c>
+      <c r="AQ182">
+        <v>2.5</v>
+      </c>
+      <c r="AR182">
+        <v>0.67</v>
+      </c>
+      <c r="AS182">
+        <v>2.33</v>
+      </c>
+      <c r="AT182">
+        <v>0.7</v>
+      </c>
+      <c r="AU182">
+        <v>1.95</v>
+      </c>
+      <c r="AV182">
+        <v>1.01</v>
+      </c>
+      <c r="AW182">
+        <v>2.96</v>
+      </c>
+      <c r="AX182">
+        <v>1.3</v>
+      </c>
+      <c r="AY182">
+        <v>9</v>
+      </c>
+      <c r="AZ182">
+        <v>4.5</v>
+      </c>
+      <c r="BA182">
+        <v>1.16</v>
+      </c>
+      <c r="BB182">
+        <v>1.29</v>
+      </c>
+      <c r="BC182">
+        <v>1.6</v>
+      </c>
+      <c r="BD182">
+        <v>1.93</v>
+      </c>
+      <c r="BE182">
+        <v>2.39</v>
+      </c>
+      <c r="BF182">
+        <v>6</v>
+      </c>
+      <c r="BG182">
+        <v>2</v>
+      </c>
+      <c r="BH182">
+        <v>7</v>
+      </c>
+      <c r="BI182">
+        <v>5</v>
+      </c>
+      <c r="BJ182">
+        <v>13</v>
+      </c>
+      <c r="BK182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>5414565</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45129.70833333334</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>79</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>100</v>
+      </c>
+      <c r="P183" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q183">
+        <v>6</v>
+      </c>
+      <c r="R183">
+        <v>8</v>
+      </c>
+      <c r="S183">
+        <v>14</v>
+      </c>
+      <c r="T183">
+        <v>3.1</v>
+      </c>
+      <c r="U183">
+        <v>1.87</v>
+      </c>
+      <c r="V183">
+        <v>4</v>
+      </c>
+      <c r="W183">
+        <v>1.56</v>
+      </c>
+      <c r="X183">
+        <v>2.29</v>
+      </c>
+      <c r="Y183">
+        <v>3.7</v>
+      </c>
+      <c r="Z183">
+        <v>1.24</v>
+      </c>
+      <c r="AA183">
+        <v>10.5</v>
+      </c>
+      <c r="AB183">
+        <v>1.02</v>
+      </c>
+      <c r="AC183">
+        <v>2.32</v>
+      </c>
+      <c r="AD183">
+        <v>2.93</v>
+      </c>
+      <c r="AE183">
+        <v>3.05</v>
+      </c>
+      <c r="AF183">
+        <v>1.11</v>
+      </c>
+      <c r="AG183">
+        <v>6.5</v>
+      </c>
+      <c r="AH183">
+        <v>1.5</v>
+      </c>
+      <c r="AI183">
+        <v>2.37</v>
+      </c>
+      <c r="AJ183">
+        <v>2.48</v>
+      </c>
+      <c r="AK183">
+        <v>1.43</v>
+      </c>
+      <c r="AL183">
+        <v>2.15</v>
+      </c>
+      <c r="AM183">
+        <v>1.66</v>
+      </c>
+      <c r="AN183">
+        <v>1.25</v>
+      </c>
+      <c r="AO183">
+        <v>1.3</v>
+      </c>
+      <c r="AP183">
+        <v>1.57</v>
+      </c>
+      <c r="AQ183">
+        <v>2.11</v>
+      </c>
+      <c r="AR183">
+        <v>1.78</v>
+      </c>
+      <c r="AS183">
+        <v>1.9</v>
+      </c>
+      <c r="AT183">
+        <v>1.9</v>
+      </c>
+      <c r="AU183">
+        <v>1.86</v>
+      </c>
+      <c r="AV183">
+        <v>1.5</v>
+      </c>
+      <c r="AW183">
+        <v>3.36</v>
+      </c>
+      <c r="AX183">
+        <v>2.05</v>
+      </c>
+      <c r="AY183">
+        <v>7.5</v>
+      </c>
+      <c r="AZ183">
+        <v>2.1</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>1.21</v>
+      </c>
+      <c r="BC183">
+        <v>1.48</v>
+      </c>
+      <c r="BD183">
+        <v>1.76</v>
+      </c>
+      <c r="BE183">
+        <v>2.13</v>
+      </c>
+      <c r="BF183">
+        <v>5</v>
+      </c>
+      <c r="BG183">
+        <v>5</v>
+      </c>
+      <c r="BH183">
+        <v>7</v>
+      </c>
+      <c r="BI183">
+        <v>4</v>
+      </c>
+      <c r="BJ183">
+        <v>12</v>
+      </c>
+      <c r="BK183">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>5414566</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45129.75</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>66</v>
+      </c>
+      <c r="H184" t="s">
+        <v>78</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>100</v>
+      </c>
+      <c r="P184" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q184">
+        <v>11</v>
+      </c>
+      <c r="R184">
+        <v>3</v>
+      </c>
+      <c r="S184">
+        <v>14</v>
+      </c>
+      <c r="T184">
+        <v>2.8</v>
+      </c>
+      <c r="U184">
+        <v>1.95</v>
+      </c>
+      <c r="V184">
+        <v>4.3</v>
+      </c>
+      <c r="W184">
+        <v>1.55</v>
+      </c>
+      <c r="X184">
+        <v>2.3</v>
+      </c>
+      <c r="Y184">
+        <v>3.48</v>
+      </c>
+      <c r="Z184">
+        <v>1.28</v>
+      </c>
+      <c r="AA184">
+        <v>8.25</v>
+      </c>
+      <c r="AB184">
+        <v>1.04</v>
+      </c>
+      <c r="AC184">
+        <v>2.14</v>
+      </c>
+      <c r="AD184">
+        <v>3.05</v>
+      </c>
+      <c r="AE184">
+        <v>3.3</v>
+      </c>
+      <c r="AF184">
+        <v>1.09</v>
+      </c>
+      <c r="AG184">
+        <v>7.5</v>
+      </c>
+      <c r="AH184">
+        <v>1.53</v>
+      </c>
+      <c r="AI184">
+        <v>2.36</v>
+      </c>
+      <c r="AJ184">
+        <v>2.36</v>
+      </c>
+      <c r="AK184">
+        <v>1.48</v>
+      </c>
+      <c r="AL184">
+        <v>2.1</v>
+      </c>
+      <c r="AM184">
+        <v>1.67</v>
+      </c>
+      <c r="AN184">
+        <v>1.25</v>
+      </c>
+      <c r="AO184">
+        <v>1.3</v>
+      </c>
+      <c r="AP184">
+        <v>1.68</v>
+      </c>
+      <c r="AQ184">
+        <v>1.5</v>
+      </c>
+      <c r="AR184">
+        <v>0.63</v>
+      </c>
+      <c r="AS184">
+        <v>1.33</v>
+      </c>
+      <c r="AT184">
+        <v>0.89</v>
+      </c>
+      <c r="AU184">
+        <v>1.38</v>
+      </c>
+      <c r="AV184">
+        <v>1.14</v>
+      </c>
+      <c r="AW184">
+        <v>2.52</v>
+      </c>
+      <c r="AX184">
+        <v>1.7</v>
+      </c>
+      <c r="AY184">
+        <v>7</v>
+      </c>
+      <c r="AZ184">
+        <v>2.7</v>
+      </c>
+      <c r="BA184">
+        <v>1.15</v>
+      </c>
+      <c r="BB184">
+        <v>1.28</v>
+      </c>
+      <c r="BC184">
+        <v>1.58</v>
+      </c>
+      <c r="BD184">
+        <v>1.92</v>
+      </c>
+      <c r="BE184">
+        <v>2.35</v>
+      </c>
+      <c r="BF184">
+        <v>6</v>
+      </c>
+      <c r="BG184">
+        <v>4</v>
+      </c>
+      <c r="BH184">
+        <v>9</v>
+      </c>
+      <c r="BI184">
+        <v>2</v>
+      </c>
+      <c r="BJ184">
+        <v>15</v>
+      </c>
+      <c r="BK184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>5414563</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45130.45833333334</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>65</v>
+      </c>
+      <c r="H185" t="s">
+        <v>74</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>117</v>
+      </c>
+      <c r="P185" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>4</v>
+      </c>
+      <c r="S185">
+        <v>9</v>
+      </c>
+      <c r="T185">
+        <v>3.1</v>
+      </c>
+      <c r="U185">
+        <v>1.95</v>
+      </c>
+      <c r="V185">
+        <v>3.7</v>
+      </c>
+      <c r="W185">
+        <v>1.54</v>
+      </c>
+      <c r="X185">
+        <v>2.34</v>
+      </c>
+      <c r="Y185">
+        <v>3.3</v>
+      </c>
+      <c r="Z185">
+        <v>1.28</v>
+      </c>
+      <c r="AA185">
+        <v>8</v>
+      </c>
+      <c r="AB185">
+        <v>1.05</v>
+      </c>
+      <c r="AC185">
+        <v>2.35</v>
+      </c>
+      <c r="AD185">
+        <v>3</v>
+      </c>
+      <c r="AE185">
+        <v>2.97</v>
+      </c>
+      <c r="AF185">
+        <v>1.08</v>
+      </c>
+      <c r="AG185">
+        <v>7.75</v>
+      </c>
+      <c r="AH185">
+        <v>1.42</v>
+      </c>
+      <c r="AI185">
+        <v>2.65</v>
+      </c>
+      <c r="AJ185">
+        <v>2.19</v>
+      </c>
+      <c r="AK185">
+        <v>1.6</v>
+      </c>
+      <c r="AL185">
+        <v>1.95</v>
+      </c>
+      <c r="AM185">
+        <v>1.75</v>
+      </c>
+      <c r="AN185">
+        <v>1.35</v>
+      </c>
+      <c r="AO185">
+        <v>1.32</v>
+      </c>
+      <c r="AP185">
+        <v>1.5</v>
+      </c>
+      <c r="AQ185">
+        <v>2.38</v>
+      </c>
+      <c r="AR185">
+        <v>1</v>
+      </c>
+      <c r="AS185">
+        <v>2.44</v>
+      </c>
+      <c r="AT185">
+        <v>0.89</v>
+      </c>
+      <c r="AU185">
+        <v>1.41</v>
+      </c>
+      <c r="AV185">
+        <v>1.33</v>
+      </c>
+      <c r="AW185">
+        <v>2.74</v>
+      </c>
+      <c r="AX185">
+        <v>1.89</v>
+      </c>
+      <c r="AY185">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ185">
+        <v>2.17</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>1.22</v>
+      </c>
+      <c r="BC185">
+        <v>1.36</v>
+      </c>
+      <c r="BD185">
+        <v>1.72</v>
+      </c>
+      <c r="BE185">
+        <v>2.08</v>
+      </c>
+      <c r="BF185">
+        <v>7</v>
+      </c>
+      <c r="BG185">
+        <v>3</v>
+      </c>
+      <c r="BH185">
+        <v>5</v>
+      </c>
+      <c r="BI185">
+        <v>7</v>
+      </c>
+      <c r="BJ185">
+        <v>12</v>
+      </c>
+      <c r="BK185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>5414570</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45130.64583333334</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>70</v>
+      </c>
+      <c r="H186" t="s">
+        <v>80</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>200</v>
+      </c>
+      <c r="P186" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="R186">
+        <v>5</v>
+      </c>
+      <c r="S186">
+        <v>6</v>
+      </c>
+      <c r="T186">
+        <v>2.95</v>
+      </c>
+      <c r="U186">
+        <v>1.95</v>
+      </c>
+      <c r="V186">
+        <v>4</v>
+      </c>
+      <c r="W186">
+        <v>1.52</v>
+      </c>
+      <c r="X186">
+        <v>2.39</v>
+      </c>
+      <c r="Y186">
+        <v>3.3</v>
+      </c>
+      <c r="Z186">
+        <v>1.28</v>
+      </c>
+      <c r="AA186">
+        <v>7.75</v>
+      </c>
+      <c r="AB186">
+        <v>1.05</v>
+      </c>
+      <c r="AC186">
+        <v>2.03</v>
+      </c>
+      <c r="AD186">
+        <v>3.1</v>
+      </c>
+      <c r="AE186">
+        <v>3.57</v>
+      </c>
+      <c r="AF186">
+        <v>1.08</v>
+      </c>
+      <c r="AG186">
+        <v>7.85</v>
+      </c>
+      <c r="AH186">
+        <v>1.42</v>
+      </c>
+      <c r="AI186">
+        <v>2.65</v>
+      </c>
+      <c r="AJ186">
+        <v>2.25</v>
+      </c>
+      <c r="AK186">
+        <v>1.57</v>
+      </c>
+      <c r="AL186">
+        <v>2</v>
+      </c>
+      <c r="AM186">
+        <v>1.72</v>
+      </c>
+      <c r="AN186">
+        <v>1.3</v>
+      </c>
+      <c r="AO186">
+        <v>1.32</v>
+      </c>
+      <c r="AP186">
+        <v>1.6</v>
+      </c>
+      <c r="AQ186">
+        <v>1.63</v>
+      </c>
+      <c r="AR186">
+        <v>1.67</v>
+      </c>
+      <c r="AS186">
+        <v>1.78</v>
+      </c>
+      <c r="AT186">
+        <v>1.5</v>
+      </c>
+      <c r="AU186">
+        <v>1.71</v>
+      </c>
+      <c r="AV186">
+        <v>1.14</v>
+      </c>
+      <c r="AW186">
+        <v>2.85</v>
+      </c>
+      <c r="AX186">
+        <v>1.38</v>
+      </c>
+      <c r="AY186">
+        <v>6.5</v>
+      </c>
+      <c r="AZ186">
+        <v>3.35</v>
+      </c>
+      <c r="BA186">
+        <v>1.15</v>
+      </c>
+      <c r="BB186">
+        <v>1.26</v>
+      </c>
+      <c r="BC186">
+        <v>1.54</v>
+      </c>
+      <c r="BD186">
+        <v>1.87</v>
+      </c>
+      <c r="BE186">
+        <v>2.27</v>
+      </c>
+      <c r="BF186">
+        <v>5</v>
+      </c>
+      <c r="BG186">
+        <v>6</v>
+      </c>
+      <c r="BH186">
+        <v>4</v>
+      </c>
+      <c r="BI186">
+        <v>4</v>
+      </c>
+      <c r="BJ186">
+        <v>9</v>
+      </c>
+      <c r="BK186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>5414569</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45130.75</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>69</v>
+      </c>
+      <c r="H187" t="s">
+        <v>84</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>201</v>
+      </c>
+      <c r="P187" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q187">
+        <v>13</v>
+      </c>
+      <c r="R187">
+        <v>1</v>
+      </c>
+      <c r="S187">
+        <v>14</v>
+      </c>
+      <c r="T187">
+        <v>3.6</v>
+      </c>
+      <c r="U187">
+        <v>1.9</v>
+      </c>
+      <c r="V187">
+        <v>3.3</v>
+      </c>
+      <c r="W187">
+        <v>1.56</v>
+      </c>
+      <c r="X187">
+        <v>2.29</v>
+      </c>
+      <c r="Y187">
+        <v>3.7</v>
+      </c>
+      <c r="Z187">
+        <v>1.24</v>
+      </c>
+      <c r="AA187">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB187">
+        <v>1.03</v>
+      </c>
+      <c r="AC187">
+        <v>2.8</v>
+      </c>
+      <c r="AD187">
+        <v>2.87</v>
+      </c>
+      <c r="AE187">
+        <v>2.5</v>
+      </c>
+      <c r="AF187">
+        <v>1.1</v>
+      </c>
+      <c r="AG187">
+        <v>6.5</v>
+      </c>
+      <c r="AH187">
+        <v>1.5</v>
+      </c>
+      <c r="AI187">
+        <v>2.37</v>
+      </c>
+      <c r="AJ187">
+        <v>2.35</v>
+      </c>
+      <c r="AK187">
+        <v>1.53</v>
+      </c>
+      <c r="AL187">
+        <v>2.05</v>
+      </c>
+      <c r="AM187">
+        <v>1.72</v>
+      </c>
+      <c r="AN187">
+        <v>1.5</v>
+      </c>
+      <c r="AO187">
+        <v>1.33</v>
+      </c>
+      <c r="AP187">
+        <v>1.38</v>
+      </c>
+      <c r="AQ187">
+        <v>1.44</v>
+      </c>
+      <c r="AR187">
+        <v>0.88</v>
+      </c>
+      <c r="AS187">
+        <v>1.3</v>
+      </c>
+      <c r="AT187">
+        <v>1.11</v>
+      </c>
+      <c r="AU187">
+        <v>1.81</v>
+      </c>
+      <c r="AV187">
+        <v>1.28</v>
+      </c>
+      <c r="AW187">
+        <v>3.09</v>
+      </c>
+      <c r="AX187">
+        <v>2.11</v>
+      </c>
+      <c r="AY187">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ187">
+        <v>1.95</v>
+      </c>
+      <c r="BA187">
+        <v>1.18</v>
+      </c>
+      <c r="BB187">
+        <v>1.31</v>
+      </c>
+      <c r="BC187">
+        <v>1.66</v>
+      </c>
+      <c r="BD187">
+        <v>2.01</v>
+      </c>
+      <c r="BE187">
+        <v>2.52</v>
+      </c>
+      <c r="BF187">
+        <v>4</v>
+      </c>
+      <c r="BG187">
+        <v>0</v>
+      </c>
+      <c r="BH187">
+        <v>7</v>
+      </c>
+      <c r="BI187">
+        <v>4</v>
+      </c>
+      <c r="BJ187">
+        <v>11</v>
+      </c>
+      <c r="BK187">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,9 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -724,9 +727,6 @@
     <t>['45+3']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
     <t>['27', '46']</t>
   </si>
   <si>
@@ -824,6 +824,9 @@
   </si>
   <si>
     <t>['12', '55']</t>
+  </si>
+  <si>
+    <t>['45+6', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1432,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2092,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2193,7 +2196,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2384,7 +2387,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2474,7 +2477,7 @@
         <v>1.78</v>
       </c>
       <c r="AT7">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2853,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT9">
         <v>0.7</v>
@@ -3044,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT10">
         <v>0.89</v>
@@ -3530,7 +3533,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4294,7 +4297,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4676,7 +4679,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5145,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT21">
         <v>0.4</v>
@@ -5440,7 +5443,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6013,7 +6016,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6395,7 +6398,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6864,7 +6867,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT30">
         <v>1.67</v>
@@ -7058,7 +7061,7 @@
         <v>1.4</v>
       </c>
       <c r="AT31">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU31">
         <v>1.83</v>
@@ -7440,7 +7443,7 @@
         <v>1.9</v>
       </c>
       <c r="AT33">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU33">
         <v>1.09</v>
@@ -7732,7 +7735,7 @@
         <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8114,7 +8117,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8305,7 +8308,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8687,7 +8690,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9260,7 +9263,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10024,7 +10027,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10215,7 +10218,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10406,7 +10409,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10788,7 +10791,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10878,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU51">
         <v>2.21</v>
@@ -10979,7 +10982,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11830,7 +11833,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT56">
         <v>0.89</v>
@@ -11934,7 +11937,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12021,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT57">
         <v>0.89</v>
@@ -12125,7 +12128,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12215,7 +12218,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT58">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU58">
         <v>1.33</v>
@@ -12316,7 +12319,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12507,7 +12510,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -13170,7 +13173,7 @@
         <v>2.5</v>
       </c>
       <c r="AT63">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU63">
         <v>1.52</v>
@@ -13271,7 +13274,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13653,7 +13656,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13844,7 +13847,7 @@
         <v>117</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14226,7 +14229,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -15077,7 +15080,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15563,7 +15566,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15650,7 +15653,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT76">
         <v>1.5</v>
@@ -15754,7 +15757,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15844,7 +15847,7 @@
         <v>2.44</v>
       </c>
       <c r="AT77">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU77">
         <v>1.18</v>
@@ -16327,7 +16330,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16518,7 +16521,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16709,7 +16712,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16990,7 +16993,7 @@
         <v>1.9</v>
       </c>
       <c r="AT83">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU83">
         <v>1.53</v>
@@ -17473,7 +17476,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17664,7 +17667,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17855,7 +17858,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="Q88">
         <v>10</v>
@@ -18327,7 +18330,7 @@
         <v>1.44</v>
       </c>
       <c r="AT90">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18706,7 +18709,7 @@
         <v>0</v>
       </c>
       <c r="AS92">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT92">
         <v>0.8</v>
@@ -20043,7 +20046,7 @@
         <v>0.67</v>
       </c>
       <c r="AS99">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT99">
         <v>1.11</v>
@@ -22147,7 +22150,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT110">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU110">
         <v>1.35</v>
@@ -23290,7 +23293,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT116">
         <v>1.22</v>
@@ -23484,7 +23487,7 @@
         <v>1</v>
       </c>
       <c r="AT117">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU117">
         <v>2.02</v>
@@ -23672,7 +23675,7 @@
         <v>1.25</v>
       </c>
       <c r="AS118">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT118">
         <v>1.67</v>
@@ -26540,7 +26543,7 @@
         <v>1.89</v>
       </c>
       <c r="AT133">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU133">
         <v>1.89</v>
@@ -27214,7 +27217,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27683,7 +27686,7 @@
         <v>0.67</v>
       </c>
       <c r="AS139">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT139">
         <v>0.78</v>
@@ -27874,7 +27877,7 @@
         <v>1.29</v>
       </c>
       <c r="AS140">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT140">
         <v>1.4</v>
@@ -28068,7 +28071,7 @@
         <v>1.1</v>
       </c>
       <c r="AT141">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU141">
         <v>1.83</v>
@@ -30360,7 +30363,7 @@
         <v>1.44</v>
       </c>
       <c r="AT153">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU153">
         <v>1.56</v>
@@ -33031,7 +33034,7 @@
         <v>1.75</v>
       </c>
       <c r="AS167">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT167">
         <v>1.4</v>
@@ -33413,7 +33416,7 @@
         <v>2</v>
       </c>
       <c r="AS169">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT169">
         <v>1.9</v>
@@ -35236,7 +35239,7 @@
         <v>100</v>
       </c>
       <c r="P179" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -36708,13 +36711,13 @@
         <v>4</v>
       </c>
       <c r="BI186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ186">
         <v>9</v>
       </c>
       <c r="BK186">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:63">
@@ -36890,22 +36893,404 @@
         <v>2.52</v>
       </c>
       <c r="BF187">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH187">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BJ187">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK187">
         <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>5414568</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45131.79166666666</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>73</v>
+      </c>
+      <c r="H188" t="s">
+        <v>81</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>172</v>
+      </c>
+      <c r="P188" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q188">
+        <v>6</v>
+      </c>
+      <c r="R188">
+        <v>4</v>
+      </c>
+      <c r="S188">
+        <v>10</v>
+      </c>
+      <c r="T188">
+        <v>2.54</v>
+      </c>
+      <c r="U188">
+        <v>1.97</v>
+      </c>
+      <c r="V188">
+        <v>5.43</v>
+      </c>
+      <c r="W188">
+        <v>1.54</v>
+      </c>
+      <c r="X188">
+        <v>2.34</v>
+      </c>
+      <c r="Y188">
+        <v>3.6</v>
+      </c>
+      <c r="Z188">
+        <v>1.25</v>
+      </c>
+      <c r="AA188">
+        <v>9.85</v>
+      </c>
+      <c r="AB188">
+        <v>1.03</v>
+      </c>
+      <c r="AC188">
+        <v>1.71</v>
+      </c>
+      <c r="AD188">
+        <v>3.2</v>
+      </c>
+      <c r="AE188">
+        <v>4.95</v>
+      </c>
+      <c r="AF188">
+        <v>1.09</v>
+      </c>
+      <c r="AG188">
+        <v>6.5</v>
+      </c>
+      <c r="AH188">
+        <v>1.47</v>
+      </c>
+      <c r="AI188">
+        <v>2.55</v>
+      </c>
+      <c r="AJ188">
+        <v>2.27</v>
+      </c>
+      <c r="AK188">
+        <v>1.52</v>
+      </c>
+      <c r="AL188">
+        <v>2.15</v>
+      </c>
+      <c r="AM188">
+        <v>1.66</v>
+      </c>
+      <c r="AN188">
+        <v>1.18</v>
+      </c>
+      <c r="AO188">
+        <v>1.28</v>
+      </c>
+      <c r="AP188">
+        <v>1.83</v>
+      </c>
+      <c r="AQ188">
+        <v>2.25</v>
+      </c>
+      <c r="AR188">
+        <v>0.71</v>
+      </c>
+      <c r="AS188">
+        <v>2.33</v>
+      </c>
+      <c r="AT188">
+        <v>0.63</v>
+      </c>
+      <c r="AU188">
+        <v>1.7</v>
+      </c>
+      <c r="AV188">
+        <v>1.45</v>
+      </c>
+      <c r="AW188">
+        <v>3.15</v>
+      </c>
+      <c r="AX188">
+        <v>1.53</v>
+      </c>
+      <c r="AY188">
+        <v>9.5</v>
+      </c>
+      <c r="AZ188">
+        <v>2.99</v>
+      </c>
+      <c r="BA188">
+        <v>1.24</v>
+      </c>
+      <c r="BB188">
+        <v>1.53</v>
+      </c>
+      <c r="BC188">
+        <v>1.87</v>
+      </c>
+      <c r="BD188">
+        <v>2.29</v>
+      </c>
+      <c r="BE188">
+        <v>3.14</v>
+      </c>
+      <c r="BF188">
+        <v>5</v>
+      </c>
+      <c r="BG188">
+        <v>2</v>
+      </c>
+      <c r="BH188">
+        <v>11</v>
+      </c>
+      <c r="BI188">
+        <v>6</v>
+      </c>
+      <c r="BJ188">
+        <v>16</v>
+      </c>
+      <c r="BK188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>5414571</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45131.79166666666</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>72</v>
+      </c>
+      <c r="H189" t="s">
+        <v>75</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189" t="s">
+        <v>202</v>
+      </c>
+      <c r="P189" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q189">
+        <v>5</v>
+      </c>
+      <c r="R189">
+        <v>11</v>
+      </c>
+      <c r="S189">
+        <v>16</v>
+      </c>
+      <c r="T189">
+        <v>3.2</v>
+      </c>
+      <c r="U189">
+        <v>1.87</v>
+      </c>
+      <c r="V189">
+        <v>3.7</v>
+      </c>
+      <c r="W189">
+        <v>1.55</v>
+      </c>
+      <c r="X189">
+        <v>2.25</v>
+      </c>
+      <c r="Y189">
+        <v>3.5</v>
+      </c>
+      <c r="Z189">
+        <v>1.26</v>
+      </c>
+      <c r="AA189">
+        <v>10.5</v>
+      </c>
+      <c r="AB189">
+        <v>1.04</v>
+      </c>
+      <c r="AC189">
+        <v>2.4</v>
+      </c>
+      <c r="AD189">
+        <v>3.1</v>
+      </c>
+      <c r="AE189">
+        <v>2.79</v>
+      </c>
+      <c r="AF189">
+        <v>1.11</v>
+      </c>
+      <c r="AG189">
+        <v>6</v>
+      </c>
+      <c r="AH189">
+        <v>1.51</v>
+      </c>
+      <c r="AI189">
+        <v>2.4</v>
+      </c>
+      <c r="AJ189">
+        <v>2.4</v>
+      </c>
+      <c r="AK189">
+        <v>1.46</v>
+      </c>
+      <c r="AL189">
+        <v>2.1</v>
+      </c>
+      <c r="AM189">
+        <v>1.65</v>
+      </c>
+      <c r="AN189">
+        <v>1.36</v>
+      </c>
+      <c r="AO189">
+        <v>1.37</v>
+      </c>
+      <c r="AP189">
+        <v>1.51</v>
+      </c>
+      <c r="AQ189">
+        <v>1.25</v>
+      </c>
+      <c r="AR189">
+        <v>1.38</v>
+      </c>
+      <c r="AS189">
+        <v>1.11</v>
+      </c>
+      <c r="AT189">
+        <v>1.56</v>
+      </c>
+      <c r="AU189">
+        <v>1.21</v>
+      </c>
+      <c r="AV189">
+        <v>1.23</v>
+      </c>
+      <c r="AW189">
+        <v>2.44</v>
+      </c>
+      <c r="AX189">
+        <v>1.83</v>
+      </c>
+      <c r="AY189">
+        <v>9.4</v>
+      </c>
+      <c r="AZ189">
+        <v>2.27</v>
+      </c>
+      <c r="BA189">
+        <v>1.15</v>
+      </c>
+      <c r="BB189">
+        <v>1.28</v>
+      </c>
+      <c r="BC189">
+        <v>1.56</v>
+      </c>
+      <c r="BD189">
+        <v>1.92</v>
+      </c>
+      <c r="BE189">
+        <v>2.33</v>
+      </c>
+      <c r="BF189">
+        <v>2</v>
+      </c>
+      <c r="BG189">
+        <v>4</v>
+      </c>
+      <c r="BH189">
+        <v>4</v>
+      </c>
+      <c r="BI189">
+        <v>5</v>
+      </c>
+      <c r="BJ189">
+        <v>6</v>
+      </c>
+      <c r="BK189">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,27 @@
     <t>['22']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['50', '63']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['71', '90+9']</t>
+  </si>
+  <si>
+    <t>['65', '90+6']</t>
+  </si>
+  <si>
+    <t>['37', '45+5', '80']</t>
+  </si>
+  <si>
+    <t>['9', '13']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -775,9 +796,6 @@
     <t>['50']</t>
   </si>
   <si>
-    <t>['5']</t>
-  </si>
-  <si>
     <t>['66', '68']</t>
   </si>
   <si>
@@ -827,6 +845,21 @@
   </si>
   <si>
     <t>['45+6', '90+8']</t>
+  </si>
+  <si>
+    <t>['7', '59']</t>
+  </si>
+  <si>
+    <t>['45+6', '49']</t>
+  </si>
+  <si>
+    <t>['30', '45+4']</t>
+  </si>
+  <si>
+    <t>['6', '90']</t>
+  </si>
+  <si>
+    <t>['61', '86']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1465,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2196,7 +2229,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2387,7 +2420,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -3238,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3429,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT12">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3533,7 +3566,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3620,10 +3653,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT13">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3811,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT14">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4002,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT15">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4193,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4297,7 +4330,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4384,10 +4417,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4575,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT18">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4679,7 +4712,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4766,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT19">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5151,7 +5184,7 @@
         <v>2.33</v>
       </c>
       <c r="AT21">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU21">
         <v>1.71</v>
@@ -5342,7 +5375,7 @@
         <v>2.44</v>
       </c>
       <c r="AT22">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU22">
         <v>1.42</v>
@@ -5443,7 +5476,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5533,7 +5566,7 @@
         <v>1.3</v>
       </c>
       <c r="AT23">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU23">
         <v>1.81</v>
@@ -5721,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU24">
         <v>1.06</v>
@@ -5912,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT25">
         <v>0.89</v>
@@ -6016,7 +6049,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6103,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT26">
         <v>0.89</v>
@@ -6294,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>1.11</v>
@@ -6398,7 +6431,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6485,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT28">
         <v>1.5</v>
@@ -6679,7 +6712,7 @@
         <v>2.33</v>
       </c>
       <c r="AT29">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU29">
         <v>1.54</v>
@@ -6870,7 +6903,7 @@
         <v>1.11</v>
       </c>
       <c r="AT30">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU30">
         <v>1.68</v>
@@ -7058,7 +7091,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT31">
         <v>1.56</v>
@@ -7252,7 +7285,7 @@
         <v>1.67</v>
       </c>
       <c r="AT32">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7440,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT33">
         <v>0.63</v>
@@ -7735,7 +7768,7 @@
         <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8016,7 +8049,7 @@
         <v>1.78</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU36">
         <v>1.56</v>
@@ -8117,7 +8150,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8204,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT37">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU37">
         <v>2.28</v>
@@ -8308,7 +8341,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8395,10 +8428,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT38">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -8589,7 +8622,7 @@
         <v>1.9</v>
       </c>
       <c r="AT39">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU39">
         <v>1.29</v>
@@ -8690,7 +8723,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8777,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT40">
         <v>0.89</v>
@@ -8971,7 +9004,7 @@
         <v>1.3</v>
       </c>
       <c r="AT41">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU41">
         <v>1.61</v>
@@ -9162,7 +9195,7 @@
         <v>2</v>
       </c>
       <c r="AT42">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU42">
         <v>1.49</v>
@@ -9263,7 +9296,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9350,7 +9383,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT43">
         <v>1.9</v>
@@ -9732,7 +9765,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT45">
         <v>1.5</v>
@@ -9923,10 +9956,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10027,7 +10060,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10114,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT47">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU47">
         <v>1.35</v>
@@ -10218,7 +10251,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10305,10 +10338,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT48">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU48">
         <v>1.71</v>
@@ -10409,7 +10442,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10496,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT49">
         <v>0.78</v>
@@ -10690,7 +10723,7 @@
         <v>2.33</v>
       </c>
       <c r="AT50">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU50">
         <v>1.54</v>
@@ -10791,7 +10824,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10878,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT51">
         <v>0.63</v>
@@ -10982,7 +11015,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11072,7 +11105,7 @@
         <v>1.78</v>
       </c>
       <c r="AT52">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU52">
         <v>1.65</v>
@@ -11260,10 +11293,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU53">
         <v>1.85</v>
@@ -11454,7 +11487,7 @@
         <v>2.44</v>
       </c>
       <c r="AT54">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU54">
         <v>1.28</v>
@@ -11642,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT55">
         <v>0.78</v>
@@ -11937,7 +11970,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12128,7 +12161,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12215,7 +12248,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT58">
         <v>1.56</v>
@@ -12319,7 +12352,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12510,7 +12543,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -12597,10 +12630,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT60">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU60">
         <v>1.93</v>
@@ -12791,7 +12824,7 @@
         <v>2</v>
       </c>
       <c r="AT61">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU61">
         <v>1.39</v>
@@ -12979,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT62">
         <v>0.89</v>
@@ -13170,7 +13203,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT63">
         <v>1.56</v>
@@ -13274,7 +13307,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13656,7 +13689,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13743,10 +13776,10 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT66">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU66">
         <v>1.64</v>
@@ -13847,7 +13880,7 @@
         <v>117</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14125,10 +14158,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU68">
         <v>1.83</v>
@@ -14229,7 +14262,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14319,7 +14352,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU69">
         <v>1.55</v>
@@ -14507,10 +14540,10 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT70">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU70">
         <v>1.58</v>
@@ -14698,7 +14731,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT71">
         <v>0.78</v>
@@ -14889,7 +14922,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>0.89</v>
@@ -15083,7 +15116,7 @@
         <v>2.33</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU73">
         <v>1.65</v>
@@ -15465,7 +15498,7 @@
         <v>2.33</v>
       </c>
       <c r="AT75">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU75">
         <v>2.16</v>
@@ -15566,7 +15599,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15757,7 +15790,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16330,7 +16363,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16420,7 +16453,7 @@
         <v>1.33</v>
       </c>
       <c r="AT80">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU80">
         <v>1.4</v>
@@ -16521,7 +16554,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16611,7 +16644,7 @@
         <v>1.67</v>
       </c>
       <c r="AT81">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU81">
         <v>1.39</v>
@@ -16712,7 +16745,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16799,10 +16832,10 @@
         <v>2.25</v>
       </c>
       <c r="AS82">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT82">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -16990,7 +17023,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT83">
         <v>1.56</v>
@@ -17181,10 +17214,10 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT84">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU84">
         <v>1.75</v>
@@ -17375,7 +17408,7 @@
         <v>2</v>
       </c>
       <c r="AT85">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU85">
         <v>1.57</v>
@@ -17476,7 +17509,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17563,7 +17596,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT86">
         <v>1.9</v>
@@ -17667,7 +17700,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17754,7 +17787,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT87">
         <v>0.7</v>
@@ -17945,10 +17978,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU88">
         <v>2.06</v>
@@ -18136,10 +18169,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT89">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU89">
         <v>1.55</v>
@@ -18327,7 +18360,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT90">
         <v>0.63</v>
@@ -18518,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT91">
         <v>0.78</v>
@@ -18712,7 +18745,7 @@
         <v>2.33</v>
       </c>
       <c r="AT92">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU92">
         <v>1.75</v>
@@ -19004,7 +19037,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19386,7 +19419,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19473,7 +19506,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT96">
         <v>1.9</v>
@@ -19667,7 +19700,7 @@
         <v>2.33</v>
       </c>
       <c r="AT97">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU97">
         <v>2.18</v>
@@ -19858,7 +19891,7 @@
         <v>2.44</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU98">
         <v>1.38</v>
@@ -19959,7 +19992,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20150,7 +20183,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20237,10 +20270,10 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT100">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU100">
         <v>1.99</v>
@@ -20428,10 +20461,10 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT101">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU101">
         <v>1.6</v>
@@ -20619,7 +20652,7 @@
         <v>0.2</v>
       </c>
       <c r="AS102">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT102">
         <v>0.7</v>
@@ -20723,7 +20756,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20810,7 +20843,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT103">
         <v>1.5</v>
@@ -20914,7 +20947,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21001,10 +21034,10 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT104">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU104">
         <v>1.56</v>
@@ -21192,7 +21225,7 @@
         <v>0.67</v>
       </c>
       <c r="AS105">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT105">
         <v>0.89</v>
@@ -21386,7 +21419,7 @@
         <v>1.3</v>
       </c>
       <c r="AT106">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU106">
         <v>1.87</v>
@@ -21574,10 +21607,10 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU107">
         <v>2</v>
@@ -21768,7 +21801,7 @@
         <v>1.67</v>
       </c>
       <c r="AT108">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU108">
         <v>1.49</v>
@@ -21959,7 +21992,7 @@
         <v>1.9</v>
       </c>
       <c r="AT109">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU109">
         <v>1.88</v>
@@ -22147,7 +22180,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT110">
         <v>0.63</v>
@@ -22341,7 +22374,7 @@
         <v>2.33</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU111">
         <v>1.88</v>
@@ -22720,10 +22753,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT113">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU113">
         <v>1.99</v>
@@ -22824,7 +22857,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -22911,10 +22944,10 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU114">
         <v>1.53</v>
@@ -23102,7 +23135,7 @@
         <v>1.25</v>
       </c>
       <c r="AS115">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT115">
         <v>1.11</v>
@@ -23206,7 +23239,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23296,7 +23329,7 @@
         <v>1.11</v>
       </c>
       <c r="AT116">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU116">
         <v>1.42</v>
@@ -23484,7 +23517,7 @@
         <v>1.4</v>
       </c>
       <c r="AS117">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT117">
         <v>1.56</v>
@@ -23678,7 +23711,7 @@
         <v>2.33</v>
       </c>
       <c r="AT118">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU118">
         <v>1.71</v>
@@ -23779,7 +23812,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24057,10 +24090,10 @@
         <v>2</v>
       </c>
       <c r="AS120">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT120">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24161,7 +24194,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24251,7 +24284,7 @@
         <v>1.67</v>
       </c>
       <c r="AT121">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU121">
         <v>1.49</v>
@@ -24439,10 +24472,10 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT122">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU122">
         <v>1.62</v>
@@ -24630,7 +24663,7 @@
         <v>0.4</v>
       </c>
       <c r="AS123">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT123">
         <v>0.89</v>
@@ -24734,7 +24767,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24821,10 +24854,10 @@
         <v>1.67</v>
       </c>
       <c r="AS124">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT124">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU124">
         <v>1.49</v>
@@ -25012,10 +25045,10 @@
         <v>0.5</v>
       </c>
       <c r="AS125">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT125">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU125">
         <v>1.76</v>
@@ -25203,10 +25236,10 @@
         <v>1.6</v>
       </c>
       <c r="AS126">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT126">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU126">
         <v>1.55</v>
@@ -25307,7 +25340,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25394,7 +25427,7 @@
         <v>2.17</v>
       </c>
       <c r="AS127">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT127">
         <v>1.9</v>
@@ -25498,7 +25531,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25689,7 +25722,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25970,7 +26003,7 @@
         <v>2.44</v>
       </c>
       <c r="AT130">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU130">
         <v>1.51</v>
@@ -26071,7 +26104,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26158,7 +26191,7 @@
         <v>1.2</v>
       </c>
       <c r="AS131">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT131">
         <v>1.11</v>
@@ -26352,7 +26385,7 @@
         <v>1.9</v>
       </c>
       <c r="AT132">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU132">
         <v>1.83</v>
@@ -26540,7 +26573,7 @@
         <v>1.33</v>
       </c>
       <c r="AS133">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT133">
         <v>1.56</v>
@@ -26922,7 +26955,7 @@
         <v>0.57</v>
       </c>
       <c r="AS135">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT135">
         <v>0.89</v>
@@ -27026,7 +27059,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27113,7 +27146,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT136">
         <v>0.89</v>
@@ -27217,7 +27250,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27408,7 +27441,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27498,7 +27531,7 @@
         <v>2.44</v>
       </c>
       <c r="AT138">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU138">
         <v>1.4</v>
@@ -27599,7 +27632,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27689,7 +27722,7 @@
         <v>2.33</v>
       </c>
       <c r="AT139">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU139">
         <v>1.73</v>
@@ -27790,7 +27823,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27880,7 +27913,7 @@
         <v>1.11</v>
       </c>
       <c r="AT140">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU140">
         <v>1.33</v>
@@ -27981,7 +28014,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28068,7 +28101,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT141">
         <v>0.63</v>
@@ -28259,10 +28292,10 @@
         <v>1.86</v>
       </c>
       <c r="AS142">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT142">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU142">
         <v>1.84</v>
@@ -28363,7 +28396,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28453,7 +28486,7 @@
         <v>1.3</v>
       </c>
       <c r="AT143">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU143">
         <v>1.88</v>
@@ -28554,7 +28587,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28641,7 +28674,7 @@
         <v>0.29</v>
       </c>
       <c r="AS144">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT144">
         <v>0.7</v>
@@ -28745,7 +28778,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28835,7 +28868,7 @@
         <v>1.67</v>
       </c>
       <c r="AT145">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU145">
         <v>1.58</v>
@@ -29026,7 +29059,7 @@
         <v>1.78</v>
       </c>
       <c r="AT146">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU146">
         <v>1.69</v>
@@ -29214,7 +29247,7 @@
         <v>2</v>
       </c>
       <c r="AS147">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT147">
         <v>1.5</v>
@@ -29405,7 +29438,7 @@
         <v>2.29</v>
       </c>
       <c r="AS148">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT148">
         <v>1.9</v>
@@ -29599,7 +29632,7 @@
         <v>2</v>
       </c>
       <c r="AT149">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU149">
         <v>1.83</v>
@@ -29787,10 +29820,10 @@
         <v>0.86</v>
       </c>
       <c r="AS150">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT150">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU150">
         <v>1.54</v>
@@ -30082,7 +30115,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30169,7 +30202,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT152">
         <v>0.89</v>
@@ -30360,7 +30393,7 @@
         <v>1.57</v>
       </c>
       <c r="AS153">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT153">
         <v>1.56</v>
@@ -30464,7 +30497,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30554,7 +30587,7 @@
         <v>2.44</v>
       </c>
       <c r="AT154">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU154">
         <v>1.38</v>
@@ -30742,10 +30775,10 @@
         <v>1.71</v>
       </c>
       <c r="AS155">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT155">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU155">
         <v>1.31</v>
@@ -30936,7 +30969,7 @@
         <v>1.33</v>
       </c>
       <c r="AT156">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU156">
         <v>1.4</v>
@@ -31037,7 +31070,7 @@
         <v>100</v>
       </c>
       <c r="P157" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31124,7 +31157,7 @@
         <v>0.71</v>
       </c>
       <c r="AS157">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT157">
         <v>0.89</v>
@@ -31315,10 +31348,10 @@
         <v>0.57</v>
       </c>
       <c r="AS158">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT158">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU158">
         <v>1.81</v>
@@ -31506,10 +31539,10 @@
         <v>1.29</v>
       </c>
       <c r="AS159">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT159">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU159">
         <v>1.57</v>
@@ -31697,10 +31730,10 @@
         <v>1.29</v>
       </c>
       <c r="AS160">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT160">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU160">
         <v>1.66</v>
@@ -31891,7 +31924,7 @@
         <v>2.33</v>
       </c>
       <c r="AT161">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU161">
         <v>2.02</v>
@@ -31992,7 +32025,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32082,7 +32115,7 @@
         <v>1.9</v>
       </c>
       <c r="AT162">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU162">
         <v>1.81</v>
@@ -32273,7 +32306,7 @@
         <v>1.3</v>
       </c>
       <c r="AT163">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU163">
         <v>1.85</v>
@@ -32461,7 +32494,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT164">
         <v>1.11</v>
@@ -32843,7 +32876,7 @@
         <v>0.57</v>
       </c>
       <c r="AS166">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT166">
         <v>0.78</v>
@@ -33037,7 +33070,7 @@
         <v>1.11</v>
       </c>
       <c r="AT167">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU167">
         <v>1.3</v>
@@ -33607,10 +33640,10 @@
         <v>1.88</v>
       </c>
       <c r="AS170">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT170">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU170">
         <v>1.54</v>
@@ -33711,7 +33744,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33798,10 +33831,10 @@
         <v>1.13</v>
       </c>
       <c r="AS171">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT171">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU171">
         <v>1.82</v>
@@ -33989,10 +34022,10 @@
         <v>0.89</v>
       </c>
       <c r="AS172">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT172">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU172">
         <v>1.52</v>
@@ -34180,10 +34213,10 @@
         <v>1.44</v>
       </c>
       <c r="AS173">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT173">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU173">
         <v>1.59</v>
@@ -34284,7 +34317,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34371,10 +34404,10 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT174">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU174">
         <v>1.74</v>
@@ -34562,10 +34595,10 @@
         <v>0.44</v>
       </c>
       <c r="AS175">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT175">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU175">
         <v>1.99</v>
@@ -34753,10 +34786,10 @@
         <v>0.88</v>
       </c>
       <c r="AS176">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT176">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU176">
         <v>1.64</v>
@@ -34857,7 +34890,7 @@
         <v>196</v>
       </c>
       <c r="P177" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -34944,10 +34977,10 @@
         <v>1.44</v>
       </c>
       <c r="AS177">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT177">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU177">
         <v>1.61</v>
@@ -35135,10 +35168,10 @@
         <v>1.56</v>
       </c>
       <c r="AS178">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT178">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU178">
         <v>1.56</v>
@@ -35239,7 +35272,7 @@
         <v>100</v>
       </c>
       <c r="P179" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35326,10 +35359,10 @@
         <v>0.78</v>
       </c>
       <c r="AS179">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT179">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU179">
         <v>1.49</v>
@@ -35812,7 +35845,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36003,7 +36036,7 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36194,7 +36227,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36767,7 +36800,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -37149,7 +37182,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37291,6 +37324,1916 @@
       </c>
       <c r="BK189">
         <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>5414579</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45135.79166666666</v>
+      </c>
+      <c r="F190">
+        <v>20</v>
+      </c>
+      <c r="G190" t="s">
+        <v>80</v>
+      </c>
+      <c r="H190" t="s">
+        <v>66</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>203</v>
+      </c>
+      <c r="P190" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q190">
+        <v>4</v>
+      </c>
+      <c r="R190">
+        <v>9</v>
+      </c>
+      <c r="S190">
+        <v>13</v>
+      </c>
+      <c r="T190">
+        <v>2.35</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>5.5</v>
+      </c>
+      <c r="W190">
+        <v>1.5</v>
+      </c>
+      <c r="X190">
+        <v>2.4</v>
+      </c>
+      <c r="Y190">
+        <v>3.3</v>
+      </c>
+      <c r="Z190">
+        <v>1.3</v>
+      </c>
+      <c r="AA190">
+        <v>7.75</v>
+      </c>
+      <c r="AB190">
+        <v>1.05</v>
+      </c>
+      <c r="AC190">
+        <v>1.67</v>
+      </c>
+      <c r="AD190">
+        <v>3.5</v>
+      </c>
+      <c r="AE190">
+        <v>5</v>
+      </c>
+      <c r="AF190">
+        <v>1.07</v>
+      </c>
+      <c r="AG190">
+        <v>8.6</v>
+      </c>
+      <c r="AH190">
+        <v>1.41</v>
+      </c>
+      <c r="AI190">
+        <v>2.68</v>
+      </c>
+      <c r="AJ190">
+        <v>2.35</v>
+      </c>
+      <c r="AK190">
+        <v>1.53</v>
+      </c>
+      <c r="AL190">
+        <v>2.25</v>
+      </c>
+      <c r="AM190">
+        <v>1.57</v>
+      </c>
+      <c r="AN190">
+        <v>1.16</v>
+      </c>
+      <c r="AO190">
+        <v>1.24</v>
+      </c>
+      <c r="AP190">
+        <v>2.1</v>
+      </c>
+      <c r="AQ190">
+        <v>1.44</v>
+      </c>
+      <c r="AR190">
+        <v>0.8</v>
+      </c>
+      <c r="AS190">
+        <v>1.4</v>
+      </c>
+      <c r="AT190">
+        <v>0.82</v>
+      </c>
+      <c r="AU190">
+        <v>1.53</v>
+      </c>
+      <c r="AV190">
+        <v>1.33</v>
+      </c>
+      <c r="AW190">
+        <v>2.86</v>
+      </c>
+      <c r="AX190">
+        <v>1.38</v>
+      </c>
+      <c r="AY190">
+        <v>8</v>
+      </c>
+      <c r="AZ190">
+        <v>4</v>
+      </c>
+      <c r="BA190">
+        <v>1.15</v>
+      </c>
+      <c r="BB190">
+        <v>1.26</v>
+      </c>
+      <c r="BC190">
+        <v>1.55</v>
+      </c>
+      <c r="BD190">
+        <v>1.87</v>
+      </c>
+      <c r="BE190">
+        <v>2.29</v>
+      </c>
+      <c r="BF190">
+        <v>8</v>
+      </c>
+      <c r="BG190">
+        <v>5</v>
+      </c>
+      <c r="BH190">
+        <v>8</v>
+      </c>
+      <c r="BI190">
+        <v>5</v>
+      </c>
+      <c r="BJ190">
+        <v>16</v>
+      </c>
+      <c r="BK190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>5414578</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45135.89583333334</v>
+      </c>
+      <c r="F191">
+        <v>20</v>
+      </c>
+      <c r="G191" t="s">
+        <v>84</v>
+      </c>
+      <c r="H191" t="s">
+        <v>83</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>204</v>
+      </c>
+      <c r="P191" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q191">
+        <v>9</v>
+      </c>
+      <c r="R191">
+        <v>3</v>
+      </c>
+      <c r="S191">
+        <v>12</v>
+      </c>
+      <c r="T191">
+        <v>2.11</v>
+      </c>
+      <c r="U191">
+        <v>2.12</v>
+      </c>
+      <c r="V191">
+        <v>7.17</v>
+      </c>
+      <c r="W191">
+        <v>1.46</v>
+      </c>
+      <c r="X191">
+        <v>2.5</v>
+      </c>
+      <c r="Y191">
+        <v>3.1</v>
+      </c>
+      <c r="Z191">
+        <v>1.31</v>
+      </c>
+      <c r="AA191">
+        <v>8.5</v>
+      </c>
+      <c r="AB191">
+        <v>1.06</v>
+      </c>
+      <c r="AC191">
+        <v>1.53</v>
+      </c>
+      <c r="AD191">
+        <v>3.85</v>
+      </c>
+      <c r="AE191">
+        <v>6</v>
+      </c>
+      <c r="AF191">
+        <v>1.08</v>
+      </c>
+      <c r="AG191">
+        <v>7</v>
+      </c>
+      <c r="AH191">
+        <v>1.4</v>
+      </c>
+      <c r="AI191">
+        <v>2.75</v>
+      </c>
+      <c r="AJ191">
+        <v>2.25</v>
+      </c>
+      <c r="AK191">
+        <v>1.58</v>
+      </c>
+      <c r="AL191">
+        <v>2.35</v>
+      </c>
+      <c r="AM191">
+        <v>1.52</v>
+      </c>
+      <c r="AN191">
+        <v>1.08</v>
+      </c>
+      <c r="AO191">
+        <v>1.25</v>
+      </c>
+      <c r="AP191">
+        <v>2.45</v>
+      </c>
+      <c r="AQ191">
+        <v>2.5</v>
+      </c>
+      <c r="AR191">
+        <v>1</v>
+      </c>
+      <c r="AS191">
+        <v>2.55</v>
+      </c>
+      <c r="AT191">
+        <v>0.9</v>
+      </c>
+      <c r="AU191">
+        <v>1.59</v>
+      </c>
+      <c r="AV191">
+        <v>1.29</v>
+      </c>
+      <c r="AW191">
+        <v>2.88</v>
+      </c>
+      <c r="AX191">
+        <v>1.3</v>
+      </c>
+      <c r="AY191">
+        <v>9</v>
+      </c>
+      <c r="AZ191">
+        <v>4.5</v>
+      </c>
+      <c r="BA191">
+        <v>1.15</v>
+      </c>
+      <c r="BB191">
+        <v>1.22</v>
+      </c>
+      <c r="BC191">
+        <v>1.54</v>
+      </c>
+      <c r="BD191">
+        <v>1.74</v>
+      </c>
+      <c r="BE191">
+        <v>2.14</v>
+      </c>
+      <c r="BF191">
+        <v>8</v>
+      </c>
+      <c r="BG191">
+        <v>3</v>
+      </c>
+      <c r="BH191">
+        <v>5</v>
+      </c>
+      <c r="BI191">
+        <v>6</v>
+      </c>
+      <c r="BJ191">
+        <v>13</v>
+      </c>
+      <c r="BK191">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>5414580</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45136.45833333334</v>
+      </c>
+      <c r="F192">
+        <v>20</v>
+      </c>
+      <c r="G192" t="s">
+        <v>81</v>
+      </c>
+      <c r="H192" t="s">
+        <v>68</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" t="s">
+        <v>100</v>
+      </c>
+      <c r="P192" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q192">
+        <v>7</v>
+      </c>
+      <c r="R192">
+        <v>3</v>
+      </c>
+      <c r="S192">
+        <v>10</v>
+      </c>
+      <c r="T192">
+        <v>3.2</v>
+      </c>
+      <c r="U192">
+        <v>1.93</v>
+      </c>
+      <c r="V192">
+        <v>3.4</v>
+      </c>
+      <c r="W192">
+        <v>1.52</v>
+      </c>
+      <c r="X192">
+        <v>2.39</v>
+      </c>
+      <c r="Y192">
+        <v>3.45</v>
+      </c>
+      <c r="Z192">
+        <v>1.27</v>
+      </c>
+      <c r="AA192">
+        <v>9.4</v>
+      </c>
+      <c r="AB192">
+        <v>1.03</v>
+      </c>
+      <c r="AC192">
+        <v>2.5</v>
+      </c>
+      <c r="AD192">
+        <v>3.05</v>
+      </c>
+      <c r="AE192">
+        <v>2.84</v>
+      </c>
+      <c r="AF192">
+        <v>1.1</v>
+      </c>
+      <c r="AG192">
+        <v>6.5</v>
+      </c>
+      <c r="AH192">
+        <v>1.48</v>
+      </c>
+      <c r="AI192">
+        <v>2.45</v>
+      </c>
+      <c r="AJ192">
+        <v>2.31</v>
+      </c>
+      <c r="AK192">
+        <v>1.5</v>
+      </c>
+      <c r="AL192">
+        <v>2.05</v>
+      </c>
+      <c r="AM192">
+        <v>1.68</v>
+      </c>
+      <c r="AN192">
+        <v>1.35</v>
+      </c>
+      <c r="AO192">
+        <v>1.3</v>
+      </c>
+      <c r="AP192">
+        <v>1.5</v>
+      </c>
+      <c r="AQ192">
+        <v>1.3</v>
+      </c>
+      <c r="AR192">
+        <v>1.22</v>
+      </c>
+      <c r="AS192">
+        <v>1.18</v>
+      </c>
+      <c r="AT192">
+        <v>1.4</v>
+      </c>
+      <c r="AU192">
+        <v>1.51</v>
+      </c>
+      <c r="AV192">
+        <v>1.3</v>
+      </c>
+      <c r="AW192">
+        <v>2.81</v>
+      </c>
+      <c r="AX192">
+        <v>1.85</v>
+      </c>
+      <c r="AY192">
+        <v>7</v>
+      </c>
+      <c r="AZ192">
+        <v>2.4</v>
+      </c>
+      <c r="BA192">
+        <v>1.23</v>
+      </c>
+      <c r="BB192">
+        <v>1.48</v>
+      </c>
+      <c r="BC192">
+        <v>1.79</v>
+      </c>
+      <c r="BD192">
+        <v>2.21</v>
+      </c>
+      <c r="BE192">
+        <v>2.8</v>
+      </c>
+      <c r="BF192">
+        <v>5</v>
+      </c>
+      <c r="BG192">
+        <v>8</v>
+      </c>
+      <c r="BH192">
+        <v>5</v>
+      </c>
+      <c r="BI192">
+        <v>7</v>
+      </c>
+      <c r="BJ192">
+        <v>10</v>
+      </c>
+      <c r="BK192">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>5414576</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45136.64583333334</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>75</v>
+      </c>
+      <c r="H193" t="s">
+        <v>70</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>100</v>
+      </c>
+      <c r="P193" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q193">
+        <v>7</v>
+      </c>
+      <c r="R193">
+        <v>4</v>
+      </c>
+      <c r="S193">
+        <v>11</v>
+      </c>
+      <c r="T193">
+        <v>3.22</v>
+      </c>
+      <c r="U193">
+        <v>1.91</v>
+      </c>
+      <c r="V193">
+        <v>4.01</v>
+      </c>
+      <c r="W193">
+        <v>1.56</v>
+      </c>
+      <c r="X193">
+        <v>2.34</v>
+      </c>
+      <c r="Y193">
+        <v>3.64</v>
+      </c>
+      <c r="Z193">
+        <v>1.26</v>
+      </c>
+      <c r="AA193">
+        <v>10.2</v>
+      </c>
+      <c r="AB193">
+        <v>1.03</v>
+      </c>
+      <c r="AC193">
+        <v>2.57</v>
+      </c>
+      <c r="AD193">
+        <v>2.94</v>
+      </c>
+      <c r="AE193">
+        <v>2.85</v>
+      </c>
+      <c r="AF193">
+        <v>1.11</v>
+      </c>
+      <c r="AG193">
+        <v>6</v>
+      </c>
+      <c r="AH193">
+        <v>1.5</v>
+      </c>
+      <c r="AI193">
+        <v>2.3</v>
+      </c>
+      <c r="AJ193">
+        <v>2.6</v>
+      </c>
+      <c r="AK193">
+        <v>1.4</v>
+      </c>
+      <c r="AL193">
+        <v>2.11</v>
+      </c>
+      <c r="AM193">
+        <v>1.69</v>
+      </c>
+      <c r="AN193">
+        <v>1.37</v>
+      </c>
+      <c r="AO193">
+        <v>1.37</v>
+      </c>
+      <c r="AP193">
+        <v>1.55</v>
+      </c>
+      <c r="AQ193">
+        <v>1.78</v>
+      </c>
+      <c r="AR193">
+        <v>1.4</v>
+      </c>
+      <c r="AS193">
+        <v>1.6</v>
+      </c>
+      <c r="AT193">
+        <v>1.55</v>
+      </c>
+      <c r="AU193">
+        <v>1.55</v>
+      </c>
+      <c r="AV193">
+        <v>1.36</v>
+      </c>
+      <c r="AW193">
+        <v>2.91</v>
+      </c>
+      <c r="AX193">
+        <v>1.62</v>
+      </c>
+      <c r="AY193">
+        <v>7.5</v>
+      </c>
+      <c r="AZ193">
+        <v>2.88</v>
+      </c>
+      <c r="BA193">
+        <v>1.18</v>
+      </c>
+      <c r="BB193">
+        <v>1.35</v>
+      </c>
+      <c r="BC193">
+        <v>1.63</v>
+      </c>
+      <c r="BD193">
+        <v>2.01</v>
+      </c>
+      <c r="BE193">
+        <v>2.46</v>
+      </c>
+      <c r="BF193">
+        <v>7</v>
+      </c>
+      <c r="BG193">
+        <v>4</v>
+      </c>
+      <c r="BH193">
+        <v>5</v>
+      </c>
+      <c r="BI193">
+        <v>3</v>
+      </c>
+      <c r="BJ193">
+        <v>12</v>
+      </c>
+      <c r="BK193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>5414575</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45136.70833333334</v>
+      </c>
+      <c r="F194">
+        <v>20</v>
+      </c>
+      <c r="G194" t="s">
+        <v>78</v>
+      </c>
+      <c r="H194" t="s">
+        <v>65</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>3</v>
+      </c>
+      <c r="O194" t="s">
+        <v>205</v>
+      </c>
+      <c r="P194" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q194">
+        <v>7</v>
+      </c>
+      <c r="R194">
+        <v>5</v>
+      </c>
+      <c r="S194">
+        <v>12</v>
+      </c>
+      <c r="T194">
+        <v>3.02</v>
+      </c>
+      <c r="U194">
+        <v>2.01</v>
+      </c>
+      <c r="V194">
+        <v>4.48</v>
+      </c>
+      <c r="W194">
+        <v>1.56</v>
+      </c>
+      <c r="X194">
+        <v>2.47</v>
+      </c>
+      <c r="Y194">
+        <v>3.6</v>
+      </c>
+      <c r="Z194">
+        <v>1.25</v>
+      </c>
+      <c r="AA194">
+        <v>8.5</v>
+      </c>
+      <c r="AB194">
+        <v>1.04</v>
+      </c>
+      <c r="AC194">
+        <v>2.2</v>
+      </c>
+      <c r="AD194">
+        <v>3.05</v>
+      </c>
+      <c r="AE194">
+        <v>3.35</v>
+      </c>
+      <c r="AF194">
+        <v>1.09</v>
+      </c>
+      <c r="AG194">
+        <v>7.35</v>
+      </c>
+      <c r="AH194">
+        <v>1.5</v>
+      </c>
+      <c r="AI194">
+        <v>2.3</v>
+      </c>
+      <c r="AJ194">
+        <v>2.55</v>
+      </c>
+      <c r="AK194">
+        <v>1.41</v>
+      </c>
+      <c r="AL194">
+        <v>2.15</v>
+      </c>
+      <c r="AM194">
+        <v>1.65</v>
+      </c>
+      <c r="AN194">
+        <v>1.25</v>
+      </c>
+      <c r="AO194">
+        <v>1.3</v>
+      </c>
+      <c r="AP194">
+        <v>1.65</v>
+      </c>
+      <c r="AQ194">
+        <v>1</v>
+      </c>
+      <c r="AR194">
+        <v>1</v>
+      </c>
+      <c r="AS194">
+        <v>0.9</v>
+      </c>
+      <c r="AT194">
+        <v>1.18</v>
+      </c>
+      <c r="AU194">
+        <v>1.58</v>
+      </c>
+      <c r="AV194">
+        <v>1.26</v>
+      </c>
+      <c r="AW194">
+        <v>2.84</v>
+      </c>
+      <c r="AX194">
+        <v>1.6</v>
+      </c>
+      <c r="AY194">
+        <v>7.5</v>
+      </c>
+      <c r="AZ194">
+        <v>2.9</v>
+      </c>
+      <c r="BA194">
+        <v>1.14</v>
+      </c>
+      <c r="BB194">
+        <v>1.26</v>
+      </c>
+      <c r="BC194">
+        <v>1.51</v>
+      </c>
+      <c r="BD194">
+        <v>1.83</v>
+      </c>
+      <c r="BE194">
+        <v>2.22</v>
+      </c>
+      <c r="BF194">
+        <v>3</v>
+      </c>
+      <c r="BG194">
+        <v>6</v>
+      </c>
+      <c r="BH194">
+        <v>9</v>
+      </c>
+      <c r="BI194">
+        <v>1</v>
+      </c>
+      <c r="BJ194">
+        <v>12</v>
+      </c>
+      <c r="BK194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>5414582</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45136.70833333334</v>
+      </c>
+      <c r="F195">
+        <v>20</v>
+      </c>
+      <c r="G195" t="s">
+        <v>82</v>
+      </c>
+      <c r="H195" t="s">
+        <v>72</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195" t="s">
+        <v>100</v>
+      </c>
+      <c r="P195" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q195">
+        <v>6</v>
+      </c>
+      <c r="R195">
+        <v>9</v>
+      </c>
+      <c r="S195">
+        <v>15</v>
+      </c>
+      <c r="T195">
+        <v>2.85</v>
+      </c>
+      <c r="U195">
+        <v>1.88</v>
+      </c>
+      <c r="V195">
+        <v>4.3</v>
+      </c>
+      <c r="W195">
+        <v>1.55</v>
+      </c>
+      <c r="X195">
+        <v>2.38</v>
+      </c>
+      <c r="Y195">
+        <v>3.56</v>
+      </c>
+      <c r="Z195">
+        <v>1.27</v>
+      </c>
+      <c r="AA195">
+        <v>10</v>
+      </c>
+      <c r="AB195">
+        <v>1.03</v>
+      </c>
+      <c r="AC195">
+        <v>2.07</v>
+      </c>
+      <c r="AD195">
+        <v>3.15</v>
+      </c>
+      <c r="AE195">
+        <v>3.55</v>
+      </c>
+      <c r="AF195">
+        <v>1.09</v>
+      </c>
+      <c r="AG195">
+        <v>7.75</v>
+      </c>
+      <c r="AH195">
+        <v>1.5</v>
+      </c>
+      <c r="AI195">
+        <v>2.37</v>
+      </c>
+      <c r="AJ195">
+        <v>2.32</v>
+      </c>
+      <c r="AK195">
+        <v>1.5</v>
+      </c>
+      <c r="AL195">
+        <v>2.15</v>
+      </c>
+      <c r="AM195">
+        <v>1.62</v>
+      </c>
+      <c r="AN195">
+        <v>1.28</v>
+      </c>
+      <c r="AO195">
+        <v>1.28</v>
+      </c>
+      <c r="AP195">
+        <v>1.7</v>
+      </c>
+      <c r="AQ195">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR195">
+        <v>0.4</v>
+      </c>
+      <c r="AS195">
+        <v>0.6</v>
+      </c>
+      <c r="AT195">
+        <v>0.45</v>
+      </c>
+      <c r="AU195">
+        <v>1.43</v>
+      </c>
+      <c r="AV195">
+        <v>1.22</v>
+      </c>
+      <c r="AW195">
+        <v>2.65</v>
+      </c>
+      <c r="AX195">
+        <v>1.6</v>
+      </c>
+      <c r="AY195">
+        <v>7</v>
+      </c>
+      <c r="AZ195">
+        <v>3</v>
+      </c>
+      <c r="BA195">
+        <v>1.21</v>
+      </c>
+      <c r="BB195">
+        <v>1.4</v>
+      </c>
+      <c r="BC195">
+        <v>1.7</v>
+      </c>
+      <c r="BD195">
+        <v>2.08</v>
+      </c>
+      <c r="BE195">
+        <v>2.6</v>
+      </c>
+      <c r="BF195">
+        <v>4</v>
+      </c>
+      <c r="BG195">
+        <v>0</v>
+      </c>
+      <c r="BH195">
+        <v>8</v>
+      </c>
+      <c r="BI195">
+        <v>12</v>
+      </c>
+      <c r="BJ195">
+        <v>12</v>
+      </c>
+      <c r="BK195">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>5414574</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45136.75</v>
+      </c>
+      <c r="F196">
+        <v>20</v>
+      </c>
+      <c r="G196" t="s">
+        <v>74</v>
+      </c>
+      <c r="H196" t="s">
+        <v>69</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>2</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+      <c r="N196">
+        <v>4</v>
+      </c>
+      <c r="O196" t="s">
+        <v>206</v>
+      </c>
+      <c r="P196" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q196">
+        <v>8</v>
+      </c>
+      <c r="R196">
+        <v>5</v>
+      </c>
+      <c r="S196">
+        <v>13</v>
+      </c>
+      <c r="T196">
+        <v>2.35</v>
+      </c>
+      <c r="U196">
+        <v>2.05</v>
+      </c>
+      <c r="V196">
+        <v>5</v>
+      </c>
+      <c r="W196">
+        <v>1.45</v>
+      </c>
+      <c r="X196">
+        <v>2.55</v>
+      </c>
+      <c r="Y196">
+        <v>3.1</v>
+      </c>
+      <c r="Z196">
+        <v>1.32</v>
+      </c>
+      <c r="AA196">
+        <v>7.25</v>
+      </c>
+      <c r="AB196">
+        <v>1.06</v>
+      </c>
+      <c r="AC196">
+        <v>1.73</v>
+      </c>
+      <c r="AD196">
+        <v>3.55</v>
+      </c>
+      <c r="AE196">
+        <v>4.6</v>
+      </c>
+      <c r="AF196">
+        <v>1.06</v>
+      </c>
+      <c r="AG196">
+        <v>9.9</v>
+      </c>
+      <c r="AH196">
+        <v>1.36</v>
+      </c>
+      <c r="AI196">
+        <v>2.89</v>
+      </c>
+      <c r="AJ196">
+        <v>2.25</v>
+      </c>
+      <c r="AK196">
+        <v>1.53</v>
+      </c>
+      <c r="AL196">
+        <v>2.05</v>
+      </c>
+      <c r="AM196">
+        <v>1.7</v>
+      </c>
+      <c r="AN196">
+        <v>1.18</v>
+      </c>
+      <c r="AO196">
+        <v>1.23</v>
+      </c>
+      <c r="AP196">
+        <v>2.05</v>
+      </c>
+      <c r="AQ196">
+        <v>1.9</v>
+      </c>
+      <c r="AR196">
+        <v>0.78</v>
+      </c>
+      <c r="AS196">
+        <v>1.82</v>
+      </c>
+      <c r="AT196">
+        <v>0.8</v>
+      </c>
+      <c r="AU196">
+        <v>1.76</v>
+      </c>
+      <c r="AV196">
+        <v>1.22</v>
+      </c>
+      <c r="AW196">
+        <v>2.98</v>
+      </c>
+      <c r="AX196">
+        <v>1.38</v>
+      </c>
+      <c r="AY196">
+        <v>8</v>
+      </c>
+      <c r="AZ196">
+        <v>4</v>
+      </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>1.22</v>
+      </c>
+      <c r="BC196">
+        <v>1.5</v>
+      </c>
+      <c r="BD196">
+        <v>1.8</v>
+      </c>
+      <c r="BE196">
+        <v>2.21</v>
+      </c>
+      <c r="BF196">
+        <v>8</v>
+      </c>
+      <c r="BG196">
+        <v>4</v>
+      </c>
+      <c r="BH196">
+        <v>3</v>
+      </c>
+      <c r="BI196">
+        <v>4</v>
+      </c>
+      <c r="BJ196">
+        <v>11</v>
+      </c>
+      <c r="BK196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>5414581</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45137.45833333334</v>
+      </c>
+      <c r="F197">
+        <v>20</v>
+      </c>
+      <c r="G197" t="s">
+        <v>77</v>
+      </c>
+      <c r="H197" t="s">
+        <v>71</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197">
+        <v>4</v>
+      </c>
+      <c r="O197" t="s">
+        <v>207</v>
+      </c>
+      <c r="P197" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q197">
+        <v>7</v>
+      </c>
+      <c r="R197">
+        <v>1</v>
+      </c>
+      <c r="S197">
+        <v>8</v>
+      </c>
+      <c r="T197">
+        <v>3.2</v>
+      </c>
+      <c r="U197">
+        <v>1.85</v>
+      </c>
+      <c r="V197">
+        <v>3.6</v>
+      </c>
+      <c r="W197">
+        <v>1.55</v>
+      </c>
+      <c r="X197">
+        <v>2.38</v>
+      </c>
+      <c r="Y197">
+        <v>3.56</v>
+      </c>
+      <c r="Z197">
+        <v>1.27</v>
+      </c>
+      <c r="AA197">
+        <v>9.9</v>
+      </c>
+      <c r="AB197">
+        <v>1.03</v>
+      </c>
+      <c r="AC197">
+        <v>2.35</v>
+      </c>
+      <c r="AD197">
+        <v>3.1</v>
+      </c>
+      <c r="AE197">
+        <v>3.1</v>
+      </c>
+      <c r="AF197">
+        <v>1.11</v>
+      </c>
+      <c r="AG197">
+        <v>6</v>
+      </c>
+      <c r="AH197">
+        <v>1.52</v>
+      </c>
+      <c r="AI197">
+        <v>2.36</v>
+      </c>
+      <c r="AJ197">
+        <v>2.48</v>
+      </c>
+      <c r="AK197">
+        <v>1.48</v>
+      </c>
+      <c r="AL197">
+        <v>2.09</v>
+      </c>
+      <c r="AM197">
+        <v>1.71</v>
+      </c>
+      <c r="AN197">
+        <v>1.28</v>
+      </c>
+      <c r="AO197">
+        <v>1.3</v>
+      </c>
+      <c r="AP197">
+        <v>1.57</v>
+      </c>
+      <c r="AQ197">
+        <v>1.1</v>
+      </c>
+      <c r="AR197">
+        <v>1.67</v>
+      </c>
+      <c r="AS197">
+        <v>1.09</v>
+      </c>
+      <c r="AT197">
+        <v>1.6</v>
+      </c>
+      <c r="AU197">
+        <v>1.77</v>
+      </c>
+      <c r="AV197">
+        <v>1.08</v>
+      </c>
+      <c r="AW197">
+        <v>2.85</v>
+      </c>
+      <c r="AX197">
+        <v>1.75</v>
+      </c>
+      <c r="AY197">
+        <v>9.6</v>
+      </c>
+      <c r="AZ197">
+        <v>2.39</v>
+      </c>
+      <c r="BA197">
+        <v>1.13</v>
+      </c>
+      <c r="BB197">
+        <v>1.24</v>
+      </c>
+      <c r="BC197">
+        <v>1.44</v>
+      </c>
+      <c r="BD197">
+        <v>1.8</v>
+      </c>
+      <c r="BE197">
+        <v>2.2</v>
+      </c>
+      <c r="BF197">
+        <v>10</v>
+      </c>
+      <c r="BG197">
+        <v>3</v>
+      </c>
+      <c r="BH197">
+        <v>4</v>
+      </c>
+      <c r="BI197">
+        <v>6</v>
+      </c>
+      <c r="BJ197">
+        <v>14</v>
+      </c>
+      <c r="BK197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>5414577</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45137.64583333334</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="G198" t="s">
+        <v>79</v>
+      </c>
+      <c r="H198" t="s">
+        <v>67</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>4</v>
+      </c>
+      <c r="O198" t="s">
+        <v>208</v>
+      </c>
+      <c r="P198" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q198">
+        <v>7</v>
+      </c>
+      <c r="R198">
+        <v>7</v>
+      </c>
+      <c r="S198">
+        <v>14</v>
+      </c>
+      <c r="T198">
+        <v>2.95</v>
+      </c>
+      <c r="U198">
+        <v>1.83</v>
+      </c>
+      <c r="V198">
+        <v>4.33</v>
+      </c>
+      <c r="W198">
+        <v>1.61</v>
+      </c>
+      <c r="X198">
+        <v>2.15</v>
+      </c>
+      <c r="Y198">
+        <v>3.9</v>
+      </c>
+      <c r="Z198">
+        <v>1.22</v>
+      </c>
+      <c r="AA198">
+        <v>11.5</v>
+      </c>
+      <c r="AB198">
+        <v>1.03</v>
+      </c>
+      <c r="AC198">
+        <v>2.06</v>
+      </c>
+      <c r="AD198">
+        <v>2.87</v>
+      </c>
+      <c r="AE198">
+        <v>3.36</v>
+      </c>
+      <c r="AF198">
+        <v>1.13</v>
+      </c>
+      <c r="AG198">
+        <v>5.5</v>
+      </c>
+      <c r="AH198">
+        <v>1.53</v>
+      </c>
+      <c r="AI198">
+        <v>2.35</v>
+      </c>
+      <c r="AJ198">
+        <v>2.9</v>
+      </c>
+      <c r="AK198">
+        <v>1.36</v>
+      </c>
+      <c r="AL198">
+        <v>2.35</v>
+      </c>
+      <c r="AM198">
+        <v>1.52</v>
+      </c>
+      <c r="AN198">
+        <v>1.27</v>
+      </c>
+      <c r="AO198">
+        <v>1.38</v>
+      </c>
+      <c r="AP198">
+        <v>1.63</v>
+      </c>
+      <c r="AQ198">
+        <v>1.89</v>
+      </c>
+      <c r="AR198">
+        <v>1.4</v>
+      </c>
+      <c r="AS198">
+        <v>2</v>
+      </c>
+      <c r="AT198">
+        <v>1.27</v>
+      </c>
+      <c r="AU198">
+        <v>2.01</v>
+      </c>
+      <c r="AV198">
+        <v>1.67</v>
+      </c>
+      <c r="AW198">
+        <v>3.68</v>
+      </c>
+      <c r="AX198">
+        <v>1.32</v>
+      </c>
+      <c r="AY198">
+        <v>7</v>
+      </c>
+      <c r="AZ198">
+        <v>3.65</v>
+      </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>1.16</v>
+      </c>
+      <c r="BC198">
+        <v>1.27</v>
+      </c>
+      <c r="BD198">
+        <v>1.57</v>
+      </c>
+      <c r="BE198">
+        <v>1.85</v>
+      </c>
+      <c r="BF198">
+        <v>6</v>
+      </c>
+      <c r="BG198">
+        <v>7</v>
+      </c>
+      <c r="BH198">
+        <v>9</v>
+      </c>
+      <c r="BI198">
+        <v>6</v>
+      </c>
+      <c r="BJ198">
+        <v>15</v>
+      </c>
+      <c r="BK198">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>5414573</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45137.75</v>
+      </c>
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199" t="s">
+        <v>76</v>
+      </c>
+      <c r="H199" t="s">
+        <v>73</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>4</v>
+      </c>
+      <c r="O199" t="s">
+        <v>209</v>
+      </c>
+      <c r="P199" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q199">
+        <v>1</v>
+      </c>
+      <c r="R199">
+        <v>12</v>
+      </c>
+      <c r="S199">
+        <v>13</v>
+      </c>
+      <c r="T199">
+        <v>3.25</v>
+      </c>
+      <c r="U199">
+        <v>1.9</v>
+      </c>
+      <c r="V199">
+        <v>3.6</v>
+      </c>
+      <c r="W199">
+        <v>1.54</v>
+      </c>
+      <c r="X199">
+        <v>2.34</v>
+      </c>
+      <c r="Y199">
+        <v>3.6</v>
+      </c>
+      <c r="Z199">
+        <v>1.25</v>
+      </c>
+      <c r="AA199">
+        <v>9.85</v>
+      </c>
+      <c r="AB199">
+        <v>1.03</v>
+      </c>
+      <c r="AC199">
+        <v>2.55</v>
+      </c>
+      <c r="AD199">
+        <v>2.95</v>
+      </c>
+      <c r="AE199">
+        <v>2.8</v>
+      </c>
+      <c r="AF199">
+        <v>1.09</v>
+      </c>
+      <c r="AG199">
+        <v>6.5</v>
+      </c>
+      <c r="AH199">
+        <v>1.5</v>
+      </c>
+      <c r="AI199">
+        <v>2.5</v>
+      </c>
+      <c r="AJ199">
+        <v>2.45</v>
+      </c>
+      <c r="AK199">
+        <v>1.5</v>
+      </c>
+      <c r="AL199">
+        <v>2.05</v>
+      </c>
+      <c r="AM199">
+        <v>1.72</v>
+      </c>
+      <c r="AN199">
+        <v>1.33</v>
+      </c>
+      <c r="AO199">
+        <v>1.3</v>
+      </c>
+      <c r="AP199">
+        <v>1.5</v>
+      </c>
+      <c r="AQ199">
+        <v>1.4</v>
+      </c>
+      <c r="AR199">
+        <v>1.6</v>
+      </c>
+      <c r="AS199">
+        <v>1.36</v>
+      </c>
+      <c r="AT199">
+        <v>1.55</v>
+      </c>
+      <c r="AU199">
+        <v>1.55</v>
+      </c>
+      <c r="AV199">
+        <v>1.26</v>
+      </c>
+      <c r="AW199">
+        <v>2.81</v>
+      </c>
+      <c r="AX199">
+        <v>1.64</v>
+      </c>
+      <c r="AY199">
+        <v>5.75</v>
+      </c>
+      <c r="AZ199">
+        <v>2.45</v>
+      </c>
+      <c r="BA199">
+        <v>1.15</v>
+      </c>
+      <c r="BB199">
+        <v>1.27</v>
+      </c>
+      <c r="BC199">
+        <v>1.57</v>
+      </c>
+      <c r="BD199">
+        <v>1.9</v>
+      </c>
+      <c r="BE199">
+        <v>2.34</v>
+      </c>
+      <c r="BF199">
+        <v>3</v>
+      </c>
+      <c r="BG199">
+        <v>4</v>
+      </c>
+      <c r="BH199">
+        <v>1</v>
+      </c>
+      <c r="BI199">
+        <v>13</v>
+      </c>
+      <c r="BJ199">
+        <v>4</v>
+      </c>
+      <c r="BK199">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,21 @@
     <t>['9', '13']</t>
   </si>
   <si>
+    <t>['73', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+4', '73']</t>
+  </si>
+  <si>
+    <t>['19', '31']</t>
+  </si>
+  <si>
+    <t>['45+10']</t>
+  </si>
+  <si>
+    <t>['90', '90+10']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -860,6 +875,12 @@
   </si>
   <si>
     <t>['61', '86']</t>
+  </si>
+  <si>
+    <t>['61', '90+1']</t>
+  </si>
+  <si>
+    <t>['90+11']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1486,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1552,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT2">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1743,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1934,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT4">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2125,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT5">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2229,7 +2250,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2316,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT6">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2420,7 +2441,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2507,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT7">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2698,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2889,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT9">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3080,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT10">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3566,7 +3587,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4330,7 +4351,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4712,7 +4733,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4990,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT20">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU20">
         <v>1.44</v>
@@ -5181,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT21">
         <v>0.45</v>
@@ -5372,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT22">
         <v>0.82</v>
@@ -5476,7 +5497,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5563,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT23">
         <v>1.4</v>
@@ -5948,7 +5969,7 @@
         <v>1.18</v>
       </c>
       <c r="AT25">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU25">
         <v>2.3</v>
@@ -6049,7 +6070,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6139,7 +6160,7 @@
         <v>1.09</v>
       </c>
       <c r="AT26">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU26">
         <v>2.32</v>
@@ -6330,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="AT27">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU27">
         <v>2.12</v>
@@ -6431,7 +6452,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6521,7 +6542,7 @@
         <v>0.6</v>
       </c>
       <c r="AT28">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU28">
         <v>0.93</v>
@@ -6709,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT29">
         <v>1.55</v>
@@ -6900,7 +6921,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT30">
         <v>1.6</v>
@@ -7094,7 +7115,7 @@
         <v>1.36</v>
       </c>
       <c r="AT31">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>1.83</v>
@@ -7282,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT32">
         <v>0.8</v>
@@ -7476,7 +7497,7 @@
         <v>1.82</v>
       </c>
       <c r="AT33">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU33">
         <v>1.09</v>
@@ -7664,10 +7685,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU34">
         <v>0.72</v>
@@ -7768,7 +7789,7 @@
         <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7855,10 +7876,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT35">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU35">
         <v>1.82</v>
@@ -8046,7 +8067,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT36">
         <v>1.18</v>
@@ -8150,7 +8171,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8341,7 +8362,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8619,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT39">
         <v>0.82</v>
@@ -8723,7 +8744,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8813,7 +8834,7 @@
         <v>1.09</v>
       </c>
       <c r="AT40">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU40">
         <v>1.98</v>
@@ -9001,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT41">
         <v>1.55</v>
@@ -9192,7 +9213,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT42">
         <v>1.27</v>
@@ -9296,7 +9317,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9386,7 +9407,7 @@
         <v>1.18</v>
       </c>
       <c r="AT43">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU43">
         <v>1.86</v>
@@ -9574,10 +9595,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT44">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU44">
         <v>1.45</v>
@@ -9768,7 +9789,7 @@
         <v>1.36</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU45">
         <v>1.72</v>
@@ -10060,7 +10081,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10251,7 +10272,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10442,7 +10463,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10532,7 +10553,7 @@
         <v>2.55</v>
       </c>
       <c r="AT49">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU49">
         <v>1.58</v>
@@ -10720,7 +10741,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT50">
         <v>1.6</v>
@@ -10824,7 +10845,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10914,7 +10935,7 @@
         <v>0.9</v>
       </c>
       <c r="AT51">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU51">
         <v>2.21</v>
@@ -11015,7 +11036,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11102,7 +11123,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT52">
         <v>1.4</v>
@@ -11484,7 +11505,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT54">
         <v>0.8</v>
@@ -11678,7 +11699,7 @@
         <v>1.4</v>
       </c>
       <c r="AT55">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -11866,10 +11887,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT56">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU56">
         <v>1.37</v>
@@ -11970,7 +11991,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12057,10 +12078,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT57">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU57">
         <v>1.79</v>
@@ -12161,7 +12182,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12251,7 +12272,7 @@
         <v>0.6</v>
       </c>
       <c r="AT58">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU58">
         <v>1.33</v>
@@ -12352,7 +12373,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12439,10 +12460,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU59">
         <v>1.3</v>
@@ -12543,7 +12564,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -12821,7 +12842,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT61">
         <v>1.55</v>
@@ -13015,7 +13036,7 @@
         <v>1.82</v>
       </c>
       <c r="AT62">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU62">
         <v>1.28</v>
@@ -13206,7 +13227,7 @@
         <v>2.55</v>
       </c>
       <c r="AT63">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU63">
         <v>1.52</v>
@@ -13307,7 +13328,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13394,10 +13415,10 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT64">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU64">
         <v>1.47</v>
@@ -13585,10 +13606,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT65">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU65">
         <v>1.61</v>
@@ -13689,7 +13710,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13880,7 +13901,7 @@
         <v>117</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13967,10 +13988,10 @@
         <v>1.33</v>
       </c>
       <c r="AS67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU67">
         <v>1.51</v>
@@ -14262,7 +14283,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14349,7 +14370,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT69">
         <v>1.27</v>
@@ -14734,7 +14755,7 @@
         <v>0.6</v>
       </c>
       <c r="AT71">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU71">
         <v>1.49</v>
@@ -14925,7 +14946,7 @@
         <v>2</v>
       </c>
       <c r="AT72">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU72">
         <v>2.1</v>
@@ -15113,7 +15134,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT73">
         <v>0.9</v>
@@ -15304,10 +15325,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT74">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU74">
         <v>1.72</v>
@@ -15495,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT75">
         <v>0.82</v>
@@ -15599,7 +15620,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15686,10 +15707,10 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT76">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU76">
         <v>1.52</v>
@@ -15790,7 +15811,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15877,10 +15898,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT77">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU77">
         <v>1.18</v>
@@ -16068,10 +16089,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU78">
         <v>1.63</v>
@@ -16259,10 +16280,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT79">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU79">
         <v>1.81</v>
@@ -16363,7 +16384,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16450,7 +16471,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT80">
         <v>0.45</v>
@@ -16554,7 +16575,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16641,7 +16662,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT81">
         <v>1.55</v>
@@ -16745,7 +16766,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17026,7 +17047,7 @@
         <v>1.82</v>
       </c>
       <c r="AT83">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU83">
         <v>1.53</v>
@@ -17405,7 +17426,7 @@
         <v>1.67</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT85">
         <v>1.6</v>
@@ -17509,7 +17530,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17599,7 +17620,7 @@
         <v>1.4</v>
       </c>
       <c r="AT86">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU86">
         <v>1.55</v>
@@ -17700,7 +17721,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17790,7 +17811,7 @@
         <v>2.55</v>
       </c>
       <c r="AT87">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU87">
         <v>1.65</v>
@@ -18363,7 +18384,7 @@
         <v>1.4</v>
       </c>
       <c r="AT90">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18554,7 +18575,7 @@
         <v>1.6</v>
       </c>
       <c r="AT91">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU91">
         <v>1.57</v>
@@ -18742,7 +18763,7 @@
         <v>0</v>
       </c>
       <c r="AS92">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT92">
         <v>0.82</v>
@@ -18933,10 +18954,10 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT93">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU93">
         <v>1.85</v>
@@ -19037,7 +19058,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19124,10 +19145,10 @@
         <v>0.8</v>
       </c>
       <c r="AS94">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT94">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU94">
         <v>1.65</v>
@@ -19315,10 +19336,10 @@
         <v>0.5</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT95">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU95">
         <v>1.55</v>
@@ -19419,7 +19440,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19509,7 +19530,7 @@
         <v>0.6</v>
       </c>
       <c r="AT96">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -19697,7 +19718,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT97">
         <v>0.8</v>
@@ -19888,7 +19909,7 @@
         <v>0.75</v>
       </c>
       <c r="AS98">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT98">
         <v>0.9</v>
@@ -19992,7 +20013,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20079,10 +20100,10 @@
         <v>0.67</v>
       </c>
       <c r="AS99">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT99">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU99">
         <v>1.59</v>
@@ -20183,7 +20204,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20655,7 +20676,7 @@
         <v>1.36</v>
       </c>
       <c r="AT102">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU102">
         <v>1.75</v>
@@ -20756,7 +20777,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20846,7 +20867,7 @@
         <v>1.82</v>
       </c>
       <c r="AT103">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -20947,7 +20968,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21228,7 +21249,7 @@
         <v>2.55</v>
       </c>
       <c r="AT105">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU105">
         <v>1.84</v>
@@ -21416,7 +21437,7 @@
         <v>0.6</v>
       </c>
       <c r="AS106">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT106">
         <v>0.45</v>
@@ -21798,7 +21819,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT108">
         <v>1.4</v>
@@ -21989,7 +22010,7 @@
         <v>1.2</v>
       </c>
       <c r="AS109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT109">
         <v>1.55</v>
@@ -22183,7 +22204,7 @@
         <v>0.6</v>
       </c>
       <c r="AT110">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU110">
         <v>1.35</v>
@@ -22371,7 +22392,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT111">
         <v>1.18</v>
@@ -22562,10 +22583,10 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU112">
         <v>1.44</v>
@@ -22857,7 +22878,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23138,7 +23159,7 @@
         <v>1.36</v>
       </c>
       <c r="AT115">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU115">
         <v>1.72</v>
@@ -23239,7 +23260,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23326,7 +23347,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT116">
         <v>1.4</v>
@@ -23520,7 +23541,7 @@
         <v>0.9</v>
       </c>
       <c r="AT117">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU117">
         <v>2.02</v>
@@ -23708,7 +23729,7 @@
         <v>1.25</v>
       </c>
       <c r="AS118">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT118">
         <v>1.6</v>
@@ -23812,7 +23833,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23899,10 +23920,10 @@
         <v>0.2</v>
       </c>
       <c r="AS119">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT119">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU119">
         <v>1.64</v>
@@ -24194,7 +24215,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24281,7 +24302,7 @@
         <v>0.5</v>
       </c>
       <c r="AS121">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT121">
         <v>0.82</v>
@@ -24666,7 +24687,7 @@
         <v>1.82</v>
       </c>
       <c r="AT123">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU123">
         <v>1.74</v>
@@ -24767,7 +24788,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -25340,7 +25361,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25430,7 +25451,7 @@
         <v>1.09</v>
       </c>
       <c r="AT127">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU127">
         <v>1.97</v>
@@ -25531,7 +25552,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25618,10 +25639,10 @@
         <v>0.33</v>
       </c>
       <c r="AS128">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT128">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU128">
         <v>1.68</v>
@@ -25722,7 +25743,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25809,10 +25830,10 @@
         <v>2.17</v>
       </c>
       <c r="AS129">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT129">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU129">
         <v>1.86</v>
@@ -26000,7 +26021,7 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT130">
         <v>1.55</v>
@@ -26104,7 +26125,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26194,7 +26215,7 @@
         <v>1.18</v>
       </c>
       <c r="AT131">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU131">
         <v>1.54</v>
@@ -26382,7 +26403,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT132">
         <v>0.9</v>
@@ -26576,7 +26597,7 @@
         <v>2</v>
       </c>
       <c r="AT133">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU133">
         <v>1.89</v>
@@ -26764,10 +26785,10 @@
         <v>0.67</v>
       </c>
       <c r="AS134">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT134">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU134">
         <v>1.98</v>
@@ -26958,7 +26979,7 @@
         <v>1.4</v>
       </c>
       <c r="AT135">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU135">
         <v>1.57</v>
@@ -27059,7 +27080,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27149,7 +27170,7 @@
         <v>0.6</v>
       </c>
       <c r="AT136">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU136">
         <v>1.31</v>
@@ -27250,7 +27271,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27337,10 +27358,10 @@
         <v>0.33</v>
       </c>
       <c r="AS137">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT137">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU137">
         <v>1.35</v>
@@ -27441,7 +27462,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27528,7 +27549,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT138">
         <v>1.4</v>
@@ -27719,7 +27740,7 @@
         <v>0.67</v>
       </c>
       <c r="AS139">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT139">
         <v>0.8</v>
@@ -27823,7 +27844,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27910,7 +27931,7 @@
         <v>1.29</v>
       </c>
       <c r="AS140">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT140">
         <v>1.55</v>
@@ -28014,7 +28035,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28104,7 +28125,7 @@
         <v>1.09</v>
       </c>
       <c r="AT141">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU141">
         <v>1.83</v>
@@ -28396,7 +28417,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28483,7 +28504,7 @@
         <v>1.5</v>
       </c>
       <c r="AS143">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT143">
         <v>1.6</v>
@@ -28587,7 +28608,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28677,7 +28698,7 @@
         <v>0.9</v>
       </c>
       <c r="AT144">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -28778,7 +28799,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28865,7 +28886,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT145">
         <v>0.45</v>
@@ -29056,7 +29077,7 @@
         <v>1.86</v>
       </c>
       <c r="AS146">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT146">
         <v>1.55</v>
@@ -29250,7 +29271,7 @@
         <v>2.55</v>
       </c>
       <c r="AT147">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU147">
         <v>1.64</v>
@@ -29441,7 +29462,7 @@
         <v>1.36</v>
       </c>
       <c r="AT148">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU148">
         <v>1.58</v>
@@ -29629,7 +29650,7 @@
         <v>0.57</v>
       </c>
       <c r="AS149">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT149">
         <v>0.82</v>
@@ -30011,10 +30032,10 @@
         <v>1.17</v>
       </c>
       <c r="AS151">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT151">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU151">
         <v>1.5</v>
@@ -30115,7 +30136,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30205,7 +30226,7 @@
         <v>2</v>
       </c>
       <c r="AT152">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU152">
         <v>1.95</v>
@@ -30396,7 +30417,7 @@
         <v>1.4</v>
       </c>
       <c r="AT153">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU153">
         <v>1.56</v>
@@ -30497,7 +30518,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30584,7 +30605,7 @@
         <v>0.5</v>
       </c>
       <c r="AS154">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT154">
         <v>0.45</v>
@@ -30966,7 +30987,7 @@
         <v>1.5</v>
       </c>
       <c r="AS156">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT156">
         <v>1.55</v>
@@ -31070,7 +31091,7 @@
         <v>100</v>
       </c>
       <c r="P157" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31160,7 +31181,7 @@
         <v>0.9</v>
       </c>
       <c r="AT157">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU157">
         <v>1.68</v>
@@ -31921,7 +31942,7 @@
         <v>1.63</v>
       </c>
       <c r="AS161">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT161">
         <v>1.55</v>
@@ -32025,7 +32046,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32112,7 +32133,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT162">
         <v>1.18</v>
@@ -32303,7 +32324,7 @@
         <v>0.88</v>
       </c>
       <c r="AS163">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT163">
         <v>0.82</v>
@@ -32497,7 +32518,7 @@
         <v>1.82</v>
       </c>
       <c r="AT164">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU164">
         <v>1.78</v>
@@ -32685,10 +32706,10 @@
         <v>0.63</v>
       </c>
       <c r="AS165">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT165">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU165">
         <v>1.68</v>
@@ -32879,7 +32900,7 @@
         <v>1.36</v>
       </c>
       <c r="AT166">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU166">
         <v>1.63</v>
@@ -33067,7 +33088,7 @@
         <v>1.75</v>
       </c>
       <c r="AS167">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT167">
         <v>1.27</v>
@@ -33258,10 +33279,10 @@
         <v>1.75</v>
       </c>
       <c r="AS168">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT168">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU168">
         <v>1.84</v>
@@ -33449,10 +33470,10 @@
         <v>2</v>
       </c>
       <c r="AS169">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT169">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU169">
         <v>1.75</v>
@@ -33744,7 +33765,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34317,7 +34338,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34890,7 +34911,7 @@
         <v>196</v>
       </c>
       <c r="P177" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35272,7 +35293,7 @@
         <v>100</v>
       </c>
       <c r="P179" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35550,10 +35571,10 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT180">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU180">
         <v>1.44</v>
@@ -35741,10 +35762,10 @@
         <v>0.88</v>
       </c>
       <c r="AS181">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT181">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU181">
         <v>1.83</v>
@@ -35845,7 +35866,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -35932,10 +35953,10 @@
         <v>0.67</v>
       </c>
       <c r="AS182">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT182">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU182">
         <v>1.95</v>
@@ -36036,7 +36057,7 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36123,10 +36144,10 @@
         <v>1.78</v>
       </c>
       <c r="AS183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT183">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU183">
         <v>1.86</v>
@@ -36227,7 +36248,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36314,10 +36335,10 @@
         <v>0.63</v>
       </c>
       <c r="AS184">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT184">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU184">
         <v>1.38</v>
@@ -36505,10 +36526,10 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT185">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU185">
         <v>1.41</v>
@@ -36696,10 +36717,10 @@
         <v>1.67</v>
       </c>
       <c r="AS186">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT186">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU186">
         <v>1.71</v>
@@ -36800,7 +36821,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -36887,10 +36908,10 @@
         <v>0.88</v>
       </c>
       <c r="AS187">
+        <v>1.27</v>
+      </c>
+      <c r="AT187">
         <v>1.3</v>
-      </c>
-      <c r="AT187">
-        <v>1.11</v>
       </c>
       <c r="AU187">
         <v>1.81</v>
@@ -37078,10 +37099,10 @@
         <v>0.71</v>
       </c>
       <c r="AS188">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT188">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU188">
         <v>1.7</v>
@@ -37182,7 +37203,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37269,10 +37290,10 @@
         <v>1.38</v>
       </c>
       <c r="AS189">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT189">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU189">
         <v>1.21</v>
@@ -37373,7 +37394,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37946,7 +37967,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38137,7 +38158,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38519,7 +38540,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38710,7 +38731,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39092,7 +39113,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39234,6 +39255,1916 @@
       </c>
       <c r="BK199">
         <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>5414587</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45139.79166666666</v>
+      </c>
+      <c r="F200">
+        <v>21</v>
+      </c>
+      <c r="G200" t="s">
+        <v>68</v>
+      </c>
+      <c r="H200" t="s">
+        <v>78</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>4</v>
+      </c>
+      <c r="O200" t="s">
+        <v>210</v>
+      </c>
+      <c r="P200" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q200">
+        <v>7</v>
+      </c>
+      <c r="R200">
+        <v>5</v>
+      </c>
+      <c r="S200">
+        <v>12</v>
+      </c>
+      <c r="T200">
+        <v>2.2</v>
+      </c>
+      <c r="U200">
+        <v>2.05</v>
+      </c>
+      <c r="V200">
+        <v>6</v>
+      </c>
+      <c r="W200">
+        <v>1.48</v>
+      </c>
+      <c r="X200">
+        <v>2.45</v>
+      </c>
+      <c r="Y200">
+        <v>3.25</v>
+      </c>
+      <c r="Z200">
+        <v>1.3</v>
+      </c>
+      <c r="AA200">
+        <v>7.75</v>
+      </c>
+      <c r="AB200">
+        <v>1.05</v>
+      </c>
+      <c r="AC200">
+        <v>1.65</v>
+      </c>
+      <c r="AD200">
+        <v>3.6</v>
+      </c>
+      <c r="AE200">
+        <v>5.5</v>
+      </c>
+      <c r="AF200">
+        <v>1.08</v>
+      </c>
+      <c r="AG200">
+        <v>8.4</v>
+      </c>
+      <c r="AH200">
+        <v>1.41</v>
+      </c>
+      <c r="AI200">
+        <v>2.71</v>
+      </c>
+      <c r="AJ200">
+        <v>2.3</v>
+      </c>
+      <c r="AK200">
+        <v>1.57</v>
+      </c>
+      <c r="AL200">
+        <v>2.25</v>
+      </c>
+      <c r="AM200">
+        <v>1.58</v>
+      </c>
+      <c r="AN200">
+        <v>1.13</v>
+      </c>
+      <c r="AO200">
+        <v>1.24</v>
+      </c>
+      <c r="AP200">
+        <v>2.2</v>
+      </c>
+      <c r="AQ200">
+        <v>2</v>
+      </c>
+      <c r="AR200">
+        <v>0.89</v>
+      </c>
+      <c r="AS200">
+        <v>1.91</v>
+      </c>
+      <c r="AT200">
+        <v>0.9</v>
+      </c>
+      <c r="AU200">
+        <v>1.79</v>
+      </c>
+      <c r="AV200">
+        <v>1.1</v>
+      </c>
+      <c r="AW200">
+        <v>2.89</v>
+      </c>
+      <c r="AX200">
+        <v>1.4</v>
+      </c>
+      <c r="AY200">
+        <v>8</v>
+      </c>
+      <c r="AZ200">
+        <v>3.8</v>
+      </c>
+      <c r="BA200">
+        <v>1.18</v>
+      </c>
+      <c r="BB200">
+        <v>1.3</v>
+      </c>
+      <c r="BC200">
+        <v>1.6</v>
+      </c>
+      <c r="BD200">
+        <v>1.93</v>
+      </c>
+      <c r="BE200">
+        <v>2.4</v>
+      </c>
+      <c r="BF200">
+        <v>5</v>
+      </c>
+      <c r="BG200">
+        <v>4</v>
+      </c>
+      <c r="BH200">
+        <v>6</v>
+      </c>
+      <c r="BI200">
+        <v>1</v>
+      </c>
+      <c r="BJ200">
+        <v>11</v>
+      </c>
+      <c r="BK200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>5414589</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45139.79166666666</v>
+      </c>
+      <c r="F201">
+        <v>21</v>
+      </c>
+      <c r="G201" t="s">
+        <v>69</v>
+      </c>
+      <c r="H201" t="s">
+        <v>75</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201" t="s">
+        <v>100</v>
+      </c>
+      <c r="P201" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q201">
+        <v>5</v>
+      </c>
+      <c r="R201">
+        <v>4</v>
+      </c>
+      <c r="S201">
+        <v>9</v>
+      </c>
+      <c r="T201">
+        <v>2.95</v>
+      </c>
+      <c r="U201">
+        <v>1.85</v>
+      </c>
+      <c r="V201">
+        <v>4.3</v>
+      </c>
+      <c r="W201">
+        <v>1.58</v>
+      </c>
+      <c r="X201">
+        <v>2.2</v>
+      </c>
+      <c r="Y201">
+        <v>3.6</v>
+      </c>
+      <c r="Z201">
+        <v>1.24</v>
+      </c>
+      <c r="AA201">
+        <v>8.5</v>
+      </c>
+      <c r="AB201">
+        <v>1.04</v>
+      </c>
+      <c r="AC201">
+        <v>2.4</v>
+      </c>
+      <c r="AD201">
+        <v>2.95</v>
+      </c>
+      <c r="AE201">
+        <v>3.2</v>
+      </c>
+      <c r="AF201">
+        <v>1.1</v>
+      </c>
+      <c r="AG201">
+        <v>6.9</v>
+      </c>
+      <c r="AH201">
+        <v>1.53</v>
+      </c>
+      <c r="AI201">
+        <v>2.38</v>
+      </c>
+      <c r="AJ201">
+        <v>2.55</v>
+      </c>
+      <c r="AK201">
+        <v>1.47</v>
+      </c>
+      <c r="AL201">
+        <v>2.2</v>
+      </c>
+      <c r="AM201">
+        <v>1.62</v>
+      </c>
+      <c r="AN201">
+        <v>1.27</v>
+      </c>
+      <c r="AO201">
+        <v>1.32</v>
+      </c>
+      <c r="AP201">
+        <v>1.62</v>
+      </c>
+      <c r="AQ201">
+        <v>1.3</v>
+      </c>
+      <c r="AR201">
+        <v>1.56</v>
+      </c>
+      <c r="AS201">
+        <v>1.27</v>
+      </c>
+      <c r="AT201">
+        <v>1.5</v>
+      </c>
+      <c r="AU201">
+        <v>1.8</v>
+      </c>
+      <c r="AV201">
+        <v>1.22</v>
+      </c>
+      <c r="AW201">
+        <v>3.02</v>
+      </c>
+      <c r="AX201">
+        <v>1.6</v>
+      </c>
+      <c r="AY201">
+        <v>7</v>
+      </c>
+      <c r="AZ201">
+        <v>3</v>
+      </c>
+      <c r="BA201">
+        <v>1.17</v>
+      </c>
+      <c r="BB201">
+        <v>1.28</v>
+      </c>
+      <c r="BC201">
+        <v>1.61</v>
+      </c>
+      <c r="BD201">
+        <v>1.95</v>
+      </c>
+      <c r="BE201">
+        <v>2.41</v>
+      </c>
+      <c r="BF201">
+        <v>4</v>
+      </c>
+      <c r="BG201">
+        <v>2</v>
+      </c>
+      <c r="BH201">
+        <v>7</v>
+      </c>
+      <c r="BI201">
+        <v>6</v>
+      </c>
+      <c r="BJ201">
+        <v>11</v>
+      </c>
+      <c r="BK201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>5414592</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45139.89583333334</v>
+      </c>
+      <c r="F202">
+        <v>21</v>
+      </c>
+      <c r="G202" t="s">
+        <v>83</v>
+      </c>
+      <c r="H202" t="s">
+        <v>74</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>3</v>
+      </c>
+      <c r="O202" t="s">
+        <v>211</v>
+      </c>
+      <c r="P202" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q202">
+        <v>5</v>
+      </c>
+      <c r="R202">
+        <v>7</v>
+      </c>
+      <c r="S202">
+        <v>12</v>
+      </c>
+      <c r="T202">
+        <v>3</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>3.75</v>
+      </c>
+      <c r="W202">
+        <v>1.5</v>
+      </c>
+      <c r="X202">
+        <v>2.5</v>
+      </c>
+      <c r="Y202">
+        <v>3.4</v>
+      </c>
+      <c r="Z202">
+        <v>1.3</v>
+      </c>
+      <c r="AA202">
+        <v>8</v>
+      </c>
+      <c r="AB202">
+        <v>1.06</v>
+      </c>
+      <c r="AC202">
+        <v>2.35</v>
+      </c>
+      <c r="AD202">
+        <v>3.2</v>
+      </c>
+      <c r="AE202">
+        <v>3</v>
+      </c>
+      <c r="AF202">
+        <v>1.08</v>
+      </c>
+      <c r="AG202">
+        <v>7</v>
+      </c>
+      <c r="AH202">
+        <v>1.4</v>
+      </c>
+      <c r="AI202">
+        <v>2.75</v>
+      </c>
+      <c r="AJ202">
+        <v>2.25</v>
+      </c>
+      <c r="AK202">
+        <v>1.6</v>
+      </c>
+      <c r="AL202">
+        <v>1.91</v>
+      </c>
+      <c r="AM202">
+        <v>1.8</v>
+      </c>
+      <c r="AN202">
+        <v>1.3</v>
+      </c>
+      <c r="AO202">
+        <v>1.28</v>
+      </c>
+      <c r="AP202">
+        <v>1.57</v>
+      </c>
+      <c r="AQ202">
+        <v>1.67</v>
+      </c>
+      <c r="AR202">
+        <v>0.89</v>
+      </c>
+      <c r="AS202">
+        <v>1.8</v>
+      </c>
+      <c r="AT202">
+        <v>0.8</v>
+      </c>
+      <c r="AU202">
+        <v>1.52</v>
+      </c>
+      <c r="AV202">
+        <v>1.31</v>
+      </c>
+      <c r="AW202">
+        <v>2.83</v>
+      </c>
+      <c r="AX202">
+        <v>1.75</v>
+      </c>
+      <c r="AY202">
+        <v>7.5</v>
+      </c>
+      <c r="AZ202">
+        <v>2.5</v>
+      </c>
+      <c r="BA202">
+        <v>1.15</v>
+      </c>
+      <c r="BB202">
+        <v>1.29</v>
+      </c>
+      <c r="BC202">
+        <v>1.55</v>
+      </c>
+      <c r="BD202">
+        <v>1.85</v>
+      </c>
+      <c r="BE202">
+        <v>2.25</v>
+      </c>
+      <c r="BF202">
+        <v>4</v>
+      </c>
+      <c r="BG202">
+        <v>6</v>
+      </c>
+      <c r="BH202">
+        <v>7</v>
+      </c>
+      <c r="BI202">
+        <v>1</v>
+      </c>
+      <c r="BJ202">
+        <v>11</v>
+      </c>
+      <c r="BK202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>5414585</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45140.79166666666</v>
+      </c>
+      <c r="F203">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>71</v>
+      </c>
+      <c r="H203" t="s">
+        <v>76</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>3</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203" t="s">
+        <v>212</v>
+      </c>
+      <c r="P203" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q203">
+        <v>9</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>11</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.91</v>
+      </c>
+      <c r="V203">
+        <v>5.5</v>
+      </c>
+      <c r="W203">
+        <v>1.57</v>
+      </c>
+      <c r="X203">
+        <v>2.25</v>
+      </c>
+      <c r="Y203">
+        <v>3.75</v>
+      </c>
+      <c r="Z203">
+        <v>1.25</v>
+      </c>
+      <c r="AA203">
+        <v>9</v>
+      </c>
+      <c r="AB203">
+        <v>1.04</v>
+      </c>
+      <c r="AC203">
+        <v>1.79</v>
+      </c>
+      <c r="AD203">
+        <v>3.1</v>
+      </c>
+      <c r="AE203">
+        <v>5.2</v>
+      </c>
+      <c r="AF203">
+        <v>1.12</v>
+      </c>
+      <c r="AG203">
+        <v>5.5</v>
+      </c>
+      <c r="AH203">
+        <v>1.5</v>
+      </c>
+      <c r="AI203">
+        <v>2.3</v>
+      </c>
+      <c r="AJ203">
+        <v>2.4</v>
+      </c>
+      <c r="AK203">
+        <v>1.5</v>
+      </c>
+      <c r="AL203">
+        <v>2.63</v>
+      </c>
+      <c r="AM203">
+        <v>1.44</v>
+      </c>
+      <c r="AN203">
+        <v>1.16</v>
+      </c>
+      <c r="AO203">
+        <v>1.34</v>
+      </c>
+      <c r="AP203">
+        <v>1.95</v>
+      </c>
+      <c r="AQ203">
+        <v>1.9</v>
+      </c>
+      <c r="AR203">
+        <v>0.89</v>
+      </c>
+      <c r="AS203">
+        <v>2</v>
+      </c>
+      <c r="AT203">
+        <v>0.8</v>
+      </c>
+      <c r="AU203">
+        <v>1.8</v>
+      </c>
+      <c r="AV203">
+        <v>1.22</v>
+      </c>
+      <c r="AW203">
+        <v>3.02</v>
+      </c>
+      <c r="AX203">
+        <v>1.45</v>
+      </c>
+      <c r="AY203">
+        <v>8</v>
+      </c>
+      <c r="AZ203">
+        <v>3.5</v>
+      </c>
+      <c r="BA203">
+        <v>1.15</v>
+      </c>
+      <c r="BB203">
+        <v>1.2</v>
+      </c>
+      <c r="BC203">
+        <v>1.4</v>
+      </c>
+      <c r="BD203">
+        <v>1.69</v>
+      </c>
+      <c r="BE203">
+        <v>2.03</v>
+      </c>
+      <c r="BF203">
+        <v>5</v>
+      </c>
+      <c r="BG203">
+        <v>3</v>
+      </c>
+      <c r="BH203">
+        <v>10</v>
+      </c>
+      <c r="BI203">
+        <v>8</v>
+      </c>
+      <c r="BJ203">
+        <v>15</v>
+      </c>
+      <c r="BK203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>5414586</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45140.79166666666</v>
+      </c>
+      <c r="F204">
+        <v>21</v>
+      </c>
+      <c r="G204" t="s">
+        <v>66</v>
+      </c>
+      <c r="H204" t="s">
+        <v>77</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+      <c r="O204" t="s">
+        <v>127</v>
+      </c>
+      <c r="P204" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q204">
+        <v>5</v>
+      </c>
+      <c r="R204">
+        <v>5</v>
+      </c>
+      <c r="S204">
+        <v>10</v>
+      </c>
+      <c r="T204">
+        <v>2.88</v>
+      </c>
+      <c r="U204">
+        <v>1.95</v>
+      </c>
+      <c r="V204">
+        <v>4.33</v>
+      </c>
+      <c r="W204">
+        <v>1.53</v>
+      </c>
+      <c r="X204">
+        <v>2.38</v>
+      </c>
+      <c r="Y204">
+        <v>3.5</v>
+      </c>
+      <c r="Z204">
+        <v>1.29</v>
+      </c>
+      <c r="AA204">
+        <v>8.5</v>
+      </c>
+      <c r="AB204">
+        <v>1.05</v>
+      </c>
+      <c r="AC204">
+        <v>2.06</v>
+      </c>
+      <c r="AD204">
+        <v>3.2</v>
+      </c>
+      <c r="AE204">
+        <v>3.35</v>
+      </c>
+      <c r="AF204">
+        <v>1.11</v>
+      </c>
+      <c r="AG204">
+        <v>6</v>
+      </c>
+      <c r="AH204">
+        <v>1.5</v>
+      </c>
+      <c r="AI204">
+        <v>2.5</v>
+      </c>
+      <c r="AJ204">
+        <v>2.4</v>
+      </c>
+      <c r="AK204">
+        <v>1.5</v>
+      </c>
+      <c r="AL204">
+        <v>2.1</v>
+      </c>
+      <c r="AM204">
+        <v>1.67</v>
+      </c>
+      <c r="AN204">
+        <v>1.28</v>
+      </c>
+      <c r="AO204">
+        <v>1.34</v>
+      </c>
+      <c r="AP204">
+        <v>1.68</v>
+      </c>
+      <c r="AQ204">
+        <v>1.33</v>
+      </c>
+      <c r="AR204">
+        <v>0.78</v>
+      </c>
+      <c r="AS204">
+        <v>1.5</v>
+      </c>
+      <c r="AT204">
+        <v>0.7</v>
+      </c>
+      <c r="AU204">
+        <v>1.43</v>
+      </c>
+      <c r="AV204">
+        <v>1.37</v>
+      </c>
+      <c r="AW204">
+        <v>2.8</v>
+      </c>
+      <c r="AX204">
+        <v>1.53</v>
+      </c>
+      <c r="AY204">
+        <v>8</v>
+      </c>
+      <c r="AZ204">
+        <v>3.1</v>
+      </c>
+      <c r="BA204">
+        <v>1.16</v>
+      </c>
+      <c r="BB204">
+        <v>1.29</v>
+      </c>
+      <c r="BC204">
+        <v>1.6</v>
+      </c>
+      <c r="BD204">
+        <v>1.93</v>
+      </c>
+      <c r="BE204">
+        <v>2.38</v>
+      </c>
+      <c r="BF204">
+        <v>4</v>
+      </c>
+      <c r="BG204">
+        <v>3</v>
+      </c>
+      <c r="BH204">
+        <v>4</v>
+      </c>
+      <c r="BI204">
+        <v>9</v>
+      </c>
+      <c r="BJ204">
+        <v>8</v>
+      </c>
+      <c r="BK204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>5414591</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45140.89583333334</v>
+      </c>
+      <c r="F205">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>72</v>
+      </c>
+      <c r="H205" t="s">
+        <v>81</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>127</v>
+      </c>
+      <c r="P205" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q205">
+        <v>9</v>
+      </c>
+      <c r="R205">
+        <v>3</v>
+      </c>
+      <c r="S205">
+        <v>12</v>
+      </c>
+      <c r="T205">
+        <v>3.25</v>
+      </c>
+      <c r="U205">
+        <v>1.91</v>
+      </c>
+      <c r="V205">
+        <v>3.6</v>
+      </c>
+      <c r="W205">
+        <v>1.53</v>
+      </c>
+      <c r="X205">
+        <v>2.38</v>
+      </c>
+      <c r="Y205">
+        <v>3.75</v>
+      </c>
+      <c r="Z205">
+        <v>1.25</v>
+      </c>
+      <c r="AA205">
+        <v>8.5</v>
+      </c>
+      <c r="AB205">
+        <v>1.05</v>
+      </c>
+      <c r="AC205">
+        <v>2.55</v>
+      </c>
+      <c r="AD205">
+        <v>2.85</v>
+      </c>
+      <c r="AE205">
+        <v>2.95</v>
+      </c>
+      <c r="AF205">
+        <v>1.11</v>
+      </c>
+      <c r="AG205">
+        <v>6</v>
+      </c>
+      <c r="AH205">
+        <v>1.5</v>
+      </c>
+      <c r="AI205">
+        <v>2.45</v>
+      </c>
+      <c r="AJ205">
+        <v>2.37</v>
+      </c>
+      <c r="AK205">
+        <v>1.5</v>
+      </c>
+      <c r="AL205">
+        <v>2.1</v>
+      </c>
+      <c r="AM205">
+        <v>1.67</v>
+      </c>
+      <c r="AN205">
+        <v>1.33</v>
+      </c>
+      <c r="AO205">
+        <v>1.3</v>
+      </c>
+      <c r="AP205">
+        <v>1.53</v>
+      </c>
+      <c r="AQ205">
+        <v>1.11</v>
+      </c>
+      <c r="AR205">
+        <v>0.63</v>
+      </c>
+      <c r="AS205">
+        <v>1.1</v>
+      </c>
+      <c r="AT205">
+        <v>0.67</v>
+      </c>
+      <c r="AU205">
+        <v>1.17</v>
+      </c>
+      <c r="AV205">
+        <v>1.39</v>
+      </c>
+      <c r="AW205">
+        <v>2.56</v>
+      </c>
+      <c r="AX205">
+        <v>1.48</v>
+      </c>
+      <c r="AY205">
+        <v>8</v>
+      </c>
+      <c r="AZ205">
+        <v>3.4</v>
+      </c>
+      <c r="BA205">
+        <v>1.2</v>
+      </c>
+      <c r="BB205">
+        <v>1.4</v>
+      </c>
+      <c r="BC205">
+        <v>1.68</v>
+      </c>
+      <c r="BD205">
+        <v>2.06</v>
+      </c>
+      <c r="BE205">
+        <v>2.43</v>
+      </c>
+      <c r="BF205">
+        <v>7</v>
+      </c>
+      <c r="BG205">
+        <v>6</v>
+      </c>
+      <c r="BH205">
+        <v>11</v>
+      </c>
+      <c r="BI205">
+        <v>5</v>
+      </c>
+      <c r="BJ205">
+        <v>18</v>
+      </c>
+      <c r="BK205">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>5414590</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45140.89583333334</v>
+      </c>
+      <c r="F206">
+        <v>21</v>
+      </c>
+      <c r="G206" t="s">
+        <v>70</v>
+      </c>
+      <c r="H206" t="s">
+        <v>79</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>1</v>
+      </c>
+      <c r="O206" t="s">
+        <v>213</v>
+      </c>
+      <c r="P206" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q206">
+        <v>4</v>
+      </c>
+      <c r="R206">
+        <v>4</v>
+      </c>
+      <c r="S206">
+        <v>8</v>
+      </c>
+      <c r="T206">
+        <v>3.2</v>
+      </c>
+      <c r="U206">
+        <v>1.91</v>
+      </c>
+      <c r="V206">
+        <v>3.75</v>
+      </c>
+      <c r="W206">
+        <v>1.57</v>
+      </c>
+      <c r="X206">
+        <v>2.25</v>
+      </c>
+      <c r="Y206">
+        <v>3.75</v>
+      </c>
+      <c r="Z206">
+        <v>1.25</v>
+      </c>
+      <c r="AA206">
+        <v>8.5</v>
+      </c>
+      <c r="AB206">
+        <v>1.05</v>
+      </c>
+      <c r="AC206">
+        <v>2.43</v>
+      </c>
+      <c r="AD206">
+        <v>2.95</v>
+      </c>
+      <c r="AE206">
+        <v>2.85</v>
+      </c>
+      <c r="AF206">
+        <v>1.1</v>
+      </c>
+      <c r="AG206">
+        <v>7</v>
+      </c>
+      <c r="AH206">
+        <v>1.55</v>
+      </c>
+      <c r="AI206">
+        <v>2.3</v>
+      </c>
+      <c r="AJ206">
+        <v>2.4</v>
+      </c>
+      <c r="AK206">
+        <v>1.5</v>
+      </c>
+      <c r="AL206">
+        <v>2.2</v>
+      </c>
+      <c r="AM206">
+        <v>1.62</v>
+      </c>
+      <c r="AN206">
+        <v>1.38</v>
+      </c>
+      <c r="AO206">
+        <v>1.34</v>
+      </c>
+      <c r="AP206">
+        <v>1.52</v>
+      </c>
+      <c r="AQ206">
+        <v>1.78</v>
+      </c>
+      <c r="AR206">
+        <v>1.9</v>
+      </c>
+      <c r="AS206">
+        <v>1.9</v>
+      </c>
+      <c r="AT206">
+        <v>1.73</v>
+      </c>
+      <c r="AU206">
+        <v>1.66</v>
+      </c>
+      <c r="AV206">
+        <v>1.46</v>
+      </c>
+      <c r="AW206">
+        <v>3.12</v>
+      </c>
+      <c r="AX206">
+        <v>1.88</v>
+      </c>
+      <c r="AY206">
+        <v>7.5</v>
+      </c>
+      <c r="AZ206">
+        <v>2.3</v>
+      </c>
+      <c r="BA206">
+        <v>1.13</v>
+      </c>
+      <c r="BB206">
+        <v>1.24</v>
+      </c>
+      <c r="BC206">
+        <v>1.52</v>
+      </c>
+      <c r="BD206">
+        <v>1.82</v>
+      </c>
+      <c r="BE206">
+        <v>2.22</v>
+      </c>
+      <c r="BF206">
+        <v>6</v>
+      </c>
+      <c r="BG206">
+        <v>5</v>
+      </c>
+      <c r="BH206">
+        <v>8</v>
+      </c>
+      <c r="BI206">
+        <v>7</v>
+      </c>
+      <c r="BJ206">
+        <v>14</v>
+      </c>
+      <c r="BK206">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>5414584</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45140.89583333334</v>
+      </c>
+      <c r="F207">
+        <v>21</v>
+      </c>
+      <c r="G207" t="s">
+        <v>67</v>
+      </c>
+      <c r="H207" t="s">
+        <v>84</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>100</v>
+      </c>
+      <c r="P207" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q207">
+        <v>6</v>
+      </c>
+      <c r="R207">
+        <v>5</v>
+      </c>
+      <c r="S207">
+        <v>11</v>
+      </c>
+      <c r="T207">
+        <v>3.2</v>
+      </c>
+      <c r="U207">
+        <v>1.91</v>
+      </c>
+      <c r="V207">
+        <v>3.75</v>
+      </c>
+      <c r="W207">
+        <v>1.57</v>
+      </c>
+      <c r="X207">
+        <v>2.25</v>
+      </c>
+      <c r="Y207">
+        <v>3.75</v>
+      </c>
+      <c r="Z207">
+        <v>1.25</v>
+      </c>
+      <c r="AA207">
+        <v>8.5</v>
+      </c>
+      <c r="AB207">
+        <v>1.05</v>
+      </c>
+      <c r="AC207">
+        <v>2.42</v>
+      </c>
+      <c r="AD207">
+        <v>2.85</v>
+      </c>
+      <c r="AE207">
+        <v>2.95</v>
+      </c>
+      <c r="AF207">
+        <v>1.1</v>
+      </c>
+      <c r="AG207">
+        <v>6.5</v>
+      </c>
+      <c r="AH207">
+        <v>1.57</v>
+      </c>
+      <c r="AI207">
+        <v>2.25</v>
+      </c>
+      <c r="AJ207">
+        <v>2.4</v>
+      </c>
+      <c r="AK207">
+        <v>1.5</v>
+      </c>
+      <c r="AL207">
+        <v>2.1</v>
+      </c>
+      <c r="AM207">
+        <v>1.67</v>
+      </c>
+      <c r="AN207">
+        <v>1.3</v>
+      </c>
+      <c r="AO207">
+        <v>1.33</v>
+      </c>
+      <c r="AP207">
+        <v>1.53</v>
+      </c>
+      <c r="AQ207">
+        <v>2.33</v>
+      </c>
+      <c r="AR207">
+        <v>1.11</v>
+      </c>
+      <c r="AS207">
+        <v>2.1</v>
+      </c>
+      <c r="AT207">
+        <v>1.3</v>
+      </c>
+      <c r="AU207">
+        <v>1.91</v>
+      </c>
+      <c r="AV207">
+        <v>1.2</v>
+      </c>
+      <c r="AW207">
+        <v>3.11</v>
+      </c>
+      <c r="AX207">
+        <v>1.7</v>
+      </c>
+      <c r="AY207">
+        <v>7</v>
+      </c>
+      <c r="AZ207">
+        <v>2.7</v>
+      </c>
+      <c r="BA207">
+        <v>0</v>
+      </c>
+      <c r="BB207">
+        <v>1.21</v>
+      </c>
+      <c r="BC207">
+        <v>1.43</v>
+      </c>
+      <c r="BD207">
+        <v>1.74</v>
+      </c>
+      <c r="BE207">
+        <v>2.1</v>
+      </c>
+      <c r="BF207">
+        <v>5</v>
+      </c>
+      <c r="BG207">
+        <v>6</v>
+      </c>
+      <c r="BH207">
+        <v>10</v>
+      </c>
+      <c r="BI207">
+        <v>4</v>
+      </c>
+      <c r="BJ207">
+        <v>15</v>
+      </c>
+      <c r="BK207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>5414583</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45140.89583333334</v>
+      </c>
+      <c r="F208">
+        <v>21</v>
+      </c>
+      <c r="G208" t="s">
+        <v>65</v>
+      </c>
+      <c r="H208" t="s">
+        <v>80</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208" t="s">
+        <v>100</v>
+      </c>
+      <c r="P208" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q208">
+        <v>6</v>
+      </c>
+      <c r="R208">
+        <v>6</v>
+      </c>
+      <c r="S208">
+        <v>12</v>
+      </c>
+      <c r="T208">
+        <v>3</v>
+      </c>
+      <c r="U208">
+        <v>1.95</v>
+      </c>
+      <c r="V208">
+        <v>4</v>
+      </c>
+      <c r="W208">
+        <v>1.53</v>
+      </c>
+      <c r="X208">
+        <v>2.38</v>
+      </c>
+      <c r="Y208">
+        <v>3.5</v>
+      </c>
+      <c r="Z208">
+        <v>1.29</v>
+      </c>
+      <c r="AA208">
+        <v>8.5</v>
+      </c>
+      <c r="AB208">
+        <v>1.05</v>
+      </c>
+      <c r="AC208">
+        <v>2.3</v>
+      </c>
+      <c r="AD208">
+        <v>2.95</v>
+      </c>
+      <c r="AE208">
+        <v>3.35</v>
+      </c>
+      <c r="AF208">
+        <v>1.1</v>
+      </c>
+      <c r="AG208">
+        <v>6.5</v>
+      </c>
+      <c r="AH208">
+        <v>1.5</v>
+      </c>
+      <c r="AI208">
+        <v>2.45</v>
+      </c>
+      <c r="AJ208">
+        <v>2.25</v>
+      </c>
+      <c r="AK208">
+        <v>1.53</v>
+      </c>
+      <c r="AL208">
+        <v>2.1</v>
+      </c>
+      <c r="AM208">
+        <v>1.67</v>
+      </c>
+      <c r="AN208">
+        <v>1.25</v>
+      </c>
+      <c r="AO208">
+        <v>1.28</v>
+      </c>
+      <c r="AP208">
+        <v>1.66</v>
+      </c>
+      <c r="AQ208">
+        <v>2.44</v>
+      </c>
+      <c r="AR208">
+        <v>1.5</v>
+      </c>
+      <c r="AS208">
+        <v>2.3</v>
+      </c>
+      <c r="AT208">
+        <v>1.45</v>
+      </c>
+      <c r="AU208">
+        <v>1.42</v>
+      </c>
+      <c r="AV208">
+        <v>1.14</v>
+      </c>
+      <c r="AW208">
+        <v>2.56</v>
+      </c>
+      <c r="AX208">
+        <v>1.7</v>
+      </c>
+      <c r="AY208">
+        <v>7</v>
+      </c>
+      <c r="AZ208">
+        <v>2.7</v>
+      </c>
+      <c r="BA208">
+        <v>1.17</v>
+      </c>
+      <c r="BB208">
+        <v>1.3</v>
+      </c>
+      <c r="BC208">
+        <v>1.58</v>
+      </c>
+      <c r="BD208">
+        <v>1.96</v>
+      </c>
+      <c r="BE208">
+        <v>2.37</v>
+      </c>
+      <c r="BF208">
+        <v>2</v>
+      </c>
+      <c r="BG208">
+        <v>3</v>
+      </c>
+      <c r="BH208">
+        <v>6</v>
+      </c>
+      <c r="BI208">
+        <v>7</v>
+      </c>
+      <c r="BJ208">
+        <v>8</v>
+      </c>
+      <c r="BK208">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>5414588</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45140.89583333334</v>
+      </c>
+      <c r="F209">
+        <v>21</v>
+      </c>
+      <c r="G209" t="s">
+        <v>73</v>
+      </c>
+      <c r="H209" t="s">
+        <v>82</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209" t="s">
+        <v>214</v>
+      </c>
+      <c r="P209" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q209">
+        <v>2</v>
+      </c>
+      <c r="R209">
+        <v>3</v>
+      </c>
+      <c r="S209">
+        <v>5</v>
+      </c>
+      <c r="T209">
+        <v>2.1</v>
+      </c>
+      <c r="U209">
+        <v>2.05</v>
+      </c>
+      <c r="V209">
+        <v>7</v>
+      </c>
+      <c r="W209">
+        <v>1.5</v>
+      </c>
+      <c r="X209">
+        <v>2.5</v>
+      </c>
+      <c r="Y209">
+        <v>3.4</v>
+      </c>
+      <c r="Z209">
+        <v>1.3</v>
+      </c>
+      <c r="AA209">
+        <v>8</v>
+      </c>
+      <c r="AB209">
+        <v>1.06</v>
+      </c>
+      <c r="AC209">
+        <v>1.57</v>
+      </c>
+      <c r="AD209">
+        <v>3.65</v>
+      </c>
+      <c r="AE209">
+        <v>6.2</v>
+      </c>
+      <c r="AF209">
+        <v>1.08</v>
+      </c>
+      <c r="AG209">
+        <v>7</v>
+      </c>
+      <c r="AH209">
+        <v>1.42</v>
+      </c>
+      <c r="AI209">
+        <v>2.7</v>
+      </c>
+      <c r="AJ209">
+        <v>2.25</v>
+      </c>
+      <c r="AK209">
+        <v>1.57</v>
+      </c>
+      <c r="AL209">
+        <v>2.5</v>
+      </c>
+      <c r="AM209">
+        <v>1.5</v>
+      </c>
+      <c r="AN209">
+        <v>1.05</v>
+      </c>
+      <c r="AO209">
+        <v>1.2</v>
+      </c>
+      <c r="AP209">
+        <v>2.35</v>
+      </c>
+      <c r="AQ209">
+        <v>2.33</v>
+      </c>
+      <c r="AR209">
+        <v>0.7</v>
+      </c>
+      <c r="AS209">
+        <v>2.4</v>
+      </c>
+      <c r="AT209">
+        <v>0.64</v>
+      </c>
+      <c r="AU209">
+        <v>1.7</v>
+      </c>
+      <c r="AV209">
+        <v>0.99</v>
+      </c>
+      <c r="AW209">
+        <v>2.69</v>
+      </c>
+      <c r="AX209">
+        <v>1.25</v>
+      </c>
+      <c r="AY209">
+        <v>9</v>
+      </c>
+      <c r="AZ209">
+        <v>5.25</v>
+      </c>
+      <c r="BA209">
+        <v>1.23</v>
+      </c>
+      <c r="BB209">
+        <v>1.43</v>
+      </c>
+      <c r="BC209">
+        <v>1.74</v>
+      </c>
+      <c r="BD209">
+        <v>2.13</v>
+      </c>
+      <c r="BE209">
+        <v>2.63</v>
+      </c>
+      <c r="BF209">
+        <v>4</v>
+      </c>
+      <c r="BG209">
+        <v>4</v>
+      </c>
+      <c r="BH209">
+        <v>7</v>
+      </c>
+      <c r="BI209">
+        <v>5</v>
+      </c>
+      <c r="BJ209">
+        <v>11</v>
+      </c>
+      <c r="BK209">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1242,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT5">
         <v>0.67</v>
@@ -3486,7 +3486,7 @@
         <v>1.6</v>
       </c>
       <c r="AT12">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>1.8</v>
       </c>
       <c r="AT32">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT35">
         <v>1.73</v>
@@ -9213,7 +9213,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT42">
         <v>1.27</v>
@@ -11508,7 +11508,7 @@
         <v>2.3</v>
       </c>
       <c r="AT54">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU54">
         <v>1.28</v>
@@ -12842,7 +12842,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT61">
         <v>1.55</v>
@@ -17426,7 +17426,7 @@
         <v>1.67</v>
       </c>
       <c r="AS85">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT85">
         <v>1.6</v>
@@ -18193,7 +18193,7 @@
         <v>1.18</v>
       </c>
       <c r="AT89">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU89">
         <v>1.55</v>
@@ -19336,7 +19336,7 @@
         <v>0.5</v>
       </c>
       <c r="AS95">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT95">
         <v>0.8</v>
@@ -19721,7 +19721,7 @@
         <v>2.1</v>
       </c>
       <c r="AT97">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU97">
         <v>2.18</v>
@@ -22777,7 +22777,7 @@
         <v>2</v>
       </c>
       <c r="AT113">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU113">
         <v>1.99</v>
@@ -25639,7 +25639,7 @@
         <v>0.33</v>
       </c>
       <c r="AS128">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT128">
         <v>0.64</v>
@@ -27743,7 +27743,7 @@
         <v>2.4</v>
       </c>
       <c r="AT139">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU139">
         <v>1.73</v>
@@ -29650,7 +29650,7 @@
         <v>0.57</v>
       </c>
       <c r="AS149">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT149">
         <v>0.82</v>
@@ -31372,7 +31372,7 @@
         <v>1.09</v>
       </c>
       <c r="AT158">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU158">
         <v>1.81</v>
@@ -33279,7 +33279,7 @@
         <v>1.75</v>
       </c>
       <c r="AS168">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT168">
         <v>1.45</v>
@@ -34810,7 +34810,7 @@
         <v>0.9</v>
       </c>
       <c r="AT176">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU176">
         <v>1.64</v>
@@ -35762,7 +35762,7 @@
         <v>0.88</v>
       </c>
       <c r="AS181">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT181">
         <v>0.7</v>
@@ -38630,7 +38630,7 @@
         <v>1.82</v>
       </c>
       <c r="AT196">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU196">
         <v>1.76</v>
@@ -39391,7 +39391,7 @@
         <v>0.89</v>
       </c>
       <c r="AS200">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT200">
         <v>0.9</v>
@@ -41164,6 +41164,197 @@
         <v>11</v>
       </c>
       <c r="BK209">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>5414597</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45142.89583333334</v>
+      </c>
+      <c r="F210">
+        <v>22</v>
+      </c>
+      <c r="G210" t="s">
+        <v>68</v>
+      </c>
+      <c r="H210" t="s">
+        <v>69</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210" t="s">
+        <v>100</v>
+      </c>
+      <c r="P210" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q210">
+        <v>7</v>
+      </c>
+      <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
+        <v>9</v>
+      </c>
+      <c r="T210">
+        <v>2.2</v>
+      </c>
+      <c r="U210">
+        <v>2.05</v>
+      </c>
+      <c r="V210">
+        <v>5.5</v>
+      </c>
+      <c r="W210">
+        <v>1.46</v>
+      </c>
+      <c r="X210">
+        <v>2.5</v>
+      </c>
+      <c r="Y210">
+        <v>3.1</v>
+      </c>
+      <c r="Z210">
+        <v>1.32</v>
+      </c>
+      <c r="AA210">
+        <v>8.5</v>
+      </c>
+      <c r="AB210">
+        <v>1.06</v>
+      </c>
+      <c r="AC210">
+        <v>1.53</v>
+      </c>
+      <c r="AD210">
+        <v>3.85</v>
+      </c>
+      <c r="AE210">
+        <v>5.5</v>
+      </c>
+      <c r="AF210">
+        <v>1.08</v>
+      </c>
+      <c r="AG210">
+        <v>7</v>
+      </c>
+      <c r="AH210">
+        <v>1.4</v>
+      </c>
+      <c r="AI210">
+        <v>2.85</v>
+      </c>
+      <c r="AJ210">
+        <v>2.16</v>
+      </c>
+      <c r="AK210">
+        <v>1.62</v>
+      </c>
+      <c r="AL210">
+        <v>2.2</v>
+      </c>
+      <c r="AM210">
+        <v>1.6</v>
+      </c>
+      <c r="AN210">
+        <v>1.14</v>
+      </c>
+      <c r="AO210">
+        <v>1.27</v>
+      </c>
+      <c r="AP210">
+        <v>2.2</v>
+      </c>
+      <c r="AQ210">
+        <v>1.91</v>
+      </c>
+      <c r="AR210">
+        <v>0.8</v>
+      </c>
+      <c r="AS210">
+        <v>1.83</v>
+      </c>
+      <c r="AT210">
+        <v>0.82</v>
+      </c>
+      <c r="AU210">
+        <v>1.76</v>
+      </c>
+      <c r="AV210">
+        <v>1.2</v>
+      </c>
+      <c r="AW210">
+        <v>2.96</v>
+      </c>
+      <c r="AX210">
+        <v>1.45</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>3.5</v>
+      </c>
+      <c r="BA210">
+        <v>1.19</v>
+      </c>
+      <c r="BB210">
+        <v>1.43</v>
+      </c>
+      <c r="BC210">
+        <v>1.74</v>
+      </c>
+      <c r="BD210">
+        <v>2.13</v>
+      </c>
+      <c r="BE210">
+        <v>2.63</v>
+      </c>
+      <c r="BF210">
+        <v>0</v>
+      </c>
+      <c r="BG210">
+        <v>7</v>
+      </c>
+      <c r="BH210">
+        <v>12</v>
+      </c>
+      <c r="BI210">
+        <v>2</v>
+      </c>
+      <c r="BJ210">
+        <v>12</v>
+      </c>
+      <c r="BK210">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,18 @@
     <t>['90', '90+10']</t>
   </si>
   <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['60', '81']</t>
+  </si>
+  <si>
+    <t>['54', '67', '85']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -829,9 +841,6 @@
     <t>['90', '90+6']</t>
   </si>
   <si>
-    <t>['43']</t>
-  </si>
-  <si>
     <t>['41']</t>
   </si>
   <si>
@@ -881,6 +890,12 @@
   </si>
   <si>
     <t>['90+11']</t>
+  </si>
+  <si>
+    <t>['51', '62']</t>
+  </si>
+  <si>
+    <t>['12', '45+5']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1501,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1764,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT3">
         <v>1.45</v>
@@ -1958,7 +1973,7 @@
         <v>2.1</v>
       </c>
       <c r="AT4">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2149,7 +2164,7 @@
         <v>1.83</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2250,7 +2265,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2441,7 +2456,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2528,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2722,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2910,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT9">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3292,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT11">
         <v>0.9</v>
@@ -3587,7 +3602,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3674,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4056,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT15">
         <v>1.4</v>
@@ -4351,7 +4366,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4438,10 +4453,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT17">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4733,7 +4748,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4823,7 +4838,7 @@
         <v>0.6</v>
       </c>
       <c r="AT19">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5497,7 +5512,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6070,7 +6085,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6452,7 +6467,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6921,10 +6936,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU30">
         <v>1.68</v>
@@ -7112,10 +7127,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU31">
         <v>1.83</v>
@@ -7303,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT32">
         <v>0.82</v>
@@ -7494,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU33">
         <v>1.09</v>
@@ -7685,10 +7700,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT34">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU34">
         <v>0.72</v>
@@ -7789,7 +7804,7 @@
         <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7879,7 +7894,7 @@
         <v>1.83</v>
       </c>
       <c r="AT35">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU35">
         <v>1.82</v>
@@ -8067,10 +8082,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT36">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU36">
         <v>1.56</v>
@@ -8171,7 +8186,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8258,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT37">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU37">
         <v>2.28</v>
@@ -8362,7 +8377,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8452,7 +8467,7 @@
         <v>1.6</v>
       </c>
       <c r="AT38">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -8744,7 +8759,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9216,7 +9231,7 @@
         <v>1.83</v>
       </c>
       <c r="AT42">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU42">
         <v>1.49</v>
@@ -9317,7 +9332,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9407,7 +9422,7 @@
         <v>1.18</v>
       </c>
       <c r="AT43">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU43">
         <v>1.86</v>
@@ -9595,10 +9610,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT44">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU44">
         <v>1.45</v>
@@ -9786,7 +9801,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
         <v>1.45</v>
@@ -9977,10 +9992,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT46">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10081,7 +10096,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10168,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT47">
         <v>0.45</v>
@@ -10272,7 +10287,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10359,10 +10374,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT48">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU48">
         <v>1.71</v>
@@ -10463,7 +10478,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10550,10 +10565,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT49">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU49">
         <v>1.58</v>
@@ -10744,7 +10759,7 @@
         <v>2.1</v>
       </c>
       <c r="AT50">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU50">
         <v>1.54</v>
@@ -10845,7 +10860,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10932,10 +10947,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT51">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU51">
         <v>2.21</v>
@@ -11036,7 +11051,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11123,7 +11138,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT52">
         <v>1.4</v>
@@ -11696,10 +11711,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT55">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -11887,7 +11902,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT56">
         <v>0.8</v>
@@ -11991,7 +12006,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12182,7 +12197,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12272,7 +12287,7 @@
         <v>0.6</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU58">
         <v>1.33</v>
@@ -12373,7 +12388,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12460,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT59">
         <v>1.3</v>
@@ -12564,7 +12579,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -12845,7 +12860,7 @@
         <v>1.83</v>
       </c>
       <c r="AT61">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU61">
         <v>1.39</v>
@@ -13033,7 +13048,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT62">
         <v>0.9</v>
@@ -13224,10 +13239,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT63">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU63">
         <v>1.52</v>
@@ -13328,7 +13343,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13415,10 +13430,10 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT64">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU64">
         <v>1.47</v>
@@ -13609,7 +13624,7 @@
         <v>1.27</v>
       </c>
       <c r="AT65">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU65">
         <v>1.61</v>
@@ -13710,7 +13725,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13901,7 +13916,7 @@
         <v>117</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14179,10 +14194,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU68">
         <v>1.83</v>
@@ -14283,7 +14298,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14370,10 +14385,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT69">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU69">
         <v>1.55</v>
@@ -14755,7 +14770,7 @@
         <v>0.6</v>
       </c>
       <c r="AT71">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU71">
         <v>1.49</v>
@@ -15325,7 +15340,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT74">
         <v>0.8</v>
@@ -15620,7 +15635,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15707,7 +15722,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT76">
         <v>1.45</v>
@@ -15811,7 +15826,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15901,7 +15916,7 @@
         <v>2.3</v>
       </c>
       <c r="AT77">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU77">
         <v>1.18</v>
@@ -16384,7 +16399,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16471,7 +16486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT80">
         <v>0.45</v>
@@ -16575,7 +16590,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16662,7 +16677,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT81">
         <v>1.55</v>
@@ -16766,7 +16781,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16853,10 +16868,10 @@
         <v>2.25</v>
       </c>
       <c r="AS82">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT82">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -17044,10 +17059,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT83">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU83">
         <v>1.53</v>
@@ -17235,10 +17250,10 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU84">
         <v>1.75</v>
@@ -17429,7 +17444,7 @@
         <v>1.83</v>
       </c>
       <c r="AT85">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU85">
         <v>1.57</v>
@@ -17530,7 +17545,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17617,10 +17632,10 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT86">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU86">
         <v>1.55</v>
@@ -17721,7 +17736,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17808,10 +17823,10 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT87">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU87">
         <v>1.65</v>
@@ -18002,7 +18017,7 @@
         <v>1.09</v>
       </c>
       <c r="AT88">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU88">
         <v>2.06</v>
@@ -18381,10 +18396,10 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT90">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18575,7 +18590,7 @@
         <v>1.6</v>
       </c>
       <c r="AT91">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU91">
         <v>1.57</v>
@@ -19058,7 +19073,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19145,7 +19160,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT94">
         <v>0.9</v>
@@ -19440,7 +19455,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19530,7 +19545,7 @@
         <v>0.6</v>
       </c>
       <c r="AT96">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -20013,7 +20028,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20100,7 +20115,7 @@
         <v>0.67</v>
       </c>
       <c r="AS99">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
         <v>1.3</v>
@@ -20204,7 +20219,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20294,7 +20309,7 @@
         <v>1.09</v>
       </c>
       <c r="AT100">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU100">
         <v>1.99</v>
@@ -20485,7 +20500,7 @@
         <v>1.18</v>
       </c>
       <c r="AT101">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU101">
         <v>1.6</v>
@@ -20673,10 +20688,10 @@
         <v>0.2</v>
       </c>
       <c r="AS102">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT102">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU102">
         <v>1.75</v>
@@ -20777,7 +20792,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20864,7 +20879,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT103">
         <v>1.45</v>
@@ -20968,7 +20983,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21246,7 +21261,7 @@
         <v>0.67</v>
       </c>
       <c r="AS105">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT105">
         <v>0.9</v>
@@ -21631,7 +21646,7 @@
         <v>2</v>
       </c>
       <c r="AT107">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU107">
         <v>2</v>
@@ -21819,7 +21834,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT108">
         <v>1.4</v>
@@ -22204,7 +22219,7 @@
         <v>0.6</v>
       </c>
       <c r="AT110">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU110">
         <v>1.35</v>
@@ -22395,7 +22410,7 @@
         <v>2.1</v>
       </c>
       <c r="AT111">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU111">
         <v>1.88</v>
@@ -22583,7 +22598,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT112">
         <v>0.8</v>
@@ -22878,7 +22893,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -22965,7 +22980,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT114">
         <v>0.9</v>
@@ -23156,7 +23171,7 @@
         <v>1.25</v>
       </c>
       <c r="AS115">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT115">
         <v>1.3</v>
@@ -23260,7 +23275,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23347,7 +23362,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT116">
         <v>1.4</v>
@@ -23538,10 +23553,10 @@
         <v>1.4</v>
       </c>
       <c r="AS117">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT117">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU117">
         <v>2.02</v>
@@ -23732,7 +23747,7 @@
         <v>2.4</v>
       </c>
       <c r="AT118">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU118">
         <v>1.71</v>
@@ -23833,7 +23848,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23920,10 +23935,10 @@
         <v>0.2</v>
       </c>
       <c r="AS119">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT119">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU119">
         <v>1.64</v>
@@ -24111,10 +24126,10 @@
         <v>2</v>
       </c>
       <c r="AS120">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT120">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24215,7 +24230,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24302,7 +24317,7 @@
         <v>0.5</v>
       </c>
       <c r="AS121">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT121">
         <v>0.82</v>
@@ -24493,7 +24508,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT122">
         <v>1.55</v>
@@ -24684,7 +24699,7 @@
         <v>0.4</v>
       </c>
       <c r="AS123">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT123">
         <v>0.8</v>
@@ -24788,7 +24803,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24878,7 +24893,7 @@
         <v>1.6</v>
       </c>
       <c r="AT124">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU124">
         <v>1.49</v>
@@ -25066,7 +25081,7 @@
         <v>0.5</v>
       </c>
       <c r="AS125">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT125">
         <v>0.45</v>
@@ -25260,7 +25275,7 @@
         <v>1.18</v>
       </c>
       <c r="AT126">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU126">
         <v>1.55</v>
@@ -25361,7 +25376,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25451,7 +25466,7 @@
         <v>1.09</v>
       </c>
       <c r="AT127">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU127">
         <v>1.97</v>
@@ -25552,7 +25567,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25642,7 +25657,7 @@
         <v>1.83</v>
       </c>
       <c r="AT128">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU128">
         <v>1.68</v>
@@ -25743,7 +25758,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26024,7 +26039,7 @@
         <v>2.3</v>
       </c>
       <c r="AT130">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU130">
         <v>1.51</v>
@@ -26125,7 +26140,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26597,7 +26612,7 @@
         <v>2</v>
       </c>
       <c r="AT133">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU133">
         <v>1.89</v>
@@ -26788,7 +26803,7 @@
         <v>2.1</v>
       </c>
       <c r="AT134">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU134">
         <v>1.98</v>
@@ -26976,7 +26991,7 @@
         <v>0.57</v>
       </c>
       <c r="AS135">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT135">
         <v>0.9</v>
@@ -27080,7 +27095,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27271,7 +27286,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27358,7 +27373,7 @@
         <v>0.33</v>
       </c>
       <c r="AS137">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT137">
         <v>0.8</v>
@@ -27462,7 +27477,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27844,7 +27859,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27931,7 +27946,7 @@
         <v>1.29</v>
       </c>
       <c r="AS140">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT140">
         <v>1.55</v>
@@ -28035,7 +28050,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28125,7 +28140,7 @@
         <v>1.09</v>
       </c>
       <c r="AT141">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU141">
         <v>1.83</v>
@@ -28313,10 +28328,10 @@
         <v>1.86</v>
       </c>
       <c r="AS142">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT142">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU142">
         <v>1.84</v>
@@ -28417,7 +28432,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28507,7 +28522,7 @@
         <v>1.27</v>
       </c>
       <c r="AT143">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU143">
         <v>1.88</v>
@@ -28608,7 +28623,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28695,10 +28710,10 @@
         <v>0.29</v>
       </c>
       <c r="AS144">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT144">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -28799,7 +28814,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28886,7 +28901,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT145">
         <v>0.45</v>
@@ -29077,10 +29092,10 @@
         <v>1.86</v>
       </c>
       <c r="AS146">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT146">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU146">
         <v>1.69</v>
@@ -29268,7 +29283,7 @@
         <v>2</v>
       </c>
       <c r="AS147">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT147">
         <v>1.45</v>
@@ -29459,10 +29474,10 @@
         <v>2.29</v>
       </c>
       <c r="AS148">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT148">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU148">
         <v>1.58</v>
@@ -29844,7 +29859,7 @@
         <v>1.6</v>
       </c>
       <c r="AT150">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU150">
         <v>1.54</v>
@@ -30032,7 +30047,7 @@
         <v>1.17</v>
       </c>
       <c r="AS151">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT151">
         <v>1.3</v>
@@ -30136,7 +30151,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30414,10 +30429,10 @@
         <v>1.57</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT153">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU153">
         <v>1.56</v>
@@ -30518,7 +30533,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30799,7 +30814,7 @@
         <v>0.6</v>
       </c>
       <c r="AT155">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU155">
         <v>1.31</v>
@@ -30987,7 +31002,7 @@
         <v>1.5</v>
       </c>
       <c r="AS156">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT156">
         <v>1.55</v>
@@ -31091,7 +31106,7 @@
         <v>100</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31178,7 +31193,7 @@
         <v>0.71</v>
       </c>
       <c r="AS157">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT157">
         <v>0.8</v>
@@ -31751,7 +31766,7 @@
         <v>1.29</v>
       </c>
       <c r="AS160">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT160">
         <v>1.4</v>
@@ -31945,7 +31960,7 @@
         <v>2.1</v>
       </c>
       <c r="AT161">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU161">
         <v>2.02</v>
@@ -32046,7 +32061,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32136,7 +32151,7 @@
         <v>2</v>
       </c>
       <c r="AT162">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU162">
         <v>1.81</v>
@@ -32515,7 +32530,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT164">
         <v>1.3</v>
@@ -32706,10 +32721,10 @@
         <v>0.63</v>
       </c>
       <c r="AS165">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT165">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU165">
         <v>1.68</v>
@@ -32897,10 +32912,10 @@
         <v>0.57</v>
       </c>
       <c r="AS166">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT166">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU166">
         <v>1.63</v>
@@ -33088,10 +33103,10 @@
         <v>1.75</v>
       </c>
       <c r="AS167">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT167">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU167">
         <v>1.3</v>
@@ -33473,7 +33488,7 @@
         <v>2.4</v>
       </c>
       <c r="AT169">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU169">
         <v>1.75</v>
@@ -33664,7 +33679,7 @@
         <v>1.6</v>
       </c>
       <c r="AT170">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU170">
         <v>1.54</v>
@@ -33765,7 +33780,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34234,7 +34249,7 @@
         <v>1.44</v>
       </c>
       <c r="AS173">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT173">
         <v>1.55</v>
@@ -34338,7 +34353,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34425,7 +34440,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT174">
         <v>1.4</v>
@@ -34807,7 +34822,7 @@
         <v>0.88</v>
       </c>
       <c r="AS176">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT176">
         <v>0.82</v>
@@ -34911,7 +34926,7 @@
         <v>196</v>
       </c>
       <c r="P177" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -34998,10 +35013,10 @@
         <v>1.44</v>
       </c>
       <c r="AS177">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT177">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU177">
         <v>1.61</v>
@@ -35189,10 +35204,10 @@
         <v>1.56</v>
       </c>
       <c r="AS178">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT178">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU178">
         <v>1.56</v>
@@ -35293,7 +35308,7 @@
         <v>100</v>
       </c>
       <c r="P179" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35383,7 +35398,7 @@
         <v>0.6</v>
       </c>
       <c r="AT179">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU179">
         <v>1.49</v>
@@ -35571,7 +35586,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT180">
         <v>0.8</v>
@@ -35765,7 +35780,7 @@
         <v>1.83</v>
       </c>
       <c r="AT181">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU181">
         <v>1.83</v>
@@ -35866,7 +35881,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -35956,7 +35971,7 @@
         <v>2.1</v>
       </c>
       <c r="AT182">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU182">
         <v>1.95</v>
@@ -36057,7 +36072,7 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36147,7 +36162,7 @@
         <v>2</v>
       </c>
       <c r="AT183">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU183">
         <v>1.86</v>
@@ -36248,7 +36263,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36335,7 +36350,7 @@
         <v>0.63</v>
       </c>
       <c r="AS184">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT184">
         <v>0.9</v>
@@ -36717,7 +36732,7 @@
         <v>1.67</v>
       </c>
       <c r="AS186">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT186">
         <v>1.45</v>
@@ -36821,7 +36836,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -37102,7 +37117,7 @@
         <v>2.4</v>
       </c>
       <c r="AT188">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU188">
         <v>1.7</v>
@@ -37203,7 +37218,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37290,10 +37305,10 @@
         <v>1.38</v>
       </c>
       <c r="AS189">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT189">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU189">
         <v>1.21</v>
@@ -37394,7 +37409,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37481,7 +37496,7 @@
         <v>0.8</v>
       </c>
       <c r="AS190">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT190">
         <v>0.82</v>
@@ -37672,7 +37687,7 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT191">
         <v>0.9</v>
@@ -37967,7 +37982,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38158,7 +38173,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38245,10 +38260,10 @@
         <v>1</v>
       </c>
       <c r="AS194">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT194">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU194">
         <v>1.58</v>
@@ -38540,7 +38555,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38627,7 +38642,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT196">
         <v>0.82</v>
@@ -38731,7 +38746,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -38821,7 +38836,7 @@
         <v>1.09</v>
       </c>
       <c r="AT197">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU197">
         <v>1.77</v>
@@ -39012,7 +39027,7 @@
         <v>2</v>
       </c>
       <c r="AT198">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU198">
         <v>2.01</v>
@@ -39113,7 +39128,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39200,10 +39215,10 @@
         <v>1.6</v>
       </c>
       <c r="AS199">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT199">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU199">
         <v>1.55</v>
@@ -39304,7 +39319,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39585,7 +39600,7 @@
         <v>1.27</v>
       </c>
       <c r="AT201">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU201">
         <v>1.8</v>
@@ -39686,7 +39701,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39773,7 +39788,7 @@
         <v>0.89</v>
       </c>
       <c r="AS202">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT202">
         <v>0.8</v>
@@ -40155,10 +40170,10 @@
         <v>0.78</v>
       </c>
       <c r="AS204">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT204">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU204">
         <v>1.43</v>
@@ -40259,7 +40274,7 @@
         <v>127</v>
       </c>
       <c r="P205" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q205">
         <v>9</v>
@@ -40346,10 +40361,10 @@
         <v>0.63</v>
       </c>
       <c r="AS205">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT205">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU205">
         <v>1.17</v>
@@ -40537,10 +40552,10 @@
         <v>1.9</v>
       </c>
       <c r="AS206">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT206">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU206">
         <v>1.66</v>
@@ -41113,7 +41128,7 @@
         <v>2.4</v>
       </c>
       <c r="AT209">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU209">
         <v>1.7</v>
@@ -41356,6 +41371,1725 @@
       </c>
       <c r="BK210">
         <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>5414595</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45143.64583333334</v>
+      </c>
+      <c r="F211">
+        <v>22</v>
+      </c>
+      <c r="G211" t="s">
+        <v>78</v>
+      </c>
+      <c r="H211" t="s">
+        <v>71</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211" t="s">
+        <v>215</v>
+      </c>
+      <c r="P211" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q211">
+        <v>6</v>
+      </c>
+      <c r="R211">
+        <v>12</v>
+      </c>
+      <c r="S211">
+        <v>18</v>
+      </c>
+      <c r="T211">
+        <v>3.3</v>
+      </c>
+      <c r="U211">
+        <v>1.85</v>
+      </c>
+      <c r="V211">
+        <v>3.75</v>
+      </c>
+      <c r="W211">
+        <v>1.59</v>
+      </c>
+      <c r="X211">
+        <v>2.24</v>
+      </c>
+      <c r="Y211">
+        <v>3.7</v>
+      </c>
+      <c r="Z211">
+        <v>1.24</v>
+      </c>
+      <c r="AA211">
+        <v>10.5</v>
+      </c>
+      <c r="AB211">
+        <v>1.02</v>
+      </c>
+      <c r="AC211">
+        <v>2.43</v>
+      </c>
+      <c r="AD211">
+        <v>2.85</v>
+      </c>
+      <c r="AE211">
+        <v>3.1</v>
+      </c>
+      <c r="AF211">
+        <v>1.11</v>
+      </c>
+      <c r="AG211">
+        <v>6.5</v>
+      </c>
+      <c r="AH211">
+        <v>1.5</v>
+      </c>
+      <c r="AI211">
+        <v>2.4</v>
+      </c>
+      <c r="AJ211">
+        <v>2.57</v>
+      </c>
+      <c r="AK211">
+        <v>1.41</v>
+      </c>
+      <c r="AL211">
+        <v>2.1</v>
+      </c>
+      <c r="AM211">
+        <v>1.68</v>
+      </c>
+      <c r="AN211">
+        <v>1.36</v>
+      </c>
+      <c r="AO211">
+        <v>1.33</v>
+      </c>
+      <c r="AP211">
+        <v>1.5</v>
+      </c>
+      <c r="AQ211">
+        <v>0.9</v>
+      </c>
+      <c r="AR211">
+        <v>1.6</v>
+      </c>
+      <c r="AS211">
+        <v>1.09</v>
+      </c>
+      <c r="AT211">
+        <v>1.45</v>
+      </c>
+      <c r="AU211">
+        <v>1.57</v>
+      </c>
+      <c r="AV211">
+        <v>1.06</v>
+      </c>
+      <c r="AW211">
+        <v>2.63</v>
+      </c>
+      <c r="AX211">
+        <v>1.55</v>
+      </c>
+      <c r="AY211">
+        <v>7.5</v>
+      </c>
+      <c r="AZ211">
+        <v>3.1</v>
+      </c>
+      <c r="BA211">
+        <v>1.19</v>
+      </c>
+      <c r="BB211">
+        <v>1.33</v>
+      </c>
+      <c r="BC211">
+        <v>1.57</v>
+      </c>
+      <c r="BD211">
+        <v>1.93</v>
+      </c>
+      <c r="BE211">
+        <v>2.37</v>
+      </c>
+      <c r="BF211">
+        <v>3</v>
+      </c>
+      <c r="BG211">
+        <v>6</v>
+      </c>
+      <c r="BH211">
+        <v>4</v>
+      </c>
+      <c r="BI211">
+        <v>12</v>
+      </c>
+      <c r="BJ211">
+        <v>7</v>
+      </c>
+      <c r="BK211">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>5414596</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45143.70833333334</v>
+      </c>
+      <c r="F212">
+        <v>22</v>
+      </c>
+      <c r="G212" t="s">
+        <v>66</v>
+      </c>
+      <c r="H212" t="s">
+        <v>65</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>143</v>
+      </c>
+      <c r="P212" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q212">
+        <v>6</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>8</v>
+      </c>
+      <c r="T212">
+        <v>3.3</v>
+      </c>
+      <c r="U212">
+        <v>1.87</v>
+      </c>
+      <c r="V212">
+        <v>3.6</v>
+      </c>
+      <c r="W212">
+        <v>1.56</v>
+      </c>
+      <c r="X212">
+        <v>2.29</v>
+      </c>
+      <c r="Y212">
+        <v>3.7</v>
+      </c>
+      <c r="Z212">
+        <v>1.24</v>
+      </c>
+      <c r="AA212">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB212">
+        <v>1.03</v>
+      </c>
+      <c r="AC212">
+        <v>2.45</v>
+      </c>
+      <c r="AD212">
+        <v>2.85</v>
+      </c>
+      <c r="AE212">
+        <v>3.1</v>
+      </c>
+      <c r="AF212">
+        <v>1.1</v>
+      </c>
+      <c r="AG212">
+        <v>7</v>
+      </c>
+      <c r="AH212">
+        <v>1.53</v>
+      </c>
+      <c r="AI212">
+        <v>2.35</v>
+      </c>
+      <c r="AJ212">
+        <v>2.52</v>
+      </c>
+      <c r="AK212">
+        <v>1.46</v>
+      </c>
+      <c r="AL212">
+        <v>2.05</v>
+      </c>
+      <c r="AM212">
+        <v>1.72</v>
+      </c>
+      <c r="AN212">
+        <v>1.38</v>
+      </c>
+      <c r="AO212">
+        <v>1.33</v>
+      </c>
+      <c r="AP212">
+        <v>1.5</v>
+      </c>
+      <c r="AQ212">
+        <v>1.5</v>
+      </c>
+      <c r="AR212">
+        <v>1.18</v>
+      </c>
+      <c r="AS212">
+        <v>1.45</v>
+      </c>
+      <c r="AT212">
+        <v>1.17</v>
+      </c>
+      <c r="AU212">
+        <v>1.39</v>
+      </c>
+      <c r="AV212">
+        <v>1.24</v>
+      </c>
+      <c r="AW212">
+        <v>2.63</v>
+      </c>
+      <c r="AX212">
+        <v>1.55</v>
+      </c>
+      <c r="AY212">
+        <v>7.5</v>
+      </c>
+      <c r="AZ212">
+        <v>3.1</v>
+      </c>
+      <c r="BA212">
+        <v>1.14</v>
+      </c>
+      <c r="BB212">
+        <v>1.28</v>
+      </c>
+      <c r="BC212">
+        <v>1.62</v>
+      </c>
+      <c r="BD212">
+        <v>1.96</v>
+      </c>
+      <c r="BE212">
+        <v>2.44</v>
+      </c>
+      <c r="BF212">
+        <v>4</v>
+      </c>
+      <c r="BG212">
+        <v>3</v>
+      </c>
+      <c r="BH212">
+        <v>9</v>
+      </c>
+      <c r="BI212">
+        <v>3</v>
+      </c>
+      <c r="BJ212">
+        <v>13</v>
+      </c>
+      <c r="BK212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>5414602</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45143.70833333334</v>
+      </c>
+      <c r="F213">
+        <v>22</v>
+      </c>
+      <c r="G213" t="s">
+        <v>83</v>
+      </c>
+      <c r="H213" t="s">
+        <v>75</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213" t="s">
+        <v>100</v>
+      </c>
+      <c r="P213" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q213">
+        <v>4</v>
+      </c>
+      <c r="R213">
+        <v>1</v>
+      </c>
+      <c r="S213">
+        <v>5</v>
+      </c>
+      <c r="T213">
+        <v>2.9</v>
+      </c>
+      <c r="U213">
+        <v>1.9</v>
+      </c>
+      <c r="V213">
+        <v>4.2</v>
+      </c>
+      <c r="W213">
+        <v>1.54</v>
+      </c>
+      <c r="X213">
+        <v>2.34</v>
+      </c>
+      <c r="Y213">
+        <v>3.6</v>
+      </c>
+      <c r="Z213">
+        <v>1.25</v>
+      </c>
+      <c r="AA213">
+        <v>9.85</v>
+      </c>
+      <c r="AB213">
+        <v>1.03</v>
+      </c>
+      <c r="AC213">
+        <v>2</v>
+      </c>
+      <c r="AD213">
+        <v>3</v>
+      </c>
+      <c r="AE213">
+        <v>4</v>
+      </c>
+      <c r="AF213">
+        <v>1.11</v>
+      </c>
+      <c r="AG213">
+        <v>6</v>
+      </c>
+      <c r="AH213">
+        <v>1.53</v>
+      </c>
+      <c r="AI213">
+        <v>2.35</v>
+      </c>
+      <c r="AJ213">
+        <v>2.5</v>
+      </c>
+      <c r="AK213">
+        <v>1.47</v>
+      </c>
+      <c r="AL213">
+        <v>2.1</v>
+      </c>
+      <c r="AM213">
+        <v>1.7</v>
+      </c>
+      <c r="AN213">
+        <v>1.28</v>
+      </c>
+      <c r="AO213">
+        <v>1.3</v>
+      </c>
+      <c r="AP213">
+        <v>1.66</v>
+      </c>
+      <c r="AQ213">
+        <v>1.8</v>
+      </c>
+      <c r="AR213">
+        <v>1.5</v>
+      </c>
+      <c r="AS213">
+        <v>1.73</v>
+      </c>
+      <c r="AT213">
+        <v>1.45</v>
+      </c>
+      <c r="AU213">
+        <v>1.5</v>
+      </c>
+      <c r="AV213">
+        <v>1.18</v>
+      </c>
+      <c r="AW213">
+        <v>2.68</v>
+      </c>
+      <c r="AX213">
+        <v>1.8</v>
+      </c>
+      <c r="AY213">
+        <v>7</v>
+      </c>
+      <c r="AZ213">
+        <v>2.5</v>
+      </c>
+      <c r="BA213">
+        <v>1.19</v>
+      </c>
+      <c r="BB213">
+        <v>1.44</v>
+      </c>
+      <c r="BC213">
+        <v>1.74</v>
+      </c>
+      <c r="BD213">
+        <v>2.17</v>
+      </c>
+      <c r="BE213">
+        <v>2.47</v>
+      </c>
+      <c r="BF213">
+        <v>4</v>
+      </c>
+      <c r="BG213">
+        <v>3</v>
+      </c>
+      <c r="BH213">
+        <v>5</v>
+      </c>
+      <c r="BI213">
+        <v>0</v>
+      </c>
+      <c r="BJ213">
+        <v>9</v>
+      </c>
+      <c r="BK213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>5414598</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45143.75</v>
+      </c>
+      <c r="F214">
+        <v>22</v>
+      </c>
+      <c r="G214" t="s">
+        <v>84</v>
+      </c>
+      <c r="H214" t="s">
+        <v>79</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>1</v>
+      </c>
+      <c r="O214" t="s">
+        <v>107</v>
+      </c>
+      <c r="P214" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q214">
+        <v>4</v>
+      </c>
+      <c r="R214">
+        <v>12</v>
+      </c>
+      <c r="S214">
+        <v>16</v>
+      </c>
+      <c r="T214">
+        <v>2.75</v>
+      </c>
+      <c r="U214">
+        <v>1.95</v>
+      </c>
+      <c r="V214">
+        <v>4.2</v>
+      </c>
+      <c r="W214">
+        <v>1.51</v>
+      </c>
+      <c r="X214">
+        <v>2.4</v>
+      </c>
+      <c r="Y214">
+        <v>3.4</v>
+      </c>
+      <c r="Z214">
+        <v>1.28</v>
+      </c>
+      <c r="AA214">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB214">
+        <v>1.04</v>
+      </c>
+      <c r="AC214">
+        <v>2.05</v>
+      </c>
+      <c r="AD214">
+        <v>3.1</v>
+      </c>
+      <c r="AE214">
+        <v>3.6</v>
+      </c>
+      <c r="AF214">
+        <v>1.1</v>
+      </c>
+      <c r="AG214">
+        <v>6.5</v>
+      </c>
+      <c r="AH214">
+        <v>1.47</v>
+      </c>
+      <c r="AI214">
+        <v>2.5</v>
+      </c>
+      <c r="AJ214">
+        <v>2.39</v>
+      </c>
+      <c r="AK214">
+        <v>1.51</v>
+      </c>
+      <c r="AL214">
+        <v>2.05</v>
+      </c>
+      <c r="AM214">
+        <v>1.72</v>
+      </c>
+      <c r="AN214">
+        <v>1.22</v>
+      </c>
+      <c r="AO214">
+        <v>1.28</v>
+      </c>
+      <c r="AP214">
+        <v>1.75</v>
+      </c>
+      <c r="AQ214">
+        <v>2.55</v>
+      </c>
+      <c r="AR214">
+        <v>1.73</v>
+      </c>
+      <c r="AS214">
+        <v>2.58</v>
+      </c>
+      <c r="AT214">
+        <v>1.58</v>
+      </c>
+      <c r="AU214">
+        <v>1.6</v>
+      </c>
+      <c r="AV214">
+        <v>1.47</v>
+      </c>
+      <c r="AW214">
+        <v>3.07</v>
+      </c>
+      <c r="AX214">
+        <v>1.67</v>
+      </c>
+      <c r="AY214">
+        <v>7.5</v>
+      </c>
+      <c r="AZ214">
+        <v>2.75</v>
+      </c>
+      <c r="BA214">
+        <v>1.12</v>
+      </c>
+      <c r="BB214">
+        <v>1.22</v>
+      </c>
+      <c r="BC214">
+        <v>1.48</v>
+      </c>
+      <c r="BD214">
+        <v>1.71</v>
+      </c>
+      <c r="BE214">
+        <v>2.09</v>
+      </c>
+      <c r="BF214">
+        <v>7</v>
+      </c>
+      <c r="BG214">
+        <v>4</v>
+      </c>
+      <c r="BH214">
+        <v>4</v>
+      </c>
+      <c r="BI214">
+        <v>7</v>
+      </c>
+      <c r="BJ214">
+        <v>11</v>
+      </c>
+      <c r="BK214">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>5414593</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45144.64583333334</v>
+      </c>
+      <c r="F215">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>76</v>
+      </c>
+      <c r="H215" t="s">
+        <v>81</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" t="s">
+        <v>216</v>
+      </c>
+      <c r="P215" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q215">
+        <v>6</v>
+      </c>
+      <c r="R215">
+        <v>11</v>
+      </c>
+      <c r="S215">
+        <v>17</v>
+      </c>
+      <c r="T215">
+        <v>2.95</v>
+      </c>
+      <c r="U215">
+        <v>1.9</v>
+      </c>
+      <c r="V215">
+        <v>4.56</v>
+      </c>
+      <c r="W215">
+        <v>1.58</v>
+      </c>
+      <c r="X215">
+        <v>2.3</v>
+      </c>
+      <c r="Y215">
+        <v>3.72</v>
+      </c>
+      <c r="Z215">
+        <v>1.25</v>
+      </c>
+      <c r="AA215">
+        <v>10.7</v>
+      </c>
+      <c r="AB215">
+        <v>1.03</v>
+      </c>
+      <c r="AC215">
+        <v>2.1</v>
+      </c>
+      <c r="AD215">
+        <v>3.05</v>
+      </c>
+      <c r="AE215">
+        <v>3.55</v>
+      </c>
+      <c r="AF215">
+        <v>1.11</v>
+      </c>
+      <c r="AG215">
+        <v>6.5</v>
+      </c>
+      <c r="AH215">
+        <v>1.53</v>
+      </c>
+      <c r="AI215">
+        <v>2.35</v>
+      </c>
+      <c r="AJ215">
+        <v>2.4</v>
+      </c>
+      <c r="AK215">
+        <v>1.5</v>
+      </c>
+      <c r="AL215">
+        <v>2.19</v>
+      </c>
+      <c r="AM215">
+        <v>1.64</v>
+      </c>
+      <c r="AN215">
+        <v>1.29</v>
+      </c>
+      <c r="AO215">
+        <v>1.36</v>
+      </c>
+      <c r="AP215">
+        <v>1.67</v>
+      </c>
+      <c r="AQ215">
+        <v>1.36</v>
+      </c>
+      <c r="AR215">
+        <v>0.67</v>
+      </c>
+      <c r="AS215">
+        <v>1.5</v>
+      </c>
+      <c r="AT215">
+        <v>0.6</v>
+      </c>
+      <c r="AU215">
+        <v>1.46</v>
+      </c>
+      <c r="AV215">
+        <v>1.38</v>
+      </c>
+      <c r="AW215">
+        <v>2.84</v>
+      </c>
+      <c r="AX215">
+        <v>1.5</v>
+      </c>
+      <c r="AY215">
+        <v>6</v>
+      </c>
+      <c r="AZ215">
+        <v>2.9</v>
+      </c>
+      <c r="BA215">
+        <v>1.15</v>
+      </c>
+      <c r="BB215">
+        <v>1.27</v>
+      </c>
+      <c r="BC215">
+        <v>1.56</v>
+      </c>
+      <c r="BD215">
+        <v>1.88</v>
+      </c>
+      <c r="BE215">
+        <v>2.3</v>
+      </c>
+      <c r="BF215">
+        <v>7</v>
+      </c>
+      <c r="BG215">
+        <v>2</v>
+      </c>
+      <c r="BH215">
+        <v>9</v>
+      </c>
+      <c r="BI215">
+        <v>1</v>
+      </c>
+      <c r="BJ215">
+        <v>16</v>
+      </c>
+      <c r="BK215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>5414599</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45144.75</v>
+      </c>
+      <c r="F216">
+        <v>22</v>
+      </c>
+      <c r="G216" t="s">
+        <v>80</v>
+      </c>
+      <c r="H216" t="s">
+        <v>82</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>1</v>
+      </c>
+      <c r="O216" t="s">
+        <v>205</v>
+      </c>
+      <c r="P216" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q216">
+        <v>4</v>
+      </c>
+      <c r="R216">
+        <v>2</v>
+      </c>
+      <c r="S216">
+        <v>6</v>
+      </c>
+      <c r="T216">
+        <v>2.35</v>
+      </c>
+      <c r="U216">
+        <v>1.98</v>
+      </c>
+      <c r="V216">
+        <v>5.25</v>
+      </c>
+      <c r="W216">
+        <v>1.5</v>
+      </c>
+      <c r="X216">
+        <v>2.4</v>
+      </c>
+      <c r="Y216">
+        <v>3.4</v>
+      </c>
+      <c r="Z216">
+        <v>1.28</v>
+      </c>
+      <c r="AA216">
+        <v>9.5</v>
+      </c>
+      <c r="AB216">
+        <v>1.05</v>
+      </c>
+      <c r="AC216">
+        <v>1.56</v>
+      </c>
+      <c r="AD216">
+        <v>3.6</v>
+      </c>
+      <c r="AE216">
+        <v>6</v>
+      </c>
+      <c r="AF216">
+        <v>1.08</v>
+      </c>
+      <c r="AG216">
+        <v>7</v>
+      </c>
+      <c r="AH216">
+        <v>1.44</v>
+      </c>
+      <c r="AI216">
+        <v>2.55</v>
+      </c>
+      <c r="AJ216">
+        <v>2.27</v>
+      </c>
+      <c r="AK216">
+        <v>1.56</v>
+      </c>
+      <c r="AL216">
+        <v>2.25</v>
+      </c>
+      <c r="AM216">
+        <v>1.55</v>
+      </c>
+      <c r="AN216">
+        <v>1.16</v>
+      </c>
+      <c r="AO216">
+        <v>1.28</v>
+      </c>
+      <c r="AP216">
+        <v>2.1</v>
+      </c>
+      <c r="AQ216">
+        <v>1.4</v>
+      </c>
+      <c r="AR216">
+        <v>0.64</v>
+      </c>
+      <c r="AS216">
+        <v>1.55</v>
+      </c>
+      <c r="AT216">
+        <v>0.58</v>
+      </c>
+      <c r="AU216">
+        <v>1.56</v>
+      </c>
+      <c r="AV216">
+        <v>1</v>
+      </c>
+      <c r="AW216">
+        <v>2.56</v>
+      </c>
+      <c r="AX216">
+        <v>1.26</v>
+      </c>
+      <c r="AY216">
+        <v>7</v>
+      </c>
+      <c r="AZ216">
+        <v>4.25</v>
+      </c>
+      <c r="BA216">
+        <v>1.21</v>
+      </c>
+      <c r="BB216">
+        <v>1.3</v>
+      </c>
+      <c r="BC216">
+        <v>1.63</v>
+      </c>
+      <c r="BD216">
+        <v>1.98</v>
+      </c>
+      <c r="BE216">
+        <v>2.47</v>
+      </c>
+      <c r="BF216">
+        <v>4</v>
+      </c>
+      <c r="BG216">
+        <v>4</v>
+      </c>
+      <c r="BH216">
+        <v>9</v>
+      </c>
+      <c r="BI216">
+        <v>2</v>
+      </c>
+      <c r="BJ216">
+        <v>13</v>
+      </c>
+      <c r="BK216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>5414600</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45145.75</v>
+      </c>
+      <c r="F217">
+        <v>22</v>
+      </c>
+      <c r="G217" t="s">
+        <v>70</v>
+      </c>
+      <c r="H217" t="s">
+        <v>67</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>100</v>
+      </c>
+      <c r="P217" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q217">
+        <v>5</v>
+      </c>
+      <c r="R217">
+        <v>5</v>
+      </c>
+      <c r="S217">
+        <v>10</v>
+      </c>
+      <c r="T217">
+        <v>3.1</v>
+      </c>
+      <c r="U217">
+        <v>1.87</v>
+      </c>
+      <c r="V217">
+        <v>3.8</v>
+      </c>
+      <c r="W217">
+        <v>1.55</v>
+      </c>
+      <c r="X217">
+        <v>2.25</v>
+      </c>
+      <c r="Y217">
+        <v>3.6</v>
+      </c>
+      <c r="Z217">
+        <v>1.25</v>
+      </c>
+      <c r="AA217">
+        <v>10.5</v>
+      </c>
+      <c r="AB217">
+        <v>1.04</v>
+      </c>
+      <c r="AC217">
+        <v>2.25</v>
+      </c>
+      <c r="AD217">
+        <v>2.9</v>
+      </c>
+      <c r="AE217">
+        <v>3.4</v>
+      </c>
+      <c r="AF217">
+        <v>1.1</v>
+      </c>
+      <c r="AG217">
+        <v>6.25</v>
+      </c>
+      <c r="AH217">
+        <v>1.53</v>
+      </c>
+      <c r="AI217">
+        <v>2.35</v>
+      </c>
+      <c r="AJ217">
+        <v>2.6</v>
+      </c>
+      <c r="AK217">
+        <v>1.44</v>
+      </c>
+      <c r="AL217">
+        <v>2.1</v>
+      </c>
+      <c r="AM217">
+        <v>1.63</v>
+      </c>
+      <c r="AN217">
+        <v>1.34</v>
+      </c>
+      <c r="AO217">
+        <v>1.37</v>
+      </c>
+      <c r="AP217">
+        <v>1.55</v>
+      </c>
+      <c r="AQ217">
+        <v>1.9</v>
+      </c>
+      <c r="AR217">
+        <v>1.27</v>
+      </c>
+      <c r="AS217">
+        <v>1.73</v>
+      </c>
+      <c r="AT217">
+        <v>1.42</v>
+      </c>
+      <c r="AU217">
+        <v>1.64</v>
+      </c>
+      <c r="AV217">
+        <v>1.67</v>
+      </c>
+      <c r="AW217">
+        <v>3.31</v>
+      </c>
+      <c r="AX217">
+        <v>1.7</v>
+      </c>
+      <c r="AY217">
+        <v>7</v>
+      </c>
+      <c r="AZ217">
+        <v>2.7</v>
+      </c>
+      <c r="BA217">
+        <v>1.16</v>
+      </c>
+      <c r="BB217">
+        <v>1.28</v>
+      </c>
+      <c r="BC217">
+        <v>1.58</v>
+      </c>
+      <c r="BD217">
+        <v>1.91</v>
+      </c>
+      <c r="BE217">
+        <v>2.36</v>
+      </c>
+      <c r="BF217">
+        <v>4</v>
+      </c>
+      <c r="BG217">
+        <v>2</v>
+      </c>
+      <c r="BH217">
+        <v>5</v>
+      </c>
+      <c r="BI217">
+        <v>4</v>
+      </c>
+      <c r="BJ217">
+        <v>9</v>
+      </c>
+      <c r="BK217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>5414601</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45145.83333333334</v>
+      </c>
+      <c r="F218">
+        <v>22</v>
+      </c>
+      <c r="G218" t="s">
+        <v>72</v>
+      </c>
+      <c r="H218" t="s">
+        <v>73</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>217</v>
+      </c>
+      <c r="P218" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q218">
+        <v>4</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
+        <v>6</v>
+      </c>
+      <c r="T218">
+        <v>3.7</v>
+      </c>
+      <c r="U218">
+        <v>1.93</v>
+      </c>
+      <c r="V218">
+        <v>2.95</v>
+      </c>
+      <c r="W218">
+        <v>1.49</v>
+      </c>
+      <c r="X218">
+        <v>2.4</v>
+      </c>
+      <c r="Y218">
+        <v>3.3</v>
+      </c>
+      <c r="Z218">
+        <v>1.29</v>
+      </c>
+      <c r="AA218">
+        <v>9.25</v>
+      </c>
+      <c r="AB218">
+        <v>1.05</v>
+      </c>
+      <c r="AC218">
+        <v>3.15</v>
+      </c>
+      <c r="AD218">
+        <v>2.9</v>
+      </c>
+      <c r="AE218">
+        <v>2.35</v>
+      </c>
+      <c r="AF218">
+        <v>1.09</v>
+      </c>
+      <c r="AG218">
+        <v>6.75</v>
+      </c>
+      <c r="AH218">
+        <v>1.47</v>
+      </c>
+      <c r="AI218">
+        <v>2.5</v>
+      </c>
+      <c r="AJ218">
+        <v>2.4</v>
+      </c>
+      <c r="AK218">
+        <v>1.5</v>
+      </c>
+      <c r="AL218">
+        <v>2</v>
+      </c>
+      <c r="AM218">
+        <v>1.68</v>
+      </c>
+      <c r="AN218">
+        <v>1.57</v>
+      </c>
+      <c r="AO218">
+        <v>1.35</v>
+      </c>
+      <c r="AP218">
+        <v>1.34</v>
+      </c>
+      <c r="AQ218">
+        <v>1.1</v>
+      </c>
+      <c r="AR218">
+        <v>1.55</v>
+      </c>
+      <c r="AS218">
+        <v>1.27</v>
+      </c>
+      <c r="AT218">
+        <v>1.42</v>
+      </c>
+      <c r="AU218">
+        <v>1.24</v>
+      </c>
+      <c r="AV218">
+        <v>1.32</v>
+      </c>
+      <c r="AW218">
+        <v>2.56</v>
+      </c>
+      <c r="AX218">
+        <v>1.95</v>
+      </c>
+      <c r="AY218">
+        <v>5.75</v>
+      </c>
+      <c r="AZ218">
+        <v>2.05</v>
+      </c>
+      <c r="BA218">
+        <v>1.19</v>
+      </c>
+      <c r="BB218">
+        <v>1.4</v>
+      </c>
+      <c r="BC218">
+        <v>1.75</v>
+      </c>
+      <c r="BD218">
+        <v>2.19</v>
+      </c>
+      <c r="BE218">
+        <v>2.49</v>
+      </c>
+      <c r="BF218">
+        <v>7</v>
+      </c>
+      <c r="BG218">
+        <v>2</v>
+      </c>
+      <c r="BH218">
+        <v>7</v>
+      </c>
+      <c r="BI218">
+        <v>3</v>
+      </c>
+      <c r="BJ218">
+        <v>14</v>
+      </c>
+      <c r="BK218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>5414594</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45145.83333333334</v>
+      </c>
+      <c r="F219">
+        <v>22</v>
+      </c>
+      <c r="G219" t="s">
+        <v>74</v>
+      </c>
+      <c r="H219" t="s">
+        <v>77</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>2</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>3</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>5</v>
+      </c>
+      <c r="O219" t="s">
+        <v>218</v>
+      </c>
+      <c r="P219" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q219">
+        <v>9</v>
+      </c>
+      <c r="R219">
+        <v>0</v>
+      </c>
+      <c r="S219">
+        <v>9</v>
+      </c>
+      <c r="T219">
+        <v>2.4</v>
+      </c>
+      <c r="U219">
+        <v>2</v>
+      </c>
+      <c r="V219">
+        <v>4.75</v>
+      </c>
+      <c r="W219">
+        <v>1.48</v>
+      </c>
+      <c r="X219">
+        <v>2.5</v>
+      </c>
+      <c r="Y219">
+        <v>3.15</v>
+      </c>
+      <c r="Z219">
+        <v>1.32</v>
+      </c>
+      <c r="AA219">
+        <v>7.25</v>
+      </c>
+      <c r="AB219">
+        <v>1.06</v>
+      </c>
+      <c r="AC219">
+        <v>1.62</v>
+      </c>
+      <c r="AD219">
+        <v>3.65</v>
+      </c>
+      <c r="AE219">
+        <v>5</v>
+      </c>
+      <c r="AF219">
+        <v>1.06</v>
+      </c>
+      <c r="AG219">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AH219">
+        <v>1.37</v>
+      </c>
+      <c r="AI219">
+        <v>2.84</v>
+      </c>
+      <c r="AJ219">
+        <v>2</v>
+      </c>
+      <c r="AK219">
+        <v>1.7</v>
+      </c>
+      <c r="AL219">
+        <v>2.02</v>
+      </c>
+      <c r="AM219">
+        <v>1.75</v>
+      </c>
+      <c r="AN219">
+        <v>1.15</v>
+      </c>
+      <c r="AO219">
+        <v>1.29</v>
+      </c>
+      <c r="AP219">
+        <v>2.1</v>
+      </c>
+      <c r="AQ219">
+        <v>1.82</v>
+      </c>
+      <c r="AR219">
+        <v>0.7</v>
+      </c>
+      <c r="AS219">
+        <v>1.92</v>
+      </c>
+      <c r="AT219">
+        <v>0.64</v>
+      </c>
+      <c r="AU219">
+        <v>1.75</v>
+      </c>
+      <c r="AV219">
+        <v>1.36</v>
+      </c>
+      <c r="AW219">
+        <v>3.11</v>
+      </c>
+      <c r="AX219">
+        <v>1.25</v>
+      </c>
+      <c r="AY219">
+        <v>7.25</v>
+      </c>
+      <c r="AZ219">
+        <v>4.3</v>
+      </c>
+      <c r="BA219">
+        <v>0</v>
+      </c>
+      <c r="BB219">
+        <v>1.21</v>
+      </c>
+      <c r="BC219">
+        <v>1.37</v>
+      </c>
+      <c r="BD219">
+        <v>1.72</v>
+      </c>
+      <c r="BE219">
+        <v>2.08</v>
+      </c>
+      <c r="BF219">
+        <v>6</v>
+      </c>
+      <c r="BG219">
+        <v>2</v>
+      </c>
+      <c r="BH219">
+        <v>4</v>
+      </c>
+      <c r="BI219">
+        <v>3</v>
+      </c>
+      <c r="BJ219">
+        <v>10</v>
+      </c>
+      <c r="BK219">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -40232,7 +40232,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>5414591</v>
+        <v>5414590</v>
       </c>
       <c r="C205" t="s">
         <v>63</v>
@@ -40247,10 +40247,10 @@
         <v>21</v>
       </c>
       <c r="G205" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H205" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -40265,40 +40265,40 @@
         <v>1</v>
       </c>
       <c r="M205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O205" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="P205" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="Q205">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S205">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T205">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U205">
         <v>1.91</v>
       </c>
       <c r="V205">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="W205">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X205">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y205">
         <v>3.75</v>
@@ -40313,109 +40313,109 @@
         <v>1.05</v>
       </c>
       <c r="AC205">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="AD205">
+        <v>2.95</v>
+      </c>
+      <c r="AE205">
         <v>2.85</v>
       </c>
-      <c r="AE205">
-        <v>2.95</v>
-      </c>
       <c r="AF205">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AG205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH205">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AI205">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AJ205">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AK205">
         <v>1.5</v>
       </c>
       <c r="AL205">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AM205">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AN205">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AO205">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AP205">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AQ205">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="AR205">
-        <v>0.63</v>
+        <v>1.9</v>
       </c>
       <c r="AS205">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="AT205">
-        <v>0.6</v>
+        <v>1.58</v>
       </c>
       <c r="AU205">
-        <v>1.17</v>
+        <v>1.66</v>
       </c>
       <c r="AV205">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AW205">
-        <v>2.56</v>
+        <v>3.12</v>
       </c>
       <c r="AX205">
-        <v>1.48</v>
+        <v>1.88</v>
       </c>
       <c r="AY205">
+        <v>7.5</v>
+      </c>
+      <c r="AZ205">
+        <v>2.3</v>
+      </c>
+      <c r="BA205">
+        <v>1.13</v>
+      </c>
+      <c r="BB205">
+        <v>1.24</v>
+      </c>
+      <c r="BC205">
+        <v>1.52</v>
+      </c>
+      <c r="BD205">
+        <v>1.82</v>
+      </c>
+      <c r="BE205">
+        <v>2.22</v>
+      </c>
+      <c r="BF205">
+        <v>6</v>
+      </c>
+      <c r="BG205">
+        <v>5</v>
+      </c>
+      <c r="BH205">
         <v>8</v>
       </c>
-      <c r="AZ205">
-        <v>3.4</v>
-      </c>
-      <c r="BA205">
-        <v>1.2</v>
-      </c>
-      <c r="BB205">
-        <v>1.4</v>
-      </c>
-      <c r="BC205">
-        <v>1.68</v>
-      </c>
-      <c r="BD205">
-        <v>2.06</v>
-      </c>
-      <c r="BE205">
-        <v>2.43</v>
-      </c>
-      <c r="BF205">
+      <c r="BI205">
         <v>7</v>
       </c>
-      <c r="BG205">
-        <v>6</v>
-      </c>
-      <c r="BH205">
-        <v>11</v>
-      </c>
-      <c r="BI205">
-        <v>5</v>
-      </c>
       <c r="BJ205">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BK205">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:63">
@@ -40423,7 +40423,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>5414590</v>
+        <v>5414591</v>
       </c>
       <c r="C206" t="s">
         <v>63</v>
@@ -40438,10 +40438,10 @@
         <v>21</v>
       </c>
       <c r="G206" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H206" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -40456,40 +40456,40 @@
         <v>1</v>
       </c>
       <c r="M206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O206" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="P206" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="Q206">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S206">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T206">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U206">
         <v>1.91</v>
       </c>
       <c r="V206">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="W206">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X206">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y206">
         <v>3.75</v>
@@ -40504,109 +40504,109 @@
         <v>1.05</v>
       </c>
       <c r="AC206">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="AD206">
+        <v>2.85</v>
+      </c>
+      <c r="AE206">
         <v>2.95</v>
       </c>
-      <c r="AE206">
-        <v>2.85</v>
-      </c>
       <c r="AF206">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AG206">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH206">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AI206">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="AJ206">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AK206">
         <v>1.5</v>
       </c>
       <c r="AL206">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AM206">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AN206">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AO206">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AP206">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AQ206">
-        <v>1.78</v>
+        <v>1.11</v>
       </c>
       <c r="AR206">
-        <v>1.9</v>
+        <v>0.63</v>
       </c>
       <c r="AS206">
-        <v>1.73</v>
+        <v>1.27</v>
       </c>
       <c r="AT206">
-        <v>1.58</v>
+        <v>0.6</v>
       </c>
       <c r="AU206">
-        <v>1.66</v>
+        <v>1.17</v>
       </c>
       <c r="AV206">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AW206">
-        <v>3.12</v>
+        <v>2.56</v>
       </c>
       <c r="AX206">
-        <v>1.88</v>
+        <v>1.48</v>
       </c>
       <c r="AY206">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ206">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="BA206">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="BB206">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="BC206">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="BD206">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="BE206">
-        <v>2.22</v>
+        <v>2.43</v>
       </c>
       <c r="BF206">
+        <v>7</v>
+      </c>
+      <c r="BG206">
         <v>6</v>
       </c>
-      <c r="BG206">
+      <c r="BH206">
+        <v>11</v>
+      </c>
+      <c r="BI206">
         <v>5</v>
       </c>
-      <c r="BH206">
-        <v>8</v>
-      </c>
-      <c r="BI206">
-        <v>7</v>
-      </c>
       <c r="BJ206">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BK206">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:63">
@@ -42533,7 +42533,7 @@
         <v>64</v>
       </c>
       <c r="E217" s="2">
-        <v>45145.75</v>
+        <v>45145.77083333334</v>
       </c>
       <c r="F217">
         <v>22</v>
@@ -42569,13 +42569,13 @@
         <v>292</v>
       </c>
       <c r="Q217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R217">
         <v>5</v>
       </c>
       <c r="S217">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T217">
         <v>3.1</v>
@@ -42692,22 +42692,22 @@
         <v>2.36</v>
       </c>
       <c r="BF217">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH217">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI217">
         <v>4</v>
       </c>
       <c r="BJ217">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BK217">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:63">
@@ -42883,22 +42883,22 @@
         <v>2.49</v>
       </c>
       <c r="BF218">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH218">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI218">
         <v>3</v>
       </c>
       <c r="BJ218">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BK218">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:63">
@@ -43077,7 +43077,7 @@
         <v>6</v>
       </c>
       <c r="BG219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH219">
         <v>4</v>
@@ -43089,7 +43089,7 @@
         <v>10</v>
       </c>
       <c r="BK219">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,9 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -1269,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1516,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1600,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT2">
         <v>0.91</v>
@@ -1794,7 +1797,7 @@
         <v>1.45</v>
       </c>
       <c r="AT3">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2277,7 +2280,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2468,7 +2471,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -3128,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT10">
         <v>0.82</v>
@@ -3614,7 +3617,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4277,7 +4280,7 @@
         <v>2.09</v>
       </c>
       <c r="AT16">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4378,7 +4381,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4760,7 +4763,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5229,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT21">
         <v>0.42</v>
@@ -5420,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT22">
         <v>0.82</v>
@@ -5524,7 +5527,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6097,7 +6100,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6479,7 +6482,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6569,7 +6572,7 @@
         <v>0.6</v>
       </c>
       <c r="AT28">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>0.93</v>
@@ -6760,7 +6763,7 @@
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU29">
         <v>1.54</v>
@@ -7625,7 +7628,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -8198,7 +8201,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8389,7 +8392,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8771,7 +8774,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9243,7 +9246,7 @@
         <v>1.25</v>
       </c>
       <c r="AT42">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU42">
         <v>1.61</v>
@@ -9535,7 +9538,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9816,7 +9819,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU45">
         <v>1.72</v>
@@ -10299,7 +10302,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10490,7 +10493,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10872,7 +10875,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11063,7 +11066,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11341,7 +11344,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT53">
         <v>0.82</v>
@@ -12018,7 +12021,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12105,7 +12108,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -12209,7 +12212,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12400,7 +12403,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12591,7 +12594,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -13355,7 +13358,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13737,7 +13740,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13827,7 +13830,7 @@
         <v>1.08</v>
       </c>
       <c r="AT66">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU66">
         <v>1.64</v>
@@ -13928,7 +13931,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14018,7 +14021,7 @@
         <v>2.08</v>
       </c>
       <c r="AT67">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>1.51</v>
@@ -14310,7 +14313,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -15543,7 +15546,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT75">
         <v>0.91</v>
@@ -15647,7 +15650,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15737,7 +15740,7 @@
         <v>1.27</v>
       </c>
       <c r="AT76">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU76">
         <v>1.52</v>
@@ -15838,7 +15841,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15925,7 +15928,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT77">
         <v>0.6</v>
@@ -16411,7 +16414,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16602,7 +16605,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16692,7 +16695,7 @@
         <v>1.73</v>
       </c>
       <c r="AT81">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU81">
         <v>1.39</v>
@@ -16793,7 +16796,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17557,7 +17560,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17748,7 +17751,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18981,7 +18984,7 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT93">
         <v>0.82</v>
@@ -19085,7 +19088,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19467,7 +19470,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19936,7 +19939,7 @@
         <v>0.75</v>
       </c>
       <c r="AS98">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT98">
         <v>0.91</v>
@@ -20040,7 +20043,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20613,7 +20616,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20804,7 +20807,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20894,7 +20897,7 @@
         <v>1.92</v>
       </c>
       <c r="AT103">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -20995,7 +20998,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -22040,7 +22043,7 @@
         <v>2.08</v>
       </c>
       <c r="AT109">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU109">
         <v>1.88</v>
@@ -22905,7 +22908,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23096,7 +23099,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23756,7 +23759,7 @@
         <v>1.25</v>
       </c>
       <c r="AS118">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT118">
         <v>1.45</v>
@@ -23860,7 +23863,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24242,7 +24245,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24523,7 +24526,7 @@
         <v>2.58</v>
       </c>
       <c r="AT122">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU122">
         <v>1.62</v>
@@ -24815,7 +24818,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -25388,7 +25391,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25579,7 +25582,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25770,7 +25773,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25860,7 +25863,7 @@
         <v>1.25</v>
       </c>
       <c r="AT129">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU129">
         <v>1.86</v>
@@ -26048,7 +26051,7 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT130">
         <v>1.42</v>
@@ -26152,7 +26155,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -27107,7 +27110,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27576,7 +27579,7 @@
         <v>0.67</v>
       </c>
       <c r="AS138">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT138">
         <v>0.82</v>
@@ -27680,7 +27683,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27767,7 +27770,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT139">
         <v>1.27</v>
@@ -27871,7 +27874,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27961,7 +27964,7 @@
         <v>1.27</v>
       </c>
       <c r="AT140">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU140">
         <v>1.33</v>
@@ -28062,7 +28065,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28444,7 +28447,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28635,7 +28638,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28826,7 +28829,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29298,7 +29301,7 @@
         <v>2.58</v>
       </c>
       <c r="AT147">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU147">
         <v>1.64</v>
@@ -30163,7 +30166,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30632,7 +30635,7 @@
         <v>0.5</v>
       </c>
       <c r="AS154">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT154">
         <v>0.42</v>
@@ -30927,7 +30930,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31208,7 +31211,7 @@
         <v>1.45</v>
       </c>
       <c r="AT157">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU157">
         <v>1.4</v>
@@ -32073,7 +32076,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -33309,7 +33312,7 @@
         <v>1.83</v>
       </c>
       <c r="AT168">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU168">
         <v>1.84</v>
@@ -33497,7 +33500,7 @@
         <v>2</v>
       </c>
       <c r="AS169">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT169">
         <v>1.58</v>
@@ -33792,7 +33795,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34264,7 +34267,7 @@
         <v>1.5</v>
       </c>
       <c r="AT173">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU173">
         <v>1.59</v>
@@ -34365,7 +34368,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34747,7 +34750,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35320,7 +35323,7 @@
         <v>196</v>
       </c>
       <c r="P179" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35893,7 +35896,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36084,7 +36087,7 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36275,7 +36278,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36553,7 +36556,7 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT185">
         <v>1</v>
@@ -36747,7 +36750,7 @@
         <v>1.73</v>
       </c>
       <c r="AT186">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU186">
         <v>1.71</v>
@@ -36848,7 +36851,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -37126,7 +37129,7 @@
         <v>0.71</v>
       </c>
       <c r="AS188">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT188">
         <v>0.6</v>
@@ -37230,7 +37233,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37421,7 +37424,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37994,7 +37997,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38084,7 +38087,7 @@
         <v>1.55</v>
       </c>
       <c r="AT193">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU193">
         <v>1.55</v>
@@ -38185,7 +38188,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38567,7 +38570,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38758,7 +38761,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39140,7 +39143,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39331,7 +39334,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39713,7 +39716,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -40564,10 +40567,10 @@
         <v>1.5</v>
       </c>
       <c r="AS206">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT206">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU206">
         <v>1.42</v>
@@ -40755,7 +40758,7 @@
         <v>0.7</v>
       </c>
       <c r="AS207">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT207">
         <v>0.58</v>
@@ -40859,7 +40862,7 @@
         <v>127</v>
       </c>
       <c r="P208" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -42578,7 +42581,7 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42769,7 +42772,7 @@
         <v>217</v>
       </c>
       <c r="P218" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43151,7 +43154,7 @@
         <v>219</v>
       </c>
       <c r="P220" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43915,7 +43918,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44423,22 +44426,404 @@
         <v>2.25</v>
       </c>
       <c r="BF226">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG226">
         <v>4</v>
       </c>
       <c r="BH226">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BI226">
+        <v>2</v>
+      </c>
+      <c r="BJ226">
+        <v>16</v>
+      </c>
+      <c r="BK226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>5414603</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45151.65625</v>
+      </c>
+      <c r="F227">
+        <v>23</v>
+      </c>
+      <c r="G227" t="s">
+        <v>65</v>
+      </c>
+      <c r="H227" t="s">
+        <v>70</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" t="s">
+        <v>100</v>
+      </c>
+      <c r="P227" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q227">
+        <v>2</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>2</v>
+      </c>
+      <c r="T227">
+        <v>3</v>
+      </c>
+      <c r="U227">
+        <v>1.88</v>
+      </c>
+      <c r="V227">
+        <v>3.9</v>
+      </c>
+      <c r="W227">
+        <v>1.55</v>
+      </c>
+      <c r="X227">
+        <v>2.3</v>
+      </c>
+      <c r="Y227">
+        <v>3.5</v>
+      </c>
+      <c r="Z227">
+        <v>1.25</v>
+      </c>
+      <c r="AA227">
+        <v>10.5</v>
+      </c>
+      <c r="AB227">
+        <v>1.04</v>
+      </c>
+      <c r="AC227">
+        <v>2.08</v>
+      </c>
+      <c r="AD227">
+        <v>3</v>
+      </c>
+      <c r="AE227">
+        <v>3.35</v>
+      </c>
+      <c r="AF227">
+        <v>1.09</v>
+      </c>
+      <c r="AG227">
         <v>7</v>
       </c>
-      <c r="BJ226">
-        <v>20</v>
-      </c>
-      <c r="BK226">
+      <c r="AH227">
+        <v>1.5</v>
+      </c>
+      <c r="AI227">
+        <v>2.35</v>
+      </c>
+      <c r="AJ227">
+        <v>2.55</v>
+      </c>
+      <c r="AK227">
+        <v>1.45</v>
+      </c>
+      <c r="AL227">
+        <v>2.15</v>
+      </c>
+      <c r="AM227">
+        <v>1.62</v>
+      </c>
+      <c r="AN227">
+        <v>1.32</v>
+      </c>
+      <c r="AO227">
+        <v>1.36</v>
+      </c>
+      <c r="AP227">
+        <v>1.58</v>
+      </c>
+      <c r="AQ227">
+        <v>2.3</v>
+      </c>
+      <c r="AR227">
+        <v>1.55</v>
+      </c>
+      <c r="AS227">
+        <v>2.09</v>
+      </c>
+      <c r="AT227">
+        <v>1.67</v>
+      </c>
+      <c r="AU227">
+        <v>1.37</v>
+      </c>
+      <c r="AV227">
+        <v>1.32</v>
+      </c>
+      <c r="AW227">
+        <v>2.69</v>
+      </c>
+      <c r="AX227">
+        <v>1.6</v>
+      </c>
+      <c r="AY227">
+        <v>6</v>
+      </c>
+      <c r="AZ227">
+        <v>2.65</v>
+      </c>
+      <c r="BA227">
+        <v>1.18</v>
+      </c>
+      <c r="BB227">
+        <v>1.51</v>
+      </c>
+      <c r="BC227">
+        <v>1.68</v>
+      </c>
+      <c r="BD227">
+        <v>2.05</v>
+      </c>
+      <c r="BE227">
+        <v>2.52</v>
+      </c>
+      <c r="BF227">
+        <v>4</v>
+      </c>
+      <c r="BG227">
+        <v>2</v>
+      </c>
+      <c r="BH227">
+        <v>7</v>
+      </c>
+      <c r="BI227">
+        <v>4</v>
+      </c>
+      <c r="BJ227">
         <v>11</v>
+      </c>
+      <c r="BK227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>5414608</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45151.75</v>
+      </c>
+      <c r="F228">
+        <v>23</v>
+      </c>
+      <c r="G228" t="s">
+        <v>73</v>
+      </c>
+      <c r="H228" t="s">
+        <v>80</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" t="s">
+        <v>222</v>
+      </c>
+      <c r="P228" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q228">
+        <v>4</v>
+      </c>
+      <c r="R228">
+        <v>9</v>
+      </c>
+      <c r="S228">
+        <v>13</v>
+      </c>
+      <c r="T228">
+        <v>2.65</v>
+      </c>
+      <c r="U228">
+        <v>1.98</v>
+      </c>
+      <c r="V228">
+        <v>4.2</v>
+      </c>
+      <c r="W228">
+        <v>1.49</v>
+      </c>
+      <c r="X228">
+        <v>2.4</v>
+      </c>
+      <c r="Y228">
+        <v>3.3</v>
+      </c>
+      <c r="Z228">
+        <v>1.28</v>
+      </c>
+      <c r="AA228">
+        <v>9.5</v>
+      </c>
+      <c r="AB228">
+        <v>1.05</v>
+      </c>
+      <c r="AC228">
+        <v>2</v>
+      </c>
+      <c r="AD228">
+        <v>3.4</v>
+      </c>
+      <c r="AE228">
+        <v>3.65</v>
+      </c>
+      <c r="AF228">
+        <v>1.1</v>
+      </c>
+      <c r="AG228">
+        <v>6.5</v>
+      </c>
+      <c r="AH228">
+        <v>1.44</v>
+      </c>
+      <c r="AI228">
+        <v>2.62</v>
+      </c>
+      <c r="AJ228">
+        <v>2.3</v>
+      </c>
+      <c r="AK228">
+        <v>1.55</v>
+      </c>
+      <c r="AL228">
+        <v>2.1</v>
+      </c>
+      <c r="AM228">
+        <v>1.65</v>
+      </c>
+      <c r="AN228">
+        <v>1.26</v>
+      </c>
+      <c r="AO228">
+        <v>1.31</v>
+      </c>
+      <c r="AP228">
+        <v>1.75</v>
+      </c>
+      <c r="AQ228">
+        <v>2.4</v>
+      </c>
+      <c r="AR228">
+        <v>1.45</v>
+      </c>
+      <c r="AS228">
+        <v>2.45</v>
+      </c>
+      <c r="AT228">
+        <v>1.33</v>
+      </c>
+      <c r="AU228">
+        <v>1.67</v>
+      </c>
+      <c r="AV228">
+        <v>1.14</v>
+      </c>
+      <c r="AW228">
+        <v>2.81</v>
+      </c>
+      <c r="AX228">
+        <v>1.27</v>
+      </c>
+      <c r="AY228">
+        <v>6.75</v>
+      </c>
+      <c r="AZ228">
+        <v>4.15</v>
+      </c>
+      <c r="BA228">
+        <v>1.18</v>
+      </c>
+      <c r="BB228">
+        <v>1.38</v>
+      </c>
+      <c r="BC228">
+        <v>1.68</v>
+      </c>
+      <c r="BD228">
+        <v>2.05</v>
+      </c>
+      <c r="BE228">
+        <v>2.71</v>
+      </c>
+      <c r="BF228">
+        <v>3</v>
+      </c>
+      <c r="BG228">
+        <v>7</v>
+      </c>
+      <c r="BH228">
+        <v>2</v>
+      </c>
+      <c r="BI228">
+        <v>7</v>
+      </c>
+      <c r="BJ228">
+        <v>5</v>
+      </c>
+      <c r="BK228">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,9 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -1272,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK228"/>
+  <dimension ref="A1:BK229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1519,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2280,7 +2283,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2471,7 +2474,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -3617,7 +3620,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3898,7 +3901,7 @@
         <v>1.08</v>
       </c>
       <c r="AT14">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4381,7 +4384,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4763,7 +4766,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4850,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT19">
         <v>1.42</v>
@@ -5426,7 +5429,7 @@
         <v>2.09</v>
       </c>
       <c r="AT22">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU22">
         <v>1.42</v>
@@ -5527,7 +5530,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6100,7 +6103,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6482,7 +6485,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6569,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT28">
         <v>1.33</v>
@@ -7628,7 +7631,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -8201,7 +8204,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8392,7 +8395,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8673,7 +8676,7 @@
         <v>2.08</v>
       </c>
       <c r="AT39">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU39">
         <v>1.29</v>
@@ -8774,7 +8777,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9538,7 +9541,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -10302,7 +10305,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10493,7 +10496,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10875,7 +10878,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11066,7 +11069,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -12021,7 +12024,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12212,7 +12215,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12299,7 +12302,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT58">
         <v>1.45</v>
@@ -12403,7 +12406,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12594,7 +12597,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -13358,7 +13361,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13740,7 +13743,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13931,7 +13934,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14313,7 +14316,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14973,7 +14976,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT72">
         <v>0.64</v>
@@ -15358,7 +15361,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU74">
         <v>2.16</v>
@@ -15650,7 +15653,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15841,7 +15844,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16414,7 +16417,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16605,7 +16608,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16796,7 +16799,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17560,7 +17563,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17751,7 +17754,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18987,7 +18990,7 @@
         <v>2.45</v>
       </c>
       <c r="AT93">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU93">
         <v>1.75</v>
@@ -19088,7 +19091,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19470,7 +19473,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19557,7 +19560,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT96">
         <v>1.58</v>
@@ -20043,7 +20046,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20616,7 +20619,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20807,7 +20810,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20998,7 +21001,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21088,7 +21091,7 @@
         <v>1.55</v>
       </c>
       <c r="AT104">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU104">
         <v>1.56</v>
@@ -22231,7 +22234,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT110">
         <v>0.6</v>
@@ -22908,7 +22911,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23099,7 +23102,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23863,7 +23866,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24245,7 +24248,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24335,7 +24338,7 @@
         <v>1.73</v>
       </c>
       <c r="AT121">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU121">
         <v>1.49</v>
@@ -24818,7 +24821,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -25391,7 +25394,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25582,7 +25585,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25773,7 +25776,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26155,7 +26158,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -27110,7 +27113,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27197,7 +27200,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT136">
         <v>1</v>
@@ -27683,7 +27686,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27874,7 +27877,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28065,7 +28068,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28447,7 +28450,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28638,7 +28641,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28829,7 +28832,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29683,7 +29686,7 @@
         <v>1.83</v>
       </c>
       <c r="AT149">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU149">
         <v>1.83</v>
@@ -30166,7 +30169,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30826,7 +30829,7 @@
         <v>1.71</v>
       </c>
       <c r="AS155">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT155">
         <v>1.45</v>
@@ -30930,7 +30933,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -32076,7 +32079,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32548,7 +32551,7 @@
         <v>1.25</v>
       </c>
       <c r="AT164">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU164">
         <v>1.85</v>
@@ -33795,7 +33798,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34076,7 +34079,7 @@
         <v>1.08</v>
       </c>
       <c r="AT172">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU172">
         <v>1.52</v>
@@ -34368,7 +34371,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34750,7 +34753,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -34837,7 +34840,7 @@
         <v>0.78</v>
       </c>
       <c r="AS176">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT176">
         <v>1.17</v>
@@ -35323,7 +35326,7 @@
         <v>196</v>
       </c>
       <c r="P179" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35896,7 +35899,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36087,7 +36090,7 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36278,7 +36281,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36851,7 +36854,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -37233,7 +37236,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37424,7 +37427,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37514,7 +37517,7 @@
         <v>1.55</v>
       </c>
       <c r="AT190">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU190">
         <v>1.53</v>
@@ -37997,7 +38000,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38188,7 +38191,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38466,7 +38469,7 @@
         <v>0.4</v>
       </c>
       <c r="AS195">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT195">
         <v>0.42</v>
@@ -38570,7 +38573,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38761,7 +38764,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39143,7 +39146,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39334,7 +39337,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39716,7 +39719,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -40862,7 +40865,7 @@
         <v>127</v>
       </c>
       <c r="P208" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -42581,7 +42584,7 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42772,7 +42775,7 @@
         <v>217</v>
       </c>
       <c r="P218" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43154,7 +43157,7 @@
         <v>219</v>
       </c>
       <c r="P220" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43918,7 +43921,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44824,6 +44827,197 @@
       </c>
       <c r="BK228">
         <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>5414612</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45152.83333333334</v>
+      </c>
+      <c r="F229">
+        <v>23</v>
+      </c>
+      <c r="G229" t="s">
+        <v>82</v>
+      </c>
+      <c r="H229" t="s">
+        <v>66</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>223</v>
+      </c>
+      <c r="P229" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q229">
+        <v>4</v>
+      </c>
+      <c r="R229">
+        <v>5</v>
+      </c>
+      <c r="S229">
+        <v>9</v>
+      </c>
+      <c r="T229">
+        <v>3.1</v>
+      </c>
+      <c r="U229">
+        <v>1.83</v>
+      </c>
+      <c r="V229">
+        <v>4</v>
+      </c>
+      <c r="W229">
+        <v>1.61</v>
+      </c>
+      <c r="X229">
+        <v>2.15</v>
+      </c>
+      <c r="Y229">
+        <v>3.9</v>
+      </c>
+      <c r="Z229">
+        <v>1.21</v>
+      </c>
+      <c r="AA229">
+        <v>12</v>
+      </c>
+      <c r="AB229">
+        <v>1.03</v>
+      </c>
+      <c r="AC229">
+        <v>2.4</v>
+      </c>
+      <c r="AD229">
+        <v>2.75</v>
+      </c>
+      <c r="AE229">
+        <v>3.2</v>
+      </c>
+      <c r="AF229">
+        <v>1.11</v>
+      </c>
+      <c r="AG229">
+        <v>5.5</v>
+      </c>
+      <c r="AH229">
+        <v>1.51</v>
+      </c>
+      <c r="AI229">
+        <v>2.39</v>
+      </c>
+      <c r="AJ229">
+        <v>2.73</v>
+      </c>
+      <c r="AK229">
+        <v>1.4</v>
+      </c>
+      <c r="AL229">
+        <v>2.3</v>
+      </c>
+      <c r="AM229">
+        <v>1.55</v>
+      </c>
+      <c r="AN229">
+        <v>1.32</v>
+      </c>
+      <c r="AO229">
+        <v>1.37</v>
+      </c>
+      <c r="AP229">
+        <v>1.57</v>
+      </c>
+      <c r="AQ229">
+        <v>0.6</v>
+      </c>
+      <c r="AR229">
+        <v>0.82</v>
+      </c>
+      <c r="AS229">
+        <v>0.64</v>
+      </c>
+      <c r="AT229">
+        <v>0.83</v>
+      </c>
+      <c r="AU229">
+        <v>1.41</v>
+      </c>
+      <c r="AV229">
+        <v>1.32</v>
+      </c>
+      <c r="AW229">
+        <v>2.73</v>
+      </c>
+      <c r="AX229">
+        <v>1.74</v>
+      </c>
+      <c r="AY229">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ229">
+        <v>2.47</v>
+      </c>
+      <c r="BA229">
+        <v>1.29</v>
+      </c>
+      <c r="BB229">
+        <v>1.56</v>
+      </c>
+      <c r="BC229">
+        <v>1.97</v>
+      </c>
+      <c r="BD229">
+        <v>2.58</v>
+      </c>
+      <c r="BE229">
+        <v>3.48</v>
+      </c>
+      <c r="BF229">
+        <v>3</v>
+      </c>
+      <c r="BG229">
+        <v>4</v>
+      </c>
+      <c r="BH229">
+        <v>8</v>
+      </c>
+      <c r="BI229">
+        <v>4</v>
+      </c>
+      <c r="BJ229">
+        <v>11</v>
+      </c>
+      <c r="BK229">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,9 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['8', '42']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -914,6 +917,9 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['58', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK229"/>
+  <dimension ref="A1:BK231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1525,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1988,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT4">
         <v>1.58</v>
@@ -2283,7 +2289,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2373,7 +2379,7 @@
         <v>1.25</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2474,7 +2480,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2943,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT9">
         <v>0.58</v>
@@ -3620,7 +3626,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4092,7 +4098,7 @@
         <v>1.09</v>
       </c>
       <c r="AT15">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4384,7 +4390,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4766,7 +4772,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5530,7 +5536,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5620,7 +5626,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU23">
         <v>1.81</v>
@@ -6103,7 +6109,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6193,7 +6199,7 @@
         <v>1.08</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>2.32</v>
@@ -6485,7 +6491,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6763,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT29">
         <v>1.67</v>
@@ -6954,7 +6960,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT30">
         <v>1.45</v>
@@ -7631,7 +7637,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -8204,7 +8210,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8395,7 +8401,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8777,7 +8783,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9541,7 +9547,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -10305,7 +10311,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10496,7 +10502,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10774,7 +10780,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT50">
         <v>1.45</v>
@@ -10878,7 +10884,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11069,7 +11075,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11159,7 +11165,7 @@
         <v>1.73</v>
       </c>
       <c r="AT52">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU52">
         <v>1.65</v>
@@ -11920,7 +11926,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT56">
         <v>0.82</v>
@@ -12024,7 +12030,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12114,7 +12120,7 @@
         <v>2.45</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU57">
         <v>1.79</v>
@@ -12215,7 +12221,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12406,7 +12412,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12597,7 +12603,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -13361,7 +13367,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13743,7 +13749,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13934,7 +13940,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14316,7 +14322,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14597,7 +14603,7 @@
         <v>1.55</v>
       </c>
       <c r="AT70">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU70">
         <v>1.58</v>
@@ -15170,7 +15176,7 @@
         <v>1.73</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU73">
         <v>1.72</v>
@@ -15358,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT74">
         <v>0.83</v>
@@ -15653,7 +15659,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15740,7 +15746,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT76">
         <v>1.33</v>
@@ -15844,7 +15850,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16417,7 +16423,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16608,7 +16614,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16799,7 +16805,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17563,7 +17569,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17754,7 +17760,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18799,7 +18805,7 @@
         <v>2.08</v>
       </c>
       <c r="AT92">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU92">
         <v>1.85</v>
@@ -19091,7 +19097,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19473,7 +19479,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19751,7 +19757,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT97">
         <v>0.82</v>
@@ -20046,7 +20052,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20133,7 +20139,7 @@
         <v>0.67</v>
       </c>
       <c r="AS99">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT99">
         <v>1.27</v>
@@ -20619,7 +20625,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20810,7 +20816,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21001,7 +21007,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21855,7 +21861,7 @@
         <v>1.73</v>
       </c>
       <c r="AT108">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU108">
         <v>1.49</v>
@@ -22425,7 +22431,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT111">
         <v>1.17</v>
@@ -22619,7 +22625,7 @@
         <v>1.45</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU112">
         <v>1.44</v>
@@ -22911,7 +22917,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23102,7 +23108,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23189,10 +23195,10 @@
         <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT115">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU115">
         <v>1.42</v>
@@ -23866,7 +23872,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24248,7 +24254,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24821,7 +24827,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -25394,7 +25400,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25585,7 +25591,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25776,7 +25782,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26158,7 +26164,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26627,7 +26633,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT133">
         <v>0.64</v>
@@ -27113,7 +27119,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27203,7 +27209,7 @@
         <v>0.64</v>
       </c>
       <c r="AT136">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU136">
         <v>1.31</v>
@@ -27686,7 +27692,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27776,7 +27782,7 @@
         <v>2.09</v>
       </c>
       <c r="AT139">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU139">
         <v>1.4</v>
@@ -27877,7 +27883,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27964,7 +27970,7 @@
         <v>1.29</v>
       </c>
       <c r="AS140">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT140">
         <v>1.67</v>
@@ -28068,7 +28074,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28450,7 +28456,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28641,7 +28647,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28832,7 +28838,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -30169,7 +30175,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30259,7 +30265,7 @@
         <v>2.09</v>
       </c>
       <c r="AT152">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU152">
         <v>1.95</v>
@@ -30933,7 +30939,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31787,7 +31793,7 @@
         <v>2.58</v>
       </c>
       <c r="AT160">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU160">
         <v>1.66</v>
@@ -31975,7 +31981,7 @@
         <v>1.63</v>
       </c>
       <c r="AS161">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT161">
         <v>1.42</v>
@@ -32079,7 +32085,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32930,7 +32936,7 @@
         <v>1.75</v>
       </c>
       <c r="AS166">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT166">
         <v>1.42</v>
@@ -33798,7 +33804,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34371,7 +34377,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34461,7 +34467,7 @@
         <v>1.92</v>
       </c>
       <c r="AT174">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU174">
         <v>1.74</v>
@@ -34753,7 +34759,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35326,7 +35332,7 @@
         <v>196</v>
       </c>
       <c r="P179" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35899,7 +35905,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -35986,7 +35992,7 @@
         <v>0.67</v>
       </c>
       <c r="AS182">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT182">
         <v>0.58</v>
@@ -36090,7 +36096,7 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36281,7 +36287,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36562,7 +36568,7 @@
         <v>2.09</v>
       </c>
       <c r="AT185">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU185">
         <v>1.41</v>
@@ -36854,7 +36860,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -37236,7 +37242,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37323,7 +37329,7 @@
         <v>1.38</v>
       </c>
       <c r="AS189">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT189">
         <v>1.45</v>
@@ -37427,7 +37433,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37899,7 +37905,7 @@
         <v>1.08</v>
       </c>
       <c r="AT192">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU192">
         <v>1.51</v>
@@ -38000,7 +38006,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38191,7 +38197,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38573,7 +38579,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38764,7 +38770,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39146,7 +39152,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39337,7 +39343,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39719,7 +39725,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39809,7 +39815,7 @@
         <v>1.73</v>
       </c>
       <c r="AT202">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU202">
         <v>1.52</v>
@@ -40379,7 +40385,7 @@
         <v>1.11</v>
       </c>
       <c r="AS205">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT205">
         <v>1.27</v>
@@ -40865,7 +40871,7 @@
         <v>127</v>
       </c>
       <c r="P208" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -40952,7 +40958,7 @@
         <v>0.63</v>
       </c>
       <c r="AS208">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT208">
         <v>0.6</v>
@@ -42584,7 +42590,7 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42775,7 +42781,7 @@
         <v>217</v>
       </c>
       <c r="P218" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43053,7 +43059,7 @@
         <v>1.55</v>
       </c>
       <c r="AS219">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT219">
         <v>1.42</v>
@@ -43157,7 +43163,7 @@
         <v>219</v>
       </c>
       <c r="P220" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43247,7 +43253,7 @@
         <v>2.09</v>
       </c>
       <c r="AT220">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU220">
         <v>1.98</v>
@@ -43921,7 +43927,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44199,7 +44205,7 @@
         <v>0.9</v>
       </c>
       <c r="AS225">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT225">
         <v>0.91</v>
@@ -44393,7 +44399,7 @@
         <v>1.08</v>
       </c>
       <c r="AT226">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU226">
         <v>1.48</v>
@@ -44876,7 +44882,7 @@
         <v>223</v>
       </c>
       <c r="P229" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45018,6 +45024,388 @@
       </c>
       <c r="BK229">
         <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>5414621</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45155.79166666666</v>
+      </c>
+      <c r="F230">
+        <v>24</v>
+      </c>
+      <c r="G230" t="s">
+        <v>72</v>
+      </c>
+      <c r="H230" t="s">
+        <v>74</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" t="s">
+        <v>100</v>
+      </c>
+      <c r="P230" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q230">
+        <v>5</v>
+      </c>
+      <c r="R230">
+        <v>4</v>
+      </c>
+      <c r="S230">
+        <v>9</v>
+      </c>
+      <c r="T230">
+        <v>3.4</v>
+      </c>
+      <c r="U230">
+        <v>1.9</v>
+      </c>
+      <c r="V230">
+        <v>3.3</v>
+      </c>
+      <c r="W230">
+        <v>1.51</v>
+      </c>
+      <c r="X230">
+        <v>2.37</v>
+      </c>
+      <c r="Y230">
+        <v>3.3</v>
+      </c>
+      <c r="Z230">
+        <v>1.29</v>
+      </c>
+      <c r="AA230">
+        <v>9.25</v>
+      </c>
+      <c r="AB230">
+        <v>1.05</v>
+      </c>
+      <c r="AC230">
+        <v>2.55</v>
+      </c>
+      <c r="AD230">
+        <v>3.07</v>
+      </c>
+      <c r="AE230">
+        <v>2.55</v>
+      </c>
+      <c r="AF230">
+        <v>1.1</v>
+      </c>
+      <c r="AG230">
+        <v>6.5</v>
+      </c>
+      <c r="AH230">
+        <v>1.5</v>
+      </c>
+      <c r="AI230">
+        <v>2.45</v>
+      </c>
+      <c r="AJ230">
+        <v>2.3</v>
+      </c>
+      <c r="AK230">
+        <v>1.55</v>
+      </c>
+      <c r="AL230">
+        <v>1.98</v>
+      </c>
+      <c r="AM230">
+        <v>1.72</v>
+      </c>
+      <c r="AN230">
+        <v>1.44</v>
+      </c>
+      <c r="AO230">
+        <v>1.36</v>
+      </c>
+      <c r="AP230">
+        <v>1.43</v>
+      </c>
+      <c r="AQ230">
+        <v>1.27</v>
+      </c>
+      <c r="AR230">
+        <v>1</v>
+      </c>
+      <c r="AS230">
+        <v>1.17</v>
+      </c>
+      <c r="AT230">
+        <v>1.17</v>
+      </c>
+      <c r="AU230">
+        <v>1.27</v>
+      </c>
+      <c r="AV230">
+        <v>1.27</v>
+      </c>
+      <c r="AW230">
+        <v>2.54</v>
+      </c>
+      <c r="AX230">
+        <v>1.95</v>
+      </c>
+      <c r="AY230">
+        <v>8.5</v>
+      </c>
+      <c r="AZ230">
+        <v>2.1</v>
+      </c>
+      <c r="BA230">
+        <v>1.15</v>
+      </c>
+      <c r="BB230">
+        <v>1.25</v>
+      </c>
+      <c r="BC230">
+        <v>1.46</v>
+      </c>
+      <c r="BD230">
+        <v>1.85</v>
+      </c>
+      <c r="BE230">
+        <v>2.3</v>
+      </c>
+      <c r="BF230">
+        <v>7</v>
+      </c>
+      <c r="BG230">
+        <v>5</v>
+      </c>
+      <c r="BH230">
+        <v>4</v>
+      </c>
+      <c r="BI230">
+        <v>7</v>
+      </c>
+      <c r="BJ230">
+        <v>11</v>
+      </c>
+      <c r="BK230">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>5414614</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45155.89583333334</v>
+      </c>
+      <c r="F231">
+        <v>24</v>
+      </c>
+      <c r="G231" t="s">
+        <v>67</v>
+      </c>
+      <c r="H231" t="s">
+        <v>68</v>
+      </c>
+      <c r="I231">
+        <v>2</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231" t="s">
+        <v>224</v>
+      </c>
+      <c r="P231" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q231">
+        <v>3</v>
+      </c>
+      <c r="R231">
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <v>4</v>
+      </c>
+      <c r="T231">
+        <v>3</v>
+      </c>
+      <c r="U231">
+        <v>1.85</v>
+      </c>
+      <c r="V231">
+        <v>4.1</v>
+      </c>
+      <c r="W231">
+        <v>1.58</v>
+      </c>
+      <c r="X231">
+        <v>2.2</v>
+      </c>
+      <c r="Y231">
+        <v>3.8</v>
+      </c>
+      <c r="Z231">
+        <v>1.23</v>
+      </c>
+      <c r="AA231">
+        <v>11.5</v>
+      </c>
+      <c r="AB231">
+        <v>1.04</v>
+      </c>
+      <c r="AC231">
+        <v>2.15</v>
+      </c>
+      <c r="AD231">
+        <v>2.96</v>
+      </c>
+      <c r="AE231">
+        <v>3.25</v>
+      </c>
+      <c r="AF231">
+        <v>1.11</v>
+      </c>
+      <c r="AG231">
+        <v>6.5</v>
+      </c>
+      <c r="AH231">
+        <v>1.54</v>
+      </c>
+      <c r="AI231">
+        <v>2.32</v>
+      </c>
+      <c r="AJ231">
+        <v>2.59</v>
+      </c>
+      <c r="AK231">
+        <v>1.4</v>
+      </c>
+      <c r="AL231">
+        <v>2.25</v>
+      </c>
+      <c r="AM231">
+        <v>1.57</v>
+      </c>
+      <c r="AN231">
+        <v>1.3</v>
+      </c>
+      <c r="AO231">
+        <v>1.36</v>
+      </c>
+      <c r="AP231">
+        <v>1.61</v>
+      </c>
+      <c r="AQ231">
+        <v>2</v>
+      </c>
+      <c r="AR231">
+        <v>1.27</v>
+      </c>
+      <c r="AS231">
+        <v>2.08</v>
+      </c>
+      <c r="AT231">
+        <v>1.17</v>
+      </c>
+      <c r="AU231">
+        <v>1.91</v>
+      </c>
+      <c r="AV231">
+        <v>1.35</v>
+      </c>
+      <c r="AW231">
+        <v>3.26</v>
+      </c>
+      <c r="AX231">
+        <v>1.64</v>
+      </c>
+      <c r="AY231">
+        <v>8.5</v>
+      </c>
+      <c r="AZ231">
+        <v>2.66</v>
+      </c>
+      <c r="BA231">
+        <v>1.2</v>
+      </c>
+      <c r="BB231">
+        <v>1.32</v>
+      </c>
+      <c r="BC231">
+        <v>1.57</v>
+      </c>
+      <c r="BD231">
+        <v>1.98</v>
+      </c>
+      <c r="BE231">
+        <v>2.65</v>
+      </c>
+      <c r="BF231">
+        <v>4</v>
+      </c>
+      <c r="BG231">
+        <v>0</v>
+      </c>
+      <c r="BH231">
+        <v>2</v>
+      </c>
+      <c r="BI231">
+        <v>7</v>
+      </c>
+      <c r="BJ231">
+        <v>6</v>
+      </c>
+      <c r="BK231">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,12 @@
     <t>['8', '42']</t>
   </si>
   <si>
+    <t>['63', '71']</t>
+  </si>
+  <si>
+    <t>['5', '10', '35']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -920,6 +926,9 @@
   </si>
   <si>
     <t>['58', '90+4']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,7 +1534,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1612,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT2">
         <v>0.91</v>
@@ -2289,7 +2298,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2480,7 +2489,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2570,7 +2579,7 @@
         <v>1.73</v>
       </c>
       <c r="AT7">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3140,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT10">
         <v>0.82</v>
@@ -3626,7 +3635,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4390,7 +4399,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4772,7 +4781,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5241,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT21">
         <v>0.42</v>
@@ -5432,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT22">
         <v>0.83</v>
@@ -5536,7 +5545,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6109,7 +6118,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6390,7 +6399,7 @@
         <v>2.09</v>
       </c>
       <c r="AT27">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU27">
         <v>2.12</v>
@@ -6491,7 +6500,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -7345,7 +7354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU32">
         <v>1.83</v>
@@ -7637,7 +7646,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -8210,7 +8219,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8401,7 +8410,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8783,7 +8792,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9547,7 +9556,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -10311,7 +10320,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10502,7 +10511,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10884,7 +10893,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11075,7 +11084,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11353,7 +11362,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT53">
         <v>0.82</v>
@@ -12030,7 +12039,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12117,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT57">
         <v>1.17</v>
@@ -12221,7 +12230,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12311,7 +12320,7 @@
         <v>0.64</v>
       </c>
       <c r="AT58">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU58">
         <v>1.33</v>
@@ -12412,7 +12421,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12502,7 +12511,7 @@
         <v>1.45</v>
       </c>
       <c r="AT59">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU59">
         <v>1.3</v>
@@ -12603,7 +12612,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -13266,7 +13275,7 @@
         <v>2.58</v>
       </c>
       <c r="AT63">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU63">
         <v>1.52</v>
@@ -13367,7 +13376,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13749,7 +13758,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13940,7 +13949,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14322,7 +14331,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -15555,7 +15564,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT75">
         <v>0.91</v>
@@ -15659,7 +15668,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15850,7 +15859,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15937,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT77">
         <v>0.6</v>
@@ -16131,7 +16140,7 @@
         <v>2.08</v>
       </c>
       <c r="AT78">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU78">
         <v>1.81</v>
@@ -16423,7 +16432,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16614,7 +16623,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16805,7 +16814,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17086,7 +17095,7 @@
         <v>1.92</v>
       </c>
       <c r="AT83">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>1.53</v>
@@ -17569,7 +17578,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17760,7 +17769,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18993,7 +19002,7 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT93">
         <v>0.83</v>
@@ -19097,7 +19106,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19479,7 +19488,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19948,7 +19957,7 @@
         <v>0.75</v>
       </c>
       <c r="AS98">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT98">
         <v>0.91</v>
@@ -20052,7 +20061,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20142,7 +20151,7 @@
         <v>1.17</v>
       </c>
       <c r="AT99">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU99">
         <v>1.59</v>
@@ -20625,7 +20634,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20816,7 +20825,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21007,7 +21016,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -22917,7 +22926,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23108,7 +23117,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23389,7 +23398,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU116">
         <v>1.72</v>
@@ -23580,7 +23589,7 @@
         <v>1.09</v>
       </c>
       <c r="AT117">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU117">
         <v>2.02</v>
@@ -23768,7 +23777,7 @@
         <v>1.25</v>
       </c>
       <c r="AS118">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT118">
         <v>1.45</v>
@@ -23872,7 +23881,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24254,7 +24263,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24827,7 +24836,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -25400,7 +25409,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25591,7 +25600,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25782,7 +25791,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26060,7 +26069,7 @@
         <v>2.17</v>
       </c>
       <c r="AS130">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT130">
         <v>1.42</v>
@@ -26164,7 +26173,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26254,7 +26263,7 @@
         <v>1.08</v>
       </c>
       <c r="AT131">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU131">
         <v>1.54</v>
@@ -26827,7 +26836,7 @@
         <v>2.09</v>
       </c>
       <c r="AT134">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU134">
         <v>1.89</v>
@@ -27119,7 +27128,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27588,7 +27597,7 @@
         <v>0.67</v>
       </c>
       <c r="AS138">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT138">
         <v>0.82</v>
@@ -27692,7 +27701,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27779,7 +27788,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT139">
         <v>1.17</v>
@@ -27883,7 +27892,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28074,7 +28083,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28456,7 +28465,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28647,7 +28656,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28838,7 +28847,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -30074,7 +30083,7 @@
         <v>1.73</v>
       </c>
       <c r="AT151">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU151">
         <v>1.5</v>
@@ -30175,7 +30184,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30456,7 +30465,7 @@
         <v>1.55</v>
       </c>
       <c r="AT153">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU153">
         <v>1.56</v>
@@ -30644,7 +30653,7 @@
         <v>0.5</v>
       </c>
       <c r="AS154">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT154">
         <v>0.42</v>
@@ -30939,7 +30948,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -32085,7 +32094,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32366,7 +32375,7 @@
         <v>1.92</v>
       </c>
       <c r="AT163">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU163">
         <v>1.78</v>
@@ -33509,7 +33518,7 @@
         <v>2</v>
       </c>
       <c r="AS169">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT169">
         <v>1.58</v>
@@ -33804,7 +33813,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34377,7 +34386,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34759,7 +34768,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35332,7 +35341,7 @@
         <v>196</v>
       </c>
       <c r="P179" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35905,7 +35914,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36096,7 +36105,7 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36287,7 +36296,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36565,7 +36574,7 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT185">
         <v>1.17</v>
@@ -36860,7 +36869,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -36950,7 +36959,7 @@
         <v>1.25</v>
       </c>
       <c r="AT187">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU187">
         <v>1.81</v>
@@ -37138,7 +37147,7 @@
         <v>0.71</v>
       </c>
       <c r="AS188">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT188">
         <v>0.6</v>
@@ -37242,7 +37251,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37332,7 +37341,7 @@
         <v>1.17</v>
       </c>
       <c r="AT189">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU189">
         <v>1.21</v>
@@ -37433,7 +37442,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -38006,7 +38015,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38197,7 +38206,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38579,7 +38588,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38770,7 +38779,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39152,7 +39161,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39343,7 +39352,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39624,7 +39633,7 @@
         <v>1.25</v>
       </c>
       <c r="AT201">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU201">
         <v>1.8</v>
@@ -39725,7 +39734,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -40388,7 +40397,7 @@
         <v>2.08</v>
       </c>
       <c r="AT205">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU205">
         <v>1.91</v>
@@ -40576,7 +40585,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT206">
         <v>1.33</v>
@@ -40767,7 +40776,7 @@
         <v>0.7</v>
       </c>
       <c r="AS207">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT207">
         <v>0.58</v>
@@ -40871,7 +40880,7 @@
         <v>127</v>
       </c>
       <c r="P208" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -41916,7 +41925,7 @@
         <v>1.73</v>
       </c>
       <c r="AT213">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU213">
         <v>1.5</v>
@@ -42590,7 +42599,7 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42781,7 +42790,7 @@
         <v>217</v>
       </c>
       <c r="P218" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43163,7 +43172,7 @@
         <v>219</v>
       </c>
       <c r="P220" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43444,7 +43453,7 @@
         <v>1.08</v>
       </c>
       <c r="AT221">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU221">
         <v>1.8</v>
@@ -43927,7 +43936,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44587,7 +44596,7 @@
         <v>1.55</v>
       </c>
       <c r="AS227">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT227">
         <v>1.67</v>
@@ -44778,7 +44787,7 @@
         <v>1.45</v>
       </c>
       <c r="AS228">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT228">
         <v>1.33</v>
@@ -44882,7 +44891,7 @@
         <v>223</v>
       </c>
       <c r="P229" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45073,7 +45082,7 @@
         <v>100</v>
       </c>
       <c r="P230" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -45406,6 +45415,388 @@
       </c>
       <c r="BK231">
         <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>5414618</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45156.79166666666</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>73</v>
+      </c>
+      <c r="H232" t="s">
+        <v>75</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>225</v>
+      </c>
+      <c r="P232" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q232">
+        <v>11</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>12</v>
+      </c>
+      <c r="T232">
+        <v>2.59</v>
+      </c>
+      <c r="U232">
+        <v>1.88</v>
+      </c>
+      <c r="V232">
+        <v>5.97</v>
+      </c>
+      <c r="W232">
+        <v>1.55</v>
+      </c>
+      <c r="X232">
+        <v>2.3</v>
+      </c>
+      <c r="Y232">
+        <v>3.6</v>
+      </c>
+      <c r="Z232">
+        <v>1.25</v>
+      </c>
+      <c r="AA232">
+        <v>10.5</v>
+      </c>
+      <c r="AB232">
+        <v>1.04</v>
+      </c>
+      <c r="AC232">
+        <v>2.2</v>
+      </c>
+      <c r="AD232">
+        <v>4.89</v>
+      </c>
+      <c r="AE232">
+        <v>2.22</v>
+      </c>
+      <c r="AF232">
+        <v>1.11</v>
+      </c>
+      <c r="AG232">
+        <v>6</v>
+      </c>
+      <c r="AH232">
+        <v>1.52</v>
+      </c>
+      <c r="AI232">
+        <v>2.4</v>
+      </c>
+      <c r="AJ232">
+        <v>2.6</v>
+      </c>
+      <c r="AK232">
+        <v>1.45</v>
+      </c>
+      <c r="AL232">
+        <v>2.36</v>
+      </c>
+      <c r="AM232">
+        <v>1.56</v>
+      </c>
+      <c r="AN232">
+        <v>1.17</v>
+      </c>
+      <c r="AO232">
+        <v>1.36</v>
+      </c>
+      <c r="AP232">
+        <v>1.93</v>
+      </c>
+      <c r="AQ232">
+        <v>2.45</v>
+      </c>
+      <c r="AR232">
+        <v>1.45</v>
+      </c>
+      <c r="AS232">
+        <v>2.5</v>
+      </c>
+      <c r="AT232">
+        <v>1.33</v>
+      </c>
+      <c r="AU232">
+        <v>1.59</v>
+      </c>
+      <c r="AV232">
+        <v>1.12</v>
+      </c>
+      <c r="AW232">
+        <v>2.71</v>
+      </c>
+      <c r="AX232">
+        <v>1.55</v>
+      </c>
+      <c r="AY232">
+        <v>8.5</v>
+      </c>
+      <c r="AZ232">
+        <v>2.91</v>
+      </c>
+      <c r="BA232">
+        <v>1.17</v>
+      </c>
+      <c r="BB232">
+        <v>1.34</v>
+      </c>
+      <c r="BC232">
+        <v>1.61</v>
+      </c>
+      <c r="BD232">
+        <v>2.05</v>
+      </c>
+      <c r="BE232">
+        <v>2.75</v>
+      </c>
+      <c r="BF232">
+        <v>6</v>
+      </c>
+      <c r="BG232">
+        <v>3</v>
+      </c>
+      <c r="BH232">
+        <v>6</v>
+      </c>
+      <c r="BI232">
+        <v>8</v>
+      </c>
+      <c r="BJ232">
+        <v>12</v>
+      </c>
+      <c r="BK232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>5414613</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45156.89583333334</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>65</v>
+      </c>
+      <c r="H233" t="s">
+        <v>84</v>
+      </c>
+      <c r="I233">
+        <v>3</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>4</v>
+      </c>
+      <c r="L233">
+        <v>3</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>4</v>
+      </c>
+      <c r="O233" t="s">
+        <v>226</v>
+      </c>
+      <c r="P233" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q233">
+        <v>3</v>
+      </c>
+      <c r="R233">
+        <v>8</v>
+      </c>
+      <c r="S233">
+        <v>11</v>
+      </c>
+      <c r="T233">
+        <v>3.5</v>
+      </c>
+      <c r="U233">
+        <v>1.85</v>
+      </c>
+      <c r="V233">
+        <v>3.5</v>
+      </c>
+      <c r="W233">
+        <v>1.59</v>
+      </c>
+      <c r="X233">
+        <v>2.24</v>
+      </c>
+      <c r="Y233">
+        <v>3.7</v>
+      </c>
+      <c r="Z233">
+        <v>1.24</v>
+      </c>
+      <c r="AA233">
+        <v>10.5</v>
+      </c>
+      <c r="AB233">
+        <v>1.02</v>
+      </c>
+      <c r="AC233">
+        <v>3.13</v>
+      </c>
+      <c r="AD233">
+        <v>1.62</v>
+      </c>
+      <c r="AE233">
+        <v>5.8</v>
+      </c>
+      <c r="AF233">
+        <v>1.11</v>
+      </c>
+      <c r="AG233">
+        <v>6.5</v>
+      </c>
+      <c r="AH233">
+        <v>1.52</v>
+      </c>
+      <c r="AI233">
+        <v>2.4</v>
+      </c>
+      <c r="AJ233">
+        <v>2.45</v>
+      </c>
+      <c r="AK233">
+        <v>1.52</v>
+      </c>
+      <c r="AL233">
+        <v>2.15</v>
+      </c>
+      <c r="AM233">
+        <v>1.65</v>
+      </c>
+      <c r="AN233">
+        <v>1.42</v>
+      </c>
+      <c r="AO233">
+        <v>1.33</v>
+      </c>
+      <c r="AP233">
+        <v>1.45</v>
+      </c>
+      <c r="AQ233">
+        <v>2.09</v>
+      </c>
+      <c r="AR233">
+        <v>1.27</v>
+      </c>
+      <c r="AS233">
+        <v>2.17</v>
+      </c>
+      <c r="AT233">
+        <v>1.17</v>
+      </c>
+      <c r="AU233">
+        <v>1.36</v>
+      </c>
+      <c r="AV233">
+        <v>1.2</v>
+      </c>
+      <c r="AW233">
+        <v>2.56</v>
+      </c>
+      <c r="AX233">
+        <v>1.95</v>
+      </c>
+      <c r="AY233">
+        <v>7</v>
+      </c>
+      <c r="AZ233">
+        <v>2.25</v>
+      </c>
+      <c r="BA233">
+        <v>1.16</v>
+      </c>
+      <c r="BB233">
+        <v>1.25</v>
+      </c>
+      <c r="BC233">
+        <v>1.46</v>
+      </c>
+      <c r="BD233">
+        <v>1.93</v>
+      </c>
+      <c r="BE233">
+        <v>2.3</v>
+      </c>
+      <c r="BF233">
+        <v>6</v>
+      </c>
+      <c r="BG233">
+        <v>5</v>
+      </c>
+      <c r="BH233">
+        <v>1</v>
+      </c>
+      <c r="BI233">
+        <v>8</v>
+      </c>
+      <c r="BJ233">
+        <v>7</v>
+      </c>
+      <c r="BK233">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,12 @@
     <t>['5', '10', '35']</t>
   </si>
   <si>
+    <t>['42', '54', '80', '90+9']</t>
+  </si>
+  <si>
+    <t>['23', '37', '74']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -929,6 +935,15 @@
   </si>
   <si>
     <t>['27']</t>
+  </si>
+  <si>
+    <t>['11', '71']</t>
+  </si>
+  <si>
+    <t>['16', '87']</t>
+  </si>
+  <si>
+    <t>['46', '55']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK233"/>
+  <dimension ref="A1:BK239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1549,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1812,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT3">
         <v>1.33</v>
@@ -2197,7 +2212,7 @@
         <v>1.83</v>
       </c>
       <c r="AT5">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2298,7 +2313,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2489,7 +2504,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2576,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT7">
         <v>1.33</v>
@@ -2770,7 +2785,7 @@
         <v>2.08</v>
       </c>
       <c r="AT8">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3152,7 +3167,7 @@
         <v>2.5</v>
       </c>
       <c r="AT10">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3343,7 +3358,7 @@
         <v>1.92</v>
       </c>
       <c r="AT11">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3534,7 +3549,7 @@
         <v>1.55</v>
       </c>
       <c r="AT12">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3635,7 +3650,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3725,7 +3740,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4104,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT15">
         <v>1.17</v>
@@ -4295,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT16">
         <v>1.67</v>
@@ -4399,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4486,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
         <v>1.17</v>
@@ -4781,7 +4796,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4868,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT19">
         <v>1.42</v>
@@ -5545,7 +5560,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5826,7 +5841,7 @@
         <v>1.08</v>
       </c>
       <c r="AT24">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU24">
         <v>2.3</v>
@@ -6017,7 +6032,7 @@
         <v>1.55</v>
       </c>
       <c r="AT25">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU25">
         <v>1.06</v>
@@ -6118,7 +6133,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6396,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT27">
         <v>1.17</v>
@@ -6500,7 +6515,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6587,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT28">
         <v>1.33</v>
@@ -6972,7 +6987,7 @@
         <v>1.17</v>
       </c>
       <c r="AT30">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU30">
         <v>1.68</v>
@@ -7163,7 +7178,7 @@
         <v>1.73</v>
       </c>
       <c r="AT31">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7545,7 +7560,7 @@
         <v>1.92</v>
       </c>
       <c r="AT33">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU33">
         <v>1.09</v>
@@ -7646,7 +7661,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7924,7 +7939,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT35">
         <v>1.17</v>
@@ -8115,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT36">
         <v>0.58</v>
@@ -8219,7 +8234,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8306,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT37">
         <v>1.42</v>
@@ -8410,7 +8425,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8792,7 +8807,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9556,7 +9571,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -10320,7 +10335,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10407,7 +10422,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT48">
         <v>1.42</v>
@@ -10511,7 +10526,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10601,7 +10616,7 @@
         <v>2.58</v>
       </c>
       <c r="AT49">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU49">
         <v>1.58</v>
@@ -10792,7 +10807,7 @@
         <v>2.08</v>
       </c>
       <c r="AT50">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.54</v>
@@ -10893,7 +10908,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10980,10 +10995,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT51">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU51">
         <v>2.21</v>
@@ -11084,7 +11099,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11171,7 +11186,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT52">
         <v>1.17</v>
@@ -11365,7 +11380,7 @@
         <v>2.17</v>
       </c>
       <c r="AT53">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU53">
         <v>1.28</v>
@@ -11553,10 +11568,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT54">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU54">
         <v>1.85</v>
@@ -11744,10 +11759,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -11938,7 +11953,7 @@
         <v>1.17</v>
       </c>
       <c r="AT56">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU56">
         <v>1.37</v>
@@ -12039,7 +12054,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12230,7 +12245,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12317,7 +12332,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT58">
         <v>1.33</v>
@@ -12421,7 +12436,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12508,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT59">
         <v>1.17</v>
@@ -12612,7 +12627,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -13376,7 +13391,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13463,7 +13478,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT64">
         <v>1.58</v>
@@ -13758,7 +13773,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13949,7 +13964,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14331,7 +14346,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14800,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT71">
         <v>0.91</v>
@@ -14991,10 +15006,10 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT72">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU72">
         <v>1.49</v>
@@ -15182,7 +15197,7 @@
         <v>1.67</v>
       </c>
       <c r="AS73">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT73">
         <v>1.17</v>
@@ -15567,7 +15582,7 @@
         <v>2.5</v>
       </c>
       <c r="AT75">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU75">
         <v>1.65</v>
@@ -15668,7 +15683,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15859,7 +15874,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15949,7 +15964,7 @@
         <v>2.17</v>
       </c>
       <c r="AT77">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU77">
         <v>1.18</v>
@@ -16331,7 +16346,7 @@
         <v>1.25</v>
       </c>
       <c r="AT79">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU79">
         <v>1.63</v>
@@ -16432,7 +16447,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16519,7 +16534,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT80">
         <v>0.42</v>
@@ -16623,7 +16638,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16814,7 +16829,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16901,7 +16916,7 @@
         <v>2.25</v>
       </c>
       <c r="AS82">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT82">
         <v>1.42</v>
@@ -17477,7 +17492,7 @@
         <v>1.83</v>
       </c>
       <c r="AT85">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU85">
         <v>1.57</v>
@@ -17578,7 +17593,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17665,7 +17680,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
         <v>1.58</v>
@@ -17769,7 +17784,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18241,7 +18256,7 @@
         <v>1.08</v>
       </c>
       <c r="AT89">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU89">
         <v>1.55</v>
@@ -18432,7 +18447,7 @@
         <v>1.55</v>
       </c>
       <c r="AT90">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU90">
         <v>1.57</v>
@@ -18620,10 +18635,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT91">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU91">
         <v>1.53</v>
@@ -19106,7 +19121,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19193,7 +19208,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT94">
         <v>0.91</v>
@@ -19387,7 +19402,7 @@
         <v>1.83</v>
       </c>
       <c r="AT95">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU95">
         <v>1.55</v>
@@ -19488,7 +19503,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19575,7 +19590,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT96">
         <v>1.58</v>
@@ -19769,7 +19784,7 @@
         <v>2.08</v>
       </c>
       <c r="AT97">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU97">
         <v>2.18</v>
@@ -19960,7 +19975,7 @@
         <v>2.17</v>
       </c>
       <c r="AT98">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU98">
         <v>1.38</v>
@@ -20061,7 +20076,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20634,7 +20649,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20825,7 +20840,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21016,7 +21031,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21294,7 +21309,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT105">
         <v>1.17</v>
@@ -22249,10 +22264,10 @@
         <v>0.8</v>
       </c>
       <c r="AS110">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT110">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU110">
         <v>1.35</v>
@@ -22631,7 +22646,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT112">
         <v>1.17</v>
@@ -22822,10 +22837,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT113">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU113">
         <v>1.99</v>
@@ -22926,7 +22941,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23013,10 +23028,10 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT114">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU114">
         <v>1.53</v>
@@ -23117,7 +23132,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23586,7 +23601,7 @@
         <v>1.4</v>
       </c>
       <c r="AS117">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT117">
         <v>1.33</v>
@@ -23780,7 +23795,7 @@
         <v>2.5</v>
       </c>
       <c r="AT118">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU118">
         <v>1.71</v>
@@ -23881,7 +23896,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23968,10 +23983,10 @@
         <v>0.2</v>
       </c>
       <c r="AS119">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT119">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU119">
         <v>1.64</v>
@@ -24263,7 +24278,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24735,7 +24750,7 @@
         <v>1.92</v>
       </c>
       <c r="AT123">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU123">
         <v>1.74</v>
@@ -24836,7 +24851,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -25114,7 +25129,7 @@
         <v>0.5</v>
       </c>
       <c r="AS125">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT125">
         <v>0.42</v>
@@ -25308,7 +25323,7 @@
         <v>1.08</v>
       </c>
       <c r="AT126">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU126">
         <v>1.55</v>
@@ -25409,7 +25424,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25600,7 +25615,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25791,7 +25806,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26173,7 +26188,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26454,7 +26469,7 @@
         <v>2.08</v>
       </c>
       <c r="AT132">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU132">
         <v>1.83</v>
@@ -26645,7 +26660,7 @@
         <v>2.08</v>
       </c>
       <c r="AT133">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU133">
         <v>1.98</v>
@@ -26833,7 +26848,7 @@
         <v>1.33</v>
       </c>
       <c r="AS134">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT134">
         <v>1.33</v>
@@ -27024,7 +27039,7 @@
         <v>0.57</v>
       </c>
       <c r="AS135">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT135">
         <v>0.91</v>
@@ -27128,7 +27143,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27215,7 +27230,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT136">
         <v>1.17</v>
@@ -27406,10 +27421,10 @@
         <v>0.33</v>
       </c>
       <c r="AS137">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT137">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU137">
         <v>1.35</v>
@@ -27600,7 +27615,7 @@
         <v>2.5</v>
       </c>
       <c r="AT138">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU138">
         <v>1.73</v>
@@ -27701,7 +27716,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27892,7 +27907,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28083,7 +28098,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28173,7 +28188,7 @@
         <v>1.08</v>
       </c>
       <c r="AT141">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU141">
         <v>1.83</v>
@@ -28465,7 +28480,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28555,7 +28570,7 @@
         <v>1.25</v>
       </c>
       <c r="AT143">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU143">
         <v>1.88</v>
@@ -28656,7 +28671,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28743,7 +28758,7 @@
         <v>0.29</v>
       </c>
       <c r="AS144">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT144">
         <v>0.58</v>
@@ -28847,7 +28862,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29125,7 +29140,7 @@
         <v>1.86</v>
       </c>
       <c r="AS146">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT146">
         <v>1.42</v>
@@ -30184,7 +30199,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30271,7 +30286,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT152">
         <v>1.17</v>
@@ -30462,7 +30477,7 @@
         <v>1.57</v>
       </c>
       <c r="AS153">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT153">
         <v>1.33</v>
@@ -30844,10 +30859,10 @@
         <v>1.71</v>
       </c>
       <c r="AS155">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT155">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU155">
         <v>1.31</v>
@@ -30948,7 +30963,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31035,10 +31050,10 @@
         <v>0.71</v>
       </c>
       <c r="AS156">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT156">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU156">
         <v>1.68</v>
@@ -31226,7 +31241,7 @@
         <v>1.5</v>
       </c>
       <c r="AS157">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT157">
         <v>1.67</v>
@@ -31420,7 +31435,7 @@
         <v>1.08</v>
       </c>
       <c r="AT158">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU158">
         <v>1.81</v>
@@ -31611,7 +31626,7 @@
         <v>1.08</v>
       </c>
       <c r="AT159">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU159">
         <v>1.57</v>
@@ -32094,7 +32109,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32754,7 +32769,7 @@
         <v>0.63</v>
       </c>
       <c r="AS165">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT165">
         <v>0.58</v>
@@ -33139,7 +33154,7 @@
         <v>1.5</v>
       </c>
       <c r="AT167">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU167">
         <v>1.63</v>
@@ -33712,7 +33727,7 @@
         <v>1.55</v>
       </c>
       <c r="AT170">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU170">
         <v>1.54</v>
@@ -33813,7 +33828,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33903,7 +33918,7 @@
         <v>1.08</v>
       </c>
       <c r="AT171">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU171">
         <v>1.82</v>
@@ -34386,7 +34401,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34664,7 +34679,7 @@
         <v>0.44</v>
       </c>
       <c r="AS175">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT175">
         <v>0.42</v>
@@ -34768,7 +34783,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -34855,7 +34870,7 @@
         <v>0.78</v>
       </c>
       <c r="AS176">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT176">
         <v>1.17</v>
@@ -35046,7 +35061,7 @@
         <v>1.56</v>
       </c>
       <c r="AS177">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT177">
         <v>1.42</v>
@@ -35237,10 +35252,10 @@
         <v>0.88</v>
       </c>
       <c r="AS178">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT178">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU178">
         <v>1.64</v>
@@ -35341,7 +35356,7 @@
         <v>196</v>
       </c>
       <c r="P179" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35622,7 +35637,7 @@
         <v>1.73</v>
       </c>
       <c r="AT180">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU180">
         <v>1.44</v>
@@ -35813,7 +35828,7 @@
         <v>1.83</v>
       </c>
       <c r="AT181">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU181">
         <v>1.83</v>
@@ -35914,7 +35929,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36105,7 +36120,7 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36296,7 +36311,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36383,7 +36398,7 @@
         <v>0.63</v>
       </c>
       <c r="AS184">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT184">
         <v>0.91</v>
@@ -36765,7 +36780,7 @@
         <v>1.67</v>
       </c>
       <c r="AS186">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT186">
         <v>1.33</v>
@@ -36869,7 +36884,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -37150,7 +37165,7 @@
         <v>2.5</v>
       </c>
       <c r="AT188">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU188">
         <v>1.7</v>
@@ -37251,7 +37266,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37442,7 +37457,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37529,7 +37544,7 @@
         <v>0.8</v>
       </c>
       <c r="AS190">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT190">
         <v>0.83</v>
@@ -37723,7 +37738,7 @@
         <v>2.58</v>
       </c>
       <c r="AT191">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU191">
         <v>1.59</v>
@@ -38015,7 +38030,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38206,7 +38221,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38293,7 +38308,7 @@
         <v>1</v>
       </c>
       <c r="AS194">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT194">
         <v>1.17</v>
@@ -38484,7 +38499,7 @@
         <v>0.4</v>
       </c>
       <c r="AS195">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT195">
         <v>0.42</v>
@@ -38588,7 +38603,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38678,7 +38693,7 @@
         <v>1.92</v>
       </c>
       <c r="AT196">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU196">
         <v>1.76</v>
@@ -38779,7 +38794,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -38869,7 +38884,7 @@
         <v>1.08</v>
       </c>
       <c r="AT197">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU197">
         <v>1.77</v>
@@ -39057,7 +39072,7 @@
         <v>1.4</v>
       </c>
       <c r="AS198">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT198">
         <v>1.42</v>
@@ -39161,7 +39176,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39352,7 +39367,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39734,7 +39749,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -40012,10 +40027,10 @@
         <v>0.78</v>
       </c>
       <c r="AS203">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT203">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU203">
         <v>1.43</v>
@@ -40206,7 +40221,7 @@
         <v>2.08</v>
       </c>
       <c r="AT204">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU204">
         <v>1.8</v>
@@ -40880,7 +40895,7 @@
         <v>127</v>
       </c>
       <c r="P208" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -40970,7 +40985,7 @@
         <v>1.17</v>
       </c>
       <c r="AT208">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU208">
         <v>1.17</v>
@@ -41158,7 +41173,7 @@
         <v>1.9</v>
       </c>
       <c r="AS209">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT209">
         <v>1.58</v>
@@ -41352,7 +41367,7 @@
         <v>1.83</v>
       </c>
       <c r="AT210">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU210">
         <v>1.76</v>
@@ -41540,10 +41555,10 @@
         <v>1.6</v>
       </c>
       <c r="AS211">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT211">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU211">
         <v>1.57</v>
@@ -41731,7 +41746,7 @@
         <v>1.18</v>
       </c>
       <c r="AS212">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT212">
         <v>1.17</v>
@@ -42307,7 +42322,7 @@
         <v>1.5</v>
       </c>
       <c r="AT215">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU215">
         <v>1.46</v>
@@ -42495,7 +42510,7 @@
         <v>0.64</v>
       </c>
       <c r="AS216">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT216">
         <v>0.58</v>
@@ -42599,7 +42614,7 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42686,7 +42701,7 @@
         <v>1.27</v>
       </c>
       <c r="AS217">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT217">
         <v>1.42</v>
@@ -42790,7 +42805,7 @@
         <v>217</v>
       </c>
       <c r="P218" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -42880,7 +42895,7 @@
         <v>1.92</v>
       </c>
       <c r="AT218">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU218">
         <v>1.75</v>
@@ -43172,7 +43187,7 @@
         <v>219</v>
       </c>
       <c r="P220" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43259,7 +43274,7 @@
         <v>1.4</v>
       </c>
       <c r="AS220">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT220">
         <v>1.17</v>
@@ -43835,7 +43850,7 @@
         <v>1.55</v>
       </c>
       <c r="AT223">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU223">
         <v>1.56</v>
@@ -43936,7 +43951,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44026,7 +44041,7 @@
         <v>1.25</v>
       </c>
       <c r="AT224">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU224">
         <v>1.76</v>
@@ -44891,7 +44906,7 @@
         <v>223</v>
       </c>
       <c r="P229" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -44978,7 +44993,7 @@
         <v>0.82</v>
       </c>
       <c r="AS229">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT229">
         <v>0.83</v>
@@ -45082,7 +45097,7 @@
         <v>100</v>
       </c>
       <c r="P230" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -45655,7 +45670,7 @@
         <v>226</v>
       </c>
       <c r="P233" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45797,6 +45812,1152 @@
       </c>
       <c r="BK233">
         <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>5414615</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45157.64583333334</v>
+      </c>
+      <c r="F234">
+        <v>24</v>
+      </c>
+      <c r="G234" t="s">
+        <v>78</v>
+      </c>
+      <c r="H234" t="s">
+        <v>77</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>4</v>
+      </c>
+      <c r="M234">
+        <v>2</v>
+      </c>
+      <c r="N234">
+        <v>6</v>
+      </c>
+      <c r="O234" t="s">
+        <v>227</v>
+      </c>
+      <c r="P234" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q234">
+        <v>4</v>
+      </c>
+      <c r="R234">
+        <v>11</v>
+      </c>
+      <c r="S234">
+        <v>15</v>
+      </c>
+      <c r="T234">
+        <v>2.7</v>
+      </c>
+      <c r="U234">
+        <v>1.95</v>
+      </c>
+      <c r="V234">
+        <v>4.5</v>
+      </c>
+      <c r="W234">
+        <v>1.56</v>
+      </c>
+      <c r="X234">
+        <v>2.29</v>
+      </c>
+      <c r="Y234">
+        <v>3.7</v>
+      </c>
+      <c r="Z234">
+        <v>1.24</v>
+      </c>
+      <c r="AA234">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB234">
+        <v>1.03</v>
+      </c>
+      <c r="AC234">
+        <v>1.92</v>
+      </c>
+      <c r="AD234">
+        <v>3.1</v>
+      </c>
+      <c r="AE234">
+        <v>3.97</v>
+      </c>
+      <c r="AF234">
+        <v>1.09</v>
+      </c>
+      <c r="AG234">
+        <v>7</v>
+      </c>
+      <c r="AH234">
+        <v>1.47</v>
+      </c>
+      <c r="AI234">
+        <v>2.5</v>
+      </c>
+      <c r="AJ234">
+        <v>2.5</v>
+      </c>
+      <c r="AK234">
+        <v>1.47</v>
+      </c>
+      <c r="AL234">
+        <v>2.2</v>
+      </c>
+      <c r="AM234">
+        <v>1.63</v>
+      </c>
+      <c r="AN234">
+        <v>1.18</v>
+      </c>
+      <c r="AO234">
+        <v>1.28</v>
+      </c>
+      <c r="AP234">
+        <v>1.83</v>
+      </c>
+      <c r="AQ234">
+        <v>1.09</v>
+      </c>
+      <c r="AR234">
+        <v>0.64</v>
+      </c>
+      <c r="AS234">
+        <v>1.25</v>
+      </c>
+      <c r="AT234">
+        <v>0.58</v>
+      </c>
+      <c r="AU234">
+        <v>1.51</v>
+      </c>
+      <c r="AV234">
+        <v>1.29</v>
+      </c>
+      <c r="AW234">
+        <v>2.8</v>
+      </c>
+      <c r="AX234">
+        <v>1.55</v>
+      </c>
+      <c r="AY234">
+        <v>7.5</v>
+      </c>
+      <c r="AZ234">
+        <v>3.1</v>
+      </c>
+      <c r="BA234">
+        <v>1.18</v>
+      </c>
+      <c r="BB234">
+        <v>1.22</v>
+      </c>
+      <c r="BC234">
+        <v>1.41</v>
+      </c>
+      <c r="BD234">
+        <v>1.71</v>
+      </c>
+      <c r="BE234">
+        <v>2.2</v>
+      </c>
+      <c r="BF234">
+        <v>6</v>
+      </c>
+      <c r="BG234">
+        <v>9</v>
+      </c>
+      <c r="BH234">
+        <v>5</v>
+      </c>
+      <c r="BI234">
+        <v>10</v>
+      </c>
+      <c r="BJ234">
+        <v>11</v>
+      </c>
+      <c r="BK234">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>5414622</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45157.70833333334</v>
+      </c>
+      <c r="F235">
+        <v>24</v>
+      </c>
+      <c r="G235" t="s">
+        <v>82</v>
+      </c>
+      <c r="H235" t="s">
+        <v>83</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>3</v>
+      </c>
+      <c r="O235" t="s">
+        <v>167</v>
+      </c>
+      <c r="P235" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q235">
+        <v>8</v>
+      </c>
+      <c r="R235">
+        <v>3</v>
+      </c>
+      <c r="S235">
+        <v>11</v>
+      </c>
+      <c r="T235">
+        <v>3.25</v>
+      </c>
+      <c r="U235">
+        <v>1.9</v>
+      </c>
+      <c r="V235">
+        <v>3.6</v>
+      </c>
+      <c r="W235">
+        <v>1.56</v>
+      </c>
+      <c r="X235">
+        <v>2.29</v>
+      </c>
+      <c r="Y235">
+        <v>3.7</v>
+      </c>
+      <c r="Z235">
+        <v>1.24</v>
+      </c>
+      <c r="AA235">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB235">
+        <v>1.03</v>
+      </c>
+      <c r="AC235">
+        <v>2.52</v>
+      </c>
+      <c r="AD235">
+        <v>2.9</v>
+      </c>
+      <c r="AE235">
+        <v>2.83</v>
+      </c>
+      <c r="AF235">
+        <v>1.09</v>
+      </c>
+      <c r="AG235">
+        <v>7</v>
+      </c>
+      <c r="AH235">
+        <v>1.5</v>
+      </c>
+      <c r="AI235">
+        <v>2.37</v>
+      </c>
+      <c r="AJ235">
+        <v>2.5</v>
+      </c>
+      <c r="AK235">
+        <v>1.47</v>
+      </c>
+      <c r="AL235">
+        <v>2.1</v>
+      </c>
+      <c r="AM235">
+        <v>1.68</v>
+      </c>
+      <c r="AN235">
+        <v>1.33</v>
+      </c>
+      <c r="AO235">
+        <v>1.3</v>
+      </c>
+      <c r="AP235">
+        <v>1.5</v>
+      </c>
+      <c r="AQ235">
+        <v>0.64</v>
+      </c>
+      <c r="AR235">
+        <v>0.91</v>
+      </c>
+      <c r="AS235">
+        <v>0.58</v>
+      </c>
+      <c r="AT235">
+        <v>1.08</v>
+      </c>
+      <c r="AU235">
+        <v>1.39</v>
+      </c>
+      <c r="AV235">
+        <v>1.24</v>
+      </c>
+      <c r="AW235">
+        <v>2.63</v>
+      </c>
+      <c r="AX235">
+        <v>1.7</v>
+      </c>
+      <c r="AY235">
+        <v>7</v>
+      </c>
+      <c r="AZ235">
+        <v>2.7</v>
+      </c>
+      <c r="BA235">
+        <v>1.23</v>
+      </c>
+      <c r="BB235">
+        <v>1.44</v>
+      </c>
+      <c r="BC235">
+        <v>1.8</v>
+      </c>
+      <c r="BD235">
+        <v>2.35</v>
+      </c>
+      <c r="BE235">
+        <v>3.25</v>
+      </c>
+      <c r="BF235">
+        <v>6</v>
+      </c>
+      <c r="BG235">
+        <v>6</v>
+      </c>
+      <c r="BH235">
+        <v>3</v>
+      </c>
+      <c r="BI235">
+        <v>5</v>
+      </c>
+      <c r="BJ235">
+        <v>9</v>
+      </c>
+      <c r="BK235">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>5414616</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45157.70833333334</v>
+      </c>
+      <c r="F236">
+        <v>24</v>
+      </c>
+      <c r="G236" t="s">
+        <v>66</v>
+      </c>
+      <c r="H236" t="s">
+        <v>71</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>3</v>
+      </c>
+      <c r="O236" t="s">
+        <v>228</v>
+      </c>
+      <c r="P236" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q236">
+        <v>10</v>
+      </c>
+      <c r="R236">
+        <v>1</v>
+      </c>
+      <c r="S236">
+        <v>11</v>
+      </c>
+      <c r="T236">
+        <v>3.3</v>
+      </c>
+      <c r="U236">
+        <v>1.87</v>
+      </c>
+      <c r="V236">
+        <v>3.6</v>
+      </c>
+      <c r="W236">
+        <v>1.59</v>
+      </c>
+      <c r="X236">
+        <v>2.24</v>
+      </c>
+      <c r="Y236">
+        <v>3.7</v>
+      </c>
+      <c r="Z236">
+        <v>1.24</v>
+      </c>
+      <c r="AA236">
+        <v>10.5</v>
+      </c>
+      <c r="AB236">
+        <v>1.02</v>
+      </c>
+      <c r="AC236">
+        <v>2.5</v>
+      </c>
+      <c r="AD236">
+        <v>2.9</v>
+      </c>
+      <c r="AE236">
+        <v>2.86</v>
+      </c>
+      <c r="AF236">
+        <v>1.11</v>
+      </c>
+      <c r="AG236">
+        <v>6.5</v>
+      </c>
+      <c r="AH236">
+        <v>1.5</v>
+      </c>
+      <c r="AI236">
+        <v>2.3</v>
+      </c>
+      <c r="AJ236">
+        <v>2.65</v>
+      </c>
+      <c r="AK236">
+        <v>1.42</v>
+      </c>
+      <c r="AL236">
+        <v>2.15</v>
+      </c>
+      <c r="AM236">
+        <v>1.65</v>
+      </c>
+      <c r="AN236">
+        <v>1.4</v>
+      </c>
+      <c r="AO236">
+        <v>1.3</v>
+      </c>
+      <c r="AP236">
+        <v>1.5</v>
+      </c>
+      <c r="AQ236">
+        <v>1.45</v>
+      </c>
+      <c r="AR236">
+        <v>1.45</v>
+      </c>
+      <c r="AS236">
+        <v>1.58</v>
+      </c>
+      <c r="AT236">
+        <v>1.33</v>
+      </c>
+      <c r="AU236">
+        <v>1.4</v>
+      </c>
+      <c r="AV236">
+        <v>1.13</v>
+      </c>
+      <c r="AW236">
+        <v>2.53</v>
+      </c>
+      <c r="AX236">
+        <v>1.7</v>
+      </c>
+      <c r="AY236">
+        <v>7</v>
+      </c>
+      <c r="AZ236">
+        <v>2.7</v>
+      </c>
+      <c r="BA236">
+        <v>1.18</v>
+      </c>
+      <c r="BB236">
+        <v>1.32</v>
+      </c>
+      <c r="BC236">
+        <v>1.57</v>
+      </c>
+      <c r="BD236">
+        <v>1.98</v>
+      </c>
+      <c r="BE236">
+        <v>2.65</v>
+      </c>
+      <c r="BF236">
+        <v>10</v>
+      </c>
+      <c r="BG236">
+        <v>3</v>
+      </c>
+      <c r="BH236">
+        <v>5</v>
+      </c>
+      <c r="BI236">
+        <v>5</v>
+      </c>
+      <c r="BJ236">
+        <v>15</v>
+      </c>
+      <c r="BK236">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>5414620</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45157.75</v>
+      </c>
+      <c r="F237">
+        <v>24</v>
+      </c>
+      <c r="G237" t="s">
+        <v>70</v>
+      </c>
+      <c r="H237" t="s">
+        <v>69</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237" t="s">
+        <v>100</v>
+      </c>
+      <c r="P237" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q237">
+        <v>10</v>
+      </c>
+      <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
+        <v>12</v>
+      </c>
+      <c r="T237">
+        <v>2.35</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
+        <v>5.5</v>
+      </c>
+      <c r="W237">
+        <v>1.52</v>
+      </c>
+      <c r="X237">
+        <v>2.39</v>
+      </c>
+      <c r="Y237">
+        <v>3.45</v>
+      </c>
+      <c r="Z237">
+        <v>1.27</v>
+      </c>
+      <c r="AA237">
+        <v>9.4</v>
+      </c>
+      <c r="AB237">
+        <v>1.03</v>
+      </c>
+      <c r="AC237">
+        <v>1.67</v>
+      </c>
+      <c r="AD237">
+        <v>3.4</v>
+      </c>
+      <c r="AE237">
+        <v>4.95</v>
+      </c>
+      <c r="AF237">
+        <v>1.1</v>
+      </c>
+      <c r="AG237">
+        <v>6</v>
+      </c>
+      <c r="AH237">
+        <v>1.48</v>
+      </c>
+      <c r="AI237">
+        <v>2.47</v>
+      </c>
+      <c r="AJ237">
+        <v>2.34</v>
+      </c>
+      <c r="AK237">
+        <v>1.53</v>
+      </c>
+      <c r="AL237">
+        <v>2.25</v>
+      </c>
+      <c r="AM237">
+        <v>1.6</v>
+      </c>
+      <c r="AN237">
+        <v>1.11</v>
+      </c>
+      <c r="AO237">
+        <v>1.25</v>
+      </c>
+      <c r="AP237">
+        <v>2.1</v>
+      </c>
+      <c r="AQ237">
+        <v>1.73</v>
+      </c>
+      <c r="AR237">
+        <v>0.82</v>
+      </c>
+      <c r="AS237">
+        <v>1.67</v>
+      </c>
+      <c r="AT237">
+        <v>0.83</v>
+      </c>
+      <c r="AU237">
+        <v>1.61</v>
+      </c>
+      <c r="AV237">
+        <v>1.21</v>
+      </c>
+      <c r="AW237">
+        <v>2.82</v>
+      </c>
+      <c r="AX237">
+        <v>1.55</v>
+      </c>
+      <c r="AY237">
+        <v>7</v>
+      </c>
+      <c r="AZ237">
+        <v>3.2</v>
+      </c>
+      <c r="BA237">
+        <v>1.21</v>
+      </c>
+      <c r="BB237">
+        <v>1.4</v>
+      </c>
+      <c r="BC237">
+        <v>1.71</v>
+      </c>
+      <c r="BD237">
+        <v>2.2</v>
+      </c>
+      <c r="BE237">
+        <v>3</v>
+      </c>
+      <c r="BF237">
+        <v>2</v>
+      </c>
+      <c r="BG237">
+        <v>0</v>
+      </c>
+      <c r="BH237">
+        <v>10</v>
+      </c>
+      <c r="BI237">
+        <v>2</v>
+      </c>
+      <c r="BJ237">
+        <v>12</v>
+      </c>
+      <c r="BK237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>5414617</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45158.65625</v>
+      </c>
+      <c r="F238">
+        <v>24</v>
+      </c>
+      <c r="G238" t="s">
+        <v>79</v>
+      </c>
+      <c r="H238" t="s">
+        <v>81</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238">
+        <v>3</v>
+      </c>
+      <c r="O238" t="s">
+        <v>134</v>
+      </c>
+      <c r="P238" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q238">
+        <v>11</v>
+      </c>
+      <c r="R238">
+        <v>3</v>
+      </c>
+      <c r="S238">
+        <v>14</v>
+      </c>
+      <c r="T238">
+        <v>2.2</v>
+      </c>
+      <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
+        <v>6.5</v>
+      </c>
+      <c r="W238">
+        <v>1.53</v>
+      </c>
+      <c r="X238">
+        <v>2.38</v>
+      </c>
+      <c r="Y238">
+        <v>3.5</v>
+      </c>
+      <c r="Z238">
+        <v>1.29</v>
+      </c>
+      <c r="AA238">
+        <v>8.5</v>
+      </c>
+      <c r="AB238">
+        <v>1.05</v>
+      </c>
+      <c r="AC238">
+        <v>1.49</v>
+      </c>
+      <c r="AD238">
+        <v>3.5</v>
+      </c>
+      <c r="AE238">
+        <v>5.79</v>
+      </c>
+      <c r="AF238">
+        <v>1.07</v>
+      </c>
+      <c r="AG238">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH238">
+        <v>1.42</v>
+      </c>
+      <c r="AI238">
+        <v>2.68</v>
+      </c>
+      <c r="AJ238">
+        <v>2.27</v>
+      </c>
+      <c r="AK238">
+        <v>1.52</v>
+      </c>
+      <c r="AL238">
+        <v>2.5</v>
+      </c>
+      <c r="AM238">
+        <v>1.5</v>
+      </c>
+      <c r="AN238">
+        <v>1.11</v>
+      </c>
+      <c r="AO238">
+        <v>1.22</v>
+      </c>
+      <c r="AP238">
+        <v>2.35</v>
+      </c>
+      <c r="AQ238">
+        <v>2.09</v>
+      </c>
+      <c r="AR238">
+        <v>0.6</v>
+      </c>
+      <c r="AS238">
+        <v>1.92</v>
+      </c>
+      <c r="AT238">
+        <v>0.82</v>
+      </c>
+      <c r="AU238">
+        <v>1.91</v>
+      </c>
+      <c r="AV238">
+        <v>1.3</v>
+      </c>
+      <c r="AW238">
+        <v>3.21</v>
+      </c>
+      <c r="AX238">
+        <v>1.33</v>
+      </c>
+      <c r="AY238">
+        <v>8.5</v>
+      </c>
+      <c r="AZ238">
+        <v>4.33</v>
+      </c>
+      <c r="BA238">
+        <v>1.13</v>
+      </c>
+      <c r="BB238">
+        <v>1.25</v>
+      </c>
+      <c r="BC238">
+        <v>1.46</v>
+      </c>
+      <c r="BD238">
+        <v>1.93</v>
+      </c>
+      <c r="BE238">
+        <v>2.35</v>
+      </c>
+      <c r="BF238">
+        <v>11</v>
+      </c>
+      <c r="BG238">
+        <v>4</v>
+      </c>
+      <c r="BH238">
+        <v>14</v>
+      </c>
+      <c r="BI238">
+        <v>8</v>
+      </c>
+      <c r="BJ238">
+        <v>25</v>
+      </c>
+      <c r="BK238">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>5414619</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45158.75</v>
+      </c>
+      <c r="F239">
+        <v>24</v>
+      </c>
+      <c r="G239" t="s">
+        <v>80</v>
+      </c>
+      <c r="H239" t="s">
+        <v>76</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
+        <v>151</v>
+      </c>
+      <c r="P239" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q239">
+        <v>4</v>
+      </c>
+      <c r="R239">
+        <v>5</v>
+      </c>
+      <c r="S239">
+        <v>9</v>
+      </c>
+      <c r="T239">
+        <v>2.3</v>
+      </c>
+      <c r="U239">
+        <v>2</v>
+      </c>
+      <c r="V239">
+        <v>5.5</v>
+      </c>
+      <c r="W239">
+        <v>1.5</v>
+      </c>
+      <c r="X239">
+        <v>2.5</v>
+      </c>
+      <c r="Y239">
+        <v>3.4</v>
+      </c>
+      <c r="Z239">
+        <v>1.3</v>
+      </c>
+      <c r="AA239">
+        <v>8</v>
+      </c>
+      <c r="AB239">
+        <v>1.06</v>
+      </c>
+      <c r="AC239">
+        <v>1.66</v>
+      </c>
+      <c r="AD239">
+        <v>3.21</v>
+      </c>
+      <c r="AE239">
+        <v>4.6</v>
+      </c>
+      <c r="AF239">
+        <v>1.1</v>
+      </c>
+      <c r="AG239">
+        <v>6.5</v>
+      </c>
+      <c r="AH239">
+        <v>1.44</v>
+      </c>
+      <c r="AI239">
+        <v>2.62</v>
+      </c>
+      <c r="AJ239">
+        <v>2.29</v>
+      </c>
+      <c r="AK239">
+        <v>1.55</v>
+      </c>
+      <c r="AL239">
+        <v>2.25</v>
+      </c>
+      <c r="AM239">
+        <v>1.57</v>
+      </c>
+      <c r="AN239">
+        <v>1.17</v>
+      </c>
+      <c r="AO239">
+        <v>1.24</v>
+      </c>
+      <c r="AP239">
+        <v>2.05</v>
+      </c>
+      <c r="AQ239">
+        <v>1.55</v>
+      </c>
+      <c r="AR239">
+        <v>0.82</v>
+      </c>
+      <c r="AS239">
+        <v>1.5</v>
+      </c>
+      <c r="AT239">
+        <v>0.83</v>
+      </c>
+      <c r="AU239">
+        <v>1.54</v>
+      </c>
+      <c r="AV239">
+        <v>1.17</v>
+      </c>
+      <c r="AW239">
+        <v>2.71</v>
+      </c>
+      <c r="AX239">
+        <v>1.33</v>
+      </c>
+      <c r="AY239">
+        <v>8.5</v>
+      </c>
+      <c r="AZ239">
+        <v>4.33</v>
+      </c>
+      <c r="BA239">
+        <v>1.13</v>
+      </c>
+      <c r="BB239">
+        <v>1.25</v>
+      </c>
+      <c r="BC239">
+        <v>1.46</v>
+      </c>
+      <c r="BD239">
+        <v>1.93</v>
+      </c>
+      <c r="BE239">
+        <v>2.35</v>
+      </c>
+      <c r="BF239">
+        <v>8</v>
+      </c>
+      <c r="BG239">
+        <v>5</v>
+      </c>
+      <c r="BH239">
+        <v>7</v>
+      </c>
+      <c r="BI239">
+        <v>6</v>
+      </c>
+      <c r="BJ239">
+        <v>15</v>
+      </c>
+      <c r="BK239">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,9 @@
     <t>['23', '37', '74']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -944,6 +947,12 @@
   </si>
   <si>
     <t>['46', '55']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['5', '45+9']</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK239"/>
+  <dimension ref="A1:BK243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1558,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1639,7 +1648,7 @@
         <v>2.17</v>
       </c>
       <c r="AT2">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2209,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT5">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2313,7 +2322,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2504,7 +2513,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2782,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT8">
         <v>0.58</v>
@@ -3546,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT12">
         <v>0.83</v>
@@ -3650,7 +3659,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4313,7 +4322,7 @@
         <v>1.92</v>
       </c>
       <c r="AT16">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4414,7 +4423,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4796,7 +4805,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5074,10 +5083,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT20">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU20">
         <v>1.44</v>
@@ -5560,7 +5569,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6029,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT25">
         <v>1.08</v>
@@ -6133,7 +6142,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6515,7 +6524,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6796,7 +6805,7 @@
         <v>2.08</v>
       </c>
       <c r="AT29">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU29">
         <v>1.54</v>
@@ -7175,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT31">
         <v>0.83</v>
@@ -7560,7 +7569,7 @@
         <v>1.92</v>
       </c>
       <c r="AT33">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>1.09</v>
@@ -7661,7 +7670,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7748,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT34">
         <v>1.58</v>
@@ -8234,7 +8243,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8324,7 +8333,7 @@
         <v>1.25</v>
       </c>
       <c r="AT37">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU37">
         <v>2.28</v>
@@ -8425,7 +8434,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8512,7 +8521,7 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT38">
         <v>1.42</v>
@@ -8703,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT39">
         <v>0.83</v>
@@ -8807,7 +8816,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8897,7 +8906,7 @@
         <v>1.08</v>
       </c>
       <c r="AT40">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU40">
         <v>1.98</v>
@@ -9085,10 +9094,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT41">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU41">
         <v>1.49</v>
@@ -9279,7 +9288,7 @@
         <v>1.25</v>
       </c>
       <c r="AT42">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU42">
         <v>1.61</v>
@@ -9467,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT43">
         <v>0.58</v>
@@ -9571,7 +9580,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -10335,7 +10344,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10526,7 +10535,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10908,7 +10917,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10998,7 +11007,7 @@
         <v>1.25</v>
       </c>
       <c r="AT51">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU51">
         <v>2.21</v>
@@ -11099,7 +11108,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -12054,7 +12063,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12245,7 +12254,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12436,7 +12445,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12627,7 +12636,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -12905,7 +12914,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT61">
         <v>1.42</v>
@@ -13099,7 +13108,7 @@
         <v>1.92</v>
       </c>
       <c r="AT62">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU62">
         <v>1.28</v>
@@ -13391,7 +13400,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13773,7 +13782,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13863,7 +13872,7 @@
         <v>1.08</v>
       </c>
       <c r="AT66">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU66">
         <v>1.64</v>
@@ -13964,7 +13973,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14051,7 +14060,7 @@
         <v>1.33</v>
       </c>
       <c r="AS67">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT67">
         <v>1.33</v>
@@ -14346,7 +14355,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14433,10 +14442,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT69">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU69">
         <v>1.55</v>
@@ -14624,7 +14633,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT70">
         <v>1.17</v>
@@ -14818,7 +14827,7 @@
         <v>1.92</v>
       </c>
       <c r="AT71">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU71">
         <v>2.1</v>
@@ -15683,7 +15692,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15874,7 +15883,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15964,7 +15973,7 @@
         <v>2.17</v>
       </c>
       <c r="AT77">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU77">
         <v>1.18</v>
@@ -16152,7 +16161,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT78">
         <v>1.17</v>
@@ -16447,7 +16456,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16638,7 +16647,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16725,10 +16734,10 @@
         <v>0.75</v>
       </c>
       <c r="AS81">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU81">
         <v>1.39</v>
@@ -16829,7 +16838,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17301,7 +17310,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU84">
         <v>1.75</v>
@@ -17489,7 +17498,7 @@
         <v>1.67</v>
       </c>
       <c r="AS85">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT85">
         <v>1.33</v>
@@ -17593,7 +17602,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17784,7 +17793,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18444,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT90">
         <v>0.58</v>
@@ -18638,7 +18647,7 @@
         <v>1.5</v>
       </c>
       <c r="AT91">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU91">
         <v>1.53</v>
@@ -18826,7 +18835,7 @@
         <v>1.25</v>
       </c>
       <c r="AS92">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT92">
         <v>1.17</v>
@@ -19121,7 +19130,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19211,7 +19220,7 @@
         <v>1.67</v>
       </c>
       <c r="AT94">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU94">
         <v>1.65</v>
@@ -19399,7 +19408,7 @@
         <v>0.5</v>
       </c>
       <c r="AS95">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT95">
         <v>0.83</v>
@@ -19503,7 +19512,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -20076,7 +20085,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20357,7 +20366,7 @@
         <v>1.08</v>
       </c>
       <c r="AT100">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU100">
         <v>1.6</v>
@@ -20649,7 +20658,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20840,7 +20849,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21031,7 +21040,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21118,7 +21127,7 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT104">
         <v>0.83</v>
@@ -21503,7 +21512,7 @@
         <v>2.58</v>
       </c>
       <c r="AT106">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU106">
         <v>1.84</v>
@@ -21882,7 +21891,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT108">
         <v>1.17</v>
@@ -22073,10 +22082,10 @@
         <v>1.2</v>
       </c>
       <c r="AS109">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT109">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU109">
         <v>1.88</v>
@@ -22267,7 +22276,7 @@
         <v>0.58</v>
       </c>
       <c r="AT110">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>1.35</v>
@@ -22941,7 +22950,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23132,7 +23141,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23896,7 +23905,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24177,7 +24186,7 @@
         <v>2.58</v>
       </c>
       <c r="AT120">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24278,7 +24287,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24365,7 +24374,7 @@
         <v>0.5</v>
       </c>
       <c r="AS121">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT121">
         <v>0.83</v>
@@ -24559,7 +24568,7 @@
         <v>2.58</v>
       </c>
       <c r="AT122">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU122">
         <v>1.62</v>
@@ -24851,7 +24860,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24938,10 +24947,10 @@
         <v>1.67</v>
       </c>
       <c r="AS124">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT124">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU124">
         <v>1.49</v>
@@ -25424,7 +25433,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25615,7 +25624,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25702,7 +25711,7 @@
         <v>0.33</v>
       </c>
       <c r="AS128">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT128">
         <v>0.58</v>
@@ -25806,7 +25815,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26188,7 +26197,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26466,7 +26475,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT132">
         <v>1.08</v>
@@ -27042,7 +27051,7 @@
         <v>1.5</v>
       </c>
       <c r="AT135">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU135">
         <v>1.57</v>
@@ -27143,7 +27152,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27716,7 +27725,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27907,7 +27916,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27997,7 +28006,7 @@
         <v>1.17</v>
       </c>
       <c r="AT140">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU140">
         <v>1.33</v>
@@ -28098,7 +28107,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28188,7 +28197,7 @@
         <v>1.08</v>
       </c>
       <c r="AT141">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU141">
         <v>1.83</v>
@@ -28379,7 +28388,7 @@
         <v>1.92</v>
       </c>
       <c r="AT142">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU142">
         <v>1.84</v>
@@ -28480,7 +28489,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28671,7 +28680,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28862,7 +28871,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28949,7 +28958,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT145">
         <v>0.42</v>
@@ -29713,7 +29722,7 @@
         <v>0.57</v>
       </c>
       <c r="AS149">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT149">
         <v>0.83</v>
@@ -29904,7 +29913,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT150">
         <v>1.17</v>
@@ -30095,7 +30104,7 @@
         <v>1.17</v>
       </c>
       <c r="AS151">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT151">
         <v>1.17</v>
@@ -30199,7 +30208,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30963,7 +30972,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31244,7 +31253,7 @@
         <v>1.58</v>
       </c>
       <c r="AT157">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU157">
         <v>1.4</v>
@@ -32109,7 +32118,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32196,7 +32205,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT162">
         <v>1.17</v>
@@ -32963,7 +32972,7 @@
         <v>1.17</v>
       </c>
       <c r="AT166">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU166">
         <v>1.3</v>
@@ -33342,7 +33351,7 @@
         <v>1.75</v>
       </c>
       <c r="AS168">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT168">
         <v>1.33</v>
@@ -33724,7 +33733,7 @@
         <v>1.88</v>
       </c>
       <c r="AS170">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT170">
         <v>1.33</v>
@@ -33828,7 +33837,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34300,7 +34309,7 @@
         <v>1.5</v>
       </c>
       <c r="AT173">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU173">
         <v>1.59</v>
@@ -34401,7 +34410,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34783,7 +34792,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35064,7 +35073,7 @@
         <v>1.5</v>
       </c>
       <c r="AT177">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU177">
         <v>1.56</v>
@@ -35356,7 +35365,7 @@
         <v>196</v>
       </c>
       <c r="P179" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35634,7 +35643,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT180">
         <v>0.83</v>
@@ -35825,7 +35834,7 @@
         <v>0.88</v>
       </c>
       <c r="AS181">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT181">
         <v>0.58</v>
@@ -35929,7 +35938,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36120,7 +36129,7 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36207,7 +36216,7 @@
         <v>1.78</v>
       </c>
       <c r="AS183">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT183">
         <v>1.58</v>
@@ -36311,7 +36320,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36401,7 +36410,7 @@
         <v>1.58</v>
       </c>
       <c r="AT184">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU184">
         <v>1.38</v>
@@ -36884,7 +36893,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -37165,7 +37174,7 @@
         <v>2.5</v>
       </c>
       <c r="AT188">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU188">
         <v>1.7</v>
@@ -37266,7 +37275,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37457,7 +37466,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -38030,7 +38039,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38117,10 +38126,10 @@
         <v>1.4</v>
       </c>
       <c r="AS193">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT193">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU193">
         <v>1.55</v>
@@ -38221,7 +38230,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38603,7 +38612,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38794,7 +38803,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39075,7 +39084,7 @@
         <v>1.92</v>
       </c>
       <c r="AT198">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU198">
         <v>2.01</v>
@@ -39176,7 +39185,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39367,7 +39376,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39454,10 +39463,10 @@
         <v>0.89</v>
       </c>
       <c r="AS200">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT200">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU200">
         <v>1.79</v>
@@ -39749,7 +39758,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39836,7 +39845,7 @@
         <v>0.89</v>
       </c>
       <c r="AS202">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT202">
         <v>1.17</v>
@@ -40218,7 +40227,7 @@
         <v>0.89</v>
       </c>
       <c r="AS204">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT204">
         <v>0.83</v>
@@ -40895,7 +40904,7 @@
         <v>127</v>
       </c>
       <c r="P208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -40985,7 +40994,7 @@
         <v>1.17</v>
       </c>
       <c r="AT208">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU208">
         <v>1.17</v>
@@ -41364,7 +41373,7 @@
         <v>0.8</v>
       </c>
       <c r="AS210">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT210">
         <v>0.83</v>
@@ -41937,7 +41946,7 @@
         <v>1.5</v>
       </c>
       <c r="AS213">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT213">
         <v>1.33</v>
@@ -42322,7 +42331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT215">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU215">
         <v>1.46</v>
@@ -42614,7 +42623,7 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42704,7 +42713,7 @@
         <v>1.67</v>
       </c>
       <c r="AT217">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU217">
         <v>1.64</v>
@@ -42805,7 +42814,7 @@
         <v>217</v>
       </c>
       <c r="P218" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43187,7 +43196,7 @@
         <v>219</v>
       </c>
       <c r="P220" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43656,7 +43665,7 @@
         <v>0.45</v>
       </c>
       <c r="AS222">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT222">
         <v>0.42</v>
@@ -43847,7 +43856,7 @@
         <v>0.8</v>
       </c>
       <c r="AS223">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT223">
         <v>0.83</v>
@@ -43951,7 +43960,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44232,7 +44241,7 @@
         <v>2.08</v>
       </c>
       <c r="AT225">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU225">
         <v>1.88</v>
@@ -44614,7 +44623,7 @@
         <v>2.17</v>
       </c>
       <c r="AT227">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU227">
         <v>1.37</v>
@@ -44906,7 +44915,7 @@
         <v>223</v>
       </c>
       <c r="P229" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45097,7 +45106,7 @@
         <v>100</v>
       </c>
       <c r="P230" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -45670,7 +45679,7 @@
         <v>226</v>
       </c>
       <c r="P233" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45861,7 +45870,7 @@
         <v>227</v>
       </c>
       <c r="P234" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46052,7 +46061,7 @@
         <v>167</v>
       </c>
       <c r="P235" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46625,7 +46634,7 @@
         <v>134</v>
       </c>
       <c r="P238" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q238">
         <v>11</v>
@@ -46715,7 +46724,7 @@
         <v>1.92</v>
       </c>
       <c r="AT238">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU238">
         <v>1.91</v>
@@ -46958,6 +46967,770 @@
       </c>
       <c r="BK239">
         <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>5414627</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45160.79166666666</v>
+      </c>
+      <c r="F240">
+        <v>25</v>
+      </c>
+      <c r="G240" t="s">
+        <v>68</v>
+      </c>
+      <c r="H240" t="s">
+        <v>70</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240" t="s">
+        <v>100</v>
+      </c>
+      <c r="P240" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q240">
+        <v>5</v>
+      </c>
+      <c r="R240">
+        <v>5</v>
+      </c>
+      <c r="S240">
+        <v>10</v>
+      </c>
+      <c r="T240">
+        <v>2.9</v>
+      </c>
+      <c r="U240">
+        <v>1.85</v>
+      </c>
+      <c r="V240">
+        <v>4.2</v>
+      </c>
+      <c r="W240">
+        <v>1.58</v>
+      </c>
+      <c r="X240">
+        <v>2.2</v>
+      </c>
+      <c r="Y240">
+        <v>3.75</v>
+      </c>
+      <c r="Z240">
+        <v>1.23</v>
+      </c>
+      <c r="AA240">
+        <v>11</v>
+      </c>
+      <c r="AB240">
+        <v>1.04</v>
+      </c>
+      <c r="AC240">
+        <v>2</v>
+      </c>
+      <c r="AD240">
+        <v>3</v>
+      </c>
+      <c r="AE240">
+        <v>3.9</v>
+      </c>
+      <c r="AF240">
+        <v>1.12</v>
+      </c>
+      <c r="AG240">
+        <v>5.5</v>
+      </c>
+      <c r="AH240">
+        <v>1.61</v>
+      </c>
+      <c r="AI240">
+        <v>2.33</v>
+      </c>
+      <c r="AJ240">
+        <v>2.55</v>
+      </c>
+      <c r="AK240">
+        <v>1.45</v>
+      </c>
+      <c r="AL240">
+        <v>2.2</v>
+      </c>
+      <c r="AM240">
+        <v>1.58</v>
+      </c>
+      <c r="AN240">
+        <v>1.28</v>
+      </c>
+      <c r="AO240">
+        <v>1.36</v>
+      </c>
+      <c r="AP240">
+        <v>1.65</v>
+      </c>
+      <c r="AQ240">
+        <v>1.83</v>
+      </c>
+      <c r="AR240">
+        <v>1.67</v>
+      </c>
+      <c r="AS240">
+        <v>1.69</v>
+      </c>
+      <c r="AT240">
+        <v>1.77</v>
+      </c>
+      <c r="AU240">
+        <v>1.7</v>
+      </c>
+      <c r="AV240">
+        <v>1.26</v>
+      </c>
+      <c r="AW240">
+        <v>2.96</v>
+      </c>
+      <c r="AX240">
+        <v>1.5</v>
+      </c>
+      <c r="AY240">
+        <v>7.5</v>
+      </c>
+      <c r="AZ240">
+        <v>3.3</v>
+      </c>
+      <c r="BA240">
+        <v>1.21</v>
+      </c>
+      <c r="BB240">
+        <v>1.5</v>
+      </c>
+      <c r="BC240">
+        <v>1.75</v>
+      </c>
+      <c r="BD240">
+        <v>2</v>
+      </c>
+      <c r="BE240">
+        <v>2.88</v>
+      </c>
+      <c r="BF240">
+        <v>2</v>
+      </c>
+      <c r="BG240">
+        <v>2</v>
+      </c>
+      <c r="BH240">
+        <v>4</v>
+      </c>
+      <c r="BI240">
+        <v>2</v>
+      </c>
+      <c r="BJ240">
+        <v>6</v>
+      </c>
+      <c r="BK240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>5414625</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45160.89583333334</v>
+      </c>
+      <c r="F241">
+        <v>25</v>
+      </c>
+      <c r="G241" t="s">
+        <v>71</v>
+      </c>
+      <c r="H241" t="s">
+        <v>67</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>1</v>
+      </c>
+      <c r="O241" t="s">
+        <v>202</v>
+      </c>
+      <c r="P241" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q241">
+        <v>5</v>
+      </c>
+      <c r="R241">
+        <v>2</v>
+      </c>
+      <c r="S241">
+        <v>7</v>
+      </c>
+      <c r="T241">
+        <v>2.95</v>
+      </c>
+      <c r="U241">
+        <v>1.83</v>
+      </c>
+      <c r="V241">
+        <v>4.2</v>
+      </c>
+      <c r="W241">
+        <v>1.6</v>
+      </c>
+      <c r="X241">
+        <v>2.15</v>
+      </c>
+      <c r="Y241">
+        <v>3.8</v>
+      </c>
+      <c r="Z241">
+        <v>1.23</v>
+      </c>
+      <c r="AA241">
+        <v>11.5</v>
+      </c>
+      <c r="AB241">
+        <v>1.04</v>
+      </c>
+      <c r="AC241">
+        <v>2.35</v>
+      </c>
+      <c r="AD241">
+        <v>2.8</v>
+      </c>
+      <c r="AE241">
+        <v>3.35</v>
+      </c>
+      <c r="AF241">
+        <v>1.12</v>
+      </c>
+      <c r="AG241">
+        <v>6</v>
+      </c>
+      <c r="AH241">
+        <v>1.55</v>
+      </c>
+      <c r="AI241">
+        <v>2.45</v>
+      </c>
+      <c r="AJ241">
+        <v>2.6</v>
+      </c>
+      <c r="AK241">
+        <v>1.44</v>
+      </c>
+      <c r="AL241">
+        <v>2.25</v>
+      </c>
+      <c r="AM241">
+        <v>1.57</v>
+      </c>
+      <c r="AN241">
+        <v>1.29</v>
+      </c>
+      <c r="AO241">
+        <v>1.37</v>
+      </c>
+      <c r="AP241">
+        <v>1.62</v>
+      </c>
+      <c r="AQ241">
+        <v>2.08</v>
+      </c>
+      <c r="AR241">
+        <v>1.42</v>
+      </c>
+      <c r="AS241">
+        <v>2.15</v>
+      </c>
+      <c r="AT241">
+        <v>1.31</v>
+      </c>
+      <c r="AU241">
+        <v>1.79</v>
+      </c>
+      <c r="AV241">
+        <v>1.56</v>
+      </c>
+      <c r="AW241">
+        <v>3.35</v>
+      </c>
+      <c r="AX241">
+        <v>1.8</v>
+      </c>
+      <c r="AY241">
+        <v>7</v>
+      </c>
+      <c r="AZ241">
+        <v>2.5</v>
+      </c>
+      <c r="BA241">
+        <v>1.14</v>
+      </c>
+      <c r="BB241">
+        <v>1.26</v>
+      </c>
+      <c r="BC241">
+        <v>1.54</v>
+      </c>
+      <c r="BD241">
+        <v>1.95</v>
+      </c>
+      <c r="BE241">
+        <v>2.26</v>
+      </c>
+      <c r="BF241">
+        <v>2</v>
+      </c>
+      <c r="BG241">
+        <v>7</v>
+      </c>
+      <c r="BH241">
+        <v>3</v>
+      </c>
+      <c r="BI241">
+        <v>4</v>
+      </c>
+      <c r="BJ241">
+        <v>5</v>
+      </c>
+      <c r="BK241">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>5414552</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45161.79166666666</v>
+      </c>
+      <c r="F242">
+        <v>17</v>
+      </c>
+      <c r="G242" t="s">
+        <v>83</v>
+      </c>
+      <c r="H242" t="s">
+        <v>78</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>2</v>
+      </c>
+      <c r="O242" t="s">
+        <v>229</v>
+      </c>
+      <c r="P242" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q242">
+        <v>3</v>
+      </c>
+      <c r="R242">
+        <v>5</v>
+      </c>
+      <c r="S242">
+        <v>8</v>
+      </c>
+      <c r="T242">
+        <v>2.45</v>
+      </c>
+      <c r="U242">
+        <v>1.98</v>
+      </c>
+      <c r="V242">
+        <v>4.75</v>
+      </c>
+      <c r="W242">
+        <v>1.47</v>
+      </c>
+      <c r="X242">
+        <v>2.45</v>
+      </c>
+      <c r="Y242">
+        <v>3.25</v>
+      </c>
+      <c r="Z242">
+        <v>1.3</v>
+      </c>
+      <c r="AA242">
+        <v>9</v>
+      </c>
+      <c r="AB242">
+        <v>1.06</v>
+      </c>
+      <c r="AC242">
+        <v>2.07</v>
+      </c>
+      <c r="AD242">
+        <v>3.1</v>
+      </c>
+      <c r="AE242">
+        <v>3.75</v>
+      </c>
+      <c r="AF242">
+        <v>1.1</v>
+      </c>
+      <c r="AG242">
+        <v>6.5</v>
+      </c>
+      <c r="AH242">
+        <v>1.48</v>
+      </c>
+      <c r="AI242">
+        <v>2.48</v>
+      </c>
+      <c r="AJ242">
+        <v>2.45</v>
+      </c>
+      <c r="AK242">
+        <v>1.48</v>
+      </c>
+      <c r="AL242">
+        <v>2.1</v>
+      </c>
+      <c r="AM242">
+        <v>1.63</v>
+      </c>
+      <c r="AN242">
+        <v>1.2</v>
+      </c>
+      <c r="AO242">
+        <v>1.3</v>
+      </c>
+      <c r="AP242">
+        <v>1.93</v>
+      </c>
+      <c r="AQ242">
+        <v>1.73</v>
+      </c>
+      <c r="AR242">
+        <v>0.91</v>
+      </c>
+      <c r="AS242">
+        <v>1.67</v>
+      </c>
+      <c r="AT242">
+        <v>0.92</v>
+      </c>
+      <c r="AU242">
+        <v>1.48</v>
+      </c>
+      <c r="AV242">
+        <v>1.06</v>
+      </c>
+      <c r="AW242">
+        <v>2.54</v>
+      </c>
+      <c r="AX242">
+        <v>1.7</v>
+      </c>
+      <c r="AY242">
+        <v>7</v>
+      </c>
+      <c r="AZ242">
+        <v>2.7</v>
+      </c>
+      <c r="BA242">
+        <v>1.17</v>
+      </c>
+      <c r="BB242">
+        <v>1.3</v>
+      </c>
+      <c r="BC242">
+        <v>1.63</v>
+      </c>
+      <c r="BD242">
+        <v>1.97</v>
+      </c>
+      <c r="BE242">
+        <v>2.45</v>
+      </c>
+      <c r="BF242">
+        <v>5</v>
+      </c>
+      <c r="BG242">
+        <v>3</v>
+      </c>
+      <c r="BH242">
+        <v>8</v>
+      </c>
+      <c r="BI242">
+        <v>5</v>
+      </c>
+      <c r="BJ242">
+        <v>13</v>
+      </c>
+      <c r="BK242">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>5414546</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45161.89583333334</v>
+      </c>
+      <c r="F243">
+        <v>17</v>
+      </c>
+      <c r="G243" t="s">
+        <v>75</v>
+      </c>
+      <c r="H243" t="s">
+        <v>81</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>2</v>
+      </c>
+      <c r="K243">
+        <v>2</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
+        <v>3</v>
+      </c>
+      <c r="O243" t="s">
+        <v>143</v>
+      </c>
+      <c r="P243" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q243">
+        <v>6</v>
+      </c>
+      <c r="R243">
+        <v>3</v>
+      </c>
+      <c r="S243">
+        <v>9</v>
+      </c>
+      <c r="T243">
+        <v>2.85</v>
+      </c>
+      <c r="U243">
+        <v>1.88</v>
+      </c>
+      <c r="V243">
+        <v>4.2</v>
+      </c>
+      <c r="W243">
+        <v>1.55</v>
+      </c>
+      <c r="X243">
+        <v>2.3</v>
+      </c>
+      <c r="Y243">
+        <v>3.5</v>
+      </c>
+      <c r="Z243">
+        <v>1.26</v>
+      </c>
+      <c r="AA243">
+        <v>10</v>
+      </c>
+      <c r="AB243">
+        <v>1.05</v>
+      </c>
+      <c r="AC243">
+        <v>2.1</v>
+      </c>
+      <c r="AD243">
+        <v>3</v>
+      </c>
+      <c r="AE243">
+        <v>3.85</v>
+      </c>
+      <c r="AF243">
+        <v>1.09</v>
+      </c>
+      <c r="AG243">
+        <v>7</v>
+      </c>
+      <c r="AH243">
+        <v>1.53</v>
+      </c>
+      <c r="AI243">
+        <v>2.35</v>
+      </c>
+      <c r="AJ243">
+        <v>2.75</v>
+      </c>
+      <c r="AK243">
+        <v>1.4</v>
+      </c>
+      <c r="AL243">
+        <v>2.15</v>
+      </c>
+      <c r="AM243">
+        <v>1.61</v>
+      </c>
+      <c r="AN243">
+        <v>1.27</v>
+      </c>
+      <c r="AO243">
+        <v>1.36</v>
+      </c>
+      <c r="AP243">
+        <v>1.66</v>
+      </c>
+      <c r="AQ243">
+        <v>1.55</v>
+      </c>
+      <c r="AR243">
+        <v>0.82</v>
+      </c>
+      <c r="AS243">
+        <v>1.42</v>
+      </c>
+      <c r="AT243">
+        <v>1</v>
+      </c>
+      <c r="AU243">
+        <v>1.52</v>
+      </c>
+      <c r="AV243">
+        <v>1.3</v>
+      </c>
+      <c r="AW243">
+        <v>2.82</v>
+      </c>
+      <c r="AX243">
+        <v>1.62</v>
+      </c>
+      <c r="AY243">
+        <v>7.5</v>
+      </c>
+      <c r="AZ243">
+        <v>2.88</v>
+      </c>
+      <c r="BA243">
+        <v>1.18</v>
+      </c>
+      <c r="BB243">
+        <v>1.31</v>
+      </c>
+      <c r="BC243">
+        <v>1.65</v>
+      </c>
+      <c r="BD243">
+        <v>2.01</v>
+      </c>
+      <c r="BE243">
+        <v>2.4</v>
+      </c>
+      <c r="BF243">
+        <v>5</v>
+      </c>
+      <c r="BG243">
+        <v>5</v>
+      </c>
+      <c r="BH243">
+        <v>4</v>
+      </c>
+      <c r="BI243">
+        <v>4</v>
+      </c>
+      <c r="BJ243">
+        <v>9</v>
+      </c>
+      <c r="BK243">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,18 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['84', '90+5']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -743,9 +755,6 @@
   </si>
   <si>
     <t>['39']</t>
-  </si>
-  <si>
-    <t>['3']</t>
   </si>
   <si>
     <t>['49', '62']</t>
@@ -953,6 +962,12 @@
   </si>
   <si>
     <t>['5', '45+9']</t>
+  </si>
+  <si>
+    <t>['1', '6']</t>
+  </si>
+  <si>
+    <t>['3', '10']</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK243"/>
+  <dimension ref="A1:BK248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1573,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1839,7 +1854,7 @@
         <v>1.58</v>
       </c>
       <c r="AT3">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2030,7 +2045,7 @@
         <v>2.08</v>
       </c>
       <c r="AT4">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2322,7 +2337,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2409,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT6">
         <v>1.17</v>
@@ -2513,7 +2528,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -3659,7 +3674,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3746,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT13">
         <v>1.33</v>
@@ -3940,7 +3955,7 @@
         <v>1.08</v>
       </c>
       <c r="AT14">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4423,7 +4438,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4513,7 +4528,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4704,7 +4719,7 @@
         <v>1.08</v>
       </c>
       <c r="AT18">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4805,7 +4820,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5277,7 +5292,7 @@
         <v>2.5</v>
       </c>
       <c r="AT21">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU21">
         <v>1.71</v>
@@ -5468,7 +5483,7 @@
         <v>2.17</v>
       </c>
       <c r="AT22">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>1.42</v>
@@ -5569,7 +5584,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5656,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT23">
         <v>1.17</v>
@@ -6142,7 +6157,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6524,7 +6539,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6614,7 +6629,7 @@
         <v>0.58</v>
       </c>
       <c r="AT28">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU28">
         <v>0.93</v>
@@ -7184,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT31">
         <v>0.83</v>
@@ -7375,7 +7390,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT32">
         <v>1.33</v>
@@ -7670,7 +7685,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7760,7 +7775,7 @@
         <v>1.69</v>
       </c>
       <c r="AT34">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU34">
         <v>1.82</v>
@@ -7951,7 +7966,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU35">
         <v>1.56</v>
@@ -8243,7 +8258,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8434,7 +8449,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8715,7 +8730,7 @@
         <v>2.15</v>
       </c>
       <c r="AT39">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.29</v>
@@ -8816,7 +8831,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9285,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT42">
         <v>1.77</v>
@@ -9476,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT43">
         <v>0.58</v>
@@ -9580,7 +9595,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9670,7 +9685,7 @@
         <v>1.08</v>
       </c>
       <c r="AT44">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU44">
         <v>1.86</v>
@@ -9858,10 +9873,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT45">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU45">
         <v>1.72</v>
@@ -10049,10 +10064,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT46">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10243,7 +10258,7 @@
         <v>1.92</v>
       </c>
       <c r="AT47">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU47">
         <v>1.35</v>
@@ -10344,7 +10359,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10535,7 +10550,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10622,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT49">
         <v>0.58</v>
@@ -10917,7 +10932,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11108,7 +11123,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -12063,7 +12078,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12254,7 +12269,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12445,7 +12460,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12636,7 +12651,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -12726,7 +12741,7 @@
         <v>1.08</v>
       </c>
       <c r="AT60">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU60">
         <v>1.93</v>
@@ -13296,7 +13311,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT63">
         <v>1.33</v>
@@ -13400,7 +13415,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13490,7 +13505,7 @@
         <v>1.58</v>
       </c>
       <c r="AT64">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU64">
         <v>1.47</v>
@@ -13678,7 +13693,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT65">
         <v>0.58</v>
@@ -13782,7 +13797,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13973,7 +13988,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14063,7 +14078,7 @@
         <v>2.15</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU67">
         <v>1.51</v>
@@ -14251,10 +14266,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT68">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU68">
         <v>1.83</v>
@@ -14355,7 +14370,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14442,7 +14457,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT69">
         <v>1.31</v>
@@ -15400,7 +15415,7 @@
         <v>2.08</v>
       </c>
       <c r="AT74">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>2.16</v>
@@ -15692,7 +15707,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15782,7 +15797,7 @@
         <v>1.17</v>
       </c>
       <c r="AT76">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU76">
         <v>1.52</v>
@@ -15883,7 +15898,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16352,7 +16367,7 @@
         <v>0.33</v>
       </c>
       <c r="AS79">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT79">
         <v>0.83</v>
@@ -16456,7 +16471,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16546,7 +16561,7 @@
         <v>1.58</v>
       </c>
       <c r="AT80">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU80">
         <v>1.4</v>
@@ -16647,7 +16662,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16734,7 +16749,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT81">
         <v>1.77</v>
@@ -16838,7 +16853,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17307,7 +17322,7 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT84">
         <v>1.31</v>
@@ -17602,7 +17617,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17692,7 +17707,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU86">
         <v>1.55</v>
@@ -17793,7 +17808,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17880,7 +17895,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT87">
         <v>0.58</v>
@@ -18074,7 +18089,7 @@
         <v>1.08</v>
       </c>
       <c r="AT88">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU88">
         <v>2.06</v>
@@ -19029,7 +19044,7 @@
         <v>2.5</v>
       </c>
       <c r="AT93">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>1.75</v>
@@ -19130,7 +19145,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19512,7 +19527,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19602,7 +19617,7 @@
         <v>0.58</v>
       </c>
       <c r="AT96">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -20085,7 +20100,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20554,7 +20569,7 @@
         <v>0.2</v>
       </c>
       <c r="AS101">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT101">
         <v>0.58</v>
@@ -20658,7 +20673,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20849,7 +20864,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20939,7 +20954,7 @@
         <v>1.92</v>
       </c>
       <c r="AT103">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -21040,7 +21055,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21130,7 +21145,7 @@
         <v>1.42</v>
       </c>
       <c r="AT104">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU104">
         <v>1.56</v>
@@ -21321,7 +21336,7 @@
         <v>1.92</v>
       </c>
       <c r="AT105">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU105">
         <v>2</v>
@@ -21509,7 +21524,7 @@
         <v>0.67</v>
       </c>
       <c r="AS106">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT106">
         <v>0.92</v>
@@ -21700,10 +21715,10 @@
         <v>0.6</v>
       </c>
       <c r="AS107">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT107">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU107">
         <v>1.87</v>
@@ -21891,7 +21906,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT108">
         <v>1.17</v>
@@ -22467,7 +22482,7 @@
         <v>2.08</v>
       </c>
       <c r="AT111">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU111">
         <v>1.88</v>
@@ -22950,7 +22965,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23141,7 +23156,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23419,7 +23434,7 @@
         <v>1.25</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT116">
         <v>1.17</v>
@@ -23905,7 +23920,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24183,7 +24198,7 @@
         <v>2</v>
       </c>
       <c r="AS120">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT120">
         <v>1.31</v>
@@ -24287,7 +24302,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24374,10 +24389,10 @@
         <v>0.5</v>
       </c>
       <c r="AS121">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT121">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU121">
         <v>1.49</v>
@@ -24565,7 +24580,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT122">
         <v>1.77</v>
@@ -24860,7 +24875,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -25141,7 +25156,7 @@
         <v>1.25</v>
       </c>
       <c r="AT125">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU125">
         <v>1.76</v>
@@ -25433,7 +25448,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25523,7 +25538,7 @@
         <v>1.08</v>
       </c>
       <c r="AT127">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU127">
         <v>1.97</v>
@@ -25624,7 +25639,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25815,7 +25830,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25902,10 +25917,10 @@
         <v>2.17</v>
       </c>
       <c r="AS129">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT129">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU129">
         <v>1.86</v>
@@ -26197,7 +26212,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -27152,7 +27167,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27725,7 +27740,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27916,7 +27931,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28107,7 +28122,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28489,7 +28504,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28576,7 +28591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS143">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT143">
         <v>1.33</v>
@@ -28680,7 +28695,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28871,7 +28886,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28958,10 +28973,10 @@
         <v>0.57</v>
       </c>
       <c r="AS145">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT145">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU145">
         <v>1.58</v>
@@ -29340,10 +29355,10 @@
         <v>2</v>
       </c>
       <c r="AS147">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT147">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU147">
         <v>1.64</v>
@@ -29531,10 +29546,10 @@
         <v>2.29</v>
       </c>
       <c r="AS148">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT148">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU148">
         <v>1.58</v>
@@ -29725,7 +29740,7 @@
         <v>1.69</v>
       </c>
       <c r="AT149">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU149">
         <v>1.83</v>
@@ -29916,7 +29931,7 @@
         <v>1.42</v>
       </c>
       <c r="AT150">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU150">
         <v>1.54</v>
@@ -30104,7 +30119,7 @@
         <v>1.17</v>
       </c>
       <c r="AS151">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT151">
         <v>1.17</v>
@@ -30208,7 +30223,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30680,7 +30695,7 @@
         <v>2.17</v>
       </c>
       <c r="AT154">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU154">
         <v>1.38</v>
@@ -30972,7 +30987,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31823,7 +31838,7 @@
         <v>1.29</v>
       </c>
       <c r="AS160">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT160">
         <v>1.17</v>
@@ -32118,7 +32133,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32208,7 +32223,7 @@
         <v>2.15</v>
       </c>
       <c r="AT162">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU162">
         <v>1.81</v>
@@ -32587,10 +32602,10 @@
         <v>0.88</v>
       </c>
       <c r="AS164">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT164">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU164">
         <v>1.85</v>
@@ -33160,7 +33175,7 @@
         <v>0.57</v>
       </c>
       <c r="AS167">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT167">
         <v>0.58</v>
@@ -33354,7 +33369,7 @@
         <v>1.69</v>
       </c>
       <c r="AT168">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU168">
         <v>1.84</v>
@@ -33545,7 +33560,7 @@
         <v>2.5</v>
       </c>
       <c r="AT169">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU169">
         <v>1.75</v>
@@ -33837,7 +33852,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34118,7 +34133,7 @@
         <v>1.08</v>
       </c>
       <c r="AT172">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU172">
         <v>1.52</v>
@@ -34306,7 +34321,7 @@
         <v>1.44</v>
       </c>
       <c r="AS173">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT173">
         <v>1.77</v>
@@ -34410,7 +34425,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34691,7 +34706,7 @@
         <v>1.92</v>
       </c>
       <c r="AT175">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU175">
         <v>1.99</v>
@@ -34792,7 +34807,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -34882,7 +34897,7 @@
         <v>0.58</v>
       </c>
       <c r="AT176">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU176">
         <v>1.49</v>
@@ -35365,7 +35380,7 @@
         <v>196</v>
       </c>
       <c r="P179" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35452,7 +35467,7 @@
         <v>1.44</v>
       </c>
       <c r="AS179">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT179">
         <v>1.42</v>
@@ -35643,7 +35658,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT180">
         <v>0.83</v>
@@ -35938,7 +35953,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36129,7 +36144,7 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36219,7 +36234,7 @@
         <v>2.15</v>
       </c>
       <c r="AT183">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU183">
         <v>1.86</v>
@@ -36320,7 +36335,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36792,7 +36807,7 @@
         <v>1.67</v>
       </c>
       <c r="AT186">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU186">
         <v>1.71</v>
@@ -36893,7 +36908,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -36980,7 +36995,7 @@
         <v>0.88</v>
       </c>
       <c r="AS187">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT187">
         <v>1.17</v>
@@ -37275,7 +37290,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37466,7 +37481,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37556,7 +37571,7 @@
         <v>1.5</v>
       </c>
       <c r="AT190">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU190">
         <v>1.53</v>
@@ -37744,7 +37759,7 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT191">
         <v>1.08</v>
@@ -38039,7 +38054,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38230,7 +38245,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38320,7 +38335,7 @@
         <v>1.25</v>
       </c>
       <c r="AT194">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU194">
         <v>1.58</v>
@@ -38511,7 +38526,7 @@
         <v>0.58</v>
       </c>
       <c r="AT195">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU195">
         <v>1.43</v>
@@ -38612,7 +38627,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38803,7 +38818,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39185,7 +39200,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39272,7 +39287,7 @@
         <v>1.6</v>
       </c>
       <c r="AS199">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT199">
         <v>1.42</v>
@@ -39376,7 +39391,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39654,7 +39669,7 @@
         <v>1.56</v>
       </c>
       <c r="AS201">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT201">
         <v>1.33</v>
@@ -39758,7 +39773,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39845,7 +39860,7 @@
         <v>0.89</v>
       </c>
       <c r="AS202">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT202">
         <v>1.17</v>
@@ -40612,7 +40627,7 @@
         <v>2.17</v>
       </c>
       <c r="AT206">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU206">
         <v>1.42</v>
@@ -40904,7 +40919,7 @@
         <v>127</v>
       </c>
       <c r="P208" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -41185,7 +41200,7 @@
         <v>1.67</v>
       </c>
       <c r="AT209">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU209">
         <v>1.66</v>
@@ -41758,7 +41773,7 @@
         <v>1.58</v>
       </c>
       <c r="AT212">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU212">
         <v>1.39</v>
@@ -41946,7 +41961,7 @@
         <v>1.5</v>
       </c>
       <c r="AS213">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT213">
         <v>1.33</v>
@@ -42137,10 +42152,10 @@
         <v>1.73</v>
       </c>
       <c r="AS214">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT214">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU214">
         <v>1.6</v>
@@ -42328,7 +42343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS215">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT215">
         <v>1</v>
@@ -42623,7 +42638,7 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42814,7 +42829,7 @@
         <v>217</v>
       </c>
       <c r="P218" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43196,7 +43211,7 @@
         <v>219</v>
       </c>
       <c r="P220" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43668,7 +43683,7 @@
         <v>2.15</v>
       </c>
       <c r="AT222">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU222">
         <v>1.79</v>
@@ -43960,7 +43975,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44047,7 +44062,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT224">
         <v>1.08</v>
@@ -44814,7 +44829,7 @@
         <v>2.5</v>
       </c>
       <c r="AT228">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU228">
         <v>1.67</v>
@@ -44915,7 +44930,7 @@
         <v>223</v>
       </c>
       <c r="P229" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45005,7 +45020,7 @@
         <v>0.58</v>
       </c>
       <c r="AT229">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU229">
         <v>1.41</v>
@@ -45106,7 +45121,7 @@
         <v>100</v>
       </c>
       <c r="P230" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -45679,7 +45694,7 @@
         <v>226</v>
       </c>
       <c r="P233" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45870,7 +45885,7 @@
         <v>227</v>
       </c>
       <c r="P234" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46061,7 +46076,7 @@
         <v>167</v>
       </c>
       <c r="P235" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46634,7 +46649,7 @@
         <v>134</v>
       </c>
       <c r="P238" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q238">
         <v>11</v>
@@ -47016,7 +47031,7 @@
         <v>100</v>
       </c>
       <c r="P240" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q240">
         <v>5</v>
@@ -47398,7 +47413,7 @@
         <v>229</v>
       </c>
       <c r="P242" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q242">
         <v>3</v>
@@ -47485,7 +47500,7 @@
         <v>0.91</v>
       </c>
       <c r="AS242">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT242">
         <v>0.92</v>
@@ -47589,7 +47604,7 @@
         <v>143</v>
       </c>
       <c r="P243" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q243">
         <v>6</v>
@@ -47731,6 +47746,961 @@
       </c>
       <c r="BK243">
         <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>5414623</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45163.79166666666</v>
+      </c>
+      <c r="F244">
+        <v>25</v>
+      </c>
+      <c r="G244" t="s">
+        <v>76</v>
+      </c>
+      <c r="H244" t="s">
+        <v>72</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>1</v>
+      </c>
+      <c r="O244" t="s">
+        <v>230</v>
+      </c>
+      <c r="P244" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q244">
+        <v>2</v>
+      </c>
+      <c r="R244">
+        <v>13</v>
+      </c>
+      <c r="S244">
+        <v>15</v>
+      </c>
+      <c r="T244">
+        <v>2.55</v>
+      </c>
+      <c r="U244">
+        <v>1.9</v>
+      </c>
+      <c r="V244">
+        <v>5</v>
+      </c>
+      <c r="W244">
+        <v>1.55</v>
+      </c>
+      <c r="X244">
+        <v>2.25</v>
+      </c>
+      <c r="Y244">
+        <v>3.6</v>
+      </c>
+      <c r="Z244">
+        <v>1.25</v>
+      </c>
+      <c r="AA244">
+        <v>10.5</v>
+      </c>
+      <c r="AB244">
+        <v>1.04</v>
+      </c>
+      <c r="AC244">
+        <v>2.02</v>
+      </c>
+      <c r="AD244">
+        <v>3.05</v>
+      </c>
+      <c r="AE244">
+        <v>3.6</v>
+      </c>
+      <c r="AF244">
+        <v>1.1</v>
+      </c>
+      <c r="AG244">
+        <v>6.25</v>
+      </c>
+      <c r="AH244">
+        <v>1.47</v>
+      </c>
+      <c r="AI244">
+        <v>2.5</v>
+      </c>
+      <c r="AJ244">
+        <v>2.65</v>
+      </c>
+      <c r="AK244">
+        <v>1.44</v>
+      </c>
+      <c r="AL244">
+        <v>2.25</v>
+      </c>
+      <c r="AM244">
+        <v>1.55</v>
+      </c>
+      <c r="AN244">
+        <v>1.19</v>
+      </c>
+      <c r="AO244">
+        <v>1.33</v>
+      </c>
+      <c r="AP244">
+        <v>1.88</v>
+      </c>
+      <c r="AQ244">
+        <v>1.5</v>
+      </c>
+      <c r="AR244">
+        <v>0.42</v>
+      </c>
+      <c r="AS244">
+        <v>1.62</v>
+      </c>
+      <c r="AT244">
+        <v>0.38</v>
+      </c>
+      <c r="AU244">
+        <v>1.49</v>
+      </c>
+      <c r="AV244">
+        <v>1.16</v>
+      </c>
+      <c r="AW244">
+        <v>2.65</v>
+      </c>
+      <c r="AX244">
+        <v>1.75</v>
+      </c>
+      <c r="AY244">
+        <v>7.5</v>
+      </c>
+      <c r="AZ244">
+        <v>2.5</v>
+      </c>
+      <c r="BA244">
+        <v>0</v>
+      </c>
+      <c r="BB244">
+        <v>1.22</v>
+      </c>
+      <c r="BC244">
+        <v>1.4</v>
+      </c>
+      <c r="BD244">
+        <v>1.68</v>
+      </c>
+      <c r="BE244">
+        <v>2.12</v>
+      </c>
+      <c r="BF244">
+        <v>3</v>
+      </c>
+      <c r="BG244">
+        <v>3</v>
+      </c>
+      <c r="BH244">
+        <v>2</v>
+      </c>
+      <c r="BI244">
+        <v>12</v>
+      </c>
+      <c r="BJ244">
+        <v>5</v>
+      </c>
+      <c r="BK244">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>5414628</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45163.89583333334</v>
+      </c>
+      <c r="F245">
+        <v>25</v>
+      </c>
+      <c r="G245" t="s">
+        <v>84</v>
+      </c>
+      <c r="H245" t="s">
+        <v>66</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>2</v>
+      </c>
+      <c r="K245">
+        <v>2</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>2</v>
+      </c>
+      <c r="N245">
+        <v>3</v>
+      </c>
+      <c r="O245" t="s">
+        <v>231</v>
+      </c>
+      <c r="P245" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q245">
+        <v>11</v>
+      </c>
+      <c r="R245">
+        <v>3</v>
+      </c>
+      <c r="S245">
+        <v>14</v>
+      </c>
+      <c r="T245">
+        <v>2.15</v>
+      </c>
+      <c r="U245">
+        <v>2.05</v>
+      </c>
+      <c r="V245">
+        <v>6.5</v>
+      </c>
+      <c r="W245">
+        <v>1.51</v>
+      </c>
+      <c r="X245">
+        <v>2.4</v>
+      </c>
+      <c r="Y245">
+        <v>3.4</v>
+      </c>
+      <c r="Z245">
+        <v>1.28</v>
+      </c>
+      <c r="AA245">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB245">
+        <v>1.04</v>
+      </c>
+      <c r="AC245">
+        <v>1.5</v>
+      </c>
+      <c r="AD245">
+        <v>3.7</v>
+      </c>
+      <c r="AE245">
+        <v>6.1</v>
+      </c>
+      <c r="AF245">
+        <v>1.1</v>
+      </c>
+      <c r="AG245">
+        <v>6.5</v>
+      </c>
+      <c r="AH245">
+        <v>1.5</v>
+      </c>
+      <c r="AI245">
+        <v>2.4</v>
+      </c>
+      <c r="AJ245">
+        <v>2.28</v>
+      </c>
+      <c r="AK245">
+        <v>1.57</v>
+      </c>
+      <c r="AL245">
+        <v>2.4</v>
+      </c>
+      <c r="AM245">
+        <v>1.53</v>
+      </c>
+      <c r="AN245">
+        <v>1.06</v>
+      </c>
+      <c r="AO245">
+        <v>1.2</v>
+      </c>
+      <c r="AP245">
+        <v>2.3</v>
+      </c>
+      <c r="AQ245">
+        <v>2.58</v>
+      </c>
+      <c r="AR245">
+        <v>0.83</v>
+      </c>
+      <c r="AS245">
+        <v>2.38</v>
+      </c>
+      <c r="AT245">
+        <v>1</v>
+      </c>
+      <c r="AU245">
+        <v>1.58</v>
+      </c>
+      <c r="AV245">
+        <v>1.31</v>
+      </c>
+      <c r="AW245">
+        <v>2.89</v>
+      </c>
+      <c r="AX245">
+        <v>1.38</v>
+      </c>
+      <c r="AY245">
+        <v>8</v>
+      </c>
+      <c r="AZ245">
+        <v>4</v>
+      </c>
+      <c r="BA245">
+        <v>1.18</v>
+      </c>
+      <c r="BB245">
+        <v>1.29</v>
+      </c>
+      <c r="BC245">
+        <v>1.5</v>
+      </c>
+      <c r="BD245">
+        <v>1.9</v>
+      </c>
+      <c r="BE245">
+        <v>2.43</v>
+      </c>
+      <c r="BF245">
+        <v>5</v>
+      </c>
+      <c r="BG245">
+        <v>3</v>
+      </c>
+      <c r="BH245">
+        <v>9</v>
+      </c>
+      <c r="BI245">
+        <v>1</v>
+      </c>
+      <c r="BJ245">
+        <v>14</v>
+      </c>
+      <c r="BK245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>5414629</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45164.70833333334</v>
+      </c>
+      <c r="F246">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>69</v>
+      </c>
+      <c r="H246" t="s">
+        <v>65</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246">
+        <v>2</v>
+      </c>
+      <c r="O246" t="s">
+        <v>232</v>
+      </c>
+      <c r="P246" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q246">
+        <v>9</v>
+      </c>
+      <c r="R246">
+        <v>4</v>
+      </c>
+      <c r="S246">
+        <v>13</v>
+      </c>
+      <c r="T246">
+        <v>3.13</v>
+      </c>
+      <c r="U246">
+        <v>1.96</v>
+      </c>
+      <c r="V246">
+        <v>4.5</v>
+      </c>
+      <c r="W246">
+        <v>1.6</v>
+      </c>
+      <c r="X246">
+        <v>2.36</v>
+      </c>
+      <c r="Y246">
+        <v>3.7</v>
+      </c>
+      <c r="Z246">
+        <v>1.24</v>
+      </c>
+      <c r="AA246">
+        <v>11</v>
+      </c>
+      <c r="AB246">
+        <v>1.04</v>
+      </c>
+      <c r="AC246">
+        <v>2.25</v>
+      </c>
+      <c r="AD246">
+        <v>2.8</v>
+      </c>
+      <c r="AE246">
+        <v>3.5</v>
+      </c>
+      <c r="AF246">
+        <v>1.12</v>
+      </c>
+      <c r="AG246">
+        <v>6.27</v>
+      </c>
+      <c r="AH246">
+        <v>1.5</v>
+      </c>
+      <c r="AI246">
+        <v>2.3</v>
+      </c>
+      <c r="AJ246">
+        <v>2.73</v>
+      </c>
+      <c r="AK246">
+        <v>1.4</v>
+      </c>
+      <c r="AL246">
+        <v>2.15</v>
+      </c>
+      <c r="AM246">
+        <v>1.65</v>
+      </c>
+      <c r="AN246">
+        <v>1.25</v>
+      </c>
+      <c r="AO246">
+        <v>1.3</v>
+      </c>
+      <c r="AP246">
+        <v>1.63</v>
+      </c>
+      <c r="AQ246">
+        <v>1.25</v>
+      </c>
+      <c r="AR246">
+        <v>1.17</v>
+      </c>
+      <c r="AS246">
+        <v>1.23</v>
+      </c>
+      <c r="AT246">
+        <v>1.15</v>
+      </c>
+      <c r="AU246">
+        <v>1.69</v>
+      </c>
+      <c r="AV246">
+        <v>1.21</v>
+      </c>
+      <c r="AW246">
+        <v>2.9</v>
+      </c>
+      <c r="AX246">
+        <v>1.6</v>
+      </c>
+      <c r="AY246">
+        <v>7</v>
+      </c>
+      <c r="AZ246">
+        <v>3</v>
+      </c>
+      <c r="BA246">
+        <v>1.18</v>
+      </c>
+      <c r="BB246">
+        <v>1.34</v>
+      </c>
+      <c r="BC246">
+        <v>1.61</v>
+      </c>
+      <c r="BD246">
+        <v>2.02</v>
+      </c>
+      <c r="BE246">
+        <v>2.7</v>
+      </c>
+      <c r="BF246">
+        <v>8</v>
+      </c>
+      <c r="BG246">
+        <v>4</v>
+      </c>
+      <c r="BH246">
+        <v>9</v>
+      </c>
+      <c r="BI246">
+        <v>3</v>
+      </c>
+      <c r="BJ246">
+        <v>17</v>
+      </c>
+      <c r="BK246">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>5414631</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45164.70833333334</v>
+      </c>
+      <c r="F247">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>77</v>
+      </c>
+      <c r="H247" t="s">
+        <v>80</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>2</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>2</v>
+      </c>
+      <c r="N247">
+        <v>4</v>
+      </c>
+      <c r="O247" t="s">
+        <v>233</v>
+      </c>
+      <c r="P247" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q247">
+        <v>10</v>
+      </c>
+      <c r="R247">
+        <v>4</v>
+      </c>
+      <c r="S247">
+        <v>14</v>
+      </c>
+      <c r="T247">
+        <v>3.3</v>
+      </c>
+      <c r="U247">
+        <v>1.91</v>
+      </c>
+      <c r="V247">
+        <v>3.89</v>
+      </c>
+      <c r="W247">
+        <v>1.55</v>
+      </c>
+      <c r="X247">
+        <v>2.38</v>
+      </c>
+      <c r="Y247">
+        <v>3.48</v>
+      </c>
+      <c r="Z247">
+        <v>1.28</v>
+      </c>
+      <c r="AA247">
+        <v>9.6</v>
+      </c>
+      <c r="AB247">
+        <v>1.04</v>
+      </c>
+      <c r="AC247">
+        <v>2.4</v>
+      </c>
+      <c r="AD247">
+        <v>2.95</v>
+      </c>
+      <c r="AE247">
+        <v>3.05</v>
+      </c>
+      <c r="AF247">
+        <v>1.1</v>
+      </c>
+      <c r="AG247">
+        <v>6</v>
+      </c>
+      <c r="AH247">
+        <v>1.47</v>
+      </c>
+      <c r="AI247">
+        <v>2.55</v>
+      </c>
+      <c r="AJ247">
+        <v>2.35</v>
+      </c>
+      <c r="AK247">
+        <v>1.5</v>
+      </c>
+      <c r="AL247">
+        <v>2.02</v>
+      </c>
+      <c r="AM247">
+        <v>1.75</v>
+      </c>
+      <c r="AN247">
+        <v>1.39</v>
+      </c>
+      <c r="AO247">
+        <v>1.38</v>
+      </c>
+      <c r="AP247">
+        <v>1.51</v>
+      </c>
+      <c r="AQ247">
+        <v>1.08</v>
+      </c>
+      <c r="AR247">
+        <v>1.33</v>
+      </c>
+      <c r="AS247">
+        <v>1.08</v>
+      </c>
+      <c r="AT247">
+        <v>1.31</v>
+      </c>
+      <c r="AU247">
+        <v>1.73</v>
+      </c>
+      <c r="AV247">
+        <v>1.19</v>
+      </c>
+      <c r="AW247">
+        <v>2.92</v>
+      </c>
+      <c r="AX247">
+        <v>1.7</v>
+      </c>
+      <c r="AY247">
+        <v>7</v>
+      </c>
+      <c r="AZ247">
+        <v>2.7</v>
+      </c>
+      <c r="BA247">
+        <v>1.19</v>
+      </c>
+      <c r="BB247">
+        <v>1.29</v>
+      </c>
+      <c r="BC247">
+        <v>1.5</v>
+      </c>
+      <c r="BD247">
+        <v>1.95</v>
+      </c>
+      <c r="BE247">
+        <v>2.43</v>
+      </c>
+      <c r="BF247">
+        <v>4</v>
+      </c>
+      <c r="BG247">
+        <v>5</v>
+      </c>
+      <c r="BH247">
+        <v>10</v>
+      </c>
+      <c r="BI247">
+        <v>1</v>
+      </c>
+      <c r="BJ247">
+        <v>14</v>
+      </c>
+      <c r="BK247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>5414632</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45164.75</v>
+      </c>
+      <c r="F248">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>83</v>
+      </c>
+      <c r="H248" t="s">
+        <v>79</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>1</v>
+      </c>
+      <c r="O248" t="s">
+        <v>99</v>
+      </c>
+      <c r="P248" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q248">
+        <v>5</v>
+      </c>
+      <c r="R248">
+        <v>3</v>
+      </c>
+      <c r="S248">
+        <v>8</v>
+      </c>
+      <c r="T248">
+        <v>3.2</v>
+      </c>
+      <c r="U248">
+        <v>1.83</v>
+      </c>
+      <c r="V248">
+        <v>4</v>
+      </c>
+      <c r="W248">
+        <v>1.58</v>
+      </c>
+      <c r="X248">
+        <v>2.25</v>
+      </c>
+      <c r="Y248">
+        <v>3.6</v>
+      </c>
+      <c r="Z248">
+        <v>1.24</v>
+      </c>
+      <c r="AA248">
+        <v>8.5</v>
+      </c>
+      <c r="AB248">
+        <v>1.04</v>
+      </c>
+      <c r="AC248">
+        <v>2.6</v>
+      </c>
+      <c r="AD248">
+        <v>2.85</v>
+      </c>
+      <c r="AE248">
+        <v>2.85</v>
+      </c>
+      <c r="AF248">
+        <v>1.1</v>
+      </c>
+      <c r="AG248">
+        <v>6.9</v>
+      </c>
+      <c r="AH248">
+        <v>1.5</v>
+      </c>
+      <c r="AI248">
+        <v>2.35</v>
+      </c>
+      <c r="AJ248">
+        <v>2.47</v>
+      </c>
+      <c r="AK248">
+        <v>1.48</v>
+      </c>
+      <c r="AL248">
+        <v>2.1</v>
+      </c>
+      <c r="AM248">
+        <v>1.65</v>
+      </c>
+      <c r="AN248">
+        <v>1.35</v>
+      </c>
+      <c r="AO248">
+        <v>1.35</v>
+      </c>
+      <c r="AP248">
+        <v>1.5</v>
+      </c>
+      <c r="AQ248">
+        <v>1.67</v>
+      </c>
+      <c r="AR248">
+        <v>1.58</v>
+      </c>
+      <c r="AS248">
+        <v>1.77</v>
+      </c>
+      <c r="AT248">
+        <v>1.46</v>
+      </c>
+      <c r="AU248">
+        <v>1.49</v>
+      </c>
+      <c r="AV248">
+        <v>1.47</v>
+      </c>
+      <c r="AW248">
+        <v>2.96</v>
+      </c>
+      <c r="AX248">
+        <v>2.05</v>
+      </c>
+      <c r="AY248">
+        <v>7.5</v>
+      </c>
+      <c r="AZ248">
+        <v>2.1</v>
+      </c>
+      <c r="BA248">
+        <v>1.18</v>
+      </c>
+      <c r="BB248">
+        <v>1.34</v>
+      </c>
+      <c r="BC248">
+        <v>1.61</v>
+      </c>
+      <c r="BD248">
+        <v>2.02</v>
+      </c>
+      <c r="BE248">
+        <v>2.7</v>
+      </c>
+      <c r="BF248">
+        <v>5</v>
+      </c>
+      <c r="BG248">
+        <v>6</v>
+      </c>
+      <c r="BH248">
+        <v>7</v>
+      </c>
+      <c r="BI248">
+        <v>9</v>
+      </c>
+      <c r="BJ248">
+        <v>12</v>
+      </c>
+      <c r="BK248">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1329,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK248"/>
+  <dimension ref="A1:BK251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3000,7 +3000,7 @@
         <v>1.17</v>
       </c>
       <c r="AT9">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT11">
         <v>1.08</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT12">
         <v>0.83</v>
@@ -4910,7 +4910,7 @@
         <v>0.58</v>
       </c>
       <c r="AT19">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT25">
         <v>1.08</v>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -8157,7 +8157,7 @@
         <v>1.58</v>
       </c>
       <c r="AT36">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU36">
         <v>0.72</v>
@@ -8536,10 +8536,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT38">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -9494,7 +9494,7 @@
         <v>1.77</v>
       </c>
       <c r="AT43">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU43">
         <v>1.45</v>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT47">
         <v>0.38</v>
@@ -10449,7 +10449,7 @@
         <v>1.5</v>
       </c>
       <c r="AT48">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU48">
         <v>1.71</v>
@@ -12932,7 +12932,7 @@
         <v>1.69</v>
       </c>
       <c r="AT61">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU61">
         <v>1.39</v>
@@ -13120,7 +13120,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT62">
         <v>0.92</v>
@@ -13696,7 +13696,7 @@
         <v>1.23</v>
       </c>
       <c r="AT65">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU65">
         <v>1.61</v>
@@ -14648,7 +14648,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT70">
         <v>1.17</v>
@@ -16943,7 +16943,7 @@
         <v>1.25</v>
       </c>
       <c r="AT82">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -17131,7 +17131,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT83">
         <v>1.33</v>
@@ -17898,7 +17898,7 @@
         <v>2.38</v>
       </c>
       <c r="AT87">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU87">
         <v>1.65</v>
@@ -18468,7 +18468,7 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT90">
         <v>0.58</v>
@@ -20572,7 +20572,7 @@
         <v>1.62</v>
       </c>
       <c r="AT101">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU101">
         <v>1.75</v>
@@ -20763,7 +20763,7 @@
         <v>1.08</v>
       </c>
       <c r="AT102">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU102">
         <v>1.99</v>
@@ -20951,7 +20951,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT103">
         <v>1.31</v>
@@ -21142,7 +21142,7 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT104">
         <v>1</v>
@@ -24771,7 +24771,7 @@
         <v>0.4</v>
       </c>
       <c r="AS123">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT123">
         <v>0.83</v>
@@ -24962,7 +24962,7 @@
         <v>1.67</v>
       </c>
       <c r="AS124">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT124">
         <v>1.31</v>
@@ -25729,7 +25729,7 @@
         <v>1.69</v>
       </c>
       <c r="AT128">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU128">
         <v>1.68</v>
@@ -26111,7 +26111,7 @@
         <v>2.17</v>
       </c>
       <c r="AT130">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU130">
         <v>1.51</v>
@@ -28400,7 +28400,7 @@
         <v>1.86</v>
       </c>
       <c r="AS142">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT142">
         <v>1.31</v>
@@ -28785,7 +28785,7 @@
         <v>1.25</v>
       </c>
       <c r="AT144">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -29167,7 +29167,7 @@
         <v>1.67</v>
       </c>
       <c r="AT146">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU146">
         <v>1.69</v>
@@ -29928,7 +29928,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT150">
         <v>1.15</v>
@@ -32032,7 +32032,7 @@
         <v>2.08</v>
       </c>
       <c r="AT161">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU161">
         <v>2.02</v>
@@ -32411,7 +32411,7 @@
         <v>1</v>
       </c>
       <c r="AS163">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT163">
         <v>1.17</v>
@@ -32796,7 +32796,7 @@
         <v>1.67</v>
       </c>
       <c r="AT165">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU165">
         <v>1.68</v>
@@ -33748,7 +33748,7 @@
         <v>1.88</v>
       </c>
       <c r="AS170">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT170">
         <v>1.33</v>
@@ -34512,7 +34512,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT174">
         <v>1.17</v>
@@ -35470,7 +35470,7 @@
         <v>2.38</v>
       </c>
       <c r="AT179">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU179">
         <v>1.61</v>
@@ -36043,7 +36043,7 @@
         <v>2.08</v>
       </c>
       <c r="AT182">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU182">
         <v>1.95</v>
@@ -38141,7 +38141,7 @@
         <v>1.4</v>
       </c>
       <c r="AS193">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT193">
         <v>1.77</v>
@@ -38714,7 +38714,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT196">
         <v>0.83</v>
@@ -39290,7 +39290,7 @@
         <v>1.62</v>
       </c>
       <c r="AT199">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU199">
         <v>1.55</v>
@@ -40818,7 +40818,7 @@
         <v>2.5</v>
       </c>
       <c r="AT207">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU207">
         <v>1.7</v>
@@ -42537,7 +42537,7 @@
         <v>1.5</v>
       </c>
       <c r="AT216">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU216">
         <v>1.56</v>
@@ -42916,7 +42916,7 @@
         <v>0.7</v>
       </c>
       <c r="AS218">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT218">
         <v>0.58</v>
@@ -43110,7 +43110,7 @@
         <v>1.17</v>
       </c>
       <c r="AT219">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU219">
         <v>1.24</v>
@@ -43871,7 +43871,7 @@
         <v>0.8</v>
       </c>
       <c r="AS223">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT223">
         <v>0.83</v>
@@ -47691,7 +47691,7 @@
         <v>0.82</v>
       </c>
       <c r="AS243">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT243">
         <v>1</v>
@@ -48565,10 +48565,10 @@
         <v>5</v>
       </c>
       <c r="R248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S248">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T248">
         <v>3.2</v>
@@ -48701,6 +48701,579 @@
       </c>
       <c r="BK248">
         <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>5414630</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45165.65625</v>
+      </c>
+      <c r="F249">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>81</v>
+      </c>
+      <c r="H249" t="s">
+        <v>78</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249" t="s">
+        <v>100</v>
+      </c>
+      <c r="P249" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q249">
+        <v>10</v>
+      </c>
+      <c r="R249">
+        <v>5</v>
+      </c>
+      <c r="S249">
+        <v>15</v>
+      </c>
+      <c r="T249">
+        <v>2.75</v>
+      </c>
+      <c r="U249">
+        <v>1.83</v>
+      </c>
+      <c r="V249">
+        <v>4.5</v>
+      </c>
+      <c r="W249">
+        <v>1.55</v>
+      </c>
+      <c r="X249">
+        <v>2.38</v>
+      </c>
+      <c r="Y249">
+        <v>3.64</v>
+      </c>
+      <c r="Z249">
+        <v>1.26</v>
+      </c>
+      <c r="AA249">
+        <v>10.2</v>
+      </c>
+      <c r="AB249">
+        <v>1.03</v>
+      </c>
+      <c r="AC249">
+        <v>2.68</v>
+      </c>
+      <c r="AD249">
+        <v>2.97</v>
+      </c>
+      <c r="AE249">
+        <v>2.88</v>
+      </c>
+      <c r="AF249">
+        <v>1.1</v>
+      </c>
+      <c r="AG249">
+        <v>7</v>
+      </c>
+      <c r="AH249">
+        <v>1.56</v>
+      </c>
+      <c r="AI249">
+        <v>2.3</v>
+      </c>
+      <c r="AJ249">
+        <v>2.78</v>
+      </c>
+      <c r="AK249">
+        <v>1.35</v>
+      </c>
+      <c r="AL249">
+        <v>2.21</v>
+      </c>
+      <c r="AM249">
+        <v>1.63</v>
+      </c>
+      <c r="AN249">
+        <v>1.22</v>
+      </c>
+      <c r="AO249">
+        <v>1.34</v>
+      </c>
+      <c r="AP249">
+        <v>1.83</v>
+      </c>
+      <c r="AQ249">
+        <v>1.08</v>
+      </c>
+      <c r="AR249">
+        <v>0.92</v>
+      </c>
+      <c r="AS249">
+        <v>1.08</v>
+      </c>
+      <c r="AT249">
+        <v>0.92</v>
+      </c>
+      <c r="AU249">
+        <v>1.49</v>
+      </c>
+      <c r="AV249">
+        <v>1.04</v>
+      </c>
+      <c r="AW249">
+        <v>2.53</v>
+      </c>
+      <c r="AX249">
+        <v>1.62</v>
+      </c>
+      <c r="AY249">
+        <v>7.5</v>
+      </c>
+      <c r="AZ249">
+        <v>2.88</v>
+      </c>
+      <c r="BA249">
+        <v>1.14</v>
+      </c>
+      <c r="BB249">
+        <v>1.29</v>
+      </c>
+      <c r="BC249">
+        <v>1.5</v>
+      </c>
+      <c r="BD249">
+        <v>1.93</v>
+      </c>
+      <c r="BE249">
+        <v>2.43</v>
+      </c>
+      <c r="BF249">
+        <v>5</v>
+      </c>
+      <c r="BG249">
+        <v>2</v>
+      </c>
+      <c r="BH249">
+        <v>4</v>
+      </c>
+      <c r="BI249">
+        <v>8</v>
+      </c>
+      <c r="BJ249">
+        <v>9</v>
+      </c>
+      <c r="BK249">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>5414624</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45165.75</v>
+      </c>
+      <c r="F250">
+        <v>25</v>
+      </c>
+      <c r="G250" t="s">
+        <v>74</v>
+      </c>
+      <c r="H250" t="s">
+        <v>73</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250" t="s">
+        <v>100</v>
+      </c>
+      <c r="P250" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q250">
+        <v>4</v>
+      </c>
+      <c r="R250">
+        <v>3</v>
+      </c>
+      <c r="S250">
+        <v>7</v>
+      </c>
+      <c r="T250">
+        <v>2.75</v>
+      </c>
+      <c r="U250">
+        <v>1.95</v>
+      </c>
+      <c r="V250">
+        <v>4.33</v>
+      </c>
+      <c r="W250">
+        <v>1.52</v>
+      </c>
+      <c r="X250">
+        <v>2.39</v>
+      </c>
+      <c r="Y250">
+        <v>3.45</v>
+      </c>
+      <c r="Z250">
+        <v>1.27</v>
+      </c>
+      <c r="AA250">
+        <v>9.4</v>
+      </c>
+      <c r="AB250">
+        <v>1.03</v>
+      </c>
+      <c r="AC250">
+        <v>2.21</v>
+      </c>
+      <c r="AD250">
+        <v>3.18</v>
+      </c>
+      <c r="AE250">
+        <v>3.49</v>
+      </c>
+      <c r="AF250">
+        <v>1.09</v>
+      </c>
+      <c r="AG250">
+        <v>6.75</v>
+      </c>
+      <c r="AH250">
+        <v>1.45</v>
+      </c>
+      <c r="AI250">
+        <v>2.65</v>
+      </c>
+      <c r="AJ250">
+        <v>2.27</v>
+      </c>
+      <c r="AK250">
+        <v>1.52</v>
+      </c>
+      <c r="AL250">
+        <v>2.05</v>
+      </c>
+      <c r="AM250">
+        <v>1.72</v>
+      </c>
+      <c r="AN250">
+        <v>1.22</v>
+      </c>
+      <c r="AO250">
+        <v>1.28</v>
+      </c>
+      <c r="AP250">
+        <v>1.72</v>
+      </c>
+      <c r="AQ250">
+        <v>1.92</v>
+      </c>
+      <c r="AR250">
+        <v>1.42</v>
+      </c>
+      <c r="AS250">
+        <v>1.85</v>
+      </c>
+      <c r="AT250">
+        <v>1.38</v>
+      </c>
+      <c r="AU250">
+        <v>1.72</v>
+      </c>
+      <c r="AV250">
+        <v>1.28</v>
+      </c>
+      <c r="AW250">
+        <v>3</v>
+      </c>
+      <c r="AX250">
+        <v>1.5</v>
+      </c>
+      <c r="AY250">
+        <v>7.5</v>
+      </c>
+      <c r="AZ250">
+        <v>3.3</v>
+      </c>
+      <c r="BA250">
+        <v>1.2</v>
+      </c>
+      <c r="BB250">
+        <v>1.29</v>
+      </c>
+      <c r="BC250">
+        <v>1.5</v>
+      </c>
+      <c r="BD250">
+        <v>1.93</v>
+      </c>
+      <c r="BE250">
+        <v>2.43</v>
+      </c>
+      <c r="BF250">
+        <v>4</v>
+      </c>
+      <c r="BG250">
+        <v>4</v>
+      </c>
+      <c r="BH250">
+        <v>7</v>
+      </c>
+      <c r="BI250">
+        <v>5</v>
+      </c>
+      <c r="BJ250">
+        <v>11</v>
+      </c>
+      <c r="BK250">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>5414626</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45166.83333333334</v>
+      </c>
+      <c r="F251">
+        <v>25</v>
+      </c>
+      <c r="G251" t="s">
+        <v>75</v>
+      </c>
+      <c r="H251" t="s">
+        <v>82</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251" t="s">
+        <v>100</v>
+      </c>
+      <c r="P251" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q251">
+        <v>6</v>
+      </c>
+      <c r="R251">
+        <v>3</v>
+      </c>
+      <c r="S251">
+        <v>9</v>
+      </c>
+      <c r="T251">
+        <v>2.5</v>
+      </c>
+      <c r="U251">
+        <v>1.91</v>
+      </c>
+      <c r="V251">
+        <v>5.5</v>
+      </c>
+      <c r="W251">
+        <v>1.62</v>
+      </c>
+      <c r="X251">
+        <v>2.2</v>
+      </c>
+      <c r="Y251">
+        <v>3.75</v>
+      </c>
+      <c r="Z251">
+        <v>1.25</v>
+      </c>
+      <c r="AA251">
+        <v>9</v>
+      </c>
+      <c r="AB251">
+        <v>1.04</v>
+      </c>
+      <c r="AC251">
+        <v>1.86</v>
+      </c>
+      <c r="AD251">
+        <v>3.15</v>
+      </c>
+      <c r="AE251">
+        <v>4.5</v>
+      </c>
+      <c r="AF251">
+        <v>1.09</v>
+      </c>
+      <c r="AG251">
+        <v>6.4</v>
+      </c>
+      <c r="AH251">
+        <v>1.59</v>
+      </c>
+      <c r="AI251">
+        <v>2.22</v>
+      </c>
+      <c r="AJ251">
+        <v>2.68</v>
+      </c>
+      <c r="AK251">
+        <v>1.38</v>
+      </c>
+      <c r="AL251">
+        <v>2.5</v>
+      </c>
+      <c r="AM251">
+        <v>1.5</v>
+      </c>
+      <c r="AN251">
+        <v>1.16</v>
+      </c>
+      <c r="AO251">
+        <v>1.3</v>
+      </c>
+      <c r="AP251">
+        <v>1.93</v>
+      </c>
+      <c r="AQ251">
+        <v>1.42</v>
+      </c>
+      <c r="AR251">
+        <v>0.58</v>
+      </c>
+      <c r="AS251">
+        <v>1.38</v>
+      </c>
+      <c r="AT251">
+        <v>0.62</v>
+      </c>
+      <c r="AU251">
+        <v>1.51</v>
+      </c>
+      <c r="AV251">
+        <v>0.99</v>
+      </c>
+      <c r="AW251">
+        <v>2.5</v>
+      </c>
+      <c r="AX251">
+        <v>1.48</v>
+      </c>
+      <c r="AY251">
+        <v>9.5</v>
+      </c>
+      <c r="AZ251">
+        <v>3.2</v>
+      </c>
+      <c r="BA251">
+        <v>1.26</v>
+      </c>
+      <c r="BB251">
+        <v>1.49</v>
+      </c>
+      <c r="BC251">
+        <v>1.87</v>
+      </c>
+      <c r="BD251">
+        <v>2.39</v>
+      </c>
+      <c r="BE251">
+        <v>3.2</v>
+      </c>
+      <c r="BF251">
+        <v>3</v>
+      </c>
+      <c r="BG251">
+        <v>5</v>
+      </c>
+      <c r="BH251">
+        <v>10</v>
+      </c>
+      <c r="BI251">
+        <v>3</v>
+      </c>
+      <c r="BJ251">
+        <v>13</v>
+      </c>
+      <c r="BK251">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,9 @@
     <t>['84', '90+5']</t>
   </si>
   <si>
+    <t>['18', '83']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -1329,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK251"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1573,7 +1576,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2337,7 +2340,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2528,7 +2531,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -3674,7 +3677,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3955,7 +3958,7 @@
         <v>1.08</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4334,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT16">
         <v>1.77</v>
@@ -4438,7 +4441,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4820,7 +4823,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5483,7 +5486,7 @@
         <v>2.17</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU22">
         <v>1.42</v>
@@ -5584,7 +5587,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6157,7 +6160,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6435,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>1.17</v>
@@ -6539,7 +6542,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -7685,7 +7688,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -8258,7 +8261,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8449,7 +8452,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8730,7 +8733,7 @@
         <v>2.15</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU39">
         <v>1.29</v>
@@ -8831,7 +8834,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -10359,7 +10362,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10550,7 +10553,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10932,7 +10935,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11123,7 +11126,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11592,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>1.08</v>
@@ -12078,7 +12081,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12269,7 +12272,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12460,7 +12463,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12651,7 +12654,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -13415,7 +13418,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13797,7 +13800,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13988,7 +13991,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14370,7 +14373,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14839,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT71">
         <v>0.92</v>
@@ -15415,7 +15418,7 @@
         <v>2.08</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU74">
         <v>2.16</v>
@@ -15707,7 +15710,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15898,7 +15901,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16471,7 +16474,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16662,7 +16665,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16853,7 +16856,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17617,7 +17620,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17808,7 +17811,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19044,7 +19047,7 @@
         <v>2.5</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU93">
         <v>1.75</v>
@@ -19145,7 +19148,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19527,7 +19530,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -20100,7 +20103,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20673,7 +20676,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20864,7 +20867,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21055,7 +21058,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21145,7 +21148,7 @@
         <v>1.38</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU104">
         <v>1.56</v>
@@ -21333,7 +21336,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT105">
         <v>1.15</v>
@@ -22861,7 +22864,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT113">
         <v>0.83</v>
@@ -22965,7 +22968,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23156,7 +23159,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23920,7 +23923,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24302,7 +24305,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24392,7 +24395,7 @@
         <v>1.77</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU121">
         <v>1.49</v>
@@ -24875,7 +24878,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -25448,7 +25451,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25639,7 +25642,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25830,7 +25833,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26212,7 +26215,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26872,7 +26875,7 @@
         <v>1.33</v>
       </c>
       <c r="AS134">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT134">
         <v>1.33</v>
@@ -27167,7 +27170,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27740,7 +27743,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27931,7 +27934,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28122,7 +28125,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28504,7 +28507,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28695,7 +28698,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28886,7 +28889,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29740,7 +29743,7 @@
         <v>1.69</v>
       </c>
       <c r="AT149">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU149">
         <v>1.83</v>
@@ -30223,7 +30226,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30310,7 +30313,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT152">
         <v>1.17</v>
@@ -30987,7 +30990,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -32133,7 +32136,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32605,7 +32608,7 @@
         <v>1.23</v>
       </c>
       <c r="AT164">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU164">
         <v>1.85</v>
@@ -33852,7 +33855,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34133,7 +34136,7 @@
         <v>1.08</v>
       </c>
       <c r="AT172">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU172">
         <v>1.52</v>
@@ -34425,7 +34428,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34703,7 +34706,7 @@
         <v>0.44</v>
       </c>
       <c r="AS175">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT175">
         <v>0.38</v>
@@ -34807,7 +34810,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35380,7 +35383,7 @@
         <v>196</v>
       </c>
       <c r="P179" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35953,7 +35956,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36144,7 +36147,7 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36335,7 +36338,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36908,7 +36911,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -37290,7 +37293,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37481,7 +37484,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37571,7 +37574,7 @@
         <v>1.5</v>
       </c>
       <c r="AT190">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU190">
         <v>1.53</v>
@@ -38054,7 +38057,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38245,7 +38248,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38627,7 +38630,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38818,7 +38821,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39096,7 +39099,7 @@
         <v>1.4</v>
       </c>
       <c r="AS198">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT198">
         <v>1.31</v>
@@ -39200,7 +39203,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39391,7 +39394,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39773,7 +39776,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -40919,7 +40922,7 @@
         <v>127</v>
       </c>
       <c r="P208" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -42638,7 +42641,7 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42829,7 +42832,7 @@
         <v>217</v>
       </c>
       <c r="P218" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43211,7 +43214,7 @@
         <v>219</v>
       </c>
       <c r="P220" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43298,7 +43301,7 @@
         <v>1.4</v>
       </c>
       <c r="AS220">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT220">
         <v>1.17</v>
@@ -43975,7 +43978,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44930,7 +44933,7 @@
         <v>223</v>
       </c>
       <c r="P229" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45020,7 +45023,7 @@
         <v>0.58</v>
       </c>
       <c r="AT229">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU229">
         <v>1.41</v>
@@ -45121,7 +45124,7 @@
         <v>100</v>
       </c>
       <c r="P230" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -45694,7 +45697,7 @@
         <v>226</v>
       </c>
       <c r="P233" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45885,7 +45888,7 @@
         <v>227</v>
       </c>
       <c r="P234" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46076,7 +46079,7 @@
         <v>167</v>
       </c>
       <c r="P235" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46649,7 +46652,7 @@
         <v>134</v>
       </c>
       <c r="P238" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q238">
         <v>11</v>
@@ -46736,7 +46739,7 @@
         <v>0.6</v>
       </c>
       <c r="AS238">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT238">
         <v>1</v>
@@ -47031,7 +47034,7 @@
         <v>100</v>
       </c>
       <c r="P240" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q240">
         <v>5</v>
@@ -47413,7 +47416,7 @@
         <v>229</v>
       </c>
       <c r="P242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q242">
         <v>3</v>
@@ -47604,7 +47607,7 @@
         <v>143</v>
       </c>
       <c r="P243" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q243">
         <v>6</v>
@@ -47986,7 +47989,7 @@
         <v>231</v>
       </c>
       <c r="P245" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q245">
         <v>11</v>
@@ -48076,7 +48079,7 @@
         <v>2.38</v>
       </c>
       <c r="AT245">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU245">
         <v>1.58</v>
@@ -48368,7 +48371,7 @@
         <v>233</v>
       </c>
       <c r="P247" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q247">
         <v>10</v>
@@ -49274,6 +49277,197 @@
       </c>
       <c r="BK251">
         <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>5414637</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45168.79166666666</v>
+      </c>
+      <c r="F252">
+        <v>26</v>
+      </c>
+      <c r="G252" t="s">
+        <v>79</v>
+      </c>
+      <c r="H252" t="s">
+        <v>66</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>2</v>
+      </c>
+      <c r="O252" t="s">
+        <v>234</v>
+      </c>
+      <c r="P252" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q252">
+        <v>4</v>
+      </c>
+      <c r="R252">
+        <v>4</v>
+      </c>
+      <c r="S252">
+        <v>8</v>
+      </c>
+      <c r="T252">
+        <v>2.16</v>
+      </c>
+      <c r="U252">
+        <v>2.08</v>
+      </c>
+      <c r="V252">
+        <v>7.07</v>
+      </c>
+      <c r="W252">
+        <v>1.5</v>
+      </c>
+      <c r="X252">
+        <v>2.49</v>
+      </c>
+      <c r="Y252">
+        <v>3.34</v>
+      </c>
+      <c r="Z252">
+        <v>1.3</v>
+      </c>
+      <c r="AA252">
+        <v>9.1</v>
+      </c>
+      <c r="AB252">
+        <v>1.04</v>
+      </c>
+      <c r="AC252">
+        <v>1.65</v>
+      </c>
+      <c r="AD252">
+        <v>3.6</v>
+      </c>
+      <c r="AE252">
+        <v>5.5</v>
+      </c>
+      <c r="AF252">
+        <v>1.08</v>
+      </c>
+      <c r="AG252">
+        <v>8</v>
+      </c>
+      <c r="AH252">
+        <v>1.44</v>
+      </c>
+      <c r="AI252">
+        <v>2.65</v>
+      </c>
+      <c r="AJ252">
+        <v>2.35</v>
+      </c>
+      <c r="AK252">
+        <v>1.55</v>
+      </c>
+      <c r="AL252">
+        <v>2.36</v>
+      </c>
+      <c r="AM252">
+        <v>1.56</v>
+      </c>
+      <c r="AN252">
+        <v>1.11</v>
+      </c>
+      <c r="AO252">
+        <v>1.26</v>
+      </c>
+      <c r="AP252">
+        <v>2.41</v>
+      </c>
+      <c r="AQ252">
+        <v>1.92</v>
+      </c>
+      <c r="AR252">
+        <v>1</v>
+      </c>
+      <c r="AS252">
+        <v>2</v>
+      </c>
+      <c r="AT252">
+        <v>0.93</v>
+      </c>
+      <c r="AU252">
+        <v>1.99</v>
+      </c>
+      <c r="AV252">
+        <v>1.26</v>
+      </c>
+      <c r="AW252">
+        <v>3.25</v>
+      </c>
+      <c r="AX252">
+        <v>1.38</v>
+      </c>
+      <c r="AY252">
+        <v>8</v>
+      </c>
+      <c r="AZ252">
+        <v>4</v>
+      </c>
+      <c r="BA252">
+        <v>0</v>
+      </c>
+      <c r="BB252">
+        <v>1.23</v>
+      </c>
+      <c r="BC252">
+        <v>1.48</v>
+      </c>
+      <c r="BD252">
+        <v>1.88</v>
+      </c>
+      <c r="BE252">
+        <v>2.13</v>
+      </c>
+      <c r="BF252">
+        <v>5</v>
+      </c>
+      <c r="BG252">
+        <v>3</v>
+      </c>
+      <c r="BH252">
+        <v>8</v>
+      </c>
+      <c r="BI252">
+        <v>4</v>
+      </c>
+      <c r="BJ252">
+        <v>13</v>
+      </c>
+      <c r="BK252">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,9 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -1341,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK259"/>
+  <dimension ref="A1:BK261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1588,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2054,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT4">
         <v>1.46</v>
@@ -2349,7 +2352,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2540,7 +2543,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -3394,7 +3397,7 @@
         <v>1.85</v>
       </c>
       <c r="AT11">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3582,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT12">
         <v>0.85</v>
@@ -3686,7 +3689,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4450,7 +4453,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4832,7 +4835,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5596,7 +5599,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6065,10 +6068,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT25">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU25">
         <v>1.06</v>
@@ -6169,7 +6172,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6450,7 +6453,7 @@
         <v>2</v>
       </c>
       <c r="AT27">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU27">
         <v>2.12</v>
@@ -6551,7 +6554,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6829,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT29">
         <v>1.77</v>
@@ -7697,7 +7700,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -8270,7 +8273,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8461,7 +8464,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8548,7 +8551,7 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT38">
         <v>1.38</v>
@@ -8843,7 +8846,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -10371,7 +10374,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10562,7 +10565,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10840,7 +10843,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT50">
         <v>1.23</v>
@@ -10944,7 +10947,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11135,7 +11138,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11607,7 +11610,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU54">
         <v>1.85</v>
@@ -12090,7 +12093,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12281,7 +12284,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12472,7 +12475,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12562,7 +12565,7 @@
         <v>1.58</v>
       </c>
       <c r="AT59">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU59">
         <v>1.3</v>
@@ -12663,7 +12666,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -13427,7 +13430,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13809,7 +13812,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14000,7 +14003,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14382,7 +14385,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14660,7 +14663,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT70">
         <v>1.15</v>
@@ -15424,7 +15427,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT74">
         <v>0.93</v>
@@ -15618,7 +15621,7 @@
         <v>2.38</v>
       </c>
       <c r="AT75">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU75">
         <v>1.65</v>
@@ -15719,7 +15722,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15910,7 +15913,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16191,7 +16194,7 @@
         <v>2.15</v>
       </c>
       <c r="AT78">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU78">
         <v>1.81</v>
@@ -16483,7 +16486,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16674,7 +16677,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16865,7 +16868,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17629,7 +17632,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17820,7 +17823,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18480,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT90">
         <v>0.62</v>
@@ -19157,7 +19160,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19539,7 +19542,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19817,7 +19820,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT97">
         <v>0.85</v>
@@ -20011,7 +20014,7 @@
         <v>2.23</v>
       </c>
       <c r="AT98">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU98">
         <v>1.38</v>
@@ -20112,7 +20115,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20202,7 +20205,7 @@
         <v>1.15</v>
       </c>
       <c r="AT99">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU99">
         <v>1.59</v>
@@ -20685,7 +20688,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20876,7 +20879,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21067,7 +21070,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21154,7 +21157,7 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT104">
         <v>0.93</v>
@@ -22491,7 +22494,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT111">
         <v>1.15</v>
@@ -22977,7 +22980,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23067,7 +23070,7 @@
         <v>1.62</v>
       </c>
       <c r="AT114">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU114">
         <v>1.53</v>
@@ -23168,7 +23171,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23449,7 +23452,7 @@
         <v>1.62</v>
       </c>
       <c r="AT116">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU116">
         <v>1.72</v>
@@ -23932,7 +23935,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24314,7 +24317,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24887,7 +24890,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24974,7 +24977,7 @@
         <v>1.67</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT124">
         <v>1.31</v>
@@ -25460,7 +25463,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25651,7 +25654,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25842,7 +25845,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26224,7 +26227,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26314,7 +26317,7 @@
         <v>1.08</v>
       </c>
       <c r="AT131">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU131">
         <v>1.54</v>
@@ -26505,7 +26508,7 @@
         <v>2.15</v>
       </c>
       <c r="AT132">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU132">
         <v>1.83</v>
@@ -26693,7 +26696,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT133">
         <v>0.62</v>
@@ -27179,7 +27182,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27752,7 +27755,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27943,7 +27946,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28134,7 +28137,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28516,7 +28519,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28707,7 +28710,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28898,7 +28901,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29940,7 +29943,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT150">
         <v>1.15</v>
@@ -30134,7 +30137,7 @@
         <v>1.77</v>
       </c>
       <c r="AT151">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU151">
         <v>1.5</v>
@@ -30235,7 +30238,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30999,7 +31002,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31662,7 +31665,7 @@
         <v>1.08</v>
       </c>
       <c r="AT159">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU159">
         <v>1.57</v>
@@ -32041,7 +32044,7 @@
         <v>1.63</v>
       </c>
       <c r="AS161">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT161">
         <v>1.38</v>
@@ -32145,7 +32148,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32426,7 +32429,7 @@
         <v>1.85</v>
       </c>
       <c r="AT163">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU163">
         <v>1.78</v>
@@ -33760,7 +33763,7 @@
         <v>1.88</v>
       </c>
       <c r="AS170">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT170">
         <v>1.23</v>
@@ -33864,7 +33867,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33954,7 +33957,7 @@
         <v>1.08</v>
       </c>
       <c r="AT171">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU171">
         <v>1.82</v>
@@ -34437,7 +34440,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34819,7 +34822,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35392,7 +35395,7 @@
         <v>196</v>
       </c>
       <c r="P179" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35965,7 +35968,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36052,7 +36055,7 @@
         <v>0.67</v>
       </c>
       <c r="AS182">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT182">
         <v>0.62</v>
@@ -36347,7 +36350,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36920,7 +36923,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -37010,7 +37013,7 @@
         <v>1.23</v>
       </c>
       <c r="AT187">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU187">
         <v>1.81</v>
@@ -37302,7 +37305,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37493,7 +37496,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37774,7 +37777,7 @@
         <v>2.38</v>
       </c>
       <c r="AT191">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU191">
         <v>1.59</v>
@@ -38066,7 +38069,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38153,7 +38156,7 @@
         <v>1.4</v>
       </c>
       <c r="AS193">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT193">
         <v>1.77</v>
@@ -38257,7 +38260,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38639,7 +38642,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38830,7 +38833,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39212,7 +39215,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39403,7 +39406,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39785,7 +39788,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -40445,10 +40448,10 @@
         <v>1.11</v>
       </c>
       <c r="AS205">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT205">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU205">
         <v>1.91</v>
@@ -40931,7 +40934,7 @@
         <v>127</v>
       </c>
       <c r="P208" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -42650,7 +42653,7 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42841,7 +42844,7 @@
         <v>217</v>
       </c>
       <c r="P218" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43223,7 +43226,7 @@
         <v>219</v>
       </c>
       <c r="P220" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43504,7 +43507,7 @@
         <v>1.08</v>
       </c>
       <c r="AT221">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU221">
         <v>1.8</v>
@@ -43883,7 +43886,7 @@
         <v>0.8</v>
       </c>
       <c r="AS223">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT223">
         <v>0.77</v>
@@ -43987,7 +43990,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44077,7 +44080,7 @@
         <v>1.23</v>
       </c>
       <c r="AT224">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU224">
         <v>1.76</v>
@@ -44265,7 +44268,7 @@
         <v>0.9</v>
       </c>
       <c r="AS225">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT225">
         <v>0.92</v>
@@ -44942,7 +44945,7 @@
         <v>223</v>
       </c>
       <c r="P229" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45133,7 +45136,7 @@
         <v>100</v>
       </c>
       <c r="P230" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -45411,7 +45414,7 @@
         <v>1.27</v>
       </c>
       <c r="AS231">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT231">
         <v>1.15</v>
@@ -45706,7 +45709,7 @@
         <v>226</v>
       </c>
       <c r="P233" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45796,7 +45799,7 @@
         <v>2.23</v>
       </c>
       <c r="AT233">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU233">
         <v>1.36</v>
@@ -45897,7 +45900,7 @@
         <v>227</v>
       </c>
       <c r="P234" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46088,7 +46091,7 @@
         <v>167</v>
       </c>
       <c r="P235" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46178,7 +46181,7 @@
         <v>0.62</v>
       </c>
       <c r="AT235">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU235">
         <v>1.39</v>
@@ -46661,7 +46664,7 @@
         <v>134</v>
       </c>
       <c r="P238" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q238">
         <v>11</v>
@@ -47043,7 +47046,7 @@
         <v>100</v>
       </c>
       <c r="P240" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q240">
         <v>5</v>
@@ -47425,7 +47428,7 @@
         <v>229</v>
       </c>
       <c r="P242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q242">
         <v>3</v>
@@ -47616,7 +47619,7 @@
         <v>143</v>
       </c>
       <c r="P243" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q243">
         <v>6</v>
@@ -47703,7 +47706,7 @@
         <v>0.82</v>
       </c>
       <c r="AS243">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT243">
         <v>1</v>
@@ -47998,7 +48001,7 @@
         <v>231</v>
       </c>
       <c r="P245" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q245">
         <v>11</v>
@@ -48380,7 +48383,7 @@
         <v>233</v>
       </c>
       <c r="P247" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q247">
         <v>10</v>
@@ -49231,7 +49234,7 @@
         <v>0.58</v>
       </c>
       <c r="AS251">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT251">
         <v>0.62</v>
@@ -49908,7 +49911,7 @@
         <v>235</v>
       </c>
       <c r="P255" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q255">
         <v>14</v>
@@ -50099,7 +50102,7 @@
         <v>100</v>
       </c>
       <c r="P256" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q256">
         <v>7</v>
@@ -50228,19 +50231,19 @@
         <v>2</v>
       </c>
       <c r="BG256">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH256">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI256">
         <v>8</v>
       </c>
       <c r="BJ256">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK256">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:63">
@@ -50814,6 +50817,388 @@
       </c>
       <c r="BK259">
         <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:63">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>5414634</v>
+      </c>
+      <c r="C260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45172.65625</v>
+      </c>
+      <c r="F260">
+        <v>26</v>
+      </c>
+      <c r="G260" t="s">
+        <v>67</v>
+      </c>
+      <c r="H260" t="s">
+        <v>83</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260" t="s">
+        <v>100</v>
+      </c>
+      <c r="P260" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q260">
+        <v>3</v>
+      </c>
+      <c r="R260">
+        <v>4</v>
+      </c>
+      <c r="S260">
+        <v>7</v>
+      </c>
+      <c r="T260">
+        <v>2.5</v>
+      </c>
+      <c r="U260">
+        <v>1.83</v>
+      </c>
+      <c r="V260">
+        <v>5.5</v>
+      </c>
+      <c r="W260">
+        <v>1.62</v>
+      </c>
+      <c r="X260">
+        <v>2.2</v>
+      </c>
+      <c r="Y260">
+        <v>4</v>
+      </c>
+      <c r="Z260">
+        <v>1.22</v>
+      </c>
+      <c r="AA260">
+        <v>9</v>
+      </c>
+      <c r="AB260">
+        <v>1.04</v>
+      </c>
+      <c r="AC260">
+        <v>1.73</v>
+      </c>
+      <c r="AD260">
+        <v>3.2</v>
+      </c>
+      <c r="AE260">
+        <v>5</v>
+      </c>
+      <c r="AF260">
+        <v>1.1</v>
+      </c>
+      <c r="AG260">
+        <v>5.7</v>
+      </c>
+      <c r="AH260">
+        <v>1.53</v>
+      </c>
+      <c r="AI260">
+        <v>2.35</v>
+      </c>
+      <c r="AJ260">
+        <v>2.55</v>
+      </c>
+      <c r="AK260">
+        <v>1.45</v>
+      </c>
+      <c r="AL260">
+        <v>2.63</v>
+      </c>
+      <c r="AM260">
+        <v>1.44</v>
+      </c>
+      <c r="AN260">
+        <v>1.17</v>
+      </c>
+      <c r="AO260">
+        <v>1.35</v>
+      </c>
+      <c r="AP260">
+        <v>1.85</v>
+      </c>
+      <c r="AQ260">
+        <v>2.08</v>
+      </c>
+      <c r="AR260">
+        <v>1.08</v>
+      </c>
+      <c r="AS260">
+        <v>1.92</v>
+      </c>
+      <c r="AT260">
+        <v>1.23</v>
+      </c>
+      <c r="AU260">
+        <v>1.82</v>
+      </c>
+      <c r="AV260">
+        <v>1.25</v>
+      </c>
+      <c r="AW260">
+        <v>3.07</v>
+      </c>
+      <c r="AX260">
+        <v>1.41</v>
+      </c>
+      <c r="AY260">
+        <v>9</v>
+      </c>
+      <c r="AZ260">
+        <v>3.58</v>
+      </c>
+      <c r="BA260">
+        <v>1.2</v>
+      </c>
+      <c r="BB260">
+        <v>1.39</v>
+      </c>
+      <c r="BC260">
+        <v>1.7</v>
+      </c>
+      <c r="BD260">
+        <v>2.2</v>
+      </c>
+      <c r="BE260">
+        <v>3</v>
+      </c>
+      <c r="BF260">
+        <v>8</v>
+      </c>
+      <c r="BG260">
+        <v>5</v>
+      </c>
+      <c r="BH260">
+        <v>7</v>
+      </c>
+      <c r="BI260">
+        <v>6</v>
+      </c>
+      <c r="BJ260">
+        <v>15</v>
+      </c>
+      <c r="BK260">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>5414636</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45172.75</v>
+      </c>
+      <c r="F261">
+        <v>26</v>
+      </c>
+      <c r="G261" t="s">
+        <v>75</v>
+      </c>
+      <c r="H261" t="s">
+        <v>84</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>2</v>
+      </c>
+      <c r="O261" t="s">
+        <v>237</v>
+      </c>
+      <c r="P261" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q261">
+        <v>2</v>
+      </c>
+      <c r="R261">
+        <v>9</v>
+      </c>
+      <c r="S261">
+        <v>11</v>
+      </c>
+      <c r="T261">
+        <v>4</v>
+      </c>
+      <c r="U261">
+        <v>1.8</v>
+      </c>
+      <c r="V261">
+        <v>3.25</v>
+      </c>
+      <c r="W261">
+        <v>1.67</v>
+      </c>
+      <c r="X261">
+        <v>2.1</v>
+      </c>
+      <c r="Y261">
+        <v>4.33</v>
+      </c>
+      <c r="Z261">
+        <v>1.2</v>
+      </c>
+      <c r="AA261">
+        <v>10</v>
+      </c>
+      <c r="AB261">
+        <v>1.03</v>
+      </c>
+      <c r="AC261">
+        <v>3.3</v>
+      </c>
+      <c r="AD261">
+        <v>2.65</v>
+      </c>
+      <c r="AE261">
+        <v>2.45</v>
+      </c>
+      <c r="AF261">
+        <v>1.09</v>
+      </c>
+      <c r="AG261">
+        <v>5.8</v>
+      </c>
+      <c r="AH261">
+        <v>1.52</v>
+      </c>
+      <c r="AI261">
+        <v>2.38</v>
+      </c>
+      <c r="AJ261">
+        <v>2.63</v>
+      </c>
+      <c r="AK261">
+        <v>1.39</v>
+      </c>
+      <c r="AL261">
+        <v>2.38</v>
+      </c>
+      <c r="AM261">
+        <v>1.53</v>
+      </c>
+      <c r="AN261">
+        <v>1.47</v>
+      </c>
+      <c r="AO261">
+        <v>1.45</v>
+      </c>
+      <c r="AP261">
+        <v>1.2</v>
+      </c>
+      <c r="AQ261">
+        <v>1.38</v>
+      </c>
+      <c r="AR261">
+        <v>1.17</v>
+      </c>
+      <c r="AS261">
+        <v>1.36</v>
+      </c>
+      <c r="AT261">
+        <v>1.15</v>
+      </c>
+      <c r="AU261">
+        <v>1.5</v>
+      </c>
+      <c r="AV261">
+        <v>1.25</v>
+      </c>
+      <c r="AW261">
+        <v>2.75</v>
+      </c>
+      <c r="AX261">
+        <v>1.91</v>
+      </c>
+      <c r="AY261">
+        <v>8</v>
+      </c>
+      <c r="AZ261">
+        <v>2.1</v>
+      </c>
+      <c r="BA261">
+        <v>1.18</v>
+      </c>
+      <c r="BB261">
+        <v>1.26</v>
+      </c>
+      <c r="BC261">
+        <v>1.47</v>
+      </c>
+      <c r="BD261">
+        <v>1.9</v>
+      </c>
+      <c r="BE261">
+        <v>2.37</v>
+      </c>
+      <c r="BF261">
+        <v>5</v>
+      </c>
+      <c r="BG261">
+        <v>5</v>
+      </c>
+      <c r="BH261">
+        <v>4</v>
+      </c>
+      <c r="BI261">
+        <v>6</v>
+      </c>
+      <c r="BJ261">
+        <v>9</v>
+      </c>
+      <c r="BK261">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,15 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['6', '30', '40']</t>
+  </si>
+  <si>
+    <t>['21', '67', '90+1']</t>
+  </si>
+  <si>
+    <t>['17', '34', '70']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -983,6 +992,18 @@
   </si>
   <si>
     <t>['38', '90+10']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['7', '10']</t>
+  </si>
+  <si>
+    <t>['31', '66', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK261"/>
+  <dimension ref="A1:BK268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1588,7 +1609,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1866,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT3">
         <v>1.31</v>
@@ -2248,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2352,7 +2373,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2543,7 +2564,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2633,7 +2654,7 @@
         <v>1.62</v>
       </c>
       <c r="AT7">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3015,7 +3036,7 @@
         <v>1.15</v>
       </c>
       <c r="AT9">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3588,7 +3609,7 @@
         <v>1.36</v>
       </c>
       <c r="AT12">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3689,7 +3710,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3776,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT13">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3967,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT14">
         <v>0.93</v>
@@ -4453,7 +4474,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4540,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT17">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4731,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4835,7 +4856,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5307,7 +5328,7 @@
         <v>2.38</v>
       </c>
       <c r="AT21">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU21">
         <v>1.71</v>
@@ -5599,7 +5620,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5877,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <v>0.77</v>
@@ -6172,7 +6193,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6259,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT26">
         <v>1.31</v>
@@ -6554,7 +6575,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -7026,7 +7047,7 @@
         <v>1.15</v>
       </c>
       <c r="AT30">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU30">
         <v>1.68</v>
@@ -7217,7 +7238,7 @@
         <v>1.77</v>
       </c>
       <c r="AT31">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7405,10 +7426,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT32">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU32">
         <v>1.83</v>
@@ -7700,7 +7721,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7787,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT34">
         <v>1.46</v>
@@ -7981,7 +8002,7 @@
         <v>1.62</v>
       </c>
       <c r="AT35">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU35">
         <v>1.56</v>
@@ -8169,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT36">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU36">
         <v>0.72</v>
@@ -8273,7 +8294,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8363,7 +8384,7 @@
         <v>1.15</v>
       </c>
       <c r="AT37">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU37">
         <v>2.28</v>
@@ -8464,7 +8485,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8846,7 +8867,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8933,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT40">
         <v>0.92</v>
@@ -9124,10 +9145,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT41">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU41">
         <v>1.49</v>
@@ -9509,7 +9530,7 @@
         <v>1.77</v>
       </c>
       <c r="AT43">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU43">
         <v>1.45</v>
@@ -9697,7 +9718,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT44">
         <v>1.46</v>
@@ -9888,7 +9909,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT45">
         <v>1.31</v>
@@ -10079,10 +10100,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT46">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10273,7 +10294,7 @@
         <v>1.85</v>
       </c>
       <c r="AT47">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU47">
         <v>1.35</v>
@@ -10374,7 +10395,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10461,7 +10482,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT48">
         <v>1.38</v>
@@ -10565,7 +10586,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10652,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT49">
         <v>0.62</v>
@@ -10846,7 +10867,7 @@
         <v>1.92</v>
       </c>
       <c r="AT50">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU50">
         <v>1.54</v>
@@ -10947,7 +10968,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11138,7 +11159,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11419,7 +11440,7 @@
         <v>2.23</v>
       </c>
       <c r="AT53">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU53">
         <v>1.28</v>
@@ -11798,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT55">
         <v>0.62</v>
@@ -12093,7 +12114,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12284,7 +12305,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12374,7 +12395,7 @@
         <v>0.62</v>
       </c>
       <c r="AT58">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU58">
         <v>1.33</v>
@@ -12475,7 +12496,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12562,7 +12583,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT59">
         <v>1.15</v>
@@ -12666,7 +12687,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -12753,10 +12774,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT60">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU60">
         <v>1.93</v>
@@ -12944,7 +12965,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT61">
         <v>1.38</v>
@@ -13326,10 +13347,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT63">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU63">
         <v>1.52</v>
@@ -13430,7 +13451,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13517,7 +13538,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT64">
         <v>1.46</v>
@@ -13711,7 +13732,7 @@
         <v>1.23</v>
       </c>
       <c r="AT65">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU65">
         <v>1.61</v>
@@ -13812,7 +13833,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13899,7 +13920,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT66">
         <v>1.77</v>
@@ -14003,7 +14024,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14281,10 +14302,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT68">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU68">
         <v>1.83</v>
@@ -14385,7 +14406,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14475,7 +14496,7 @@
         <v>1.77</v>
       </c>
       <c r="AT69">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU69">
         <v>1.55</v>
@@ -15722,7 +15743,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15913,7 +15934,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16486,7 +16507,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16573,10 +16594,10 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT80">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU80">
         <v>1.4</v>
@@ -16677,7 +16698,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16868,7 +16889,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17149,7 +17170,7 @@
         <v>1.85</v>
       </c>
       <c r="AT83">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU83">
         <v>1.53</v>
@@ -17337,10 +17358,10 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT84">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU84">
         <v>1.75</v>
@@ -17528,10 +17549,10 @@
         <v>1.67</v>
       </c>
       <c r="AS85">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT85">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU85">
         <v>1.57</v>
@@ -17632,7 +17653,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17719,7 +17740,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT86">
         <v>1.46</v>
@@ -17823,7 +17844,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17910,10 +17931,10 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT87">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU87">
         <v>1.65</v>
@@ -18101,10 +18122,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT88">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU88">
         <v>2.06</v>
@@ -18292,10 +18313,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT89">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU89">
         <v>1.55</v>
@@ -18674,7 +18695,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -19160,7 +19181,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19438,7 +19459,7 @@
         <v>0.5</v>
       </c>
       <c r="AS95">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT95">
         <v>0.77</v>
@@ -19542,7 +19563,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19823,7 +19844,7 @@
         <v>1.92</v>
       </c>
       <c r="AT97">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU97">
         <v>2.18</v>
@@ -20115,7 +20136,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20393,10 +20414,10 @@
         <v>1.75</v>
       </c>
       <c r="AS100">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT100">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU100">
         <v>1.6</v>
@@ -20584,10 +20605,10 @@
         <v>0.2</v>
       </c>
       <c r="AS101">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT101">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU101">
         <v>1.75</v>
@@ -20688,7 +20709,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20775,7 +20796,7 @@
         <v>2</v>
       </c>
       <c r="AS102">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT102">
         <v>1.38</v>
@@ -20879,7 +20900,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21070,7 +21091,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21351,7 +21372,7 @@
         <v>2</v>
       </c>
       <c r="AT105">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU105">
         <v>2</v>
@@ -21539,7 +21560,7 @@
         <v>0.67</v>
       </c>
       <c r="AS106">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT106">
         <v>0.92</v>
@@ -21733,7 +21754,7 @@
         <v>1.23</v>
       </c>
       <c r="AT107">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU107">
         <v>1.87</v>
@@ -22497,7 +22518,7 @@
         <v>1.92</v>
       </c>
       <c r="AT111">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU111">
         <v>1.88</v>
@@ -22685,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT112">
         <v>1.31</v>
@@ -22879,7 +22900,7 @@
         <v>2</v>
       </c>
       <c r="AT113">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU113">
         <v>1.99</v>
@@ -22980,7 +23001,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23067,7 +23088,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT114">
         <v>1.23</v>
@@ -23171,7 +23192,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23449,7 +23470,7 @@
         <v>1.25</v>
       </c>
       <c r="AS116">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT116">
         <v>1.15</v>
@@ -23643,7 +23664,7 @@
         <v>1.15</v>
       </c>
       <c r="AT117">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU117">
         <v>2.02</v>
@@ -23834,7 +23855,7 @@
         <v>2.38</v>
       </c>
       <c r="AT118">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU118">
         <v>1.71</v>
@@ -23935,7 +23956,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24213,10 +24234,10 @@
         <v>2</v>
       </c>
       <c r="AS120">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT120">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24317,7 +24338,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24595,7 +24616,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT122">
         <v>1.77</v>
@@ -24890,7 +24911,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24980,7 +25001,7 @@
         <v>1.36</v>
       </c>
       <c r="AT124">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU124">
         <v>1.49</v>
@@ -25171,7 +25192,7 @@
         <v>1.15</v>
       </c>
       <c r="AT125">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU125">
         <v>1.76</v>
@@ -25359,10 +25380,10 @@
         <v>1.6</v>
       </c>
       <c r="AS126">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT126">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU126">
         <v>1.55</v>
@@ -25463,7 +25484,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25550,7 +25571,7 @@
         <v>2.17</v>
       </c>
       <c r="AS127">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT127">
         <v>1.46</v>
@@ -25654,7 +25675,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25741,10 +25762,10 @@
         <v>0.33</v>
       </c>
       <c r="AS128">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT128">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU128">
         <v>1.68</v>
@@ -25845,7 +25866,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26227,7 +26248,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26314,7 +26335,7 @@
         <v>1.2</v>
       </c>
       <c r="AS131">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT131">
         <v>1.15</v>
@@ -26890,7 +26911,7 @@
         <v>2</v>
       </c>
       <c r="AT134">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU134">
         <v>1.89</v>
@@ -27078,7 +27099,7 @@
         <v>0.57</v>
       </c>
       <c r="AS135">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT135">
         <v>0.92</v>
@@ -27182,7 +27203,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27460,7 +27481,7 @@
         <v>0.33</v>
       </c>
       <c r="AS137">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT137">
         <v>0.77</v>
@@ -27654,7 +27675,7 @@
         <v>2.38</v>
       </c>
       <c r="AT138">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU138">
         <v>1.73</v>
@@ -27755,7 +27776,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27946,7 +27967,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28137,7 +28158,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28224,7 +28245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT141">
         <v>1</v>
@@ -28418,7 +28439,7 @@
         <v>1.85</v>
       </c>
       <c r="AT142">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU142">
         <v>1.84</v>
@@ -28519,7 +28540,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28609,7 +28630,7 @@
         <v>1.23</v>
       </c>
       <c r="AT143">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU143">
         <v>1.88</v>
@@ -28710,7 +28731,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28800,7 +28821,7 @@
         <v>1.15</v>
       </c>
       <c r="AT144">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -28901,7 +28922,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28991,7 +29012,7 @@
         <v>1.77</v>
       </c>
       <c r="AT145">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU145">
         <v>1.58</v>
@@ -29370,7 +29391,7 @@
         <v>2</v>
       </c>
       <c r="AS147">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT147">
         <v>1.31</v>
@@ -29561,7 +29582,7 @@
         <v>2.29</v>
       </c>
       <c r="AS148">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT148">
         <v>1.46</v>
@@ -29752,7 +29773,7 @@
         <v>0.57</v>
       </c>
       <c r="AS149">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT149">
         <v>0.93</v>
@@ -29946,7 +29967,7 @@
         <v>1.36</v>
       </c>
       <c r="AT150">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU150">
         <v>1.54</v>
@@ -30238,7 +30259,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30516,10 +30537,10 @@
         <v>1.57</v>
       </c>
       <c r="AS153">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT153">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU153">
         <v>1.56</v>
@@ -30710,7 +30731,7 @@
         <v>2.23</v>
       </c>
       <c r="AT154">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU154">
         <v>1.38</v>
@@ -30901,7 +30922,7 @@
         <v>0.62</v>
       </c>
       <c r="AT155">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU155">
         <v>1.31</v>
@@ -31002,7 +31023,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31280,7 +31301,7 @@
         <v>1.5</v>
       </c>
       <c r="AS157">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT157">
         <v>1.77</v>
@@ -31471,10 +31492,10 @@
         <v>0.57</v>
       </c>
       <c r="AS158">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT158">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU158">
         <v>1.81</v>
@@ -31662,7 +31683,7 @@
         <v>1.29</v>
       </c>
       <c r="AS159">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT159">
         <v>1.23</v>
@@ -31853,7 +31874,7 @@
         <v>1.29</v>
       </c>
       <c r="AS160">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT160">
         <v>1.15</v>
@@ -32148,7 +32169,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32238,7 +32259,7 @@
         <v>2.15</v>
       </c>
       <c r="AT162">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU162">
         <v>1.81</v>
@@ -32811,7 +32832,7 @@
         <v>1.62</v>
       </c>
       <c r="AT165">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU165">
         <v>1.68</v>
@@ -33002,7 +33023,7 @@
         <v>1.15</v>
       </c>
       <c r="AT166">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU166">
         <v>1.3</v>
@@ -33190,7 +33211,7 @@
         <v>0.57</v>
       </c>
       <c r="AS167">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT167">
         <v>0.62</v>
@@ -33381,7 +33402,7 @@
         <v>1.75</v>
       </c>
       <c r="AS168">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT168">
         <v>1.31</v>
@@ -33766,7 +33787,7 @@
         <v>1.36</v>
       </c>
       <c r="AT170">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU170">
         <v>1.54</v>
@@ -33867,7 +33888,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33954,7 +33975,7 @@
         <v>1.13</v>
       </c>
       <c r="AS171">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT171">
         <v>1.23</v>
@@ -34145,7 +34166,7 @@
         <v>0.89</v>
       </c>
       <c r="AS172">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT172">
         <v>0.93</v>
@@ -34336,7 +34357,7 @@
         <v>1.44</v>
       </c>
       <c r="AS173">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT173">
         <v>1.77</v>
@@ -34440,7 +34461,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34721,7 +34742,7 @@
         <v>2</v>
       </c>
       <c r="AT175">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU175">
         <v>1.99</v>
@@ -34822,7 +34843,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -34912,7 +34933,7 @@
         <v>0.62</v>
       </c>
       <c r="AT176">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU176">
         <v>1.49</v>
@@ -35100,10 +35121,10 @@
         <v>1.56</v>
       </c>
       <c r="AS177">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT177">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU177">
         <v>1.56</v>
@@ -35294,7 +35315,7 @@
         <v>1.15</v>
       </c>
       <c r="AT178">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU178">
         <v>1.64</v>
@@ -35395,7 +35416,7 @@
         <v>196</v>
       </c>
       <c r="P179" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35482,7 +35503,7 @@
         <v>1.44</v>
       </c>
       <c r="AS179">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT179">
         <v>1.38</v>
@@ -35864,7 +35885,7 @@
         <v>0.88</v>
       </c>
       <c r="AS181">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT181">
         <v>0.62</v>
@@ -35968,7 +35989,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36058,7 +36079,7 @@
         <v>1.92</v>
       </c>
       <c r="AT182">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU182">
         <v>1.95</v>
@@ -36350,7 +36371,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36437,7 +36458,7 @@
         <v>0.63</v>
       </c>
       <c r="AS184">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT184">
         <v>0.92</v>
@@ -36923,7 +36944,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -37305,7 +37326,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37395,7 +37416,7 @@
         <v>1.15</v>
       </c>
       <c r="AT189">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU189">
         <v>1.21</v>
@@ -37496,7 +37517,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37583,7 +37604,7 @@
         <v>0.8</v>
       </c>
       <c r="AS190">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT190">
         <v>0.93</v>
@@ -37774,7 +37795,7 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT191">
         <v>1.23</v>
@@ -37965,7 +37986,7 @@
         <v>1.22</v>
       </c>
       <c r="AS192">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT192">
         <v>1.15</v>
@@ -38069,7 +38090,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38260,7 +38281,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38350,7 +38371,7 @@
         <v>1.15</v>
       </c>
       <c r="AT194">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU194">
         <v>1.58</v>
@@ -38541,7 +38562,7 @@
         <v>0.62</v>
       </c>
       <c r="AT195">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU195">
         <v>1.43</v>
@@ -38642,7 +38663,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38732,7 +38753,7 @@
         <v>1.85</v>
       </c>
       <c r="AT196">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU196">
         <v>1.76</v>
@@ -38833,7 +38854,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -38920,10 +38941,10 @@
         <v>1.67</v>
       </c>
       <c r="AS197">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT197">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU197">
         <v>1.77</v>
@@ -39114,7 +39135,7 @@
         <v>2</v>
       </c>
       <c r="AT198">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU198">
         <v>2.01</v>
@@ -39215,7 +39236,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39302,7 +39323,7 @@
         <v>1.6</v>
       </c>
       <c r="AS199">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT199">
         <v>1.38</v>
@@ -39406,7 +39427,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39493,7 +39514,7 @@
         <v>0.89</v>
       </c>
       <c r="AS200">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT200">
         <v>0.92</v>
@@ -39687,7 +39708,7 @@
         <v>1.23</v>
       </c>
       <c r="AT201">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU201">
         <v>1.8</v>
@@ -39788,7 +39809,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -40066,7 +40087,7 @@
         <v>0.78</v>
       </c>
       <c r="AS203">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT203">
         <v>0.62</v>
@@ -40833,7 +40854,7 @@
         <v>2.38</v>
       </c>
       <c r="AT207">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU207">
         <v>1.7</v>
@@ -40934,7 +40955,7 @@
         <v>127</v>
       </c>
       <c r="P208" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -41403,10 +41424,10 @@
         <v>0.8</v>
       </c>
       <c r="AS210">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT210">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU210">
         <v>1.76</v>
@@ -41597,7 +41618,7 @@
         <v>1.15</v>
       </c>
       <c r="AT211">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU211">
         <v>1.57</v>
@@ -41785,10 +41806,10 @@
         <v>1.18</v>
       </c>
       <c r="AS212">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT212">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU212">
         <v>1.39</v>
@@ -41979,7 +42000,7 @@
         <v>1.77</v>
       </c>
       <c r="AT213">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU213">
         <v>1.5</v>
@@ -42167,7 +42188,7 @@
         <v>1.73</v>
       </c>
       <c r="AS214">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT214">
         <v>1.46</v>
@@ -42358,7 +42379,7 @@
         <v>0.67</v>
       </c>
       <c r="AS215">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT215">
         <v>1</v>
@@ -42549,10 +42570,10 @@
         <v>0.64</v>
       </c>
       <c r="AS216">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT216">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU216">
         <v>1.56</v>
@@ -42653,7 +42674,7 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42743,7 +42764,7 @@
         <v>1.62</v>
       </c>
       <c r="AT217">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU217">
         <v>1.64</v>
@@ -42844,7 +42865,7 @@
         <v>217</v>
       </c>
       <c r="P218" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -43226,7 +43247,7 @@
         <v>219</v>
       </c>
       <c r="P220" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -43504,7 +43525,7 @@
         <v>1.3</v>
       </c>
       <c r="AS221">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT221">
         <v>1.15</v>
@@ -43698,7 +43719,7 @@
         <v>2.15</v>
       </c>
       <c r="AT222">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU222">
         <v>1.79</v>
@@ -43990,7 +44011,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44459,7 +44480,7 @@
         <v>0.8</v>
       </c>
       <c r="AS226">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT226">
         <v>1.31</v>
@@ -44945,7 +44966,7 @@
         <v>223</v>
       </c>
       <c r="P229" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45136,7 +45157,7 @@
         <v>100</v>
       </c>
       <c r="P230" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -45608,7 +45629,7 @@
         <v>2.38</v>
       </c>
       <c r="AT232">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU232">
         <v>1.59</v>
@@ -45709,7 +45730,7 @@
         <v>226</v>
       </c>
       <c r="P233" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45900,7 +45921,7 @@
         <v>227</v>
       </c>
       <c r="P234" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46091,7 +46112,7 @@
         <v>167</v>
       </c>
       <c r="P235" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46369,10 +46390,10 @@
         <v>1.45</v>
       </c>
       <c r="AS236">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT236">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU236">
         <v>1.4</v>
@@ -46563,7 +46584,7 @@
         <v>1.62</v>
       </c>
       <c r="AT237">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU237">
         <v>1.61</v>
@@ -46664,7 +46685,7 @@
         <v>134</v>
       </c>
       <c r="P238" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q238">
         <v>11</v>
@@ -46942,7 +46963,7 @@
         <v>0.82</v>
       </c>
       <c r="AS239">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT239">
         <v>0.77</v>
@@ -47046,7 +47067,7 @@
         <v>100</v>
       </c>
       <c r="P240" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q240">
         <v>5</v>
@@ -47133,7 +47154,7 @@
         <v>1.67</v>
       </c>
       <c r="AS240">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT240">
         <v>1.77</v>
@@ -47327,7 +47348,7 @@
         <v>2.15</v>
       </c>
       <c r="AT241">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU241">
         <v>1.79</v>
@@ -47428,7 +47449,7 @@
         <v>229</v>
       </c>
       <c r="P242" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q242">
         <v>3</v>
@@ -47619,7 +47640,7 @@
         <v>143</v>
       </c>
       <c r="P243" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q243">
         <v>6</v>
@@ -47897,10 +47918,10 @@
         <v>0.42</v>
       </c>
       <c r="AS244">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT244">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU244">
         <v>1.49</v>
@@ -48001,7 +48022,7 @@
         <v>231</v>
       </c>
       <c r="P245" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q245">
         <v>11</v>
@@ -48088,7 +48109,7 @@
         <v>0.83</v>
       </c>
       <c r="AS245">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT245">
         <v>0.93</v>
@@ -48282,7 +48303,7 @@
         <v>1.23</v>
       </c>
       <c r="AT246">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU246">
         <v>1.69</v>
@@ -48383,7 +48404,7 @@
         <v>233</v>
       </c>
       <c r="P247" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q247">
         <v>10</v>
@@ -48470,7 +48491,7 @@
         <v>1.33</v>
       </c>
       <c r="AS247">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT247">
         <v>1.31</v>
@@ -48852,7 +48873,7 @@
         <v>0.92</v>
       </c>
       <c r="AS249">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT249">
         <v>0.92</v>
@@ -49237,7 +49258,7 @@
         <v>1.36</v>
       </c>
       <c r="AT251">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU251">
         <v>1.51</v>
@@ -49911,7 +49932,7 @@
         <v>235</v>
       </c>
       <c r="P255" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q255">
         <v>14</v>
@@ -50102,7 +50123,7 @@
         <v>100</v>
       </c>
       <c r="P256" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q256">
         <v>7</v>
@@ -50383,7 +50404,7 @@
         <v>0.62</v>
       </c>
       <c r="AT257">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU257">
         <v>1.38</v>
@@ -50571,10 +50592,10 @@
         <v>1.33</v>
       </c>
       <c r="AS258">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT258">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU258">
         <v>1.57</v>
@@ -51199,6 +51220,1343 @@
       </c>
       <c r="BK261">
         <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:63">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>5414650</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45174.89583333334</v>
+      </c>
+      <c r="F262">
+        <v>27</v>
+      </c>
+      <c r="G262" t="s">
+        <v>81</v>
+      </c>
+      <c r="H262" t="s">
+        <v>65</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262" t="s">
+        <v>100</v>
+      </c>
+      <c r="P262" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q262">
+        <v>8</v>
+      </c>
+      <c r="R262">
+        <v>4</v>
+      </c>
+      <c r="S262">
+        <v>12</v>
+      </c>
+      <c r="T262">
+        <v>3.25</v>
+      </c>
+      <c r="U262">
+        <v>1.87</v>
+      </c>
+      <c r="V262">
+        <v>3.75</v>
+      </c>
+      <c r="W262">
+        <v>1.57</v>
+      </c>
+      <c r="X262">
+        <v>2.25</v>
+      </c>
+      <c r="Y262">
+        <v>3.6</v>
+      </c>
+      <c r="Z262">
+        <v>1.25</v>
+      </c>
+      <c r="AA262">
+        <v>10.5</v>
+      </c>
+      <c r="AB262">
+        <v>1.04</v>
+      </c>
+      <c r="AC262">
+        <v>2.2</v>
+      </c>
+      <c r="AD262">
+        <v>2.9</v>
+      </c>
+      <c r="AE262">
+        <v>3.03</v>
+      </c>
+      <c r="AF262">
+        <v>1.11</v>
+      </c>
+      <c r="AG262">
+        <v>6.5</v>
+      </c>
+      <c r="AH262">
+        <v>1.59</v>
+      </c>
+      <c r="AI262">
+        <v>2.23</v>
+      </c>
+      <c r="AJ262">
+        <v>2.56</v>
+      </c>
+      <c r="AK262">
+        <v>1.45</v>
+      </c>
+      <c r="AL262">
+        <v>2.1</v>
+      </c>
+      <c r="AM262">
+        <v>1.68</v>
+      </c>
+      <c r="AN262">
+        <v>1.28</v>
+      </c>
+      <c r="AO262">
+        <v>1.33</v>
+      </c>
+      <c r="AP262">
+        <v>1.55</v>
+      </c>
+      <c r="AQ262">
+        <v>1.08</v>
+      </c>
+      <c r="AR262">
+        <v>1.15</v>
+      </c>
+      <c r="AS262">
+        <v>1</v>
+      </c>
+      <c r="AT262">
+        <v>1.29</v>
+      </c>
+      <c r="AU262">
+        <v>1.48</v>
+      </c>
+      <c r="AV262">
+        <v>1.18</v>
+      </c>
+      <c r="AW262">
+        <v>2.66</v>
+      </c>
+      <c r="AX262">
+        <v>1.62</v>
+      </c>
+      <c r="AY262">
+        <v>7.5</v>
+      </c>
+      <c r="AZ262">
+        <v>2.88</v>
+      </c>
+      <c r="BA262">
+        <v>1.17</v>
+      </c>
+      <c r="BB262">
+        <v>1.33</v>
+      </c>
+      <c r="BC262">
+        <v>1.56</v>
+      </c>
+      <c r="BD262">
+        <v>2</v>
+      </c>
+      <c r="BE262">
+        <v>2.42</v>
+      </c>
+      <c r="BF262">
+        <v>5</v>
+      </c>
+      <c r="BG262">
+        <v>3</v>
+      </c>
+      <c r="BH262">
+        <v>13</v>
+      </c>
+      <c r="BI262">
+        <v>4</v>
+      </c>
+      <c r="BJ262">
+        <v>18</v>
+      </c>
+      <c r="BK262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:63">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>5414649</v>
+      </c>
+      <c r="C263" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45175.89583333334</v>
+      </c>
+      <c r="F263">
+        <v>27</v>
+      </c>
+      <c r="G263" t="s">
+        <v>80</v>
+      </c>
+      <c r="H263" t="s">
+        <v>72</v>
+      </c>
+      <c r="I263">
+        <v>3</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>4</v>
+      </c>
+      <c r="L263">
+        <v>3</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>4</v>
+      </c>
+      <c r="O263" t="s">
+        <v>238</v>
+      </c>
+      <c r="P263" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q263">
+        <v>5</v>
+      </c>
+      <c r="R263">
+        <v>7</v>
+      </c>
+      <c r="S263">
+        <v>12</v>
+      </c>
+      <c r="T263">
+        <v>2.15</v>
+      </c>
+      <c r="U263">
+        <v>2.05</v>
+      </c>
+      <c r="V263">
+        <v>6</v>
+      </c>
+      <c r="W263">
+        <v>1.47</v>
+      </c>
+      <c r="X263">
+        <v>2.5</v>
+      </c>
+      <c r="Y263">
+        <v>3.2</v>
+      </c>
+      <c r="Z263">
+        <v>1.31</v>
+      </c>
+      <c r="AA263">
+        <v>8.75</v>
+      </c>
+      <c r="AB263">
+        <v>1.06</v>
+      </c>
+      <c r="AC263">
+        <v>1.53</v>
+      </c>
+      <c r="AD263">
+        <v>3.6</v>
+      </c>
+      <c r="AE263">
+        <v>6</v>
+      </c>
+      <c r="AF263">
+        <v>1.08</v>
+      </c>
+      <c r="AG263">
+        <v>8</v>
+      </c>
+      <c r="AH263">
+        <v>1.38</v>
+      </c>
+      <c r="AI263">
+        <v>2.9</v>
+      </c>
+      <c r="AJ263">
+        <v>2.25</v>
+      </c>
+      <c r="AK263">
+        <v>1.59</v>
+      </c>
+      <c r="AL263">
+        <v>2.35</v>
+      </c>
+      <c r="AM263">
+        <v>1.52</v>
+      </c>
+      <c r="AN263">
+        <v>1.12</v>
+      </c>
+      <c r="AO263">
+        <v>1.26</v>
+      </c>
+      <c r="AP263">
+        <v>2.3</v>
+      </c>
+      <c r="AQ263">
+        <v>1.62</v>
+      </c>
+      <c r="AR263">
+        <v>0.38</v>
+      </c>
+      <c r="AS263">
+        <v>1.71</v>
+      </c>
+      <c r="AT263">
+        <v>0.36</v>
+      </c>
+      <c r="AU263">
+        <v>1.59</v>
+      </c>
+      <c r="AV263">
+        <v>1.19</v>
+      </c>
+      <c r="AW263">
+        <v>2.78</v>
+      </c>
+      <c r="AX263">
+        <v>1.43</v>
+      </c>
+      <c r="AY263">
+        <v>8</v>
+      </c>
+      <c r="AZ263">
+        <v>3.6</v>
+      </c>
+      <c r="BA263">
+        <v>0</v>
+      </c>
+      <c r="BB263">
+        <v>1.25</v>
+      </c>
+      <c r="BC263">
+        <v>1.46</v>
+      </c>
+      <c r="BD263">
+        <v>1.83</v>
+      </c>
+      <c r="BE263">
+        <v>2.3</v>
+      </c>
+      <c r="BF263">
+        <v>7</v>
+      </c>
+      <c r="BG263">
+        <v>5</v>
+      </c>
+      <c r="BH263">
+        <v>6</v>
+      </c>
+      <c r="BI263">
+        <v>5</v>
+      </c>
+      <c r="BJ263">
+        <v>13</v>
+      </c>
+      <c r="BK263">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:63">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>5414651</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45176.77083333334</v>
+      </c>
+      <c r="F264">
+        <v>27</v>
+      </c>
+      <c r="G264" t="s">
+        <v>77</v>
+      </c>
+      <c r="H264" t="s">
+        <v>82</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>3</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>3</v>
+      </c>
+      <c r="O264" t="s">
+        <v>239</v>
+      </c>
+      <c r="P264" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q264">
+        <v>5</v>
+      </c>
+      <c r="R264">
+        <v>8</v>
+      </c>
+      <c r="S264">
+        <v>13</v>
+      </c>
+      <c r="T264">
+        <v>2.5</v>
+      </c>
+      <c r="U264">
+        <v>1.93</v>
+      </c>
+      <c r="V264">
+        <v>5</v>
+      </c>
+      <c r="W264">
+        <v>1.52</v>
+      </c>
+      <c r="X264">
+        <v>2.35</v>
+      </c>
+      <c r="Y264">
+        <v>3.4</v>
+      </c>
+      <c r="Z264">
+        <v>1.28</v>
+      </c>
+      <c r="AA264">
+        <v>9.5</v>
+      </c>
+      <c r="AB264">
+        <v>1.05</v>
+      </c>
+      <c r="AC264">
+        <v>1.76</v>
+      </c>
+      <c r="AD264">
+        <v>3.25</v>
+      </c>
+      <c r="AE264">
+        <v>4.45</v>
+      </c>
+      <c r="AF264">
+        <v>1.1</v>
+      </c>
+      <c r="AG264">
+        <v>7</v>
+      </c>
+      <c r="AH264">
+        <v>1.48</v>
+      </c>
+      <c r="AI264">
+        <v>2.65</v>
+      </c>
+      <c r="AJ264">
+        <v>2.3</v>
+      </c>
+      <c r="AK264">
+        <v>1.5</v>
+      </c>
+      <c r="AL264">
+        <v>2.15</v>
+      </c>
+      <c r="AM264">
+        <v>1.61</v>
+      </c>
+      <c r="AN264">
+        <v>1.15</v>
+      </c>
+      <c r="AO264">
+        <v>1.25</v>
+      </c>
+      <c r="AP264">
+        <v>2</v>
+      </c>
+      <c r="AQ264">
+        <v>1.08</v>
+      </c>
+      <c r="AR264">
+        <v>0.62</v>
+      </c>
+      <c r="AS264">
+        <v>1.21</v>
+      </c>
+      <c r="AT264">
+        <v>0.57</v>
+      </c>
+      <c r="AU264">
+        <v>1.73</v>
+      </c>
+      <c r="AV264">
+        <v>0.99</v>
+      </c>
+      <c r="AW264">
+        <v>2.72</v>
+      </c>
+      <c r="AX264">
+        <v>1.43</v>
+      </c>
+      <c r="AY264">
+        <v>7.5</v>
+      </c>
+      <c r="AZ264">
+        <v>3.75</v>
+      </c>
+      <c r="BA264">
+        <v>1.25</v>
+      </c>
+      <c r="BB264">
+        <v>1.47</v>
+      </c>
+      <c r="BC264">
+        <v>1.93</v>
+      </c>
+      <c r="BD264">
+        <v>2.4</v>
+      </c>
+      <c r="BE264">
+        <v>3.4</v>
+      </c>
+      <c r="BF264">
+        <v>7</v>
+      </c>
+      <c r="BG264">
+        <v>4</v>
+      </c>
+      <c r="BH264">
+        <v>6</v>
+      </c>
+      <c r="BI264">
+        <v>8</v>
+      </c>
+      <c r="BJ264">
+        <v>13</v>
+      </c>
+      <c r="BK264">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:63">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>5414646</v>
+      </c>
+      <c r="C265" t="s">
+        <v>63</v>
+      </c>
+      <c r="D265" t="s">
+        <v>64</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45177.75</v>
+      </c>
+      <c r="F265">
+        <v>27</v>
+      </c>
+      <c r="G265" t="s">
+        <v>66</v>
+      </c>
+      <c r="H265" t="s">
+        <v>67</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>2</v>
+      </c>
+      <c r="K265">
+        <v>2</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265">
+        <v>2</v>
+      </c>
+      <c r="N265">
+        <v>3</v>
+      </c>
+      <c r="O265" t="s">
+        <v>150</v>
+      </c>
+      <c r="P265" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q265">
+        <v>8</v>
+      </c>
+      <c r="R265">
+        <v>3</v>
+      </c>
+      <c r="S265">
+        <v>11</v>
+      </c>
+      <c r="T265">
+        <v>3.5</v>
+      </c>
+      <c r="U265">
+        <v>1.78</v>
+      </c>
+      <c r="V265">
+        <v>3.7</v>
+      </c>
+      <c r="W265">
+        <v>1.65</v>
+      </c>
+      <c r="X265">
+        <v>2.1</v>
+      </c>
+      <c r="Y265">
+        <v>4.1</v>
+      </c>
+      <c r="Z265">
+        <v>1.2</v>
+      </c>
+      <c r="AA265">
+        <v>12.5</v>
+      </c>
+      <c r="AB265">
+        <v>1.03</v>
+      </c>
+      <c r="AC265">
+        <v>2.41</v>
+      </c>
+      <c r="AD265">
+        <v>2.88</v>
+      </c>
+      <c r="AE265">
+        <v>2.87</v>
+      </c>
+      <c r="AF265">
+        <v>1.12</v>
+      </c>
+      <c r="AG265">
+        <v>5.5</v>
+      </c>
+      <c r="AH265">
+        <v>1.54</v>
+      </c>
+      <c r="AI265">
+        <v>2.33</v>
+      </c>
+      <c r="AJ265">
+        <v>2.65</v>
+      </c>
+      <c r="AK265">
+        <v>1.38</v>
+      </c>
+      <c r="AL265">
+        <v>2.3</v>
+      </c>
+      <c r="AM265">
+        <v>1.53</v>
+      </c>
+      <c r="AN265">
+        <v>1.39</v>
+      </c>
+      <c r="AO265">
+        <v>1.4</v>
+      </c>
+      <c r="AP265">
+        <v>1.44</v>
+      </c>
+      <c r="AQ265">
+        <v>1.58</v>
+      </c>
+      <c r="AR265">
+        <v>1.31</v>
+      </c>
+      <c r="AS265">
+        <v>1.46</v>
+      </c>
+      <c r="AT265">
+        <v>1.43</v>
+      </c>
+      <c r="AU265">
+        <v>1.45</v>
+      </c>
+      <c r="AV265">
+        <v>1.55</v>
+      </c>
+      <c r="AW265">
+        <v>3</v>
+      </c>
+      <c r="AX265">
+        <v>1.8</v>
+      </c>
+      <c r="AY265">
+        <v>7.8</v>
+      </c>
+      <c r="AZ265">
+        <v>2.47</v>
+      </c>
+      <c r="BA265">
+        <v>1.19</v>
+      </c>
+      <c r="BB265">
+        <v>1.37</v>
+      </c>
+      <c r="BC265">
+        <v>1.66</v>
+      </c>
+      <c r="BD265">
+        <v>2.15</v>
+      </c>
+      <c r="BE265">
+        <v>2.9</v>
+      </c>
+      <c r="BF265">
+        <v>7</v>
+      </c>
+      <c r="BG265">
+        <v>4</v>
+      </c>
+      <c r="BH265">
+        <v>12</v>
+      </c>
+      <c r="BI265">
+        <v>4</v>
+      </c>
+      <c r="BJ265">
+        <v>19</v>
+      </c>
+      <c r="BK265">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:63">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>5414643</v>
+      </c>
+      <c r="C266" t="s">
+        <v>63</v>
+      </c>
+      <c r="D266" t="s">
+        <v>64</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45178.70833333334</v>
+      </c>
+      <c r="F266">
+        <v>27</v>
+      </c>
+      <c r="G266" t="s">
+        <v>76</v>
+      </c>
+      <c r="H266" t="s">
+        <v>69</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+      <c r="O266" t="s">
+        <v>100</v>
+      </c>
+      <c r="P266" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q266">
+        <v>3</v>
+      </c>
+      <c r="R266">
+        <v>5</v>
+      </c>
+      <c r="S266">
+        <v>8</v>
+      </c>
+      <c r="T266">
+        <v>3.04</v>
+      </c>
+      <c r="U266">
+        <v>1.95</v>
+      </c>
+      <c r="V266">
+        <v>4.76</v>
+      </c>
+      <c r="W266">
+        <v>1.58</v>
+      </c>
+      <c r="X266">
+        <v>2.2</v>
+      </c>
+      <c r="Y266">
+        <v>3.8</v>
+      </c>
+      <c r="Z266">
+        <v>1.23</v>
+      </c>
+      <c r="AA266">
+        <v>11.5</v>
+      </c>
+      <c r="AB266">
+        <v>1.04</v>
+      </c>
+      <c r="AC266">
+        <v>2.11</v>
+      </c>
+      <c r="AD266">
+        <v>3.05</v>
+      </c>
+      <c r="AE266">
+        <v>3.6</v>
+      </c>
+      <c r="AF266">
+        <v>1.11</v>
+      </c>
+      <c r="AG266">
+        <v>6.5</v>
+      </c>
+      <c r="AH266">
+        <v>1.54</v>
+      </c>
+      <c r="AI266">
+        <v>2.33</v>
+      </c>
+      <c r="AJ266">
+        <v>2.73</v>
+      </c>
+      <c r="AK266">
+        <v>1.4</v>
+      </c>
+      <c r="AL266">
+        <v>2.25</v>
+      </c>
+      <c r="AM266">
+        <v>1.55</v>
+      </c>
+      <c r="AN266">
+        <v>1.22</v>
+      </c>
+      <c r="AO266">
+        <v>1.3</v>
+      </c>
+      <c r="AP266">
+        <v>1.68</v>
+      </c>
+      <c r="AQ266">
+        <v>1.62</v>
+      </c>
+      <c r="AR266">
+        <v>0.85</v>
+      </c>
+      <c r="AS266">
+        <v>1.57</v>
+      </c>
+      <c r="AT266">
+        <v>0.86</v>
+      </c>
+      <c r="AU266">
+        <v>1.43</v>
+      </c>
+      <c r="AV266">
+        <v>1.1</v>
+      </c>
+      <c r="AW266">
+        <v>2.53</v>
+      </c>
+      <c r="AX266">
+        <v>1.62</v>
+      </c>
+      <c r="AY266">
+        <v>8.1</v>
+      </c>
+      <c r="AZ266">
+        <v>2.86</v>
+      </c>
+      <c r="BA266">
+        <v>1.15</v>
+      </c>
+      <c r="BB266">
+        <v>1.26</v>
+      </c>
+      <c r="BC266">
+        <v>1.47</v>
+      </c>
+      <c r="BD266">
+        <v>1.95</v>
+      </c>
+      <c r="BE266">
+        <v>2.37</v>
+      </c>
+      <c r="BF266">
+        <v>2</v>
+      </c>
+      <c r="BG266">
+        <v>0</v>
+      </c>
+      <c r="BH266">
+        <v>9</v>
+      </c>
+      <c r="BI266">
+        <v>7</v>
+      </c>
+      <c r="BJ266">
+        <v>11</v>
+      </c>
+      <c r="BK266">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:63">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>5414647</v>
+      </c>
+      <c r="C267" t="s">
+        <v>63</v>
+      </c>
+      <c r="D267" t="s">
+        <v>64</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45178.85416666666</v>
+      </c>
+      <c r="F267">
+        <v>27</v>
+      </c>
+      <c r="G267" t="s">
+        <v>68</v>
+      </c>
+      <c r="H267" t="s">
+        <v>75</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>1</v>
+      </c>
+      <c r="O267" t="s">
+        <v>221</v>
+      </c>
+      <c r="P267" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q267">
+        <v>5</v>
+      </c>
+      <c r="R267">
+        <v>0</v>
+      </c>
+      <c r="S267">
+        <v>5</v>
+      </c>
+      <c r="T267">
+        <v>2.37</v>
+      </c>
+      <c r="U267">
+        <v>1.88</v>
+      </c>
+      <c r="V267">
+        <v>6</v>
+      </c>
+      <c r="W267">
+        <v>1.6</v>
+      </c>
+      <c r="X267">
+        <v>2.2</v>
+      </c>
+      <c r="Y267">
+        <v>3.9</v>
+      </c>
+      <c r="Z267">
+        <v>1.22</v>
+      </c>
+      <c r="AA267">
+        <v>11.5</v>
+      </c>
+      <c r="AB267">
+        <v>1.03</v>
+      </c>
+      <c r="AC267">
+        <v>1.73</v>
+      </c>
+      <c r="AD267">
+        <v>3.15</v>
+      </c>
+      <c r="AE267">
+        <v>5.5</v>
+      </c>
+      <c r="AF267">
+        <v>1.13</v>
+      </c>
+      <c r="AG267">
+        <v>6.25</v>
+      </c>
+      <c r="AH267">
+        <v>1.5</v>
+      </c>
+      <c r="AI267">
+        <v>2.37</v>
+      </c>
+      <c r="AJ267">
+        <v>2.6</v>
+      </c>
+      <c r="AK267">
+        <v>1.45</v>
+      </c>
+      <c r="AL267">
+        <v>2.6</v>
+      </c>
+      <c r="AM267">
+        <v>1.43</v>
+      </c>
+      <c r="AN267">
+        <v>1.14</v>
+      </c>
+      <c r="AO267">
+        <v>1.31</v>
+      </c>
+      <c r="AP267">
+        <v>2.1</v>
+      </c>
+      <c r="AQ267">
+        <v>1.69</v>
+      </c>
+      <c r="AR267">
+        <v>1.33</v>
+      </c>
+      <c r="AS267">
+        <v>1.79</v>
+      </c>
+      <c r="AT267">
+        <v>1.23</v>
+      </c>
+      <c r="AU267">
+        <v>1.64</v>
+      </c>
+      <c r="AV267">
+        <v>1.12</v>
+      </c>
+      <c r="AW267">
+        <v>2.76</v>
+      </c>
+      <c r="AX267">
+        <v>1.45</v>
+      </c>
+      <c r="AY267">
+        <v>8</v>
+      </c>
+      <c r="AZ267">
+        <v>3.5</v>
+      </c>
+      <c r="BA267">
+        <v>1.18</v>
+      </c>
+      <c r="BB267">
+        <v>1.31</v>
+      </c>
+      <c r="BC267">
+        <v>1.57</v>
+      </c>
+      <c r="BD267">
+        <v>1.98</v>
+      </c>
+      <c r="BE267">
+        <v>2.6</v>
+      </c>
+      <c r="BF267">
+        <v>5</v>
+      </c>
+      <c r="BG267">
+        <v>3</v>
+      </c>
+      <c r="BH267">
+        <v>6</v>
+      </c>
+      <c r="BI267">
+        <v>4</v>
+      </c>
+      <c r="BJ267">
+        <v>11</v>
+      </c>
+      <c r="BK267">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:63">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>5414648</v>
+      </c>
+      <c r="C268" t="s">
+        <v>63</v>
+      </c>
+      <c r="D268" t="s">
+        <v>64</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45178.86458333334</v>
+      </c>
+      <c r="F268">
+        <v>27</v>
+      </c>
+      <c r="G268" t="s">
+        <v>84</v>
+      </c>
+      <c r="H268" t="s">
+        <v>71</v>
+      </c>
+      <c r="I268">
+        <v>2</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>3</v>
+      </c>
+      <c r="L268">
+        <v>3</v>
+      </c>
+      <c r="M268">
+        <v>3</v>
+      </c>
+      <c r="N268">
+        <v>6</v>
+      </c>
+      <c r="O268" t="s">
+        <v>240</v>
+      </c>
+      <c r="P268" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q268">
+        <v>5</v>
+      </c>
+      <c r="R268">
+        <v>4</v>
+      </c>
+      <c r="S268">
+        <v>9</v>
+      </c>
+      <c r="T268">
+        <v>2.46</v>
+      </c>
+      <c r="U268">
+        <v>1.98</v>
+      </c>
+      <c r="V268">
+        <v>5.75</v>
+      </c>
+      <c r="W268">
+        <v>1.51</v>
+      </c>
+      <c r="X268">
+        <v>2.37</v>
+      </c>
+      <c r="Y268">
+        <v>3.4</v>
+      </c>
+      <c r="Z268">
+        <v>1.27</v>
+      </c>
+      <c r="AA268">
+        <v>9.75</v>
+      </c>
+      <c r="AB268">
+        <v>1.05</v>
+      </c>
+      <c r="AC268">
+        <v>1.77</v>
+      </c>
+      <c r="AD268">
+        <v>3.25</v>
+      </c>
+      <c r="AE268">
+        <v>4.6</v>
+      </c>
+      <c r="AF268">
+        <v>1.09</v>
+      </c>
+      <c r="AG268">
+        <v>6.5</v>
+      </c>
+      <c r="AH268">
+        <v>1.45</v>
+      </c>
+      <c r="AI268">
+        <v>2.6</v>
+      </c>
+      <c r="AJ268">
+        <v>2.45</v>
+      </c>
+      <c r="AK268">
+        <v>1.5</v>
+      </c>
+      <c r="AL268">
+        <v>2.25</v>
+      </c>
+      <c r="AM268">
+        <v>1.61</v>
+      </c>
+      <c r="AN268">
+        <v>1.17</v>
+      </c>
+      <c r="AO268">
+        <v>1.32</v>
+      </c>
+      <c r="AP268">
+        <v>2.01</v>
+      </c>
+      <c r="AQ268">
+        <v>2.38</v>
+      </c>
+      <c r="AR268">
+        <v>1.23</v>
+      </c>
+      <c r="AS268">
+        <v>2.29</v>
+      </c>
+      <c r="AT268">
+        <v>1.21</v>
+      </c>
+      <c r="AU268">
+        <v>1.61</v>
+      </c>
+      <c r="AV268">
+        <v>1.14</v>
+      </c>
+      <c r="AW268">
+        <v>2.75</v>
+      </c>
+      <c r="AX268">
+        <v>1.38</v>
+      </c>
+      <c r="AY268">
+        <v>8</v>
+      </c>
+      <c r="AZ268">
+        <v>4</v>
+      </c>
+      <c r="BA268">
+        <v>0</v>
+      </c>
+      <c r="BB268">
+        <v>1.22</v>
+      </c>
+      <c r="BC268">
+        <v>1.41</v>
+      </c>
+      <c r="BD268">
+        <v>1.71</v>
+      </c>
+      <c r="BE268">
+        <v>2.2</v>
+      </c>
+      <c r="BF268">
+        <v>5</v>
+      </c>
+      <c r="BG268">
+        <v>5</v>
+      </c>
+      <c r="BH268">
+        <v>2</v>
+      </c>
+      <c r="BI268">
+        <v>3</v>
+      </c>
+      <c r="BJ268">
+        <v>7</v>
+      </c>
+      <c r="BK268">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,15 @@
     <t>['17', '34', '70']</t>
   </si>
   <si>
+    <t>['38', '72', '85']</t>
+  </si>
+  <si>
+    <t>['24', '45+3', '45+6', '77', '80', '84']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -1365,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK268"/>
+  <dimension ref="A1:BK271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1609,7 +1618,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2081,7 +2090,7 @@
         <v>1.92</v>
       </c>
       <c r="AT4">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2373,7 +2382,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2564,7 +2573,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -3415,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT11">
         <v>1.23</v>
@@ -3710,7 +3719,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -4179,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT15">
         <v>1.15</v>
@@ -4373,7 +4382,7 @@
         <v>2</v>
       </c>
       <c r="AT16">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4474,7 +4483,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4856,7 +4865,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4946,7 +4955,7 @@
         <v>0.62</v>
       </c>
       <c r="AT19">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5620,7 +5629,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6193,7 +6202,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6575,7 +6584,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6856,7 +6865,7 @@
         <v>1.92</v>
       </c>
       <c r="AT29">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU29">
         <v>1.54</v>
@@ -7235,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT31">
         <v>0.86</v>
@@ -7617,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -7721,7 +7730,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7811,7 +7820,7 @@
         <v>1.79</v>
       </c>
       <c r="AT34">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU34">
         <v>1.82</v>
@@ -8294,7 +8303,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8381,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT37">
         <v>1.43</v>
@@ -8485,7 +8494,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8575,7 +8584,7 @@
         <v>1.36</v>
       </c>
       <c r="AT38">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU38">
         <v>1.46</v>
@@ -8867,7 +8876,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9339,7 +9348,7 @@
         <v>1.23</v>
       </c>
       <c r="AT42">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU42">
         <v>1.61</v>
@@ -9527,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT43">
         <v>0.57</v>
@@ -9721,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU44">
         <v>1.86</v>
@@ -10291,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT47">
         <v>0.36</v>
@@ -10395,7 +10404,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10485,7 +10494,7 @@
         <v>1.71</v>
       </c>
       <c r="AT48">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU48">
         <v>1.71</v>
@@ -10586,7 +10595,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10968,7 +10977,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11055,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -11159,7 +11168,7 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -12114,7 +12123,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12305,7 +12314,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12496,7 +12505,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12687,7 +12696,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -12968,7 +12977,7 @@
         <v>1.79</v>
       </c>
       <c r="AT61">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU61">
         <v>1.39</v>
@@ -13156,7 +13165,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT62">
         <v>0.92</v>
@@ -13451,7 +13460,7 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13541,7 +13550,7 @@
         <v>1.46</v>
       </c>
       <c r="AT64">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU64">
         <v>1.47</v>
@@ -13833,7 +13842,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13923,7 +13932,7 @@
         <v>1</v>
       </c>
       <c r="AT66">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU66">
         <v>1.64</v>
@@ -14024,7 +14033,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14406,7 +14415,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14493,7 +14502,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT69">
         <v>1.43</v>
@@ -15743,7 +15752,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15934,7 +15943,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16507,7 +16516,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16698,7 +16707,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16785,10 +16794,10 @@
         <v>0.75</v>
       </c>
       <c r="AS81">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT81">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU81">
         <v>1.39</v>
@@ -16889,7 +16898,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16976,10 +16985,10 @@
         <v>2.25</v>
       </c>
       <c r="AS82">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT82">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -17167,7 +17176,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT83">
         <v>1.23</v>
@@ -17653,7 +17662,7 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17743,7 +17752,7 @@
         <v>1.71</v>
       </c>
       <c r="AT86">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU86">
         <v>1.55</v>
@@ -17844,7 +17853,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19181,7 +19190,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19563,7 +19572,7 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19653,7 +19662,7 @@
         <v>0.62</v>
       </c>
       <c r="AT96">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -20136,7 +20145,7 @@
         <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20709,7 +20718,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20799,7 +20808,7 @@
         <v>1.21</v>
       </c>
       <c r="AT102">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU102">
         <v>1.99</v>
@@ -20900,7 +20909,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20987,7 +20996,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT103">
         <v>1.31</v>
@@ -21091,7 +21100,7 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21942,7 +21951,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT108">
         <v>1.15</v>
@@ -22136,7 +22145,7 @@
         <v>2.15</v>
       </c>
       <c r="AT109">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU109">
         <v>1.88</v>
@@ -23001,7 +23010,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q114">
         <v>13</v>
@@ -23192,7 +23201,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23661,7 +23670,7 @@
         <v>1.4</v>
       </c>
       <c r="AS117">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT117">
         <v>1.23</v>
@@ -23956,7 +23965,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24338,7 +24347,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24425,7 +24434,7 @@
         <v>0.5</v>
       </c>
       <c r="AS121">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT121">
         <v>0.93</v>
@@ -24619,7 +24628,7 @@
         <v>2.29</v>
       </c>
       <c r="AT122">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU122">
         <v>1.62</v>
@@ -24807,7 +24816,7 @@
         <v>0.4</v>
       </c>
       <c r="AS123">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT123">
         <v>0.77</v>
@@ -24911,7 +24920,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -25189,7 +25198,7 @@
         <v>0.5</v>
       </c>
       <c r="AS125">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT125">
         <v>0.36</v>
@@ -25484,7 +25493,7 @@
         <v>141</v>
       </c>
       <c r="P127" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25574,7 +25583,7 @@
         <v>1.21</v>
       </c>
       <c r="AT127">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU127">
         <v>1.97</v>
@@ -25675,7 +25684,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25866,7 +25875,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26147,7 +26156,7 @@
         <v>2.23</v>
       </c>
       <c r="AT130">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU130">
         <v>1.51</v>
@@ -26248,7 +26257,7 @@
         <v>122</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -27203,7 +27212,7 @@
         <v>168</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27776,7 +27785,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -27967,7 +27976,7 @@
         <v>108</v>
       </c>
       <c r="P140" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28057,7 +28066,7 @@
         <v>1.15</v>
       </c>
       <c r="AT140">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU140">
         <v>1.33</v>
@@ -28158,7 +28167,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28436,7 +28445,7 @@
         <v>1.86</v>
       </c>
       <c r="AS142">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT142">
         <v>1.43</v>
@@ -28540,7 +28549,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28731,7 +28740,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q144">
         <v>11</v>
@@ -28818,7 +28827,7 @@
         <v>0.29</v>
       </c>
       <c r="AS144">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT144">
         <v>0.57</v>
@@ -28922,7 +28931,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29009,7 +29018,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT145">
         <v>0.36</v>
@@ -29203,7 +29212,7 @@
         <v>1.62</v>
       </c>
       <c r="AT146">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU146">
         <v>1.69</v>
@@ -29585,7 +29594,7 @@
         <v>1.57</v>
       </c>
       <c r="AT148">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU148">
         <v>1.58</v>
@@ -30155,7 +30164,7 @@
         <v>1.17</v>
       </c>
       <c r="AS151">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT151">
         <v>1.15</v>
@@ -30259,7 +30268,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -31023,7 +31032,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31110,7 +31119,7 @@
         <v>0.71</v>
       </c>
       <c r="AS156">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT156">
         <v>0.77</v>
@@ -31304,7 +31313,7 @@
         <v>1.46</v>
       </c>
       <c r="AT157">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU157">
         <v>1.4</v>
@@ -32068,7 +32077,7 @@
         <v>1.92</v>
       </c>
       <c r="AT161">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU161">
         <v>2.02</v>
@@ -32169,7 +32178,7 @@
         <v>143</v>
       </c>
       <c r="P162" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32447,7 +32456,7 @@
         <v>1</v>
       </c>
       <c r="AS163">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT163">
         <v>1.15</v>
@@ -33596,7 +33605,7 @@
         <v>2.38</v>
       </c>
       <c r="AT169">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU169">
         <v>1.75</v>
@@ -33888,7 +33897,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34360,7 +34369,7 @@
         <v>1.57</v>
       </c>
       <c r="AT173">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU173">
         <v>1.59</v>
@@ -34461,7 +34470,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -34548,7 +34557,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT174">
         <v>1.15</v>
@@ -34843,7 +34852,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35312,7 +35321,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT178">
         <v>0.86</v>
@@ -35416,7 +35425,7 @@
         <v>196</v>
       </c>
       <c r="P179" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35506,7 +35515,7 @@
         <v>2.29</v>
       </c>
       <c r="AT179">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU179">
         <v>1.61</v>
@@ -35694,7 +35703,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT180">
         <v>0.77</v>
@@ -35989,7 +35998,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36270,7 +36279,7 @@
         <v>2.15</v>
       </c>
       <c r="AT183">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU183">
         <v>1.86</v>
@@ -36371,7 +36380,7 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -36944,7 +36953,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q187">
         <v>13</v>
@@ -37326,7 +37335,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37517,7 +37526,7 @@
         <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -38090,7 +38099,7 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38180,7 +38189,7 @@
         <v>1.36</v>
       </c>
       <c r="AT193">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU193">
         <v>1.55</v>
@@ -38281,7 +38290,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38368,7 +38377,7 @@
         <v>1</v>
       </c>
       <c r="AS194">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT194">
         <v>1.29</v>
@@ -38663,7 +38672,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q196">
         <v>8</v>
@@ -38750,7 +38759,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT196">
         <v>0.86</v>
@@ -38854,7 +38863,7 @@
         <v>207</v>
       </c>
       <c r="P197" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39236,7 +39245,7 @@
         <v>209</v>
       </c>
       <c r="P199" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39326,7 +39335,7 @@
         <v>1.57</v>
       </c>
       <c r="AT199">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU199">
         <v>1.55</v>
@@ -39427,7 +39436,7 @@
         <v>210</v>
       </c>
       <c r="P200" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39809,7 +39818,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39896,7 +39905,7 @@
         <v>0.89</v>
       </c>
       <c r="AS202">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT202">
         <v>1.31</v>
@@ -40955,7 +40964,7 @@
         <v>127</v>
       </c>
       <c r="P208" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -41236,7 +41245,7 @@
         <v>1.62</v>
       </c>
       <c r="AT209">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU209">
         <v>1.66</v>
@@ -41615,7 +41624,7 @@
         <v>1.6</v>
       </c>
       <c r="AS211">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT211">
         <v>1.21</v>
@@ -41997,7 +42006,7 @@
         <v>1.5</v>
       </c>
       <c r="AS213">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT213">
         <v>1.23</v>
@@ -42191,7 +42200,7 @@
         <v>2.29</v>
       </c>
       <c r="AT214">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU214">
         <v>1.6</v>
@@ -42674,7 +42683,7 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42865,7 +42874,7 @@
         <v>217</v>
       </c>
       <c r="P218" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q218">
         <v>9</v>
@@ -42952,7 +42961,7 @@
         <v>0.7</v>
       </c>
       <c r="AS218">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT218">
         <v>0.62</v>
@@ -43146,7 +43155,7 @@
         <v>1.15</v>
       </c>
       <c r="AT219">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU219">
         <v>1.24</v>
@@ -43247,7 +43256,7 @@
         <v>219</v>
       </c>
       <c r="P220" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -44011,7 +44020,7 @@
         <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44674,7 +44683,7 @@
         <v>2.23</v>
       </c>
       <c r="AT227">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU227">
         <v>1.37</v>
@@ -44966,7 +44975,7 @@
         <v>223</v>
       </c>
       <c r="P229" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45157,7 +45166,7 @@
         <v>100</v>
       </c>
       <c r="P230" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -45730,7 +45739,7 @@
         <v>226</v>
       </c>
       <c r="P233" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45921,7 +45930,7 @@
         <v>227</v>
       </c>
       <c r="P234" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46008,7 +46017,7 @@
         <v>0.64</v>
       </c>
       <c r="AS234">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT234">
         <v>0.62</v>
@@ -46112,7 +46121,7 @@
         <v>167</v>
       </c>
       <c r="P235" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46685,7 +46694,7 @@
         <v>134</v>
       </c>
       <c r="P238" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q238">
         <v>11</v>
@@ -47067,7 +47076,7 @@
         <v>100</v>
       </c>
       <c r="P240" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q240">
         <v>5</v>
@@ -47157,7 +47166,7 @@
         <v>1.79</v>
       </c>
       <c r="AT240">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU240">
         <v>1.7</v>
@@ -47449,7 +47458,7 @@
         <v>229</v>
       </c>
       <c r="P242" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q242">
         <v>3</v>
@@ -47536,7 +47545,7 @@
         <v>0.91</v>
       </c>
       <c r="AS242">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT242">
         <v>0.92</v>
@@ -47640,7 +47649,7 @@
         <v>143</v>
       </c>
       <c r="P243" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q243">
         <v>6</v>
@@ -48022,7 +48031,7 @@
         <v>231</v>
       </c>
       <c r="P245" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q245">
         <v>11</v>
@@ -48404,7 +48413,7 @@
         <v>233</v>
       </c>
       <c r="P247" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q247">
         <v>10</v>
@@ -48682,10 +48691,10 @@
         <v>1.58</v>
       </c>
       <c r="AS248">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT248">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU248">
         <v>1.49</v>
@@ -49064,10 +49073,10 @@
         <v>1.42</v>
       </c>
       <c r="AS250">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT250">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU250">
         <v>1.72</v>
@@ -49932,7 +49941,7 @@
         <v>235</v>
       </c>
       <c r="P255" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q255">
         <v>14</v>
@@ -50123,7 +50132,7 @@
         <v>100</v>
       </c>
       <c r="P256" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q256">
         <v>7</v>
@@ -50210,7 +50219,7 @@
         <v>1.17</v>
       </c>
       <c r="AS256">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT256">
         <v>1.31</v>
@@ -51269,7 +51278,7 @@
         <v>100</v>
       </c>
       <c r="P262" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q262">
         <v>8</v>
@@ -51460,7 +51469,7 @@
         <v>238</v>
       </c>
       <c r="P263" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q263">
         <v>5</v>
@@ -51842,7 +51851,7 @@
         <v>150</v>
       </c>
       <c r="P265" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q265">
         <v>8</v>
@@ -52415,7 +52424,7 @@
         <v>240</v>
       </c>
       <c r="P268" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -52557,6 +52566,579 @@
       </c>
       <c r="BK268">
         <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:63">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>5414644</v>
+      </c>
+      <c r="C269" t="s">
+        <v>63</v>
+      </c>
+      <c r="D269" t="s">
+        <v>64</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45179.65625</v>
+      </c>
+      <c r="F269">
+        <v>27</v>
+      </c>
+      <c r="G269" t="s">
+        <v>74</v>
+      </c>
+      <c r="H269" t="s">
+        <v>70</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>3</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>3</v>
+      </c>
+      <c r="O269" t="s">
+        <v>241</v>
+      </c>
+      <c r="P269" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q269">
+        <v>2</v>
+      </c>
+      <c r="R269">
+        <v>6</v>
+      </c>
+      <c r="S269">
+        <v>8</v>
+      </c>
+      <c r="T269">
+        <v>2.7</v>
+      </c>
+      <c r="U269">
+        <v>1.95</v>
+      </c>
+      <c r="V269">
+        <v>4.5</v>
+      </c>
+      <c r="W269">
+        <v>1.57</v>
+      </c>
+      <c r="X269">
+        <v>2.25</v>
+      </c>
+      <c r="Y269">
+        <v>3.7</v>
+      </c>
+      <c r="Z269">
+        <v>1.22</v>
+      </c>
+      <c r="AA269">
+        <v>10.2</v>
+      </c>
+      <c r="AB269">
+        <v>1.03</v>
+      </c>
+      <c r="AC269">
+        <v>1.95</v>
+      </c>
+      <c r="AD269">
+        <v>3</v>
+      </c>
+      <c r="AE269">
+        <v>3.9</v>
+      </c>
+      <c r="AF269">
+        <v>1.1</v>
+      </c>
+      <c r="AG269">
+        <v>7</v>
+      </c>
+      <c r="AH269">
+        <v>1.48</v>
+      </c>
+      <c r="AI269">
+        <v>2.48</v>
+      </c>
+      <c r="AJ269">
+        <v>2.25</v>
+      </c>
+      <c r="AK269">
+        <v>1.53</v>
+      </c>
+      <c r="AL269">
+        <v>2.2</v>
+      </c>
+      <c r="AM269">
+        <v>1.62</v>
+      </c>
+      <c r="AN269">
+        <v>1.23</v>
+      </c>
+      <c r="AO269">
+        <v>1.3</v>
+      </c>
+      <c r="AP269">
+        <v>1.62</v>
+      </c>
+      <c r="AQ269">
+        <v>1.85</v>
+      </c>
+      <c r="AR269">
+        <v>1.77</v>
+      </c>
+      <c r="AS269">
+        <v>1.93</v>
+      </c>
+      <c r="AT269">
+        <v>1.64</v>
+      </c>
+      <c r="AU269">
+        <v>1.69</v>
+      </c>
+      <c r="AV269">
+        <v>1.21</v>
+      </c>
+      <c r="AW269">
+        <v>2.9</v>
+      </c>
+      <c r="AX269">
+        <v>1.45</v>
+      </c>
+      <c r="AY269">
+        <v>8</v>
+      </c>
+      <c r="AZ269">
+        <v>3.5</v>
+      </c>
+      <c r="BA269">
+        <v>1.16</v>
+      </c>
+      <c r="BB269">
+        <v>1.25</v>
+      </c>
+      <c r="BC269">
+        <v>1.46</v>
+      </c>
+      <c r="BD269">
+        <v>1.83</v>
+      </c>
+      <c r="BE269">
+        <v>2.3</v>
+      </c>
+      <c r="BF269">
+        <v>11</v>
+      </c>
+      <c r="BG269">
+        <v>4</v>
+      </c>
+      <c r="BH269">
+        <v>4</v>
+      </c>
+      <c r="BI269">
+        <v>2</v>
+      </c>
+      <c r="BJ269">
+        <v>15</v>
+      </c>
+      <c r="BK269">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:63">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>5414652</v>
+      </c>
+      <c r="C270" t="s">
+        <v>63</v>
+      </c>
+      <c r="D270" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45179.75</v>
+      </c>
+      <c r="F270">
+        <v>27</v>
+      </c>
+      <c r="G270" t="s">
+        <v>83</v>
+      </c>
+      <c r="H270" t="s">
+        <v>73</v>
+      </c>
+      <c r="I270">
+        <v>3</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>3</v>
+      </c>
+      <c r="L270">
+        <v>6</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>6</v>
+      </c>
+      <c r="O270" t="s">
+        <v>242</v>
+      </c>
+      <c r="P270" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q270">
+        <v>7</v>
+      </c>
+      <c r="R270">
+        <v>5</v>
+      </c>
+      <c r="S270">
+        <v>12</v>
+      </c>
+      <c r="T270">
+        <v>3</v>
+      </c>
+      <c r="U270">
+        <v>1.95</v>
+      </c>
+      <c r="V270">
+        <v>4</v>
+      </c>
+      <c r="W270">
+        <v>1.57</v>
+      </c>
+      <c r="X270">
+        <v>2.25</v>
+      </c>
+      <c r="Y270">
+        <v>3.6</v>
+      </c>
+      <c r="Z270">
+        <v>1.25</v>
+      </c>
+      <c r="AA270">
+        <v>10</v>
+      </c>
+      <c r="AB270">
+        <v>1.03</v>
+      </c>
+      <c r="AC270">
+        <v>2.4</v>
+      </c>
+      <c r="AD270">
+        <v>2.8</v>
+      </c>
+      <c r="AE270">
+        <v>3</v>
+      </c>
+      <c r="AF270">
+        <v>1.11</v>
+      </c>
+      <c r="AG270">
+        <v>6</v>
+      </c>
+      <c r="AH270">
+        <v>1.5</v>
+      </c>
+      <c r="AI270">
+        <v>2.35</v>
+      </c>
+      <c r="AJ270">
+        <v>2.55</v>
+      </c>
+      <c r="AK270">
+        <v>1.47</v>
+      </c>
+      <c r="AL270">
+        <v>2.2</v>
+      </c>
+      <c r="AM270">
+        <v>1.62</v>
+      </c>
+      <c r="AN270">
+        <v>1.3</v>
+      </c>
+      <c r="AO270">
+        <v>1.32</v>
+      </c>
+      <c r="AP270">
+        <v>1.5</v>
+      </c>
+      <c r="AQ270">
+        <v>1.77</v>
+      </c>
+      <c r="AR270">
+        <v>1.38</v>
+      </c>
+      <c r="AS270">
+        <v>1.86</v>
+      </c>
+      <c r="AT270">
+        <v>1.29</v>
+      </c>
+      <c r="AU270">
+        <v>1.48</v>
+      </c>
+      <c r="AV270">
+        <v>1.26</v>
+      </c>
+      <c r="AW270">
+        <v>2.74</v>
+      </c>
+      <c r="AX270">
+        <v>1.73</v>
+      </c>
+      <c r="AY270">
+        <v>7.5</v>
+      </c>
+      <c r="AZ270">
+        <v>2.63</v>
+      </c>
+      <c r="BA270">
+        <v>1.23</v>
+      </c>
+      <c r="BB270">
+        <v>1.44</v>
+      </c>
+      <c r="BC270">
+        <v>1.88</v>
+      </c>
+      <c r="BD270">
+        <v>2.35</v>
+      </c>
+      <c r="BE270">
+        <v>3.2</v>
+      </c>
+      <c r="BF270">
+        <v>11</v>
+      </c>
+      <c r="BG270">
+        <v>4</v>
+      </c>
+      <c r="BH270">
+        <v>5</v>
+      </c>
+      <c r="BI270">
+        <v>6</v>
+      </c>
+      <c r="BJ270">
+        <v>16</v>
+      </c>
+      <c r="BK270">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:63">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>5414645</v>
+      </c>
+      <c r="C271" t="s">
+        <v>63</v>
+      </c>
+      <c r="D271" t="s">
+        <v>64</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45180.85416666666</v>
+      </c>
+      <c r="F271">
+        <v>27</v>
+      </c>
+      <c r="G271" t="s">
+        <v>78</v>
+      </c>
+      <c r="H271" t="s">
+        <v>79</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
+        <v>243</v>
+      </c>
+      <c r="P271" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q271">
+        <v>5</v>
+      </c>
+      <c r="R271">
+        <v>5</v>
+      </c>
+      <c r="S271">
+        <v>10</v>
+      </c>
+      <c r="T271">
+        <v>3.6</v>
+      </c>
+      <c r="U271">
+        <v>1.91</v>
+      </c>
+      <c r="V271">
+        <v>3.25</v>
+      </c>
+      <c r="W271">
+        <v>1.57</v>
+      </c>
+      <c r="X271">
+        <v>2.25</v>
+      </c>
+      <c r="Y271">
+        <v>3.75</v>
+      </c>
+      <c r="Z271">
+        <v>1.25</v>
+      </c>
+      <c r="AA271">
+        <v>9</v>
+      </c>
+      <c r="AB271">
+        <v>1.04</v>
+      </c>
+      <c r="AC271">
+        <v>2.86</v>
+      </c>
+      <c r="AD271">
+        <v>2.96</v>
+      </c>
+      <c r="AE271">
+        <v>2.31</v>
+      </c>
+      <c r="AF271">
+        <v>1.11</v>
+      </c>
+      <c r="AG271">
+        <v>6.75</v>
+      </c>
+      <c r="AH271">
+        <v>1.5</v>
+      </c>
+      <c r="AI271">
+        <v>2.33</v>
+      </c>
+      <c r="AJ271">
+        <v>2.54</v>
+      </c>
+      <c r="AK271">
+        <v>1.42</v>
+      </c>
+      <c r="AL271">
+        <v>2.2</v>
+      </c>
+      <c r="AM271">
+        <v>1.62</v>
+      </c>
+      <c r="AN271">
+        <v>1.44</v>
+      </c>
+      <c r="AO271">
+        <v>1.36</v>
+      </c>
+      <c r="AP271">
+        <v>1.4</v>
+      </c>
+      <c r="AQ271">
+        <v>1.15</v>
+      </c>
+      <c r="AR271">
+        <v>1.46</v>
+      </c>
+      <c r="AS271">
+        <v>1.29</v>
+      </c>
+      <c r="AT271">
+        <v>1.36</v>
+      </c>
+      <c r="AU271">
+        <v>1.48</v>
+      </c>
+      <c r="AV271">
+        <v>1.48</v>
+      </c>
+      <c r="AW271">
+        <v>2.96</v>
+      </c>
+      <c r="AX271">
+        <v>2.38</v>
+      </c>
+      <c r="AY271">
+        <v>7.5</v>
+      </c>
+      <c r="AZ271">
+        <v>1.83</v>
+      </c>
+      <c r="BA271">
+        <v>0</v>
+      </c>
+      <c r="BB271">
+        <v>1.21</v>
+      </c>
+      <c r="BC271">
+        <v>1.33</v>
+      </c>
+      <c r="BD271">
+        <v>1.6</v>
+      </c>
+      <c r="BE271">
+        <v>1.98</v>
+      </c>
+      <c r="BF271">
+        <v>6</v>
+      </c>
+      <c r="BG271">
+        <v>5</v>
+      </c>
+      <c r="BH271">
+        <v>3</v>
+      </c>
+      <c r="BI271">
+        <v>8</v>
+      </c>
+      <c r="BJ271">
+        <v>9</v>
+      </c>
+      <c r="BK271">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK274"/>
+  <dimension ref="A1:BK282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.46</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.79</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT7" t="n">
         <v>1.23</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT10" t="n">
         <v>0.79</v>
@@ -2730,7 +2730,7 @@
         <v>1.93</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT12" t="n">
         <v>0.86</v>
@@ -3542,7 +3542,7 @@
         <v>1.29</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT16" t="n">
         <v>1.64</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU20" t="n">
         <v>1.44</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT21" t="n">
         <v>0.36</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT22" t="n">
         <v>0.93</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU23" t="n">
         <v>1.81</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU25" t="n">
         <v>1.06</v>
@@ -5775,7 +5775,7 @@
         <v>1.21</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU26" t="n">
         <v>2.32</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT27" t="n">
         <v>1.29</v>
@@ -6181,7 +6181,7 @@
         <v>0.57</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU28" t="n">
         <v>0.93</v>
@@ -7196,7 +7196,7 @@
         <v>1.93</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU33" t="n">
         <v>1.09</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT35" t="n">
         <v>1.29</v>
@@ -8008,7 +8008,7 @@
         <v>1.29</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>2.28</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT38" t="n">
         <v>1.29</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT39" t="n">
         <v>0.93</v>
@@ -8617,7 +8617,7 @@
         <v>1.21</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU40" t="n">
         <v>1.98</v>
@@ -8820,7 +8820,7 @@
         <v>1.79</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU41" t="n">
         <v>1.49</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT42" t="n">
         <v>1.64</v>
@@ -9632,7 +9632,7 @@
         <v>1.57</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU45" t="n">
         <v>1.72</v>
@@ -10444,7 +10444,7 @@
         <v>2.29</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU49" t="n">
         <v>1.58</v>
@@ -10850,7 +10850,7 @@
         <v>1.29</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU51" t="n">
         <v>2.21</v>
@@ -11050,10 +11050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU52" t="n">
         <v>1.65</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT53" t="n">
         <v>0.86</v>
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU54" t="n">
         <v>1.85</v>
@@ -11662,7 +11662,7 @@
         <v>1.71</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU57" t="n">
         <v>1.79</v>
@@ -13083,7 +13083,7 @@
         <v>1.93</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU62" t="n">
         <v>1.28</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT65" t="n">
         <v>0.57</v>
@@ -14095,10 +14095,10 @@
         <v>1.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU67" t="n">
         <v>1.51</v>
@@ -14504,7 +14504,7 @@
         <v>1.86</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU69" t="n">
         <v>1.55</v>
@@ -14704,10 +14704,10 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU70" t="n">
         <v>1.58</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU71" t="n">
         <v>2.1</v>
@@ -15113,7 +15113,7 @@
         <v>0.57</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU72" t="n">
         <v>1.49</v>
@@ -15313,10 +15313,10 @@
         <v>1.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU73" t="n">
         <v>1.72</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU75" t="n">
         <v>1.65</v>
@@ -15925,7 +15925,7 @@
         <v>1.14</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU76" t="n">
         <v>1.52</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU77" t="n">
         <v>1.18</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT78" t="n">
         <v>1.29</v>
@@ -16531,7 +16531,7 @@
         <v>0.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT79" t="n">
         <v>0.79</v>
@@ -17549,7 +17549,7 @@
         <v>1.57</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU84" t="n">
         <v>1.75</v>
@@ -18764,10 +18764,10 @@
         <v>0</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU90" t="n">
         <v>1.57</v>
@@ -18970,7 +18970,7 @@
         <v>1.71</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU91" t="n">
         <v>1.53</v>
@@ -19170,10 +19170,10 @@
         <v>1.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU92" t="n">
         <v>1.85</v>
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT93" t="n">
         <v>0.93</v>
@@ -19576,10 +19576,10 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU94" t="n">
         <v>1.65</v>
@@ -20388,10 +20388,10 @@
         <v>0.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU98" t="n">
         <v>1.38</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU100" t="n">
         <v>1.6</v>
@@ -21406,7 +21406,7 @@
         <v>1.93</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU103" t="n">
         <v>1.63</v>
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT104" t="n">
         <v>0.93</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT105" t="n">
         <v>1.29</v>
@@ -22015,7 +22015,7 @@
         <v>2.29</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU106" t="n">
         <v>1.84</v>
@@ -22215,7 +22215,7 @@
         <v>0.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT107" t="n">
         <v>0.36</v>
@@ -22421,7 +22421,7 @@
         <v>1.86</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU108" t="n">
         <v>1.49</v>
@@ -22621,7 +22621,7 @@
         <v>1.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT109" t="n">
         <v>1.64</v>
@@ -22827,7 +22827,7 @@
         <v>0.57</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU110" t="n">
         <v>1.35</v>
@@ -23233,7 +23233,7 @@
         <v>1.46</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU112" t="n">
         <v>1.44</v>
@@ -23433,7 +23433,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT113" t="n">
         <v>0.86</v>
@@ -23639,7 +23639,7 @@
         <v>1.71</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU114" t="n">
         <v>1.53</v>
@@ -23842,7 +23842,7 @@
         <v>1.14</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU115" t="n">
         <v>1.42</v>
@@ -24448,7 +24448,7 @@
         <v>1.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT118" t="n">
         <v>1.21</v>
@@ -24651,10 +24651,10 @@
         <v>0.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU119" t="n">
         <v>1.64</v>
@@ -24857,7 +24857,7 @@
         <v>2.29</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU120" t="n">
         <v>1.66</v>
@@ -25666,10 +25666,10 @@
         <v>1.67</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU124" t="n">
         <v>1.49</v>
@@ -26681,10 +26681,10 @@
         <v>2.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU129" t="n">
         <v>1.86</v>
@@ -26884,7 +26884,7 @@
         <v>2.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT130" t="n">
         <v>1.29</v>
@@ -27290,10 +27290,10 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU132" t="n">
         <v>1.83</v>
@@ -27496,7 +27496,7 @@
         <v>1.86</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU133" t="n">
         <v>1.98</v>
@@ -27696,7 +27696,7 @@
         <v>1.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT134" t="n">
         <v>1.23</v>
@@ -27902,7 +27902,7 @@
         <v>1.71</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU135" t="n">
         <v>1.57</v>
@@ -28105,7 +28105,7 @@
         <v>0.57</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU136" t="n">
         <v>1.31</v>
@@ -28508,7 +28508,7 @@
         <v>0.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT138" t="n">
         <v>0.86</v>
@@ -28711,10 +28711,10 @@
         <v>1.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU139" t="n">
         <v>1.4</v>
@@ -29120,7 +29120,7 @@
         <v>1.21</v>
       </c>
       <c r="AT141" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU141" t="n">
         <v>1.83</v>
@@ -29323,7 +29323,7 @@
         <v>1.93</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU142" t="n">
         <v>1.84</v>
@@ -29523,7 +29523,7 @@
         <v>1.5</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT143" t="n">
         <v>1.21</v>
@@ -30132,7 +30132,7 @@
         <v>1.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT146" t="n">
         <v>1.29</v>
@@ -30338,7 +30338,7 @@
         <v>2.29</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU147" t="n">
         <v>1.64</v>
@@ -30944,7 +30944,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT150" t="n">
         <v>1.29</v>
@@ -31350,10 +31350,10 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU152" t="n">
         <v>1.95</v>
@@ -31756,7 +31756,7 @@
         <v>0.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT154" t="n">
         <v>0.36</v>
@@ -32774,7 +32774,7 @@
         <v>1</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU159" t="n">
         <v>1.57</v>
@@ -32977,7 +32977,7 @@
         <v>2.29</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU160" t="n">
         <v>1.66</v>
@@ -33380,7 +33380,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT162" t="n">
         <v>1.29</v>
@@ -33786,7 +33786,7 @@
         <v>0.88</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT164" t="n">
         <v>0.93</v>
@@ -33989,7 +33989,7 @@
         <v>0.63</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT165" t="n">
         <v>0.57</v>
@@ -34195,7 +34195,7 @@
         <v>1.14</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU166" t="n">
         <v>1.3</v>
@@ -34398,7 +34398,7 @@
         <v>1.57</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU167" t="n">
         <v>1.63</v>
@@ -34601,7 +34601,7 @@
         <v>1.79</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU168" t="n">
         <v>1.84</v>
@@ -34801,7 +34801,7 @@
         <v>2</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT169" t="n">
         <v>1.36</v>
@@ -35004,7 +35004,7 @@
         <v>1.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT170" t="n">
         <v>1.21</v>
@@ -35210,7 +35210,7 @@
         <v>1.21</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU171" t="n">
         <v>1.82</v>
@@ -35819,7 +35819,7 @@
         <v>1.93</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU174" t="n">
         <v>1.74</v>
@@ -36019,7 +36019,7 @@
         <v>0.44</v>
       </c>
       <c r="AS175" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT175" t="n">
         <v>0.36</v>
@@ -36428,7 +36428,7 @@
         <v>1.71</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU177" t="n">
         <v>1.56</v>
@@ -37240,7 +37240,7 @@
         <v>1.79</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU181" t="n">
         <v>1.83</v>
@@ -37643,7 +37643,7 @@
         <v>1.78</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT183" t="n">
         <v>1.36</v>
@@ -37849,7 +37849,7 @@
         <v>1.46</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU184" t="n">
         <v>1.38</v>
@@ -38049,10 +38049,10 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU185" t="n">
         <v>1.41</v>
@@ -38252,10 +38252,10 @@
         <v>1.67</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU186" t="n">
         <v>1.71</v>
@@ -38455,7 +38455,7 @@
         <v>0.88</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT187" t="n">
         <v>1.29</v>
@@ -38658,10 +38658,10 @@
         <v>0.71</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT188" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU188" t="n">
         <v>1.7</v>
@@ -39270,7 +39270,7 @@
         <v>2.29</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU191" t="n">
         <v>1.59</v>
@@ -39473,7 +39473,7 @@
         <v>1</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU192" t="n">
         <v>1.51</v>
@@ -39673,7 +39673,7 @@
         <v>1.4</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT193" t="n">
         <v>1.64</v>
@@ -40688,10 +40688,10 @@
         <v>1.4</v>
       </c>
       <c r="AS198" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU198" t="n">
         <v>2.01</v>
@@ -41097,7 +41097,7 @@
         <v>1.79</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU200" t="n">
         <v>1.79</v>
@@ -41297,7 +41297,7 @@
         <v>1.56</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT201" t="n">
         <v>1.23</v>
@@ -41503,7 +41503,7 @@
         <v>1.86</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU202" t="n">
         <v>1.52</v>
@@ -41706,7 +41706,7 @@
         <v>1.46</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU203" t="n">
         <v>1.43</v>
@@ -41906,7 +41906,7 @@
         <v>0.89</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT204" t="n">
         <v>0.79</v>
@@ -42312,10 +42312,10 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU206" t="n">
         <v>1.42</v>
@@ -42515,7 +42515,7 @@
         <v>0.7</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT207" t="n">
         <v>0.57</v>
@@ -42721,7 +42721,7 @@
         <v>1.14</v>
       </c>
       <c r="AT208" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU208" t="n">
         <v>1.17</v>
@@ -42921,7 +42921,7 @@
         <v>1.9</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT209" t="n">
         <v>1.36</v>
@@ -44142,7 +44142,7 @@
         <v>1.57</v>
       </c>
       <c r="AT215" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU215" t="n">
         <v>1.46</v>
@@ -44545,10 +44545,10 @@
         <v>1.27</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU217" t="n">
         <v>1.64</v>
@@ -44751,7 +44751,7 @@
         <v>1.93</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU218" t="n">
         <v>1.75</v>
@@ -45154,10 +45154,10 @@
         <v>1.4</v>
       </c>
       <c r="AS220" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU220" t="n">
         <v>1.98</v>
@@ -45560,7 +45560,7 @@
         <v>0.45</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT222" t="n">
         <v>0.36</v>
@@ -45763,7 +45763,7 @@
         <v>0.8</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT223" t="n">
         <v>0.79</v>
@@ -45966,10 +45966,10 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU224" t="n">
         <v>1.76</v>
@@ -46172,7 +46172,7 @@
         <v>1.86</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU225" t="n">
         <v>1.88</v>
@@ -46375,7 +46375,7 @@
         <v>1</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU226" t="n">
         <v>1.48</v>
@@ -46575,7 +46575,7 @@
         <v>1.55</v>
       </c>
       <c r="AS227" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT227" t="n">
         <v>1.64</v>
@@ -46778,10 +46778,10 @@
         <v>1.45</v>
       </c>
       <c r="AS228" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU228" t="n">
         <v>1.67</v>
@@ -47187,7 +47187,7 @@
         <v>1.14</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU230" t="n">
         <v>1.27</v>
@@ -47390,7 +47390,7 @@
         <v>1.86</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU231" t="n">
         <v>1.91</v>
@@ -47590,7 +47590,7 @@
         <v>1.45</v>
       </c>
       <c r="AS232" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT232" t="n">
         <v>1.23</v>
@@ -47793,7 +47793,7 @@
         <v>1.27</v>
       </c>
       <c r="AS233" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT233" t="n">
         <v>1.29</v>
@@ -47999,7 +47999,7 @@
         <v>1.29</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU234" t="n">
         <v>1.51</v>
@@ -48202,7 +48202,7 @@
         <v>0.57</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU235" t="n">
         <v>1.39</v>
@@ -48605,7 +48605,7 @@
         <v>0.82</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT237" t="n">
         <v>0.86</v>
@@ -48808,10 +48808,10 @@
         <v>0.6</v>
       </c>
       <c r="AS238" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT238" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU238" t="n">
         <v>1.91</v>
@@ -49417,10 +49417,10 @@
         <v>1.42</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU241" t="n">
         <v>1.79</v>
@@ -49623,7 +49623,7 @@
         <v>1.86</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU242" t="n">
         <v>1.48</v>
@@ -49823,10 +49823,10 @@
         <v>0.82</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT243" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU243" t="n">
         <v>1.52</v>
@@ -50432,7 +50432,7 @@
         <v>1.17</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT246" t="n">
         <v>1.29</v>
@@ -50638,7 +50638,7 @@
         <v>1.21</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU247" t="n">
         <v>1.73</v>
@@ -51044,7 +51044,7 @@
         <v>1</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU249" t="n">
         <v>1.49</v>
@@ -51447,7 +51447,7 @@
         <v>0.58</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT251" t="n">
         <v>0.57</v>
@@ -51650,7 +51650,7 @@
         <v>1</v>
       </c>
       <c r="AS252" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT252" t="n">
         <v>0.93</v>
@@ -51853,10 +51853,10 @@
         <v>1</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT253" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU253" t="n">
         <v>1.6</v>
@@ -52056,10 +52056,10 @@
         <v>1.17</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU254" t="n">
         <v>1.58</v>
@@ -52262,7 +52262,7 @@
         <v>1.14</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU255" t="n">
         <v>1.29</v>
@@ -52465,7 +52465,7 @@
         <v>1.29</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU256" t="n">
         <v>1.5</v>
@@ -53071,7 +53071,7 @@
         <v>0.83</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT259" t="n">
         <v>0.79</v>
@@ -53277,7 +53277,7 @@
         <v>1.86</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU260" t="n">
         <v>1.82</v>
@@ -53477,7 +53477,7 @@
         <v>1.17</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT261" t="n">
         <v>1.29</v>
@@ -54292,7 +54292,7 @@
         <v>1.46</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU265" t="n">
         <v>1.45</v>
@@ -56171,6 +56171,1630 @@
       </c>
       <c r="BK274" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>5414655</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45185.64583333334</v>
+      </c>
+      <c r="F275" t="n">
+        <v>28</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>2</v>
+      </c>
+      <c r="L275" t="n">
+        <v>2</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="n">
+        <v>3</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['27', '90+6']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>3</v>
+      </c>
+      <c r="R275" t="n">
+        <v>4</v>
+      </c>
+      <c r="S275" t="n">
+        <v>7</v>
+      </c>
+      <c r="T275" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U275" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V275" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X275" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>5414656</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45185.70833333334</v>
+      </c>
+      <c r="F276" t="n">
+        <v>28</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>7</v>
+      </c>
+      <c r="R276" t="n">
+        <v>5</v>
+      </c>
+      <c r="S276" t="n">
+        <v>12</v>
+      </c>
+      <c r="T276" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U276" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V276" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X276" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>5414659</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45185.70833333334</v>
+      </c>
+      <c r="F277" t="n">
+        <v>28</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>2</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>2</v>
+      </c>
+      <c r="L277" t="n">
+        <v>2</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>2</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['8', '19']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>1</v>
+      </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
+      <c r="S277" t="n">
+        <v>1</v>
+      </c>
+      <c r="T277" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U277" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V277" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>5414660</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45185.75</v>
+      </c>
+      <c r="F278" t="n">
+        <v>28</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>3</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
+        <v>4</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['65', '75', '90']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>5</v>
+      </c>
+      <c r="R278" t="n">
+        <v>3</v>
+      </c>
+      <c r="S278" t="n">
+        <v>8</v>
+      </c>
+      <c r="T278" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U278" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V278" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>5414653</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45186.65625</v>
+      </c>
+      <c r="F279" t="n">
+        <v>28</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>2</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>2</v>
+      </c>
+      <c r="L279" t="n">
+        <v>3</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>3</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['21', '31', '56']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>10</v>
+      </c>
+      <c r="R279" t="n">
+        <v>4</v>
+      </c>
+      <c r="S279" t="n">
+        <v>14</v>
+      </c>
+      <c r="T279" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U279" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V279" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>5414658</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45186.75</v>
+      </c>
+      <c r="F280" t="n">
+        <v>28</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="n">
+        <v>3</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>3</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['40', '64', '90']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>4</v>
+      </c>
+      <c r="R280" t="n">
+        <v>3</v>
+      </c>
+      <c r="S280" t="n">
+        <v>7</v>
+      </c>
+      <c r="T280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U280" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V280" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>5414657</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45187.875</v>
+      </c>
+      <c r="F281" t="n">
+        <v>28</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>3</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>3</v>
+      </c>
+      <c r="L281" t="n">
+        <v>4</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+      <c r="N281" t="n">
+        <v>5</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['8', '40', '45+3', '79']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>5</v>
+      </c>
+      <c r="R281" t="n">
+        <v>6</v>
+      </c>
+      <c r="S281" t="n">
+        <v>11</v>
+      </c>
+      <c r="T281" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U281" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V281" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>5414669</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45188.89583333334</v>
+      </c>
+      <c r="F282" t="n">
+        <v>29</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="n">
+        <v>2</v>
+      </c>
+      <c r="L282" t="n">
+        <v>2</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>3</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['39', '69']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>6</v>
+      </c>
+      <c r="R282" t="n">
+        <v>7</v>
+      </c>
+      <c r="S282" t="n">
+        <v>13</v>
+      </c>
+      <c r="T282" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U282" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V282" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X282" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK282"/>
+  <dimension ref="A1:BK285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT3" t="n">
         <v>1.21</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1.14</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.29</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.57</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.47</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU23" t="n">
         <v>1.81</v>
@@ -6587,7 +6587,7 @@
         <v>1.14</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU30" t="n">
         <v>1.68</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT32" t="n">
         <v>1.23</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>0.93</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT36" t="n">
         <v>0.57</v>
@@ -8211,7 +8211,7 @@
         <v>1.47</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU38" t="n">
         <v>1.46</v>
@@ -9629,7 +9629,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT45" t="n">
         <v>1.21</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
         <v>0.36</v>
@@ -10241,7 +10241,7 @@
         <v>1.71</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU48" t="n">
         <v>1.71</v>
@@ -10647,7 +10647,7 @@
         <v>1.86</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU50" t="n">
         <v>1.54</v>
@@ -11053,7 +11053,7 @@
         <v>1.71</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.65</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT59" t="n">
         <v>1.29</v>
@@ -12880,7 +12880,7 @@
         <v>1.79</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU61" t="n">
         <v>1.39</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
         <v>0.86</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT64" t="n">
         <v>1.36</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT68" t="n">
         <v>1.29</v>
@@ -14707,7 +14707,7 @@
         <v>1.47</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU70" t="n">
         <v>1.58</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT80" t="n">
         <v>0.36</v>
@@ -17143,7 +17143,7 @@
         <v>1.29</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT83" t="n">
         <v>1.23</v>
@@ -17546,7 +17546,7 @@
         <v>2.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT84" t="n">
         <v>1.33</v>
@@ -17752,7 +17752,7 @@
         <v>1.79</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU85" t="n">
         <v>1.57</v>
@@ -20997,7 +20997,7 @@
         <v>0.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT101" t="n">
         <v>0.57</v>
@@ -21203,7 +21203,7 @@
         <v>1.21</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU102" t="n">
         <v>1.99</v>
@@ -21403,7 +21403,7 @@
         <v>2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
         <v>1.21</v>
@@ -22421,7 +22421,7 @@
         <v>1.86</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU108" t="n">
         <v>1.49</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT112" t="n">
         <v>1.21</v>
@@ -23842,7 +23842,7 @@
         <v>1.14</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU115" t="n">
         <v>1.42</v>
@@ -24042,7 +24042,7 @@
         <v>1.25</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT116" t="n">
         <v>1.29</v>
@@ -24451,7 +24451,7 @@
         <v>2.43</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -25463,7 +25463,7 @@
         <v>0.4</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT123" t="n">
         <v>0.79</v>
@@ -26075,7 +26075,7 @@
         <v>1</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU126" t="n">
         <v>1.55</v>
@@ -26887,7 +26887,7 @@
         <v>2.29</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU130" t="n">
         <v>1.51</v>
@@ -28305,7 +28305,7 @@
         <v>0.33</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT137" t="n">
         <v>0.79</v>
@@ -28714,7 +28714,7 @@
         <v>2.29</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU139" t="n">
         <v>1.4</v>
@@ -29320,7 +29320,7 @@
         <v>1.86</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT142" t="n">
         <v>1.33</v>
@@ -29526,7 +29526,7 @@
         <v>1.47</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU143" t="n">
         <v>1.88</v>
@@ -30135,7 +30135,7 @@
         <v>1.71</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU146" t="n">
         <v>1.69</v>
@@ -30538,7 +30538,7 @@
         <v>2.29</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT148" t="n">
         <v>1.36</v>
@@ -31962,7 +31962,7 @@
         <v>0.57</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU155" t="n">
         <v>1.31</v>
@@ -32365,7 +32365,7 @@
         <v>1.5</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT157" t="n">
         <v>1.64</v>
@@ -32977,7 +32977,7 @@
         <v>2.29</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU160" t="n">
         <v>1.66</v>
@@ -33180,7 +33180,7 @@
         <v>1.86</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU161" t="n">
         <v>2.02</v>
@@ -33583,7 +33583,7 @@
         <v>1</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT163" t="n">
         <v>1.29</v>
@@ -34395,7 +34395,7 @@
         <v>0.57</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT167" t="n">
         <v>0.57</v>
@@ -35007,7 +35007,7 @@
         <v>1.47</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU170" t="n">
         <v>1.54</v>
@@ -35613,7 +35613,7 @@
         <v>1.44</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT173" t="n">
         <v>1.64</v>
@@ -35816,10 +35816,10 @@
         <v>1.25</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU174" t="n">
         <v>1.74</v>
@@ -36834,7 +36834,7 @@
         <v>2.29</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU179" t="n">
         <v>1.61</v>
@@ -37846,7 +37846,7 @@
         <v>0.63</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT184" t="n">
         <v>0.86</v>
@@ -39473,7 +39473,7 @@
         <v>1</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU192" t="n">
         <v>1.51</v>
@@ -40282,7 +40282,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT196" t="n">
         <v>0.86</v>
@@ -40488,7 +40488,7 @@
         <v>1.21</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU197" t="n">
         <v>1.77</v>
@@ -40891,10 +40891,10 @@
         <v>1.6</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU199" t="n">
         <v>1.55</v>
@@ -41703,7 +41703,7 @@
         <v>0.78</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT203" t="n">
         <v>0.57</v>
@@ -43330,7 +43330,7 @@
         <v>1.29</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU211" t="n">
         <v>1.57</v>
@@ -43530,7 +43530,7 @@
         <v>1.18</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT212" t="n">
         <v>1.29</v>
@@ -44139,7 +44139,7 @@
         <v>0.67</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT215" t="n">
         <v>0.93</v>
@@ -44748,7 +44748,7 @@
         <v>0.7</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT218" t="n">
         <v>0.57</v>
@@ -44954,7 +44954,7 @@
         <v>1.14</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU219" t="n">
         <v>1.24</v>
@@ -45157,7 +45157,7 @@
         <v>2.07</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU220" t="n">
         <v>1.98</v>
@@ -47390,7 +47390,7 @@
         <v>1.86</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU231" t="n">
         <v>1.91</v>
@@ -48402,10 +48402,10 @@
         <v>1.45</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU236" t="n">
         <v>1.4</v>
@@ -50026,7 +50026,7 @@
         <v>0.42</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT244" t="n">
         <v>0.36</v>
@@ -51244,10 +51244,10 @@
         <v>1.42</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU250" t="n">
         <v>1.72</v>
@@ -52059,7 +52059,7 @@
         <v>2.43</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU254" t="n">
         <v>1.58</v>
@@ -52871,7 +52871,7 @@
         <v>1.71</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU258" t="n">
         <v>1.57</v>
@@ -54289,7 +54289,7 @@
         <v>1.31</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT265" t="n">
         <v>1.33</v>
@@ -54492,7 +54492,7 @@
         <v>0.85</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT266" t="n">
         <v>0.86</v>
@@ -54901,7 +54901,7 @@
         <v>2.29</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU268" t="n">
         <v>1.61</v>
@@ -55101,7 +55101,7 @@
         <v>1.77</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT269" t="n">
         <v>1.64</v>
@@ -55307,7 +55307,7 @@
         <v>1.86</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU270" t="n">
         <v>1.48</v>
@@ -56322,7 +56322,7 @@
         <v>2.21</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU275" t="n">
         <v>1.7</v>
@@ -57795,6 +57795,615 @@
       </c>
       <c r="BK282" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>5414663</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45191.79166666666</v>
+      </c>
+      <c r="F283" t="n">
+        <v>29</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1</v>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>3</v>
+      </c>
+      <c r="N283" t="n">
+        <v>3</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['23', '71', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>4</v>
+      </c>
+      <c r="R283" t="n">
+        <v>5</v>
+      </c>
+      <c r="S283" t="n">
+        <v>9</v>
+      </c>
+      <c r="T283" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U283" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V283" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>5414664</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45191.89583333334</v>
+      </c>
+      <c r="F284" t="n">
+        <v>29</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>3</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+      <c r="N284" t="n">
+        <v>4</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['50', '67', '72']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>1</v>
+      </c>
+      <c r="R284" t="n">
+        <v>2</v>
+      </c>
+      <c r="S284" t="n">
+        <v>3</v>
+      </c>
+      <c r="T284" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U284" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V284" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X284" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>5414666</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45191.89583333334</v>
+      </c>
+      <c r="F285" t="n">
+        <v>29</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>1</v>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>2</v>
+      </c>
+      <c r="N285" t="n">
+        <v>2</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>['7', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>11</v>
+      </c>
+      <c r="R285" t="n">
+        <v>2</v>
+      </c>
+      <c r="S285" t="n">
+        <v>13</v>
+      </c>
+      <c r="T285" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U285" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V285" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X285" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK285"/>
+  <dimension ref="A1:BK289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.36</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.71</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.93</v>
@@ -3948,7 +3948,7 @@
         <v>1.71</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.43</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU21" t="n">
         <v>1.71</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT26" t="n">
         <v>1.21</v>
@@ -6181,7 +6181,7 @@
         <v>0.57</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU28" t="n">
         <v>0.93</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT31" t="n">
         <v>0.86</v>
@@ -6993,7 +6993,7 @@
         <v>1.47</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7602,7 +7602,7 @@
         <v>1.71</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.56</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT40" t="n">
         <v>0.86</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT43" t="n">
         <v>0.57</v>
@@ -9632,7 +9632,7 @@
         <v>1.47</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU45" t="n">
         <v>1.72</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU47" t="n">
         <v>1.35</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT49" t="n">
         <v>0.57</v>
@@ -12271,7 +12271,7 @@
         <v>0.57</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU58" t="n">
         <v>1.33</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU60" t="n">
         <v>1.93</v>
@@ -13283,10 +13283,10 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU63" t="n">
         <v>1.52</v>
@@ -14098,7 +14098,7 @@
         <v>2.21</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU67" t="n">
         <v>1.51</v>
@@ -14301,7 +14301,7 @@
         <v>1.47</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU68" t="n">
         <v>1.83</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT69" t="n">
         <v>1.33</v>
@@ -15925,7 +15925,7 @@
         <v>1.14</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU76" t="n">
         <v>1.52</v>
@@ -16737,7 +16737,7 @@
         <v>1.36</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.4</v>
@@ -16937,7 +16937,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT81" t="n">
         <v>1.64</v>
@@ -17346,7 +17346,7 @@
         <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU83" t="n">
         <v>1.53</v>
@@ -18155,7 +18155,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT87" t="n">
         <v>0.57</v>
@@ -18358,10 +18358,10 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU88" t="n">
         <v>2.06</v>
@@ -21200,7 +21200,7 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT102" t="n">
         <v>1.4</v>
@@ -21406,7 +21406,7 @@
         <v>2</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU103" t="n">
         <v>1.63</v>
@@ -21812,7 +21812,7 @@
         <v>2.07</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU105" t="n">
         <v>2</v>
@@ -22012,7 +22012,7 @@
         <v>0.67</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT106" t="n">
         <v>0.86</v>
@@ -22218,7 +22218,7 @@
         <v>1.47</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU107" t="n">
         <v>1.87</v>
@@ -22418,7 +22418,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT108" t="n">
         <v>1.2</v>
@@ -23030,7 +23030,7 @@
         <v>1.86</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU111" t="n">
         <v>1.88</v>
@@ -24248,7 +24248,7 @@
         <v>1.29</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -24854,7 +24854,7 @@
         <v>2</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT120" t="n">
         <v>1.33</v>
@@ -25057,7 +25057,7 @@
         <v>0.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT121" t="n">
         <v>0.93</v>
@@ -25260,7 +25260,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT122" t="n">
         <v>1.64</v>
@@ -25872,7 +25872,7 @@
         <v>1.29</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU125" t="n">
         <v>1.76</v>
@@ -26275,7 +26275,7 @@
         <v>2.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT127" t="n">
         <v>1.36</v>
@@ -26684,7 +26684,7 @@
         <v>1.47</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU129" t="n">
         <v>1.86</v>
@@ -27699,7 +27699,7 @@
         <v>2.07</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU134" t="n">
         <v>1.89</v>
@@ -29117,7 +29117,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT141" t="n">
         <v>0.93</v>
@@ -29929,10 +29929,10 @@
         <v>0.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU145" t="n">
         <v>1.58</v>
@@ -30335,10 +30335,10 @@
         <v>2</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU147" t="n">
         <v>1.64</v>
@@ -30947,7 +30947,7 @@
         <v>1.47</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU150" t="n">
         <v>1.54</v>
@@ -31147,7 +31147,7 @@
         <v>1.17</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT151" t="n">
         <v>1.29</v>
@@ -31556,7 +31556,7 @@
         <v>1.71</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU153" t="n">
         <v>1.56</v>
@@ -31759,7 +31759,7 @@
         <v>2.29</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU154" t="n">
         <v>1.38</v>
@@ -32568,7 +32568,7 @@
         <v>0.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT158" t="n">
         <v>0.86</v>
@@ -32974,7 +32974,7 @@
         <v>1.29</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT160" t="n">
         <v>1.2</v>
@@ -33383,7 +33383,7 @@
         <v>2.21</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU162" t="n">
         <v>1.81</v>
@@ -34601,7 +34601,7 @@
         <v>1.79</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU168" t="n">
         <v>1.84</v>
@@ -35207,7 +35207,7 @@
         <v>1.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT171" t="n">
         <v>1.14</v>
@@ -36022,7 +36022,7 @@
         <v>2.07</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU175" t="n">
         <v>1.99</v>
@@ -36225,7 +36225,7 @@
         <v>0.57</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU176" t="n">
         <v>1.49</v>
@@ -36831,7 +36831,7 @@
         <v>1.44</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT179" t="n">
         <v>1.4</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT180" t="n">
         <v>0.79</v>
@@ -38255,7 +38255,7 @@
         <v>1.71</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU186" t="n">
         <v>1.71</v>
@@ -38864,7 +38864,7 @@
         <v>1.14</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU189" t="n">
         <v>1.21</v>
@@ -39267,7 +39267,7 @@
         <v>1</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT191" t="n">
         <v>1.14</v>
@@ -39879,7 +39879,7 @@
         <v>1.29</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU194" t="n">
         <v>1.58</v>
@@ -40082,7 +40082,7 @@
         <v>0.57</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU195" t="n">
         <v>1.43</v>
@@ -40485,7 +40485,7 @@
         <v>1.67</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT197" t="n">
         <v>1.13</v>
@@ -41300,7 +41300,7 @@
         <v>1.47</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU201" t="n">
         <v>1.8</v>
@@ -41500,7 +41500,7 @@
         <v>0.89</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT202" t="n">
         <v>1.21</v>
@@ -42315,7 +42315,7 @@
         <v>2.29</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU206" t="n">
         <v>1.42</v>
@@ -43533,7 +43533,7 @@
         <v>1.36</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU212" t="n">
         <v>1.39</v>
@@ -43733,10 +43733,10 @@
         <v>1.5</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU213" t="n">
         <v>1.5</v>
@@ -43936,7 +43936,7 @@
         <v>1.73</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT214" t="n">
         <v>1.36</v>
@@ -45357,7 +45357,7 @@
         <v>1.3</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT221" t="n">
         <v>1.29</v>
@@ -45563,7 +45563,7 @@
         <v>2.21</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU222" t="n">
         <v>1.79</v>
@@ -46781,7 +46781,7 @@
         <v>2.43</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU228" t="n">
         <v>1.67</v>
@@ -47593,7 +47593,7 @@
         <v>2.43</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU232" t="n">
         <v>1.59</v>
@@ -49620,7 +49620,7 @@
         <v>0.91</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT242" t="n">
         <v>0.86</v>
@@ -50029,7 +50029,7 @@
         <v>1.47</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU244" t="n">
         <v>1.49</v>
@@ -50229,7 +50229,7 @@
         <v>0.83</v>
       </c>
       <c r="AS245" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT245" t="n">
         <v>0.93</v>
@@ -50435,7 +50435,7 @@
         <v>1.47</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU246" t="n">
         <v>1.69</v>
@@ -50635,10 +50635,10 @@
         <v>1.33</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU247" t="n">
         <v>1.73</v>
@@ -50838,7 +50838,7 @@
         <v>1.58</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT248" t="n">
         <v>1.36</v>
@@ -53683,7 +53683,7 @@
         <v>1</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU262" t="n">
         <v>1.48</v>
@@ -53886,7 +53886,7 @@
         <v>1.71</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU263" t="n">
         <v>1.59</v>
@@ -54086,7 +54086,7 @@
         <v>0.62</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT264" t="n">
         <v>0.57</v>
@@ -54698,7 +54698,7 @@
         <v>1.79</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU267" t="n">
         <v>1.64</v>
@@ -54898,7 +54898,7 @@
         <v>1.23</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT268" t="n">
         <v>1.13</v>
@@ -55304,7 +55304,7 @@
         <v>1.38</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT270" t="n">
         <v>1.4</v>
@@ -57540,7 +57540,7 @@
         <v>2.07</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU281" t="n">
         <v>1.96</v>
@@ -58404,6 +58404,818 @@
       </c>
       <c r="BK285" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>5414672</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45192.70833333334</v>
+      </c>
+      <c r="F286" t="n">
+        <v>29</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>1</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>4</v>
+      </c>
+      <c r="R286" t="n">
+        <v>3</v>
+      </c>
+      <c r="S286" t="n">
+        <v>7</v>
+      </c>
+      <c r="T286" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U286" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V286" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X286" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>5414670</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45192.70833333334</v>
+      </c>
+      <c r="F287" t="n">
+        <v>29</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+      <c r="N287" t="n">
+        <v>2</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>2</v>
+      </c>
+      <c r="R287" t="n">
+        <v>6</v>
+      </c>
+      <c r="S287" t="n">
+        <v>8</v>
+      </c>
+      <c r="T287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U287" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V287" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X287" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>5414671</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45192.75</v>
+      </c>
+      <c r="F288" t="n">
+        <v>29</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>2</v>
+      </c>
+      <c r="R288" t="n">
+        <v>4</v>
+      </c>
+      <c r="S288" t="n">
+        <v>6</v>
+      </c>
+      <c r="T288" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U288" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V288" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X288" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>5414668</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45192.86458333334</v>
+      </c>
+      <c r="F289" t="n">
+        <v>29</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>1</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="n">
+        <v>4</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>4</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>['31', '50', '74', '86']</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>6</v>
+      </c>
+      <c r="R289" t="n">
+        <v>7</v>
+      </c>
+      <c r="S289" t="n">
+        <v>13</v>
+      </c>
+      <c r="T289" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V289" t="n">
+        <v>9</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X289" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK289"/>
+  <dimension ref="A1:BK291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>1.14</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT15" t="n">
         <v>1.2</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT27" t="n">
         <v>1.29</v>
@@ -6384,7 +6384,7 @@
         <v>1.86</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU29" t="n">
         <v>1.54</v>
@@ -7805,7 +7805,7 @@
         <v>1.36</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU36" t="n">
         <v>0.72</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.33</v>
@@ -9023,7 +9023,7 @@
         <v>1.47</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU42" t="n">
         <v>1.61</v>
@@ -9226,7 +9226,7 @@
         <v>1.93</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU43" t="n">
         <v>1.45</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT51" t="n">
         <v>0.93</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT54" t="n">
         <v>1.14</v>
@@ -13692,7 +13692,7 @@
         <v>1.47</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU65" t="n">
         <v>1.61</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU66" t="n">
         <v>1.64</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT71" t="n">
         <v>0.86</v>
@@ -16940,7 +16940,7 @@
         <v>1.93</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU81" t="n">
         <v>1.39</v>
@@ -17140,7 +17140,7 @@
         <v>2.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT82" t="n">
         <v>1.4</v>
@@ -18158,7 +18158,7 @@
         <v>2.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU87" t="n">
         <v>1.65</v>
@@ -21000,7 +21000,7 @@
         <v>1.47</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU101" t="n">
         <v>1.75</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT105" t="n">
         <v>1.2</v>
@@ -22624,7 +22624,7 @@
         <v>2.21</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU109" t="n">
         <v>1.88</v>
@@ -23433,7 +23433,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT113" t="n">
         <v>0.86</v>
@@ -24245,7 +24245,7 @@
         <v>1.4</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT117" t="n">
         <v>1.21</v>
@@ -25263,7 +25263,7 @@
         <v>2.33</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU122" t="n">
         <v>1.62</v>
@@ -25869,7 +25869,7 @@
         <v>0.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT125" t="n">
         <v>0.33</v>
@@ -26481,7 +26481,7 @@
         <v>1.79</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU128" t="n">
         <v>1.68</v>
@@ -27696,7 +27696,7 @@
         <v>1.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT134" t="n">
         <v>1.21</v>
@@ -28917,7 +28917,7 @@
         <v>1.14</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU140" t="n">
         <v>1.33</v>
@@ -29726,10 +29726,10 @@
         <v>0.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU144" t="n">
         <v>1.78</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT152" t="n">
         <v>1.21</v>
@@ -32162,7 +32162,7 @@
         <v>0.71</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT156" t="n">
         <v>0.79</v>
@@ -32368,7 +32368,7 @@
         <v>1.36</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU157" t="n">
         <v>1.4</v>
@@ -33992,7 +33992,7 @@
         <v>1.71</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU165" t="n">
         <v>1.68</v>
@@ -35616,7 +35616,7 @@
         <v>1.47</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU173" t="n">
         <v>1.59</v>
@@ -36019,7 +36019,7 @@
         <v>0.44</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT175" t="n">
         <v>0.33</v>
@@ -36628,7 +36628,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT178" t="n">
         <v>0.86</v>
@@ -37443,7 +37443,7 @@
         <v>1.86</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU182" t="n">
         <v>1.95</v>
@@ -39676,7 +39676,7 @@
         <v>1.47</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU193" t="n">
         <v>1.55</v>
@@ -39876,7 +39876,7 @@
         <v>1</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT194" t="n">
         <v>1.2</v>
@@ -40688,7 +40688,7 @@
         <v>1.4</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT198" t="n">
         <v>1.33</v>
@@ -42518,7 +42518,7 @@
         <v>2.43</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU207" t="n">
         <v>1.7</v>
@@ -43327,7 +43327,7 @@
         <v>1.6</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT211" t="n">
         <v>1.13</v>
@@ -44345,7 +44345,7 @@
         <v>1.71</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU216" t="n">
         <v>1.56</v>
@@ -45154,7 +45154,7 @@
         <v>1.4</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT220" t="n">
         <v>1.2</v>
@@ -46578,7 +46578,7 @@
         <v>2.29</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU227" t="n">
         <v>1.37</v>
@@ -47996,7 +47996,7 @@
         <v>0.64</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT234" t="n">
         <v>0.57</v>
@@ -48808,7 +48808,7 @@
         <v>0.6</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT238" t="n">
         <v>0.93</v>
@@ -49217,7 +49217,7 @@
         <v>1.79</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU240" t="n">
         <v>1.7</v>
@@ -51450,7 +51450,7 @@
         <v>1.47</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU251" t="n">
         <v>1.51</v>
@@ -51650,7 +51650,7 @@
         <v>1</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT252" t="n">
         <v>0.93</v>
@@ -52462,7 +52462,7 @@
         <v>1.17</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT256" t="n">
         <v>1.21</v>
@@ -54089,7 +54089,7 @@
         <v>1.2</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU264" t="n">
         <v>1.73</v>
@@ -55104,7 +55104,7 @@
         <v>2</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU269" t="n">
         <v>1.69</v>
@@ -55507,7 +55507,7 @@
         <v>1.46</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT271" t="n">
         <v>1.36</v>
@@ -57537,7 +57537,7 @@
         <v>1.31</v>
       </c>
       <c r="AS281" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT281" t="n">
         <v>1.2</v>
@@ -59216,6 +59216,412 @@
       </c>
       <c r="BK289" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>5414665</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45194.77083333334</v>
+      </c>
+      <c r="F290" t="n">
+        <v>29</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>2</v>
+      </c>
+      <c r="K290" t="n">
+        <v>2</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>2</v>
+      </c>
+      <c r="N290" t="n">
+        <v>2</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>['24', '30']</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>3</v>
+      </c>
+      <c r="R290" t="n">
+        <v>4</v>
+      </c>
+      <c r="S290" t="n">
+        <v>7</v>
+      </c>
+      <c r="T290" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U290" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V290" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X290" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>5414667</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45194.875</v>
+      </c>
+      <c r="F291" t="n">
+        <v>29</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>2</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>2</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+      <c r="N291" t="n">
+        <v>3</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['2', '45+7']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>6</v>
+      </c>
+      <c r="R291" t="n">
+        <v>5</v>
+      </c>
+      <c r="S291" t="n">
+        <v>11</v>
+      </c>
+      <c r="T291" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V291" t="n">
+        <v>10</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X291" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ291"/>
+  <dimension ref="A1:AZ293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.93</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.53</v>
@@ -2369,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR25" t="n">
         <v>1.06</v>
@@ -5596,7 +5596,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.13</v>
@@ -5769,7 +5769,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.36</v>
@@ -7466,7 +7466,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.33</v>
@@ -9509,7 +9509,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR53" t="n">
         <v>1.28</v>
@@ -9679,7 +9679,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR54" t="n">
         <v>1.85</v>
@@ -10016,7 +10016,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.79</v>
@@ -10866,7 +10866,7 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.4</v>
@@ -13249,7 +13249,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR75" t="n">
         <v>1.65</v>
@@ -13416,7 +13416,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.2</v>
@@ -14946,7 +14946,7 @@
         <v>1.67</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.13</v>
@@ -15629,7 +15629,7 @@
         <v>1</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR89" t="n">
         <v>1.55</v>
@@ -16646,7 +16646,7 @@
         <v>0.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.79</v>
@@ -16989,7 +16989,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR97" t="n">
         <v>2.18</v>
@@ -17159,7 +17159,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR98" t="n">
         <v>1.38</v>
@@ -17326,7 +17326,7 @@
         <v>0.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.29</v>
@@ -19709,7 +19709,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR113" t="n">
         <v>1.99</v>
@@ -19879,7 +19879,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR114" t="n">
         <v>1.53</v>
@@ -20046,7 +20046,7 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.2</v>
@@ -22256,7 +22256,7 @@
         <v>0.33</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.53</v>
@@ -22939,7 +22939,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR132" t="n">
         <v>1.83</v>
@@ -23959,7 +23959,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR138" t="n">
         <v>1.73</v>
@@ -24296,7 +24296,7 @@
         <v>1.29</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.73</v>
@@ -25826,7 +25826,7 @@
         <v>0.57</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.93</v>
@@ -27359,7 +27359,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR158" t="n">
         <v>1.81</v>
@@ -27529,7 +27529,7 @@
         <v>1</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR159" t="n">
         <v>1.57</v>
@@ -28716,7 +28716,7 @@
         <v>1.75</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.33</v>
@@ -29056,7 +29056,7 @@
         <v>1.75</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.2</v>
@@ -29569,7 +29569,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR171" t="n">
         <v>1.82</v>
@@ -30759,7 +30759,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR178" t="n">
         <v>1.64</v>
@@ -31266,7 +31266,7 @@
         <v>0.88</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.57</v>
@@ -32626,7 +32626,7 @@
         <v>1.38</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.21</v>
@@ -32969,7 +32969,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR191" t="n">
         <v>1.59</v>
@@ -33819,7 +33819,7 @@
         <v>2</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR196" t="n">
         <v>1.76</v>
@@ -34496,7 +34496,7 @@
         <v>0.89</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ200" t="n">
         <v>0.86</v>
@@ -35856,7 +35856,7 @@
         <v>0.63</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ208" t="n">
         <v>0.93</v>
@@ -36196,10 +36196,10 @@
         <v>0.8</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR210" t="n">
         <v>1.76</v>
@@ -37726,7 +37726,7 @@
         <v>1.55</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.4</v>
@@ -38579,7 +38579,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR224" t="n">
         <v>1.76</v>
@@ -39596,7 +39596,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.21</v>
@@ -40449,7 +40449,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR235" t="n">
         <v>1.39</v>
@@ -40789,7 +40789,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ237" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR237" t="n">
         <v>1.61</v>
@@ -41296,7 +41296,7 @@
         <v>1.67</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.73</v>
@@ -43846,7 +43846,7 @@
         <v>0.58</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ255" t="n">
         <v>0.57</v>
@@ -44189,7 +44189,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR257" t="n">
         <v>1.38</v>
@@ -44699,7 +44699,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ260" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR260" t="n">
         <v>1.82</v>
@@ -45719,7 +45719,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR266" t="n">
         <v>1.43</v>
@@ -45886,7 +45886,7 @@
         <v>1.33</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ267" t="n">
         <v>1.21</v>
@@ -46736,7 +46736,7 @@
         <v>0.93</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ272" t="n">
         <v>0.93</v>
@@ -47759,7 +47759,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR278" t="n">
         <v>1.59</v>
@@ -49997,6 +49997,346 @@
       </c>
       <c r="AZ291" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>5414677</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45197.79166666666</v>
+      </c>
+      <c r="F292" t="n">
+        <v>30</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>1</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R292" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S292" t="n">
+        <v>5</v>
+      </c>
+      <c r="T292" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V292" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X292" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>5414681</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45197.89583333334</v>
+      </c>
+      <c r="F293" t="n">
+        <v>30</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R293" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S293" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T293" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V293" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X293" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ293"/>
+  <dimension ref="A1:AZ295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1859,7 +1859,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.79</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.2</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.33</v>
@@ -5089,7 +5089,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR27" t="n">
         <v>2.12</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.33</v>
@@ -8829,7 +8829,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR49" t="n">
         <v>1.58</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.93</v>
@@ -9849,7 +9849,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR55" t="n">
         <v>1.46</v>
@@ -10186,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.21</v>
@@ -10529,7 +10529,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR59" t="n">
         <v>1.3</v>
@@ -12739,7 +12739,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR72" t="n">
         <v>1.49</v>
@@ -13246,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.07</v>
@@ -13759,7 +13759,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR78" t="n">
         <v>1.81</v>
@@ -14436,7 +14436,7 @@
         <v>2.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.4</v>
@@ -15799,7 +15799,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR90" t="n">
         <v>1.57</v>
@@ -16306,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.93</v>
@@ -17329,7 +17329,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -20219,7 +20219,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR116" t="n">
         <v>1.72</v>
@@ -20386,7 +20386,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.21</v>
@@ -20556,7 +20556,7 @@
         <v>1.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.13</v>
@@ -20729,7 +20729,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR119" t="n">
         <v>1.64</v>
@@ -21746,7 +21746,7 @@
         <v>0.5</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.33</v>
@@ -22769,7 +22769,7 @@
         <v>1</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR131" t="n">
         <v>1.54</v>
@@ -23109,7 +23109,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR133" t="n">
         <v>1.98</v>
@@ -23956,7 +23956,7 @@
         <v>0.67</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.8</v>
@@ -24976,7 +24976,7 @@
         <v>0.29</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.53</v>
@@ -26169,7 +26169,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -27016,7 +27016,7 @@
         <v>0.71</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.79</v>
@@ -28209,7 +28209,7 @@
         <v>2</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR163" t="n">
         <v>1.78</v>
@@ -28889,7 +28889,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR167" t="n">
         <v>1.63</v>
@@ -29226,7 +29226,7 @@
         <v>2</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.36</v>
@@ -30756,7 +30756,7 @@
         <v>0.88</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.8</v>
@@ -31269,7 +31269,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR181" t="n">
         <v>1.83</v>
@@ -32289,7 +32289,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR187" t="n">
         <v>1.81</v>
@@ -32456,7 +32456,7 @@
         <v>0.71</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.93</v>
@@ -33476,7 +33476,7 @@
         <v>1</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.2</v>
@@ -35009,7 +35009,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR203" t="n">
         <v>1.43</v>
@@ -35349,7 +35349,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR205" t="n">
         <v>1.91</v>
@@ -35686,7 +35686,7 @@
         <v>0.7</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.53</v>
@@ -36366,7 +36366,7 @@
         <v>1.6</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.13</v>
@@ -37559,7 +37559,7 @@
         <v>2</v>
       </c>
       <c r="AQ218" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR218" t="n">
         <v>1.75</v>
@@ -38069,7 +38069,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR221" t="n">
         <v>1.8</v>
@@ -39256,7 +39256,7 @@
         <v>1.45</v>
       </c>
       <c r="AP228" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.2</v>
@@ -39936,7 +39936,7 @@
         <v>1.45</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.21</v>
@@ -40109,7 +40109,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR233" t="n">
         <v>1.36</v>
@@ -40276,10 +40276,10 @@
         <v>0.64</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ234" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR234" t="n">
         <v>1.51</v>
@@ -43676,7 +43676,7 @@
         <v>1.17</v>
       </c>
       <c r="AP254" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.2</v>
@@ -43849,7 +43849,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR255" t="n">
         <v>1.29</v>
@@ -44016,7 +44016,7 @@
         <v>1.17</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ256" t="n">
         <v>1.21</v>
@@ -44869,7 +44869,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR261" t="n">
         <v>1.5</v>
@@ -46566,7 +46566,7 @@
         <v>1.46</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ271" t="n">
         <v>1.36</v>
@@ -47079,7 +47079,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR274" t="n">
         <v>1.34</v>
@@ -47929,7 +47929,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ279" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR279" t="n">
         <v>1.33</v>
@@ -48096,7 +48096,7 @@
         <v>0.92</v>
       </c>
       <c r="AP280" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ280" t="n">
         <v>0.86</v>
@@ -49796,7 +49796,7 @@
         <v>1.64</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ290" t="n">
         <v>1.73</v>
@@ -50337,6 +50337,346 @@
       </c>
       <c r="AZ293" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>5414675</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45198.79166666666</v>
+      </c>
+      <c r="F294" t="n">
+        <v>30</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>2</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K294" t="n">
+        <v>3</v>
+      </c>
+      <c r="L294" t="n">
+        <v>2</v>
+      </c>
+      <c r="M294" t="n">
+        <v>2</v>
+      </c>
+      <c r="N294" t="n">
+        <v>4</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>['1', '37']</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['5', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>4</v>
+      </c>
+      <c r="R294" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S294" t="n">
+        <v>3</v>
+      </c>
+      <c r="T294" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V294" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X294" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>5414678</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45198.89583333334</v>
+      </c>
+      <c r="F295" t="n">
+        <v>30</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="R295" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S295" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V295" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X295" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ295"/>
+  <dimension ref="A1:AZ299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.86</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.2</v>
@@ -1179,7 +1179,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.4</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.93</v>
@@ -4579,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR24" t="n">
         <v>2.3</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.2</v>
@@ -5599,7 +5599,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR30" t="n">
         <v>1.68</v>
@@ -5939,7 +5939,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -6279,7 +6279,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR34" t="n">
         <v>1.82</v>
@@ -6446,7 +6446,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.2</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.53</v>
@@ -7979,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR44" t="n">
         <v>1.86</v>
@@ -8999,7 +8999,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR50" t="n">
         <v>1.54</v>
@@ -9336,7 +9336,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.2</v>
@@ -9506,7 +9506,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.8</v>
@@ -10019,7 +10019,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR56" t="n">
         <v>1.37</v>
@@ -10356,10 +10356,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR58" t="n">
         <v>1.33</v>
@@ -10526,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.27</v>
@@ -11209,7 +11209,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.52</v>
@@ -11376,10 +11376,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR64" t="n">
         <v>1.47</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.53</v>
@@ -12906,7 +12906,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.21</v>
@@ -13586,7 +13586,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.93</v>
@@ -13929,7 +13929,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR79" t="n">
         <v>1.63</v>
@@ -14096,7 +14096,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.33</v>
@@ -14609,7 +14609,7 @@
         <v>2</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR83" t="n">
         <v>1.53</v>
@@ -14949,7 +14949,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR85" t="n">
         <v>1.57</v>
@@ -15119,7 +15119,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR86" t="n">
         <v>1.55</v>
@@ -16476,7 +16476,7 @@
         <v>0.8</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.86</v>
@@ -16649,7 +16649,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR95" t="n">
         <v>1.55</v>
@@ -16816,10 +16816,10 @@
         <v>2</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR96" t="n">
         <v>1.5</v>
@@ -17156,7 +17156,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.07</v>
@@ -19196,7 +19196,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.93</v>
@@ -19536,7 +19536,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.21</v>
@@ -20389,7 +20389,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR117" t="n">
         <v>2.02</v>
@@ -20559,7 +20559,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR118" t="n">
         <v>1.71</v>
@@ -20726,7 +20726,7 @@
         <v>0.2</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.53</v>
@@ -21409,7 +21409,7 @@
         <v>2</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR123" t="n">
         <v>1.74</v>
@@ -21919,7 +21919,7 @@
         <v>1</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR126" t="n">
         <v>1.55</v>
@@ -22089,7 +22089,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR127" t="n">
         <v>1.97</v>
@@ -22596,7 +22596,7 @@
         <v>2.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.4</v>
@@ -23279,7 +23279,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR134" t="n">
         <v>1.89</v>
@@ -23616,7 +23616,7 @@
         <v>1</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.21</v>
@@ -23786,10 +23786,10 @@
         <v>0.33</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR137" t="n">
         <v>1.35</v>
@@ -24126,7 +24126,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.2</v>
@@ -24809,7 +24809,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR143" t="n">
         <v>1.88</v>
@@ -25316,7 +25316,7 @@
         <v>1.86</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.4</v>
@@ -25659,7 +25659,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -26509,7 +26509,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR153" t="n">
         <v>1.56</v>
@@ -26676,7 +26676,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.33</v>
@@ -26846,10 +26846,10 @@
         <v>1.71</v>
       </c>
       <c r="AP155" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR155" t="n">
         <v>1.31</v>
@@ -27019,7 +27019,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR156" t="n">
         <v>1.68</v>
@@ -27186,7 +27186,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.73</v>
@@ -28546,7 +28546,7 @@
         <v>0.63</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.53</v>
@@ -29229,7 +29229,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR169" t="n">
         <v>1.75</v>
@@ -29399,7 +29399,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR170" t="n">
         <v>1.54</v>
@@ -30416,7 +30416,7 @@
         <v>0.78</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.2</v>
@@ -31099,7 +31099,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR180" t="n">
         <v>1.44</v>
@@ -31609,7 +31609,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR183" t="n">
         <v>1.86</v>
@@ -31776,7 +31776,7 @@
         <v>0.63</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.86</v>
@@ -31946,7 +31946,7 @@
         <v>1</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.21</v>
@@ -32116,7 +32116,7 @@
         <v>1.67</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.2</v>
@@ -32629,7 +32629,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR189" t="n">
         <v>1.21</v>
@@ -33646,7 +33646,7 @@
         <v>0.4</v>
       </c>
       <c r="AP195" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.33</v>
@@ -33989,7 +33989,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR197" t="n">
         <v>1.77</v>
@@ -34669,7 +34669,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR201" t="n">
         <v>1.8</v>
@@ -35006,7 +35006,7 @@
         <v>0.78</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.53</v>
@@ -35179,7 +35179,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR204" t="n">
         <v>1.8</v>
@@ -35516,7 +35516,7 @@
         <v>1.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.2</v>
@@ -36026,10 +36026,10 @@
         <v>1.9</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR209" t="n">
         <v>1.66</v>
@@ -36369,7 +36369,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR211" t="n">
         <v>1.57</v>
@@ -36536,7 +36536,7 @@
         <v>1.18</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.2</v>
@@ -36709,7 +36709,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR213" t="n">
         <v>1.5</v>
@@ -36879,7 +36879,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR214" t="n">
         <v>1.6</v>
@@ -37386,7 +37386,7 @@
         <v>1.27</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.33</v>
@@ -38409,7 +38409,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR223" t="n">
         <v>1.56</v>
@@ -39086,7 +39086,7 @@
         <v>1.55</v>
       </c>
       <c r="AP227" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.73</v>
@@ -39426,7 +39426,7 @@
         <v>0.82</v>
       </c>
       <c r="AP229" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.93</v>
@@ -39939,7 +39939,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR232" t="n">
         <v>1.59</v>
@@ -40106,7 +40106,7 @@
         <v>1.27</v>
       </c>
       <c r="AP233" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.27</v>
@@ -40446,7 +40446,7 @@
         <v>0.91</v>
       </c>
       <c r="AP235" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ235" t="n">
         <v>1.07</v>
@@ -40616,10 +40616,10 @@
         <v>1.45</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR236" t="n">
         <v>1.4</v>
@@ -40786,7 +40786,7 @@
         <v>0.82</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ237" t="n">
         <v>0.8</v>
@@ -41129,7 +41129,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ239" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR239" t="n">
         <v>1.54</v>
@@ -42659,7 +42659,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR248" t="n">
         <v>1.49</v>
@@ -43506,7 +43506,7 @@
         <v>1</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ253" t="n">
         <v>0.93</v>
@@ -44186,7 +44186,7 @@
         <v>0.83</v>
       </c>
       <c r="AP257" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ257" t="n">
         <v>0.8</v>
@@ -44359,7 +44359,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR258" t="n">
         <v>1.57</v>
@@ -44526,10 +44526,10 @@
         <v>0.83</v>
       </c>
       <c r="AP259" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR259" t="n">
         <v>1.34</v>
@@ -45546,7 +45546,7 @@
         <v>1.31</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ265" t="n">
         <v>1.33</v>
@@ -45889,7 +45889,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR267" t="n">
         <v>1.64</v>
@@ -46059,7 +46059,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR268" t="n">
         <v>1.61</v>
@@ -46569,7 +46569,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR271" t="n">
         <v>1.48</v>
@@ -46909,7 +46909,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR273" t="n">
         <v>1.82</v>
@@ -47076,7 +47076,7 @@
         <v>1.15</v>
       </c>
       <c r="AP274" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AQ274" t="n">
         <v>1.27</v>
@@ -47756,7 +47756,7 @@
         <v>1.23</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ278" t="n">
         <v>1.07</v>
@@ -47926,7 +47926,7 @@
         <v>0.62</v>
       </c>
       <c r="AP279" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ279" t="n">
         <v>0.53</v>
@@ -48779,7 +48779,7 @@
         <v>2</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR284" t="n">
         <v>1.71</v>
@@ -48946,7 +48946,7 @@
         <v>1.29</v>
       </c>
       <c r="AP285" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ285" t="n">
         <v>1.4</v>
@@ -49459,7 +49459,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR288" t="n">
         <v>1.72</v>
@@ -50677,6 +50677,686 @@
       </c>
       <c r="AZ295" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>5414680</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45199.64583333334</v>
+      </c>
+      <c r="F296" t="n">
+        <v>30</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S296" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T296" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V296" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X296" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>5414673</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45199.70833333334</v>
+      </c>
+      <c r="F297" t="n">
+        <v>30</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>1</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1</v>
+      </c>
+      <c r="K297" t="n">
+        <v>2</v>
+      </c>
+      <c r="L297" t="n">
+        <v>2</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+      <c r="N297" t="n">
+        <v>3</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['33', '83']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R297" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S297" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T297" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V297" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X297" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>5414676</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45199.70833333334</v>
+      </c>
+      <c r="F298" t="n">
+        <v>30</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>1</v>
+      </c>
+      <c r="K298" t="n">
+        <v>2</v>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="n">
+        <v>1</v>
+      </c>
+      <c r="N298" t="n">
+        <v>2</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R298" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S298" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T298" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V298" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X298" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>5414682</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45199.75</v>
+      </c>
+      <c r="F299" t="n">
+        <v>30</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>2</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>2</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>['73', '90+1']</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R299" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S299" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T299" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V299" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X299" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ299"/>
+  <dimension ref="A1:AZ301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.27</v>
@@ -1519,7 +1519,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.2</v>
@@ -4919,7 +4919,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR26" t="n">
         <v>2.32</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.73</v>
@@ -8656,7 +8656,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.4</v>
@@ -8996,7 +8996,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.06</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.53</v>
@@ -10189,7 +10189,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR57" t="n">
         <v>1.79</v>
@@ -12909,7 +12909,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR73" t="n">
         <v>1.72</v>
@@ -13076,7 +13076,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.93</v>
@@ -15116,7 +15116,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.27</v>
@@ -15966,7 +15966,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.93</v>
@@ -16139,7 +16139,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR92" t="n">
         <v>1.85</v>
@@ -16986,7 +16986,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.8</v>
@@ -19366,7 +19366,7 @@
         <v>0.83</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.2</v>
@@ -19539,7 +19539,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR112" t="n">
         <v>1.44</v>
@@ -19876,7 +19876,7 @@
         <v>1.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.07</v>
@@ -23106,7 +23106,7 @@
         <v>0.67</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.53</v>
@@ -23446,7 +23446,7 @@
         <v>0.57</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.86</v>
@@ -23619,7 +23619,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR136" t="n">
         <v>1.31</v>
@@ -26339,7 +26339,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR152" t="n">
         <v>1.95</v>
@@ -26506,7 +26506,7 @@
         <v>1.57</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.2</v>
@@ -27866,7 +27866,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.4</v>
@@ -30586,7 +30586,7 @@
         <v>1.56</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.33</v>
@@ -31436,7 +31436,7 @@
         <v>0.67</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.53</v>
@@ -31949,7 +31949,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR185" t="n">
         <v>1.41</v>
@@ -32796,7 +32796,7 @@
         <v>0.8</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.93</v>
@@ -34839,7 +34839,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR202" t="n">
         <v>1.52</v>
@@ -35346,7 +35346,7 @@
         <v>1.11</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.27</v>
@@ -37216,7 +37216,7 @@
         <v>0.64</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.53</v>
@@ -38746,7 +38746,7 @@
         <v>0.9</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.86</v>
@@ -38919,7 +38919,7 @@
         <v>1</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR226" t="n">
         <v>1.48</v>
@@ -39599,7 +39599,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR230" t="n">
         <v>1.27</v>
@@ -39766,7 +39766,7 @@
         <v>1.27</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.2</v>
@@ -41126,7 +41126,7 @@
         <v>0.82</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ239" t="n">
         <v>0.73</v>
@@ -44019,7 +44019,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR256" t="n">
         <v>1.5</v>
@@ -44356,7 +44356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ258" t="n">
         <v>1.06</v>
@@ -44696,7 +44696,7 @@
         <v>1.08</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ260" t="n">
         <v>1.07</v>
@@ -45206,7 +45206,7 @@
         <v>0.38</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ263" t="n">
         <v>0.33</v>
@@ -46906,7 +46906,7 @@
         <v>0.77</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ273" t="n">
         <v>0.73</v>
@@ -47419,7 +47419,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR276" t="n">
         <v>1.47</v>
@@ -50831,7 +50831,7 @@
         <v>2.73</v>
       </c>
       <c r="AU296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV296" t="n">
         <v>7</v>
@@ -50840,13 +50840,13 @@
         <v>3</v>
       </c>
       <c r="AX296" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY296" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ296" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297">
@@ -51357,6 +51357,346 @@
       </c>
       <c r="AZ299" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>5414674</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45200.65625</v>
+      </c>
+      <c r="F300" t="n">
+        <v>30</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R300" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S300" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T300" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U300" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V300" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X300" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>5414679</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45200.75</v>
+      </c>
+      <c r="F301" t="n">
+        <v>30</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="N301" t="n">
+        <v>1</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R301" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S301" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T301" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V301" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X301" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP302"/>
+  <dimension ref="A1:BP309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.33</v>
@@ -2445,7 +2445,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.07</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.8</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>1.44</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR22" t="n">
         <v>1.42</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.2</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.07</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.33</v>
@@ -6587,7 +6587,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR28" t="n">
         <v>0.93</v>
@@ -6805,7 +6805,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR29" t="n">
         <v>1.54</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.8</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.93</v>
@@ -7895,7 +7895,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR34" t="n">
         <v>1.82</v>
@@ -8331,7 +8331,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR36" t="n">
         <v>0.72</v>
@@ -8549,7 +8549,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR37" t="n">
         <v>2.28</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.4</v>
@@ -8985,7 +8985,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR39" t="n">
         <v>1.29</v>
@@ -9200,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>1.98</v>
@@ -9421,7 +9421,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR41" t="n">
         <v>1.49</v>
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR42" t="n">
         <v>1.61</v>
@@ -9854,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR43" t="n">
         <v>1.45</v>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR44" t="n">
         <v>1.86</v>
@@ -10293,7 +10293,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR45" t="n">
         <v>1.72</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.31</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.8</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.31</v>
@@ -13996,10 +13996,10 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
         <v>1.28</v>
@@ -14435,7 +14435,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR64" t="n">
         <v>1.47</v>
@@ -14650,10 +14650,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR65" t="n">
         <v>1.61</v>
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR66" t="n">
         <v>1.64</v>
@@ -15089,7 +15089,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR67" t="n">
         <v>1.51</v>
@@ -15522,10 +15522,10 @@
         <v>2</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR69" t="n">
         <v>1.55</v>
@@ -15740,7 +15740,7 @@
         <v>2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.2</v>
@@ -15961,7 +15961,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
         <v>2.1</v>
@@ -16615,7 +16615,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR74" t="n">
         <v>2.16</v>
@@ -17051,7 +17051,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR76" t="n">
         <v>1.52</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.93</v>
@@ -17702,7 +17702,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.73</v>
@@ -18138,10 +18138,10 @@
         <v>0.75</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR81" t="n">
         <v>1.39</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.2</v>
@@ -18795,7 +18795,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR84" t="n">
         <v>1.75</v>
@@ -19231,7 +19231,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR86" t="n">
         <v>1.55</v>
@@ -19449,7 +19449,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR87" t="n">
         <v>1.65</v>
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.2</v>
@@ -20100,7 +20100,7 @@
         <v>0</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.53</v>
@@ -20757,7 +20757,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR93" t="n">
         <v>1.75</v>
@@ -20975,7 +20975,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR94" t="n">
         <v>1.65</v>
@@ -21411,7 +21411,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR96" t="n">
         <v>1.5</v>
@@ -21844,7 +21844,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.07</v>
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR100" t="n">
         <v>1.6</v>
@@ -22501,7 +22501,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR101" t="n">
         <v>1.75</v>
@@ -22716,7 +22716,7 @@
         <v>2</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.4</v>
@@ -22934,10 +22934,10 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR103" t="n">
         <v>1.63</v>
@@ -23152,10 +23152,10 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR104" t="n">
         <v>1.56</v>
@@ -23591,7 +23591,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR106" t="n">
         <v>1.84</v>
@@ -23806,7 +23806,7 @@
         <v>0.6</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.31</v>
@@ -24024,7 +24024,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.2</v>
@@ -24245,7 +24245,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR109" t="n">
         <v>1.88</v>
@@ -26643,7 +26643,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR120" t="n">
         <v>1.66</v>
@@ -26858,10 +26858,10 @@
         <v>0.5</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR121" t="n">
         <v>1.49</v>
@@ -27079,7 +27079,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR122" t="n">
         <v>1.62</v>
@@ -27294,7 +27294,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.73</v>
@@ -27512,10 +27512,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR124" t="n">
         <v>1.49</v>
@@ -28166,10 +28166,10 @@
         <v>2.17</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR127" t="n">
         <v>1.97</v>
@@ -28387,7 +28387,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR128" t="n">
         <v>1.68</v>
@@ -28602,10 +28602,10 @@
         <v>2.17</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR129" t="n">
         <v>1.86</v>
@@ -28820,7 +28820,7 @@
         <v>2.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.4</v>
@@ -29913,7 +29913,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR135" t="n">
         <v>1.57</v>
@@ -30782,7 +30782,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.2</v>
@@ -31003,7 +31003,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR140" t="n">
         <v>1.33</v>
@@ -31218,7 +31218,7 @@
         <v>0.83</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.93</v>
@@ -31436,10 +31436,10 @@
         <v>1.86</v>
       </c>
       <c r="AP142" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR142" t="n">
         <v>1.84</v>
@@ -31654,7 +31654,7 @@
         <v>1.5</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.06</v>
@@ -31875,7 +31875,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR144" t="n">
         <v>1.78</v>
@@ -32090,7 +32090,7 @@
         <v>0.57</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.31</v>
@@ -32529,7 +32529,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR147" t="n">
         <v>1.64</v>
@@ -32747,7 +32747,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -32965,7 +32965,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR149" t="n">
         <v>1.83</v>
@@ -33180,7 +33180,7 @@
         <v>0.86</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.2</v>
@@ -33398,7 +33398,7 @@
         <v>1.17</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.27</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.31</v>
@@ -34709,7 +34709,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR157" t="n">
         <v>1.4</v>
@@ -34924,7 +34924,7 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.8</v>
@@ -36014,7 +36014,7 @@
         <v>1</v>
       </c>
       <c r="AP163" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.27</v>
@@ -36232,10 +36232,10 @@
         <v>0.88</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR164" t="n">
         <v>1.85</v>
@@ -36453,7 +36453,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR165" t="n">
         <v>1.68</v>
@@ -36671,7 +36671,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR166" t="n">
         <v>1.3</v>
@@ -37107,7 +37107,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR168" t="n">
         <v>1.84</v>
@@ -37325,7 +37325,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR169" t="n">
         <v>1.75</v>
@@ -37540,7 +37540,7 @@
         <v>1.88</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.06</v>
@@ -37758,7 +37758,7 @@
         <v>1.13</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.07</v>
@@ -37979,7 +37979,7 @@
         <v>1</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR172" t="n">
         <v>1.52</v>
@@ -38197,7 +38197,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR173" t="n">
         <v>1.59</v>
@@ -38412,7 +38412,7 @@
         <v>1.25</v>
       </c>
       <c r="AP174" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.2</v>
@@ -39069,7 +39069,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR177" t="n">
         <v>1.56</v>
@@ -39720,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.73</v>
@@ -40159,7 +40159,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR182" t="n">
         <v>1.95</v>
@@ -40377,7 +40377,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR183" t="n">
         <v>1.86</v>
@@ -40595,7 +40595,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR184" t="n">
         <v>1.38</v>
@@ -40810,7 +40810,7 @@
         <v>1</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.33</v>
@@ -41031,7 +41031,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR186" t="n">
         <v>1.71</v>
@@ -41246,7 +41246,7 @@
         <v>0.88</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.27</v>
@@ -41903,7 +41903,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR190" t="n">
         <v>1.53</v>
@@ -42554,10 +42554,10 @@
         <v>1.4</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR193" t="n">
         <v>1.55</v>
@@ -43208,7 +43208,7 @@
         <v>0.78</v>
       </c>
       <c r="AP196" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.8</v>
@@ -43426,7 +43426,7 @@
         <v>1.67</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.06</v>
@@ -43647,7 +43647,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR198" t="n">
         <v>2.01</v>
@@ -44083,7 +44083,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR200" t="n">
         <v>1.79</v>
@@ -44298,7 +44298,7 @@
         <v>1.56</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.2</v>
@@ -44516,7 +44516,7 @@
         <v>0.89</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.33</v>
@@ -45388,10 +45388,10 @@
         <v>1.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR206" t="n">
         <v>1.42</v>
@@ -45609,7 +45609,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR207" t="n">
         <v>1.7</v>
@@ -46045,7 +46045,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR209" t="n">
         <v>1.66</v>
@@ -46914,7 +46914,7 @@
         <v>1.5</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.2</v>
@@ -47135,7 +47135,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR214" t="n">
         <v>1.6</v>
@@ -47571,7 +47571,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR216" t="n">
         <v>1.56</v>
@@ -47789,7 +47789,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR217" t="n">
         <v>1.64</v>
@@ -48004,7 +48004,7 @@
         <v>0.7</v>
       </c>
       <c r="AP218" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ218" t="n">
         <v>0.53</v>
@@ -48658,7 +48658,7 @@
         <v>1.3</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.27</v>
@@ -49094,7 +49094,7 @@
         <v>0.8</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.73</v>
@@ -49312,7 +49312,7 @@
         <v>0.9</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.07</v>
@@ -49533,7 +49533,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR225" t="n">
         <v>1.88</v>
@@ -49966,10 +49966,10 @@
         <v>1.55</v>
       </c>
       <c r="AP227" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR227" t="n">
         <v>1.37</v>
@@ -50187,7 +50187,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR228" t="n">
         <v>1.67</v>
@@ -50405,7 +50405,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR229" t="n">
         <v>1.41</v>
@@ -51274,7 +51274,7 @@
         <v>1.27</v>
       </c>
       <c r="AP233" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.27</v>
@@ -52803,7 +52803,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR240" t="n">
         <v>1.7</v>
@@ -53021,7 +53021,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR241" t="n">
         <v>1.79</v>
@@ -53236,10 +53236,10 @@
         <v>0.91</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ242" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR242" t="n">
         <v>1.48</v>
@@ -53454,7 +53454,7 @@
         <v>0.82</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ243" t="n">
         <v>0.93</v>
@@ -53893,7 +53893,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR245" t="n">
         <v>1.58</v>
@@ -54108,7 +54108,7 @@
         <v>1.17</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ246" t="n">
         <v>1.2</v>
@@ -54326,10 +54326,10 @@
         <v>1.33</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR247" t="n">
         <v>1.73</v>
@@ -54544,10 +54544,10 @@
         <v>1.58</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR248" t="n">
         <v>1.49</v>
@@ -54765,7 +54765,7 @@
         <v>1</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR249" t="n">
         <v>1.49</v>
@@ -54980,7 +54980,7 @@
         <v>1.42</v>
       </c>
       <c r="AP250" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ250" t="n">
         <v>1.4</v>
@@ -55198,10 +55198,10 @@
         <v>0.58</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR251" t="n">
         <v>1.51</v>
@@ -55419,7 +55419,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR252" t="n">
         <v>1.99</v>
@@ -56942,7 +56942,7 @@
         <v>0.83</v>
       </c>
       <c r="AP259" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ259" t="n">
         <v>0.73</v>
@@ -57378,7 +57378,7 @@
         <v>1.17</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ261" t="n">
         <v>1.27</v>
@@ -58032,10 +58032,10 @@
         <v>0.62</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ264" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR264" t="n">
         <v>1.73</v>
@@ -58253,7 +58253,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ265" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR265" t="n">
         <v>1.45</v>
@@ -59122,10 +59122,10 @@
         <v>1.77</v>
       </c>
       <c r="AP269" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR269" t="n">
         <v>1.69</v>
@@ -59340,7 +59340,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ270" t="n">
         <v>1.4</v>
@@ -59561,7 +59561,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR271" t="n">
         <v>1.48</v>
@@ -59779,7 +59779,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ272" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR272" t="n">
         <v>1.34</v>
@@ -60648,7 +60648,7 @@
         <v>1.31</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ276" t="n">
         <v>1.33</v>
@@ -60866,7 +60866,7 @@
         <v>1</v>
       </c>
       <c r="AP277" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ277" t="n">
         <v>0.93</v>
@@ -61302,7 +61302,7 @@
         <v>0.62</v>
       </c>
       <c r="AP279" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ279" t="n">
         <v>0.53</v>
@@ -61523,7 +61523,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ280" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR280" t="n">
         <v>1.53</v>
@@ -61741,7 +61741,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ281" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR281" t="n">
         <v>1.96</v>
@@ -61956,10 +61956,10 @@
         <v>1.43</v>
       </c>
       <c r="AP282" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR282" t="n">
         <v>1.68</v>
@@ -62392,7 +62392,7 @@
         <v>1.21</v>
       </c>
       <c r="AP284" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ284" t="n">
         <v>1.06</v>
@@ -62828,7 +62828,7 @@
         <v>1.29</v>
       </c>
       <c r="AP286" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ286" t="n">
         <v>1.2</v>
@@ -63049,7 +63049,7 @@
         <v>1</v>
       </c>
       <c r="AQ287" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR287" t="n">
         <v>1.51</v>
@@ -63264,7 +63264,7 @@
         <v>1.23</v>
       </c>
       <c r="AP288" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ288" t="n">
         <v>1.2</v>
@@ -63703,7 +63703,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ290" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR290" t="n">
         <v>1.46</v>
@@ -63921,7 +63921,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ291" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR291" t="n">
         <v>1.94</v>
@@ -65226,10 +65226,10 @@
         <v>1.36</v>
       </c>
       <c r="AP297" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ297" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR297" t="n">
         <v>1.41</v>
@@ -66395,6 +66395,1532 @@
       </c>
       <c r="BP302" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>5414690</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>45204.80208333334</v>
+      </c>
+      <c r="F303" t="n">
+        <v>31</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q303" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R303" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S303" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T303" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U303" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V303" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X303" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK303" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL303" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM303" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN303" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO303" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP303" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>5414684</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>45205.89583333334</v>
+      </c>
+      <c r="F304" t="n">
+        <v>31</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>1</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q304" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R304" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S304" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T304" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V304" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X304" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD304" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE304" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF304" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG304" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ304" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK304" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL304" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM304" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN304" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO304" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP304" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>5414692</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>45205.89583333334</v>
+      </c>
+      <c r="F305" t="n">
+        <v>31</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>1</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="n">
+        <v>2</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>2</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>['32', '49']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R305" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S305" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T305" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V305" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X305" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL305" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM305" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN305" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO305" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP305" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>5414691</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F306" t="n">
+        <v>31</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="n">
+        <v>1</v>
+      </c>
+      <c r="N306" t="n">
+        <v>2</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R306" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S306" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T306" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U306" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V306" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X306" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL306" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM306" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN306" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO306" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP306" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>5414686</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F307" t="n">
+        <v>31</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>1</v>
+      </c>
+      <c r="N307" t="n">
+        <v>1</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R307" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S307" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T307" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U307" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V307" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X307" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL307" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM307" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN307" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO307" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP307" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>5414689</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F308" t="n">
+        <v>31</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="n">
+        <v>1</v>
+      </c>
+      <c r="N308" t="n">
+        <v>2</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q308" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R308" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S308" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T308" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U308" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V308" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X308" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK308" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL308" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM308" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN308" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO308" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP308" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>5414683</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F309" t="n">
+        <v>31</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>1</v>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="n">
+        <v>1</v>
+      </c>
+      <c r="N309" t="n">
+        <v>2</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q309" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R309" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S309" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T309" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U309" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V309" t="n">
+        <v>4</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X309" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ309" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA309" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB309" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC309" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD309" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE309" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF309" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BG309" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH309" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ309" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK309" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL309" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM309" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN309" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO309" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP309" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP309"/>
+  <dimension ref="A1:BP311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.53</v>
@@ -2663,7 +2663,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR24" t="n">
         <v>2.3</v>
@@ -8767,7 +8767,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR38" t="n">
         <v>1.46</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.88</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.2</v>
@@ -10947,7 +10947,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR48" t="n">
         <v>1.71</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.53</v>
@@ -12691,7 +12691,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR56" t="n">
         <v>1.37</v>
@@ -13781,7 +13781,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR61" t="n">
         <v>1.39</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.2</v>
@@ -15086,7 +15086,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.13</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.27</v>
@@ -17705,7 +17705,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR79" t="n">
         <v>1.63</v>
@@ -18359,7 +18359,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR82" t="n">
         <v>1.93</v>
@@ -19446,7 +19446,7 @@
         <v>0.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.5600000000000001</v>
@@ -20536,7 +20536,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.33</v>
@@ -21193,7 +21193,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR95" t="n">
         <v>1.55</v>
@@ -22719,7 +22719,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR102" t="n">
         <v>1.99</v>
@@ -23588,7 +23588,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ106" t="n">
         <v>1</v>
@@ -24242,7 +24242,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.69</v>
@@ -26640,7 +26640,7 @@
         <v>2</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.31</v>
@@ -27076,7 +27076,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.69</v>
@@ -27297,7 +27297,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR123" t="n">
         <v>1.74</v>
@@ -28823,7 +28823,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR130" t="n">
         <v>1.51</v>
@@ -29256,7 +29256,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.07</v>
@@ -30349,7 +30349,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR137" t="n">
         <v>1.35</v>
@@ -32311,7 +32311,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR146" t="n">
         <v>1.69</v>
@@ -32526,7 +32526,7 @@
         <v>2</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.13</v>
@@ -34491,7 +34491,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR156" t="n">
         <v>1.68</v>
@@ -35360,7 +35360,7 @@
         <v>1.29</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.2</v>
@@ -35581,7 +35581,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR161" t="n">
         <v>2.02</v>
@@ -35796,7 +35796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.2</v>
@@ -39502,10 +39502,10 @@
         <v>1.44</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR179" t="n">
         <v>1.61</v>
@@ -39723,7 +39723,7 @@
         <v>2</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR180" t="n">
         <v>1.44</v>
@@ -40374,7 +40374,7 @@
         <v>1.78</v>
       </c>
       <c r="AP183" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.25</v>
@@ -42118,7 +42118,7 @@
         <v>1</v>
       </c>
       <c r="AP191" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.07</v>
@@ -43865,7 +43865,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR199" t="n">
         <v>1.55</v>
@@ -44952,10 +44952,10 @@
         <v>0.89</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR204" t="n">
         <v>1.8</v>
@@ -47132,7 +47132,7 @@
         <v>1.73</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.25</v>
@@ -48225,7 +48225,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR219" t="n">
         <v>1.24</v>
@@ -48876,7 +48876,7 @@
         <v>0.45</v>
       </c>
       <c r="AP222" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ222" t="n">
         <v>0.31</v>
@@ -49097,7 +49097,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR223" t="n">
         <v>1.56</v>
@@ -52585,7 +52585,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ239" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR239" t="n">
         <v>1.54</v>
@@ -53018,7 +53018,7 @@
         <v>1.42</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ241" t="n">
         <v>1.31</v>
@@ -53890,7 +53890,7 @@
         <v>0.83</v>
       </c>
       <c r="AP245" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.88</v>
@@ -54983,7 +54983,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR250" t="n">
         <v>1.72</v>
@@ -56945,7 +56945,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR259" t="n">
         <v>1.34</v>
@@ -58904,7 +58904,7 @@
         <v>1.23</v>
       </c>
       <c r="AP268" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.06</v>
@@ -59343,7 +59343,7 @@
         <v>2</v>
       </c>
       <c r="AQ270" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR270" t="n">
         <v>1.48</v>
@@ -59997,7 +59997,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR273" t="n">
         <v>1.82</v>
@@ -60430,7 +60430,7 @@
         <v>1.15</v>
       </c>
       <c r="AP275" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ275" t="n">
         <v>1.2</v>
@@ -62613,7 +62613,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ285" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR285" t="n">
         <v>1.51</v>
@@ -63482,7 +63482,7 @@
         <v>0.36</v>
       </c>
       <c r="AP289" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ289" t="n">
         <v>0.31</v>
@@ -65665,7 +65665,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR299" t="n">
         <v>1.32</v>
@@ -67203,22 +67203,22 @@
         <v>2.9</v>
       </c>
       <c r="AU306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV306" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW306" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX306" t="n">
         <v>9</v>
       </c>
       <c r="AY306" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ306" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA306" t="n">
         <v>1</v>
@@ -67424,19 +67424,19 @@
         <v>5</v>
       </c>
       <c r="AV307" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW307" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX307" t="n">
         <v>2</v>
       </c>
       <c r="AY307" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ307" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA307" t="n">
         <v>2</v>
@@ -67639,22 +67639,22 @@
         <v>3.17</v>
       </c>
       <c r="AU308" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV308" t="n">
         <v>8</v>
       </c>
       <c r="AW308" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX308" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY308" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ308" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA308" t="n">
         <v>6</v>
@@ -67860,19 +67860,19 @@
         <v>3</v>
       </c>
       <c r="AV309" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW309" t="n">
         <v>4</v>
-      </c>
-      <c r="AW309" t="n">
-        <v>7</v>
       </c>
       <c r="AX309" t="n">
         <v>7</v>
       </c>
       <c r="AY309" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ309" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ309" t="n">
-        <v>11</v>
       </c>
       <c r="BA309" t="n">
         <v>6</v>
@@ -67921,6 +67921,442 @@
       </c>
       <c r="BP309" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>5414685</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F310" t="n">
+        <v>31</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>1</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R310" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S310" t="n">
+        <v>4</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V310" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X310" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL310" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM310" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN310" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO310" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP310" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>5414688</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45208.83333333334</v>
+      </c>
+      <c r="F311" t="n">
+        <v>31</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>3</v>
+      </c>
+      <c r="K311" t="n">
+        <v>4</v>
+      </c>
+      <c r="L311" t="n">
+        <v>3</v>
+      </c>
+      <c r="M311" t="n">
+        <v>3</v>
+      </c>
+      <c r="N311" t="n">
+        <v>6</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>['45+6', '70', '80']</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>['26', '30', '38']</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R311" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S311" t="n">
+        <v>8</v>
+      </c>
+      <c r="T311" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V311" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X311" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL311" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM311" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN311" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO311" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP311" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP311"/>
+  <dimension ref="A1:BP314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.25</v>
@@ -1573,7 +1573,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.53</v>
@@ -3753,7 +3753,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.31</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR23" t="n">
         <v>1.81</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.13</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.69</v>
@@ -7459,7 +7459,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -7677,7 +7677,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR33" t="n">
         <v>1.09</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.88</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.06</v>
@@ -11601,7 +11601,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR51" t="n">
         <v>2.21</v>
@@ -11819,7 +11819,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR52" t="n">
         <v>1.65</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR58" t="n">
         <v>1.33</v>
@@ -14217,7 +14217,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR63" t="n">
         <v>1.52</v>
@@ -15086,7 +15086,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.13</v>
@@ -15743,7 +15743,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR70" t="n">
         <v>1.58</v>
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.53</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.88</v>
@@ -17269,7 +17269,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR77" t="n">
         <v>1.18</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.27</v>
@@ -18577,7 +18577,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR83" t="n">
         <v>1.53</v>
@@ -20321,7 +20321,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR91" t="n">
         <v>1.53</v>
@@ -20536,7 +20536,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.33</v>
@@ -21408,7 +21408,7 @@
         <v>2</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.25</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.8</v>
@@ -24027,7 +24027,7 @@
         <v>2</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR108" t="n">
         <v>1.49</v>
@@ -24242,7 +24242,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.69</v>
@@ -24460,10 +24460,10 @@
         <v>0.8</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR110" t="n">
         <v>1.35</v>
@@ -24678,7 +24678,7 @@
         <v>0.83</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.2</v>
@@ -25553,7 +25553,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR115" t="n">
         <v>1.42</v>
@@ -25989,7 +25989,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR117" t="n">
         <v>2.02</v>
@@ -29256,7 +29256,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.07</v>
@@ -29474,7 +29474,7 @@
         <v>0.67</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.53</v>
@@ -29695,7 +29695,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR134" t="n">
         <v>1.89</v>
@@ -30128,7 +30128,7 @@
         <v>1</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.33</v>
@@ -30785,7 +30785,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR139" t="n">
         <v>1.4</v>
@@ -31221,7 +31221,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR141" t="n">
         <v>1.83</v>
@@ -33837,7 +33837,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR153" t="n">
         <v>1.56</v>
@@ -34270,7 +34270,7 @@
         <v>1.71</v>
       </c>
       <c r="AP155" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.06</v>
@@ -35363,7 +35363,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR160" t="n">
         <v>1.66</v>
@@ -35578,7 +35578,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.31</v>
@@ -35796,7 +35796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.2</v>
@@ -38415,7 +38415,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR174" t="n">
         <v>1.74</v>
@@ -38848,7 +38848,7 @@
         <v>0.78</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.2</v>
@@ -40156,7 +40156,7 @@
         <v>0.67</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.5600000000000001</v>
@@ -40374,7 +40374,7 @@
         <v>1.78</v>
       </c>
       <c r="AP183" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.25</v>
@@ -41467,7 +41467,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR188" t="n">
         <v>1.7</v>
@@ -41685,7 +41685,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR189" t="n">
         <v>1.21</v>
@@ -42339,7 +42339,7 @@
         <v>1</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR192" t="n">
         <v>1.51</v>
@@ -42990,7 +42990,7 @@
         <v>0.4</v>
       </c>
       <c r="AP195" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.31</v>
@@ -44301,7 +44301,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR201" t="n">
         <v>1.8</v>
@@ -44952,7 +44952,7 @@
         <v>0.89</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ204" t="n">
         <v>0.75</v>
@@ -45170,7 +45170,7 @@
         <v>1.11</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.27</v>
@@ -45827,7 +45827,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR208" t="n">
         <v>1.17</v>
@@ -46917,7 +46917,7 @@
         <v>2</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR213" t="n">
         <v>1.5</v>
@@ -47353,7 +47353,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ215" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR215" t="n">
         <v>1.46</v>
@@ -48443,7 +48443,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR220" t="n">
         <v>1.98</v>
@@ -48876,7 +48876,7 @@
         <v>0.45</v>
       </c>
       <c r="AP222" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ222" t="n">
         <v>0.31</v>
@@ -49530,7 +49530,7 @@
         <v>0.9</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ225" t="n">
         <v>1</v>
@@ -50402,7 +50402,7 @@
         <v>0.82</v>
       </c>
       <c r="AP229" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.88</v>
@@ -50838,10 +50838,10 @@
         <v>1.27</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR231" t="n">
         <v>1.91</v>
@@ -51059,7 +51059,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR232" t="n">
         <v>1.59</v>
@@ -51710,7 +51710,7 @@
         <v>0.91</v>
       </c>
       <c r="AP235" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ235" t="n">
         <v>1.07</v>
@@ -52367,7 +52367,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ238" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR238" t="n">
         <v>1.91</v>
@@ -53018,7 +53018,7 @@
         <v>1.42</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ241" t="n">
         <v>1.31</v>
@@ -53457,7 +53457,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR243" t="n">
         <v>1.52</v>
@@ -55637,7 +55637,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR253" t="n">
         <v>1.6</v>
@@ -55855,7 +55855,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR254" t="n">
         <v>1.58</v>
@@ -56506,7 +56506,7 @@
         <v>0.83</v>
       </c>
       <c r="AP257" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ257" t="n">
         <v>0.8</v>
@@ -57160,7 +57160,7 @@
         <v>1.08</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ260" t="n">
         <v>1.07</v>
@@ -58689,7 +58689,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR267" t="n">
         <v>1.64</v>
@@ -59994,7 +59994,7 @@
         <v>0.77</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ273" t="n">
         <v>0.75</v>
@@ -60212,7 +60212,7 @@
         <v>1.15</v>
       </c>
       <c r="AP274" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ274" t="n">
         <v>1.27</v>
@@ -60430,10 +60430,10 @@
         <v>1.15</v>
       </c>
       <c r="AP275" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR275" t="n">
         <v>1.7</v>
@@ -60869,7 +60869,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ277" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR277" t="n">
         <v>1.72</v>
@@ -62177,7 +62177,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ283" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR283" t="n">
         <v>1.41</v>
@@ -62260,7 +62260,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>5414664</v>
+        <v>5414666</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -62280,197 +62280,197 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Atlético GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Criciúma</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>2</v>
+      </c>
+      <c r="N284" t="n">
+        <v>2</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['7', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R284" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S284" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T284" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V284" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X284" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV284" t="n">
         <v>3</v>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="n">
-        <v>4</v>
-      </c>
-      <c r="O284" t="inlineStr">
-        <is>
-          <t>['50', '67', '72']</t>
-        </is>
-      </c>
-      <c r="P284" t="inlineStr">
-        <is>
-          <t>['62']</t>
-        </is>
-      </c>
-      <c r="Q284" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R284" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S284" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T284" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U284" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V284" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W284" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X284" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y284" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z284" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA284" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB284" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AC284" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD284" t="n">
+      <c r="AW284" t="n">
         <v>7</v>
       </c>
-      <c r="AE284" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF284" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AG284" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AH284" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AI284" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ284" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK284" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AL284" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM284" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN284" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AO284" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AP284" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AQ284" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AR284" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AS284" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AT284" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AU284" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV284" t="n">
+      <c r="AX284" t="n">
         <v>5</v>
       </c>
-      <c r="AW284" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX284" t="n">
-        <v>6</v>
-      </c>
       <c r="AY284" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ284" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA284" t="n">
         <v>11</v>
-      </c>
-      <c r="BA284" t="n">
-        <v>1</v>
       </c>
       <c r="BB284" t="n">
         <v>2</v>
       </c>
       <c r="BC284" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BD284" t="n">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="BE284" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BF284" t="n">
-        <v>3.48</v>
+        <v>2.33</v>
       </c>
       <c r="BG284" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="BH284" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="BI284" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="BJ284" t="n">
-        <v>3.75</v>
+        <v>2.85</v>
       </c>
       <c r="BK284" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="BL284" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="BM284" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="BN284" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="BO284" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="BP284" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="285">
@@ -62478,7 +62478,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>5414666</v>
+        <v>5414664</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -62498,197 +62498,197 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atlético GO</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Criciúma</t>
         </is>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N285" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['50', '67', '72']</t>
         </is>
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>['7', '90+2']</t>
+          <t>['62']</t>
         </is>
       </c>
       <c r="Q285" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="R285" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S285" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="T285" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="U285" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="V285" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="W285" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="X285" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ285" t="n">
         <v>11</v>
       </c>
-      <c r="Y285" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z285" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA285" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AB285" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AC285" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD285" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE285" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AF285" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AG285" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AH285" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI285" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AJ285" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AK285" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AL285" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AM285" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AN285" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AO285" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP285" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AQ285" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AR285" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AS285" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AT285" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AU285" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV285" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW285" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX285" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY285" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ285" t="n">
-        <v>8</v>
-      </c>
       <c r="BA285" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BB285" t="n">
         <v>2</v>
       </c>
       <c r="BC285" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BD285" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="BE285" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="BF285" t="n">
-        <v>2.33</v>
+        <v>3.48</v>
       </c>
       <c r="BG285" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="BH285" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="BI285" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="BJ285" t="n">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="BK285" t="n">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="BL285" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="BM285" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="BN285" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="BO285" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="BP285" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="286">
@@ -62696,7 +62696,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>5414672</v>
+        <v>5414670</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -62716,197 +62716,197 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="n">
         <v>0</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
       <c r="M286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>['50']</t>
+          <t>['37']</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+9']</t>
         </is>
       </c>
       <c r="Q286" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R286" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S286" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="T286" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="U286" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V286" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W286" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="X286" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y286" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z286" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="AA286" t="n">
         <v>2.9</v>
       </c>
       <c r="AB286" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AC286" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AD286" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE286" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AF286" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AG286" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AH286" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AI286" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AJ286" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AK286" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AL286" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AM286" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AN286" t="n">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AO286" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AP286" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA286" t="n">
         <v>2</v>
       </c>
-      <c r="AQ286" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AR286" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AS286" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AT286" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AU286" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV286" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW286" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX286" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY286" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ286" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA286" t="n">
-        <v>4</v>
-      </c>
       <c r="BB286" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC286" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD286" t="n">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="BE286" t="n">
         <v>8.5</v>
       </c>
       <c r="BF286" t="n">
-        <v>2.78</v>
+        <v>2.32</v>
       </c>
       <c r="BG286" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="BH286" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="BI286" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="BJ286" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BK286" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="BL286" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="BM286" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="BN286" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="BO286" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="BP286" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="287">
@@ -62914,7 +62914,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>5414670</v>
+        <v>5414672</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -62934,197 +62934,197 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="n">
         <v>0</v>
       </c>
       <c r="K287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
       <c r="M287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>['37']</t>
+          <t>['50']</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>['90+9']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q287" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R287" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S287" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="T287" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U287" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V287" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W287" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="X287" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y287" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z287" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="AA287" t="n">
         <v>2.9</v>
       </c>
       <c r="AB287" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AC287" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AD287" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE287" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AF287" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AG287" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AH287" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AI287" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AJ287" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AK287" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AL287" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AM287" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AN287" t="n">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AO287" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AP287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ287" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR287" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AT287" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="AU287" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA287" t="n">
         <v>4</v>
       </c>
-      <c r="AV287" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW287" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX287" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY287" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ287" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA287" t="n">
-        <v>2</v>
-      </c>
       <c r="BB287" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC287" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD287" t="n">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="BE287" t="n">
         <v>8.5</v>
       </c>
       <c r="BF287" t="n">
-        <v>2.32</v>
+        <v>2.78</v>
       </c>
       <c r="BG287" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="BH287" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="BI287" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="BJ287" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BK287" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="BL287" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="BM287" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="BN287" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="BO287" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="BP287" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="288">
@@ -63267,7 +63267,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR288" t="n">
         <v>1.72</v>
@@ -65447,7 +65447,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ298" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR298" t="n">
         <v>1.53</v>
@@ -65662,7 +65662,7 @@
         <v>0.79</v>
       </c>
       <c r="AP299" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ299" t="n">
         <v>0.75</v>
@@ -65880,10 +65880,10 @@
         <v>0.93</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ300" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR300" t="n">
         <v>1.88</v>
@@ -66620,7 +66620,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>5414684</v>
+        <v>5414692</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -66640,12 +66640,12 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Atlético GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="I304" t="n">
@@ -66658,17 +66658,17 @@
         <v>1</v>
       </c>
       <c r="L304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M304" t="n">
         <v>0</v>
       </c>
       <c r="N304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>['45+6']</t>
+          <t>['32', '49']</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
@@ -66677,160 +66677,160 @@
         </is>
       </c>
       <c r="Q304" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R304" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S304" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="T304" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="U304" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="V304" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="W304" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="X304" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y304" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z304" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AA304" t="n">
-        <v>6.34</v>
+        <v>5.63</v>
       </c>
       <c r="AB304" t="n">
-        <v>4.04</v>
+        <v>3.09</v>
       </c>
       <c r="AC304" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AD304" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AE304" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AF304" t="n">
-        <v>2.9</v>
+        <v>2.34</v>
       </c>
       <c r="AG304" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="AH304" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ304" t="n">
         <v>1.63</v>
       </c>
-      <c r="AI304" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AJ304" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AK304" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AL304" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AM304" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="AN304" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP304" t="n">
         <v>2</v>
       </c>
-      <c r="AO304" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AP304" t="n">
-        <v>2.06</v>
-      </c>
       <c r="AQ304" t="n">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR304" t="n">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT304" t="n">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
       <c r="AU304" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV304" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY304" t="n">
         <v>7</v>
       </c>
-      <c r="AW304" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX304" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY304" t="n">
-        <v>12</v>
-      </c>
       <c r="AZ304" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA304" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB304" t="n">
         <v>5</v>
       </c>
       <c r="BC304" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD304" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="BE304" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF304" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="BG304" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BH304" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="BI304" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="BJ304" t="n">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="BK304" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="BL304" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="BM304" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="BN304" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="BO304" t="n">
-        <v>2.37</v>
+        <v>2.8</v>
       </c>
       <c r="BP304" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="305">
@@ -66838,7 +66838,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>5414692</v>
+        <v>5414684</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -66858,12 +66858,12 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atlético GO</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I305" t="n">
@@ -66876,179 +66876,179 @@
         <v>1</v>
       </c>
       <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>1</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R305" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S305" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T305" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V305" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X305" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN305" t="n">
         <v>2</v>
       </c>
-      <c r="M305" t="n">
-        <v>0</v>
-      </c>
-      <c r="N305" t="n">
-        <v>2</v>
-      </c>
-      <c r="O305" t="inlineStr">
-        <is>
-          <t>['32', '49']</t>
-        </is>
-      </c>
-      <c r="P305" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q305" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R305" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S305" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T305" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U305" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V305" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W305" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X305" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y305" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z305" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA305" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="AB305" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AC305" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD305" t="n">
+      <c r="AO305" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA305" t="n">
         <v>6</v>
-      </c>
-      <c r="AE305" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AF305" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AG305" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AH305" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI305" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ305" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AK305" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AL305" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AM305" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN305" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AO305" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP305" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ305" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AR305" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AS305" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AT305" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AU305" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV305" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW305" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX305" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY305" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ305" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA305" t="n">
-        <v>5</v>
       </c>
       <c r="BB305" t="n">
         <v>5</v>
       </c>
       <c r="BC305" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD305" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="BE305" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF305" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="BG305" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="BH305" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="BI305" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="BJ305" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="BK305" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="BL305" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="BM305" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="BN305" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="BO305" t="n">
-        <v>2.8</v>
+        <v>2.37</v>
       </c>
       <c r="BP305" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="306">
@@ -67274,7 +67274,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>5414686</v>
+        <v>5414689</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -67294,12 +67294,12 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Corrêa</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Avaí</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I307" t="n">
@@ -67312,179 +67312,179 @@
         <v>0</v>
       </c>
       <c r="L307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
       <c r="N307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>['56']</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="Q307" t="n">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="R307" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S307" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="T307" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="U307" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V307" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X307" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI307" t="n">
         <v>2.15</v>
       </c>
-      <c r="V307" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="W307" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X307" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y307" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z307" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AA307" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB307" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AC307" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD307" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE307" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AF307" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AG307" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AH307" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AI307" t="n">
-        <v>2.3</v>
-      </c>
       <c r="AJ307" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AK307" t="n">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="AL307" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AM307" t="n">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="AN307" t="n">
         <v>1.47</v>
       </c>
       <c r="AO307" t="n">
-        <v>0.86</v>
+        <v>1.27</v>
       </c>
       <c r="AP307" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ307" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR307" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="AT307" t="n">
-        <v>2.49</v>
+        <v>3.17</v>
       </c>
       <c r="AU307" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW307" t="n">
         <v>5</v>
       </c>
-      <c r="AV307" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW307" t="n">
+      <c r="AX307" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA307" t="n">
         <v>6</v>
       </c>
-      <c r="AX307" t="n">
+      <c r="BB307" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD307" t="n">
         <v>2</v>
-      </c>
-      <c r="AY307" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ307" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA307" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB307" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC307" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD307" t="n">
-        <v>1.5</v>
       </c>
       <c r="BE307" t="n">
         <v>7.5</v>
       </c>
       <c r="BF307" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="BG307" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH307" t="n">
         <v>4.5</v>
       </c>
       <c r="BI307" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="BJ307" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="BK307" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="BL307" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="BM307" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN307" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="BO307" t="n">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="BP307" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="308">
@@ -67492,7 +67492,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>5414689</v>
+        <v>5414686</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -67512,12 +67512,12 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Sampaio Corrêa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Avaí</t>
         </is>
       </c>
       <c r="I308" t="n">
@@ -67530,179 +67530,179 @@
         <v>0</v>
       </c>
       <c r="L308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
       <c r="N308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>['56']</t>
         </is>
       </c>
       <c r="Q308" t="n">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="R308" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S308" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="T308" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U308" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V308" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X308" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE308" t="n">
         <v>1.57</v>
       </c>
-      <c r="U308" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V308" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="W308" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X308" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y308" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z308" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AA308" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AB308" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AC308" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD308" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE308" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AF308" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="AG308" t="n">
-        <v>2.65</v>
+        <v>2.81</v>
       </c>
       <c r="AH308" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL308" t="n">
         <v>1.38</v>
       </c>
-      <c r="AI308" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AJ308" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK308" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AL308" t="n">
-        <v>1.37</v>
-      </c>
       <c r="AM308" t="n">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="AN308" t="n">
         <v>1.47</v>
       </c>
       <c r="AO308" t="n">
-        <v>1.27</v>
+        <v>0.86</v>
       </c>
       <c r="AP308" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ308" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR308" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="AS308" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD308" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AT308" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AU308" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV308" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW308" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX308" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY308" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ308" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA308" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB308" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC308" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD308" t="n">
-        <v>2</v>
       </c>
       <c r="BE308" t="n">
         <v>7.5</v>
       </c>
       <c r="BF308" t="n">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="BG308" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH308" t="n">
         <v>4.5</v>
       </c>
       <c r="BI308" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="BJ308" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="BK308" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="BL308" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="BM308" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN308" t="n">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="BO308" t="n">
-        <v>2.7</v>
+        <v>2.37</v>
       </c>
       <c r="BP308" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="309">
@@ -68060,7 +68060,7 @@
         <v>1.4</v>
       </c>
       <c r="AP310" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ310" t="n">
         <v>1.31</v>
@@ -68096,10 +68096,10 @@
         <v>4</v>
       </c>
       <c r="BB310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC310" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD310" t="n">
         <v>1.62</v>
@@ -68293,22 +68293,22 @@
         <v>2.76</v>
       </c>
       <c r="AU311" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV311" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW311" t="n">
         <v>3</v>
       </c>
       <c r="AX311" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY311" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ311" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA311" t="n">
         <v>9</v>
@@ -68357,6 +68357,660 @@
       </c>
       <c r="BP311" t="n">
         <v>1.75</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>5414702</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45209.89583333334</v>
+      </c>
+      <c r="F312" t="n">
+        <v>32</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>2</v>
+      </c>
+      <c r="K312" t="n">
+        <v>2</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>2</v>
+      </c>
+      <c r="N312" t="n">
+        <v>3</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['10', '21']</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R312" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S312" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T312" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V312" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X312" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL312" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM312" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN312" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO312" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP312" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>5414694</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45210.89583333334</v>
+      </c>
+      <c r="F313" t="n">
+        <v>32</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>2</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="n">
+        <v>2</v>
+      </c>
+      <c r="L313" t="n">
+        <v>3</v>
+      </c>
+      <c r="M313" t="n">
+        <v>1</v>
+      </c>
+      <c r="N313" t="n">
+        <v>4</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['14', '40', '57']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R313" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S313" t="n">
+        <v>6</v>
+      </c>
+      <c r="T313" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V313" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X313" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BL313" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM313" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN313" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO313" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BP313" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>5414695</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45212.89583333334</v>
+      </c>
+      <c r="F314" t="n">
+        <v>32</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1</v>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="n">
+        <v>2</v>
+      </c>
+      <c r="N314" t="n">
+        <v>3</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['25', '61']</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R314" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S314" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V314" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X314" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL314" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM314" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN314" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO314" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP314" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP314"/>
+  <dimension ref="A1:BP318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.13</v>
@@ -1791,7 +1791,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.06</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.69</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.2</v>
@@ -5933,7 +5933,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR25" t="n">
         <v>1.06</v>
@@ -6151,7 +6151,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR26" t="n">
         <v>2.32</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.27</v>
@@ -7241,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.13</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.5600000000000001</v>
@@ -10290,7 +10290,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.13</v>
@@ -10944,7 +10944,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.31</v>
@@ -11165,7 +11165,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR49" t="n">
         <v>1.58</v>
@@ -12037,7 +12037,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR53" t="n">
         <v>1.28</v>
@@ -12252,10 +12252,10 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR54" t="n">
         <v>1.85</v>
@@ -12470,10 +12470,10 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR55" t="n">
         <v>1.46</v>
@@ -12909,7 +12909,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR57" t="n">
         <v>1.79</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.27</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.25</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.2</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -16179,7 +16179,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR72" t="n">
         <v>1.49</v>
@@ -16397,7 +16397,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR73" t="n">
         <v>1.72</v>
@@ -16833,7 +16833,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR75" t="n">
         <v>1.65</v>
@@ -17920,7 +17920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.31</v>
@@ -18792,7 +18792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.31</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.25</v>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR89" t="n">
         <v>1.55</v>
@@ -20103,7 +20103,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR90" t="n">
         <v>1.57</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.06</v>
@@ -20539,7 +20539,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR92" t="n">
         <v>1.85</v>
@@ -21629,7 +21629,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR97" t="n">
         <v>2.18</v>
@@ -21847,7 +21847,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR98" t="n">
         <v>1.38</v>
@@ -22498,7 +22498,7 @@
         <v>0.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.5600000000000001</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.2</v>
@@ -24896,10 +24896,10 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR112" t="n">
         <v>1.44</v>
@@ -25114,10 +25114,10 @@
         <v>0.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR113" t="n">
         <v>1.99</v>
@@ -25332,10 +25332,10 @@
         <v>1.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR114" t="n">
         <v>1.53</v>
@@ -25768,7 +25768,7 @@
         <v>1.25</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.27</v>
@@ -26425,7 +26425,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR119" t="n">
         <v>1.64</v>
@@ -29259,7 +29259,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR132" t="n">
         <v>1.83</v>
@@ -29477,7 +29477,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR133" t="n">
         <v>1.98</v>
@@ -29692,7 +29692,7 @@
         <v>1.33</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.13</v>
@@ -29910,7 +29910,7 @@
         <v>0.57</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ135" t="n">
         <v>1</v>
@@ -30131,7 +30131,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR136" t="n">
         <v>1.31</v>
@@ -30346,7 +30346,7 @@
         <v>0.33</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.75</v>
@@ -30567,7 +30567,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR138" t="n">
         <v>1.73</v>
@@ -32744,7 +32744,7 @@
         <v>2.29</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.25</v>
@@ -33616,10 +33616,10 @@
         <v>1</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR152" t="n">
         <v>1.95</v>
@@ -33834,7 +33834,7 @@
         <v>1.57</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.13</v>
@@ -34706,7 +34706,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.69</v>
@@ -34927,7 +34927,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR158" t="n">
         <v>1.81</v>
@@ -35145,7 +35145,7 @@
         <v>1</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR159" t="n">
         <v>1.57</v>
@@ -36886,10 +36886,10 @@
         <v>0.57</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR167" t="n">
         <v>1.63</v>
@@ -37761,7 +37761,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR171" t="n">
         <v>1.82</v>
@@ -38194,7 +38194,7 @@
         <v>1.44</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.69</v>
@@ -38630,7 +38630,7 @@
         <v>0.44</v>
       </c>
       <c r="AP175" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.31</v>
@@ -39066,7 +39066,7 @@
         <v>1.56</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.31</v>
@@ -39287,7 +39287,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR178" t="n">
         <v>1.64</v>
@@ -39941,7 +39941,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR181" t="n">
         <v>1.83</v>
@@ -40592,7 +40592,7 @@
         <v>0.63</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ184" t="n">
         <v>1</v>
@@ -40813,7 +40813,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR185" t="n">
         <v>1.41</v>
@@ -41900,7 +41900,7 @@
         <v>0.8</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.88</v>
@@ -42121,7 +42121,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR191" t="n">
         <v>1.59</v>
@@ -43211,7 +43211,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR196" t="n">
         <v>1.76</v>
@@ -43644,7 +43644,7 @@
         <v>1.4</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.31</v>
@@ -43862,7 +43862,7 @@
         <v>1.6</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.31</v>
@@ -44519,7 +44519,7 @@
         <v>2</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR202" t="n">
         <v>1.52</v>
@@ -44734,10 +44734,10 @@
         <v>0.78</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR203" t="n">
         <v>1.43</v>
@@ -46263,7 +46263,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR210" t="n">
         <v>1.76</v>
@@ -46696,7 +46696,7 @@
         <v>1.18</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.2</v>
@@ -47350,7 +47350,7 @@
         <v>0.67</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.06</v>
@@ -47568,7 +47568,7 @@
         <v>0.64</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.5600000000000001</v>
@@ -48007,7 +48007,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ218" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR218" t="n">
         <v>1.75</v>
@@ -48440,7 +48440,7 @@
         <v>1.4</v>
       </c>
       <c r="AP220" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.31</v>
@@ -49315,7 +49315,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR224" t="n">
         <v>1.76</v>
@@ -49751,7 +49751,7 @@
         <v>1</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR226" t="n">
         <v>1.48</v>
@@ -50623,7 +50623,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR230" t="n">
         <v>1.27</v>
@@ -51495,7 +51495,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ234" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR234" t="n">
         <v>1.51</v>
@@ -51713,7 +51713,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR235" t="n">
         <v>1.39</v>
@@ -51928,7 +51928,7 @@
         <v>1.45</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ236" t="n">
         <v>1.06</v>
@@ -52149,7 +52149,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ237" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR237" t="n">
         <v>1.61</v>
@@ -52364,7 +52364,7 @@
         <v>0.6</v>
       </c>
       <c r="AP238" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.06</v>
@@ -52582,7 +52582,7 @@
         <v>0.82</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ239" t="n">
         <v>0.75</v>
@@ -53672,7 +53672,7 @@
         <v>0.42</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ244" t="n">
         <v>0.31</v>
@@ -55416,7 +55416,7 @@
         <v>1</v>
       </c>
       <c r="AP252" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ252" t="n">
         <v>0.88</v>
@@ -56073,7 +56073,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR255" t="n">
         <v>1.29</v>
@@ -56291,7 +56291,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR256" t="n">
         <v>1.5</v>
@@ -56509,7 +56509,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR257" t="n">
         <v>1.38</v>
@@ -56724,7 +56724,7 @@
         <v>1.33</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ258" t="n">
         <v>1.06</v>
@@ -57163,7 +57163,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ260" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR260" t="n">
         <v>1.82</v>
@@ -57814,7 +57814,7 @@
         <v>0.38</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ263" t="n">
         <v>0.31</v>
@@ -58250,7 +58250,7 @@
         <v>1.31</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ265" t="n">
         <v>1.31</v>
@@ -58468,10 +58468,10 @@
         <v>0.85</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR266" t="n">
         <v>1.43</v>
@@ -60651,7 +60651,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR276" t="n">
         <v>1.47</v>
@@ -61087,7 +61087,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR278" t="n">
         <v>1.59</v>
@@ -61305,7 +61305,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ279" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR279" t="n">
         <v>1.33</v>
@@ -61738,7 +61738,7 @@
         <v>1.31</v>
       </c>
       <c r="AP281" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ281" t="n">
         <v>1.13</v>
@@ -62174,7 +62174,7 @@
         <v>1.07</v>
       </c>
       <c r="AP283" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ283" t="n">
         <v>1.31</v>
@@ -62392,7 +62392,7 @@
         <v>1.29</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ284" t="n">
         <v>1.31</v>
@@ -63918,7 +63918,7 @@
         <v>0.57</v>
       </c>
       <c r="AP291" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ291" t="n">
         <v>0.5600000000000001</v>
@@ -64139,7 +64139,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR292" t="n">
         <v>1.63</v>
@@ -64357,7 +64357,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ293" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR293" t="n">
         <v>1.41</v>
@@ -64793,7 +64793,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ295" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR295" t="n">
         <v>1.55</v>
@@ -65444,7 +65444,7 @@
         <v>1.21</v>
       </c>
       <c r="AP298" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ298" t="n">
         <v>1.13</v>
@@ -66098,10 +66098,10 @@
         <v>1.21</v>
       </c>
       <c r="AP301" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ301" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR301" t="n">
         <v>1.6</v>
@@ -69011,6 +69011,878 @@
       </c>
       <c r="BP314" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>5414697</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45213.70833333334</v>
+      </c>
+      <c r="F315" t="n">
+        <v>32</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>0</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S315" t="n">
+        <v>6</v>
+      </c>
+      <c r="T315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V315" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X315" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL315" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM315" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN315" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO315" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP315" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>5414696</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45213.70833333334</v>
+      </c>
+      <c r="F316" t="n">
+        <v>32</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q316" t="n">
+        <v>3</v>
+      </c>
+      <c r="R316" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S316" t="n">
+        <v>4</v>
+      </c>
+      <c r="T316" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U316" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V316" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X316" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK316" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL316" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM316" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN316" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO316" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP316" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>5414699</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45213.77083333334</v>
+      </c>
+      <c r="F317" t="n">
+        <v>32</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q317" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R317" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S317" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T317" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U317" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V317" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W317" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X317" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF317" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ317" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK317" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL317" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM317" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN317" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO317" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP317" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>5414693</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>45214.65625</v>
+      </c>
+      <c r="F318" t="n">
+        <v>32</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>1</v>
+      </c>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>2</v>
+      </c>
+      <c r="N318" t="n">
+        <v>2</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>['17', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q318" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R318" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S318" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T318" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U318" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V318" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W318" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X318" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ318" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA318" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB318" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC318" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD318" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE318" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF318" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG318" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH318" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ318" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK318" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL318" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM318" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN318" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO318" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP318" t="n">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP318"/>
+  <dimension ref="A1:BP321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.13</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.5600000000000001</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.75</v>
@@ -4189,7 +4189,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.31</v>
@@ -6369,7 +6369,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR27" t="n">
         <v>2.12</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.06</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR35" t="n">
         <v>1.56</v>
@@ -10511,7 +10511,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR46" t="n">
         <v>0</v>
@@ -11816,7 +11816,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.31</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.75</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.44</v>
@@ -13345,7 +13345,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR59" t="n">
         <v>1.3</v>
@@ -15307,7 +15307,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR68" t="n">
         <v>1.83</v>
@@ -16394,7 +16394,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.44</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.06</v>
@@ -17048,7 +17048,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.13</v>
@@ -17487,7 +17487,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR78" t="n">
         <v>1.81</v>
@@ -19667,7 +19667,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR88" t="n">
         <v>2.06</v>
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.88</v>
@@ -20972,7 +20972,7 @@
         <v>0.8</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ94" t="n">
         <v>1</v>
@@ -22062,10 +22062,10 @@
         <v>0.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -23373,7 +23373,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR105" t="n">
         <v>2</v>
@@ -24681,7 +24681,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR111" t="n">
         <v>1.88</v>
@@ -25550,7 +25550,7 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.31</v>
@@ -25771,7 +25771,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR116" t="n">
         <v>1.72</v>
@@ -26204,7 +26204,7 @@
         <v>1.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.06</v>
@@ -26422,7 +26422,7 @@
         <v>0.2</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.5600000000000001</v>
@@ -29041,7 +29041,7 @@
         <v>1</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR131" t="n">
         <v>1.54</v>
@@ -30564,7 +30564,7 @@
         <v>0.67</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.8100000000000001</v>
@@ -31000,7 +31000,7 @@
         <v>1.29</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.69</v>
@@ -32308,7 +32308,7 @@
         <v>1.86</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.31</v>
@@ -33183,7 +33183,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR150" t="n">
         <v>1.54</v>
@@ -33401,7 +33401,7 @@
         <v>2</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -35799,7 +35799,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR162" t="n">
         <v>1.81</v>
@@ -36017,7 +36017,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR163" t="n">
         <v>1.78</v>
@@ -36450,7 +36450,7 @@
         <v>0.63</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.5600000000000001</v>
@@ -36668,7 +36668,7 @@
         <v>1.75</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.31</v>
@@ -37322,7 +37322,7 @@
         <v>2</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.25</v>
@@ -38851,7 +38851,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR176" t="n">
         <v>1.49</v>
@@ -41028,7 +41028,7 @@
         <v>1.67</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.13</v>
@@ -41249,7 +41249,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR187" t="n">
         <v>1.81</v>
@@ -41464,7 +41464,7 @@
         <v>0.71</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.06</v>
@@ -41682,7 +41682,7 @@
         <v>1.38</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.13</v>
@@ -42775,7 +42775,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR194" t="n">
         <v>1.58</v>
@@ -45173,7 +45173,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR205" t="n">
         <v>1.91</v>
@@ -45606,7 +45606,7 @@
         <v>0.7</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.5600000000000001</v>
@@ -45824,7 +45824,7 @@
         <v>0.63</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.06</v>
@@ -46042,7 +46042,7 @@
         <v>1.9</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.25</v>
@@ -46699,7 +46699,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR212" t="n">
         <v>1.39</v>
@@ -47786,7 +47786,7 @@
         <v>1.27</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.31</v>
@@ -48222,7 +48222,7 @@
         <v>1.55</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.31</v>
@@ -48661,7 +48661,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR221" t="n">
         <v>1.8</v>
@@ -50184,7 +50184,7 @@
         <v>1.45</v>
       </c>
       <c r="AP228" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.13</v>
@@ -50620,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.44</v>
@@ -51056,7 +51056,7 @@
         <v>1.45</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.13</v>
@@ -51277,7 +51277,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR233" t="n">
         <v>1.36</v>
@@ -52146,7 +52146,7 @@
         <v>0.82</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ237" t="n">
         <v>0.8100000000000001</v>
@@ -54111,7 +54111,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR246" t="n">
         <v>1.69</v>
@@ -55634,7 +55634,7 @@
         <v>1</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ253" t="n">
         <v>1.06</v>
@@ -55852,7 +55852,7 @@
         <v>1.17</v>
       </c>
       <c r="AP254" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.31</v>
@@ -56070,7 +56070,7 @@
         <v>0.58</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ255" t="n">
         <v>0.5600000000000001</v>
@@ -57381,7 +57381,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR261" t="n">
         <v>1.5</v>
@@ -57599,7 +57599,7 @@
         <v>1</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR262" t="n">
         <v>1.48</v>
@@ -59776,7 +59776,7 @@
         <v>0.93</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ272" t="n">
         <v>0.88</v>
@@ -60215,7 +60215,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR274" t="n">
         <v>1.34</v>
@@ -61084,7 +61084,7 @@
         <v>1.23</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ278" t="n">
         <v>1.06</v>
@@ -61520,7 +61520,7 @@
         <v>0.92</v>
       </c>
       <c r="AP280" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ280" t="n">
         <v>1</v>
@@ -63049,7 +63049,7 @@
         <v>2</v>
       </c>
       <c r="AQ287" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR287" t="n">
         <v>1.52</v>
@@ -64354,7 +64354,7 @@
         <v>0.86</v>
       </c>
       <c r="AP293" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ293" t="n">
         <v>0.8100000000000001</v>
@@ -64575,7 +64575,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ294" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR294" t="n">
         <v>1.42</v>
@@ -64790,7 +64790,7 @@
         <v>0.57</v>
       </c>
       <c r="AP295" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ295" t="n">
         <v>0.5600000000000001</v>
@@ -65008,7 +65008,7 @@
         <v>1.13</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ296" t="n">
         <v>1.06</v>
@@ -69825,16 +69825,16 @@
         <v>4</v>
       </c>
       <c r="AW318" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX318" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ318" t="n">
         <v>7</v>
-      </c>
-      <c r="AY318" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ318" t="n">
-        <v>11</v>
       </c>
       <c r="BA318" t="n">
         <v>5</v>
@@ -69883,6 +69883,660 @@
       </c>
       <c r="BP318" t="n">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>5414698</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>45214.75</v>
+      </c>
+      <c r="F319" t="n">
+        <v>32</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>1</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="n">
+        <v>2</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>2</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>['19', '49']</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q319" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R319" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S319" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T319" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U319" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V319" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W319" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X319" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX319" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ319" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA319" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB319" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC319" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD319" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE319" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF319" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG319" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ319" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK319" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL319" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM319" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN319" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO319" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP319" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>5414701</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45214.77083333334</v>
+      </c>
+      <c r="F320" t="n">
+        <v>32</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>1</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="n">
+        <v>1</v>
+      </c>
+      <c r="N320" t="n">
+        <v>2</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R320" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S320" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T320" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U320" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V320" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X320" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL320" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM320" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN320" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO320" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP320" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>5414700</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45215.83333333334</v>
+      </c>
+      <c r="F321" t="n">
+        <v>32</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>1</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1</v>
+      </c>
+      <c r="K321" t="n">
+        <v>2</v>
+      </c>
+      <c r="L321" t="n">
+        <v>2</v>
+      </c>
+      <c r="M321" t="n">
+        <v>2</v>
+      </c>
+      <c r="N321" t="n">
+        <v>4</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>['15', '61']</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>['41', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q321" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R321" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S321" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T321" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V321" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X321" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL321" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM321" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN321" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO321" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP321" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP321"/>
+  <dimension ref="A1:BP323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.06</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.88</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.44</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.06</v>
@@ -8331,7 +8331,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR36" t="n">
         <v>0.72</v>
@@ -8549,7 +8549,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR37" t="n">
         <v>2.28</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ40" t="n">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR41" t="n">
         <v>1.49</v>
@@ -9857,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR43" t="n">
         <v>1.45</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.31</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.31</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -14653,7 +14653,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR65" t="n">
         <v>1.61</v>
@@ -15525,7 +15525,7 @@
         <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR69" t="n">
         <v>1.55</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.13</v>
@@ -18795,7 +18795,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR84" t="n">
         <v>1.75</v>
@@ -19449,7 +19449,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR87" t="n">
         <v>1.65</v>
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.13</v>
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR100" t="n">
         <v>1.6</v>
@@ -22501,7 +22501,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR101" t="n">
         <v>1.75</v>
@@ -22716,7 +22716,7 @@
         <v>2</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.31</v>
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.13</v>
@@ -26643,7 +26643,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR120" t="n">
         <v>1.66</v>
@@ -27294,7 +27294,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.75</v>
@@ -27515,7 +27515,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR124" t="n">
         <v>1.49</v>
@@ -28166,7 +28166,7 @@
         <v>2.17</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.25</v>
@@ -28387,7 +28387,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR128" t="n">
         <v>1.68</v>
@@ -31218,7 +31218,7 @@
         <v>0.83</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.06</v>
@@ -31436,10 +31436,10 @@
         <v>1.86</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR142" t="n">
         <v>1.84</v>
@@ -31875,7 +31875,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR144" t="n">
         <v>1.78</v>
@@ -34924,7 +34924,7 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.8100000000000001</v>
@@ -36014,7 +36014,7 @@
         <v>1</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.25</v>
@@ -36453,7 +36453,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR165" t="n">
         <v>1.68</v>
@@ -36671,7 +36671,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR166" t="n">
         <v>1.3</v>
@@ -37758,7 +37758,7 @@
         <v>1.13</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.06</v>
@@ -38412,7 +38412,7 @@
         <v>1.25</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.31</v>
@@ -39069,7 +39069,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR177" t="n">
         <v>1.56</v>
@@ -40159,7 +40159,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR182" t="n">
         <v>1.95</v>
@@ -43208,7 +43208,7 @@
         <v>0.78</v>
       </c>
       <c r="AP196" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.8100000000000001</v>
@@ -43426,7 +43426,7 @@
         <v>1.67</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.06</v>
@@ -43647,7 +43647,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR198" t="n">
         <v>2.01</v>
@@ -45609,7 +45609,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR207" t="n">
         <v>1.7</v>
@@ -47571,7 +47571,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR216" t="n">
         <v>1.56</v>
@@ -47789,7 +47789,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR217" t="n">
         <v>1.64</v>
@@ -48004,7 +48004,7 @@
         <v>0.7</v>
       </c>
       <c r="AP218" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ218" t="n">
         <v>0.5600000000000001</v>
@@ -48658,7 +48658,7 @@
         <v>1.3</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.25</v>
@@ -53021,7 +53021,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR241" t="n">
         <v>1.79</v>
@@ -54326,7 +54326,7 @@
         <v>1.33</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ247" t="n">
         <v>1.13</v>
@@ -54980,7 +54980,7 @@
         <v>1.42</v>
       </c>
       <c r="AP250" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ250" t="n">
         <v>1.31</v>
@@ -55201,7 +55201,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR251" t="n">
         <v>1.51</v>
@@ -58032,10 +58032,10 @@
         <v>0.62</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ264" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR264" t="n">
         <v>1.73</v>
@@ -58253,7 +58253,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ265" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR265" t="n">
         <v>1.45</v>
@@ -59122,7 +59122,7 @@
         <v>1.77</v>
       </c>
       <c r="AP269" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ269" t="n">
         <v>1.69</v>
@@ -61959,7 +61959,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR282" t="n">
         <v>1.68</v>
@@ -62610,7 +62610,7 @@
         <v>1.21</v>
       </c>
       <c r="AP285" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ285" t="n">
         <v>1.06</v>
@@ -63264,7 +63264,7 @@
         <v>1.23</v>
       </c>
       <c r="AP288" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ288" t="n">
         <v>1.13</v>
@@ -63921,7 +63921,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ291" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR291" t="n">
         <v>1.94</v>
@@ -66537,7 +66537,7 @@
         <v>1</v>
       </c>
       <c r="AQ303" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR303" t="n">
         <v>1.48</v>
@@ -66970,7 +66970,7 @@
         <v>0.93</v>
       </c>
       <c r="AP305" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ305" t="n">
         <v>0.88</v>
@@ -67188,7 +67188,7 @@
         <v>1.73</v>
       </c>
       <c r="AP306" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ306" t="n">
         <v>1.69</v>
@@ -67845,7 +67845,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ309" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR309" t="n">
         <v>1.4</v>
@@ -70537,6 +70537,442 @@
       </c>
       <c r="BP321" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>5414711</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45218.79166666666</v>
+      </c>
+      <c r="F322" t="n">
+        <v>33</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1</v>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="n">
+        <v>2</v>
+      </c>
+      <c r="M322" t="n">
+        <v>1</v>
+      </c>
+      <c r="N322" t="n">
+        <v>3</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>['87', '90+5']</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q322" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R322" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S322" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T322" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U322" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V322" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X322" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL322" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM322" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN322" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO322" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP322" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>5414704</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>45218.79166666666</v>
+      </c>
+      <c r="F323" t="n">
+        <v>33</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="n">
+        <v>3</v>
+      </c>
+      <c r="M323" t="n">
+        <v>1</v>
+      </c>
+      <c r="N323" t="n">
+        <v>4</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>['4', '52', '85']</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q323" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R323" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S323" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U323" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V323" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W323" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X323" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF323" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BG323" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ323" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK323" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL323" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM323" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN323" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO323" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP323" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP328"/>
+  <dimension ref="A1:BP331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.18</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.31</v>
@@ -6587,7 +6587,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR28" t="n">
         <v>0.93</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.13</v>
@@ -7677,7 +7677,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
         <v>1.09</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.24</v>
@@ -10290,10 +10290,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR45" t="n">
         <v>1.72</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.12</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.5600000000000001</v>
@@ -11598,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="n">
         <v>2.21</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.13</v>
@@ -15089,7 +15089,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR67" t="n">
         <v>1.51</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.12</v>
@@ -17051,7 +17051,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR76" t="n">
         <v>1.52</v>
@@ -17269,7 +17269,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>1.18</v>
@@ -18356,7 +18356,7 @@
         <v>2.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.41</v>
@@ -18792,7 +18792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.24</v>
@@ -19446,7 +19446,7 @@
         <v>0.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.53</v>
@@ -20321,7 +20321,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR91" t="n">
         <v>1.53</v>
@@ -22498,7 +22498,7 @@
         <v>0.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.53</v>
@@ -22937,7 +22937,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR103" t="n">
         <v>1.63</v>
@@ -23588,7 +23588,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ106" t="n">
         <v>1</v>
@@ -24463,7 +24463,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR110" t="n">
         <v>1.35</v>
@@ -25768,7 +25768,7 @@
         <v>1.25</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.25</v>
@@ -25986,7 +25986,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.13</v>
@@ -26640,7 +26640,7 @@
         <v>2</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.24</v>
@@ -27076,7 +27076,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.69</v>
@@ -27730,7 +27730,7 @@
         <v>0.5</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.35</v>
@@ -28605,7 +28605,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR129" t="n">
         <v>1.86</v>
@@ -31221,7 +31221,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR141" t="n">
         <v>1.83</v>
@@ -31872,7 +31872,7 @@
         <v>0.29</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.53</v>
@@ -32526,10 +32526,10 @@
         <v>2</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR147" t="n">
         <v>1.64</v>
@@ -32744,7 +32744,7 @@
         <v>2.29</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.18</v>
@@ -34488,7 +34488,7 @@
         <v>0.71</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.75</v>
@@ -35360,7 +35360,7 @@
         <v>1.29</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.31</v>
@@ -36886,7 +36886,7 @@
         <v>0.57</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.5600000000000001</v>
@@ -37107,7 +37107,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR168" t="n">
         <v>1.84</v>
@@ -38194,7 +38194,7 @@
         <v>1.44</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.69</v>
@@ -39284,7 +39284,7 @@
         <v>0.88</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.8100000000000001</v>
@@ -39502,7 +39502,7 @@
         <v>1.44</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.41</v>
@@ -41031,7 +41031,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR186" t="n">
         <v>1.71</v>
@@ -41467,7 +41467,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR188" t="n">
         <v>1.7</v>
@@ -42118,7 +42118,7 @@
         <v>1</v>
       </c>
       <c r="AP191" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.06</v>
@@ -42772,7 +42772,7 @@
         <v>1</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.12</v>
@@ -43862,7 +43862,7 @@
         <v>1.6</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.41</v>
@@ -45391,7 +45391,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR206" t="n">
         <v>1.42</v>
@@ -45827,7 +45827,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR208" t="n">
         <v>1.17</v>
@@ -46478,7 +46478,7 @@
         <v>1.6</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.18</v>
@@ -47132,7 +47132,7 @@
         <v>1.73</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.18</v>
@@ -47350,10 +47350,10 @@
         <v>0.67</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR215" t="n">
         <v>1.46</v>
@@ -50187,7 +50187,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR228" t="n">
         <v>1.67</v>
@@ -51492,7 +51492,7 @@
         <v>0.64</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ234" t="n">
         <v>0.5600000000000001</v>
@@ -52367,7 +52367,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR238" t="n">
         <v>1.91</v>
@@ -53457,7 +53457,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR243" t="n">
         <v>1.52</v>
@@ -53672,7 +53672,7 @@
         <v>0.42</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ244" t="n">
         <v>0.35</v>
@@ -53890,7 +53890,7 @@
         <v>0.83</v>
       </c>
       <c r="AP245" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.88</v>
@@ -54329,7 +54329,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR247" t="n">
         <v>1.73</v>
@@ -55637,7 +55637,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ253" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR253" t="n">
         <v>1.6</v>
@@ -56288,7 +56288,7 @@
         <v>1.17</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ256" t="n">
         <v>1.44</v>
@@ -58468,7 +58468,7 @@
         <v>0.85</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ266" t="n">
         <v>0.8100000000000001</v>
@@ -58904,7 +58904,7 @@
         <v>1.23</v>
       </c>
       <c r="AP268" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.18</v>
@@ -59558,7 +59558,7 @@
         <v>1.46</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ271" t="n">
         <v>1.18</v>
@@ -60869,7 +60869,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR277" t="n">
         <v>1.72</v>
@@ -61741,7 +61741,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ281" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR281" t="n">
         <v>1.96</v>
@@ -62174,7 +62174,7 @@
         <v>1.07</v>
       </c>
       <c r="AP283" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ283" t="n">
         <v>1.31</v>
@@ -62831,7 +62831,7 @@
         <v>1</v>
       </c>
       <c r="AQ286" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR286" t="n">
         <v>1.51</v>
@@ -63482,7 +63482,7 @@
         <v>0.36</v>
       </c>
       <c r="AP289" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ289" t="n">
         <v>0.35</v>
@@ -63700,7 +63700,7 @@
         <v>1.64</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ290" t="n">
         <v>1.69</v>
@@ -64572,7 +64572,7 @@
         <v>1.29</v>
       </c>
       <c r="AP294" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ294" t="n">
         <v>1.25</v>
@@ -65883,7 +65883,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ300" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR300" t="n">
         <v>1.88</v>
@@ -66755,7 +66755,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ304" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR304" t="n">
         <v>1.52</v>
@@ -68278,7 +68278,7 @@
         <v>0.73</v>
       </c>
       <c r="AP311" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ311" t="n">
         <v>0.75</v>
@@ -68935,7 +68935,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ314" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR314" t="n">
         <v>1.61</v>
@@ -69804,7 +69804,7 @@
         <v>1.33</v>
       </c>
       <c r="AP318" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ318" t="n">
         <v>1.44</v>
@@ -72063,6 +72063,660 @@
       </c>
       <c r="BP328" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>5414708</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>45221.75</v>
+      </c>
+      <c r="F329" t="n">
+        <v>33</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>1</v>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="n">
+        <v>2</v>
+      </c>
+      <c r="M329" t="n">
+        <v>1</v>
+      </c>
+      <c r="N329" t="n">
+        <v>3</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>['50', '62']</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q329" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R329" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S329" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T329" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U329" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V329" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X329" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL329" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM329" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN329" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BO329" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BP329" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>5414705</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>45221.75</v>
+      </c>
+      <c r="F330" t="n">
+        <v>33</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>1</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R330" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S330" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T330" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V330" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X330" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL330" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM330" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN330" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BO330" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BP330" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>5414703</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45222.83333333334</v>
+      </c>
+      <c r="F331" t="n">
+        <v>33</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>0</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R331" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S331" t="n">
+        <v>4</v>
+      </c>
+      <c r="T331" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V331" t="n">
+        <v>4</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X331" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL331" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM331" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN331" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO331" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP331" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP331"/>
+  <dimension ref="A1:BP332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.41</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.06</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.13</v>
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.5600000000000001</v>
@@ -21408,7 +21408,7 @@
         <v>2</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.18</v>
@@ -24460,7 +24460,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ110" t="n">
         <v>1</v>
@@ -30128,7 +30128,7 @@
         <v>1</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.44</v>
@@ -34270,7 +34270,7 @@
         <v>1.71</v>
       </c>
       <c r="AP155" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.18</v>
@@ -38848,7 +38848,7 @@
         <v>0.78</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.12</v>
@@ -42990,7 +42990,7 @@
         <v>0.4</v>
       </c>
       <c r="AP195" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.35</v>
@@ -50402,7 +50402,7 @@
         <v>0.82</v>
       </c>
       <c r="AP229" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.88</v>
@@ -51710,7 +51710,7 @@
         <v>0.91</v>
       </c>
       <c r="AP235" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ235" t="n">
         <v>1.06</v>
@@ -56506,7 +56506,7 @@
         <v>0.83</v>
       </c>
       <c r="AP257" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ257" t="n">
         <v>0.8100000000000001</v>
@@ -60212,7 +60212,7 @@
         <v>1.15</v>
       </c>
       <c r="AP274" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ274" t="n">
         <v>1.25</v>
@@ -65662,7 +65662,7 @@
         <v>0.79</v>
       </c>
       <c r="AP299" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ299" t="n">
         <v>0.75</v>
@@ -68496,7 +68496,7 @@
         <v>1.2</v>
       </c>
       <c r="AP312" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ312" t="n">
         <v>1.31</v>
@@ -72717,6 +72717,224 @@
       </c>
       <c r="BP331" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>5414722</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45225.79166666666</v>
+      </c>
+      <c r="F332" t="n">
+        <v>34</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>1</v>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="n">
+        <v>1</v>
+      </c>
+      <c r="N332" t="n">
+        <v>2</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R332" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S332" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T332" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U332" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V332" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X332" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL332" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM332" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN332" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO332" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP332" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP332"/>
+  <dimension ref="A1:BP335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.69</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.12</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.88</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR24" t="n">
         <v>2.3</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR27" t="n">
         <v>2.12</v>
@@ -7459,7 +7459,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -10944,7 +10944,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.41</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.8100000000000001</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.06</v>
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.5600000000000001</v>
@@ -12691,7 +12691,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR56" t="n">
         <v>1.37</v>
@@ -13127,7 +13127,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR58" t="n">
         <v>1.33</v>
@@ -13345,7 +13345,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR59" t="n">
         <v>1.3</v>
@@ -14217,7 +14217,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR63" t="n">
         <v>1.52</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ77" t="n">
         <v>1</v>
@@ -17487,7 +17487,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR78" t="n">
         <v>1.81</v>
@@ -17705,7 +17705,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR79" t="n">
         <v>1.63</v>
@@ -18577,7 +18577,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR83" t="n">
         <v>1.53</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.18</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -21193,7 +21193,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR95" t="n">
         <v>1.55</v>
@@ -21844,7 +21844,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.06</v>
@@ -22065,7 +22065,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.12</v>
@@ -25114,7 +25114,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.8100000000000001</v>
@@ -25332,7 +25332,7 @@
         <v>1.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.06</v>
@@ -25771,7 +25771,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR116" t="n">
         <v>1.72</v>
@@ -25989,7 +25989,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR117" t="n">
         <v>2.02</v>
@@ -27297,7 +27297,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR123" t="n">
         <v>1.74</v>
@@ -28820,7 +28820,7 @@
         <v>2.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.41</v>
@@ -29041,7 +29041,7 @@
         <v>1</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR131" t="n">
         <v>1.54</v>
@@ -29692,10 +29692,10 @@
         <v>1.33</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR134" t="n">
         <v>1.89</v>
@@ -29910,7 +29910,7 @@
         <v>0.57</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ135" t="n">
         <v>1</v>
@@ -30349,7 +30349,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR137" t="n">
         <v>1.35</v>
@@ -30782,7 +30782,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.31</v>
@@ -33401,7 +33401,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -33616,7 +33616,7 @@
         <v>1</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.44</v>
@@ -33834,10 +33834,10 @@
         <v>1.57</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR153" t="n">
         <v>1.56</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.35</v>
@@ -34491,7 +34491,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR156" t="n">
         <v>1.68</v>
@@ -36017,7 +36017,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR163" t="n">
         <v>1.78</v>
@@ -38630,7 +38630,7 @@
         <v>0.44</v>
       </c>
       <c r="AP175" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.35</v>
@@ -39066,7 +39066,7 @@
         <v>1.56</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.24</v>
@@ -39723,7 +39723,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR180" t="n">
         <v>1.44</v>
@@ -40810,7 +40810,7 @@
         <v>1</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.44</v>
@@ -41249,7 +41249,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR187" t="n">
         <v>1.81</v>
@@ -41685,7 +41685,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR189" t="n">
         <v>1.21</v>
@@ -41900,7 +41900,7 @@
         <v>0.8</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.88</v>
@@ -43644,7 +43644,7 @@
         <v>1.4</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.24</v>
@@ -44301,7 +44301,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR201" t="n">
         <v>1.8</v>
@@ -44955,7 +44955,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR204" t="n">
         <v>1.8</v>
@@ -45173,7 +45173,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR205" t="n">
         <v>1.91</v>
@@ -45388,7 +45388,7 @@
         <v>1.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.06</v>
@@ -46917,7 +46917,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR213" t="n">
         <v>1.5</v>
@@ -47568,7 +47568,7 @@
         <v>0.64</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.53</v>
@@ -48440,7 +48440,7 @@
         <v>1.4</v>
       </c>
       <c r="AP220" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.31</v>
@@ -48661,7 +48661,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR221" t="n">
         <v>1.8</v>
@@ -49097,7 +49097,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR223" t="n">
         <v>1.56</v>
@@ -49966,7 +49966,7 @@
         <v>1.55</v>
       </c>
       <c r="AP227" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.69</v>
@@ -51059,7 +51059,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR232" t="n">
         <v>1.59</v>
@@ -51274,10 +51274,10 @@
         <v>1.27</v>
       </c>
       <c r="AP233" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR233" t="n">
         <v>1.36</v>
@@ -52364,7 +52364,7 @@
         <v>0.6</v>
       </c>
       <c r="AP238" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ238" t="n">
         <v>1</v>
@@ -52582,10 +52582,10 @@
         <v>0.82</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ239" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR239" t="n">
         <v>1.54</v>
@@ -55416,7 +55416,7 @@
         <v>1</v>
       </c>
       <c r="AP252" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ252" t="n">
         <v>0.88</v>
@@ -56724,7 +56724,7 @@
         <v>1.33</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ258" t="n">
         <v>1.18</v>
@@ -56942,10 +56942,10 @@
         <v>0.83</v>
       </c>
       <c r="AP259" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR259" t="n">
         <v>1.34</v>
@@ -57381,7 +57381,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR261" t="n">
         <v>1.5</v>
@@ -57814,7 +57814,7 @@
         <v>0.38</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ263" t="n">
         <v>0.35</v>
@@ -58689,7 +58689,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR267" t="n">
         <v>1.64</v>
@@ -59997,7 +59997,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR273" t="n">
         <v>1.82</v>
@@ -60215,7 +60215,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR274" t="n">
         <v>1.34</v>
@@ -61302,7 +61302,7 @@
         <v>0.62</v>
       </c>
       <c r="AP279" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ279" t="n">
         <v>0.5600000000000001</v>
@@ -61738,7 +61738,7 @@
         <v>1.31</v>
       </c>
       <c r="AP281" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ281" t="n">
         <v>1.06</v>
@@ -63267,7 +63267,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR288" t="n">
         <v>1.72</v>
@@ -63918,7 +63918,7 @@
         <v>0.57</v>
       </c>
       <c r="AP291" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ291" t="n">
         <v>0.53</v>
@@ -64575,7 +64575,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ294" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR294" t="n">
         <v>1.42</v>
@@ -65226,7 +65226,7 @@
         <v>1.36</v>
       </c>
       <c r="AP297" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ297" t="n">
         <v>1.18</v>
@@ -65447,7 +65447,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ298" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR298" t="n">
         <v>1.53</v>
@@ -65665,7 +65665,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR299" t="n">
         <v>1.32</v>
@@ -66098,7 +66098,7 @@
         <v>1.21</v>
       </c>
       <c r="AP301" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ301" t="n">
         <v>1.44</v>
@@ -67842,7 +67842,7 @@
         <v>1.33</v>
       </c>
       <c r="AP309" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ309" t="n">
         <v>1.24</v>
@@ -68281,7 +68281,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ311" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR311" t="n">
         <v>1.59</v>
@@ -68717,7 +68717,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ313" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR313" t="n">
         <v>1.87</v>
@@ -69150,7 +69150,7 @@
         <v>0.53</v>
       </c>
       <c r="AP315" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ315" t="n">
         <v>0.5600000000000001</v>
@@ -69586,7 +69586,7 @@
         <v>0.8</v>
       </c>
       <c r="AP317" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ317" t="n">
         <v>0.8100000000000001</v>
@@ -70461,7 +70461,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ321" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR321" t="n">
         <v>1.52</v>
@@ -72935,6 +72935,660 @@
       </c>
       <c r="BP332" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>5414719</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F333" t="n">
+        <v>34</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>1</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
+      <c r="K333" t="n">
+        <v>2</v>
+      </c>
+      <c r="L333" t="n">
+        <v>2</v>
+      </c>
+      <c r="M333" t="n">
+        <v>1</v>
+      </c>
+      <c r="N333" t="n">
+        <v>3</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>['10', '69']</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R333" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S333" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U333" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V333" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X333" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL333" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM333" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN333" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO333" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP333" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>5414717</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45226.89583333334</v>
+      </c>
+      <c r="F334" t="n">
+        <v>34</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>2</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>2</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>['55', '73']</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R334" t="n">
+        <v>2</v>
+      </c>
+      <c r="S334" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T334" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V334" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X334" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL334" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM334" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN334" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO334" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP334" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>5414713</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>45226.89583333334</v>
+      </c>
+      <c r="F335" t="n">
+        <v>34</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>1</v>
+      </c>
+      <c r="N335" t="n">
+        <v>1</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R335" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S335" t="n">
+        <v>6</v>
+      </c>
+      <c r="T335" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V335" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X335" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL335" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM335" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN335" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO335" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP335" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP335"/>
+  <dimension ref="A1:BP339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.06</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.18</v>
@@ -1791,7 +1791,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.5600000000000001</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.53</v>
@@ -3099,7 +3099,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR23" t="n">
         <v>1.81</v>
@@ -6151,7 +6151,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR26" t="n">
         <v>2.32</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.69</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.18</v>
@@ -7241,7 +7241,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.53</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.88</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.18</v>
@@ -11819,7 +11819,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR52" t="n">
         <v>1.65</v>
@@ -12037,7 +12037,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR53" t="n">
         <v>1.28</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.71</v>
@@ -12909,7 +12909,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR57" t="n">
         <v>1.79</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.18</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.18</v>
@@ -15086,7 +15086,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.06</v>
@@ -15743,7 +15743,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR70" t="n">
         <v>1.58</v>
@@ -16397,7 +16397,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR73" t="n">
         <v>1.72</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.88</v>
@@ -17048,7 +17048,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.06</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.18</v>
@@ -17920,7 +17920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.35</v>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR89" t="n">
         <v>1.55</v>
@@ -20536,10 +20536,10 @@
         <v>1.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR92" t="n">
         <v>1.85</v>
@@ -21626,10 +21626,10 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR97" t="n">
         <v>2.18</v>
@@ -22062,7 +22062,7 @@
         <v>0.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.18</v>
@@ -24027,7 +24027,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR108" t="n">
         <v>1.49</v>
@@ -24242,7 +24242,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.69</v>
@@ -24678,7 +24678,7 @@
         <v>0.83</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.12</v>
@@ -24896,10 +24896,10 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR112" t="n">
         <v>1.44</v>
@@ -25117,7 +25117,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR113" t="n">
         <v>1.99</v>
@@ -25550,10 +25550,10 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR115" t="n">
         <v>1.42</v>
@@ -29256,7 +29256,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.06</v>
@@ -29474,7 +29474,7 @@
         <v>0.67</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.5600000000000001</v>
@@ -30131,7 +30131,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR136" t="n">
         <v>1.31</v>
@@ -30346,7 +30346,7 @@
         <v>0.33</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.71</v>
@@ -30567,7 +30567,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR138" t="n">
         <v>1.73</v>
@@ -30785,7 +30785,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR139" t="n">
         <v>1.4</v>
@@ -31000,7 +31000,7 @@
         <v>1.29</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.69</v>
@@ -33619,7 +33619,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR152" t="n">
         <v>1.95</v>
@@ -34706,7 +34706,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.69</v>
@@ -34927,7 +34927,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR158" t="n">
         <v>1.81</v>
@@ -35363,7 +35363,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR160" t="n">
         <v>1.66</v>
@@ -35578,7 +35578,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.41</v>
@@ -35796,7 +35796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.12</v>
@@ -36668,7 +36668,7 @@
         <v>1.75</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.24</v>
@@ -38415,7 +38415,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR174" t="n">
         <v>1.74</v>
@@ -39287,7 +39287,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR178" t="n">
         <v>1.64</v>
@@ -40156,7 +40156,7 @@
         <v>0.67</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.53</v>
@@ -40374,7 +40374,7 @@
         <v>1.78</v>
       </c>
       <c r="AP183" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.18</v>
@@ -40592,7 +40592,7 @@
         <v>0.63</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ184" t="n">
         <v>1</v>
@@ -40813,7 +40813,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR185" t="n">
         <v>1.41</v>
@@ -41682,7 +41682,7 @@
         <v>1.38</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.24</v>
@@ -42339,7 +42339,7 @@
         <v>1</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR192" t="n">
         <v>1.51</v>
@@ -43211,7 +43211,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR196" t="n">
         <v>1.76</v>
@@ -44519,7 +44519,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR202" t="n">
         <v>1.52</v>
@@ -44734,7 +44734,7 @@
         <v>0.78</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.5600000000000001</v>
@@ -44952,7 +44952,7 @@
         <v>0.89</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ204" t="n">
         <v>0.71</v>
@@ -45170,7 +45170,7 @@
         <v>1.11</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.18</v>
@@ -45824,7 +45824,7 @@
         <v>0.63</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ208" t="n">
         <v>1</v>
@@ -46263,7 +46263,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR210" t="n">
         <v>1.76</v>
@@ -46696,7 +46696,7 @@
         <v>1.18</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.12</v>
@@ -48222,7 +48222,7 @@
         <v>1.55</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.41</v>
@@ -48443,7 +48443,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR220" t="n">
         <v>1.98</v>
@@ -48876,7 +48876,7 @@
         <v>0.45</v>
       </c>
       <c r="AP222" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ222" t="n">
         <v>0.35</v>
@@ -49530,7 +49530,7 @@
         <v>0.9</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ225" t="n">
         <v>1</v>
@@ -49751,7 +49751,7 @@
         <v>1</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR226" t="n">
         <v>1.48</v>
@@ -50620,10 +50620,10 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR230" t="n">
         <v>1.27</v>
@@ -50838,10 +50838,10 @@
         <v>1.27</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR231" t="n">
         <v>1.91</v>
@@ -51928,7 +51928,7 @@
         <v>1.45</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ236" t="n">
         <v>1.18</v>
@@ -52149,7 +52149,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ237" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR237" t="n">
         <v>1.61</v>
@@ -53018,7 +53018,7 @@
         <v>1.42</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ241" t="n">
         <v>1.24</v>
@@ -55855,7 +55855,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR254" t="n">
         <v>1.58</v>
@@ -56070,7 +56070,7 @@
         <v>0.58</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ255" t="n">
         <v>0.5600000000000001</v>
@@ -56291,7 +56291,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR256" t="n">
         <v>1.5</v>
@@ -56509,7 +56509,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR257" t="n">
         <v>1.38</v>
@@ -57160,7 +57160,7 @@
         <v>1.08</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ260" t="n">
         <v>1.06</v>
@@ -58250,7 +58250,7 @@
         <v>1.31</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ265" t="n">
         <v>1.24</v>
@@ -58471,7 +58471,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR266" t="n">
         <v>1.43</v>
@@ -59776,7 +59776,7 @@
         <v>0.93</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ272" t="n">
         <v>0.88</v>
@@ -59994,7 +59994,7 @@
         <v>0.77</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ273" t="n">
         <v>0.71</v>
@@ -60430,10 +60430,10 @@
         <v>1.15</v>
       </c>
       <c r="AP275" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR275" t="n">
         <v>1.7</v>
@@ -60651,7 +60651,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR276" t="n">
         <v>1.47</v>
@@ -62177,7 +62177,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ283" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR283" t="n">
         <v>1.41</v>
@@ -62392,7 +62392,7 @@
         <v>1.29</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ284" t="n">
         <v>1.41</v>
@@ -64354,10 +64354,10 @@
         <v>0.86</v>
       </c>
       <c r="AP293" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ293" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR293" t="n">
         <v>1.41</v>
@@ -65444,7 +65444,7 @@
         <v>1.21</v>
       </c>
       <c r="AP298" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ298" t="n">
         <v>1.24</v>
@@ -65880,7 +65880,7 @@
         <v>0.93</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ300" t="n">
         <v>1</v>
@@ -66101,7 +66101,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ301" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR301" t="n">
         <v>1.6</v>
@@ -68060,7 +68060,7 @@
         <v>1.4</v>
       </c>
       <c r="AP310" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ310" t="n">
         <v>1.41</v>
@@ -68499,7 +68499,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ312" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR312" t="n">
         <v>1.31</v>
@@ -68714,7 +68714,7 @@
         <v>1.2</v>
       </c>
       <c r="AP313" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ313" t="n">
         <v>1.24</v>
@@ -68932,7 +68932,7 @@
         <v>0.93</v>
       </c>
       <c r="AP314" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ314" t="n">
         <v>1</v>
@@ -69368,7 +69368,7 @@
         <v>1.07</v>
       </c>
       <c r="AP316" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ316" t="n">
         <v>1.06</v>
@@ -69589,7 +69589,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ317" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR317" t="n">
         <v>1.59</v>
@@ -69807,7 +69807,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ318" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR318" t="n">
         <v>1.39</v>
@@ -70240,7 +70240,7 @@
         <v>1</v>
       </c>
       <c r="AP320" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ320" t="n">
         <v>1</v>
@@ -73589,6 +73589,878 @@
       </c>
       <c r="BP335" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>5414715</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>45227.64583333334</v>
+      </c>
+      <c r="F336" t="n">
+        <v>34</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>3</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>3</v>
+      </c>
+      <c r="L336" t="n">
+        <v>3</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>3</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>['16', '35', '45+3']</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R336" t="n">
+        <v>2</v>
+      </c>
+      <c r="S336" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T336" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V336" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X336" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL336" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM336" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN336" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO336" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP336" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>5414716</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>45227.64583333334</v>
+      </c>
+      <c r="F337" t="n">
+        <v>34</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>0</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R337" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S337" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T337" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V337" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X337" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK337" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL337" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM337" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN337" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO337" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP337" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>5414714</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>45227.79166666666</v>
+      </c>
+      <c r="F338" t="n">
+        <v>34</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>2</v>
+      </c>
+      <c r="M338" t="n">
+        <v>1</v>
+      </c>
+      <c r="N338" t="n">
+        <v>3</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>['80', '90+4']</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R338" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S338" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T338" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V338" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X338" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL338" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM338" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN338" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO338" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP338" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>5414721</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>45228.77083333334</v>
+      </c>
+      <c r="F339" t="n">
+        <v>34</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
+      </c>
+      <c r="N339" t="n">
+        <v>2</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R339" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S339" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T339" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U339" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V339" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X339" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL339" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM339" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN339" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO339" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP339" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP339"/>
+  <dimension ref="A1:BP341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.71</v>
@@ -3971,7 +3971,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.35</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.35</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.71</v>
@@ -6805,7 +6805,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR29" t="n">
         <v>1.54</v>
@@ -9639,7 +9639,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR42" t="n">
         <v>1.61</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.18</v>
@@ -11165,7 +11165,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR49" t="n">
         <v>1.58</v>
@@ -12473,7 +12473,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR55" t="n">
         <v>1.46</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.35</v>
@@ -14868,10 +14868,10 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR66" t="n">
         <v>1.64</v>
@@ -16179,7 +16179,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR72" t="n">
         <v>1.49</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.06</v>
@@ -18141,7 +18141,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR81" t="n">
         <v>1.39</v>
@@ -19882,7 +19882,7 @@
         <v>0.33</v>
       </c>
       <c r="AP89" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.76</v>
@@ -20103,7 +20103,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR90" t="n">
         <v>1.57</v>
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.88</v>
@@ -22280,7 +22280,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.24</v>
@@ -24245,7 +24245,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR109" t="n">
         <v>1.88</v>
@@ -26204,7 +26204,7 @@
         <v>1.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.18</v>
@@ -26425,7 +26425,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR119" t="n">
         <v>1.64</v>
@@ -27079,7 +27079,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR122" t="n">
         <v>1.62</v>
@@ -27948,7 +27948,7 @@
         <v>1.6</v>
       </c>
       <c r="AP126" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.18</v>
@@ -29038,7 +29038,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.18</v>
@@ -29477,7 +29477,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR133" t="n">
         <v>1.98</v>
@@ -30564,7 +30564,7 @@
         <v>0.67</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.76</v>
@@ -31003,7 +31003,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR140" t="n">
         <v>1.33</v>
@@ -34709,7 +34709,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR157" t="n">
         <v>1.4</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.06</v>
@@ -36889,7 +36889,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR167" t="n">
         <v>1.63</v>
@@ -37322,7 +37322,7 @@
         <v>2</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.18</v>
@@ -37976,7 +37976,7 @@
         <v>0.89</v>
       </c>
       <c r="AP172" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.88</v>
@@ -38197,7 +38197,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR173" t="n">
         <v>1.59</v>
@@ -39941,7 +39941,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR181" t="n">
         <v>1.83</v>
@@ -41464,7 +41464,7 @@
         <v>0.71</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ188" t="n">
         <v>1</v>
@@ -42336,7 +42336,7 @@
         <v>1.22</v>
       </c>
       <c r="AP192" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.29</v>
@@ -42557,7 +42557,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR193" t="n">
         <v>1.55</v>
@@ -44737,7 +44737,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR203" t="n">
         <v>1.43</v>
@@ -45606,7 +45606,7 @@
         <v>0.7</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.53</v>
@@ -48007,7 +48007,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ218" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR218" t="n">
         <v>1.75</v>
@@ -49748,7 +49748,7 @@
         <v>0.8</v>
       </c>
       <c r="AP226" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ226" t="n">
         <v>1.35</v>
@@ -49969,7 +49969,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR227" t="n">
         <v>1.37</v>
@@ -50184,7 +50184,7 @@
         <v>1.45</v>
       </c>
       <c r="AP228" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.06</v>
@@ -51056,7 +51056,7 @@
         <v>1.45</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.24</v>
@@ -51495,7 +51495,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ234" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR234" t="n">
         <v>1.51</v>
@@ -52803,7 +52803,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR240" t="n">
         <v>1.7</v>
@@ -54762,7 +54762,7 @@
         <v>0.92</v>
       </c>
       <c r="AP249" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ249" t="n">
         <v>1</v>
@@ -55852,7 +55852,7 @@
         <v>1.17</v>
       </c>
       <c r="AP254" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.29</v>
@@ -56073,7 +56073,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR255" t="n">
         <v>1.29</v>
@@ -57596,7 +57596,7 @@
         <v>1.15</v>
       </c>
       <c r="AP262" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ262" t="n">
         <v>1.12</v>
@@ -59125,7 +59125,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR269" t="n">
         <v>1.69</v>
@@ -61305,7 +61305,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ279" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR279" t="n">
         <v>1.33</v>
@@ -61520,7 +61520,7 @@
         <v>0.92</v>
       </c>
       <c r="AP280" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ280" t="n">
         <v>1</v>
@@ -62828,7 +62828,7 @@
         <v>1.21</v>
       </c>
       <c r="AP286" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ286" t="n">
         <v>1.06</v>
@@ -63703,7 +63703,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ290" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR290" t="n">
         <v>1.46</v>
@@ -64790,10 +64790,10 @@
         <v>0.57</v>
       </c>
       <c r="AP295" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ295" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR295" t="n">
         <v>1.55</v>
@@ -66534,7 +66534,7 @@
         <v>0.53</v>
       </c>
       <c r="AP303" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ303" t="n">
         <v>0.53</v>
@@ -67191,7 +67191,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ306" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR306" t="n">
         <v>1.7</v>
@@ -69153,7 +69153,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ315" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR315" t="n">
         <v>1.91</v>
@@ -70022,7 +70022,7 @@
         <v>1.2</v>
       </c>
       <c r="AP319" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ319" t="n">
         <v>1.12</v>
@@ -73743,7 +73743,7 @@
         <v>2.62</v>
       </c>
       <c r="AU336" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV336" t="n">
         <v>7</v>
@@ -73752,13 +73752,13 @@
         <v>4</v>
       </c>
       <c r="AX336" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY336" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ336" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA336" t="n">
         <v>2</v>
@@ -73961,22 +73961,22 @@
         <v>2.84</v>
       </c>
       <c r="AU337" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV337" t="n">
         <v>2</v>
       </c>
       <c r="AW337" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX337" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY337" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ337" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA337" t="n">
         <v>9</v>
@@ -74179,22 +74179,22 @@
         <v>3.13</v>
       </c>
       <c r="AU338" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV338" t="n">
         <v>5</v>
       </c>
       <c r="AW338" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX338" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY338" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ338" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA338" t="n">
         <v>6</v>
@@ -74397,31 +74397,31 @@
         <v>2.62</v>
       </c>
       <c r="AU339" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV339" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW339" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX339" t="n">
         <v>10</v>
       </c>
       <c r="AY339" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ339" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA339" t="n">
         <v>4</v>
       </c>
       <c r="BB339" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC339" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD339" t="n">
         <v>1.66</v>
@@ -74461,6 +74461,442 @@
       </c>
       <c r="BP339" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>5414718</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>45228.79166666666</v>
+      </c>
+      <c r="F340" t="n">
+        <v>34</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>0</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R340" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S340" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T340" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V340" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X340" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL340" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM340" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN340" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO340" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP340" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>5414720</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45229.83333333334</v>
+      </c>
+      <c r="F341" t="n">
+        <v>34</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>1</v>
+      </c>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
+        <v>2</v>
+      </c>
+      <c r="N341" t="n">
+        <v>3</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>['45+7', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R341" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S341" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T341" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V341" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X341" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK341" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL341" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM341" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN341" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO341" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP341" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP341"/>
+  <dimension ref="A1:BP345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.24</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.53</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.06</v>
@@ -3535,7 +3535,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR22" t="n">
         <v>1.42</v>
@@ -6369,7 +6369,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR27" t="n">
         <v>2.12</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.18</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ33" t="n">
         <v>1</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR34" t="n">
         <v>1.82</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR35" t="n">
         <v>1.56</v>
@@ -8985,7 +8985,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR39" t="n">
         <v>1.29</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.24</v>
@@ -10075,7 +10075,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR44" t="n">
         <v>1.86</v>
@@ -10511,7 +10511,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR46" t="n">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.35</v>
@@ -11816,7 +11816,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.29</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.71</v>
@@ -13345,7 +13345,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR59" t="n">
         <v>1.3</v>
@@ -13778,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.41</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -14435,7 +14435,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR64" t="n">
         <v>1.47</v>
@@ -15307,7 +15307,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR68" t="n">
         <v>1.83</v>
@@ -16394,7 +16394,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.35</v>
@@ -16615,7 +16615,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR74" t="n">
         <v>2.16</v>
@@ -17048,7 +17048,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.06</v>
@@ -17487,7 +17487,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR78" t="n">
         <v>1.81</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.24</v>
@@ -19010,7 +19010,7 @@
         <v>1.67</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.18</v>
@@ -19231,7 +19231,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR86" t="n">
         <v>1.55</v>
@@ -19667,7 +19667,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR88" t="n">
         <v>2.06</v>
@@ -20757,7 +20757,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR93" t="n">
         <v>1.75</v>
@@ -20972,7 +20972,7 @@
         <v>0.8</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ94" t="n">
         <v>1</v>
@@ -21190,7 +21190,7 @@
         <v>0.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.71</v>
@@ -21411,7 +21411,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR96" t="n">
         <v>1.5</v>
@@ -22062,10 +22062,10 @@
         <v>0.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.06</v>
@@ -23155,7 +23155,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR104" t="n">
         <v>1.56</v>
@@ -23373,7 +23373,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR105" t="n">
         <v>2</v>
@@ -24681,7 +24681,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR111" t="n">
         <v>1.88</v>
@@ -25550,7 +25550,7 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.29</v>
@@ -25771,7 +25771,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR116" t="n">
         <v>1.72</v>
@@ -26422,7 +26422,7 @@
         <v>0.2</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.71</v>
@@ -26861,7 +26861,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR121" t="n">
         <v>1.49</v>
@@ -27294,7 +27294,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.71</v>
@@ -28169,7 +28169,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR127" t="n">
         <v>1.97</v>
@@ -28384,7 +28384,7 @@
         <v>0.33</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.53</v>
@@ -29041,7 +29041,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR131" t="n">
         <v>1.54</v>
@@ -31000,7 +31000,7 @@
         <v>1.29</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.65</v>
@@ -31436,7 +31436,7 @@
         <v>1.86</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.24</v>
@@ -32308,7 +32308,7 @@
         <v>1.86</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.41</v>
@@ -32747,7 +32747,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -32962,10 +32962,10 @@
         <v>0.57</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR149" t="n">
         <v>1.83</v>
@@ -33183,7 +33183,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR150" t="n">
         <v>1.54</v>
@@ -33401,7 +33401,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -35799,7 +35799,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR162" t="n">
         <v>1.81</v>
@@ -36014,10 +36014,10 @@
         <v>1</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR163" t="n">
         <v>1.78</v>
@@ -36235,7 +36235,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR164" t="n">
         <v>1.85</v>
@@ -36450,7 +36450,7 @@
         <v>0.63</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.53</v>
@@ -36668,7 +36668,7 @@
         <v>1.75</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.24</v>
@@ -37104,7 +37104,7 @@
         <v>1.75</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.06</v>
@@ -37325,7 +37325,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR169" t="n">
         <v>1.75</v>
@@ -37979,7 +37979,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR172" t="n">
         <v>1.52</v>
@@ -38412,7 +38412,7 @@
         <v>1.25</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.29</v>
@@ -38851,7 +38851,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR176" t="n">
         <v>1.49</v>
@@ -39938,7 +39938,7 @@
         <v>0.88</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.71</v>
@@ -40377,7 +40377,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR183" t="n">
         <v>1.86</v>
@@ -41028,7 +41028,7 @@
         <v>1.67</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.06</v>
@@ -41249,7 +41249,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR187" t="n">
         <v>1.81</v>
@@ -41682,7 +41682,7 @@
         <v>1.38</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.24</v>
@@ -41903,7 +41903,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR190" t="n">
         <v>1.53</v>
@@ -42775,7 +42775,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR194" t="n">
         <v>1.58</v>
@@ -43208,7 +43208,7 @@
         <v>0.78</v>
       </c>
       <c r="AP196" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.76</v>
@@ -44080,7 +44080,7 @@
         <v>0.89</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ200" t="n">
         <v>1</v>
@@ -45173,7 +45173,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR205" t="n">
         <v>1.91</v>
@@ -45824,7 +45824,7 @@
         <v>0.63</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ208" t="n">
         <v>1</v>
@@ -46042,10 +46042,10 @@
         <v>1.9</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR209" t="n">
         <v>1.66</v>
@@ -46260,7 +46260,7 @@
         <v>0.8</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ210" t="n">
         <v>0.76</v>
@@ -46699,7 +46699,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR212" t="n">
         <v>1.39</v>
@@ -47135,7 +47135,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR214" t="n">
         <v>1.6</v>
@@ -47786,7 +47786,7 @@
         <v>1.27</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.24</v>
@@ -48004,7 +48004,7 @@
         <v>0.7</v>
       </c>
       <c r="AP218" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ218" t="n">
         <v>0.71</v>
@@ -48222,7 +48222,7 @@
         <v>1.55</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.41</v>
@@ -48661,7 +48661,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR221" t="n">
         <v>1.8</v>
@@ -50405,7 +50405,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR229" t="n">
         <v>1.41</v>
@@ -50620,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.35</v>
@@ -51277,7 +51277,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR233" t="n">
         <v>1.36</v>
@@ -52146,7 +52146,7 @@
         <v>0.82</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ237" t="n">
         <v>0.76</v>
@@ -52800,7 +52800,7 @@
         <v>1.67</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.65</v>
@@ -53893,7 +53893,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR245" t="n">
         <v>1.58</v>
@@ -54111,7 +54111,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR246" t="n">
         <v>1.69</v>
@@ -54547,7 +54547,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR248" t="n">
         <v>1.49</v>
@@ -54980,7 +54980,7 @@
         <v>1.42</v>
       </c>
       <c r="AP250" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ250" t="n">
         <v>1.41</v>
@@ -55419,7 +55419,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR252" t="n">
         <v>1.99</v>
@@ -55634,7 +55634,7 @@
         <v>1</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ253" t="n">
         <v>1</v>
@@ -56070,7 +56070,7 @@
         <v>0.58</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ255" t="n">
         <v>0.71</v>
@@ -57381,7 +57381,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR261" t="n">
         <v>1.5</v>
@@ -57599,7 +57599,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR262" t="n">
         <v>1.48</v>
@@ -58686,7 +58686,7 @@
         <v>1.33</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ267" t="n">
         <v>1.24</v>
@@ -59122,7 +59122,7 @@
         <v>1.77</v>
       </c>
       <c r="AP269" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ269" t="n">
         <v>1.65</v>
@@ -59561,7 +59561,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR271" t="n">
         <v>1.48</v>
@@ -59776,10 +59776,10 @@
         <v>0.93</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ272" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR272" t="n">
         <v>1.34</v>
@@ -60215,7 +60215,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR274" t="n">
         <v>1.34</v>
@@ -61084,7 +61084,7 @@
         <v>1.23</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ278" t="n">
         <v>1.06</v>
@@ -62610,7 +62610,7 @@
         <v>1.21</v>
       </c>
       <c r="AP285" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ285" t="n">
         <v>1.18</v>
@@ -63049,7 +63049,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ287" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR287" t="n">
         <v>1.52</v>
@@ -64136,7 +64136,7 @@
         <v>1.14</v>
       </c>
       <c r="AP292" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ292" t="n">
         <v>1.06</v>
@@ -64354,7 +64354,7 @@
         <v>0.86</v>
       </c>
       <c r="AP293" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ293" t="n">
         <v>0.76</v>
@@ -64575,7 +64575,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ294" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR294" t="n">
         <v>1.42</v>
@@ -65008,7 +65008,7 @@
         <v>1.13</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ296" t="n">
         <v>1.18</v>
@@ -65229,7 +65229,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ297" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR297" t="n">
         <v>1.41</v>
@@ -66316,7 +66316,7 @@
         <v>0.33</v>
       </c>
       <c r="AP302" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ302" t="n">
         <v>0.35</v>
@@ -66970,10 +66970,10 @@
         <v>0.93</v>
       </c>
       <c r="AP305" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ305" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR305" t="n">
         <v>1.69</v>
@@ -67409,7 +67409,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ307" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR307" t="n">
         <v>1.67</v>
@@ -70025,7 +70025,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ319" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR319" t="n">
         <v>1.54</v>
@@ -70240,7 +70240,7 @@
         <v>1</v>
       </c>
       <c r="AP320" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ320" t="n">
         <v>1</v>
@@ -70458,10 +70458,10 @@
         <v>1.27</v>
       </c>
       <c r="AP321" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ321" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR321" t="n">
         <v>1.52</v>
@@ -70894,7 +70894,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP323" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ323" t="n">
         <v>0.53</v>
@@ -71330,10 +71330,10 @@
         <v>1.13</v>
       </c>
       <c r="AP325" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ325" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR325" t="n">
         <v>1.6</v>
@@ -71551,7 +71551,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ326" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR326" t="n">
         <v>1.45</v>
@@ -71984,7 +71984,7 @@
         <v>0.31</v>
       </c>
       <c r="AP328" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ328" t="n">
         <v>0.35</v>
@@ -72641,7 +72641,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ331" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR331" t="n">
         <v>1.37</v>
@@ -73077,7 +73077,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ333" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR333" t="n">
         <v>1.63</v>
@@ -74382,7 +74382,7 @@
         <v>1.06</v>
       </c>
       <c r="AP339" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ339" t="n">
         <v>1.06</v>
@@ -74897,6 +74897,878 @@
       </c>
       <c r="BP341" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>5414724</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45231.83333333334</v>
+      </c>
+      <c r="F342" t="n">
+        <v>35</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>1</v>
+      </c>
+      <c r="J342" t="n">
+        <v>2</v>
+      </c>
+      <c r="K342" t="n">
+        <v>3</v>
+      </c>
+      <c r="L342" t="n">
+        <v>2</v>
+      </c>
+      <c r="M342" t="n">
+        <v>2</v>
+      </c>
+      <c r="N342" t="n">
+        <v>4</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>['23', '48']</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>['16', '42']</t>
+        </is>
+      </c>
+      <c r="Q342" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R342" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S342" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="T342" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U342" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V342" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W342" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X342" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ342" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA342" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB342" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC342" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD342" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE342" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF342" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG342" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH342" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ342" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK342" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL342" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM342" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN342" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO342" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP342" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>5414727</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>45233.79166666666</v>
+      </c>
+      <c r="F343" t="n">
+        <v>35</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>1</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="n">
+        <v>2</v>
+      </c>
+      <c r="M343" t="n">
+        <v>1</v>
+      </c>
+      <c r="N343" t="n">
+        <v>3</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>['45+5', '46']</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q343" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R343" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S343" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T343" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U343" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V343" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W343" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X343" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ343" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK343" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL343" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM343" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN343" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO343" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP343" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ343" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR343" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS343" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT343" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU343" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV343" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW343" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX343" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY343" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ343" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA343" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB343" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC343" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD343" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE343" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF343" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BG343" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH343" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI343" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ343" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK343" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL343" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM343" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN343" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO343" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP343" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>5414731</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>45233.89583333334</v>
+      </c>
+      <c r="F344" t="n">
+        <v>35</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N344" t="n">
+        <v>0</v>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q344" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R344" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S344" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T344" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U344" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V344" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W344" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X344" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD344" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE344" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF344" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG344" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AH344" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI344" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ344" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK344" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL344" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AM344" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN344" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO344" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP344" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ344" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR344" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS344" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT344" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU344" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV344" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW344" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX344" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY344" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ344" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA344" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB344" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC344" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD344" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE344" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF344" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG344" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH344" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI344" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ344" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK344" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL344" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM344" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN344" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO344" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP344" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="n">
+        <v>5414730</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>45233.89583333334</v>
+      </c>
+      <c r="F345" t="n">
+        <v>35</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>1</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="n">
+        <v>2</v>
+      </c>
+      <c r="M345" t="n">
+        <v>1</v>
+      </c>
+      <c r="N345" t="n">
+        <v>3</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>['18', '90+11']</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q345" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R345" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S345" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T345" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U345" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V345" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W345" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X345" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB345" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AC345" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD345" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE345" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF345" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG345" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH345" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI345" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ345" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK345" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL345" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM345" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN345" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO345" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP345" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ345" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR345" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS345" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT345" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU345" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV345" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW345" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX345" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY345" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ345" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA345" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB345" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC345" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD345" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE345" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF345" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BG345" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH345" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI345" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ345" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK345" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL345" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM345" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN345" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO345" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP345" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP345"/>
+  <dimension ref="A1:BP349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.35</v>
@@ -2227,7 +2227,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.71</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.76</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.18</v>
@@ -4843,7 +4843,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR20" t="n">
         <v>1.44</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.35</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.29</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.06</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.24</v>
@@ -8549,7 +8549,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR37" t="n">
         <v>2.28</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.41</v>
@@ -9203,7 +9203,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR40" t="n">
         <v>1.98</v>
@@ -9421,7 +9421,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR41" t="n">
         <v>1.49</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.65</v>
@@ -10290,7 +10290,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.06</v>
@@ -11165,7 +11165,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR49" t="n">
         <v>1.58</v>
@@ -12473,7 +12473,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR55" t="n">
         <v>1.46</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.35</v>
@@ -13999,7 +13999,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR62" t="n">
         <v>1.28</v>
@@ -14650,7 +14650,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.53</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.11</v>
@@ -15525,7 +15525,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR69" t="n">
         <v>1.55</v>
@@ -15740,7 +15740,7 @@
         <v>2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.29</v>
@@ -15961,7 +15961,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR71" t="n">
         <v>2.1</v>
@@ -16179,7 +16179,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR72" t="n">
         <v>1.49</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.06</v>
@@ -17702,7 +17702,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.71</v>
@@ -18792,10 +18792,10 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR84" t="n">
         <v>1.75</v>
@@ -20100,10 +20100,10 @@
         <v>0</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR90" t="n">
         <v>1.57</v>
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.83</v>
@@ -20975,7 +20975,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR94" t="n">
         <v>1.65</v>
@@ -22283,7 +22283,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR100" t="n">
         <v>1.6</v>
@@ -22498,7 +22498,7 @@
         <v>0.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.53</v>
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.83</v>
@@ -23591,7 +23591,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR106" t="n">
         <v>1.84</v>
@@ -23806,7 +23806,7 @@
         <v>0.6</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.35</v>
@@ -25768,7 +25768,7 @@
         <v>1.25</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.11</v>
@@ -26204,7 +26204,7 @@
         <v>1.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.18</v>
@@ -26425,7 +26425,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR119" t="n">
         <v>1.64</v>
@@ -26643,7 +26643,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR120" t="n">
         <v>1.66</v>
@@ -27512,10 +27512,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR124" t="n">
         <v>1.49</v>
@@ -28602,7 +28602,7 @@
         <v>2.17</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.06</v>
@@ -29477,7 +29477,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR133" t="n">
         <v>1.98</v>
@@ -29913,7 +29913,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR135" t="n">
         <v>1.57</v>
@@ -30564,7 +30564,7 @@
         <v>0.67</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.76</v>
@@ -31439,7 +31439,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR142" t="n">
         <v>1.84</v>
@@ -31654,7 +31654,7 @@
         <v>1.5</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.18</v>
@@ -32744,7 +32744,7 @@
         <v>2.29</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.17</v>
@@ -33180,7 +33180,7 @@
         <v>0.86</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.11</v>
@@ -36232,7 +36232,7 @@
         <v>0.88</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.83</v>
@@ -36671,7 +36671,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR166" t="n">
         <v>1.3</v>
@@ -36886,10 +36886,10 @@
         <v>0.57</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR167" t="n">
         <v>1.63</v>
@@ -37322,7 +37322,7 @@
         <v>2</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.17</v>
@@ -37540,7 +37540,7 @@
         <v>1.88</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.18</v>
@@ -38194,7 +38194,7 @@
         <v>1.44</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.65</v>
@@ -39069,7 +39069,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR177" t="n">
         <v>1.56</v>
@@ -39941,7 +39941,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR181" t="n">
         <v>1.83</v>
@@ -40595,7 +40595,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR184" t="n">
         <v>1.38</v>
@@ -41246,7 +41246,7 @@
         <v>0.88</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.11</v>
@@ -41464,7 +41464,7 @@
         <v>0.71</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ188" t="n">
         <v>1</v>
@@ -42554,7 +42554,7 @@
         <v>1.4</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.65</v>
@@ -43647,7 +43647,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR198" t="n">
         <v>2.01</v>
@@ -43862,7 +43862,7 @@
         <v>1.6</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.41</v>
@@ -44083,7 +44083,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR200" t="n">
         <v>1.79</v>
@@ -44298,7 +44298,7 @@
         <v>1.56</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.24</v>
@@ -44737,7 +44737,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR203" t="n">
         <v>1.43</v>
@@ -45606,7 +45606,7 @@
         <v>0.7</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.53</v>
@@ -47350,7 +47350,7 @@
         <v>0.67</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ215" t="n">
         <v>1</v>
@@ -47789,7 +47789,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR217" t="n">
         <v>1.64</v>
@@ -48007,7 +48007,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ218" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR218" t="n">
         <v>1.75</v>
@@ -49094,7 +49094,7 @@
         <v>0.8</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.71</v>
@@ -49312,7 +49312,7 @@
         <v>0.9</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.06</v>
@@ -49533,7 +49533,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR225" t="n">
         <v>1.88</v>
@@ -50184,7 +50184,7 @@
         <v>1.45</v>
       </c>
       <c r="AP228" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.06</v>
@@ -51056,7 +51056,7 @@
         <v>1.45</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.24</v>
@@ -51495,7 +51495,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ234" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR234" t="n">
         <v>1.51</v>
@@ -53021,7 +53021,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR241" t="n">
         <v>1.79</v>
@@ -53239,7 +53239,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR242" t="n">
         <v>1.48</v>
@@ -53454,7 +53454,7 @@
         <v>0.82</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ243" t="n">
         <v>1</v>
@@ -53672,7 +53672,7 @@
         <v>0.42</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ244" t="n">
         <v>0.35</v>
@@ -54108,7 +54108,7 @@
         <v>1.17</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ246" t="n">
         <v>1.11</v>
@@ -54765,7 +54765,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR249" t="n">
         <v>1.49</v>
@@ -55198,7 +55198,7 @@
         <v>0.58</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ251" t="n">
         <v>0.53</v>
@@ -55852,7 +55852,7 @@
         <v>1.17</v>
       </c>
       <c r="AP254" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.29</v>
@@ -56073,7 +56073,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR255" t="n">
         <v>1.29</v>
@@ -57378,7 +57378,7 @@
         <v>1.17</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ261" t="n">
         <v>1.11</v>
@@ -58253,7 +58253,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ265" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR265" t="n">
         <v>1.45</v>
@@ -58468,7 +58468,7 @@
         <v>0.85</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ266" t="n">
         <v>0.76</v>
@@ -60648,7 +60648,7 @@
         <v>1.31</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ276" t="n">
         <v>1.35</v>
@@ -60866,7 +60866,7 @@
         <v>1</v>
       </c>
       <c r="AP277" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ277" t="n">
         <v>1</v>
@@ -61305,7 +61305,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ279" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR279" t="n">
         <v>1.33</v>
@@ -61520,10 +61520,10 @@
         <v>0.92</v>
       </c>
       <c r="AP280" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR280" t="n">
         <v>1.53</v>
@@ -61956,10 +61956,10 @@
         <v>1.43</v>
       </c>
       <c r="AP282" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR282" t="n">
         <v>1.68</v>
@@ -62174,7 +62174,7 @@
         <v>1.07</v>
       </c>
       <c r="AP283" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ283" t="n">
         <v>1.29</v>
@@ -64790,10 +64790,10 @@
         <v>0.57</v>
       </c>
       <c r="AP295" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ295" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR295" t="n">
         <v>1.55</v>
@@ -67406,7 +67406,7 @@
         <v>1.27</v>
       </c>
       <c r="AP307" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ307" t="n">
         <v>1.17</v>
@@ -67624,10 +67624,10 @@
         <v>0.86</v>
       </c>
       <c r="AP308" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ308" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR308" t="n">
         <v>1.45</v>
@@ -67845,7 +67845,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ309" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR309" t="n">
         <v>1.4</v>
@@ -69153,7 +69153,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ315" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR315" t="n">
         <v>1.91</v>
@@ -69804,7 +69804,7 @@
         <v>1.33</v>
       </c>
       <c r="AP318" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ318" t="n">
         <v>1.35</v>
@@ -70022,7 +70022,7 @@
         <v>1.2</v>
       </c>
       <c r="AP319" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ319" t="n">
         <v>1.11</v>
@@ -70243,7 +70243,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ320" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR320" t="n">
         <v>1.38</v>
@@ -70679,7 +70679,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ322" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR322" t="n">
         <v>1.65</v>
@@ -71112,7 +71112,7 @@
         <v>1.31</v>
       </c>
       <c r="AP324" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ324" t="n">
         <v>1.41</v>
@@ -71548,7 +71548,7 @@
         <v>1.25</v>
       </c>
       <c r="AP326" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ326" t="n">
         <v>1.17</v>
@@ -72638,7 +72638,7 @@
         <v>0.88</v>
       </c>
       <c r="AP331" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ331" t="n">
         <v>0.83</v>
@@ -72859,7 +72859,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ332" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR332" t="n">
         <v>1.34</v>
@@ -74600,7 +74600,7 @@
         <v>1.69</v>
       </c>
       <c r="AP340" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ340" t="n">
         <v>1.65</v>
@@ -74821,7 +74821,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ341" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR341" t="n">
         <v>1.51</v>
@@ -75769,6 +75769,878 @@
       </c>
       <c r="BP345" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="n">
+        <v>5414723</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E346" s="2" t="n">
+        <v>45234.70833333334</v>
+      </c>
+      <c r="F346" t="n">
+        <v>35</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>1</v>
+      </c>
+      <c r="N346" t="n">
+        <v>1</v>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q346" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R346" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S346" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T346" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U346" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V346" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W346" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X346" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AB346" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AC346" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD346" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE346" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF346" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG346" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH346" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI346" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ346" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK346" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL346" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM346" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN346" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO346" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP346" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ346" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR346" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS346" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT346" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU346" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV346" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW346" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX346" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY346" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ346" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA346" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB346" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC346" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD346" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE346" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF346" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG346" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH346" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI346" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ346" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK346" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL346" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM346" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN346" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO346" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP346" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>5414726</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>45234.70833333334</v>
+      </c>
+      <c r="F347" t="n">
+        <v>35</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>1</v>
+      </c>
+      <c r="J347" t="n">
+        <v>1</v>
+      </c>
+      <c r="K347" t="n">
+        <v>2</v>
+      </c>
+      <c r="L347" t="n">
+        <v>2</v>
+      </c>
+      <c r="M347" t="n">
+        <v>2</v>
+      </c>
+      <c r="N347" t="n">
+        <v>4</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>['9', '78']</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>['44', '68']</t>
+        </is>
+      </c>
+      <c r="Q347" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R347" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S347" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T347" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U347" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V347" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W347" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X347" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD347" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE347" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF347" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG347" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH347" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI347" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ347" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK347" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL347" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM347" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN347" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO347" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP347" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ347" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR347" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS347" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT347" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU347" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV347" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW347" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX347" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY347" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ347" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA347" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB347" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC347" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD347" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE347" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF347" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG347" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH347" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI347" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ347" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK347" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL347" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM347" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN347" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO347" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP347" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>5414729</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>45234.8125</v>
+      </c>
+      <c r="F348" t="n">
+        <v>35</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>1</v>
+      </c>
+      <c r="J348" t="n">
+        <v>1</v>
+      </c>
+      <c r="K348" t="n">
+        <v>2</v>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="n">
+        <v>2</v>
+      </c>
+      <c r="N348" t="n">
+        <v>3</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>['43', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q348" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R348" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S348" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T348" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U348" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V348" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W348" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X348" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB348" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AC348" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD348" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE348" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF348" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AG348" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH348" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI348" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ348" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK348" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL348" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM348" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN348" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO348" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP348" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ348" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR348" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS348" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT348" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU348" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV348" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW348" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX348" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY348" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ348" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA348" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB348" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC348" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD348" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE348" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF348" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BG348" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH348" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI348" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ348" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK348" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL348" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM348" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN348" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO348" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP348" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>5414728</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>45235.75</v>
+      </c>
+      <c r="F349" t="n">
+        <v>35</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" t="n">
+        <v>1</v>
+      </c>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="n">
+        <v>1</v>
+      </c>
+      <c r="N349" t="n">
+        <v>2</v>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q349" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R349" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S349" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T349" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U349" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V349" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W349" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X349" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB349" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC349" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD349" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE349" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF349" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG349" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AH349" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI349" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ349" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK349" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL349" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM349" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN349" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AO349" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP349" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ349" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR349" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS349" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT349" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU349" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV349" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW349" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX349" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY349" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ349" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA349" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB349" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC349" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD349" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE349" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF349" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG349" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH349" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI349" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ349" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK349" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL349" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM349" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN349" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO349" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP349" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP349"/>
+  <dimension ref="A1:BP351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.83</v>
@@ -2445,7 +2445,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.11</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.76</v>
@@ -7677,7 +7677,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR33" t="n">
         <v>1.09</v>
@@ -8331,7 +8331,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR36" t="n">
         <v>0.72</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.83</v>
@@ -9854,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR43" t="n">
         <v>1.45</v>
@@ -11601,7 +11601,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR51" t="n">
         <v>2.21</v>
@@ -14653,7 +14653,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR65" t="n">
         <v>1.61</v>
@@ -15086,7 +15086,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.06</v>
@@ -15522,7 +15522,7 @@
         <v>2</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.22</v>
@@ -17269,7 +17269,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR77" t="n">
         <v>1.18</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.11</v>
@@ -18138,7 +18138,7 @@
         <v>0.75</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.65</v>
@@ -19449,7 +19449,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.65</v>
@@ -20321,7 +20321,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR91" t="n">
         <v>1.53</v>
@@ -20536,7 +20536,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.35</v>
@@ -22501,7 +22501,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR101" t="n">
         <v>1.75</v>
@@ -24024,7 +24024,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.29</v>
@@ -24242,7 +24242,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.65</v>
@@ -24463,7 +24463,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR110" t="n">
         <v>1.35</v>
@@ -26858,7 +26858,7 @@
         <v>0.5</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.83</v>
@@ -28387,7 +28387,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR128" t="n">
         <v>1.68</v>
@@ -29256,7 +29256,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.06</v>
@@ -31221,7 +31221,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR141" t="n">
         <v>1.83</v>
@@ -31875,7 +31875,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR144" t="n">
         <v>1.78</v>
@@ -32090,7 +32090,7 @@
         <v>0.57</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.35</v>
@@ -33398,7 +33398,7 @@
         <v>1.17</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.11</v>
@@ -35796,7 +35796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.11</v>
@@ -36453,7 +36453,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR165" t="n">
         <v>1.68</v>
@@ -39720,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.71</v>
@@ -40159,7 +40159,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR182" t="n">
         <v>1.95</v>
@@ -40374,7 +40374,7 @@
         <v>1.78</v>
       </c>
       <c r="AP183" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.17</v>
@@ -41467,7 +41467,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR188" t="n">
         <v>1.7</v>
@@ -44516,7 +44516,7 @@
         <v>0.89</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.35</v>
@@ -44952,7 +44952,7 @@
         <v>0.89</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ204" t="n">
         <v>0.71</v>
@@ -45609,7 +45609,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR207" t="n">
         <v>1.7</v>
@@ -45827,7 +45827,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR208" t="n">
         <v>1.17</v>
@@ -46914,7 +46914,7 @@
         <v>1.5</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.24</v>
@@ -47353,7 +47353,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR215" t="n">
         <v>1.46</v>
@@ -47571,7 +47571,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR216" t="n">
         <v>1.56</v>
@@ -48876,7 +48876,7 @@
         <v>0.45</v>
       </c>
       <c r="AP222" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ222" t="n">
         <v>0.35</v>
@@ -52367,7 +52367,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR238" t="n">
         <v>1.91</v>
@@ -53018,7 +53018,7 @@
         <v>1.42</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ241" t="n">
         <v>1.22</v>
@@ -53236,7 +53236,7 @@
         <v>0.91</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.11</v>
@@ -53457,7 +53457,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR243" t="n">
         <v>1.52</v>
@@ -54544,7 +54544,7 @@
         <v>1.58</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ248" t="n">
         <v>1.17</v>
@@ -55201,7 +55201,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR251" t="n">
         <v>1.51</v>
@@ -55637,7 +55637,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ253" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR253" t="n">
         <v>1.6</v>
@@ -58035,7 +58035,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ264" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR264" t="n">
         <v>1.73</v>
@@ -59340,7 +59340,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ270" t="n">
         <v>1.41</v>
@@ -60430,7 +60430,7 @@
         <v>1.15</v>
       </c>
       <c r="AP275" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ275" t="n">
         <v>1.29</v>
@@ -60869,7 +60869,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR277" t="n">
         <v>1.72</v>
@@ -63046,7 +63046,7 @@
         <v>1.29</v>
       </c>
       <c r="AP287" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ287" t="n">
         <v>1.11</v>
@@ -63921,7 +63921,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ291" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR291" t="n">
         <v>1.94</v>
@@ -65883,7 +65883,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ300" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR300" t="n">
         <v>1.88</v>
@@ -66537,7 +66537,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ303" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR303" t="n">
         <v>1.48</v>
@@ -66752,7 +66752,7 @@
         <v>1.2</v>
       </c>
       <c r="AP304" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ304" t="n">
         <v>1.06</v>
@@ -68060,7 +68060,7 @@
         <v>1.4</v>
       </c>
       <c r="AP310" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ310" t="n">
         <v>1.41</v>
@@ -68932,10 +68932,10 @@
         <v>0.93</v>
       </c>
       <c r="AP314" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ314" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR314" t="n">
         <v>1.61</v>
@@ -70897,7 +70897,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ323" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR323" t="n">
         <v>1.69</v>
@@ -71766,7 +71766,7 @@
         <v>1.06</v>
       </c>
       <c r="AP327" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ327" t="n">
         <v>1.18</v>
@@ -72205,7 +72205,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ329" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR329" t="n">
         <v>1.6</v>
@@ -73728,7 +73728,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP336" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ336" t="n">
         <v>0.76</v>
@@ -76641,6 +76641,442 @@
       </c>
       <c r="BP349" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>5414732</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>45237.79166666666</v>
+      </c>
+      <c r="F350" t="n">
+        <v>35</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>2</v>
+      </c>
+      <c r="J350" t="n">
+        <v>1</v>
+      </c>
+      <c r="K350" t="n">
+        <v>3</v>
+      </c>
+      <c r="L350" t="n">
+        <v>3</v>
+      </c>
+      <c r="M350" t="n">
+        <v>2</v>
+      </c>
+      <c r="N350" t="n">
+        <v>5</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>['12', '45+5', '71']</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>['17', '74']</t>
+        </is>
+      </c>
+      <c r="Q350" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R350" t="n">
+        <v>2</v>
+      </c>
+      <c r="S350" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T350" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U350" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V350" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W350" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X350" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD350" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE350" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF350" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG350" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH350" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ350" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK350" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL350" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM350" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN350" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO350" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP350" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ350" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR350" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS350" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT350" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU350" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV350" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW350" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX350" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY350" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ350" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA350" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB350" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC350" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD350" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE350" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF350" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG350" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH350" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI350" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ350" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK350" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL350" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM350" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN350" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO350" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP350" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>5414725</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>45237.89583333334</v>
+      </c>
+      <c r="F351" t="n">
+        <v>35</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>1</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>1</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q351" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R351" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S351" t="n">
+        <v>11</v>
+      </c>
+      <c r="T351" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U351" t="n">
+        <v>3</v>
+      </c>
+      <c r="V351" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W351" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X351" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC351" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD351" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE351" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF351" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG351" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH351" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ351" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK351" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL351" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM351" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AN351" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO351" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AP351" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ351" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR351" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS351" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT351" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU351" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV351" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW351" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX351" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY351" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ351" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA351" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB351" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC351" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD351" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE351" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF351" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BG351" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH351" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI351" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ351" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK351" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL351" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM351" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN351" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO351" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP351" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP351"/>
+  <dimension ref="A1:BP353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.17</v>
@@ -1791,7 +1791,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR21" t="n">
         <v>1.71</v>
@@ -6151,7 +6151,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR26" t="n">
         <v>2.32</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.65</v>
@@ -10508,7 +10508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.11</v>
@@ -10729,7 +10729,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR47" t="n">
         <v>1.35</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.83</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.18</v>
@@ -12909,7 +12909,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR57" t="n">
         <v>1.79</v>
@@ -13563,7 +13563,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR60" t="n">
         <v>1.93</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.24</v>
@@ -16397,7 +16397,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR73" t="n">
         <v>1.72</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.83</v>
@@ -17923,7 +17923,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR80" t="n">
         <v>1.4</v>
@@ -19446,7 +19446,7 @@
         <v>0.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.5</v>
@@ -20539,7 +20539,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR92" t="n">
         <v>1.85</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.76</v>
@@ -23588,7 +23588,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.11</v>
@@ -23809,7 +23809,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR107" t="n">
         <v>1.87</v>
@@ -24678,7 +24678,7 @@
         <v>0.83</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.11</v>
@@ -24899,7 +24899,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR112" t="n">
         <v>1.44</v>
@@ -26640,7 +26640,7 @@
         <v>2</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.22</v>
@@ -27076,7 +27076,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.65</v>
@@ -27733,7 +27733,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR125" t="n">
         <v>1.76</v>
@@ -29474,7 +29474,7 @@
         <v>0.67</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.83</v>
@@ -30131,7 +30131,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR136" t="n">
         <v>1.31</v>
@@ -32093,7 +32093,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR145" t="n">
         <v>1.58</v>
@@ -32526,7 +32526,7 @@
         <v>2</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.06</v>
@@ -33619,7 +33619,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR152" t="n">
         <v>1.95</v>
@@ -34055,7 +34055,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR154" t="n">
         <v>1.38</v>
@@ -35360,7 +35360,7 @@
         <v>1.29</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.29</v>
@@ -35578,7 +35578,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.41</v>
@@ -38633,7 +38633,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR175" t="n">
         <v>1.99</v>
@@ -39502,7 +39502,7 @@
         <v>1.44</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.41</v>
@@ -40156,7 +40156,7 @@
         <v>0.67</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.5</v>
@@ -40813,7 +40813,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR185" t="n">
         <v>1.41</v>
@@ -42118,7 +42118,7 @@
         <v>1</v>
       </c>
       <c r="AP191" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.06</v>
@@ -42993,7 +42993,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR195" t="n">
         <v>1.43</v>
@@ -44519,7 +44519,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR202" t="n">
         <v>1.52</v>
@@ -45170,7 +45170,7 @@
         <v>1.11</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.11</v>
@@ -47132,7 +47132,7 @@
         <v>1.73</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.17</v>
@@ -48879,7 +48879,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ222" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR222" t="n">
         <v>1.79</v>
@@ -49530,7 +49530,7 @@
         <v>0.9</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ225" t="n">
         <v>1.11</v>
@@ -49751,7 +49751,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR226" t="n">
         <v>1.48</v>
@@ -50623,7 +50623,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR230" t="n">
         <v>1.27</v>
@@ -50838,7 +50838,7 @@
         <v>1.27</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.29</v>
@@ -53675,7 +53675,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR244" t="n">
         <v>1.49</v>
@@ -53890,7 +53890,7 @@
         <v>0.83</v>
       </c>
       <c r="AP245" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.83</v>
@@ -56291,7 +56291,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR256" t="n">
         <v>1.5</v>
@@ -57160,7 +57160,7 @@
         <v>1.08</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ260" t="n">
         <v>1.06</v>
@@ -57817,7 +57817,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ263" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR263" t="n">
         <v>1.59</v>
@@ -58904,7 +58904,7 @@
         <v>1.23</v>
       </c>
       <c r="AP268" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.18</v>
@@ -59994,7 +59994,7 @@
         <v>0.77</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ273" t="n">
         <v>0.71</v>
@@ -60651,7 +60651,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR276" t="n">
         <v>1.47</v>
@@ -63482,10 +63482,10 @@
         <v>0.36</v>
       </c>
       <c r="AP289" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ289" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR289" t="n">
         <v>1.57</v>
@@ -65880,7 +65880,7 @@
         <v>0.93</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ300" t="n">
         <v>0.9399999999999999</v>
@@ -66101,7 +66101,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ301" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR301" t="n">
         <v>1.6</v>
@@ -66319,7 +66319,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ302" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR302" t="n">
         <v>1.63</v>
@@ -68278,7 +68278,7 @@
         <v>0.73</v>
       </c>
       <c r="AP311" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ311" t="n">
         <v>0.71</v>
@@ -68714,7 +68714,7 @@
         <v>1.2</v>
       </c>
       <c r="AP313" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ313" t="n">
         <v>1.24</v>
@@ -69807,7 +69807,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ318" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR318" t="n">
         <v>1.39</v>
@@ -71987,7 +71987,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ328" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR328" t="n">
         <v>1.5</v>
@@ -72202,7 +72202,7 @@
         <v>1.06</v>
       </c>
       <c r="AP329" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AQ329" t="n">
         <v>0.9399999999999999</v>
@@ -74164,10 +74164,10 @@
         <v>1.44</v>
       </c>
       <c r="AP338" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ338" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR338" t="n">
         <v>1.87</v>
@@ -77077,6 +77077,442 @@
       </c>
       <c r="BP351" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>5414734</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>45240.79166666666</v>
+      </c>
+      <c r="F352" t="n">
+        <v>36</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>2</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
+      <c r="K352" t="n">
+        <v>2</v>
+      </c>
+      <c r="L352" t="n">
+        <v>4</v>
+      </c>
+      <c r="M352" t="n">
+        <v>1</v>
+      </c>
+      <c r="N352" t="n">
+        <v>5</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>['9', '31', '58', '63']</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q352" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R352" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S352" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="T352" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U352" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V352" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W352" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X352" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD352" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE352" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF352" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG352" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH352" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI352" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ352" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK352" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL352" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM352" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN352" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO352" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AP352" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ352" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR352" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS352" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT352" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU352" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV352" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW352" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX352" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY352" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ352" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA352" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB352" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC352" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD352" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE352" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF352" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG352" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH352" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI352" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ352" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK352" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL352" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM352" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN352" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BO352" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BP352" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>5414738</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>45240.89583333334</v>
+      </c>
+      <c r="F353" t="n">
+        <v>36</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>0</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N353" t="n">
+        <v>0</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q353" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R353" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S353" t="n">
+        <v>4</v>
+      </c>
+      <c r="T353" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U353" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V353" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W353" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X353" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD353" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE353" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF353" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG353" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH353" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI353" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ353" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK353" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL353" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM353" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN353" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO353" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP353" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ353" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR353" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS353" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT353" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU353" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV353" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW353" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX353" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY353" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ353" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA353" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB353" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC353" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD353" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE353" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF353" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BG353" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH353" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI353" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ353" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK353" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BL353" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BM353" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BN353" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BO353" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BP353" t="n">
+        <v>1.93</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP353"/>
+  <dimension ref="A1:BP361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.11</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.06</v>
@@ -2009,7 +2009,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.83</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.11</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.33</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.83</v>
@@ -5497,7 +5497,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR23" t="n">
         <v>1.81</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR24" t="n">
         <v>2.3</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.33</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.11</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.06</v>
@@ -6805,7 +6805,7 @@
         <v>2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR29" t="n">
         <v>1.54</v>
@@ -7023,7 +7023,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR30" t="n">
         <v>1.68</v>
@@ -7241,7 +7241,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.5</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.22</v>
@@ -8767,7 +8767,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR38" t="n">
         <v>1.46</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.11</v>
@@ -9639,7 +9639,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR42" t="n">
         <v>1.61</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.17</v>
@@ -10944,10 +10944,10 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR48" t="n">
         <v>1.71</v>
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR50" t="n">
         <v>1.54</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.9399999999999999</v>
@@ -11819,7 +11819,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR52" t="n">
         <v>1.65</v>
@@ -12034,10 +12034,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR53" t="n">
         <v>1.28</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.06</v>
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.83</v>
@@ -12691,7 +12691,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR56" t="n">
         <v>1.37</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR58" t="n">
         <v>1.33</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.11</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.33</v>
@@ -13781,7 +13781,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.39</v>
@@ -14217,7 +14217,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR63" t="n">
         <v>1.52</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.17</v>
@@ -14868,10 +14868,10 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR66" t="n">
         <v>1.64</v>
@@ -15743,7 +15743,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR70" t="n">
         <v>1.58</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.11</v>
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.83</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.9399999999999999</v>
@@ -17705,7 +17705,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR79" t="n">
         <v>1.63</v>
@@ -17920,7 +17920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.33</v>
@@ -18141,7 +18141,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR81" t="n">
         <v>1.39</v>
@@ -18356,10 +18356,10 @@
         <v>2.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR82" t="n">
         <v>1.93</v>
@@ -18577,7 +18577,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR83" t="n">
         <v>1.53</v>
@@ -19013,7 +19013,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR85" t="n">
         <v>1.57</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.17</v>
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.11</v>
@@ -19882,10 +19882,10 @@
         <v>0.33</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR89" t="n">
         <v>1.55</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.9399999999999999</v>
@@ -21193,7 +21193,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR95" t="n">
         <v>1.55</v>
@@ -21408,7 +21408,7 @@
         <v>2</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.17</v>
@@ -21629,7 +21629,7 @@
         <v>2</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR97" t="n">
         <v>2.18</v>
@@ -21844,7 +21844,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.06</v>
@@ -22280,7 +22280,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.22</v>
@@ -22716,10 +22716,10 @@
         <v>2</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR102" t="n">
         <v>1.99</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.11</v>
@@ -24027,7 +24027,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR108" t="n">
         <v>1.49</v>
@@ -24245,7 +24245,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR109" t="n">
         <v>1.88</v>
@@ -24460,7 +24460,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.9399999999999999</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.33</v>
@@ -25114,10 +25114,10 @@
         <v>0.8</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR113" t="n">
         <v>1.99</v>
@@ -25332,7 +25332,7 @@
         <v>1.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.06</v>
@@ -25553,7 +25553,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR115" t="n">
         <v>1.42</v>
@@ -25986,10 +25986,10 @@
         <v>1.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR117" t="n">
         <v>2.02</v>
@@ -26207,7 +26207,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR118" t="n">
         <v>1.71</v>
@@ -27079,7 +27079,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR122" t="n">
         <v>1.62</v>
@@ -27297,7 +27297,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR123" t="n">
         <v>1.74</v>
@@ -27730,7 +27730,7 @@
         <v>0.5</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.33</v>
@@ -27948,10 +27948,10 @@
         <v>1.6</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR126" t="n">
         <v>1.55</v>
@@ -28166,7 +28166,7 @@
         <v>2.17</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.17</v>
@@ -28820,10 +28820,10 @@
         <v>2.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR130" t="n">
         <v>1.51</v>
@@ -29038,7 +29038,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.11</v>
@@ -29692,10 +29692,10 @@
         <v>1.33</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR134" t="n">
         <v>1.89</v>
@@ -29910,7 +29910,7 @@
         <v>0.57</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.11</v>
@@ -30128,7 +30128,7 @@
         <v>1</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.33</v>
@@ -30346,10 +30346,10 @@
         <v>0.33</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR137" t="n">
         <v>1.35</v>
@@ -30567,7 +30567,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR138" t="n">
         <v>1.73</v>
@@ -30782,10 +30782,10 @@
         <v>1.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR139" t="n">
         <v>1.4</v>
@@ -31003,7 +31003,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR140" t="n">
         <v>1.33</v>
@@ -31218,7 +31218,7 @@
         <v>0.83</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.9399999999999999</v>
@@ -31657,7 +31657,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR143" t="n">
         <v>1.88</v>
@@ -31872,7 +31872,7 @@
         <v>0.29</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.5</v>
@@ -32311,7 +32311,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR146" t="n">
         <v>1.69</v>
@@ -33616,7 +33616,7 @@
         <v>1</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.33</v>
@@ -33834,10 +33834,10 @@
         <v>1.57</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR153" t="n">
         <v>1.56</v>
@@ -34052,7 +34052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.33</v>
@@ -34270,10 +34270,10 @@
         <v>1.71</v>
       </c>
       <c r="AP155" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR155" t="n">
         <v>1.31</v>
@@ -34488,10 +34488,10 @@
         <v>0.71</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR156" t="n">
         <v>1.68</v>
@@ -34706,10 +34706,10 @@
         <v>1.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR157" t="n">
         <v>1.4</v>
@@ -34924,10 +34924,10 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR158" t="n">
         <v>1.81</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.06</v>
@@ -35363,7 +35363,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR160" t="n">
         <v>1.66</v>
@@ -35581,7 +35581,7 @@
         <v>2</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR161" t="n">
         <v>2.02</v>
@@ -37543,7 +37543,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR170" t="n">
         <v>1.54</v>
@@ -37758,7 +37758,7 @@
         <v>1.13</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.06</v>
@@ -37976,7 +37976,7 @@
         <v>0.89</v>
       </c>
       <c r="AP172" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.83</v>
@@ -38197,7 +38197,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR173" t="n">
         <v>1.59</v>
@@ -38415,7 +38415,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR174" t="n">
         <v>1.74</v>
@@ -38630,7 +38630,7 @@
         <v>0.44</v>
       </c>
       <c r="AP175" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.33</v>
@@ -38848,7 +38848,7 @@
         <v>0.78</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.11</v>
@@ -39066,7 +39066,7 @@
         <v>1.56</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.22</v>
@@ -39284,10 +39284,10 @@
         <v>0.88</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR178" t="n">
         <v>1.64</v>
@@ -39505,7 +39505,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR179" t="n">
         <v>1.61</v>
@@ -39723,7 +39723,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR180" t="n">
         <v>1.44</v>
@@ -40592,7 +40592,7 @@
         <v>0.63</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.11</v>
@@ -40810,7 +40810,7 @@
         <v>1</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.33</v>
@@ -41685,7 +41685,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR189" t="n">
         <v>1.21</v>
@@ -41900,7 +41900,7 @@
         <v>0.8</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.83</v>
@@ -42336,10 +42336,10 @@
         <v>1.22</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR192" t="n">
         <v>1.51</v>
@@ -42557,7 +42557,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR193" t="n">
         <v>1.55</v>
@@ -42772,7 +42772,7 @@
         <v>1</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.11</v>
@@ -42990,7 +42990,7 @@
         <v>0.4</v>
       </c>
       <c r="AP195" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.33</v>
@@ -43211,7 +43211,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR196" t="n">
         <v>1.76</v>
@@ -43426,10 +43426,10 @@
         <v>1.67</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR197" t="n">
         <v>1.77</v>
@@ -43644,7 +43644,7 @@
         <v>1.4</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.22</v>
@@ -43865,7 +43865,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR199" t="n">
         <v>1.55</v>
@@ -44301,7 +44301,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR201" t="n">
         <v>1.8</v>
@@ -44734,7 +44734,7 @@
         <v>0.78</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.83</v>
@@ -44955,7 +44955,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR204" t="n">
         <v>1.8</v>
@@ -45388,7 +45388,7 @@
         <v>1.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.06</v>
@@ -46263,7 +46263,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR210" t="n">
         <v>1.76</v>
@@ -46478,10 +46478,10 @@
         <v>1.6</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR211" t="n">
         <v>1.57</v>
@@ -46696,7 +46696,7 @@
         <v>1.18</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.11</v>
@@ -46917,7 +46917,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR213" t="n">
         <v>1.5</v>
@@ -47568,7 +47568,7 @@
         <v>0.64</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.5</v>
@@ -48225,7 +48225,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR219" t="n">
         <v>1.24</v>
@@ -48440,10 +48440,10 @@
         <v>1.4</v>
       </c>
       <c r="AP220" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR220" t="n">
         <v>1.98</v>
@@ -48658,7 +48658,7 @@
         <v>1.3</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.11</v>
@@ -49097,7 +49097,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR223" t="n">
         <v>1.56</v>
@@ -49748,7 +49748,7 @@
         <v>0.8</v>
       </c>
       <c r="AP226" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ226" t="n">
         <v>1.33</v>
@@ -49966,10 +49966,10 @@
         <v>1.55</v>
       </c>
       <c r="AP227" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR227" t="n">
         <v>1.37</v>
@@ -50402,7 +50402,7 @@
         <v>0.82</v>
       </c>
       <c r="AP229" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.83</v>
@@ -50841,7 +50841,7 @@
         <v>2</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR231" t="n">
         <v>1.91</v>
@@ -51059,7 +51059,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR232" t="n">
         <v>1.59</v>
@@ -51274,7 +51274,7 @@
         <v>1.27</v>
       </c>
       <c r="AP233" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.11</v>
@@ -51492,7 +51492,7 @@
         <v>0.64</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ234" t="n">
         <v>0.83</v>
@@ -51710,7 +51710,7 @@
         <v>0.91</v>
       </c>
       <c r="AP235" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ235" t="n">
         <v>1.06</v>
@@ -51928,10 +51928,10 @@
         <v>1.45</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR236" t="n">
         <v>1.4</v>
@@ -52149,7 +52149,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ237" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR237" t="n">
         <v>1.61</v>
@@ -52364,7 +52364,7 @@
         <v>0.6</v>
       </c>
       <c r="AP238" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ238" t="n">
         <v>0.9399999999999999</v>
@@ -52582,10 +52582,10 @@
         <v>0.82</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ239" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR239" t="n">
         <v>1.54</v>
@@ -52803,7 +52803,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR240" t="n">
         <v>1.7</v>
@@ -54326,7 +54326,7 @@
         <v>1.33</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ247" t="n">
         <v>1.06</v>
@@ -54762,7 +54762,7 @@
         <v>0.92</v>
       </c>
       <c r="AP249" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ249" t="n">
         <v>1.11</v>
@@ -54983,7 +54983,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR250" t="n">
         <v>1.72</v>
@@ -55416,7 +55416,7 @@
         <v>1</v>
       </c>
       <c r="AP252" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ252" t="n">
         <v>0.83</v>
@@ -55855,7 +55855,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR254" t="n">
         <v>1.58</v>
@@ -56288,7 +56288,7 @@
         <v>1.17</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ256" t="n">
         <v>1.33</v>
@@ -56506,10 +56506,10 @@
         <v>0.83</v>
       </c>
       <c r="AP257" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR257" t="n">
         <v>1.38</v>
@@ -56724,10 +56724,10 @@
         <v>1.33</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR258" t="n">
         <v>1.57</v>
@@ -56942,10 +56942,10 @@
         <v>0.83</v>
       </c>
       <c r="AP259" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR259" t="n">
         <v>1.34</v>
@@ -57596,7 +57596,7 @@
         <v>1.15</v>
       </c>
       <c r="AP262" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ262" t="n">
         <v>1.11</v>
@@ -57814,7 +57814,7 @@
         <v>0.38</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ263" t="n">
         <v>0.33</v>
@@ -58032,7 +58032,7 @@
         <v>0.62</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ264" t="n">
         <v>0.5</v>
@@ -58250,7 +58250,7 @@
         <v>1.31</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ265" t="n">
         <v>1.22</v>
@@ -58471,7 +58471,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR266" t="n">
         <v>1.43</v>
@@ -58689,7 +58689,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR267" t="n">
         <v>1.64</v>
@@ -58907,7 +58907,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR268" t="n">
         <v>1.61</v>
@@ -59125,7 +59125,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR269" t="n">
         <v>1.69</v>
@@ -59343,7 +59343,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ270" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR270" t="n">
         <v>1.48</v>
@@ -59558,7 +59558,7 @@
         <v>1.46</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ271" t="n">
         <v>1.17</v>
@@ -59997,7 +59997,7 @@
         <v>2</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR273" t="n">
         <v>1.82</v>
@@ -60212,7 +60212,7 @@
         <v>1.15</v>
       </c>
       <c r="AP274" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ274" t="n">
         <v>1.11</v>
@@ -60433,7 +60433,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR275" t="n">
         <v>1.7</v>
@@ -61302,7 +61302,7 @@
         <v>0.62</v>
       </c>
       <c r="AP279" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ279" t="n">
         <v>0.83</v>
@@ -61738,7 +61738,7 @@
         <v>1.31</v>
       </c>
       <c r="AP281" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ281" t="n">
         <v>1.06</v>
@@ -62177,7 +62177,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ283" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR283" t="n">
         <v>1.41</v>
@@ -62392,10 +62392,10 @@
         <v>1.29</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR284" t="n">
         <v>1.51</v>
@@ -62613,7 +62613,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ285" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR285" t="n">
         <v>1.71</v>
@@ -62828,7 +62828,7 @@
         <v>1.21</v>
       </c>
       <c r="AP286" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ286" t="n">
         <v>1.06</v>
@@ -63264,10 +63264,10 @@
         <v>1.23</v>
       </c>
       <c r="AP288" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR288" t="n">
         <v>1.72</v>
@@ -63700,10 +63700,10 @@
         <v>1.64</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ290" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR290" t="n">
         <v>1.46</v>
@@ -63918,7 +63918,7 @@
         <v>0.57</v>
       </c>
       <c r="AP291" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ291" t="n">
         <v>0.5</v>
@@ -64357,7 +64357,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ293" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR293" t="n">
         <v>1.41</v>
@@ -64572,7 +64572,7 @@
         <v>1.29</v>
       </c>
       <c r="AP294" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ294" t="n">
         <v>1.11</v>
@@ -65011,7 +65011,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ296" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR296" t="n">
         <v>1.58</v>
@@ -65226,7 +65226,7 @@
         <v>1.36</v>
       </c>
       <c r="AP297" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ297" t="n">
         <v>1.17</v>
@@ -65444,10 +65444,10 @@
         <v>1.21</v>
       </c>
       <c r="AP298" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ298" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR298" t="n">
         <v>1.53</v>
@@ -65662,10 +65662,10 @@
         <v>0.79</v>
       </c>
       <c r="AP299" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR299" t="n">
         <v>1.32</v>
@@ -66098,7 +66098,7 @@
         <v>1.21</v>
       </c>
       <c r="AP301" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ301" t="n">
         <v>1.33</v>
@@ -66534,7 +66534,7 @@
         <v>0.53</v>
       </c>
       <c r="AP303" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ303" t="n">
         <v>0.5</v>
@@ -67188,10 +67188,10 @@
         <v>1.73</v>
       </c>
       <c r="AP306" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ306" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR306" t="n">
         <v>1.7</v>
@@ -67842,7 +67842,7 @@
         <v>1.33</v>
       </c>
       <c r="AP309" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ309" t="n">
         <v>1.22</v>
@@ -68063,7 +68063,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ310" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR310" t="n">
         <v>1.62</v>
@@ -68281,7 +68281,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ311" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR311" t="n">
         <v>1.59</v>
@@ -68496,10 +68496,10 @@
         <v>1.2</v>
       </c>
       <c r="AP312" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ312" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR312" t="n">
         <v>1.31</v>
@@ -68717,7 +68717,7 @@
         <v>2</v>
       </c>
       <c r="AQ313" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR313" t="n">
         <v>1.87</v>
@@ -69150,7 +69150,7 @@
         <v>0.53</v>
       </c>
       <c r="AP315" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ315" t="n">
         <v>0.83</v>
@@ -69368,7 +69368,7 @@
         <v>1.07</v>
       </c>
       <c r="AP316" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ316" t="n">
         <v>1.06</v>
@@ -69586,10 +69586,10 @@
         <v>0.8</v>
       </c>
       <c r="AP317" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ317" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR317" t="n">
         <v>1.59</v>
@@ -70676,7 +70676,7 @@
         <v>1.31</v>
       </c>
       <c r="AP322" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ322" t="n">
         <v>1.22</v>
@@ -71115,7 +71115,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ324" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR324" t="n">
         <v>1.63</v>
@@ -71769,7 +71769,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ327" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR327" t="n">
         <v>1.49</v>
@@ -72420,7 +72420,7 @@
         <v>1.13</v>
       </c>
       <c r="AP330" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ330" t="n">
         <v>1.06</v>
@@ -72856,7 +72856,7 @@
         <v>1</v>
       </c>
       <c r="AP332" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ332" t="n">
         <v>1.11</v>
@@ -73074,7 +73074,7 @@
         <v>1.25</v>
       </c>
       <c r="AP333" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ333" t="n">
         <v>1.11</v>
@@ -73292,10 +73292,10 @@
         <v>0.75</v>
       </c>
       <c r="AP334" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ334" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR334" t="n">
         <v>1.88</v>
@@ -73510,10 +73510,10 @@
         <v>1.13</v>
       </c>
       <c r="AP335" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ335" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR335" t="n">
         <v>1.37</v>
@@ -73731,7 +73731,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ336" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR336" t="n">
         <v>1.62</v>
@@ -73946,10 +73946,10 @@
         <v>1.31</v>
       </c>
       <c r="AP337" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ337" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR337" t="n">
         <v>1.52</v>
@@ -74603,7 +74603,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ340" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR340" t="n">
         <v>1.55</v>
@@ -74818,7 +74818,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP341" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ341" t="n">
         <v>0.83</v>
@@ -77513,6 +77513,1750 @@
       </c>
       <c r="BP353" t="n">
         <v>1.93</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>5414736</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>45241.64583333334</v>
+      </c>
+      <c r="F354" t="n">
+        <v>36</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>2</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="n">
+        <v>2</v>
+      </c>
+      <c r="L354" t="n">
+        <v>2</v>
+      </c>
+      <c r="M354" t="n">
+        <v>1</v>
+      </c>
+      <c r="N354" t="n">
+        <v>3</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>['17', '42']</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q354" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R354" t="n">
+        <v>2</v>
+      </c>
+      <c r="S354" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T354" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U354" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V354" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W354" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X354" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD354" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE354" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF354" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG354" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH354" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI354" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ354" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK354" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL354" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM354" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN354" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO354" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AP354" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ354" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AR354" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS354" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT354" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU354" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV354" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW354" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX354" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY354" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ354" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA354" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB354" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC354" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD354" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE354" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF354" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG354" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH354" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI354" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ354" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK354" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL354" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM354" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN354" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO354" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP354" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>5414735</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>45241.70833333334</v>
+      </c>
+      <c r="F355" t="n">
+        <v>36</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>1</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K355" t="n">
+        <v>1</v>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="n">
+        <v>1</v>
+      </c>
+      <c r="N355" t="n">
+        <v>2</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q355" t="n">
+        <v>3</v>
+      </c>
+      <c r="R355" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S355" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T355" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U355" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V355" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W355" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X355" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC355" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD355" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE355" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF355" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG355" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AH355" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ355" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK355" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL355" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM355" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN355" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO355" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP355" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ355" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR355" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS355" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT355" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU355" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV355" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW355" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX355" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY355" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ355" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA355" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB355" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC355" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD355" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE355" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF355" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG355" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH355" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI355" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ355" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK355" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL355" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM355" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN355" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO355" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP355" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>5414740</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>45241.70833333334</v>
+      </c>
+      <c r="F356" t="n">
+        <v>36</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>2</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>2</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>['46', '80']</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q356" t="n">
+        <v>3</v>
+      </c>
+      <c r="R356" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S356" t="n">
+        <v>4</v>
+      </c>
+      <c r="T356" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U356" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V356" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W356" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X356" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH356" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI356" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AJ356" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK356" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL356" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM356" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN356" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP356" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ356" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR356" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS356" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT356" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU356" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV356" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW356" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX356" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY356" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ356" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA356" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB356" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC356" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD356" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE356" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF356" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BG356" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH356" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI356" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ356" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK356" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL356" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM356" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN356" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO356" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP356" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>5414741</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>45241.75</v>
+      </c>
+      <c r="F357" t="n">
+        <v>36</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>1</v>
+      </c>
+      <c r="N357" t="n">
+        <v>1</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q357" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R357" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S357" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T357" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U357" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V357" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W357" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X357" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD357" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE357" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF357" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG357" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH357" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI357" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ357" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK357" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL357" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM357" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN357" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO357" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP357" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ357" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR357" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS357" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT357" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU357" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV357" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW357" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX357" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY357" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ357" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA357" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB357" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC357" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD357" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE357" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF357" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG357" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH357" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI357" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ357" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK357" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BL357" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BM357" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN357" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BO357" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP357" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>5414739</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>45242.65625</v>
+      </c>
+      <c r="F358" t="n">
+        <v>36</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>2</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N358" t="n">
+        <v>2</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>['46', '70']</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q358" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R358" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S358" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T358" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U358" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V358" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W358" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X358" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD358" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE358" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF358" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG358" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH358" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI358" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ358" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK358" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL358" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM358" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN358" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP358" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ358" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR358" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS358" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT358" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU358" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV358" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW358" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX358" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY358" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ358" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA358" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB358" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC358" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD358" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE358" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF358" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG358" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH358" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI358" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ358" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK358" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL358" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM358" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN358" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO358" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP358" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>5414737</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>45242.75</v>
+      </c>
+      <c r="F359" t="n">
+        <v>36</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>1</v>
+      </c>
+      <c r="J359" t="n">
+        <v>1</v>
+      </c>
+      <c r="K359" t="n">
+        <v>2</v>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="n">
+        <v>2</v>
+      </c>
+      <c r="N359" t="n">
+        <v>3</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>['45+5', '90+9']</t>
+        </is>
+      </c>
+      <c r="Q359" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R359" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S359" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T359" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U359" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V359" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W359" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X359" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC359" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD359" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="AE359" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF359" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AG359" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH359" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI359" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ359" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK359" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL359" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM359" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN359" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AO359" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP359" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ359" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR359" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS359" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT359" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU359" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV359" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW359" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX359" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY359" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ359" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA359" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB359" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC359" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD359" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE359" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF359" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG359" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH359" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI359" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ359" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK359" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL359" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM359" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN359" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO359" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP359" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>5414733</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>45244.79166666666</v>
+      </c>
+      <c r="F360" t="n">
+        <v>36</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>0</v>
+      </c>
+      <c r="J360" t="n">
+        <v>1</v>
+      </c>
+      <c r="K360" t="n">
+        <v>1</v>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="n">
+        <v>1</v>
+      </c>
+      <c r="N360" t="n">
+        <v>2</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q360" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R360" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S360" t="n">
+        <v>4</v>
+      </c>
+      <c r="T360" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U360" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V360" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W360" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X360" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC360" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD360" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE360" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF360" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG360" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH360" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI360" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ360" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK360" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL360" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM360" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN360" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AO360" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP360" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ360" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR360" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS360" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT360" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU360" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV360" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW360" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX360" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY360" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ360" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA360" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB360" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC360" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD360" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE360" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF360" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BG360" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH360" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI360" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ360" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BK360" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL360" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM360" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN360" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO360" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BP360" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>5414742</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>45244.89583333334</v>
+      </c>
+      <c r="F361" t="n">
+        <v>36</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N361" t="n">
+        <v>0</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q361" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R361" t="n">
+        <v>2</v>
+      </c>
+      <c r="S361" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T361" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U361" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V361" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W361" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X361" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD361" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE361" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF361" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG361" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH361" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI361" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ361" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK361" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL361" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM361" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN361" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO361" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AP361" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AQ361" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR361" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS361" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT361" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU361" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV361" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW361" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX361" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY361" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ361" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA361" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB361" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC361" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD361" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE361" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF361" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BG361" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH361" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI361" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ361" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK361" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL361" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM361" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN361" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO361" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP361" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP361"/>
+  <dimension ref="A1:BP368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.83</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.5</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.11</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.33</v>
@@ -5715,7 +5715,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR24" t="n">
         <v>2.3</v>
@@ -6151,7 +6151,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR26" t="n">
         <v>2.32</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR27" t="n">
         <v>2.12</v>
@@ -6587,7 +6587,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>0.93</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.61</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.17</v>
@@ -7459,7 +7459,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR32" t="n">
         <v>1.83</v>
@@ -7677,7 +7677,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR33" t="n">
         <v>1.09</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR34" t="n">
         <v>1.82</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.11</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.5</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.83</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.22</v>
@@ -10075,7 +10075,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR44" t="n">
         <v>1.86</v>
@@ -10293,7 +10293,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.72</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.17</v>
@@ -11601,7 +11601,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR51" t="n">
         <v>2.21</v>
@@ -11816,7 +11816,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.22</v>
@@ -12688,10 +12688,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR56" t="n">
         <v>1.37</v>
@@ -12906,10 +12906,10 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR57" t="n">
         <v>1.79</v>
@@ -13127,7 +13127,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR58" t="n">
         <v>1.33</v>
@@ -13342,10 +13342,10 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR59" t="n">
         <v>1.3</v>
@@ -13778,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.5</v>
@@ -14217,7 +14217,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR63" t="n">
         <v>1.52</v>
@@ -14432,10 +14432,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR64" t="n">
         <v>1.47</v>
@@ -15086,10 +15086,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.51</v>
@@ -16394,10 +16394,10 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR73" t="n">
         <v>1.72</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.83</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.06</v>
@@ -17048,10 +17048,10 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
         <v>1.52</v>
@@ -17269,7 +17269,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR77" t="n">
         <v>1.18</v>
@@ -17484,10 +17484,10 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR78" t="n">
         <v>1.81</v>
@@ -17705,7 +17705,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR79" t="n">
         <v>1.63</v>
@@ -17920,7 +17920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.33</v>
@@ -18577,7 +18577,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR83" t="n">
         <v>1.53</v>
@@ -19010,7 +19010,7 @@
         <v>1.67</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.17</v>
@@ -19231,7 +19231,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR86" t="n">
         <v>1.55</v>
@@ -20321,7 +20321,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR91" t="n">
         <v>1.53</v>
@@ -20536,10 +20536,10 @@
         <v>1.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR92" t="n">
         <v>1.85</v>
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.83</v>
@@ -20972,7 +20972,7 @@
         <v>0.8</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.11</v>
@@ -21190,10 +21190,10 @@
         <v>0.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR95" t="n">
         <v>1.55</v>
@@ -21411,7 +21411,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR96" t="n">
         <v>1.5</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.72</v>
@@ -22062,10 +22062,10 @@
         <v>0.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -22937,7 +22937,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
         <v>1.63</v>
@@ -24242,7 +24242,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.61</v>
@@ -24463,7 +24463,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR110" t="n">
         <v>1.35</v>
@@ -24678,7 +24678,7 @@
         <v>0.83</v>
       </c>
       <c r="AP111" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.11</v>
@@ -24896,10 +24896,10 @@
         <v>1</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR112" t="n">
         <v>1.44</v>
@@ -25550,7 +25550,7 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.22</v>
@@ -25771,7 +25771,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR116" t="n">
         <v>1.72</v>
@@ -25989,7 +25989,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR117" t="n">
         <v>2.02</v>
@@ -26204,7 +26204,7 @@
         <v>1.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.17</v>
@@ -26422,7 +26422,7 @@
         <v>0.2</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.83</v>
@@ -27297,7 +27297,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR123" t="n">
         <v>1.74</v>
@@ -28169,7 +28169,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR127" t="n">
         <v>1.97</v>
@@ -28384,7 +28384,7 @@
         <v>0.33</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.5</v>
@@ -28605,7 +28605,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR129" t="n">
         <v>1.86</v>
@@ -29041,7 +29041,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR131" t="n">
         <v>1.54</v>
@@ -29256,7 +29256,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.06</v>
@@ -29474,7 +29474,7 @@
         <v>0.67</v>
       </c>
       <c r="AP133" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.83</v>
@@ -29695,7 +29695,7 @@
         <v>2</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR134" t="n">
         <v>1.89</v>
@@ -30131,7 +30131,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR136" t="n">
         <v>1.31</v>
@@ -30346,10 +30346,10 @@
         <v>0.33</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR137" t="n">
         <v>1.35</v>
@@ -30564,7 +30564,7 @@
         <v>0.67</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.72</v>
@@ -31000,7 +31000,7 @@
         <v>1.29</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.61</v>
@@ -31221,7 +31221,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR141" t="n">
         <v>1.83</v>
@@ -32308,7 +32308,7 @@
         <v>1.86</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.5</v>
@@ -32529,7 +32529,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR147" t="n">
         <v>1.64</v>
@@ -32747,7 +32747,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR148" t="n">
         <v>1.58</v>
@@ -32962,7 +32962,7 @@
         <v>0.57</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.83</v>
@@ -33401,7 +33401,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -33619,7 +33619,7 @@
         <v>2</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR152" t="n">
         <v>1.95</v>
@@ -33837,7 +33837,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR153" t="n">
         <v>1.56</v>
@@ -34491,7 +34491,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR156" t="n">
         <v>1.68</v>
@@ -34706,7 +34706,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.61</v>
@@ -35578,7 +35578,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.5</v>
@@ -35796,7 +35796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.11</v>
@@ -36017,7 +36017,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR163" t="n">
         <v>1.78</v>
@@ -36450,7 +36450,7 @@
         <v>0.63</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.5</v>
@@ -36668,7 +36668,7 @@
         <v>1.75</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.22</v>
@@ -37104,10 +37104,10 @@
         <v>1.75</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR168" t="n">
         <v>1.84</v>
@@ -37322,10 +37322,10 @@
         <v>2</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR169" t="n">
         <v>1.75</v>
@@ -39723,7 +39723,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR180" t="n">
         <v>1.44</v>
@@ -39938,7 +39938,7 @@
         <v>0.88</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.83</v>
@@ -40156,7 +40156,7 @@
         <v>0.67</v>
       </c>
       <c r="AP182" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.5</v>
@@ -40374,10 +40374,10 @@
         <v>1.78</v>
       </c>
       <c r="AP183" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR183" t="n">
         <v>1.86</v>
@@ -40592,7 +40592,7 @@
         <v>0.63</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.11</v>
@@ -40813,7 +40813,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR185" t="n">
         <v>1.41</v>
@@ -41028,10 +41028,10 @@
         <v>1.67</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR186" t="n">
         <v>1.71</v>
@@ -41249,7 +41249,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR187" t="n">
         <v>1.81</v>
@@ -41464,10 +41464,10 @@
         <v>0.71</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR188" t="n">
         <v>1.7</v>
@@ -41682,10 +41682,10 @@
         <v>1.38</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR189" t="n">
         <v>1.21</v>
@@ -44080,7 +44080,7 @@
         <v>0.89</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.11</v>
@@ -44301,7 +44301,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR201" t="n">
         <v>1.8</v>
@@ -44519,7 +44519,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR202" t="n">
         <v>1.52</v>
@@ -44734,7 +44734,7 @@
         <v>0.78</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.83</v>
@@ -44952,10 +44952,10 @@
         <v>0.89</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR204" t="n">
         <v>1.8</v>
@@ -45170,10 +45170,10 @@
         <v>1.11</v>
       </c>
       <c r="AP205" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR205" t="n">
         <v>1.91</v>
@@ -45391,7 +45391,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR206" t="n">
         <v>1.42</v>
@@ -45606,7 +45606,7 @@
         <v>0.7</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.5</v>
@@ -45824,10 +45824,10 @@
         <v>0.63</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR208" t="n">
         <v>1.17</v>
@@ -46042,10 +46042,10 @@
         <v>1.9</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR209" t="n">
         <v>1.66</v>
@@ -46260,7 +46260,7 @@
         <v>0.8</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ210" t="n">
         <v>0.72</v>
@@ -46696,7 +46696,7 @@
         <v>1.18</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.11</v>
@@ -46917,7 +46917,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR213" t="n">
         <v>1.5</v>
@@ -47135,7 +47135,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR214" t="n">
         <v>1.6</v>
@@ -47353,7 +47353,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ215" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR215" t="n">
         <v>1.46</v>
@@ -47786,7 +47786,7 @@
         <v>1.27</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.22</v>
@@ -48222,7 +48222,7 @@
         <v>1.55</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.5</v>
@@ -48661,7 +48661,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR221" t="n">
         <v>1.8</v>
@@ -48876,7 +48876,7 @@
         <v>0.45</v>
       </c>
       <c r="AP222" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ222" t="n">
         <v>0.33</v>
@@ -49097,7 +49097,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR223" t="n">
         <v>1.56</v>
@@ -49530,7 +49530,7 @@
         <v>0.9</v>
       </c>
       <c r="AP225" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ225" t="n">
         <v>1.11</v>
@@ -49751,7 +49751,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR226" t="n">
         <v>1.48</v>
@@ -50184,10 +50184,10 @@
         <v>1.45</v>
       </c>
       <c r="AP228" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR228" t="n">
         <v>1.67</v>
@@ -50620,10 +50620,10 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR230" t="n">
         <v>1.27</v>
@@ -50838,7 +50838,7 @@
         <v>1.27</v>
       </c>
       <c r="AP231" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.22</v>
@@ -51056,10 +51056,10 @@
         <v>1.45</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR232" t="n">
         <v>1.59</v>
@@ -51277,7 +51277,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR233" t="n">
         <v>1.36</v>
@@ -51928,7 +51928,7 @@
         <v>1.45</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ236" t="n">
         <v>1.17</v>
@@ -52146,7 +52146,7 @@
         <v>0.82</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ237" t="n">
         <v>0.72</v>
@@ -52367,7 +52367,7 @@
         <v>2</v>
       </c>
       <c r="AQ238" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR238" t="n">
         <v>1.91</v>
@@ -52585,7 +52585,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ239" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR239" t="n">
         <v>1.54</v>
@@ -52800,7 +52800,7 @@
         <v>1.67</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.61</v>
@@ -53018,7 +53018,7 @@
         <v>1.42</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ241" t="n">
         <v>1.22</v>
@@ -53457,7 +53457,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR243" t="n">
         <v>1.52</v>
@@ -54329,7 +54329,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR247" t="n">
         <v>1.73</v>
@@ -54547,7 +54547,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR248" t="n">
         <v>1.49</v>
@@ -55634,10 +55634,10 @@
         <v>1</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR253" t="n">
         <v>1.6</v>
@@ -55852,7 +55852,7 @@
         <v>1.17</v>
       </c>
       <c r="AP254" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.22</v>
@@ -56070,7 +56070,7 @@
         <v>0.58</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ255" t="n">
         <v>0.83</v>
@@ -56291,7 +56291,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR256" t="n">
         <v>1.5</v>
@@ -56945,7 +56945,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR259" t="n">
         <v>1.34</v>
@@ -57160,7 +57160,7 @@
         <v>1.08</v>
       </c>
       <c r="AP260" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ260" t="n">
         <v>1.06</v>
@@ -57381,7 +57381,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR261" t="n">
         <v>1.5</v>
@@ -58250,7 +58250,7 @@
         <v>1.31</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ265" t="n">
         <v>1.22</v>
@@ -58686,10 +58686,10 @@
         <v>1.33</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR267" t="n">
         <v>1.64</v>
@@ -59561,7 +59561,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR271" t="n">
         <v>1.48</v>
@@ -59776,7 +59776,7 @@
         <v>0.93</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ272" t="n">
         <v>0.83</v>
@@ -59994,10 +59994,10 @@
         <v>0.77</v>
       </c>
       <c r="AP273" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR273" t="n">
         <v>1.82</v>
@@ -60215,7 +60215,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR274" t="n">
         <v>1.34</v>
@@ -60430,7 +60430,7 @@
         <v>1.15</v>
       </c>
       <c r="AP275" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ275" t="n">
         <v>1.22</v>
@@ -60651,7 +60651,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR276" t="n">
         <v>1.47</v>
@@ -60869,7 +60869,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ277" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR277" t="n">
         <v>1.72</v>
@@ -61084,7 +61084,7 @@
         <v>1.23</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ278" t="n">
         <v>1.06</v>
@@ -61520,7 +61520,7 @@
         <v>0.92</v>
       </c>
       <c r="AP280" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ280" t="n">
         <v>1.11</v>
@@ -61741,7 +61741,7 @@
         <v>2</v>
       </c>
       <c r="AQ281" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR281" t="n">
         <v>1.96</v>
@@ -62392,7 +62392,7 @@
         <v>1.29</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ284" t="n">
         <v>1.5</v>
@@ -62831,7 +62831,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ286" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR286" t="n">
         <v>1.51</v>
@@ -63267,7 +63267,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR288" t="n">
         <v>1.72</v>
@@ -64136,7 +64136,7 @@
         <v>1.14</v>
       </c>
       <c r="AP292" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ292" t="n">
         <v>1.06</v>
@@ -64354,7 +64354,7 @@
         <v>0.86</v>
       </c>
       <c r="AP293" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ293" t="n">
         <v>0.72</v>
@@ -64575,7 +64575,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ294" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR294" t="n">
         <v>1.42</v>
@@ -64790,7 +64790,7 @@
         <v>0.57</v>
       </c>
       <c r="AP295" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ295" t="n">
         <v>0.83</v>
@@ -65008,7 +65008,7 @@
         <v>1.13</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ296" t="n">
         <v>1.17</v>
@@ -65229,7 +65229,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ297" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR297" t="n">
         <v>1.41</v>
@@ -65444,10 +65444,10 @@
         <v>1.21</v>
       </c>
       <c r="AP298" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ298" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR298" t="n">
         <v>1.53</v>
@@ -65665,7 +65665,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR299" t="n">
         <v>1.32</v>
@@ -65880,10 +65880,10 @@
         <v>0.93</v>
       </c>
       <c r="AP300" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ300" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR300" t="n">
         <v>1.88</v>
@@ -66101,7 +66101,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ301" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR301" t="n">
         <v>1.6</v>
@@ -66316,7 +66316,7 @@
         <v>0.33</v>
       </c>
       <c r="AP302" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ302" t="n">
         <v>0.33</v>
@@ -66755,7 +66755,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ304" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR304" t="n">
         <v>1.52</v>
@@ -67409,7 +67409,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ307" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR307" t="n">
         <v>1.67</v>
@@ -68060,7 +68060,7 @@
         <v>1.4</v>
       </c>
       <c r="AP310" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ310" t="n">
         <v>1.5</v>
@@ -68281,7 +68281,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ311" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR311" t="n">
         <v>1.59</v>
@@ -68714,10 +68714,10 @@
         <v>1.2</v>
       </c>
       <c r="AP313" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ313" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR313" t="n">
         <v>1.87</v>
@@ -68932,10 +68932,10 @@
         <v>0.93</v>
       </c>
       <c r="AP314" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ314" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR314" t="n">
         <v>1.61</v>
@@ -69368,7 +69368,7 @@
         <v>1.07</v>
       </c>
       <c r="AP316" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ316" t="n">
         <v>1.06</v>
@@ -69807,7 +69807,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ318" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR318" t="n">
         <v>1.39</v>
@@ -70022,7 +70022,7 @@
         <v>1.2</v>
       </c>
       <c r="AP319" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ319" t="n">
         <v>1.11</v>
@@ -70240,7 +70240,7 @@
         <v>1</v>
       </c>
       <c r="AP320" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ320" t="n">
         <v>1.11</v>
@@ -70458,10 +70458,10 @@
         <v>1.27</v>
       </c>
       <c r="AP321" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ321" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR321" t="n">
         <v>1.52</v>
@@ -71330,7 +71330,7 @@
         <v>1.13</v>
       </c>
       <c r="AP325" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ325" t="n">
         <v>1.11</v>
@@ -71551,7 +71551,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ326" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR326" t="n">
         <v>1.45</v>
@@ -71984,7 +71984,7 @@
         <v>0.31</v>
       </c>
       <c r="AP328" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ328" t="n">
         <v>0.33</v>
@@ -72205,7 +72205,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ329" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR329" t="n">
         <v>1.6</v>
@@ -72423,7 +72423,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ330" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR330" t="n">
         <v>1.41</v>
@@ -73077,7 +73077,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ333" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR333" t="n">
         <v>1.63</v>
@@ -73295,7 +73295,7 @@
         <v>2</v>
       </c>
       <c r="AQ334" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR334" t="n">
         <v>1.88</v>
@@ -73513,7 +73513,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ335" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR335" t="n">
         <v>1.37</v>
@@ -73728,7 +73728,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP336" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ336" t="n">
         <v>0.72</v>
@@ -73946,7 +73946,7 @@
         <v>1.31</v>
       </c>
       <c r="AP337" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ337" t="n">
         <v>1.22</v>
@@ -74164,10 +74164,10 @@
         <v>1.44</v>
       </c>
       <c r="AP338" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ338" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR338" t="n">
         <v>1.87</v>
@@ -74382,7 +74382,7 @@
         <v>1.06</v>
       </c>
       <c r="AP339" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ339" t="n">
         <v>1.06</v>
@@ -74600,7 +74600,7 @@
         <v>1.69</v>
       </c>
       <c r="AP340" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ340" t="n">
         <v>1.61</v>
@@ -75039,7 +75039,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ342" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR342" t="n">
         <v>1.67</v>
@@ -75254,10 +75254,10 @@
         <v>1.18</v>
       </c>
       <c r="AP343" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ343" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR343" t="n">
         <v>1.59</v>
@@ -75472,7 +75472,7 @@
         <v>1.12</v>
       </c>
       <c r="AP344" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ344" t="n">
         <v>1.11</v>
@@ -75690,7 +75690,7 @@
         <v>0.88</v>
       </c>
       <c r="AP345" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ345" t="n">
         <v>0.83</v>
@@ -76129,7 +76129,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ347" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR347" t="n">
         <v>1.41</v>
@@ -76562,7 +76562,7 @@
         <v>1.24</v>
       </c>
       <c r="AP349" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ349" t="n">
         <v>1.22</v>
@@ -76783,7 +76783,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ350" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR350" t="n">
         <v>1.49</v>
@@ -76998,7 +76998,7 @@
         <v>0.53</v>
       </c>
       <c r="AP351" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ351" t="n">
         <v>0.5</v>
@@ -77216,7 +77216,7 @@
         <v>0.35</v>
       </c>
       <c r="AP352" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ352" t="n">
         <v>0.33</v>
@@ -77437,7 +77437,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ353" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR353" t="n">
         <v>1.6</v>
@@ -77652,7 +77652,7 @@
         <v>0.76</v>
       </c>
       <c r="AP354" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ354" t="n">
         <v>0.72</v>
@@ -78091,7 +78091,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ356" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR356" t="n">
         <v>1.55</v>
@@ -78309,7 +78309,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ357" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR357" t="n">
         <v>1.64</v>
@@ -79257,6 +79257,1532 @@
       </c>
       <c r="BP361" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>5414746</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>45247.79166666666</v>
+      </c>
+      <c r="F362" t="n">
+        <v>37</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>0</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N362" t="n">
+        <v>0</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q362" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R362" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S362" t="n">
+        <v>5</v>
+      </c>
+      <c r="T362" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U362" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V362" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W362" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X362" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB362" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC362" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD362" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE362" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF362" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG362" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH362" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI362" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ362" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK362" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL362" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM362" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN362" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO362" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP362" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ362" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AR362" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS362" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT362" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU362" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV362" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW362" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX362" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY362" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ362" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA362" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB362" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC362" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD362" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE362" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF362" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BG362" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH362" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI362" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ362" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK362" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL362" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM362" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN362" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO362" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP362" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>5414751</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>45247.89583333334</v>
+      </c>
+      <c r="F363" t="n">
+        <v>37</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>1</v>
+      </c>
+      <c r="N363" t="n">
+        <v>1</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q363" t="n">
+        <v>5</v>
+      </c>
+      <c r="R363" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S363" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T363" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U363" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V363" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W363" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X363" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD363" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE363" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF363" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG363" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH363" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI363" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AJ363" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK363" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL363" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM363" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN363" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO363" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP363" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ363" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AR363" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS363" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT363" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU363" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV363" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW363" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX363" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY363" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ363" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA363" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB363" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC363" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD363" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE363" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF363" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG363" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH363" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI363" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ363" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK363" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL363" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM363" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN363" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO363" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP363" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>5414748</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>45248.70833333334</v>
+      </c>
+      <c r="F364" t="n">
+        <v>37</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>0</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N364" t="n">
+        <v>1</v>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q364" t="n">
+        <v>3</v>
+      </c>
+      <c r="R364" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S364" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T364" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U364" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V364" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="W364" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X364" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AB364" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AC364" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD364" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE364" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF364" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG364" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH364" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI364" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ364" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK364" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL364" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM364" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AN364" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO364" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP364" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ364" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AR364" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS364" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT364" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU364" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV364" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW364" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX364" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY364" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ364" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA364" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB364" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC364" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD364" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE364" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF364" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG364" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH364" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI364" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ364" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK364" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL364" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM364" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN364" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO364" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP364" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>5414750</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>45248.70833333334</v>
+      </c>
+      <c r="F365" t="n">
+        <v>37</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>0</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N365" t="n">
+        <v>0</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q365" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R365" t="n">
+        <v>2</v>
+      </c>
+      <c r="S365" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T365" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U365" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V365" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W365" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X365" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AB365" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC365" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD365" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE365" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF365" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG365" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH365" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI365" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ365" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK365" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL365" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM365" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN365" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO365" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP365" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ365" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AR365" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS365" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT365" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU365" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV365" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW365" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX365" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY365" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ365" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA365" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB365" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC365" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD365" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE365" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF365" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BG365" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH365" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI365" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ365" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK365" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL365" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM365" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN365" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO365" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP365" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>5414745</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="n">
+        <v>45248.70833333334</v>
+      </c>
+      <c r="F366" t="n">
+        <v>37</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>1</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
+      <c r="K366" t="n">
+        <v>1</v>
+      </c>
+      <c r="L366" t="n">
+        <v>3</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N366" t="n">
+        <v>3</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>['36', '81', '90+4']</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q366" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R366" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S366" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T366" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U366" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V366" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W366" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X366" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AB366" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="AC366" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD366" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE366" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF366" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG366" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH366" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI366" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ366" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK366" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL366" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM366" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AN366" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO366" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP366" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AQ366" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR366" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS366" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT366" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU366" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV366" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW366" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX366" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY366" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ366" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA366" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB366" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC366" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD366" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE366" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BF366" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG366" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH366" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI366" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ366" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK366" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL366" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM366" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN366" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO366" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP366" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>5414744</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E367" s="2" t="n">
+        <v>45248.70833333334</v>
+      </c>
+      <c r="F367" t="n">
+        <v>37</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>1</v>
+      </c>
+      <c r="J367" t="n">
+        <v>1</v>
+      </c>
+      <c r="K367" t="n">
+        <v>2</v>
+      </c>
+      <c r="L367" t="n">
+        <v>3</v>
+      </c>
+      <c r="M367" t="n">
+        <v>1</v>
+      </c>
+      <c r="N367" t="n">
+        <v>4</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>['2', '54', '56']</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q367" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R367" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S367" t="n">
+        <v>6</v>
+      </c>
+      <c r="T367" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U367" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V367" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W367" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X367" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD367" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE367" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF367" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG367" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH367" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI367" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ367" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK367" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL367" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM367" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN367" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO367" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP367" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ367" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR367" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS367" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT367" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU367" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV367" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW367" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX367" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY367" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ367" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA367" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB367" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC367" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD367" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE367" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF367" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BG367" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH367" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI367" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ367" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK367" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL367" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM367" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN367" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO367" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP367" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>5414747</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E368" s="2" t="n">
+        <v>45248.70833333334</v>
+      </c>
+      <c r="F368" t="n">
+        <v>37</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>2</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K368" t="n">
+        <v>2</v>
+      </c>
+      <c r="L368" t="n">
+        <v>4</v>
+      </c>
+      <c r="M368" t="n">
+        <v>1</v>
+      </c>
+      <c r="N368" t="n">
+        <v>5</v>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>['3', '45+2', '49', '80']</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q368" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R368" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S368" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T368" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U368" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V368" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W368" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X368" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AB368" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AC368" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD368" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE368" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF368" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG368" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AH368" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI368" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ368" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK368" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL368" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM368" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN368" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO368" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP368" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ368" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AR368" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS368" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT368" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU368" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV368" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW368" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX368" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY368" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ368" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA368" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB368" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC368" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD368" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE368" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF368" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG368" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH368" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI368" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ368" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK368" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL368" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM368" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN368" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO368" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP368" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -47801,31 +47801,31 @@
         <v>3.31</v>
       </c>
       <c r="AU217" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW217" t="n">
         <v>5</v>
-      </c>
-      <c r="AV217" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW217" t="n">
-        <v>6</v>
       </c>
       <c r="AX217" t="n">
         <v>4</v>
       </c>
       <c r="AY217" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ217" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA217" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB217" t="n">
         <v>5</v>
       </c>
       <c r="BC217" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD217" t="n">
         <v>1.7</v>
@@ -52152,13 +52152,13 @@
         <v>0.68</v>
       </c>
       <c r="AR237" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AS237" t="n">
         <v>1.21</v>
       </c>
       <c r="AT237" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU237" t="n">
         <v>2</v>
@@ -53027,10 +53027,10 @@
         <v>1.79</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AT241" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="AU241" t="n">
         <v>2</v>
@@ -55640,13 +55640,13 @@
         <v>0.95</v>
       </c>
       <c r="AR253" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AS253" t="n">
         <v>1.29</v>
       </c>
       <c r="AT253" t="n">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="AU253" t="n">
         <v>4</v>
@@ -58259,10 +58259,10 @@
         <v>1.45</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AT265" t="n">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="AU265" t="n">
         <v>7</v>
@@ -61090,13 +61090,13 @@
         <v>1</v>
       </c>
       <c r="AR278" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AS278" t="n">
         <v>1.26</v>
       </c>
       <c r="AT278" t="n">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="AU278" t="n">
         <v>7</v>
@@ -61965,10 +61965,10 @@
         <v>1.68</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AT282" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="AU282" t="n">
         <v>6</v>
@@ -65014,13 +65014,13 @@
         <v>1.11</v>
       </c>
       <c r="AR296" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AS296" t="n">
         <v>1.15</v>
       </c>
       <c r="AT296" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="AU296" t="n">
         <v>3</v>
@@ -67851,10 +67851,10 @@
         <v>1.4</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AT309" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU309" t="n">
         <v>3</v>
@@ -70464,13 +70464,13 @@
         <v>1.05</v>
       </c>
       <c r="AR321" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AS321" t="n">
         <v>1.31</v>
       </c>
       <c r="AT321" t="n">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU321" t="n">
         <v>4</v>
@@ -70685,10 +70685,10 @@
         <v>1.65</v>
       </c>
       <c r="AS322" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT322" t="n">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="AU322" t="n">
         <v>4</v>
@@ -71990,13 +71990,13 @@
         <v>0.47</v>
       </c>
       <c r="AR328" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AS328" t="n">
         <v>1.19</v>
       </c>
       <c r="AT328" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="AU328" t="n">
         <v>9</v>
@@ -75696,13 +75696,13 @@
         <v>0.84</v>
       </c>
       <c r="AR345" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AS345" t="n">
         <v>1.23</v>
       </c>
       <c r="AT345" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="AU345" t="n">
         <v>10</v>
@@ -76571,10 +76571,10 @@
         <v>1.51</v>
       </c>
       <c r="AS349" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AT349" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="AU349" t="n">
         <v>6</v>
@@ -80056,13 +80056,13 @@
         <v>0.84</v>
       </c>
       <c r="AR365" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AS365" t="n">
         <v>1.13</v>
       </c>
       <c r="AT365" t="n">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="AU365" t="n">
         <v>6</v>
@@ -83547,10 +83547,10 @@
         <v>1.34</v>
       </c>
       <c r="AS381" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AT381" t="n">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="AU381" t="n">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie B_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
